--- a/vs/scattered successful looukp.xlsx
+++ b/vs/scattered successful looukp.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.202693</v>
+        <v>0.252408</v>
       </c>
       <c r="C2" t="n">
-        <v>0.180903</v>
+        <v>0.214705</v>
       </c>
       <c r="D2" t="n">
-        <v>0.201517</v>
+        <v>0.257042</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.208335</v>
+        <v>0.256391</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194317</v>
+        <v>0.239759</v>
       </c>
       <c r="D3" t="n">
-        <v>0.202464</v>
+        <v>0.260982</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.214075</v>
+        <v>0.261994</v>
       </c>
       <c r="C4" t="n">
-        <v>0.196157</v>
+        <v>0.224327</v>
       </c>
       <c r="D4" t="n">
-        <v>0.226542</v>
+        <v>0.262954</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.21661</v>
+        <v>0.273874</v>
       </c>
       <c r="C5" t="n">
-        <v>0.204592</v>
+        <v>0.229756</v>
       </c>
       <c r="D5" t="n">
-        <v>0.232462</v>
+        <v>0.270529</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.22795</v>
+        <v>0.292004</v>
       </c>
       <c r="C6" t="n">
-        <v>0.209303</v>
+        <v>0.243653</v>
       </c>
       <c r="D6" t="n">
-        <v>0.228017</v>
+        <v>0.274696</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.224149</v>
+        <v>0.289156</v>
       </c>
       <c r="C7" t="n">
-        <v>0.151834</v>
+        <v>0.203742</v>
       </c>
       <c r="D7" t="n">
-        <v>0.182094</v>
+        <v>0.23294</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.227052</v>
+        <v>0.284002</v>
       </c>
       <c r="C8" t="n">
-        <v>0.158102</v>
+        <v>0.214764</v>
       </c>
       <c r="D8" t="n">
-        <v>0.189632</v>
+        <v>0.233658</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.230577</v>
+        <v>0.309116</v>
       </c>
       <c r="C9" t="n">
-        <v>0.169732</v>
+        <v>0.207871</v>
       </c>
       <c r="D9" t="n">
-        <v>0.193526</v>
+        <v>0.242761</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.233574</v>
+        <v>0.330494</v>
       </c>
       <c r="C10" t="n">
-        <v>0.164279</v>
+        <v>0.215487</v>
       </c>
       <c r="D10" t="n">
-        <v>0.197983</v>
+        <v>0.260777</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.233487</v>
+        <v>0.324835</v>
       </c>
       <c r="C11" t="n">
-        <v>0.168609</v>
+        <v>0.219415</v>
       </c>
       <c r="D11" t="n">
-        <v>0.208226</v>
+        <v>0.260326</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.256344</v>
+        <v>0.327636</v>
       </c>
       <c r="C12" t="n">
-        <v>0.181904</v>
+        <v>0.227016</v>
       </c>
       <c r="D12" t="n">
-        <v>0.213275</v>
+        <v>0.254962</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.219176</v>
+        <v>0.968461</v>
       </c>
       <c r="C13" t="n">
-        <v>0.179884</v>
+        <v>0.236639</v>
       </c>
       <c r="D13" t="n">
-        <v>0.218202</v>
+        <v>0.284533</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.212049</v>
+        <v>1.13605</v>
       </c>
       <c r="C14" t="n">
-        <v>0.19085</v>
+        <v>0.261201</v>
       </c>
       <c r="D14" t="n">
-        <v>0.219759</v>
+        <v>0.287118</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.20806</v>
+        <v>1.14386</v>
       </c>
       <c r="C15" t="n">
-        <v>0.172083</v>
+        <v>0.268466</v>
       </c>
       <c r="D15" t="n">
-        <v>0.229083</v>
+        <v>0.328495</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.217215</v>
+        <v>1.21498</v>
       </c>
       <c r="C16" t="n">
-        <v>0.198761</v>
+        <v>0.275473</v>
       </c>
       <c r="D16" t="n">
-        <v>0.217759</v>
+        <v>0.326417</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.241142</v>
+        <v>1.21283</v>
       </c>
       <c r="C17" t="n">
-        <v>0.201967</v>
+        <v>0.39606</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210535</v>
+        <v>0.360851</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.240273</v>
+        <v>1.23648</v>
       </c>
       <c r="C18" t="n">
-        <v>0.201265</v>
+        <v>0.480097</v>
       </c>
       <c r="D18" t="n">
-        <v>0.232225</v>
+        <v>0.453474</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.25261</v>
+        <v>1.31615</v>
       </c>
       <c r="C19" t="n">
-        <v>0.210971</v>
+        <v>0.55379</v>
       </c>
       <c r="D19" t="n">
-        <v>0.219296</v>
+        <v>0.574087</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.259402</v>
+        <v>1.27034</v>
       </c>
       <c r="C20" t="n">
-        <v>0.214734</v>
+        <v>0.593312</v>
       </c>
       <c r="D20" t="n">
-        <v>0.23992</v>
+        <v>0.675522</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.26472</v>
+        <v>1.23405</v>
       </c>
       <c r="C21" t="n">
-        <v>0.175129</v>
+        <v>0.914893</v>
       </c>
       <c r="D21" t="n">
-        <v>0.214979</v>
+        <v>0.96199</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.271236</v>
+        <v>1.35195</v>
       </c>
       <c r="C22" t="n">
-        <v>0.189181</v>
+        <v>0.878363</v>
       </c>
       <c r="D22" t="n">
-        <v>0.221844</v>
+        <v>1.03526</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.265881</v>
+        <v>1.38113</v>
       </c>
       <c r="C23" t="n">
-        <v>0.182641</v>
+        <v>0.8740520000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.205497</v>
+        <v>1.10777</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.289119</v>
+        <v>1.52574</v>
       </c>
       <c r="C24" t="n">
-        <v>0.199614</v>
+        <v>1.0378</v>
       </c>
       <c r="D24" t="n">
-        <v>0.232601</v>
+        <v>1.09537</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.288102</v>
+        <v>1.45373</v>
       </c>
       <c r="C25" t="n">
-        <v>0.197976</v>
+        <v>1.0094</v>
       </c>
       <c r="D25" t="n">
-        <v>0.229058</v>
+        <v>1.14648</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.289259</v>
+        <v>1.33378</v>
       </c>
       <c r="C26" t="n">
-        <v>0.204695</v>
+        <v>0.993367</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227603</v>
+        <v>1.02804</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.282463</v>
+        <v>1.31798</v>
       </c>
       <c r="C27" t="n">
-        <v>0.197135</v>
+        <v>0.9586479999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.247699</v>
+        <v>1.15026</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.260087</v>
+        <v>1.41558</v>
       </c>
       <c r="C28" t="n">
-        <v>0.208434</v>
+        <v>1.05198</v>
       </c>
       <c r="D28" t="n">
-        <v>0.244956</v>
+        <v>1.14277</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.272922</v>
+        <v>1.53688</v>
       </c>
       <c r="C29" t="n">
-        <v>0.211955</v>
+        <v>1.16111</v>
       </c>
       <c r="D29" t="n">
-        <v>0.26236</v>
+        <v>1.32184</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.294625</v>
+        <v>1.56822</v>
       </c>
       <c r="C30" t="n">
-        <v>0.231972</v>
+        <v>1.22522</v>
       </c>
       <c r="D30" t="n">
-        <v>0.27132</v>
+        <v>1.36433</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2845</v>
+        <v>1.54148</v>
       </c>
       <c r="C31" t="n">
-        <v>0.22711</v>
+        <v>1.1849</v>
       </c>
       <c r="D31" t="n">
-        <v>0.26771</v>
+        <v>1.39833</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.305363</v>
+        <v>1.66088</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243749</v>
+        <v>1.26974</v>
       </c>
       <c r="D32" t="n">
-        <v>0.283366</v>
+        <v>1.45569</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.28407</v>
+        <v>1.39185</v>
       </c>
       <c r="C33" t="n">
-        <v>0.224184</v>
+        <v>0.880954</v>
       </c>
       <c r="D33" t="n">
-        <v>0.292379</v>
+        <v>1.36125</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.318619</v>
+        <v>1.51898</v>
       </c>
       <c r="C34" t="n">
-        <v>0.248305</v>
+        <v>1.17268</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2865</v>
+        <v>1.5645</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.322902</v>
+        <v>1.69452</v>
       </c>
       <c r="C35" t="n">
-        <v>0.221764</v>
+        <v>1.18538</v>
       </c>
       <c r="D35" t="n">
-        <v>0.253179</v>
+        <v>1.4523</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.317865</v>
+        <v>1.67874</v>
       </c>
       <c r="C36" t="n">
-        <v>0.206999</v>
+        <v>1.14797</v>
       </c>
       <c r="D36" t="n">
-        <v>0.260461</v>
+        <v>1.18784</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.313935</v>
+        <v>1.55272</v>
       </c>
       <c r="C37" t="n">
-        <v>0.220174</v>
+        <v>1.01076</v>
       </c>
       <c r="D37" t="n">
-        <v>0.240714</v>
+        <v>1.49615</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.323238</v>
+        <v>2.09384</v>
       </c>
       <c r="C38" t="n">
-        <v>0.22841</v>
+        <v>1.26057</v>
       </c>
       <c r="D38" t="n">
-        <v>0.279321</v>
+        <v>1.59315</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.326788</v>
+        <v>2.01064</v>
       </c>
       <c r="C39" t="n">
-        <v>0.223899</v>
+        <v>1.19563</v>
       </c>
       <c r="D39" t="n">
-        <v>0.280803</v>
+        <v>1.52805</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.348208</v>
+        <v>1.84575</v>
       </c>
       <c r="C40" t="n">
-        <v>0.222576</v>
+        <v>0.938706</v>
       </c>
       <c r="D40" t="n">
-        <v>0.291349</v>
+        <v>0.7025670000000001</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.273313</v>
+        <v>1.32067</v>
       </c>
       <c r="C41" t="n">
-        <v>0.224456</v>
+        <v>1.24737</v>
       </c>
       <c r="D41" t="n">
-        <v>0.282726</v>
+        <v>1.54213</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.289415</v>
+        <v>1.81516</v>
       </c>
       <c r="C42" t="n">
-        <v>0.255174</v>
+        <v>0.266171</v>
       </c>
       <c r="D42" t="n">
-        <v>0.297328</v>
+        <v>1.65882</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.302101</v>
+        <v>1.92979</v>
       </c>
       <c r="C43" t="n">
-        <v>0.242152</v>
+        <v>1.04027</v>
       </c>
       <c r="D43" t="n">
-        <v>0.27522</v>
+        <v>0.64551</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.303695</v>
+        <v>0.323935</v>
       </c>
       <c r="C44" t="n">
-        <v>0.237859</v>
+        <v>0.268169</v>
       </c>
       <c r="D44" t="n">
-        <v>0.289536</v>
+        <v>0.318717</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.30392</v>
+        <v>0.332468</v>
       </c>
       <c r="C45" t="n">
-        <v>0.261438</v>
+        <v>0.274759</v>
       </c>
       <c r="D45" t="n">
-        <v>0.314723</v>
+        <v>0.323281</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.303028</v>
+        <v>0.334883</v>
       </c>
       <c r="C46" t="n">
-        <v>0.263607</v>
+        <v>0.277114</v>
       </c>
       <c r="D46" t="n">
-        <v>0.322337</v>
+        <v>0.331235</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.325017</v>
+        <v>0.350155</v>
       </c>
       <c r="C47" t="n">
-        <v>0.282064</v>
+        <v>0.285696</v>
       </c>
       <c r="D47" t="n">
-        <v>0.322475</v>
+        <v>0.347119</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.296236</v>
+        <v>0.352802</v>
       </c>
       <c r="C48" t="n">
-        <v>0.286185</v>
+        <v>0.289373</v>
       </c>
       <c r="D48" t="n">
-        <v>0.325908</v>
+        <v>0.362605</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.305986</v>
+        <v>0.360393</v>
       </c>
       <c r="C49" t="n">
-        <v>0.282063</v>
+        <v>0.294428</v>
       </c>
       <c r="D49" t="n">
-        <v>0.345541</v>
+        <v>0.358431</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.349712</v>
+        <v>0.360388</v>
       </c>
       <c r="C50" t="n">
-        <v>0.24789</v>
+        <v>0.258397</v>
       </c>
       <c r="D50" t="n">
-        <v>0.256274</v>
+        <v>0.284686</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.326836</v>
+        <v>0.36723</v>
       </c>
       <c r="C51" t="n">
-        <v>0.251734</v>
+        <v>0.258675</v>
       </c>
       <c r="D51" t="n">
-        <v>0.278138</v>
+        <v>0.288544</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.33106</v>
+        <v>0.372738</v>
       </c>
       <c r="C52" t="n">
-        <v>0.262279</v>
+        <v>0.260322</v>
       </c>
       <c r="D52" t="n">
-        <v>0.293239</v>
+        <v>0.291214</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.382422</v>
+        <v>0.389273</v>
       </c>
       <c r="C53" t="n">
-        <v>0.267189</v>
+        <v>0.268153</v>
       </c>
       <c r="D53" t="n">
-        <v>0.297958</v>
+        <v>0.300497</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.391939</v>
+        <v>0.393635</v>
       </c>
       <c r="C54" t="n">
-        <v>0.26653</v>
+        <v>0.273752</v>
       </c>
       <c r="D54" t="n">
-        <v>0.298947</v>
+        <v>0.308129</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.392308</v>
+        <v>0.39471</v>
       </c>
       <c r="C55" t="n">
-        <v>0.250769</v>
+        <v>0.28224</v>
       </c>
       <c r="D55" t="n">
-        <v>0.294119</v>
+        <v>0.323115</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.349342</v>
+        <v>0.389113</v>
       </c>
       <c r="C56" t="n">
-        <v>0.268862</v>
+        <v>0.295257</v>
       </c>
       <c r="D56" t="n">
-        <v>0.288742</v>
+        <v>0.334877</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.319845</v>
+        <v>0.397557</v>
       </c>
       <c r="C57" t="n">
-        <v>0.28086</v>
+        <v>0.302132</v>
       </c>
       <c r="D57" t="n">
-        <v>0.294451</v>
+        <v>0.327301</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314894</v>
+        <v>0.393301</v>
       </c>
       <c r="C58" t="n">
-        <v>0.266233</v>
+        <v>0.298537</v>
       </c>
       <c r="D58" t="n">
-        <v>0.317075</v>
+        <v>0.337324</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.356188</v>
+        <v>0.391336</v>
       </c>
       <c r="C59" t="n">
-        <v>0.300529</v>
+        <v>0.310035</v>
       </c>
       <c r="D59" t="n">
-        <v>0.328454</v>
+        <v>0.347484</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.354822</v>
+        <v>0.397024</v>
       </c>
       <c r="C60" t="n">
-        <v>0.277152</v>
+        <v>0.313508</v>
       </c>
       <c r="D60" t="n">
-        <v>0.327934</v>
+        <v>0.350485</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.349472</v>
+        <v>0.389258</v>
       </c>
       <c r="C61" t="n">
-        <v>0.295085</v>
+        <v>0.320362</v>
       </c>
       <c r="D61" t="n">
-        <v>0.322439</v>
+        <v>0.361356</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.342937</v>
+        <v>0.39634</v>
       </c>
       <c r="C62" t="n">
-        <v>0.334633</v>
+        <v>0.326537</v>
       </c>
       <c r="D62" t="n">
-        <v>0.365858</v>
+        <v>0.366934</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.47245</v>
+        <v>0.431558</v>
       </c>
       <c r="C63" t="n">
-        <v>0.327241</v>
+        <v>0.336374</v>
       </c>
       <c r="D63" t="n">
-        <v>0.338835</v>
+        <v>0.379076</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.394421</v>
+        <v>0.417467</v>
       </c>
       <c r="C64" t="n">
-        <v>0.284896</v>
+        <v>0.300738</v>
       </c>
       <c r="D64" t="n">
-        <v>0.30962</v>
+        <v>0.340827</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.441543</v>
+        <v>0.454006</v>
       </c>
       <c r="C65" t="n">
-        <v>0.295844</v>
+        <v>0.305798</v>
       </c>
       <c r="D65" t="n">
-        <v>0.330431</v>
+        <v>0.341755</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.461896</v>
+        <v>0.466751</v>
       </c>
       <c r="C66" t="n">
-        <v>0.311595</v>
+        <v>0.314011</v>
       </c>
       <c r="D66" t="n">
-        <v>0.339365</v>
+        <v>0.348701</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.440586</v>
+        <v>0.465979</v>
       </c>
       <c r="C67" t="n">
-        <v>0.30815</v>
+        <v>0.316703</v>
       </c>
       <c r="D67" t="n">
-        <v>0.323351</v>
+        <v>0.346467</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.401787</v>
+        <v>0.486331</v>
       </c>
       <c r="C68" t="n">
-        <v>0.300955</v>
+        <v>0.326226</v>
       </c>
       <c r="D68" t="n">
-        <v>0.345158</v>
+        <v>0.352535</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.433447</v>
+        <v>0.507344</v>
       </c>
       <c r="C69" t="n">
-        <v>0.321954</v>
+        <v>0.339299</v>
       </c>
       <c r="D69" t="n">
-        <v>0.340139</v>
+        <v>0.39517</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.426101</v>
+        <v>0.642909</v>
       </c>
       <c r="C70" t="n">
-        <v>0.325773</v>
+        <v>0.375025</v>
       </c>
       <c r="D70" t="n">
-        <v>0.366088</v>
+        <v>0.4561</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.4291</v>
+        <v>0.646986</v>
       </c>
       <c r="C71" t="n">
-        <v>0.332959</v>
+        <v>0.424477</v>
       </c>
       <c r="D71" t="n">
-        <v>0.41931</v>
+        <v>0.459765</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.669154</v>
+        <v>0.608013</v>
       </c>
       <c r="C72" t="n">
-        <v>0.426074</v>
+        <v>0.380114</v>
       </c>
       <c r="D72" t="n">
-        <v>0.443238</v>
+        <v>0.420845</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.633314</v>
+        <v>0.567212</v>
       </c>
       <c r="C73" t="n">
-        <v>0.404006</v>
+        <v>0.377735</v>
       </c>
       <c r="D73" t="n">
-        <v>0.432868</v>
+        <v>0.456772</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7070920000000001</v>
+        <v>0.599532</v>
       </c>
       <c r="C74" t="n">
-        <v>0.431818</v>
+        <v>0.397663</v>
       </c>
       <c r="D74" t="n">
-        <v>0.464531</v>
+        <v>0.445893</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.732595</v>
+        <v>0.665483</v>
       </c>
       <c r="C75" t="n">
-        <v>0.437396</v>
+        <v>0.400964</v>
       </c>
       <c r="D75" t="n">
-        <v>0.419613</v>
+        <v>0.46134</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.498313</v>
+        <v>0.689676</v>
       </c>
       <c r="C76" t="n">
-        <v>0.344705</v>
+        <v>0.451658</v>
       </c>
       <c r="D76" t="n">
-        <v>0.405848</v>
+        <v>0.489303</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.52555</v>
+        <v>0.699008</v>
       </c>
       <c r="C77" t="n">
-        <v>0.390036</v>
+        <v>0.463049</v>
       </c>
       <c r="D77" t="n">
-        <v>0.423766</v>
+        <v>0.48812</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.583819</v>
+        <v>0.6804829999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.357504</v>
+        <v>0.496075</v>
       </c>
       <c r="D78" t="n">
-        <v>0.379173</v>
+        <v>0.564893</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.516078</v>
+        <v>0.787502</v>
       </c>
       <c r="C79" t="n">
-        <v>0.366591</v>
+        <v>0.485114</v>
       </c>
       <c r="D79" t="n">
-        <v>0.386474</v>
+        <v>0.553569</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.546755</v>
+        <v>0.8174630000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.376565</v>
+        <v>0.5339699999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.482792</v>
+        <v>0.572954</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8908740000000001</v>
+        <v>0.815823</v>
       </c>
       <c r="C81" t="n">
-        <v>0.598529</v>
+        <v>0.499084</v>
       </c>
       <c r="D81" t="n">
-        <v>0.658402</v>
+        <v>0.52225</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.740543</v>
+        <v>0.774301</v>
       </c>
       <c r="C82" t="n">
-        <v>0.500992</v>
+        <v>0.510057</v>
       </c>
       <c r="D82" t="n">
-        <v>0.598983</v>
+        <v>0.616459</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.86492</v>
+        <v>0.800644</v>
       </c>
       <c r="C83" t="n">
-        <v>0.52094</v>
+        <v>0.51135</v>
       </c>
       <c r="D83" t="n">
-        <v>0.596705</v>
+        <v>0.574947</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.91743</v>
+        <v>0.8401420000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5716560000000001</v>
+        <v>0.543767</v>
       </c>
       <c r="D84" t="n">
-        <v>0.600456</v>
+        <v>0.599396</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.791322</v>
+        <v>0.864818</v>
       </c>
       <c r="C85" t="n">
-        <v>0.451804</v>
+        <v>0.572446</v>
       </c>
       <c r="D85" t="n">
-        <v>0.493728</v>
+        <v>0.647868</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.781332</v>
+        <v>0.90367</v>
       </c>
       <c r="C86" t="n">
-        <v>0.441409</v>
+        <v>0.591557</v>
       </c>
       <c r="D86" t="n">
-        <v>0.513618</v>
+        <v>0.635548</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.86191</v>
+        <v>0.928281</v>
       </c>
       <c r="C87" t="n">
-        <v>0.491524</v>
+        <v>0.612626</v>
       </c>
       <c r="D87" t="n">
-        <v>0.526593</v>
+        <v>0.758436</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8033940000000001</v>
+        <v>1.02644</v>
       </c>
       <c r="C88" t="n">
-        <v>0.499518</v>
+        <v>0.706245</v>
       </c>
       <c r="D88" t="n">
-        <v>0.529019</v>
+        <v>0.707063</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.796591</v>
+        <v>1.04686</v>
       </c>
       <c r="C89" t="n">
-        <v>0.747871</v>
+        <v>0.641621</v>
       </c>
       <c r="D89" t="n">
-        <v>0.871224</v>
+        <v>0.755397</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.1265</v>
+        <v>0.966784</v>
       </c>
       <c r="C90" t="n">
-        <v>0.725039</v>
+        <v>0.704887</v>
       </c>
       <c r="D90" t="n">
-        <v>0.794972</v>
+        <v>0.716832</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.98305</v>
+        <v>0.894923</v>
       </c>
       <c r="C91" t="n">
-        <v>0.750522</v>
+        <v>0.694625</v>
       </c>
       <c r="D91" t="n">
-        <v>0.838939</v>
+        <v>0.772824</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.11719</v>
+        <v>1.00407</v>
       </c>
       <c r="C92" t="n">
-        <v>0.694319</v>
+        <v>0.649799</v>
       </c>
       <c r="D92" t="n">
-        <v>0.695188</v>
+        <v>0.699319</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.00025</v>
+        <v>0.993881</v>
       </c>
       <c r="C93" t="n">
-        <v>0.643602</v>
+        <v>0.627382</v>
       </c>
       <c r="D93" t="n">
-        <v>0.681146</v>
+        <v>0.696234</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.05249</v>
+        <v>0.9917</v>
       </c>
       <c r="C94" t="n">
-        <v>0.679505</v>
+        <v>0.677271</v>
       </c>
       <c r="D94" t="n">
-        <v>0.624347</v>
+        <v>0.792387</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.927617</v>
+        <v>1.10013</v>
       </c>
       <c r="C95" t="n">
-        <v>0.653938</v>
+        <v>0.735757</v>
       </c>
       <c r="D95" t="n">
-        <v>0.755483</v>
+        <v>0.7911629999999999</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.916991</v>
+        <v>1.15663</v>
       </c>
       <c r="C96" t="n">
-        <v>0.659811</v>
+        <v>0.745719</v>
       </c>
       <c r="D96" t="n">
-        <v>0.85533</v>
+        <v>0.826616</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.08862</v>
+        <v>1.10462</v>
       </c>
       <c r="C97" t="n">
-        <v>0.822693</v>
+        <v>0.75079</v>
       </c>
       <c r="D97" t="n">
-        <v>0.809852</v>
+        <v>0.825445</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.999305</v>
+        <v>1.06055</v>
       </c>
       <c r="C98" t="n">
-        <v>0.831834</v>
+        <v>0.751906</v>
       </c>
       <c r="D98" t="n">
-        <v>0.897609</v>
+        <v>0.854765</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.13236</v>
+        <v>1.03345</v>
       </c>
       <c r="C99" t="n">
-        <v>0.809616</v>
+        <v>0.797732</v>
       </c>
       <c r="D99" t="n">
-        <v>0.805292</v>
+        <v>0.851326</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.898078</v>
+        <v>1.11598</v>
       </c>
       <c r="C100" t="n">
-        <v>0.748166</v>
+        <v>0.811118</v>
       </c>
       <c r="D100" t="n">
-        <v>0.815599</v>
+        <v>0.884804</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.918535</v>
+        <v>1.04684</v>
       </c>
       <c r="C101" t="n">
-        <v>0.755958</v>
+        <v>0.801759</v>
       </c>
       <c r="D101" t="n">
-        <v>0.831928</v>
+        <v>0.874811</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.05271</v>
+        <v>1.01089</v>
       </c>
       <c r="C102" t="n">
-        <v>0.789396</v>
+        <v>0.809785</v>
       </c>
       <c r="D102" t="n">
-        <v>0.785193</v>
+        <v>0.916768</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.07542</v>
+        <v>1.13596</v>
       </c>
       <c r="C103" t="n">
-        <v>0.952268</v>
+        <v>0.827792</v>
       </c>
       <c r="D103" t="n">
-        <v>1.01796</v>
+        <v>0.935339</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.16204</v>
+        <v>1.06129</v>
       </c>
       <c r="C104" t="n">
-        <v>0.932114</v>
+        <v>0.828006</v>
       </c>
       <c r="D104" t="n">
-        <v>1.01971</v>
+        <v>0.981962</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.12217</v>
+        <v>1.11718</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9355250000000001</v>
+        <v>0.85031</v>
       </c>
       <c r="D105" t="n">
-        <v>0.97463</v>
+        <v>0.983807</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.12319</v>
+        <v>1.15705</v>
       </c>
       <c r="C106" t="n">
-        <v>0.843534</v>
+        <v>0.868884</v>
       </c>
       <c r="D106" t="n">
-        <v>0.947439</v>
+        <v>0.987119</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.14982</v>
+        <v>1.21549</v>
       </c>
       <c r="C107" t="n">
-        <v>0.798283</v>
+        <v>0.797142</v>
       </c>
       <c r="D107" t="n">
-        <v>0.865053</v>
+        <v>0.870408</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.15584</v>
+        <v>1.22148</v>
       </c>
       <c r="C108" t="n">
-        <v>0.841611</v>
+        <v>0.830922</v>
       </c>
       <c r="D108" t="n">
-        <v>1.01452</v>
+        <v>0.903598</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.41213</v>
+        <v>1.13262</v>
       </c>
       <c r="C109" t="n">
-        <v>0.926959</v>
+        <v>0.832497</v>
       </c>
       <c r="D109" t="n">
-        <v>1.00336</v>
+        <v>0.931752</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18032</v>
+        <v>1.26789</v>
       </c>
       <c r="C110" t="n">
-        <v>0.923526</v>
+        <v>0.85793</v>
       </c>
       <c r="D110" t="n">
-        <v>0.964168</v>
+        <v>0.918138</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.16125</v>
+        <v>1.28282</v>
       </c>
       <c r="C111" t="n">
-        <v>0.895052</v>
+        <v>0.842348</v>
       </c>
       <c r="D111" t="n">
-        <v>0.938117</v>
+        <v>0.936966</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.07377</v>
+        <v>1.04639</v>
       </c>
       <c r="C112" t="n">
-        <v>0.883931</v>
+        <v>0.859819</v>
       </c>
       <c r="D112" t="n">
-        <v>0.974812</v>
+        <v>1.00228</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.10016</v>
+        <v>1.03783</v>
       </c>
       <c r="C113" t="n">
-        <v>0.975669</v>
+        <v>0.882192</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08906</v>
+        <v>0.986073</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.20274</v>
+        <v>1.06086</v>
       </c>
       <c r="C114" t="n">
-        <v>0.965562</v>
+        <v>0.889893</v>
       </c>
       <c r="D114" t="n">
-        <v>1.07152</v>
+        <v>0.987395</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.27706</v>
+        <v>1.18099</v>
       </c>
       <c r="C115" t="n">
-        <v>1.02927</v>
+        <v>0.903101</v>
       </c>
       <c r="D115" t="n">
-        <v>1.08949</v>
+        <v>1.05142</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.12217</v>
+        <v>1.13751</v>
       </c>
       <c r="C116" t="n">
-        <v>0.938271</v>
+        <v>0.944122</v>
       </c>
       <c r="D116" t="n">
-        <v>1.02969</v>
+        <v>1.03654</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.20855</v>
+        <v>1.16634</v>
       </c>
       <c r="C117" t="n">
-        <v>0.962673</v>
+        <v>0.967714</v>
       </c>
       <c r="D117" t="n">
-        <v>1.05441</v>
+        <v>1.04322</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.2401</v>
+        <v>1.21414</v>
       </c>
       <c r="C118" t="n">
-        <v>1.1113</v>
+        <v>0.938958</v>
       </c>
       <c r="D118" t="n">
-        <v>1.19224</v>
+        <v>1.07754</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.38456</v>
+        <v>1.2317</v>
       </c>
       <c r="C119" t="n">
-        <v>1.08557</v>
+        <v>0.958304</v>
       </c>
       <c r="D119" t="n">
-        <v>1.19194</v>
+        <v>1.12031</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.22634</v>
+        <v>0.226369</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18663</v>
+        <v>0.185091</v>
       </c>
       <c r="D2" t="n">
-        <v>0.182582</v>
+        <v>0.18013</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.227642</v>
+        <v>0.225861</v>
       </c>
       <c r="C3" t="n">
-        <v>0.192223</v>
+        <v>0.191853</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183289</v>
+        <v>0.180647</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.227702</v>
+        <v>0.227638</v>
       </c>
       <c r="C4" t="n">
-        <v>0.197019</v>
+        <v>0.195358</v>
       </c>
       <c r="D4" t="n">
-        <v>0.185001</v>
+        <v>0.184058</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.233747</v>
+        <v>0.233039</v>
       </c>
       <c r="C5" t="n">
-        <v>0.201106</v>
+        <v>0.198304</v>
       </c>
       <c r="D5" t="n">
-        <v>0.186264</v>
+        <v>0.18524</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.235238</v>
+        <v>0.234315</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206579</v>
+        <v>0.20462</v>
       </c>
       <c r="D6" t="n">
-        <v>0.190356</v>
+        <v>0.189538</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.239385</v>
+        <v>0.237908</v>
       </c>
       <c r="C7" t="n">
-        <v>0.18443</v>
+        <v>0.183954</v>
       </c>
       <c r="D7" t="n">
-        <v>0.186337</v>
+        <v>0.185905</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.239275</v>
+        <v>0.23915</v>
       </c>
       <c r="C8" t="n">
-        <v>0.188747</v>
+        <v>0.187373</v>
       </c>
       <c r="D8" t="n">
-        <v>0.190507</v>
+        <v>0.188537</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.245678</v>
+        <v>0.244907</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192926</v>
+        <v>0.190985</v>
       </c>
       <c r="D9" t="n">
-        <v>0.190666</v>
+        <v>0.18941</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.251664</v>
+        <v>0.252344</v>
       </c>
       <c r="C10" t="n">
-        <v>0.193924</v>
+        <v>0.193224</v>
       </c>
       <c r="D10" t="n">
-        <v>0.19094</v>
+        <v>0.191352</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.249899</v>
+        <v>0.248063</v>
       </c>
       <c r="C11" t="n">
-        <v>0.193095</v>
+        <v>0.189351</v>
       </c>
       <c r="D11" t="n">
-        <v>0.191822</v>
+        <v>0.189569</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.259574</v>
+        <v>0.257691</v>
       </c>
       <c r="C12" t="n">
-        <v>0.199817</v>
+        <v>0.197956</v>
       </c>
       <c r="D12" t="n">
-        <v>0.194782</v>
+        <v>0.192405</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.22801</v>
+        <v>0.225084</v>
       </c>
       <c r="C13" t="n">
-        <v>0.196845</v>
+        <v>0.196642</v>
       </c>
       <c r="D13" t="n">
-        <v>0.195049</v>
+        <v>0.193376</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.229328</v>
+        <v>0.227792</v>
       </c>
       <c r="C14" t="n">
-        <v>0.199303</v>
+        <v>0.199691</v>
       </c>
       <c r="D14" t="n">
-        <v>0.194951</v>
+        <v>0.193758</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.229581</v>
+        <v>0.228225</v>
       </c>
       <c r="C15" t="n">
-        <v>0.202218</v>
+        <v>0.201322</v>
       </c>
       <c r="D15" t="n">
-        <v>0.197878</v>
+        <v>0.195653</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.232967</v>
+        <v>0.233261</v>
       </c>
       <c r="C16" t="n">
-        <v>0.205829</v>
+        <v>0.204532</v>
       </c>
       <c r="D16" t="n">
-        <v>0.199735</v>
+        <v>0.196054</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.241184</v>
+        <v>0.239795</v>
       </c>
       <c r="C17" t="n">
-        <v>0.208396</v>
+        <v>0.207763</v>
       </c>
       <c r="D17" t="n">
-        <v>0.200965</v>
+        <v>0.199204</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.241651</v>
+        <v>0.240128</v>
       </c>
       <c r="C18" t="n">
-        <v>0.215847</v>
+        <v>0.214124</v>
       </c>
       <c r="D18" t="n">
-        <v>0.204845</v>
+        <v>0.201063</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.243875</v>
+        <v>0.242024</v>
       </c>
       <c r="C19" t="n">
-        <v>0.217674</v>
+        <v>0.215129</v>
       </c>
       <c r="D19" t="n">
-        <v>0.206501</v>
+        <v>0.203707</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.252254</v>
+        <v>0.251009</v>
       </c>
       <c r="C20" t="n">
-        <v>0.223105</v>
+        <v>0.222246</v>
       </c>
       <c r="D20" t="n">
-        <v>0.206912</v>
+        <v>0.204705</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.252526</v>
+        <v>0.251219</v>
       </c>
       <c r="C21" t="n">
-        <v>0.198842</v>
+        <v>0.197336</v>
       </c>
       <c r="D21" t="n">
-        <v>0.20038</v>
+        <v>0.197009</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.255615</v>
+        <v>0.253633</v>
       </c>
       <c r="C22" t="n">
-        <v>0.202704</v>
+        <v>0.2022</v>
       </c>
       <c r="D22" t="n">
-        <v>0.201066</v>
+        <v>0.199065</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.262578</v>
+        <v>0.260326</v>
       </c>
       <c r="C23" t="n">
-        <v>0.203994</v>
+        <v>0.202651</v>
       </c>
       <c r="D23" t="n">
-        <v>0.202354</v>
+        <v>0.199511</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.264117</v>
+        <v>0.263007</v>
       </c>
       <c r="C24" t="n">
-        <v>0.211827</v>
+        <v>0.212782</v>
       </c>
       <c r="D24" t="n">
-        <v>0.204114</v>
+        <v>0.206234</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.269852</v>
+        <v>0.274747</v>
       </c>
       <c r="C25" t="n">
-        <v>0.217444</v>
+        <v>0.222254</v>
       </c>
       <c r="D25" t="n">
-        <v>0.20791</v>
+        <v>0.209866</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.279207</v>
+        <v>0.278121</v>
       </c>
       <c r="C26" t="n">
-        <v>0.219024</v>
+        <v>0.219494</v>
       </c>
       <c r="D26" t="n">
-        <v>0.210024</v>
+        <v>0.210016</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.23151</v>
+        <v>0.233859</v>
       </c>
       <c r="C27" t="n">
-        <v>0.224611</v>
+        <v>0.227124</v>
       </c>
       <c r="D27" t="n">
-        <v>0.208743</v>
+        <v>0.21235</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.236649</v>
+        <v>0.238472</v>
       </c>
       <c r="C28" t="n">
-        <v>0.225545</v>
+        <v>0.228283</v>
       </c>
       <c r="D28" t="n">
-        <v>0.211488</v>
+        <v>0.212186</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.241579</v>
+        <v>0.243922</v>
       </c>
       <c r="C29" t="n">
-        <v>0.228525</v>
+        <v>0.229952</v>
       </c>
       <c r="D29" t="n">
-        <v>0.213061</v>
+        <v>0.21379</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.247009</v>
+        <v>0.247471</v>
       </c>
       <c r="C30" t="n">
-        <v>0.237443</v>
+        <v>0.240297</v>
       </c>
       <c r="D30" t="n">
-        <v>0.214247</v>
+        <v>0.217858</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.24961</v>
+        <v>0.25188</v>
       </c>
       <c r="C31" t="n">
-        <v>0.237236</v>
+        <v>0.236134</v>
       </c>
       <c r="D31" t="n">
-        <v>0.216904</v>
+        <v>0.217964</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.258767</v>
+        <v>0.260655</v>
       </c>
       <c r="C32" t="n">
-        <v>0.245936</v>
+        <v>0.246957</v>
       </c>
       <c r="D32" t="n">
-        <v>0.222847</v>
+        <v>0.22465</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.266026</v>
+        <v>0.266878</v>
       </c>
       <c r="C33" t="n">
-        <v>0.25167</v>
+        <v>0.255671</v>
       </c>
       <c r="D33" t="n">
-        <v>0.222866</v>
+        <v>0.224174</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.271395</v>
+        <v>0.270406</v>
       </c>
       <c r="C34" t="n">
-        <v>0.258583</v>
+        <v>0.25838</v>
       </c>
       <c r="D34" t="n">
-        <v>0.228282</v>
+        <v>0.228581</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.279857</v>
+        <v>0.283035</v>
       </c>
       <c r="C35" t="n">
-        <v>0.207361</v>
+        <v>0.210285</v>
       </c>
       <c r="D35" t="n">
-        <v>0.209488</v>
+        <v>0.206882</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.287571</v>
+        <v>0.289317</v>
       </c>
       <c r="C36" t="n">
-        <v>0.216388</v>
+        <v>0.218695</v>
       </c>
       <c r="D36" t="n">
-        <v>0.211194</v>
+        <v>0.210576</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.296837</v>
+        <v>0.300411</v>
       </c>
       <c r="C37" t="n">
-        <v>0.22237</v>
+        <v>0.221744</v>
       </c>
       <c r="D37" t="n">
-        <v>0.214952</v>
+        <v>0.217597</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.311757</v>
+        <v>0.311216</v>
       </c>
       <c r="C38" t="n">
-        <v>0.229182</v>
+        <v>0.232605</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220086</v>
+        <v>0.2192</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.323852</v>
+        <v>0.321421</v>
       </c>
       <c r="C39" t="n">
-        <v>0.239757</v>
+        <v>0.239728</v>
       </c>
       <c r="D39" t="n">
-        <v>0.226606</v>
+        <v>0.227173</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.335464</v>
+        <v>0.335786</v>
       </c>
       <c r="C40" t="n">
-        <v>0.243902</v>
+        <v>0.245667</v>
       </c>
       <c r="D40" t="n">
-        <v>0.232985</v>
+        <v>0.233525</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.292459</v>
+        <v>0.291162</v>
       </c>
       <c r="C41" t="n">
-        <v>0.257091</v>
+        <v>0.257589</v>
       </c>
       <c r="D41" t="n">
-        <v>0.237503</v>
+        <v>0.236418</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.300648</v>
+        <v>0.301821</v>
       </c>
       <c r="C42" t="n">
-        <v>0.259438</v>
+        <v>0.259929</v>
       </c>
       <c r="D42" t="n">
-        <v>0.243043</v>
+        <v>0.244699</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.308948</v>
+        <v>0.310395</v>
       </c>
       <c r="C43" t="n">
-        <v>0.268484</v>
+        <v>0.272233</v>
       </c>
       <c r="D43" t="n">
-        <v>0.247642</v>
+        <v>0.249515</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.318736</v>
+        <v>0.32134</v>
       </c>
       <c r="C44" t="n">
-        <v>0.275413</v>
+        <v>0.272026</v>
       </c>
       <c r="D44" t="n">
-        <v>0.253998</v>
+        <v>0.254595</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.326967</v>
+        <v>0.328492</v>
       </c>
       <c r="C45" t="n">
-        <v>0.283093</v>
+        <v>0.282756</v>
       </c>
       <c r="D45" t="n">
-        <v>0.259989</v>
+        <v>0.259712</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.334333</v>
+        <v>0.33189</v>
       </c>
       <c r="C46" t="n">
-        <v>0.290195</v>
+        <v>0.292403</v>
       </c>
       <c r="D46" t="n">
-        <v>0.264481</v>
+        <v>0.263859</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.341433</v>
+        <v>0.342717</v>
       </c>
       <c r="C47" t="n">
-        <v>0.297479</v>
+        <v>0.300599</v>
       </c>
       <c r="D47" t="n">
-        <v>0.272234</v>
+        <v>0.272613</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.353401</v>
+        <v>0.354252</v>
       </c>
       <c r="C48" t="n">
-        <v>0.304996</v>
+        <v>0.306895</v>
       </c>
       <c r="D48" t="n">
-        <v>0.276321</v>
+        <v>0.281069</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.36255</v>
+        <v>0.365702</v>
       </c>
       <c r="C49" t="n">
-        <v>0.312976</v>
+        <v>0.315082</v>
       </c>
       <c r="D49" t="n">
-        <v>0.284459</v>
+        <v>0.288697</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.372709</v>
+        <v>0.370074</v>
       </c>
       <c r="C50" t="n">
-        <v>0.290039</v>
+        <v>0.283876</v>
       </c>
       <c r="D50" t="n">
-        <v>0.274815</v>
+        <v>0.271987</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.386673</v>
+        <v>0.385877</v>
       </c>
       <c r="C51" t="n">
-        <v>0.295654</v>
+        <v>0.366678</v>
       </c>
       <c r="D51" t="n">
-        <v>0.28309</v>
+        <v>0.318525</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.398816</v>
+        <v>0.462963</v>
       </c>
       <c r="C52" t="n">
-        <v>0.303825</v>
+        <v>0.320051</v>
       </c>
       <c r="D52" t="n">
-        <v>0.287817</v>
+        <v>0.285744</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.414844</v>
+        <v>0.411795</v>
       </c>
       <c r="C53" t="n">
-        <v>0.309238</v>
+        <v>0.317226</v>
       </c>
       <c r="D53" t="n">
-        <v>0.295636</v>
+        <v>0.294383</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4273</v>
+        <v>0.420397</v>
       </c>
       <c r="C54" t="n">
-        <v>0.324146</v>
+        <v>0.322887</v>
       </c>
       <c r="D54" t="n">
-        <v>0.302403</v>
+        <v>0.3029</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.456345</v>
+        <v>0.442716</v>
       </c>
       <c r="C55" t="n">
-        <v>0.337861</v>
+        <v>0.332989</v>
       </c>
       <c r="D55" t="n">
-        <v>0.311982</v>
+        <v>0.302244</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.435872</v>
+        <v>0.405894</v>
       </c>
       <c r="C56" t="n">
-        <v>0.345905</v>
+        <v>0.332654</v>
       </c>
       <c r="D56" t="n">
-        <v>0.313728</v>
+        <v>0.304701</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.451717</v>
+        <v>0.419574</v>
       </c>
       <c r="C57" t="n">
-        <v>0.364725</v>
+        <v>0.350682</v>
       </c>
       <c r="D57" t="n">
-        <v>0.325224</v>
+        <v>0.314852</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.445555</v>
+        <v>0.429392</v>
       </c>
       <c r="C58" t="n">
-        <v>0.377611</v>
+        <v>0.358134</v>
       </c>
       <c r="D58" t="n">
-        <v>0.328137</v>
+        <v>0.319991</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.462279</v>
+        <v>0.437216</v>
       </c>
       <c r="C59" t="n">
-        <v>0.386963</v>
+        <v>0.382809</v>
       </c>
       <c r="D59" t="n">
-        <v>0.34571</v>
+        <v>0.332173</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.462041</v>
+        <v>0.450218</v>
       </c>
       <c r="C60" t="n">
-        <v>0.403939</v>
+        <v>0.390081</v>
       </c>
       <c r="D60" t="n">
-        <v>0.344463</v>
+        <v>0.34383</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.471769</v>
+        <v>0.461275</v>
       </c>
       <c r="C61" t="n">
-        <v>0.411888</v>
+        <v>0.396194</v>
       </c>
       <c r="D61" t="n">
-        <v>0.35579</v>
+        <v>0.343235</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.505656</v>
+        <v>0.467741</v>
       </c>
       <c r="C62" t="n">
-        <v>0.44591</v>
+        <v>0.409399</v>
       </c>
       <c r="D62" t="n">
-        <v>0.36122</v>
+        <v>0.346031</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.522383</v>
+        <v>0.477249</v>
       </c>
       <c r="C63" t="n">
-        <v>0.439425</v>
+        <v>0.414409</v>
       </c>
       <c r="D63" t="n">
-        <v>0.379519</v>
+        <v>0.360384</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5116579999999999</v>
+        <v>0.48951</v>
       </c>
       <c r="C64" t="n">
-        <v>0.412729</v>
+        <v>0.389602</v>
       </c>
       <c r="D64" t="n">
-        <v>0.359799</v>
+        <v>0.350394</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.526058</v>
+        <v>0.50139</v>
       </c>
       <c r="C65" t="n">
-        <v>0.402997</v>
+        <v>0.391099</v>
       </c>
       <c r="D65" t="n">
-        <v>0.370972</v>
+        <v>0.358993</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.545824</v>
+        <v>0.512858</v>
       </c>
       <c r="C66" t="n">
-        <v>0.41048</v>
+        <v>0.398717</v>
       </c>
       <c r="D66" t="n">
-        <v>0.370786</v>
+        <v>0.366505</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.546237</v>
+        <v>0.525971</v>
       </c>
       <c r="C67" t="n">
-        <v>0.432834</v>
+        <v>0.412182</v>
       </c>
       <c r="D67" t="n">
-        <v>0.379291</v>
+        <v>0.368821</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.575094</v>
+        <v>0.540649</v>
       </c>
       <c r="C68" t="n">
-        <v>0.43782</v>
+        <v>0.414358</v>
       </c>
       <c r="D68" t="n">
-        <v>0.386387</v>
+        <v>0.375363</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.603095</v>
+        <v>0.559177</v>
       </c>
       <c r="C69" t="n">
-        <v>0.436685</v>
+        <v>0.410806</v>
       </c>
       <c r="D69" t="n">
-        <v>0.397286</v>
+        <v>0.3821</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.546333</v>
+        <v>0.496937</v>
       </c>
       <c r="C70" t="n">
-        <v>0.456605</v>
+        <v>0.439288</v>
       </c>
       <c r="D70" t="n">
-        <v>0.407168</v>
+        <v>0.386369</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.537327</v>
+        <v>0.501172</v>
       </c>
       <c r="C71" t="n">
-        <v>0.459722</v>
+        <v>0.450486</v>
       </c>
       <c r="D71" t="n">
-        <v>0.42552</v>
+        <v>0.39378</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.542334</v>
+        <v>0.510676</v>
       </c>
       <c r="C72" t="n">
-        <v>0.482084</v>
+        <v>0.46079</v>
       </c>
       <c r="D72" t="n">
-        <v>0.433243</v>
+        <v>0.398426</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.606253</v>
+        <v>0.519223</v>
       </c>
       <c r="C73" t="n">
-        <v>0.520498</v>
+        <v>0.477735</v>
       </c>
       <c r="D73" t="n">
-        <v>0.42965</v>
+        <v>0.40381</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.590152</v>
+        <v>0.526627</v>
       </c>
       <c r="C74" t="n">
-        <v>0.505548</v>
+        <v>0.485774</v>
       </c>
       <c r="D74" t="n">
-        <v>0.445262</v>
+        <v>0.409772</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.640621</v>
+        <v>0.533296</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5254760000000001</v>
+        <v>0.497334</v>
       </c>
       <c r="D75" t="n">
-        <v>0.442704</v>
+        <v>0.419578</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5991379999999999</v>
+        <v>0.541743</v>
       </c>
       <c r="C76" t="n">
-        <v>0.561982</v>
+        <v>0.5008</v>
       </c>
       <c r="D76" t="n">
-        <v>0.473</v>
+        <v>0.428368</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.652069</v>
+        <v>0.552248</v>
       </c>
       <c r="C77" t="n">
-        <v>0.569139</v>
+        <v>0.518418</v>
       </c>
       <c r="D77" t="n">
-        <v>0.468834</v>
+        <v>0.441853</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.68184</v>
+        <v>0.558862</v>
       </c>
       <c r="C78" t="n">
-        <v>0.492542</v>
+        <v>0.455972</v>
       </c>
       <c r="D78" t="n">
-        <v>0.456894</v>
+        <v>0.419159</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.717426</v>
+        <v>0.558768</v>
       </c>
       <c r="C79" t="n">
-        <v>0.514622</v>
+        <v>0.445882</v>
       </c>
       <c r="D79" t="n">
-        <v>0.476064</v>
+        <v>0.42977</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7122810000000001</v>
+        <v>0.621026</v>
       </c>
       <c r="C80" t="n">
-        <v>0.505915</v>
+        <v>0.463033</v>
       </c>
       <c r="D80" t="n">
-        <v>0.499372</v>
+        <v>0.441509</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.840274</v>
+        <v>0.601201</v>
       </c>
       <c r="C81" t="n">
-        <v>0.690203</v>
+        <v>0.465334</v>
       </c>
       <c r="D81" t="n">
-        <v>0.645085</v>
+        <v>0.429872</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9765</v>
+        <v>0.622044</v>
       </c>
       <c r="C82" t="n">
-        <v>0.659394</v>
+        <v>0.499583</v>
       </c>
       <c r="D82" t="n">
-        <v>0.618576</v>
+        <v>0.462256</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.0741</v>
+        <v>0.690432</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6941079999999999</v>
+        <v>0.502463</v>
       </c>
       <c r="D83" t="n">
-        <v>0.627869</v>
+        <v>0.481311</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.944974</v>
+        <v>0.602062</v>
       </c>
       <c r="C84" t="n">
-        <v>0.74312</v>
+        <v>0.507531</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6755</v>
+        <v>0.468131</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.919582</v>
+        <v>0.6145</v>
       </c>
       <c r="C85" t="n">
-        <v>0.764717</v>
+        <v>0.523393</v>
       </c>
       <c r="D85" t="n">
-        <v>0.729257</v>
+        <v>0.470161</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.925285</v>
+        <v>0.658792</v>
       </c>
       <c r="C86" t="n">
-        <v>0.792041</v>
+        <v>0.531523</v>
       </c>
       <c r="D86" t="n">
-        <v>0.680625</v>
+        <v>0.488849</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.930496</v>
+        <v>0.626193</v>
       </c>
       <c r="C87" t="n">
-        <v>0.765572</v>
+        <v>0.568385</v>
       </c>
       <c r="D87" t="n">
-        <v>0.734856</v>
+        <v>0.486156</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.01651</v>
+        <v>0.687451</v>
       </c>
       <c r="C88" t="n">
-        <v>0.851422</v>
+        <v>0.561628</v>
       </c>
       <c r="D88" t="n">
-        <v>0.738522</v>
+        <v>0.514926</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.965444</v>
+        <v>0.833382</v>
       </c>
       <c r="C89" t="n">
-        <v>0.78234</v>
+        <v>0.586199</v>
       </c>
       <c r="D89" t="n">
-        <v>0.732217</v>
+        <v>0.519243</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.07367</v>
+        <v>0.731464</v>
       </c>
       <c r="C90" t="n">
-        <v>0.879887</v>
+        <v>0.63161</v>
       </c>
       <c r="D90" t="n">
-        <v>0.758086</v>
+        <v>0.548889</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.04678</v>
+        <v>0.750742</v>
       </c>
       <c r="C91" t="n">
-        <v>0.9144949999999999</v>
+        <v>0.711033</v>
       </c>
       <c r="D91" t="n">
-        <v>0.845008</v>
+        <v>0.54921</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.1684</v>
+        <v>0.925705</v>
       </c>
       <c r="C92" t="n">
-        <v>0.884207</v>
+        <v>0.684497</v>
       </c>
       <c r="D92" t="n">
-        <v>0.93877</v>
+        <v>0.593801</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.2919</v>
+        <v>0.924312</v>
       </c>
       <c r="C93" t="n">
-        <v>0.976437</v>
+        <v>0.697503</v>
       </c>
       <c r="D93" t="n">
-        <v>0.953291</v>
+        <v>0.613613</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.27314</v>
+        <v>0.902469</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8726120000000001</v>
+        <v>0.7211880000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.899074</v>
+        <v>0.603002</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.23361</v>
+        <v>0.920609</v>
       </c>
       <c r="C95" t="n">
-        <v>0.925901</v>
+        <v>0.79195</v>
       </c>
       <c r="D95" t="n">
-        <v>0.987909</v>
+        <v>0.621901</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.37526</v>
+        <v>0.905004</v>
       </c>
       <c r="C96" t="n">
-        <v>0.963267</v>
+        <v>0.704576</v>
       </c>
       <c r="D96" t="n">
-        <v>0.992722</v>
+        <v>0.615353</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.37381</v>
+        <v>1.08811</v>
       </c>
       <c r="C97" t="n">
-        <v>0.97622</v>
+        <v>0.7737540000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>1.02019</v>
+        <v>0.7255</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.22831</v>
+        <v>0.941604</v>
       </c>
       <c r="C98" t="n">
-        <v>1.06315</v>
+        <v>0.759186</v>
       </c>
       <c r="D98" t="n">
-        <v>1.00089</v>
+        <v>0.716432</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.20694</v>
+        <v>0.970839</v>
       </c>
       <c r="C99" t="n">
-        <v>1.05009</v>
+        <v>0.770617</v>
       </c>
       <c r="D99" t="n">
-        <v>0.998801</v>
+        <v>0.721813</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.26732</v>
+        <v>0.971776</v>
       </c>
       <c r="C100" t="n">
-        <v>1.08889</v>
+        <v>0.825503</v>
       </c>
       <c r="D100" t="n">
-        <v>1.07414</v>
+        <v>0.738266</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.30237</v>
+        <v>1.08191</v>
       </c>
       <c r="C101" t="n">
-        <v>1.108</v>
+        <v>0.882618</v>
       </c>
       <c r="D101" t="n">
-        <v>1.05297</v>
+        <v>0.994865</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.35011</v>
+        <v>1.18095</v>
       </c>
       <c r="C102" t="n">
-        <v>1.19185</v>
+        <v>1.02619</v>
       </c>
       <c r="D102" t="n">
-        <v>1.0838</v>
+        <v>0.8044210000000001</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.37896</v>
+        <v>1.09397</v>
       </c>
       <c r="C103" t="n">
-        <v>1.24852</v>
+        <v>0.933889</v>
       </c>
       <c r="D103" t="n">
-        <v>1.14726</v>
+        <v>0.842349</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.43789</v>
+        <v>1.16608</v>
       </c>
       <c r="C104" t="n">
-        <v>1.26314</v>
+        <v>0.956611</v>
       </c>
       <c r="D104" t="n">
-        <v>1.18797</v>
+        <v>0.885222</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.44655</v>
+        <v>1.12418</v>
       </c>
       <c r="C105" t="n">
-        <v>1.39461</v>
+        <v>0.991621</v>
       </c>
       <c r="D105" t="n">
-        <v>1.28051</v>
+        <v>0.948184</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.54283</v>
+        <v>1.22941</v>
       </c>
       <c r="C106" t="n">
-        <v>1.39153</v>
+        <v>1.18801</v>
       </c>
       <c r="D106" t="n">
-        <v>1.29592</v>
+        <v>0.88373</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.54802</v>
+        <v>1.1953</v>
       </c>
       <c r="C107" t="n">
-        <v>1.19888</v>
+        <v>0.9012289999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>1.11992</v>
+        <v>0.884841</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.4989</v>
+        <v>1.23223</v>
       </c>
       <c r="C108" t="n">
-        <v>1.11448</v>
+        <v>1.06188</v>
       </c>
       <c r="D108" t="n">
-        <v>1.15694</v>
+        <v>0.988837</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.59795</v>
+        <v>1.36685</v>
       </c>
       <c r="C109" t="n">
-        <v>1.1803</v>
+        <v>1.05871</v>
       </c>
       <c r="D109" t="n">
-        <v>1.17506</v>
+        <v>0.987552</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.50106</v>
+        <v>1.36451</v>
       </c>
       <c r="C110" t="n">
-        <v>1.21572</v>
+        <v>1.05692</v>
       </c>
       <c r="D110" t="n">
-        <v>1.19074</v>
+        <v>1.07345</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.61136</v>
+        <v>1.50799</v>
       </c>
       <c r="C111" t="n">
-        <v>1.20247</v>
+        <v>1.18019</v>
       </c>
       <c r="D111" t="n">
-        <v>1.19723</v>
+        <v>1.02931</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.40496</v>
+        <v>1.37405</v>
       </c>
       <c r="C112" t="n">
-        <v>1.22846</v>
+        <v>1.18435</v>
       </c>
       <c r="D112" t="n">
-        <v>1.20616</v>
+        <v>1.18081</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.4286</v>
+        <v>1.34986</v>
       </c>
       <c r="C113" t="n">
-        <v>1.29277</v>
+        <v>1.18533</v>
       </c>
       <c r="D113" t="n">
-        <v>1.26822</v>
+        <v>1.07842</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.42218</v>
+        <v>1.34578</v>
       </c>
       <c r="C114" t="n">
-        <v>1.39182</v>
+        <v>1.10371</v>
       </c>
       <c r="D114" t="n">
-        <v>1.26858</v>
+        <v>1.0763</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.47717</v>
+        <v>1.34244</v>
       </c>
       <c r="C115" t="n">
-        <v>1.27125</v>
+        <v>1.19561</v>
       </c>
       <c r="D115" t="n">
-        <v>1.26293</v>
+        <v>1.09279</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.48035</v>
+        <v>1.33813</v>
       </c>
       <c r="C116" t="n">
-        <v>1.33782</v>
+        <v>1.24915</v>
       </c>
       <c r="D116" t="n">
-        <v>1.30065</v>
+        <v>1.12582</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.50847</v>
+        <v>1.35552</v>
       </c>
       <c r="C117" t="n">
-        <v>1.39928</v>
+        <v>1.2518</v>
       </c>
       <c r="D117" t="n">
-        <v>1.26498</v>
+        <v>1.12933</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.55229</v>
+        <v>1.42503</v>
       </c>
       <c r="C118" t="n">
-        <v>1.47525</v>
+        <v>1.29419</v>
       </c>
       <c r="D118" t="n">
-        <v>1.3774</v>
+        <v>1.20921</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.60839</v>
+        <v>1.51545</v>
       </c>
       <c r="C119" t="n">
-        <v>1.55869</v>
+        <v>1.42284</v>
       </c>
       <c r="D119" t="n">
-        <v>1.45178</v>
+        <v>1.25099</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.601932</v>
+        <v>0.60728</v>
       </c>
       <c r="C2" t="n">
-        <v>0.335343</v>
+        <v>0.334929</v>
       </c>
       <c r="D2" t="n">
-        <v>0.254981</v>
+        <v>0.253603</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.41809</v>
+        <v>0.415169</v>
       </c>
       <c r="C3" t="n">
-        <v>0.339602</v>
+        <v>0.340912</v>
       </c>
       <c r="D3" t="n">
-        <v>0.256834</v>
+        <v>0.25699</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.422269</v>
+        <v>0.421229</v>
       </c>
       <c r="C4" t="n">
-        <v>0.360177</v>
+        <v>0.359124</v>
       </c>
       <c r="D4" t="n">
-        <v>0.266863</v>
+        <v>0.267131</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.424903</v>
+        <v>0.428934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.366316</v>
+        <v>0.367282</v>
       </c>
       <c r="D5" t="n">
-        <v>0.271472</v>
+        <v>0.273928</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.442669</v>
+        <v>0.442705</v>
       </c>
       <c r="C6" t="n">
-        <v>0.367402</v>
+        <v>0.365973</v>
       </c>
       <c r="D6" t="n">
-        <v>0.276099</v>
+        <v>0.276958</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.448675</v>
+        <v>0.455208</v>
       </c>
       <c r="C7" t="n">
-        <v>0.388684</v>
+        <v>0.391181</v>
       </c>
       <c r="D7" t="n">
-        <v>0.282961</v>
+        <v>0.28596</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.455892</v>
+        <v>0.45898</v>
       </c>
       <c r="C8" t="n">
-        <v>0.405692</v>
+        <v>0.406662</v>
       </c>
       <c r="D8" t="n">
-        <v>0.297961</v>
+        <v>0.297627</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.480273</v>
+        <v>0.483343</v>
       </c>
       <c r="C9" t="n">
-        <v>0.425844</v>
+        <v>0.427455</v>
       </c>
       <c r="D9" t="n">
-        <v>0.306496</v>
+        <v>0.309232</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.497016</v>
+        <v>0.498494</v>
       </c>
       <c r="C10" t="n">
-        <v>0.43956</v>
+        <v>0.443801</v>
       </c>
       <c r="D10" t="n">
-        <v>0.320955</v>
+        <v>0.321966</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.49955</v>
+        <v>0.502505</v>
       </c>
       <c r="C11" t="n">
-        <v>0.329629</v>
+        <v>0.330216</v>
       </c>
       <c r="D11" t="n">
-        <v>0.252147</v>
+        <v>0.253639</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.520628</v>
+        <v>0.528856</v>
       </c>
       <c r="C12" t="n">
-        <v>0.331755</v>
+        <v>0.332528</v>
       </c>
       <c r="D12" t="n">
-        <v>0.252454</v>
+        <v>0.2538</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.545557</v>
+        <v>0.549032</v>
       </c>
       <c r="C13" t="n">
-        <v>0.342347</v>
+        <v>0.344032</v>
       </c>
       <c r="D13" t="n">
-        <v>0.265131</v>
+        <v>0.263668</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.559597</v>
+        <v>0.558964</v>
       </c>
       <c r="C14" t="n">
-        <v>0.357303</v>
+        <v>0.356327</v>
       </c>
       <c r="D14" t="n">
-        <v>0.265507</v>
+        <v>0.266465</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5710460000000001</v>
+        <v>0.572862</v>
       </c>
       <c r="C15" t="n">
-        <v>0.369351</v>
+        <v>0.370888</v>
       </c>
       <c r="D15" t="n">
-        <v>0.271521</v>
+        <v>0.272937</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.590028</v>
+        <v>0.590441</v>
       </c>
       <c r="C16" t="n">
-        <v>0.380307</v>
+        <v>0.382322</v>
       </c>
       <c r="D16" t="n">
-        <v>0.282098</v>
+        <v>0.283438</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.372024</v>
+        <v>0.374139</v>
       </c>
       <c r="C17" t="n">
-        <v>0.39516</v>
+        <v>0.397753</v>
       </c>
       <c r="D17" t="n">
-        <v>0.28975</v>
+        <v>0.290137</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.385398</v>
+        <v>0.387763</v>
       </c>
       <c r="C18" t="n">
-        <v>0.400181</v>
+        <v>0.399693</v>
       </c>
       <c r="D18" t="n">
-        <v>0.292665</v>
+        <v>0.291951</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.398052</v>
+        <v>0.39895</v>
       </c>
       <c r="C19" t="n">
-        <v>0.422914</v>
+        <v>0.421641</v>
       </c>
       <c r="D19" t="n">
-        <v>0.300656</v>
+        <v>0.300295</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.409395</v>
+        <v>0.406074</v>
       </c>
       <c r="C20" t="n">
-        <v>0.43697</v>
+        <v>0.438287</v>
       </c>
       <c r="D20" t="n">
-        <v>0.313991</v>
+        <v>0.316597</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.411844</v>
+        <v>0.413435</v>
       </c>
       <c r="C21" t="n">
-        <v>0.452104</v>
+        <v>0.45056</v>
       </c>
       <c r="D21" t="n">
-        <v>0.324252</v>
+        <v>0.325627</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.429769</v>
+        <v>0.432744</v>
       </c>
       <c r="C22" t="n">
-        <v>0.465785</v>
+        <v>0.467117</v>
       </c>
       <c r="D22" t="n">
-        <v>0.333367</v>
+        <v>0.333168</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.449178</v>
+        <v>0.446003</v>
       </c>
       <c r="C23" t="n">
-        <v>0.484905</v>
+        <v>0.488231</v>
       </c>
       <c r="D23" t="n">
-        <v>0.34868</v>
+        <v>0.346875</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.460913</v>
+        <v>0.458994</v>
       </c>
       <c r="C24" t="n">
-        <v>0.500569</v>
+        <v>0.501711</v>
       </c>
       <c r="D24" t="n">
-        <v>0.355704</v>
+        <v>0.357397</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.479793</v>
+        <v>0.481278</v>
       </c>
       <c r="C25" t="n">
-        <v>0.52493</v>
+        <v>0.526239</v>
       </c>
       <c r="D25" t="n">
-        <v>0.367113</v>
+        <v>0.367709</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.493486</v>
+        <v>0.49184</v>
       </c>
       <c r="C26" t="n">
-        <v>0.328459</v>
+        <v>0.328534</v>
       </c>
       <c r="D26" t="n">
-        <v>0.252566</v>
+        <v>0.254328</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.511257</v>
+        <v>0.507898</v>
       </c>
       <c r="C27" t="n">
-        <v>0.332832</v>
+        <v>0.334634</v>
       </c>
       <c r="D27" t="n">
-        <v>0.255754</v>
+        <v>0.254737</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.530779</v>
+        <v>0.528928</v>
       </c>
       <c r="C28" t="n">
-        <v>0.344275</v>
+        <v>0.34375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.263231</v>
+        <v>0.261194</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.571033</v>
+        <v>0.562508</v>
       </c>
       <c r="C29" t="n">
-        <v>0.349029</v>
+        <v>0.349111</v>
       </c>
       <c r="D29" t="n">
-        <v>0.261281</v>
+        <v>0.264999</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.583889</v>
+        <v>0.5772080000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>0.364557</v>
+        <v>0.365441</v>
       </c>
       <c r="D30" t="n">
-        <v>0.270173</v>
+        <v>0.271028</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.618624</v>
+        <v>0.610946</v>
       </c>
       <c r="C31" t="n">
-        <v>0.377456</v>
+        <v>0.378018</v>
       </c>
       <c r="D31" t="n">
-        <v>0.279341</v>
+        <v>0.280012</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.425397</v>
+        <v>0.426871</v>
       </c>
       <c r="C32" t="n">
-        <v>0.391976</v>
+        <v>0.396584</v>
       </c>
       <c r="D32" t="n">
-        <v>0.285149</v>
+        <v>0.285972</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.442646</v>
+        <v>0.442307</v>
       </c>
       <c r="C33" t="n">
-        <v>0.413138</v>
+        <v>0.412816</v>
       </c>
       <c r="D33" t="n">
-        <v>0.296209</v>
+        <v>0.29431</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.462729</v>
+        <v>0.457566</v>
       </c>
       <c r="C34" t="n">
-        <v>0.436556</v>
+        <v>0.431626</v>
       </c>
       <c r="D34" t="n">
-        <v>0.30389</v>
+        <v>0.303395</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.49703</v>
+        <v>0.495896</v>
       </c>
       <c r="C35" t="n">
-        <v>0.460649</v>
+        <v>0.460067</v>
       </c>
       <c r="D35" t="n">
-        <v>0.312852</v>
+        <v>0.313191</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.511124</v>
+        <v>0.504297</v>
       </c>
       <c r="C36" t="n">
-        <v>0.488856</v>
+        <v>0.489242</v>
       </c>
       <c r="D36" t="n">
-        <v>0.324699</v>
+        <v>0.326433</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.536243</v>
+        <v>0.534144</v>
       </c>
       <c r="C37" t="n">
-        <v>0.518888</v>
+        <v>0.51862</v>
       </c>
       <c r="D37" t="n">
-        <v>0.337901</v>
+        <v>0.337835</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.572749</v>
+        <v>0.566367</v>
       </c>
       <c r="C38" t="n">
-        <v>0.548812</v>
+        <v>0.550695</v>
       </c>
       <c r="D38" t="n">
-        <v>0.352861</v>
+        <v>0.354703</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5952769999999999</v>
+        <v>0.595703</v>
       </c>
       <c r="C39" t="n">
-        <v>0.583105</v>
+        <v>0.5842270000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.372189</v>
+        <v>0.370331</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.629771</v>
+        <v>0.623084</v>
       </c>
       <c r="C40" t="n">
-        <v>0.402743</v>
+        <v>0.402014</v>
       </c>
       <c r="D40" t="n">
-        <v>0.286248</v>
+        <v>0.291209</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.661462</v>
+        <v>0.657703</v>
       </c>
       <c r="C41" t="n">
-        <v>0.421617</v>
+        <v>0.424308</v>
       </c>
       <c r="D41" t="n">
-        <v>0.300749</v>
+        <v>0.296106</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.70048</v>
+        <v>0.690808</v>
       </c>
       <c r="C42" t="n">
-        <v>0.443022</v>
+        <v>0.447009</v>
       </c>
       <c r="D42" t="n">
-        <v>0.313949</v>
+        <v>0.309856</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.733894</v>
+        <v>0.7272149999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.465812</v>
+        <v>0.464162</v>
       </c>
       <c r="D43" t="n">
-        <v>0.322905</v>
+        <v>0.325821</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.768854</v>
+        <v>0.76354</v>
       </c>
       <c r="C44" t="n">
-        <v>0.499677</v>
+        <v>0.497957</v>
       </c>
       <c r="D44" t="n">
-        <v>0.339308</v>
+        <v>0.336358</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8082819999999999</v>
+        <v>0.80593</v>
       </c>
       <c r="C45" t="n">
-        <v>0.516039</v>
+        <v>0.513362</v>
       </c>
       <c r="D45" t="n">
-        <v>0.350716</v>
+        <v>0.355239</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.56076</v>
+        <v>0.557787</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5488420000000001</v>
+        <v>0.540595</v>
       </c>
       <c r="D46" t="n">
-        <v>0.36739</v>
+        <v>0.369738</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.586226</v>
+        <v>0.582881</v>
       </c>
       <c r="C47" t="n">
-        <v>0.575774</v>
+        <v>0.57417</v>
       </c>
       <c r="D47" t="n">
-        <v>0.385938</v>
+        <v>0.38407</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.615503</v>
+        <v>0.611901</v>
       </c>
       <c r="C48" t="n">
-        <v>0.599285</v>
+        <v>0.5961379999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.401182</v>
+        <v>0.402855</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.635958</v>
+        <v>0.635786</v>
       </c>
       <c r="C49" t="n">
-        <v>0.62895</v>
+        <v>0.626234</v>
       </c>
       <c r="D49" t="n">
-        <v>0.420374</v>
+        <v>0.412234</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.666179</v>
+        <v>0.653416</v>
       </c>
       <c r="C50" t="n">
-        <v>0.659959</v>
+        <v>0.657859</v>
       </c>
       <c r="D50" t="n">
-        <v>0.436917</v>
+        <v>0.433766</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.70762</v>
+        <v>0.704589</v>
       </c>
       <c r="C51" t="n">
-        <v>0.696003</v>
+        <v>0.691647</v>
       </c>
       <c r="D51" t="n">
-        <v>0.455645</v>
+        <v>0.452897</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.728201</v>
+        <v>0.726779</v>
       </c>
       <c r="C52" t="n">
-        <v>0.73006</v>
+        <v>0.7394500000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.476538</v>
+        <v>0.471317</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.758844</v>
+        <v>0.749899</v>
       </c>
       <c r="C53" t="n">
-        <v>0.771187</v>
+        <v>0.747379</v>
       </c>
       <c r="D53" t="n">
-        <v>0.50002</v>
+        <v>0.497377</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.820364</v>
+        <v>0.796188</v>
       </c>
       <c r="C54" t="n">
-        <v>0.546044</v>
+        <v>0.545546</v>
       </c>
       <c r="D54" t="n">
-        <v>0.393173</v>
+        <v>0.394578</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.885087</v>
+        <v>0.824084</v>
       </c>
       <c r="C55" t="n">
-        <v>0.574959</v>
+        <v>0.566324</v>
       </c>
       <c r="D55" t="n">
-        <v>0.408423</v>
+        <v>0.400811</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9121629999999999</v>
+        <v>0.860747</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6036589999999999</v>
+        <v>0.588267</v>
       </c>
       <c r="D56" t="n">
-        <v>0.418857</v>
+        <v>0.41449</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.969329</v>
+        <v>0.89844</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6260869999999999</v>
+        <v>0.611926</v>
       </c>
       <c r="D57" t="n">
-        <v>0.437757</v>
+        <v>0.434019</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.01215</v>
+        <v>0.94931</v>
       </c>
       <c r="C58" t="n">
-        <v>0.668121</v>
+        <v>0.637771</v>
       </c>
       <c r="D58" t="n">
-        <v>0.456755</v>
+        <v>0.450952</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.08471</v>
+        <v>0.967929</v>
       </c>
       <c r="C59" t="n">
-        <v>0.705593</v>
+        <v>0.675504</v>
       </c>
       <c r="D59" t="n">
-        <v>0.473803</v>
+        <v>0.46376</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.735245</v>
+        <v>0.683752</v>
       </c>
       <c r="C60" t="n">
-        <v>0.753324</v>
+        <v>0.683932</v>
       </c>
       <c r="D60" t="n">
-        <v>0.491619</v>
+        <v>0.476634</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.772644</v>
+        <v>0.713436</v>
       </c>
       <c r="C61" t="n">
-        <v>0.798712</v>
+        <v>0.73478</v>
       </c>
       <c r="D61" t="n">
-        <v>0.509804</v>
+        <v>0.498684</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.828882</v>
+        <v>0.750764</v>
       </c>
       <c r="C62" t="n">
-        <v>0.812225</v>
+        <v>0.7548820000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.557764</v>
+        <v>0.510197</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.855757</v>
+        <v>0.775911</v>
       </c>
       <c r="C63" t="n">
-        <v>0.859096</v>
+        <v>0.795656</v>
       </c>
       <c r="D63" t="n">
-        <v>0.557621</v>
+        <v>0.531926</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.884455</v>
+        <v>0.820786</v>
       </c>
       <c r="C64" t="n">
-        <v>0.990615</v>
+        <v>0.829759</v>
       </c>
       <c r="D64" t="n">
-        <v>0.592039</v>
+        <v>0.564281</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.938385</v>
+        <v>0.8710560000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.9783539999999999</v>
+        <v>0.885904</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6051840000000001</v>
+        <v>0.590449</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.969184</v>
+        <v>0.908429</v>
       </c>
       <c r="C66" t="n">
-        <v>1.01416</v>
+        <v>0.917184</v>
       </c>
       <c r="D66" t="n">
-        <v>0.638987</v>
+        <v>0.618218</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.15728</v>
+        <v>0.947242</v>
       </c>
       <c r="C67" t="n">
-        <v>1.19359</v>
+        <v>0.994301</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6832780000000001</v>
+        <v>0.6447349999999999</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.11881</v>
+        <v>0.995845</v>
       </c>
       <c r="C68" t="n">
-        <v>0.723974</v>
+        <v>0.662157</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5382209999999999</v>
+        <v>0.480928</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.32486</v>
+        <v>1.07621</v>
       </c>
       <c r="C69" t="n">
-        <v>0.74599</v>
+        <v>0.677412</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5252019999999999</v>
+        <v>0.500958</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.38776</v>
+        <v>1.09401</v>
       </c>
       <c r="C70" t="n">
-        <v>0.860608</v>
+        <v>0.73344</v>
       </c>
       <c r="D70" t="n">
-        <v>0.550463</v>
+        <v>0.522021</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.41556</v>
+        <v>1.18427</v>
       </c>
       <c r="C71" t="n">
-        <v>0.866521</v>
+        <v>0.745995</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6051029999999999</v>
+        <v>0.5363</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.51875</v>
+        <v>1.2068</v>
       </c>
       <c r="C72" t="n">
-        <v>0.907996</v>
+        <v>0.784725</v>
       </c>
       <c r="D72" t="n">
-        <v>0.624219</v>
+        <v>0.55119</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.5665</v>
+        <v>1.29722</v>
       </c>
       <c r="C73" t="n">
-        <v>0.971585</v>
+        <v>0.8003479999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.630431</v>
+        <v>0.577478</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.05475</v>
+        <v>0.8751100000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>1.02024</v>
+        <v>0.876304</v>
       </c>
       <c r="D74" t="n">
-        <v>0.650482</v>
+        <v>0.602757</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.10963</v>
+        <v>0.916448</v>
       </c>
       <c r="C75" t="n">
-        <v>1.07094</v>
+        <v>0.891757</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6971580000000001</v>
+        <v>0.619881</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.20736</v>
+        <v>0.943955</v>
       </c>
       <c r="C76" t="n">
-        <v>1.1458</v>
+        <v>0.946624</v>
       </c>
       <c r="D76" t="n">
-        <v>0.719021</v>
+        <v>0.645965</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.33556</v>
+        <v>0.979147</v>
       </c>
       <c r="C77" t="n">
-        <v>1.40236</v>
+        <v>1.01147</v>
       </c>
       <c r="D77" t="n">
-        <v>0.841049</v>
+        <v>0.682127</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.36838</v>
+        <v>1.06121</v>
       </c>
       <c r="C78" t="n">
-        <v>1.43898</v>
+        <v>1.04456</v>
       </c>
       <c r="D78" t="n">
-        <v>0.865455</v>
+        <v>0.710311</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.44491</v>
+        <v>1.06249</v>
       </c>
       <c r="C79" t="n">
-        <v>1.41788</v>
+        <v>1.09645</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8776080000000001</v>
+        <v>0.728862</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.71438</v>
+        <v>1.12138</v>
       </c>
       <c r="C80" t="n">
-        <v>1.6846</v>
+        <v>1.17623</v>
       </c>
       <c r="D80" t="n">
-        <v>0.98329</v>
+        <v>0.759219</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.70962</v>
+        <v>1.18795</v>
       </c>
       <c r="C81" t="n">
-        <v>1.777</v>
+        <v>1.23099</v>
       </c>
       <c r="D81" t="n">
-        <v>1.02498</v>
+        <v>0.8200769999999999</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.94398</v>
+        <v>1.45626</v>
       </c>
       <c r="C82" t="n">
-        <v>1.78902</v>
+        <v>1.39575</v>
       </c>
       <c r="D82" t="n">
-        <v>1.06812</v>
+        <v>0.880194</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.91152</v>
+        <v>1.53678</v>
       </c>
       <c r="C83" t="n">
-        <v>1.37071</v>
+        <v>1.10212</v>
       </c>
       <c r="D83" t="n">
-        <v>0.828163</v>
+        <v>0.734647</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.01772</v>
+        <v>1.67697</v>
       </c>
       <c r="C84" t="n">
-        <v>1.38345</v>
+        <v>1.15179</v>
       </c>
       <c r="D84" t="n">
-        <v>0.90181</v>
+        <v>0.714585</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.30935</v>
+        <v>1.59556</v>
       </c>
       <c r="C85" t="n">
-        <v>1.51742</v>
+        <v>1.21285</v>
       </c>
       <c r="D85" t="n">
-        <v>0.943543</v>
+        <v>0.726426</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.26137</v>
+        <v>1.86744</v>
       </c>
       <c r="C86" t="n">
-        <v>1.63144</v>
+        <v>1.27846</v>
       </c>
       <c r="D86" t="n">
-        <v>0.98423</v>
+        <v>0.82836</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.24725</v>
+        <v>2.10496</v>
       </c>
       <c r="C87" t="n">
-        <v>1.65576</v>
+        <v>1.43249</v>
       </c>
       <c r="D87" t="n">
-        <v>1.05265</v>
+        <v>0.869259</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.48136</v>
+        <v>2.31257</v>
       </c>
       <c r="C88" t="n">
-        <v>1.7559</v>
+        <v>1.62342</v>
       </c>
       <c r="D88" t="n">
-        <v>1.08268</v>
+        <v>0.946491</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.73013</v>
+        <v>1.51886</v>
       </c>
       <c r="C89" t="n">
-        <v>1.86005</v>
+        <v>1.61591</v>
       </c>
       <c r="D89" t="n">
-        <v>1.35206</v>
+        <v>1.00862</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.09851</v>
+        <v>1.60824</v>
       </c>
       <c r="C90" t="n">
-        <v>2.13402</v>
+        <v>1.81902</v>
       </c>
       <c r="D90" t="n">
-        <v>1.38748</v>
+        <v>0.961912</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.01233</v>
+        <v>1.58313</v>
       </c>
       <c r="C91" t="n">
-        <v>1.92467</v>
+        <v>1.93513</v>
       </c>
       <c r="D91" t="n">
-        <v>1.24296</v>
+        <v>1.13003</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.99858</v>
+        <v>1.66358</v>
       </c>
       <c r="C92" t="n">
-        <v>2.22355</v>
+        <v>1.75856</v>
       </c>
       <c r="D92" t="n">
-        <v>1.34634</v>
+        <v>1.0504</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.00931</v>
+        <v>1.72449</v>
       </c>
       <c r="C93" t="n">
-        <v>2.28209</v>
+        <v>1.99806</v>
       </c>
       <c r="D93" t="n">
-        <v>1.41979</v>
+        <v>1.15705</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.18663</v>
+        <v>1.70308</v>
       </c>
       <c r="C94" t="n">
-        <v>2.5161</v>
+        <v>1.87273</v>
       </c>
       <c r="D94" t="n">
-        <v>1.42574</v>
+        <v>1.03822</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.46114</v>
+        <v>1.57101</v>
       </c>
       <c r="C95" t="n">
-        <v>2.56223</v>
+        <v>1.82548</v>
       </c>
       <c r="D95" t="n">
-        <v>1.46335</v>
+        <v>1.14035</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.42412</v>
+        <v>1.70735</v>
       </c>
       <c r="C96" t="n">
-        <v>2.73454</v>
+        <v>1.82272</v>
       </c>
       <c r="D96" t="n">
-        <v>1.56125</v>
+        <v>1.07149</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.47362</v>
+        <v>1.69315</v>
       </c>
       <c r="C97" t="n">
-        <v>1.73603</v>
+        <v>1.18588</v>
       </c>
       <c r="D97" t="n">
-        <v>1.18792</v>
+        <v>0.827746</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.68614</v>
+        <v>1.97209</v>
       </c>
       <c r="C98" t="n">
-        <v>1.92012</v>
+        <v>1.26871</v>
       </c>
       <c r="D98" t="n">
-        <v>1.32047</v>
+        <v>0.950489</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.64808</v>
+        <v>2.08224</v>
       </c>
       <c r="C99" t="n">
-        <v>1.91289</v>
+        <v>1.79385</v>
       </c>
       <c r="D99" t="n">
-        <v>1.23851</v>
+        <v>1.06942</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.83843</v>
+        <v>2.40017</v>
       </c>
       <c r="C100" t="n">
-        <v>1.95945</v>
+        <v>1.42247</v>
       </c>
       <c r="D100" t="n">
-        <v>1.30729</v>
+        <v>0.878907</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.0104</v>
+        <v>2.14865</v>
       </c>
       <c r="C101" t="n">
-        <v>2.02231</v>
+        <v>1.40731</v>
       </c>
       <c r="D101" t="n">
-        <v>1.34375</v>
+        <v>0.933436</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.33391</v>
+        <v>2.44158</v>
       </c>
       <c r="C102" t="n">
-        <v>2.34539</v>
+        <v>1.48261</v>
       </c>
       <c r="D102" t="n">
-        <v>1.67513</v>
+        <v>1.01299</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.25528</v>
+        <v>1.5179</v>
       </c>
       <c r="C103" t="n">
-        <v>2.45207</v>
+        <v>1.55332</v>
       </c>
       <c r="D103" t="n">
-        <v>1.56932</v>
+        <v>0.97616</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.32252</v>
+        <v>1.61215</v>
       </c>
       <c r="C104" t="n">
-        <v>2.25898</v>
+        <v>1.62589</v>
       </c>
       <c r="D104" t="n">
-        <v>1.55209</v>
+        <v>1.00795</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.44247</v>
+        <v>1.69095</v>
       </c>
       <c r="C105" t="n">
-        <v>2.42892</v>
+        <v>1.77726</v>
       </c>
       <c r="D105" t="n">
-        <v>1.64089</v>
+        <v>1.09073</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.48042</v>
+        <v>1.73777</v>
       </c>
       <c r="C106" t="n">
-        <v>2.5286</v>
+        <v>1.87496</v>
       </c>
       <c r="D106" t="n">
-        <v>1.74131</v>
+        <v>1.10782</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.66702</v>
+        <v>2.05558</v>
       </c>
       <c r="C107" t="n">
-        <v>2.69976</v>
+        <v>1.95724</v>
       </c>
       <c r="D107" t="n">
-        <v>2.00286</v>
+        <v>1.21022</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.7833</v>
+        <v>1.97716</v>
       </c>
       <c r="C108" t="n">
-        <v>2.82946</v>
+        <v>2.06011</v>
       </c>
       <c r="D108" t="n">
-        <v>1.79723</v>
+        <v>1.25837</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.85073</v>
+        <v>2.08621</v>
       </c>
       <c r="C109" t="n">
-        <v>3.03178</v>
+        <v>2.2151</v>
       </c>
       <c r="D109" t="n">
-        <v>1.90182</v>
+        <v>1.40292</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>3.03782</v>
+        <v>2.24556</v>
       </c>
       <c r="C110" t="n">
-        <v>3.30388</v>
+        <v>2.49239</v>
       </c>
       <c r="D110" t="n">
-        <v>2.1212</v>
+        <v>1.47915</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.16982</v>
+        <v>2.33249</v>
       </c>
       <c r="C111" t="n">
-        <v>2.21342</v>
+        <v>1.54911</v>
       </c>
       <c r="D111" t="n">
-        <v>1.61615</v>
+        <v>1.05991</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.24164</v>
+        <v>2.4851</v>
       </c>
       <c r="C112" t="n">
-        <v>2.18027</v>
+        <v>1.64568</v>
       </c>
       <c r="D112" t="n">
-        <v>1.61359</v>
+        <v>1.14173</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.43627</v>
+        <v>2.64969</v>
       </c>
       <c r="C113" t="n">
-        <v>2.3491</v>
+        <v>1.75561</v>
       </c>
       <c r="D113" t="n">
-        <v>1.57563</v>
+        <v>1.14702</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.45318</v>
+        <v>2.7493</v>
       </c>
       <c r="C114" t="n">
-        <v>2.29192</v>
+        <v>1.81546</v>
       </c>
       <c r="D114" t="n">
-        <v>1.67756</v>
+        <v>1.24786</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.56173</v>
+        <v>2.84929</v>
       </c>
       <c r="C115" t="n">
-        <v>2.37157</v>
+        <v>1.92312</v>
       </c>
       <c r="D115" t="n">
-        <v>1.78436</v>
+        <v>1.27813</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.73211</v>
+        <v>3.02883</v>
       </c>
       <c r="C116" t="n">
-        <v>2.5593</v>
+        <v>2.03475</v>
       </c>
       <c r="D116" t="n">
-        <v>1.95933</v>
+        <v>1.4349</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.72636</v>
+        <v>2.23512</v>
       </c>
       <c r="C117" t="n">
-        <v>2.79438</v>
+        <v>2.22223</v>
       </c>
       <c r="D117" t="n">
-        <v>2.14559</v>
+        <v>1.58855</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.87246</v>
+        <v>2.40336</v>
       </c>
       <c r="C118" t="n">
-        <v>2.9817</v>
+        <v>2.313</v>
       </c>
       <c r="D118" t="n">
-        <v>2.18041</v>
+        <v>1.57207</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.90034</v>
+        <v>2.31667</v>
       </c>
       <c r="C119" t="n">
-        <v>3.00321</v>
+        <v>2.3402</v>
       </c>
       <c r="D119" t="n">
-        <v>2.25345</v>
+        <v>1.55804</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered successful looukp.xlsx
+++ b/vs/scattered successful looukp.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.252408</v>
+        <v>0.214774</v>
       </c>
       <c r="C2" t="n">
-        <v>0.214705</v>
+        <v>0.191411</v>
       </c>
       <c r="D2" t="n">
-        <v>0.257042</v>
+        <v>0.206075</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.256391</v>
+        <v>0.243907</v>
       </c>
       <c r="C3" t="n">
-        <v>0.239759</v>
+        <v>0.199067</v>
       </c>
       <c r="D3" t="n">
-        <v>0.260982</v>
+        <v>0.209818</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.261994</v>
+        <v>0.214503</v>
       </c>
       <c r="C4" t="n">
-        <v>0.224327</v>
+        <v>0.23057</v>
       </c>
       <c r="D4" t="n">
-        <v>0.262954</v>
+        <v>0.257284</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.273874</v>
+        <v>0.223541</v>
       </c>
       <c r="C5" t="n">
-        <v>0.229756</v>
+        <v>0.228877</v>
       </c>
       <c r="D5" t="n">
-        <v>0.270529</v>
+        <v>0.219643</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.292004</v>
+        <v>0.223064</v>
       </c>
       <c r="C6" t="n">
-        <v>0.243653</v>
+        <v>0.206449</v>
       </c>
       <c r="D6" t="n">
-        <v>0.274696</v>
+        <v>0.223735</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.289156</v>
+        <v>0.227749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.203742</v>
+        <v>0.172987</v>
       </c>
       <c r="D7" t="n">
-        <v>0.23294</v>
+        <v>0.193373</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.284002</v>
+        <v>0.234651</v>
       </c>
       <c r="C8" t="n">
-        <v>0.214764</v>
+        <v>0.179808</v>
       </c>
       <c r="D8" t="n">
-        <v>0.233658</v>
+        <v>0.200321</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.309116</v>
+        <v>0.237291</v>
       </c>
       <c r="C9" t="n">
-        <v>0.207871</v>
+        <v>0.179419</v>
       </c>
       <c r="D9" t="n">
-        <v>0.242761</v>
+        <v>0.201159</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.330494</v>
+        <v>0.242276</v>
       </c>
       <c r="C10" t="n">
-        <v>0.215487</v>
+        <v>0.182023</v>
       </c>
       <c r="D10" t="n">
-        <v>0.260777</v>
+        <v>0.205317</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.324835</v>
+        <v>0.245671</v>
       </c>
       <c r="C11" t="n">
-        <v>0.219415</v>
+        <v>0.18557</v>
       </c>
       <c r="D11" t="n">
-        <v>0.260326</v>
+        <v>0.206971</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.327636</v>
+        <v>0.248561</v>
       </c>
       <c r="C12" t="n">
-        <v>0.227016</v>
+        <v>0.188756</v>
       </c>
       <c r="D12" t="n">
-        <v>0.254962</v>
+        <v>0.210776</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.968461</v>
+        <v>0.213644</v>
       </c>
       <c r="C13" t="n">
-        <v>0.236639</v>
+        <v>0.189838</v>
       </c>
       <c r="D13" t="n">
-        <v>0.284533</v>
+        <v>0.211939</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>1.13605</v>
+        <v>0.222645</v>
       </c>
       <c r="C14" t="n">
-        <v>0.261201</v>
+        <v>0.192278</v>
       </c>
       <c r="D14" t="n">
-        <v>0.287118</v>
+        <v>0.21566</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>1.14386</v>
+        <v>0.220299</v>
       </c>
       <c r="C15" t="n">
-        <v>0.268466</v>
+        <v>0.20753</v>
       </c>
       <c r="D15" t="n">
-        <v>0.328495</v>
+        <v>0.221203</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>1.21498</v>
+        <v>0.222154</v>
       </c>
       <c r="C16" t="n">
-        <v>0.275473</v>
+        <v>0.200742</v>
       </c>
       <c r="D16" t="n">
-        <v>0.326417</v>
+        <v>0.223673</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>1.21283</v>
+        <v>0.225407</v>
       </c>
       <c r="C17" t="n">
-        <v>0.39606</v>
+        <v>0.20561</v>
       </c>
       <c r="D17" t="n">
-        <v>0.360851</v>
+        <v>0.231461</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>1.23648</v>
+        <v>0.268851</v>
       </c>
       <c r="C18" t="n">
-        <v>0.480097</v>
+        <v>0.208907</v>
       </c>
       <c r="D18" t="n">
-        <v>0.453474</v>
+        <v>0.232493</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>1.31615</v>
+        <v>0.232626</v>
       </c>
       <c r="C19" t="n">
-        <v>0.55379</v>
+        <v>0.213164</v>
       </c>
       <c r="D19" t="n">
-        <v>0.574087</v>
+        <v>0.237057</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>1.27034</v>
+        <v>0.236708</v>
       </c>
       <c r="C20" t="n">
-        <v>0.593312</v>
+        <v>0.21679</v>
       </c>
       <c r="D20" t="n">
-        <v>0.675522</v>
+        <v>0.240814</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>1.23405</v>
+        <v>0.240986</v>
       </c>
       <c r="C21" t="n">
-        <v>0.914893</v>
+        <v>0.183781</v>
       </c>
       <c r="D21" t="n">
-        <v>0.96199</v>
+        <v>0.204213</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>1.35195</v>
+        <v>0.243701</v>
       </c>
       <c r="C22" t="n">
-        <v>0.878363</v>
+        <v>0.194531</v>
       </c>
       <c r="D22" t="n">
-        <v>1.03526</v>
+        <v>0.210128</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>1.38113</v>
+        <v>0.248677</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8740520000000001</v>
+        <v>0.190566</v>
       </c>
       <c r="D23" t="n">
-        <v>1.10777</v>
+        <v>0.213643</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>1.52574</v>
+        <v>0.253307</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0378</v>
+        <v>0.193995</v>
       </c>
       <c r="D24" t="n">
-        <v>1.09537</v>
+        <v>0.216407</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>1.45373</v>
+        <v>0.255932</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0094</v>
+        <v>0.195698</v>
       </c>
       <c r="D25" t="n">
-        <v>1.14648</v>
+        <v>0.22802</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>1.33378</v>
+        <v>0.289582</v>
       </c>
       <c r="C26" t="n">
-        <v>0.993367</v>
+        <v>0.197682</v>
       </c>
       <c r="D26" t="n">
-        <v>1.02804</v>
+        <v>0.22189</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>1.31798</v>
+        <v>0.221815</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9586479999999999</v>
+        <v>0.201305</v>
       </c>
       <c r="D27" t="n">
-        <v>1.15026</v>
+        <v>0.225415</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>1.41558</v>
+        <v>0.230778</v>
       </c>
       <c r="C28" t="n">
-        <v>1.05198</v>
+        <v>0.209484</v>
       </c>
       <c r="D28" t="n">
-        <v>1.14277</v>
+        <v>0.234476</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>1.53688</v>
+        <v>0.239502</v>
       </c>
       <c r="C29" t="n">
-        <v>1.16111</v>
+        <v>0.209816</v>
       </c>
       <c r="D29" t="n">
-        <v>1.32184</v>
+        <v>0.233906</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>1.56822</v>
+        <v>0.234856</v>
       </c>
       <c r="C30" t="n">
-        <v>1.22522</v>
+        <v>0.216852</v>
       </c>
       <c r="D30" t="n">
-        <v>1.36433</v>
+        <v>0.242399</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>1.54148</v>
+        <v>0.240916</v>
       </c>
       <c r="C31" t="n">
-        <v>1.1849</v>
+        <v>0.216634</v>
       </c>
       <c r="D31" t="n">
-        <v>1.39833</v>
+        <v>0.255319</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>1.66088</v>
+        <v>0.244328</v>
       </c>
       <c r="C32" t="n">
-        <v>1.26974</v>
+        <v>0.22449</v>
       </c>
       <c r="D32" t="n">
-        <v>1.45569</v>
+        <v>0.250028</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>1.39185</v>
+        <v>0.306472</v>
       </c>
       <c r="C33" t="n">
-        <v>0.880954</v>
+        <v>0.277722</v>
       </c>
       <c r="D33" t="n">
-        <v>1.36125</v>
+        <v>0.287046</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>1.51898</v>
+        <v>0.260437</v>
       </c>
       <c r="C34" t="n">
-        <v>1.17268</v>
+        <v>0.232909</v>
       </c>
       <c r="D34" t="n">
-        <v>1.5645</v>
+        <v>0.256378</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>1.69452</v>
+        <v>0.258694</v>
       </c>
       <c r="C35" t="n">
-        <v>1.18538</v>
+        <v>0.203573</v>
       </c>
       <c r="D35" t="n">
-        <v>1.4523</v>
+        <v>0.222559</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>1.67874</v>
+        <v>0.265048</v>
       </c>
       <c r="C36" t="n">
-        <v>1.14797</v>
+        <v>0.21001</v>
       </c>
       <c r="D36" t="n">
-        <v>1.18784</v>
+        <v>0.229077</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>1.55272</v>
+        <v>0.274702</v>
       </c>
       <c r="C37" t="n">
-        <v>1.01076</v>
+        <v>0.213765</v>
       </c>
       <c r="D37" t="n">
-        <v>1.49615</v>
+        <v>0.229617</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>2.09384</v>
+        <v>0.276621</v>
       </c>
       <c r="C38" t="n">
-        <v>1.26057</v>
+        <v>0.216155</v>
       </c>
       <c r="D38" t="n">
-        <v>1.59315</v>
+        <v>0.235434</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>2.01064</v>
+        <v>0.28465</v>
       </c>
       <c r="C39" t="n">
-        <v>1.19563</v>
+        <v>0.2208</v>
       </c>
       <c r="D39" t="n">
-        <v>1.52805</v>
+        <v>0.242461</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>1.84575</v>
+        <v>0.290492</v>
       </c>
       <c r="C40" t="n">
-        <v>0.938706</v>
+        <v>0.252899</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7025670000000001</v>
+        <v>0.283011</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>1.32067</v>
+        <v>0.291758</v>
       </c>
       <c r="C41" t="n">
-        <v>1.24737</v>
+        <v>0.269795</v>
       </c>
       <c r="D41" t="n">
-        <v>1.54213</v>
+        <v>0.254187</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>1.81516</v>
+        <v>0.295645</v>
       </c>
       <c r="C42" t="n">
-        <v>0.266171</v>
+        <v>0.237316</v>
       </c>
       <c r="D42" t="n">
-        <v>1.65882</v>
+        <v>0.260097</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>1.92979</v>
+        <v>0.306853</v>
       </c>
       <c r="C43" t="n">
-        <v>1.04027</v>
+        <v>0.24556</v>
       </c>
       <c r="D43" t="n">
-        <v>0.64551</v>
+        <v>0.266609</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.323935</v>
+        <v>0.314712</v>
       </c>
       <c r="C44" t="n">
-        <v>0.268169</v>
+        <v>0.252258</v>
       </c>
       <c r="D44" t="n">
-        <v>0.318717</v>
+        <v>0.274701</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.332468</v>
+        <v>0.335133</v>
       </c>
       <c r="C45" t="n">
-        <v>0.274759</v>
+        <v>0.263896</v>
       </c>
       <c r="D45" t="n">
-        <v>0.323281</v>
+        <v>0.28243</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.334883</v>
+        <v>0.339264</v>
       </c>
       <c r="C46" t="n">
-        <v>0.277114</v>
+        <v>0.268995</v>
       </c>
       <c r="D46" t="n">
-        <v>0.331235</v>
+        <v>0.28596</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.350155</v>
+        <v>0.336942</v>
       </c>
       <c r="C47" t="n">
-        <v>0.285696</v>
+        <v>0.276671</v>
       </c>
       <c r="D47" t="n">
-        <v>0.347119</v>
+        <v>0.294989</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.352802</v>
+        <v>0.352846</v>
       </c>
       <c r="C48" t="n">
-        <v>0.289373</v>
+        <v>0.278548</v>
       </c>
       <c r="D48" t="n">
-        <v>0.362605</v>
+        <v>0.300876</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.360393</v>
+        <v>0.35812</v>
       </c>
       <c r="C49" t="n">
-        <v>0.294428</v>
+        <v>0.286543</v>
       </c>
       <c r="D49" t="n">
-        <v>0.358431</v>
+        <v>0.306568</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.360388</v>
+        <v>0.384919</v>
       </c>
       <c r="C50" t="n">
-        <v>0.258397</v>
+        <v>0.295451</v>
       </c>
       <c r="D50" t="n">
-        <v>0.284686</v>
+        <v>0.292978</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.36723</v>
+        <v>0.392617</v>
       </c>
       <c r="C51" t="n">
-        <v>0.258675</v>
+        <v>0.281</v>
       </c>
       <c r="D51" t="n">
-        <v>0.288544</v>
+        <v>0.30372</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.372738</v>
+        <v>0.429531</v>
       </c>
       <c r="C52" t="n">
-        <v>0.260322</v>
+        <v>0.306472</v>
       </c>
       <c r="D52" t="n">
-        <v>0.291214</v>
+        <v>0.310191</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.389273</v>
+        <v>0.431326</v>
       </c>
       <c r="C53" t="n">
-        <v>0.268153</v>
+        <v>0.312879</v>
       </c>
       <c r="D53" t="n">
-        <v>0.300497</v>
+        <v>0.318081</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.393635</v>
+        <v>0.441788</v>
       </c>
       <c r="C54" t="n">
-        <v>0.273752</v>
+        <v>0.329714</v>
       </c>
       <c r="D54" t="n">
-        <v>0.308129</v>
+        <v>0.370998</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.39471</v>
+        <v>0.492454</v>
       </c>
       <c r="C55" t="n">
-        <v>0.28224</v>
+        <v>0.33383</v>
       </c>
       <c r="D55" t="n">
-        <v>0.323115</v>
+        <v>0.354555</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.389113</v>
+        <v>0.50612</v>
       </c>
       <c r="C56" t="n">
-        <v>0.295257</v>
+        <v>0.349541</v>
       </c>
       <c r="D56" t="n">
-        <v>0.334877</v>
+        <v>0.354608</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.397557</v>
+        <v>0.509041</v>
       </c>
       <c r="C57" t="n">
-        <v>0.302132</v>
+        <v>0.346661</v>
       </c>
       <c r="D57" t="n">
-        <v>0.327301</v>
+        <v>0.365079</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.393301</v>
+        <v>0.518331</v>
       </c>
       <c r="C58" t="n">
-        <v>0.298537</v>
+        <v>0.388223</v>
       </c>
       <c r="D58" t="n">
-        <v>0.337324</v>
+        <v>0.371546</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.391336</v>
+        <v>0.556897</v>
       </c>
       <c r="C59" t="n">
-        <v>0.310035</v>
+        <v>0.449262</v>
       </c>
       <c r="D59" t="n">
-        <v>0.347484</v>
+        <v>0.447488</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.397024</v>
+        <v>0.622241</v>
       </c>
       <c r="C60" t="n">
-        <v>0.313508</v>
+        <v>0.394137</v>
       </c>
       <c r="D60" t="n">
-        <v>0.350485</v>
+        <v>0.432028</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.389258</v>
+        <v>0.672488</v>
       </c>
       <c r="C61" t="n">
-        <v>0.320362</v>
+        <v>0.418269</v>
       </c>
       <c r="D61" t="n">
-        <v>0.361356</v>
+        <v>0.433936</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.39634</v>
+        <v>0.608432</v>
       </c>
       <c r="C62" t="n">
-        <v>0.326537</v>
+        <v>0.435545</v>
       </c>
       <c r="D62" t="n">
-        <v>0.366934</v>
+        <v>0.4515</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.431558</v>
+        <v>0.669516</v>
       </c>
       <c r="C63" t="n">
-        <v>0.336374</v>
+        <v>0.472083</v>
       </c>
       <c r="D63" t="n">
-        <v>0.379076</v>
+        <v>0.490163</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.417467</v>
+        <v>0.69416</v>
       </c>
       <c r="C64" t="n">
-        <v>0.300738</v>
+        <v>0.508016</v>
       </c>
       <c r="D64" t="n">
-        <v>0.340827</v>
+        <v>0.552544</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.454006</v>
+        <v>0.6873899999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.305798</v>
+        <v>0.555872</v>
       </c>
       <c r="D65" t="n">
-        <v>0.341755</v>
+        <v>0.573694</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.466751</v>
+        <v>0.735612</v>
       </c>
       <c r="C66" t="n">
-        <v>0.314011</v>
+        <v>0.555656</v>
       </c>
       <c r="D66" t="n">
-        <v>0.348701</v>
+        <v>0.5714939999999999</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.465979</v>
+        <v>0.726936</v>
       </c>
       <c r="C67" t="n">
-        <v>0.316703</v>
+        <v>0.569652</v>
       </c>
       <c r="D67" t="n">
-        <v>0.346467</v>
+        <v>0.58693</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.486331</v>
+        <v>0.816891</v>
       </c>
       <c r="C68" t="n">
-        <v>0.326226</v>
+        <v>0.606097</v>
       </c>
       <c r="D68" t="n">
-        <v>0.352535</v>
+        <v>0.6199</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.507344</v>
+        <v>0.776753</v>
       </c>
       <c r="C69" t="n">
-        <v>0.339299</v>
+        <v>0.592045</v>
       </c>
       <c r="D69" t="n">
-        <v>0.39517</v>
+        <v>0.650735</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.642909</v>
+        <v>0.823265</v>
       </c>
       <c r="C70" t="n">
-        <v>0.375025</v>
+        <v>0.624016</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4561</v>
+        <v>0.643782</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.646986</v>
+        <v>0.790521</v>
       </c>
       <c r="C71" t="n">
-        <v>0.424477</v>
+        <v>0.615618</v>
       </c>
       <c r="D71" t="n">
-        <v>0.459765</v>
+        <v>0.637307</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.608013</v>
+        <v>0.805554</v>
       </c>
       <c r="C72" t="n">
-        <v>0.380114</v>
+        <v>0.640984</v>
       </c>
       <c r="D72" t="n">
-        <v>0.420845</v>
+        <v>0.670835</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.567212</v>
+        <v>0.820326</v>
       </c>
       <c r="C73" t="n">
-        <v>0.377735</v>
+        <v>0.654735</v>
       </c>
       <c r="D73" t="n">
-        <v>0.456772</v>
+        <v>0.68703</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.599532</v>
+        <v>0.793113</v>
       </c>
       <c r="C74" t="n">
-        <v>0.397663</v>
+        <v>0.666609</v>
       </c>
       <c r="D74" t="n">
-        <v>0.445893</v>
+        <v>0.727773</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.665483</v>
+        <v>0.819681</v>
       </c>
       <c r="C75" t="n">
-        <v>0.400964</v>
+        <v>0.696835</v>
       </c>
       <c r="D75" t="n">
-        <v>0.46134</v>
+        <v>0.773311</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.689676</v>
+        <v>0.9421119999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.451658</v>
+        <v>0.696592</v>
       </c>
       <c r="D76" t="n">
-        <v>0.489303</v>
+        <v>0.700482</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.699008</v>
+        <v>0.833615</v>
       </c>
       <c r="C77" t="n">
-        <v>0.463049</v>
+        <v>0.750328</v>
       </c>
       <c r="D77" t="n">
-        <v>0.48812</v>
+        <v>0.76661</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6804829999999999</v>
+        <v>0.882858</v>
       </c>
       <c r="C78" t="n">
-        <v>0.496075</v>
+        <v>0.6981810000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.564893</v>
+        <v>0.750348</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.787502</v>
+        <v>0.900639</v>
       </c>
       <c r="C79" t="n">
-        <v>0.485114</v>
+        <v>0.754683</v>
       </c>
       <c r="D79" t="n">
-        <v>0.553569</v>
+        <v>0.793122</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8174630000000001</v>
+        <v>0.908096</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5339699999999999</v>
+        <v>0.759506</v>
       </c>
       <c r="D80" t="n">
-        <v>0.572954</v>
+        <v>0.805812</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.815823</v>
+        <v>0.927438</v>
       </c>
       <c r="C81" t="n">
-        <v>0.499084</v>
+        <v>0.765286</v>
       </c>
       <c r="D81" t="n">
-        <v>0.52225</v>
+        <v>0.792052</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.774301</v>
+        <v>0.963077</v>
       </c>
       <c r="C82" t="n">
-        <v>0.510057</v>
+        <v>0.789874</v>
       </c>
       <c r="D82" t="n">
-        <v>0.616459</v>
+        <v>0.829807</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.800644</v>
+        <v>0.960408</v>
       </c>
       <c r="C83" t="n">
-        <v>0.51135</v>
+        <v>0.8011160000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.574947</v>
+        <v>0.809047</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8401420000000001</v>
+        <v>0.885453</v>
       </c>
       <c r="C84" t="n">
-        <v>0.543767</v>
+        <v>0.823172</v>
       </c>
       <c r="D84" t="n">
-        <v>0.599396</v>
+        <v>0.846625</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.864818</v>
+        <v>0.983283</v>
       </c>
       <c r="C85" t="n">
-        <v>0.572446</v>
+        <v>0.794835</v>
       </c>
       <c r="D85" t="n">
-        <v>0.647868</v>
+        <v>0.833485</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.90367</v>
+        <v>0.930656</v>
       </c>
       <c r="C86" t="n">
-        <v>0.591557</v>
+        <v>0.83468</v>
       </c>
       <c r="D86" t="n">
-        <v>0.635548</v>
+        <v>0.896537</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.928281</v>
+        <v>0.920309</v>
       </c>
       <c r="C87" t="n">
-        <v>0.612626</v>
+        <v>0.85721</v>
       </c>
       <c r="D87" t="n">
-        <v>0.758436</v>
+        <v>0.961417</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.02644</v>
+        <v>0.94721</v>
       </c>
       <c r="C88" t="n">
-        <v>0.706245</v>
+        <v>0.874207</v>
       </c>
       <c r="D88" t="n">
-        <v>0.707063</v>
+        <v>0.9168190000000001</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.04686</v>
+        <v>0.968749</v>
       </c>
       <c r="C89" t="n">
-        <v>0.641621</v>
+        <v>0.891133</v>
       </c>
       <c r="D89" t="n">
-        <v>0.755397</v>
+        <v>0.928449</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.966784</v>
+        <v>0.988192</v>
       </c>
       <c r="C90" t="n">
-        <v>0.704887</v>
+        <v>0.948386</v>
       </c>
       <c r="D90" t="n">
-        <v>0.716832</v>
+        <v>0.945703</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.894923</v>
+        <v>0.988223</v>
       </c>
       <c r="C91" t="n">
-        <v>0.694625</v>
+        <v>0.905765</v>
       </c>
       <c r="D91" t="n">
-        <v>0.772824</v>
+        <v>0.991074</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.00407</v>
+        <v>1.00464</v>
       </c>
       <c r="C92" t="n">
-        <v>0.649799</v>
+        <v>0.868184</v>
       </c>
       <c r="D92" t="n">
-        <v>0.699319</v>
+        <v>0.892016</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.993881</v>
+        <v>1.0117</v>
       </c>
       <c r="C93" t="n">
-        <v>0.627382</v>
+        <v>0.843048</v>
       </c>
       <c r="D93" t="n">
-        <v>0.696234</v>
+        <v>0.874619</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9917</v>
+        <v>1.01135</v>
       </c>
       <c r="C94" t="n">
-        <v>0.677271</v>
+        <v>0.879547</v>
       </c>
       <c r="D94" t="n">
-        <v>0.792387</v>
+        <v>0.901512</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.10013</v>
+        <v>1.07297</v>
       </c>
       <c r="C95" t="n">
-        <v>0.735757</v>
+        <v>0.87862</v>
       </c>
       <c r="D95" t="n">
-        <v>0.7911629999999999</v>
+        <v>0.919362</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.15663</v>
+        <v>1.07132</v>
       </c>
       <c r="C96" t="n">
-        <v>0.745719</v>
+        <v>0.895709</v>
       </c>
       <c r="D96" t="n">
-        <v>0.826616</v>
+        <v>0.932949</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.10462</v>
+        <v>1.07372</v>
       </c>
       <c r="C97" t="n">
-        <v>0.75079</v>
+        <v>0.90906</v>
       </c>
       <c r="D97" t="n">
-        <v>0.825445</v>
+        <v>0.945086</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.06055</v>
+        <v>0.9623350000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>0.751906</v>
+        <v>0.924951</v>
       </c>
       <c r="D98" t="n">
-        <v>0.854765</v>
+        <v>0.961442</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.03345</v>
+        <v>0.962095</v>
       </c>
       <c r="C99" t="n">
-        <v>0.797732</v>
+        <v>1.09288</v>
       </c>
       <c r="D99" t="n">
-        <v>0.851326</v>
+        <v>0.998827</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.11598</v>
+        <v>1.0012</v>
       </c>
       <c r="C100" t="n">
-        <v>0.811118</v>
+        <v>0.944118</v>
       </c>
       <c r="D100" t="n">
-        <v>0.884804</v>
+        <v>0.995036</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.04684</v>
+        <v>1.01039</v>
       </c>
       <c r="C101" t="n">
-        <v>0.801759</v>
+        <v>0.970657</v>
       </c>
       <c r="D101" t="n">
-        <v>0.874811</v>
+        <v>1.00916</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.01089</v>
+        <v>1.04814</v>
       </c>
       <c r="C102" t="n">
-        <v>0.809785</v>
+        <v>0.986011</v>
       </c>
       <c r="D102" t="n">
-        <v>0.916768</v>
+        <v>1.0206</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.13596</v>
+        <v>1.02889</v>
       </c>
       <c r="C103" t="n">
-        <v>0.827792</v>
+        <v>1.00581</v>
       </c>
       <c r="D103" t="n">
-        <v>0.935339</v>
+        <v>1.05231</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.06129</v>
+        <v>1.06813</v>
       </c>
       <c r="C104" t="n">
-        <v>0.828006</v>
+        <v>1.03774</v>
       </c>
       <c r="D104" t="n">
-        <v>0.981962</v>
+        <v>1.08676</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.11718</v>
+        <v>1.08113</v>
       </c>
       <c r="C105" t="n">
-        <v>0.85031</v>
+        <v>1.07759</v>
       </c>
       <c r="D105" t="n">
-        <v>0.983807</v>
+        <v>1.10105</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.15705</v>
+        <v>1.10705</v>
       </c>
       <c r="C106" t="n">
-        <v>0.868884</v>
+        <v>1.05741</v>
       </c>
       <c r="D106" t="n">
-        <v>0.987119</v>
+        <v>1.10321</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.21549</v>
+        <v>1.09289</v>
       </c>
       <c r="C107" t="n">
-        <v>0.797142</v>
+        <v>0.95496</v>
       </c>
       <c r="D107" t="n">
-        <v>0.870408</v>
+        <v>0.973237</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.22148</v>
+        <v>1.11911</v>
       </c>
       <c r="C108" t="n">
-        <v>0.830922</v>
+        <v>0.961863</v>
       </c>
       <c r="D108" t="n">
-        <v>0.903598</v>
+        <v>0.99904</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.13262</v>
+        <v>1.1346</v>
       </c>
       <c r="C109" t="n">
-        <v>0.832497</v>
+        <v>0.982033</v>
       </c>
       <c r="D109" t="n">
-        <v>0.931752</v>
+        <v>1.01729</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.26789</v>
+        <v>1.15337</v>
       </c>
       <c r="C110" t="n">
-        <v>0.85793</v>
+        <v>0.991313</v>
       </c>
       <c r="D110" t="n">
-        <v>0.918138</v>
+        <v>1.01525</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.28282</v>
+        <v>1.16962</v>
       </c>
       <c r="C111" t="n">
-        <v>0.842348</v>
+        <v>1.01569</v>
       </c>
       <c r="D111" t="n">
-        <v>0.936966</v>
+        <v>1.04874</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.04639</v>
+        <v>1.06893</v>
       </c>
       <c r="C112" t="n">
-        <v>0.859819</v>
+        <v>1.02205</v>
       </c>
       <c r="D112" t="n">
-        <v>1.00228</v>
+        <v>1.0576</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.03783</v>
+        <v>1.0883</v>
       </c>
       <c r="C113" t="n">
-        <v>0.882192</v>
+        <v>1.03498</v>
       </c>
       <c r="D113" t="n">
-        <v>0.986073</v>
+        <v>1.08125</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.06086</v>
+        <v>1.08823</v>
       </c>
       <c r="C114" t="n">
-        <v>0.889893</v>
+        <v>1.05755</v>
       </c>
       <c r="D114" t="n">
-        <v>0.987395</v>
+        <v>1.09589</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.18099</v>
+        <v>1.09918</v>
       </c>
       <c r="C115" t="n">
-        <v>0.903101</v>
+        <v>1.05176</v>
       </c>
       <c r="D115" t="n">
-        <v>1.05142</v>
+        <v>1.09509</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.13751</v>
+        <v>1.1306</v>
       </c>
       <c r="C116" t="n">
-        <v>0.944122</v>
+        <v>1.07623</v>
       </c>
       <c r="D116" t="n">
-        <v>1.03654</v>
+        <v>1.12532</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.16634</v>
+        <v>1.17228</v>
       </c>
       <c r="C117" t="n">
-        <v>0.967714</v>
+        <v>1.11995</v>
       </c>
       <c r="D117" t="n">
-        <v>1.04322</v>
+        <v>1.1582</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.21414</v>
+        <v>1.13648</v>
       </c>
       <c r="C118" t="n">
-        <v>0.938958</v>
+        <v>1.12872</v>
       </c>
       <c r="D118" t="n">
-        <v>1.07754</v>
+        <v>1.16017</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.2317</v>
+        <v>1.13137</v>
       </c>
       <c r="C119" t="n">
-        <v>0.958304</v>
+        <v>1.1244</v>
       </c>
       <c r="D119" t="n">
-        <v>1.12031</v>
+        <v>1.18812</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.226369</v>
+        <v>0.222345</v>
       </c>
       <c r="C2" t="n">
-        <v>0.185091</v>
+        <v>0.179197</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18013</v>
+        <v>0.185328</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.225861</v>
+        <v>0.258487</v>
       </c>
       <c r="C3" t="n">
-        <v>0.191853</v>
+        <v>0.217289</v>
       </c>
       <c r="D3" t="n">
-        <v>0.180647</v>
+        <v>0.216703</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.227638</v>
+        <v>0.252001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.195358</v>
+        <v>0.203782</v>
       </c>
       <c r="D4" t="n">
-        <v>0.184058</v>
+        <v>0.191872</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.233039</v>
+        <v>0.24225</v>
       </c>
       <c r="C5" t="n">
-        <v>0.198304</v>
+        <v>0.20664</v>
       </c>
       <c r="D5" t="n">
-        <v>0.18524</v>
+        <v>0.197227</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.234315</v>
+        <v>0.22911</v>
       </c>
       <c r="C6" t="n">
-        <v>0.20462</v>
+        <v>0.197619</v>
       </c>
       <c r="D6" t="n">
-        <v>0.189538</v>
+        <v>0.20388</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.237908</v>
+        <v>0.231944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.183954</v>
+        <v>0.179345</v>
       </c>
       <c r="D7" t="n">
-        <v>0.185905</v>
+        <v>0.190293</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.23915</v>
+        <v>0.240143</v>
       </c>
       <c r="C8" t="n">
-        <v>0.187373</v>
+        <v>0.182915</v>
       </c>
       <c r="D8" t="n">
-        <v>0.188537</v>
+        <v>0.202475</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.244907</v>
+        <v>0.247888</v>
       </c>
       <c r="C9" t="n">
-        <v>0.190985</v>
+        <v>0.198376</v>
       </c>
       <c r="D9" t="n">
-        <v>0.18941</v>
+        <v>0.203943</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.252344</v>
+        <v>0.263585</v>
       </c>
       <c r="C10" t="n">
-        <v>0.193224</v>
+        <v>0.189375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.191352</v>
+        <v>0.201894</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.248063</v>
+        <v>0.244976</v>
       </c>
       <c r="C11" t="n">
-        <v>0.189351</v>
+        <v>0.194081</v>
       </c>
       <c r="D11" t="n">
-        <v>0.189569</v>
+        <v>0.200422</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.257691</v>
+        <v>0.26509</v>
       </c>
       <c r="C12" t="n">
-        <v>0.197956</v>
+        <v>0.20736</v>
       </c>
       <c r="D12" t="n">
-        <v>0.192405</v>
+        <v>0.210193</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.225084</v>
+        <v>0.236302</v>
       </c>
       <c r="C13" t="n">
-        <v>0.196642</v>
+        <v>0.197979</v>
       </c>
       <c r="D13" t="n">
-        <v>0.193376</v>
+        <v>0.206185</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.227792</v>
+        <v>0.240905</v>
       </c>
       <c r="C14" t="n">
-        <v>0.199691</v>
+        <v>0.202256</v>
       </c>
       <c r="D14" t="n">
-        <v>0.193758</v>
+        <v>0.204291</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.228225</v>
+        <v>0.241351</v>
       </c>
       <c r="C15" t="n">
-        <v>0.201322</v>
+        <v>0.203181</v>
       </c>
       <c r="D15" t="n">
-        <v>0.195653</v>
+        <v>0.208822</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.233261</v>
+        <v>0.242737</v>
       </c>
       <c r="C16" t="n">
-        <v>0.204532</v>
+        <v>0.220869</v>
       </c>
       <c r="D16" t="n">
-        <v>0.196054</v>
+        <v>0.216081</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.239795</v>
+        <v>0.247079</v>
       </c>
       <c r="C17" t="n">
-        <v>0.207763</v>
+        <v>0.21487</v>
       </c>
       <c r="D17" t="n">
-        <v>0.199204</v>
+        <v>0.213766</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.240128</v>
+        <v>0.276583</v>
       </c>
       <c r="C18" t="n">
-        <v>0.214124</v>
+        <v>0.221078</v>
       </c>
       <c r="D18" t="n">
-        <v>0.201063</v>
+        <v>0.235377</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.242024</v>
+        <v>0.253934</v>
       </c>
       <c r="C19" t="n">
-        <v>0.215129</v>
+        <v>0.222508</v>
       </c>
       <c r="D19" t="n">
-        <v>0.203707</v>
+        <v>0.21711</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.251009</v>
+        <v>0.259596</v>
       </c>
       <c r="C20" t="n">
-        <v>0.222246</v>
+        <v>0.238989</v>
       </c>
       <c r="D20" t="n">
-        <v>0.204705</v>
+        <v>0.237582</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.251219</v>
+        <v>0.260862</v>
       </c>
       <c r="C21" t="n">
-        <v>0.197336</v>
+        <v>0.208971</v>
       </c>
       <c r="D21" t="n">
-        <v>0.197009</v>
+        <v>0.234713</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.253633</v>
+        <v>0.287634</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2022</v>
+        <v>0.247049</v>
       </c>
       <c r="D22" t="n">
-        <v>0.199065</v>
+        <v>0.222191</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.260326</v>
+        <v>0.283321</v>
       </c>
       <c r="C23" t="n">
-        <v>0.202651</v>
+        <v>0.215653</v>
       </c>
       <c r="D23" t="n">
-        <v>0.199511</v>
+        <v>0.230241</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.263007</v>
+        <v>0.283022</v>
       </c>
       <c r="C24" t="n">
-        <v>0.212782</v>
+        <v>0.224898</v>
       </c>
       <c r="D24" t="n">
-        <v>0.206234</v>
+        <v>0.224037</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.274747</v>
+        <v>0.288352</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222254</v>
+        <v>0.240112</v>
       </c>
       <c r="D25" t="n">
-        <v>0.209866</v>
+        <v>0.230287</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.278121</v>
+        <v>0.298861</v>
       </c>
       <c r="C26" t="n">
-        <v>0.219494</v>
+        <v>0.228852</v>
       </c>
       <c r="D26" t="n">
-        <v>0.210016</v>
+        <v>0.234284</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.233859</v>
+        <v>0.262675</v>
       </c>
       <c r="C27" t="n">
-        <v>0.227124</v>
+        <v>0.240844</v>
       </c>
       <c r="D27" t="n">
-        <v>0.21235</v>
+        <v>0.255613</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.238472</v>
+        <v>0.293321</v>
       </c>
       <c r="C28" t="n">
-        <v>0.228283</v>
+        <v>0.238906</v>
       </c>
       <c r="D28" t="n">
-        <v>0.212186</v>
+        <v>0.243225</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.243922</v>
+        <v>0.273231</v>
       </c>
       <c r="C29" t="n">
-        <v>0.229952</v>
+        <v>0.250715</v>
       </c>
       <c r="D29" t="n">
-        <v>0.21379</v>
+        <v>0.242664</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.247471</v>
+        <v>0.282597</v>
       </c>
       <c r="C30" t="n">
-        <v>0.240297</v>
+        <v>0.2677</v>
       </c>
       <c r="D30" t="n">
-        <v>0.217858</v>
+        <v>0.241716</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.25188</v>
+        <v>0.281739</v>
       </c>
       <c r="C31" t="n">
-        <v>0.236134</v>
+        <v>0.253756</v>
       </c>
       <c r="D31" t="n">
-        <v>0.217964</v>
+        <v>0.264763</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.260655</v>
+        <v>0.293802</v>
       </c>
       <c r="C32" t="n">
-        <v>0.246957</v>
+        <v>0.266875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.22465</v>
+        <v>0.254267</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.266878</v>
+        <v>0.310877</v>
       </c>
       <c r="C33" t="n">
-        <v>0.255671</v>
+        <v>0.272573</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224174</v>
+        <v>0.259661</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.270406</v>
+        <v>0.30402</v>
       </c>
       <c r="C34" t="n">
-        <v>0.25838</v>
+        <v>0.276782</v>
       </c>
       <c r="D34" t="n">
-        <v>0.228581</v>
+        <v>0.250713</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.283035</v>
+        <v>0.311336</v>
       </c>
       <c r="C35" t="n">
-        <v>0.210285</v>
+        <v>0.251251</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206882</v>
+        <v>0.239264</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.289317</v>
+        <v>0.321906</v>
       </c>
       <c r="C36" t="n">
-        <v>0.218695</v>
+        <v>0.252321</v>
       </c>
       <c r="D36" t="n">
-        <v>0.210576</v>
+        <v>0.250439</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.300411</v>
+        <v>0.340939</v>
       </c>
       <c r="C37" t="n">
-        <v>0.221744</v>
+        <v>0.258789</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217597</v>
+        <v>0.262248</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.311216</v>
+        <v>0.348107</v>
       </c>
       <c r="C38" t="n">
-        <v>0.232605</v>
+        <v>0.265587</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2192</v>
+        <v>0.264924</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.321421</v>
+        <v>0.352644</v>
       </c>
       <c r="C39" t="n">
-        <v>0.239728</v>
+        <v>0.268074</v>
       </c>
       <c r="D39" t="n">
-        <v>0.227173</v>
+        <v>0.259081</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.335786</v>
+        <v>0.365359</v>
       </c>
       <c r="C40" t="n">
-        <v>0.245667</v>
+        <v>0.275386</v>
       </c>
       <c r="D40" t="n">
-        <v>0.233525</v>
+        <v>0.269818</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.291162</v>
+        <v>0.350444</v>
       </c>
       <c r="C41" t="n">
-        <v>0.257589</v>
+        <v>0.279413</v>
       </c>
       <c r="D41" t="n">
-        <v>0.236418</v>
+        <v>0.265151</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.301821</v>
+        <v>0.355466</v>
       </c>
       <c r="C42" t="n">
-        <v>0.259929</v>
+        <v>0.2806</v>
       </c>
       <c r="D42" t="n">
-        <v>0.244699</v>
+        <v>0.277333</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.310395</v>
+        <v>0.362133</v>
       </c>
       <c r="C43" t="n">
-        <v>0.272233</v>
+        <v>0.299458</v>
       </c>
       <c r="D43" t="n">
-        <v>0.249515</v>
+        <v>0.280119</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.32134</v>
+        <v>0.371422</v>
       </c>
       <c r="C44" t="n">
-        <v>0.272026</v>
+        <v>0.301552</v>
       </c>
       <c r="D44" t="n">
-        <v>0.254595</v>
+        <v>0.271029</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.328492</v>
+        <v>0.382454</v>
       </c>
       <c r="C45" t="n">
-        <v>0.282756</v>
+        <v>0.31236</v>
       </c>
       <c r="D45" t="n">
-        <v>0.259712</v>
+        <v>0.276446</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.33189</v>
+        <v>0.381496</v>
       </c>
       <c r="C46" t="n">
-        <v>0.292403</v>
+        <v>0.307805</v>
       </c>
       <c r="D46" t="n">
-        <v>0.263859</v>
+        <v>0.282819</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.342717</v>
+        <v>0.39143</v>
       </c>
       <c r="C47" t="n">
-        <v>0.300599</v>
+        <v>0.324141</v>
       </c>
       <c r="D47" t="n">
-        <v>0.272613</v>
+        <v>0.291812</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.354252</v>
+        <v>0.411123</v>
       </c>
       <c r="C48" t="n">
-        <v>0.306895</v>
+        <v>0.342626</v>
       </c>
       <c r="D48" t="n">
-        <v>0.281069</v>
+        <v>0.308854</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.365702</v>
+        <v>0.415559</v>
       </c>
       <c r="C49" t="n">
-        <v>0.315082</v>
+        <v>0.335488</v>
       </c>
       <c r="D49" t="n">
-        <v>0.288697</v>
+        <v>0.296366</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.370074</v>
+        <v>0.433617</v>
       </c>
       <c r="C50" t="n">
-        <v>0.283876</v>
+        <v>0.334797</v>
       </c>
       <c r="D50" t="n">
-        <v>0.271987</v>
+        <v>0.300954</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.385877</v>
+        <v>0.434531</v>
       </c>
       <c r="C51" t="n">
-        <v>0.366678</v>
+        <v>0.351025</v>
       </c>
       <c r="D51" t="n">
-        <v>0.318525</v>
+        <v>0.325559</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.462963</v>
+        <v>0.439591</v>
       </c>
       <c r="C52" t="n">
-        <v>0.320051</v>
+        <v>0.349952</v>
       </c>
       <c r="D52" t="n">
-        <v>0.285744</v>
+        <v>0.315548</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.411795</v>
+        <v>0.457516</v>
       </c>
       <c r="C53" t="n">
-        <v>0.317226</v>
+        <v>0.356979</v>
       </c>
       <c r="D53" t="n">
-        <v>0.294383</v>
+        <v>0.347658</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.420397</v>
+        <v>0.467442</v>
       </c>
       <c r="C54" t="n">
-        <v>0.322887</v>
+        <v>0.374708</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3029</v>
+        <v>0.325713</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.442716</v>
+        <v>0.492883</v>
       </c>
       <c r="C55" t="n">
-        <v>0.332989</v>
+        <v>0.390151</v>
       </c>
       <c r="D55" t="n">
-        <v>0.302244</v>
+        <v>0.332747</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.405894</v>
+        <v>0.437904</v>
       </c>
       <c r="C56" t="n">
-        <v>0.332654</v>
+        <v>0.399387</v>
       </c>
       <c r="D56" t="n">
-        <v>0.304701</v>
+        <v>0.335337</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.419574</v>
+        <v>0.451962</v>
       </c>
       <c r="C57" t="n">
-        <v>0.350682</v>
+        <v>0.393236</v>
       </c>
       <c r="D57" t="n">
-        <v>0.314852</v>
+        <v>0.343064</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.429392</v>
+        <v>0.460422</v>
       </c>
       <c r="C58" t="n">
-        <v>0.358134</v>
+        <v>0.408521</v>
       </c>
       <c r="D58" t="n">
-        <v>0.319991</v>
+        <v>0.351763</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.437216</v>
+        <v>0.473987</v>
       </c>
       <c r="C59" t="n">
-        <v>0.382809</v>
+        <v>0.421301</v>
       </c>
       <c r="D59" t="n">
-        <v>0.332173</v>
+        <v>0.374612</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.450218</v>
+        <v>0.518402</v>
       </c>
       <c r="C60" t="n">
-        <v>0.390081</v>
+        <v>0.476731</v>
       </c>
       <c r="D60" t="n">
-        <v>0.34383</v>
+        <v>0.384413</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.461275</v>
+        <v>0.49461</v>
       </c>
       <c r="C61" t="n">
-        <v>0.396194</v>
+        <v>0.456388</v>
       </c>
       <c r="D61" t="n">
-        <v>0.343235</v>
+        <v>0.397396</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.467741</v>
+        <v>0.5345220000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.409399</v>
+        <v>0.459282</v>
       </c>
       <c r="D62" t="n">
-        <v>0.346031</v>
+        <v>0.404516</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.477249</v>
+        <v>0.520305</v>
       </c>
       <c r="C63" t="n">
-        <v>0.414409</v>
+        <v>0.487437</v>
       </c>
       <c r="D63" t="n">
-        <v>0.360384</v>
+        <v>0.403751</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.48951</v>
+        <v>0.528442</v>
       </c>
       <c r="C64" t="n">
-        <v>0.389602</v>
+        <v>0.448539</v>
       </c>
       <c r="D64" t="n">
-        <v>0.350394</v>
+        <v>0.407449</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.50139</v>
+        <v>0.555204</v>
       </c>
       <c r="C65" t="n">
-        <v>0.391099</v>
+        <v>0.483656</v>
       </c>
       <c r="D65" t="n">
-        <v>0.358993</v>
+        <v>0.410923</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.512858</v>
+        <v>0.585839</v>
       </c>
       <c r="C66" t="n">
-        <v>0.398717</v>
+        <v>0.476092</v>
       </c>
       <c r="D66" t="n">
-        <v>0.366505</v>
+        <v>0.419053</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.525971</v>
+        <v>0.585454</v>
       </c>
       <c r="C67" t="n">
-        <v>0.412182</v>
+        <v>0.496689</v>
       </c>
       <c r="D67" t="n">
-        <v>0.368821</v>
+        <v>0.442896</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.540649</v>
+        <v>0.620942</v>
       </c>
       <c r="C68" t="n">
-        <v>0.414358</v>
+        <v>0.515128</v>
       </c>
       <c r="D68" t="n">
-        <v>0.375363</v>
+        <v>0.43519</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.559177</v>
+        <v>0.6538659999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.410806</v>
+        <v>0.525512</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3821</v>
+        <v>0.443091</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.496937</v>
+        <v>0.58507</v>
       </c>
       <c r="C70" t="n">
-        <v>0.439288</v>
+        <v>0.542918</v>
       </c>
       <c r="D70" t="n">
-        <v>0.386369</v>
+        <v>0.456788</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.501172</v>
+        <v>0.59848</v>
       </c>
       <c r="C71" t="n">
-        <v>0.450486</v>
+        <v>0.569425</v>
       </c>
       <c r="D71" t="n">
-        <v>0.39378</v>
+        <v>0.471238</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.510676</v>
+        <v>0.691727</v>
       </c>
       <c r="C72" t="n">
-        <v>0.46079</v>
+        <v>0.628763</v>
       </c>
       <c r="D72" t="n">
-        <v>0.398426</v>
+        <v>0.482335</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.519223</v>
+        <v>0.656631</v>
       </c>
       <c r="C73" t="n">
-        <v>0.477735</v>
+        <v>0.603698</v>
       </c>
       <c r="D73" t="n">
-        <v>0.40381</v>
+        <v>0.523292</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.526627</v>
+        <v>0.709412</v>
       </c>
       <c r="C74" t="n">
-        <v>0.485774</v>
+        <v>0.620079</v>
       </c>
       <c r="D74" t="n">
-        <v>0.409772</v>
+        <v>0.51411</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.533296</v>
+        <v>0.701438</v>
       </c>
       <c r="C75" t="n">
-        <v>0.497334</v>
+        <v>0.6677110000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.419578</v>
+        <v>0.534321</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.541743</v>
+        <v>0.7518359999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5008</v>
+        <v>0.726482</v>
       </c>
       <c r="D76" t="n">
-        <v>0.428368</v>
+        <v>0.5663</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.552248</v>
+        <v>0.753033</v>
       </c>
       <c r="C77" t="n">
-        <v>0.518418</v>
+        <v>0.724213</v>
       </c>
       <c r="D77" t="n">
-        <v>0.441853</v>
+        <v>0.589549</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.558862</v>
+        <v>0.796903</v>
       </c>
       <c r="C78" t="n">
-        <v>0.455972</v>
+        <v>0.725289</v>
       </c>
       <c r="D78" t="n">
-        <v>0.419159</v>
+        <v>0.589181</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.558768</v>
+        <v>0.892855</v>
       </c>
       <c r="C79" t="n">
-        <v>0.445882</v>
+        <v>0.731621</v>
       </c>
       <c r="D79" t="n">
-        <v>0.42977</v>
+        <v>0.61193</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.621026</v>
+        <v>0.893976</v>
       </c>
       <c r="C80" t="n">
-        <v>0.463033</v>
+        <v>0.763669</v>
       </c>
       <c r="D80" t="n">
-        <v>0.441509</v>
+        <v>0.6709889999999999</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.601201</v>
+        <v>0.930659</v>
       </c>
       <c r="C81" t="n">
-        <v>0.465334</v>
+        <v>0.78956</v>
       </c>
       <c r="D81" t="n">
-        <v>0.429872</v>
+        <v>0.684355</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.622044</v>
+        <v>0.933908</v>
       </c>
       <c r="C82" t="n">
-        <v>0.499583</v>
+        <v>0.778081</v>
       </c>
       <c r="D82" t="n">
-        <v>0.462256</v>
+        <v>0.724002</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.690432</v>
+        <v>1.01953</v>
       </c>
       <c r="C83" t="n">
-        <v>0.502463</v>
+        <v>0.816105</v>
       </c>
       <c r="D83" t="n">
-        <v>0.481311</v>
+        <v>0.748457</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.602062</v>
+        <v>0.899108</v>
       </c>
       <c r="C84" t="n">
-        <v>0.507531</v>
+        <v>0.837786</v>
       </c>
       <c r="D84" t="n">
-        <v>0.468131</v>
+        <v>0.741516</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6145</v>
+        <v>0.908508</v>
       </c>
       <c r="C85" t="n">
-        <v>0.523393</v>
+        <v>0.8684190000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.470161</v>
+        <v>0.761623</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.658792</v>
+        <v>0.912749</v>
       </c>
       <c r="C86" t="n">
-        <v>0.531523</v>
+        <v>0.863341</v>
       </c>
       <c r="D86" t="n">
-        <v>0.488849</v>
+        <v>0.765193</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.626193</v>
+        <v>1.0078</v>
       </c>
       <c r="C87" t="n">
-        <v>0.568385</v>
+        <v>0.972411</v>
       </c>
       <c r="D87" t="n">
-        <v>0.486156</v>
+        <v>0.771756</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.687451</v>
+        <v>0.9915</v>
       </c>
       <c r="C88" t="n">
-        <v>0.561628</v>
+        <v>0.961583</v>
       </c>
       <c r="D88" t="n">
-        <v>0.514926</v>
+        <v>0.78656</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.833382</v>
+        <v>1.04124</v>
       </c>
       <c r="C89" t="n">
-        <v>0.586199</v>
+        <v>1.02434</v>
       </c>
       <c r="D89" t="n">
-        <v>0.519243</v>
+        <v>0.804298</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.731464</v>
+        <v>1.07273</v>
       </c>
       <c r="C90" t="n">
-        <v>0.63161</v>
+        <v>1.02657</v>
       </c>
       <c r="D90" t="n">
-        <v>0.548889</v>
+        <v>0.829327</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.750742</v>
+        <v>1.09413</v>
       </c>
       <c r="C91" t="n">
-        <v>0.711033</v>
+        <v>1.02783</v>
       </c>
       <c r="D91" t="n">
-        <v>0.54921</v>
+        <v>0.858789</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.925705</v>
+        <v>1.12386</v>
       </c>
       <c r="C92" t="n">
-        <v>0.684497</v>
+        <v>0.948856</v>
       </c>
       <c r="D92" t="n">
-        <v>0.593801</v>
+        <v>0.872082</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.924312</v>
+        <v>1.15607</v>
       </c>
       <c r="C93" t="n">
-        <v>0.697503</v>
+        <v>0.982504</v>
       </c>
       <c r="D93" t="n">
-        <v>0.613613</v>
+        <v>0.888671</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.902469</v>
+        <v>1.14188</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7211880000000001</v>
+        <v>1.00824</v>
       </c>
       <c r="D94" t="n">
-        <v>0.603002</v>
+        <v>0.900805</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.920609</v>
+        <v>1.19763</v>
       </c>
       <c r="C95" t="n">
-        <v>0.79195</v>
+        <v>1.05491</v>
       </c>
       <c r="D95" t="n">
-        <v>0.621901</v>
+        <v>1.00678</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.905004</v>
+        <v>1.21345</v>
       </c>
       <c r="C96" t="n">
-        <v>0.704576</v>
+        <v>1.04084</v>
       </c>
       <c r="D96" t="n">
-        <v>0.615353</v>
+        <v>0.964481</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.08811</v>
+        <v>1.26309</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7737540000000001</v>
+        <v>1.07377</v>
       </c>
       <c r="D97" t="n">
-        <v>0.7255</v>
+        <v>0.953303</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.941604</v>
+        <v>1.16528</v>
       </c>
       <c r="C98" t="n">
-        <v>0.759186</v>
+        <v>1.05696</v>
       </c>
       <c r="D98" t="n">
-        <v>0.716432</v>
+        <v>0.965872</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.970839</v>
+        <v>1.14075</v>
       </c>
       <c r="C99" t="n">
-        <v>0.770617</v>
+        <v>1.12575</v>
       </c>
       <c r="D99" t="n">
-        <v>0.721813</v>
+        <v>1.00045</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.971776</v>
+        <v>1.20242</v>
       </c>
       <c r="C100" t="n">
-        <v>0.825503</v>
+        <v>1.11105</v>
       </c>
       <c r="D100" t="n">
-        <v>0.738266</v>
+        <v>0.983694</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.08191</v>
+        <v>1.16895</v>
       </c>
       <c r="C101" t="n">
-        <v>0.882618</v>
+        <v>1.12949</v>
       </c>
       <c r="D101" t="n">
-        <v>0.994865</v>
+        <v>1.04359</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.18095</v>
+        <v>1.23131</v>
       </c>
       <c r="C102" t="n">
-        <v>1.02619</v>
+        <v>1.18387</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8044210000000001</v>
+        <v>1.03792</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.09397</v>
+        <v>1.25267</v>
       </c>
       <c r="C103" t="n">
-        <v>0.933889</v>
+        <v>1.21641</v>
       </c>
       <c r="D103" t="n">
-        <v>0.842349</v>
+        <v>1.05537</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.16608</v>
+        <v>1.27729</v>
       </c>
       <c r="C104" t="n">
-        <v>0.956611</v>
+        <v>1.25488</v>
       </c>
       <c r="D104" t="n">
-        <v>0.885222</v>
+        <v>1.06571</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.12418</v>
+        <v>1.29132</v>
       </c>
       <c r="C105" t="n">
-        <v>0.991621</v>
+        <v>1.2443</v>
       </c>
       <c r="D105" t="n">
-        <v>0.948184</v>
+        <v>1.08175</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.22941</v>
+        <v>1.35501</v>
       </c>
       <c r="C106" t="n">
-        <v>1.18801</v>
+        <v>1.29717</v>
       </c>
       <c r="D106" t="n">
-        <v>0.88373</v>
+        <v>1.09987</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.1953</v>
+        <v>1.31688</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9012289999999999</v>
+        <v>1.14431</v>
       </c>
       <c r="D107" t="n">
-        <v>0.884841</v>
+        <v>1.04778</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.23223</v>
+        <v>1.35615</v>
       </c>
       <c r="C108" t="n">
-        <v>1.06188</v>
+        <v>1.1637</v>
       </c>
       <c r="D108" t="n">
-        <v>0.988837</v>
+        <v>1.08059</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.36685</v>
+        <v>1.43785</v>
       </c>
       <c r="C109" t="n">
-        <v>1.05871</v>
+        <v>1.1815</v>
       </c>
       <c r="D109" t="n">
-        <v>0.987552</v>
+        <v>1.07237</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.36451</v>
+        <v>1.42039</v>
       </c>
       <c r="C110" t="n">
-        <v>1.05692</v>
+        <v>1.20891</v>
       </c>
       <c r="D110" t="n">
-        <v>1.07345</v>
+        <v>1.07657</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.50799</v>
+        <v>1.41278</v>
       </c>
       <c r="C111" t="n">
-        <v>1.18019</v>
+        <v>1.23158</v>
       </c>
       <c r="D111" t="n">
-        <v>1.02931</v>
+        <v>1.11761</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.37405</v>
+        <v>1.27636</v>
       </c>
       <c r="C112" t="n">
-        <v>1.18435</v>
+        <v>1.2399</v>
       </c>
       <c r="D112" t="n">
-        <v>1.18081</v>
+        <v>1.12028</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.34986</v>
+        <v>1.29366</v>
       </c>
       <c r="C113" t="n">
-        <v>1.18533</v>
+        <v>1.28868</v>
       </c>
       <c r="D113" t="n">
-        <v>1.07842</v>
+        <v>1.12055</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.34578</v>
+        <v>1.3341</v>
       </c>
       <c r="C114" t="n">
-        <v>1.10371</v>
+        <v>1.33701</v>
       </c>
       <c r="D114" t="n">
-        <v>1.0763</v>
+        <v>1.16378</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.34244</v>
+        <v>1.35067</v>
       </c>
       <c r="C115" t="n">
-        <v>1.19561</v>
+        <v>1.39134</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09279</v>
+        <v>1.18943</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.33813</v>
+        <v>1.39476</v>
       </c>
       <c r="C116" t="n">
-        <v>1.24915</v>
+        <v>1.38397</v>
       </c>
       <c r="D116" t="n">
-        <v>1.12582</v>
+        <v>1.23617</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.35552</v>
+        <v>1.42375</v>
       </c>
       <c r="C117" t="n">
-        <v>1.2518</v>
+        <v>1.43571</v>
       </c>
       <c r="D117" t="n">
-        <v>1.12933</v>
+        <v>1.23379</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.42503</v>
+        <v>1.41205</v>
       </c>
       <c r="C118" t="n">
-        <v>1.29419</v>
+        <v>1.41965</v>
       </c>
       <c r="D118" t="n">
-        <v>1.20921</v>
+        <v>1.26056</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.51545</v>
+        <v>1.46093</v>
       </c>
       <c r="C119" t="n">
-        <v>1.42284</v>
+        <v>1.49825</v>
       </c>
       <c r="D119" t="n">
-        <v>1.25099</v>
+        <v>1.35269</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.60728</v>
+        <v>0.536455</v>
       </c>
       <c r="C2" t="n">
-        <v>0.334929</v>
+        <v>0.29702</v>
       </c>
       <c r="D2" t="n">
-        <v>0.253603</v>
+        <v>0.268011</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.415169</v>
+        <v>0.375885</v>
       </c>
       <c r="C3" t="n">
-        <v>0.340912</v>
+        <v>0.302252</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25699</v>
+        <v>0.241251</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.421229</v>
+        <v>0.382856</v>
       </c>
       <c r="C4" t="n">
-        <v>0.359124</v>
+        <v>0.326789</v>
       </c>
       <c r="D4" t="n">
-        <v>0.267131</v>
+        <v>0.271438</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.428934</v>
+        <v>0.389804</v>
       </c>
       <c r="C5" t="n">
-        <v>0.367282</v>
+        <v>0.337211</v>
       </c>
       <c r="D5" t="n">
-        <v>0.273928</v>
+        <v>0.262824</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.442705</v>
+        <v>0.407747</v>
       </c>
       <c r="C6" t="n">
-        <v>0.365973</v>
+        <v>0.332762</v>
       </c>
       <c r="D6" t="n">
-        <v>0.276958</v>
+        <v>0.260147</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.455208</v>
+        <v>0.417572</v>
       </c>
       <c r="C7" t="n">
-        <v>0.391181</v>
+        <v>0.351536</v>
       </c>
       <c r="D7" t="n">
-        <v>0.28596</v>
+        <v>0.275214</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.45898</v>
+        <v>0.452427</v>
       </c>
       <c r="C8" t="n">
-        <v>0.406662</v>
+        <v>0.367328</v>
       </c>
       <c r="D8" t="n">
-        <v>0.297627</v>
+        <v>0.276685</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.483343</v>
+        <v>0.473621</v>
       </c>
       <c r="C9" t="n">
-        <v>0.427455</v>
+        <v>0.424723</v>
       </c>
       <c r="D9" t="n">
-        <v>0.309232</v>
+        <v>0.288438</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.498494</v>
+        <v>0.5105769999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.443801</v>
+        <v>0.430954</v>
       </c>
       <c r="D10" t="n">
-        <v>0.321966</v>
+        <v>0.314437</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.502505</v>
+        <v>0.502719</v>
       </c>
       <c r="C11" t="n">
-        <v>0.330216</v>
+        <v>0.311471</v>
       </c>
       <c r="D11" t="n">
-        <v>0.253639</v>
+        <v>0.242136</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.528856</v>
+        <v>0.505104</v>
       </c>
       <c r="C12" t="n">
-        <v>0.332528</v>
+        <v>0.312903</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2538</v>
+        <v>0.250916</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.549032</v>
+        <v>0.550485</v>
       </c>
       <c r="C13" t="n">
-        <v>0.344032</v>
+        <v>0.333455</v>
       </c>
       <c r="D13" t="n">
-        <v>0.263668</v>
+        <v>0.269229</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.558964</v>
+        <v>0.611514</v>
       </c>
       <c r="C14" t="n">
-        <v>0.356327</v>
+        <v>0.362554</v>
       </c>
       <c r="D14" t="n">
-        <v>0.266465</v>
+        <v>0.276572</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.572862</v>
+        <v>0.595171</v>
       </c>
       <c r="C15" t="n">
-        <v>0.370888</v>
+        <v>0.359773</v>
       </c>
       <c r="D15" t="n">
-        <v>0.272937</v>
+        <v>0.27491</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.590441</v>
+        <v>0.597816</v>
       </c>
       <c r="C16" t="n">
-        <v>0.382322</v>
+        <v>0.365229</v>
       </c>
       <c r="D16" t="n">
-        <v>0.283438</v>
+        <v>0.275332</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.374139</v>
+        <v>0.388797</v>
       </c>
       <c r="C17" t="n">
-        <v>0.397753</v>
+        <v>0.381455</v>
       </c>
       <c r="D17" t="n">
-        <v>0.290137</v>
+        <v>0.287427</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.387763</v>
+        <v>0.445151</v>
       </c>
       <c r="C18" t="n">
-        <v>0.399693</v>
+        <v>0.386416</v>
       </c>
       <c r="D18" t="n">
-        <v>0.291951</v>
+        <v>0.30296</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.39895</v>
+        <v>0.412832</v>
       </c>
       <c r="C19" t="n">
-        <v>0.421641</v>
+        <v>0.436946</v>
       </c>
       <c r="D19" t="n">
-        <v>0.300295</v>
+        <v>0.301665</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.406074</v>
+        <v>0.431665</v>
       </c>
       <c r="C20" t="n">
-        <v>0.438287</v>
+        <v>0.482328</v>
       </c>
       <c r="D20" t="n">
-        <v>0.316597</v>
+        <v>0.314017</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.413435</v>
+        <v>0.469715</v>
       </c>
       <c r="C21" t="n">
-        <v>0.45056</v>
+        <v>0.44385</v>
       </c>
       <c r="D21" t="n">
-        <v>0.325627</v>
+        <v>0.357582</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.432744</v>
+        <v>0.46084</v>
       </c>
       <c r="C22" t="n">
-        <v>0.467117</v>
+        <v>0.478326</v>
       </c>
       <c r="D22" t="n">
-        <v>0.333168</v>
+        <v>0.339555</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.446003</v>
+        <v>0.476832</v>
       </c>
       <c r="C23" t="n">
-        <v>0.488231</v>
+        <v>0.487453</v>
       </c>
       <c r="D23" t="n">
-        <v>0.346875</v>
+        <v>0.356237</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.458994</v>
+        <v>0.519383</v>
       </c>
       <c r="C24" t="n">
-        <v>0.501711</v>
+        <v>0.5231440000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.357397</v>
+        <v>0.352429</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.481278</v>
+        <v>0.5195070000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.526239</v>
+        <v>0.565478</v>
       </c>
       <c r="D25" t="n">
-        <v>0.367709</v>
+        <v>0.366122</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.49184</v>
+        <v>0.512284</v>
       </c>
       <c r="C26" t="n">
-        <v>0.328534</v>
+        <v>0.352386</v>
       </c>
       <c r="D26" t="n">
-        <v>0.254328</v>
+        <v>0.273028</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.507898</v>
+        <v>0.539995</v>
       </c>
       <c r="C27" t="n">
-        <v>0.334634</v>
+        <v>0.347749</v>
       </c>
       <c r="D27" t="n">
-        <v>0.254737</v>
+        <v>0.293257</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.528928</v>
+        <v>0.556762</v>
       </c>
       <c r="C28" t="n">
-        <v>0.34375</v>
+        <v>0.363326</v>
       </c>
       <c r="D28" t="n">
-        <v>0.261194</v>
+        <v>0.280963</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.562508</v>
+        <v>0.58483</v>
       </c>
       <c r="C29" t="n">
-        <v>0.349111</v>
+        <v>0.371692</v>
       </c>
       <c r="D29" t="n">
-        <v>0.264999</v>
+        <v>0.283764</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5772080000000001</v>
+        <v>0.595374</v>
       </c>
       <c r="C30" t="n">
-        <v>0.365441</v>
+        <v>0.397972</v>
       </c>
       <c r="D30" t="n">
-        <v>0.271028</v>
+        <v>0.289149</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.610946</v>
+        <v>0.625353</v>
       </c>
       <c r="C31" t="n">
-        <v>0.378018</v>
+        <v>0.407655</v>
       </c>
       <c r="D31" t="n">
-        <v>0.280012</v>
+        <v>0.313087</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.426871</v>
+        <v>0.463157</v>
       </c>
       <c r="C32" t="n">
-        <v>0.396584</v>
+        <v>0.421214</v>
       </c>
       <c r="D32" t="n">
-        <v>0.285972</v>
+        <v>0.308624</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.442307</v>
+        <v>0.484503</v>
       </c>
       <c r="C33" t="n">
-        <v>0.412816</v>
+        <v>0.43847</v>
       </c>
       <c r="D33" t="n">
-        <v>0.29431</v>
+        <v>0.32005</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.457566</v>
+        <v>0.486836</v>
       </c>
       <c r="C34" t="n">
-        <v>0.431626</v>
+        <v>0.446372</v>
       </c>
       <c r="D34" t="n">
-        <v>0.303395</v>
+        <v>0.329534</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.495896</v>
+        <v>0.506623</v>
       </c>
       <c r="C35" t="n">
-        <v>0.460067</v>
+        <v>0.478575</v>
       </c>
       <c r="D35" t="n">
-        <v>0.313191</v>
+        <v>0.360187</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.504297</v>
+        <v>0.517431</v>
       </c>
       <c r="C36" t="n">
-        <v>0.489242</v>
+        <v>0.5015540000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.326433</v>
+        <v>0.357983</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.534144</v>
+        <v>0.552556</v>
       </c>
       <c r="C37" t="n">
-        <v>0.51862</v>
+        <v>0.525748</v>
       </c>
       <c r="D37" t="n">
-        <v>0.337835</v>
+        <v>0.363699</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.566367</v>
+        <v>0.573604</v>
       </c>
       <c r="C38" t="n">
-        <v>0.550695</v>
+        <v>0.555751</v>
       </c>
       <c r="D38" t="n">
-        <v>0.354703</v>
+        <v>0.394843</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.595703</v>
+        <v>0.647925</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5842270000000001</v>
+        <v>0.588076</v>
       </c>
       <c r="D39" t="n">
-        <v>0.370331</v>
+        <v>0.396544</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.623084</v>
+        <v>0.618187</v>
       </c>
       <c r="C40" t="n">
-        <v>0.402014</v>
+        <v>0.423778</v>
       </c>
       <c r="D40" t="n">
-        <v>0.291209</v>
+        <v>0.321077</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.657703</v>
+        <v>0.664894</v>
       </c>
       <c r="C41" t="n">
-        <v>0.424308</v>
+        <v>0.430342</v>
       </c>
       <c r="D41" t="n">
-        <v>0.296106</v>
+        <v>0.353263</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.690808</v>
+        <v>0.700911</v>
       </c>
       <c r="C42" t="n">
-        <v>0.447009</v>
+        <v>0.453366</v>
       </c>
       <c r="D42" t="n">
-        <v>0.309856</v>
+        <v>0.342762</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7272149999999999</v>
+        <v>0.706283</v>
       </c>
       <c r="C43" t="n">
-        <v>0.464162</v>
+        <v>0.496719</v>
       </c>
       <c r="D43" t="n">
-        <v>0.325821</v>
+        <v>0.352637</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.76354</v>
+        <v>0.745848</v>
       </c>
       <c r="C44" t="n">
-        <v>0.497957</v>
+        <v>0.513815</v>
       </c>
       <c r="D44" t="n">
-        <v>0.336358</v>
+        <v>0.361861</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.80593</v>
+        <v>0.786729</v>
       </c>
       <c r="C45" t="n">
-        <v>0.513362</v>
+        <v>0.522298</v>
       </c>
       <c r="D45" t="n">
-        <v>0.355239</v>
+        <v>0.380504</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.557787</v>
+        <v>0.61947</v>
       </c>
       <c r="C46" t="n">
-        <v>0.540595</v>
+        <v>0.564128</v>
       </c>
       <c r="D46" t="n">
-        <v>0.369738</v>
+        <v>0.395097</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.582881</v>
+        <v>0.612477</v>
       </c>
       <c r="C47" t="n">
-        <v>0.57417</v>
+        <v>0.613602</v>
       </c>
       <c r="D47" t="n">
-        <v>0.38407</v>
+        <v>0.430659</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.611901</v>
+        <v>0.623481</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5961379999999999</v>
+        <v>0.607088</v>
       </c>
       <c r="D48" t="n">
-        <v>0.402855</v>
+        <v>0.466862</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.635786</v>
+        <v>0.662118</v>
       </c>
       <c r="C49" t="n">
-        <v>0.626234</v>
+        <v>0.65066</v>
       </c>
       <c r="D49" t="n">
-        <v>0.412234</v>
+        <v>0.442354</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.653416</v>
+        <v>0.739559</v>
       </c>
       <c r="C50" t="n">
-        <v>0.657859</v>
+        <v>0.730928</v>
       </c>
       <c r="D50" t="n">
-        <v>0.433766</v>
+        <v>0.492681</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.704589</v>
+        <v>0.750298</v>
       </c>
       <c r="C51" t="n">
-        <v>0.691647</v>
+        <v>0.738777</v>
       </c>
       <c r="D51" t="n">
-        <v>0.452897</v>
+        <v>0.550204</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.726779</v>
+        <v>0.759821</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7394500000000001</v>
+        <v>0.819545</v>
       </c>
       <c r="D52" t="n">
-        <v>0.471317</v>
+        <v>0.499094</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.749899</v>
+        <v>0.805898</v>
       </c>
       <c r="C53" t="n">
-        <v>0.747379</v>
+        <v>0.802578</v>
       </c>
       <c r="D53" t="n">
-        <v>0.497377</v>
+        <v>0.521008</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.796188</v>
+        <v>0.828553</v>
       </c>
       <c r="C54" t="n">
-        <v>0.545546</v>
+        <v>0.617743</v>
       </c>
       <c r="D54" t="n">
-        <v>0.394578</v>
+        <v>0.433122</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.824084</v>
+        <v>0.905085</v>
       </c>
       <c r="C55" t="n">
-        <v>0.566324</v>
+        <v>0.653662</v>
       </c>
       <c r="D55" t="n">
-        <v>0.400811</v>
+        <v>0.441617</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.860747</v>
+        <v>0.940545</v>
       </c>
       <c r="C56" t="n">
-        <v>0.588267</v>
+        <v>0.648203</v>
       </c>
       <c r="D56" t="n">
-        <v>0.41449</v>
+        <v>0.466048</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.89844</v>
+        <v>1.00979</v>
       </c>
       <c r="C57" t="n">
-        <v>0.611926</v>
+        <v>0.680612</v>
       </c>
       <c r="D57" t="n">
-        <v>0.434019</v>
+        <v>0.475566</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.94931</v>
+        <v>1.03827</v>
       </c>
       <c r="C58" t="n">
-        <v>0.637771</v>
+        <v>0.75266</v>
       </c>
       <c r="D58" t="n">
-        <v>0.450952</v>
+        <v>0.547239</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.967929</v>
+        <v>1.14898</v>
       </c>
       <c r="C59" t="n">
-        <v>0.675504</v>
+        <v>0.811226</v>
       </c>
       <c r="D59" t="n">
-        <v>0.46376</v>
+        <v>0.516834</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.683752</v>
+        <v>0.807852</v>
       </c>
       <c r="C60" t="n">
-        <v>0.683932</v>
+        <v>0.815932</v>
       </c>
       <c r="D60" t="n">
-        <v>0.476634</v>
+        <v>0.529672</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.713436</v>
+        <v>0.873704</v>
       </c>
       <c r="C61" t="n">
-        <v>0.73478</v>
+        <v>0.843166</v>
       </c>
       <c r="D61" t="n">
-        <v>0.498684</v>
+        <v>0.551404</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.750764</v>
+        <v>0.882223</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7548820000000001</v>
+        <v>0.874671</v>
       </c>
       <c r="D62" t="n">
-        <v>0.510197</v>
+        <v>0.5728760000000001</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.775911</v>
+        <v>0.925836</v>
       </c>
       <c r="C63" t="n">
-        <v>0.795656</v>
+        <v>0.989473</v>
       </c>
       <c r="D63" t="n">
-        <v>0.531926</v>
+        <v>0.620583</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.820786</v>
+        <v>0.945508</v>
       </c>
       <c r="C64" t="n">
-        <v>0.829759</v>
+        <v>0.964975</v>
       </c>
       <c r="D64" t="n">
-        <v>0.564281</v>
+        <v>0.654202</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8710560000000001</v>
+        <v>1.01294</v>
       </c>
       <c r="C65" t="n">
-        <v>0.885904</v>
+        <v>1.05412</v>
       </c>
       <c r="D65" t="n">
-        <v>0.590449</v>
+        <v>0.641742</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.908429</v>
+        <v>1.10295</v>
       </c>
       <c r="C66" t="n">
-        <v>0.917184</v>
+        <v>1.25136</v>
       </c>
       <c r="D66" t="n">
-        <v>0.618218</v>
+        <v>0.69315</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.947242</v>
+        <v>1.20023</v>
       </c>
       <c r="C67" t="n">
-        <v>0.994301</v>
+        <v>1.31754</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6447349999999999</v>
+        <v>0.720553</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.995845</v>
+        <v>1.37241</v>
       </c>
       <c r="C68" t="n">
-        <v>0.662157</v>
+        <v>0.820522</v>
       </c>
       <c r="D68" t="n">
-        <v>0.480928</v>
+        <v>0.558359</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.07621</v>
+        <v>1.44029</v>
       </c>
       <c r="C69" t="n">
-        <v>0.677412</v>
+        <v>0.872281</v>
       </c>
       <c r="D69" t="n">
-        <v>0.500958</v>
+        <v>0.5751270000000001</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.09401</v>
+        <v>1.59978</v>
       </c>
       <c r="C70" t="n">
-        <v>0.73344</v>
+        <v>0.92919</v>
       </c>
       <c r="D70" t="n">
-        <v>0.522021</v>
+        <v>0.600753</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.18427</v>
+        <v>1.73145</v>
       </c>
       <c r="C71" t="n">
-        <v>0.745995</v>
+        <v>1.00743</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5363</v>
+        <v>0.680607</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.2068</v>
+        <v>1.78708</v>
       </c>
       <c r="C72" t="n">
-        <v>0.784725</v>
+        <v>1.11976</v>
       </c>
       <c r="D72" t="n">
-        <v>0.55119</v>
+        <v>0.697332</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.29722</v>
+        <v>1.78145</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8003479999999999</v>
+        <v>1.11194</v>
       </c>
       <c r="D73" t="n">
-        <v>0.577478</v>
+        <v>0.7017099999999999</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8751100000000001</v>
+        <v>1.2518</v>
       </c>
       <c r="C74" t="n">
-        <v>0.876304</v>
+        <v>1.2014</v>
       </c>
       <c r="D74" t="n">
-        <v>0.602757</v>
+        <v>0.748577</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.916448</v>
+        <v>1.26324</v>
       </c>
       <c r="C75" t="n">
-        <v>0.891757</v>
+        <v>1.33581</v>
       </c>
       <c r="D75" t="n">
-        <v>0.619881</v>
+        <v>0.740721</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.943955</v>
+        <v>1.38431</v>
       </c>
       <c r="C76" t="n">
-        <v>0.946624</v>
+        <v>1.3704</v>
       </c>
       <c r="D76" t="n">
-        <v>0.645965</v>
+        <v>0.822182</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.979147</v>
+        <v>1.46192</v>
       </c>
       <c r="C77" t="n">
-        <v>1.01147</v>
+        <v>1.65905</v>
       </c>
       <c r="D77" t="n">
-        <v>0.682127</v>
+        <v>0.866466</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.06121</v>
+        <v>1.73432</v>
       </c>
       <c r="C78" t="n">
-        <v>1.04456</v>
+        <v>1.72273</v>
       </c>
       <c r="D78" t="n">
-        <v>0.710311</v>
+        <v>0.8708360000000001</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.06249</v>
+        <v>1.68262</v>
       </c>
       <c r="C79" t="n">
-        <v>1.09645</v>
+        <v>1.7131</v>
       </c>
       <c r="D79" t="n">
-        <v>0.728862</v>
+        <v>1.0005</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.12138</v>
+        <v>1.75916</v>
       </c>
       <c r="C80" t="n">
-        <v>1.17623</v>
+        <v>1.86295</v>
       </c>
       <c r="D80" t="n">
-        <v>0.759219</v>
+        <v>1.03735</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.18795</v>
+        <v>1.86175</v>
       </c>
       <c r="C81" t="n">
-        <v>1.23099</v>
+        <v>2.01008</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8200769999999999</v>
+        <v>1.14444</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.45626</v>
+        <v>2.02754</v>
       </c>
       <c r="C82" t="n">
-        <v>1.39575</v>
+        <v>2.1574</v>
       </c>
       <c r="D82" t="n">
-        <v>0.880194</v>
+        <v>1.16098</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.53678</v>
+        <v>2.09307</v>
       </c>
       <c r="C83" t="n">
-        <v>1.10212</v>
+        <v>1.50106</v>
       </c>
       <c r="D83" t="n">
-        <v>0.734647</v>
+        <v>0.892896</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.67697</v>
+        <v>2.19569</v>
       </c>
       <c r="C84" t="n">
-        <v>1.15179</v>
+        <v>1.55683</v>
       </c>
       <c r="D84" t="n">
-        <v>0.714585</v>
+        <v>0.980331</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.59556</v>
+        <v>2.25436</v>
       </c>
       <c r="C85" t="n">
-        <v>1.21285</v>
+        <v>1.63983</v>
       </c>
       <c r="D85" t="n">
-        <v>0.726426</v>
+        <v>0.956106</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.86744</v>
+        <v>2.35003</v>
       </c>
       <c r="C86" t="n">
-        <v>1.27846</v>
+        <v>1.7551</v>
       </c>
       <c r="D86" t="n">
-        <v>0.82836</v>
+        <v>1.05523</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.10496</v>
+        <v>2.54608</v>
       </c>
       <c r="C87" t="n">
-        <v>1.43249</v>
+        <v>1.78511</v>
       </c>
       <c r="D87" t="n">
-        <v>0.869259</v>
+        <v>1.14504</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.31257</v>
+        <v>2.74972</v>
       </c>
       <c r="C88" t="n">
-        <v>1.62342</v>
+        <v>1.99368</v>
       </c>
       <c r="D88" t="n">
-        <v>0.946491</v>
+        <v>1.16832</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.51886</v>
+        <v>1.77431</v>
       </c>
       <c r="C89" t="n">
-        <v>1.61591</v>
+        <v>2.06363</v>
       </c>
       <c r="D89" t="n">
-        <v>1.00862</v>
+        <v>1.24006</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.60824</v>
+        <v>1.93391</v>
       </c>
       <c r="C90" t="n">
-        <v>1.81902</v>
+        <v>2.16193</v>
       </c>
       <c r="D90" t="n">
-        <v>0.961912</v>
+        <v>1.25846</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.58313</v>
+        <v>1.95523</v>
       </c>
       <c r="C91" t="n">
-        <v>1.93513</v>
+        <v>2.32052</v>
       </c>
       <c r="D91" t="n">
-        <v>1.13003</v>
+        <v>1.38553</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.66358</v>
+        <v>2.0532</v>
       </c>
       <c r="C92" t="n">
-        <v>1.75856</v>
+        <v>2.4467</v>
       </c>
       <c r="D92" t="n">
-        <v>1.0504</v>
+        <v>1.47507</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.72449</v>
+        <v>2.17848</v>
       </c>
       <c r="C93" t="n">
-        <v>1.99806</v>
+        <v>2.42706</v>
       </c>
       <c r="D93" t="n">
-        <v>1.15705</v>
+        <v>1.41047</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.70308</v>
+        <v>2.25648</v>
       </c>
       <c r="C94" t="n">
-        <v>1.87273</v>
+        <v>2.63236</v>
       </c>
       <c r="D94" t="n">
-        <v>1.03822</v>
+        <v>1.52592</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.57101</v>
+        <v>2.29814</v>
       </c>
       <c r="C95" t="n">
-        <v>1.82548</v>
+        <v>2.77527</v>
       </c>
       <c r="D95" t="n">
-        <v>1.14035</v>
+        <v>1.62592</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.70735</v>
+        <v>2.41732</v>
       </c>
       <c r="C96" t="n">
-        <v>1.82272</v>
+        <v>2.85895</v>
       </c>
       <c r="D96" t="n">
-        <v>1.07149</v>
+        <v>1.69852</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.69315</v>
+        <v>2.62923</v>
       </c>
       <c r="C97" t="n">
-        <v>1.18588</v>
+        <v>2.02834</v>
       </c>
       <c r="D97" t="n">
-        <v>0.827746</v>
+        <v>1.30468</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.97209</v>
+        <v>2.62682</v>
       </c>
       <c r="C98" t="n">
-        <v>1.26871</v>
+        <v>1.9149</v>
       </c>
       <c r="D98" t="n">
-        <v>0.950489</v>
+        <v>1.34594</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.08224</v>
+        <v>2.78061</v>
       </c>
       <c r="C99" t="n">
-        <v>1.79385</v>
+        <v>2.00428</v>
       </c>
       <c r="D99" t="n">
-        <v>1.06942</v>
+        <v>1.42851</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.40017</v>
+        <v>2.869</v>
       </c>
       <c r="C100" t="n">
-        <v>1.42247</v>
+        <v>2.12686</v>
       </c>
       <c r="D100" t="n">
-        <v>0.878907</v>
+        <v>1.38881</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>2.14865</v>
+        <v>3.07716</v>
       </c>
       <c r="C101" t="n">
-        <v>1.40731</v>
+        <v>2.14944</v>
       </c>
       <c r="D101" t="n">
-        <v>0.933436</v>
+        <v>1.44192</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>2.44158</v>
+        <v>3.1702</v>
       </c>
       <c r="C102" t="n">
-        <v>1.48261</v>
+        <v>2.24983</v>
       </c>
       <c r="D102" t="n">
-        <v>1.01299</v>
+        <v>1.44716</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.5179</v>
+        <v>2.14135</v>
       </c>
       <c r="C103" t="n">
-        <v>1.55332</v>
+        <v>2.30913</v>
       </c>
       <c r="D103" t="n">
-        <v>0.97616</v>
+        <v>1.55904</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.61215</v>
+        <v>2.15759</v>
       </c>
       <c r="C104" t="n">
-        <v>1.62589</v>
+        <v>2.49535</v>
       </c>
       <c r="D104" t="n">
-        <v>1.00795</v>
+        <v>1.56849</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.69095</v>
+        <v>2.31673</v>
       </c>
       <c r="C105" t="n">
-        <v>1.77726</v>
+        <v>2.49392</v>
       </c>
       <c r="D105" t="n">
-        <v>1.09073</v>
+        <v>1.61767</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.73777</v>
+        <v>2.40651</v>
       </c>
       <c r="C106" t="n">
-        <v>1.87496</v>
+        <v>2.71185</v>
       </c>
       <c r="D106" t="n">
-        <v>1.10782</v>
+        <v>1.71269</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.05558</v>
+        <v>2.40486</v>
       </c>
       <c r="C107" t="n">
-        <v>1.95724</v>
+        <v>2.74502</v>
       </c>
       <c r="D107" t="n">
-        <v>1.21022</v>
+        <v>1.69424</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.97716</v>
+        <v>2.55083</v>
       </c>
       <c r="C108" t="n">
-        <v>2.06011</v>
+        <v>2.8883</v>
       </c>
       <c r="D108" t="n">
-        <v>1.25837</v>
+        <v>1.80037</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.08621</v>
+        <v>2.63607</v>
       </c>
       <c r="C109" t="n">
-        <v>2.2151</v>
+        <v>3.11259</v>
       </c>
       <c r="D109" t="n">
-        <v>1.40292</v>
+        <v>1.85169</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.24556</v>
+        <v>2.69851</v>
       </c>
       <c r="C110" t="n">
-        <v>2.49239</v>
+        <v>3.13304</v>
       </c>
       <c r="D110" t="n">
-        <v>1.47915</v>
+        <v>1.91884</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.33249</v>
+        <v>2.78742</v>
       </c>
       <c r="C111" t="n">
-        <v>1.54911</v>
+        <v>2.03283</v>
       </c>
       <c r="D111" t="n">
-        <v>1.05991</v>
+        <v>1.43774</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.4851</v>
+        <v>2.88911</v>
       </c>
       <c r="C112" t="n">
-        <v>1.64568</v>
+        <v>2.08958</v>
       </c>
       <c r="D112" t="n">
-        <v>1.14173</v>
+        <v>1.50555</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.64969</v>
+        <v>2.98652</v>
       </c>
       <c r="C113" t="n">
-        <v>1.75561</v>
+        <v>2.23466</v>
       </c>
       <c r="D113" t="n">
-        <v>1.14702</v>
+        <v>1.56616</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>2.7493</v>
+        <v>3.16695</v>
       </c>
       <c r="C114" t="n">
-        <v>1.81546</v>
+        <v>2.25126</v>
       </c>
       <c r="D114" t="n">
-        <v>1.24786</v>
+        <v>1.59117</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>2.84929</v>
+        <v>3.23347</v>
       </c>
       <c r="C115" t="n">
-        <v>1.92312</v>
+        <v>2.35882</v>
       </c>
       <c r="D115" t="n">
-        <v>1.27813</v>
+        <v>1.64425</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.02883</v>
+        <v>3.42442</v>
       </c>
       <c r="C116" t="n">
-        <v>2.03475</v>
+        <v>2.44821</v>
       </c>
       <c r="D116" t="n">
-        <v>1.4349</v>
+        <v>1.66279</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.23512</v>
+        <v>2.23713</v>
       </c>
       <c r="C117" t="n">
-        <v>2.22223</v>
+        <v>2.54972</v>
       </c>
       <c r="D117" t="n">
-        <v>1.58855</v>
+        <v>1.73381</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.40336</v>
+        <v>2.31143</v>
       </c>
       <c r="C118" t="n">
-        <v>2.313</v>
+        <v>2.6285</v>
       </c>
       <c r="D118" t="n">
-        <v>1.57207</v>
+        <v>1.75129</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.31667</v>
+        <v>2.36836</v>
       </c>
       <c r="C119" t="n">
-        <v>2.3402</v>
+        <v>2.73891</v>
       </c>
       <c r="D119" t="n">
-        <v>1.55804</v>
+        <v>1.7457</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered successful looukp.xlsx
+++ b/vs/scattered successful looukp.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.214774</v>
+        <v>0.238098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.191411</v>
+        <v>0.214101</v>
       </c>
       <c r="D2" t="n">
-        <v>0.206075</v>
+        <v>0.22455</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.243907</v>
+        <v>0.234046</v>
       </c>
       <c r="C3" t="n">
-        <v>0.199067</v>
+        <v>0.214286</v>
       </c>
       <c r="D3" t="n">
-        <v>0.209818</v>
+        <v>0.233697</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.214503</v>
+        <v>0.242792</v>
       </c>
       <c r="C4" t="n">
-        <v>0.23057</v>
+        <v>0.216691</v>
       </c>
       <c r="D4" t="n">
-        <v>0.257284</v>
+        <v>0.23688</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.223541</v>
+        <v>0.250523</v>
       </c>
       <c r="C5" t="n">
-        <v>0.228877</v>
+        <v>0.222811</v>
       </c>
       <c r="D5" t="n">
-        <v>0.219643</v>
+        <v>0.239045</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.223064</v>
+        <v>0.236747</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206449</v>
+        <v>0.222267</v>
       </c>
       <c r="D6" t="n">
-        <v>0.223735</v>
+        <v>0.239994</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.227749</v>
+        <v>0.240476</v>
       </c>
       <c r="C7" t="n">
-        <v>0.172987</v>
+        <v>0.193789</v>
       </c>
       <c r="D7" t="n">
-        <v>0.193373</v>
+        <v>0.218468</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.234651</v>
+        <v>0.246095</v>
       </c>
       <c r="C8" t="n">
-        <v>0.179808</v>
+        <v>0.196384</v>
       </c>
       <c r="D8" t="n">
-        <v>0.200321</v>
+        <v>0.213159</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.237291</v>
+        <v>0.257935</v>
       </c>
       <c r="C9" t="n">
-        <v>0.179419</v>
+        <v>0.192388</v>
       </c>
       <c r="D9" t="n">
-        <v>0.201159</v>
+        <v>0.212276</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.242276</v>
+        <v>0.261124</v>
       </c>
       <c r="C10" t="n">
-        <v>0.182023</v>
+        <v>0.206411</v>
       </c>
       <c r="D10" t="n">
-        <v>0.205317</v>
+        <v>0.218778</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.245671</v>
+        <v>0.260161</v>
       </c>
       <c r="C11" t="n">
-        <v>0.18557</v>
+        <v>0.198554</v>
       </c>
       <c r="D11" t="n">
-        <v>0.206971</v>
+        <v>0.223303</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.248561</v>
+        <v>0.267143</v>
       </c>
       <c r="C12" t="n">
-        <v>0.188756</v>
+        <v>0.204329</v>
       </c>
       <c r="D12" t="n">
-        <v>0.210776</v>
+        <v>0.216831</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.213644</v>
+        <v>0.219029</v>
       </c>
       <c r="C13" t="n">
-        <v>0.189838</v>
+        <v>0.19578</v>
       </c>
       <c r="D13" t="n">
-        <v>0.211939</v>
+        <v>0.226658</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.222645</v>
+        <v>0.230445</v>
       </c>
       <c r="C14" t="n">
-        <v>0.192278</v>
+        <v>0.202555</v>
       </c>
       <c r="D14" t="n">
-        <v>0.21566</v>
+        <v>0.228074</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.220299</v>
+        <v>0.224213</v>
       </c>
       <c r="C15" t="n">
-        <v>0.20753</v>
+        <v>0.208863</v>
       </c>
       <c r="D15" t="n">
-        <v>0.221203</v>
+        <v>0.240638</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.222154</v>
+        <v>0.227475</v>
       </c>
       <c r="C16" t="n">
-        <v>0.200742</v>
+        <v>0.211845</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223673</v>
+        <v>0.231464</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.225407</v>
+        <v>0.244396</v>
       </c>
       <c r="C17" t="n">
-        <v>0.20561</v>
+        <v>0.211752</v>
       </c>
       <c r="D17" t="n">
-        <v>0.231461</v>
+        <v>0.240811</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.268851</v>
+        <v>0.240212</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208907</v>
+        <v>0.222156</v>
       </c>
       <c r="D18" t="n">
-        <v>0.232493</v>
+        <v>0.239866</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.232626</v>
+        <v>0.244099</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213164</v>
+        <v>0.221487</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237057</v>
+        <v>0.24589</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.236708</v>
+        <v>0.248688</v>
       </c>
       <c r="C20" t="n">
-        <v>0.21679</v>
+        <v>0.229148</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240814</v>
+        <v>0.247971</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240986</v>
+        <v>0.251433</v>
       </c>
       <c r="C21" t="n">
-        <v>0.183781</v>
+        <v>0.188328</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204213</v>
+        <v>0.215748</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.243701</v>
+        <v>0.261641</v>
       </c>
       <c r="C22" t="n">
-        <v>0.194531</v>
+        <v>0.208651</v>
       </c>
       <c r="D22" t="n">
-        <v>0.210128</v>
+        <v>0.214464</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.248677</v>
+        <v>0.258122</v>
       </c>
       <c r="C23" t="n">
-        <v>0.190566</v>
+        <v>0.20882</v>
       </c>
       <c r="D23" t="n">
-        <v>0.213643</v>
+        <v>0.224886</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.253307</v>
+        <v>0.26154</v>
       </c>
       <c r="C24" t="n">
-        <v>0.193995</v>
+        <v>0.1973</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216407</v>
+        <v>0.22553</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.255932</v>
+        <v>0.269186</v>
       </c>
       <c r="C25" t="n">
-        <v>0.195698</v>
+        <v>0.206861</v>
       </c>
       <c r="D25" t="n">
-        <v>0.22802</v>
+        <v>0.227244</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.289582</v>
+        <v>0.271703</v>
       </c>
       <c r="C26" t="n">
-        <v>0.197682</v>
+        <v>0.205564</v>
       </c>
       <c r="D26" t="n">
-        <v>0.22189</v>
+        <v>0.229911</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.221815</v>
+        <v>0.235369</v>
       </c>
       <c r="C27" t="n">
-        <v>0.201305</v>
+        <v>0.214678</v>
       </c>
       <c r="D27" t="n">
-        <v>0.225415</v>
+        <v>0.235208</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.230778</v>
+        <v>0.237047</v>
       </c>
       <c r="C28" t="n">
-        <v>0.209484</v>
+        <v>0.214296</v>
       </c>
       <c r="D28" t="n">
-        <v>0.234476</v>
+        <v>0.248988</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.239502</v>
+        <v>0.251063</v>
       </c>
       <c r="C29" t="n">
-        <v>0.209816</v>
+        <v>0.224218</v>
       </c>
       <c r="D29" t="n">
-        <v>0.233906</v>
+        <v>0.247688</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.234856</v>
+        <v>0.253214</v>
       </c>
       <c r="C30" t="n">
-        <v>0.216852</v>
+        <v>0.225389</v>
       </c>
       <c r="D30" t="n">
-        <v>0.242399</v>
+        <v>0.251076</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.240916</v>
+        <v>0.258241</v>
       </c>
       <c r="C31" t="n">
-        <v>0.216634</v>
+        <v>0.234019</v>
       </c>
       <c r="D31" t="n">
-        <v>0.255319</v>
+        <v>0.265202</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.244328</v>
+        <v>0.253032</v>
       </c>
       <c r="C32" t="n">
-        <v>0.22449</v>
+        <v>0.23521</v>
       </c>
       <c r="D32" t="n">
-        <v>0.250028</v>
+        <v>0.2587</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.306472</v>
+        <v>0.258672</v>
       </c>
       <c r="C33" t="n">
-        <v>0.277722</v>
+        <v>0.244277</v>
       </c>
       <c r="D33" t="n">
-        <v>0.287046</v>
+        <v>0.257142</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.260437</v>
+        <v>0.270672</v>
       </c>
       <c r="C34" t="n">
-        <v>0.232909</v>
+        <v>0.25161</v>
       </c>
       <c r="D34" t="n">
-        <v>0.256378</v>
+        <v>0.272118</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258694</v>
+        <v>0.280145</v>
       </c>
       <c r="C35" t="n">
-        <v>0.203573</v>
+        <v>0.220246</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222559</v>
+        <v>0.231546</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.265048</v>
+        <v>0.278296</v>
       </c>
       <c r="C36" t="n">
-        <v>0.21001</v>
+        <v>0.223088</v>
       </c>
       <c r="D36" t="n">
-        <v>0.229077</v>
+        <v>0.241518</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.274702</v>
+        <v>0.307271</v>
       </c>
       <c r="C37" t="n">
-        <v>0.213765</v>
+        <v>0.23084</v>
       </c>
       <c r="D37" t="n">
-        <v>0.229617</v>
+        <v>0.254776</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.276621</v>
+        <v>0.312258</v>
       </c>
       <c r="C38" t="n">
-        <v>0.216155</v>
+        <v>0.230684</v>
       </c>
       <c r="D38" t="n">
-        <v>0.235434</v>
+        <v>0.260015</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.28465</v>
+        <v>0.314684</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2208</v>
+        <v>0.236342</v>
       </c>
       <c r="D39" t="n">
-        <v>0.242461</v>
+        <v>0.25231</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.290492</v>
+        <v>0.314756</v>
       </c>
       <c r="C40" t="n">
-        <v>0.252899</v>
+        <v>0.244551</v>
       </c>
       <c r="D40" t="n">
-        <v>0.283011</v>
+        <v>0.27394</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.291758</v>
+        <v>0.328255</v>
       </c>
       <c r="C41" t="n">
-        <v>0.269795</v>
+        <v>0.264</v>
       </c>
       <c r="D41" t="n">
-        <v>0.254187</v>
+        <v>0.272295</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.295645</v>
+        <v>0.340041</v>
       </c>
       <c r="C42" t="n">
-        <v>0.237316</v>
+        <v>0.265325</v>
       </c>
       <c r="D42" t="n">
-        <v>0.260097</v>
+        <v>0.276472</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.306853</v>
+        <v>0.334796</v>
       </c>
       <c r="C43" t="n">
-        <v>0.24556</v>
+        <v>0.261477</v>
       </c>
       <c r="D43" t="n">
-        <v>0.266609</v>
+        <v>0.281798</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.314712</v>
+        <v>0.341259</v>
       </c>
       <c r="C44" t="n">
-        <v>0.252258</v>
+        <v>0.268674</v>
       </c>
       <c r="D44" t="n">
-        <v>0.274701</v>
+        <v>0.299428</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.335133</v>
+        <v>0.371164</v>
       </c>
       <c r="C45" t="n">
-        <v>0.263896</v>
+        <v>0.289692</v>
       </c>
       <c r="D45" t="n">
-        <v>0.28243</v>
+        <v>0.310463</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.339264</v>
+        <v>0.379281</v>
       </c>
       <c r="C46" t="n">
-        <v>0.268995</v>
+        <v>0.294414</v>
       </c>
       <c r="D46" t="n">
-        <v>0.28596</v>
+        <v>0.311967</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.336942</v>
+        <v>0.382275</v>
       </c>
       <c r="C47" t="n">
-        <v>0.276671</v>
+        <v>0.295969</v>
       </c>
       <c r="D47" t="n">
-        <v>0.294989</v>
+        <v>0.309961</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.352846</v>
+        <v>0.395647</v>
       </c>
       <c r="C48" t="n">
-        <v>0.278548</v>
+        <v>0.317745</v>
       </c>
       <c r="D48" t="n">
-        <v>0.300876</v>
+        <v>0.317583</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.35812</v>
+        <v>0.402066</v>
       </c>
       <c r="C49" t="n">
-        <v>0.286543</v>
+        <v>0.313624</v>
       </c>
       <c r="D49" t="n">
-        <v>0.306568</v>
+        <v>0.335933</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.384919</v>
+        <v>0.426471</v>
       </c>
       <c r="C50" t="n">
-        <v>0.295451</v>
+        <v>0.31666</v>
       </c>
       <c r="D50" t="n">
-        <v>0.292978</v>
+        <v>0.328003</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.392617</v>
+        <v>0.450008</v>
       </c>
       <c r="C51" t="n">
-        <v>0.281</v>
+        <v>0.331701</v>
       </c>
       <c r="D51" t="n">
-        <v>0.30372</v>
+        <v>0.33037</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.429531</v>
+        <v>0.429708</v>
       </c>
       <c r="C52" t="n">
-        <v>0.306472</v>
+        <v>0.347672</v>
       </c>
       <c r="D52" t="n">
-        <v>0.310191</v>
+        <v>0.354849</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.431326</v>
+        <v>0.472608</v>
       </c>
       <c r="C53" t="n">
-        <v>0.312879</v>
+        <v>0.349045</v>
       </c>
       <c r="D53" t="n">
-        <v>0.318081</v>
+        <v>0.357357</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.441788</v>
+        <v>0.470514</v>
       </c>
       <c r="C54" t="n">
-        <v>0.329714</v>
+        <v>0.356138</v>
       </c>
       <c r="D54" t="n">
-        <v>0.370998</v>
+        <v>0.361365</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.492454</v>
+        <v>0.510702</v>
       </c>
       <c r="C55" t="n">
-        <v>0.33383</v>
+        <v>0.384251</v>
       </c>
       <c r="D55" t="n">
-        <v>0.354555</v>
+        <v>0.383278</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.50612</v>
+        <v>0.555907</v>
       </c>
       <c r="C56" t="n">
-        <v>0.349541</v>
+        <v>0.392693</v>
       </c>
       <c r="D56" t="n">
-        <v>0.354608</v>
+        <v>0.412595</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.509041</v>
+        <v>0.623889</v>
       </c>
       <c r="C57" t="n">
-        <v>0.346661</v>
+        <v>0.394794</v>
       </c>
       <c r="D57" t="n">
-        <v>0.365079</v>
+        <v>0.415915</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.518331</v>
+        <v>0.5809879999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.388223</v>
+        <v>0.42036</v>
       </c>
       <c r="D58" t="n">
-        <v>0.371546</v>
+        <v>0.428214</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.556897</v>
+        <v>0.631425</v>
       </c>
       <c r="C59" t="n">
-        <v>0.449262</v>
+        <v>0.452979</v>
       </c>
       <c r="D59" t="n">
-        <v>0.447488</v>
+        <v>0.469834</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.622241</v>
+        <v>0.683815</v>
       </c>
       <c r="C60" t="n">
-        <v>0.394137</v>
+        <v>0.501108</v>
       </c>
       <c r="D60" t="n">
-        <v>0.432028</v>
+        <v>0.487429</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.672488</v>
+        <v>0.687966</v>
       </c>
       <c r="C61" t="n">
-        <v>0.418269</v>
+        <v>0.508012</v>
       </c>
       <c r="D61" t="n">
-        <v>0.433936</v>
+        <v>0.51203</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.608432</v>
+        <v>0.719607</v>
       </c>
       <c r="C62" t="n">
-        <v>0.435545</v>
+        <v>0.497999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4515</v>
+        <v>0.524879</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.669516</v>
+        <v>0.759228</v>
       </c>
       <c r="C63" t="n">
-        <v>0.472083</v>
+        <v>0.513709</v>
       </c>
       <c r="D63" t="n">
-        <v>0.490163</v>
+        <v>0.529149</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.69416</v>
+        <v>0.752969</v>
       </c>
       <c r="C64" t="n">
-        <v>0.508016</v>
+        <v>0.5844</v>
       </c>
       <c r="D64" t="n">
-        <v>0.552544</v>
+        <v>0.601137</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6873899999999999</v>
+        <v>0.7770820000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.555872</v>
+        <v>0.581784</v>
       </c>
       <c r="D65" t="n">
-        <v>0.573694</v>
+        <v>0.600261</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.735612</v>
+        <v>0.77756</v>
       </c>
       <c r="C66" t="n">
-        <v>0.555656</v>
+        <v>0.606442</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5714939999999999</v>
+        <v>0.63519</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.726936</v>
+        <v>0.775836</v>
       </c>
       <c r="C67" t="n">
-        <v>0.569652</v>
+        <v>0.6088980000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.58693</v>
+        <v>0.6336079999999999</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.816891</v>
+        <v>0.80525</v>
       </c>
       <c r="C68" t="n">
-        <v>0.606097</v>
+        <v>0.63617</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6199</v>
+        <v>0.636713</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.776753</v>
+        <v>0.827971</v>
       </c>
       <c r="C69" t="n">
-        <v>0.592045</v>
+        <v>0.6558349999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.650735</v>
+        <v>0.670696</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.823265</v>
+        <v>0.840382</v>
       </c>
       <c r="C70" t="n">
-        <v>0.624016</v>
+        <v>0.653131</v>
       </c>
       <c r="D70" t="n">
-        <v>0.643782</v>
+        <v>0.6996869999999999</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.790521</v>
+        <v>0.816963</v>
       </c>
       <c r="C71" t="n">
-        <v>0.615618</v>
+        <v>0.686206</v>
       </c>
       <c r="D71" t="n">
-        <v>0.637307</v>
+        <v>0.700557</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.805554</v>
+        <v>0.872175</v>
       </c>
       <c r="C72" t="n">
-        <v>0.640984</v>
+        <v>0.645654</v>
       </c>
       <c r="D72" t="n">
-        <v>0.670835</v>
+        <v>0.675488</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.820326</v>
+        <v>0.883562</v>
       </c>
       <c r="C73" t="n">
-        <v>0.654735</v>
+        <v>0.710807</v>
       </c>
       <c r="D73" t="n">
-        <v>0.68703</v>
+        <v>0.7097909999999999</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.793113</v>
+        <v>0.9186879999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.666609</v>
+        <v>0.757756</v>
       </c>
       <c r="D74" t="n">
-        <v>0.727773</v>
+        <v>0.766615</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.819681</v>
+        <v>0.89436</v>
       </c>
       <c r="C75" t="n">
-        <v>0.696835</v>
+        <v>0.784015</v>
       </c>
       <c r="D75" t="n">
-        <v>0.773311</v>
+        <v>0.765118</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9421119999999999</v>
+        <v>0.951944</v>
       </c>
       <c r="C76" t="n">
-        <v>0.696592</v>
+        <v>0.751586</v>
       </c>
       <c r="D76" t="n">
-        <v>0.700482</v>
+        <v>0.8061120000000001</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.833615</v>
+        <v>0.9134100000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.750328</v>
+        <v>0.78862</v>
       </c>
       <c r="D77" t="n">
-        <v>0.76661</v>
+        <v>0.848089</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.882858</v>
+        <v>0.945641</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6981810000000001</v>
+        <v>0.790955</v>
       </c>
       <c r="D78" t="n">
-        <v>0.750348</v>
+        <v>0.815429</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.900639</v>
+        <v>0.970943</v>
       </c>
       <c r="C79" t="n">
-        <v>0.754683</v>
+        <v>0.798534</v>
       </c>
       <c r="D79" t="n">
-        <v>0.793122</v>
+        <v>0.817103</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.908096</v>
+        <v>0.987417</v>
       </c>
       <c r="C80" t="n">
-        <v>0.759506</v>
+        <v>0.793578</v>
       </c>
       <c r="D80" t="n">
-        <v>0.805812</v>
+        <v>0.850275</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.927438</v>
+        <v>0.967489</v>
       </c>
       <c r="C81" t="n">
-        <v>0.765286</v>
+        <v>0.837253</v>
       </c>
       <c r="D81" t="n">
-        <v>0.792052</v>
+        <v>0.84299</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.963077</v>
+        <v>0.990368</v>
       </c>
       <c r="C82" t="n">
-        <v>0.789874</v>
+        <v>0.802186</v>
       </c>
       <c r="D82" t="n">
-        <v>0.829807</v>
+        <v>0.859259</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.960408</v>
+        <v>1.01543</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8011160000000001</v>
+        <v>0.844078</v>
       </c>
       <c r="D83" t="n">
-        <v>0.809047</v>
+        <v>0.855595</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.885453</v>
+        <v>0.940172</v>
       </c>
       <c r="C84" t="n">
-        <v>0.823172</v>
+        <v>0.877784</v>
       </c>
       <c r="D84" t="n">
-        <v>0.846625</v>
+        <v>0.880892</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.983283</v>
+        <v>0.946515</v>
       </c>
       <c r="C85" t="n">
-        <v>0.794835</v>
+        <v>0.8624540000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.833485</v>
+        <v>0.909064</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.930656</v>
+        <v>0.995665</v>
       </c>
       <c r="C86" t="n">
-        <v>0.83468</v>
+        <v>0.881687</v>
       </c>
       <c r="D86" t="n">
-        <v>0.896537</v>
+        <v>0.92713</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.920309</v>
+        <v>0.962286</v>
       </c>
       <c r="C87" t="n">
-        <v>0.85721</v>
+        <v>0.880443</v>
       </c>
       <c r="D87" t="n">
-        <v>0.961417</v>
+        <v>0.918883</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.94721</v>
+        <v>1.02048</v>
       </c>
       <c r="C88" t="n">
-        <v>0.874207</v>
+        <v>0.897434</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9168190000000001</v>
+        <v>0.938563</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.968749</v>
+        <v>1.00073</v>
       </c>
       <c r="C89" t="n">
-        <v>0.891133</v>
+        <v>0.950377</v>
       </c>
       <c r="D89" t="n">
-        <v>0.928449</v>
+        <v>0.986236</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.988192</v>
+        <v>1.0921</v>
       </c>
       <c r="C90" t="n">
-        <v>0.948386</v>
+        <v>0.968812</v>
       </c>
       <c r="D90" t="n">
-        <v>0.945703</v>
+        <v>1.00199</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.988223</v>
+        <v>1.12088</v>
       </c>
       <c r="C91" t="n">
-        <v>0.905765</v>
+        <v>0.984631</v>
       </c>
       <c r="D91" t="n">
-        <v>0.991074</v>
+        <v>0.980968</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.00464</v>
+        <v>1.07595</v>
       </c>
       <c r="C92" t="n">
-        <v>0.868184</v>
+        <v>0.883745</v>
       </c>
       <c r="D92" t="n">
-        <v>0.892016</v>
+        <v>0.968964</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.0117</v>
+        <v>1.075</v>
       </c>
       <c r="C93" t="n">
-        <v>0.843048</v>
+        <v>0.951193</v>
       </c>
       <c r="D93" t="n">
-        <v>0.874619</v>
+        <v>0.948252</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.01135</v>
+        <v>1.11275</v>
       </c>
       <c r="C94" t="n">
-        <v>0.879547</v>
+        <v>0.937071</v>
       </c>
       <c r="D94" t="n">
-        <v>0.901512</v>
+        <v>0.983905</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.07297</v>
+        <v>1.15534</v>
       </c>
       <c r="C95" t="n">
-        <v>0.87862</v>
+        <v>0.946426</v>
       </c>
       <c r="D95" t="n">
-        <v>0.919362</v>
+        <v>0.970386</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.07132</v>
+        <v>1.14248</v>
       </c>
       <c r="C96" t="n">
-        <v>0.895709</v>
+        <v>0.960677</v>
       </c>
       <c r="D96" t="n">
-        <v>0.932949</v>
+        <v>0.994011</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.07372</v>
+        <v>1.13382</v>
       </c>
       <c r="C97" t="n">
-        <v>0.90906</v>
+        <v>0.949343</v>
       </c>
       <c r="D97" t="n">
-        <v>0.945086</v>
+        <v>0.989978</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9623350000000001</v>
+        <v>1.02952</v>
       </c>
       <c r="C98" t="n">
-        <v>0.924951</v>
+        <v>0.978494</v>
       </c>
       <c r="D98" t="n">
-        <v>0.961442</v>
+        <v>1.02642</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.962095</v>
+        <v>1.04996</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09288</v>
+        <v>1.02351</v>
       </c>
       <c r="D99" t="n">
-        <v>0.998827</v>
+        <v>1.05357</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.0012</v>
+        <v>1.04476</v>
       </c>
       <c r="C100" t="n">
-        <v>0.944118</v>
+        <v>1.02621</v>
       </c>
       <c r="D100" t="n">
-        <v>0.995036</v>
+        <v>1.04275</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.01039</v>
+        <v>1.06294</v>
       </c>
       <c r="C101" t="n">
-        <v>0.970657</v>
+        <v>1.04936</v>
       </c>
       <c r="D101" t="n">
-        <v>1.00916</v>
+        <v>1.08309</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.04814</v>
+        <v>1.06353</v>
       </c>
       <c r="C102" t="n">
-        <v>0.986011</v>
+        <v>1.05369</v>
       </c>
       <c r="D102" t="n">
-        <v>1.0206</v>
+        <v>1.08358</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.02889</v>
+        <v>1.10618</v>
       </c>
       <c r="C103" t="n">
-        <v>1.00581</v>
+        <v>1.03877</v>
       </c>
       <c r="D103" t="n">
-        <v>1.05231</v>
+        <v>1.10182</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.06813</v>
+        <v>1.1198</v>
       </c>
       <c r="C104" t="n">
-        <v>1.03774</v>
+        <v>1.07742</v>
       </c>
       <c r="D104" t="n">
-        <v>1.08676</v>
+        <v>1.11599</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.08113</v>
+        <v>1.11294</v>
       </c>
       <c r="C105" t="n">
-        <v>1.07759</v>
+        <v>1.11825</v>
       </c>
       <c r="D105" t="n">
-        <v>1.10105</v>
+        <v>1.13838</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.10705</v>
+        <v>1.1794</v>
       </c>
       <c r="C106" t="n">
-        <v>1.05741</v>
+        <v>1.11611</v>
       </c>
       <c r="D106" t="n">
-        <v>1.10321</v>
+        <v>1.18194</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09289</v>
+        <v>1.20886</v>
       </c>
       <c r="C107" t="n">
-        <v>0.95496</v>
+        <v>1.01286</v>
       </c>
       <c r="D107" t="n">
-        <v>0.973237</v>
+        <v>1.06289</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.11911</v>
+        <v>1.18974</v>
       </c>
       <c r="C108" t="n">
-        <v>0.961863</v>
+        <v>1.02623</v>
       </c>
       <c r="D108" t="n">
-        <v>0.99904</v>
+        <v>1.06422</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.1346</v>
+        <v>1.22433</v>
       </c>
       <c r="C109" t="n">
-        <v>0.982033</v>
+        <v>1.0768</v>
       </c>
       <c r="D109" t="n">
-        <v>1.01729</v>
+        <v>1.07736</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.15337</v>
+        <v>1.2285</v>
       </c>
       <c r="C110" t="n">
-        <v>0.991313</v>
+        <v>1.05568</v>
       </c>
       <c r="D110" t="n">
-        <v>1.01525</v>
+        <v>1.08348</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.16962</v>
+        <v>1.23192</v>
       </c>
       <c r="C111" t="n">
-        <v>1.01569</v>
+        <v>1.07003</v>
       </c>
       <c r="D111" t="n">
-        <v>1.04874</v>
+        <v>1.11727</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.06893</v>
+        <v>1.12298</v>
       </c>
       <c r="C112" t="n">
-        <v>1.02205</v>
+        <v>1.09829</v>
       </c>
       <c r="D112" t="n">
-        <v>1.0576</v>
+        <v>1.08459</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.0883</v>
+        <v>1.12536</v>
       </c>
       <c r="C113" t="n">
-        <v>1.03498</v>
+        <v>1.08398</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08125</v>
+        <v>1.13163</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.08823</v>
+        <v>1.12292</v>
       </c>
       <c r="C114" t="n">
-        <v>1.05755</v>
+        <v>1.0999</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09589</v>
+        <v>1.13154</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.09918</v>
+        <v>1.14052</v>
       </c>
       <c r="C115" t="n">
-        <v>1.05176</v>
+        <v>1.1099</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09509</v>
+        <v>1.15576</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.1306</v>
+        <v>1.19047</v>
       </c>
       <c r="C116" t="n">
-        <v>1.07623</v>
+        <v>1.15212</v>
       </c>
       <c r="D116" t="n">
-        <v>1.12532</v>
+        <v>1.18232</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.17228</v>
+        <v>1.17028</v>
       </c>
       <c r="C117" t="n">
-        <v>1.11995</v>
+        <v>1.14147</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1582</v>
+        <v>1.21282</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13648</v>
+        <v>1.20438</v>
       </c>
       <c r="C118" t="n">
-        <v>1.12872</v>
+        <v>1.17034</v>
       </c>
       <c r="D118" t="n">
-        <v>1.16017</v>
+        <v>1.20773</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.13137</v>
+        <v>1.20134</v>
       </c>
       <c r="C119" t="n">
-        <v>1.1244</v>
+        <v>1.19382</v>
       </c>
       <c r="D119" t="n">
-        <v>1.18812</v>
+        <v>1.25828</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.222345</v>
+        <v>0.228815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.179197</v>
+        <v>0.188305</v>
       </c>
       <c r="D2" t="n">
-        <v>0.185328</v>
+        <v>0.188589</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.258487</v>
+        <v>0.235208</v>
       </c>
       <c r="C3" t="n">
-        <v>0.217289</v>
+        <v>0.193179</v>
       </c>
       <c r="D3" t="n">
-        <v>0.216703</v>
+        <v>0.190006</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.252001</v>
+        <v>0.232711</v>
       </c>
       <c r="C4" t="n">
-        <v>0.203782</v>
+        <v>0.197418</v>
       </c>
       <c r="D4" t="n">
-        <v>0.191872</v>
+        <v>0.189009</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.24225</v>
+        <v>0.266767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.20664</v>
+        <v>0.217921</v>
       </c>
       <c r="D5" t="n">
-        <v>0.197227</v>
+        <v>0.202659</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.22911</v>
+        <v>0.259352</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197619</v>
+        <v>0.217595</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20388</v>
+        <v>0.204843</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.231944</v>
+        <v>0.252814</v>
       </c>
       <c r="C7" t="n">
-        <v>0.179345</v>
+        <v>0.198668</v>
       </c>
       <c r="D7" t="n">
-        <v>0.190293</v>
+        <v>0.206048</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.240143</v>
+        <v>0.260599</v>
       </c>
       <c r="C8" t="n">
-        <v>0.182915</v>
+        <v>0.207826</v>
       </c>
       <c r="D8" t="n">
-        <v>0.202475</v>
+        <v>0.216536</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.247888</v>
+        <v>0.273116</v>
       </c>
       <c r="C9" t="n">
-        <v>0.198376</v>
+        <v>0.222728</v>
       </c>
       <c r="D9" t="n">
-        <v>0.203943</v>
+        <v>0.219029</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.263585</v>
+        <v>0.282336</v>
       </c>
       <c r="C10" t="n">
-        <v>0.189375</v>
+        <v>0.218333</v>
       </c>
       <c r="D10" t="n">
-        <v>0.201894</v>
+        <v>0.220137</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.244976</v>
+        <v>0.279491</v>
       </c>
       <c r="C11" t="n">
-        <v>0.194081</v>
+        <v>0.198461</v>
       </c>
       <c r="D11" t="n">
-        <v>0.200422</v>
+        <v>0.222024</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.26509</v>
+        <v>0.281801</v>
       </c>
       <c r="C12" t="n">
-        <v>0.20736</v>
+        <v>0.219169</v>
       </c>
       <c r="D12" t="n">
-        <v>0.210193</v>
+        <v>0.237498</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.236302</v>
+        <v>0.254726</v>
       </c>
       <c r="C13" t="n">
-        <v>0.197979</v>
+        <v>0.215574</v>
       </c>
       <c r="D13" t="n">
-        <v>0.206185</v>
+        <v>0.225743</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.240905</v>
+        <v>0.262363</v>
       </c>
       <c r="C14" t="n">
-        <v>0.202256</v>
+        <v>0.214478</v>
       </c>
       <c r="D14" t="n">
-        <v>0.204291</v>
+        <v>0.225996</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.241351</v>
+        <v>0.253524</v>
       </c>
       <c r="C15" t="n">
-        <v>0.203181</v>
+        <v>0.216676</v>
       </c>
       <c r="D15" t="n">
-        <v>0.208822</v>
+        <v>0.226055</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.242737</v>
+        <v>0.265995</v>
       </c>
       <c r="C16" t="n">
-        <v>0.220869</v>
+        <v>0.2358</v>
       </c>
       <c r="D16" t="n">
-        <v>0.216081</v>
+        <v>0.223551</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.247079</v>
+        <v>0.268823</v>
       </c>
       <c r="C17" t="n">
-        <v>0.21487</v>
+        <v>0.222307</v>
       </c>
       <c r="D17" t="n">
-        <v>0.213766</v>
+        <v>0.232101</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.276583</v>
+        <v>0.273311</v>
       </c>
       <c r="C18" t="n">
-        <v>0.221078</v>
+        <v>0.236447</v>
       </c>
       <c r="D18" t="n">
-        <v>0.235377</v>
+        <v>0.224103</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.253934</v>
+        <v>0.271056</v>
       </c>
       <c r="C19" t="n">
-        <v>0.222508</v>
+        <v>0.235117</v>
       </c>
       <c r="D19" t="n">
-        <v>0.21711</v>
+        <v>0.238973</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.259596</v>
+        <v>0.28378</v>
       </c>
       <c r="C20" t="n">
-        <v>0.238989</v>
+        <v>0.245964</v>
       </c>
       <c r="D20" t="n">
-        <v>0.237582</v>
+        <v>0.235094</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.260862</v>
+        <v>0.26996</v>
       </c>
       <c r="C21" t="n">
-        <v>0.208971</v>
+        <v>0.230532</v>
       </c>
       <c r="D21" t="n">
-        <v>0.234713</v>
+        <v>0.233838</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.287634</v>
+        <v>0.289138</v>
       </c>
       <c r="C22" t="n">
-        <v>0.247049</v>
+        <v>0.225399</v>
       </c>
       <c r="D22" t="n">
-        <v>0.222191</v>
+        <v>0.236036</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.283321</v>
+        <v>0.293068</v>
       </c>
       <c r="C23" t="n">
-        <v>0.215653</v>
+        <v>0.224522</v>
       </c>
       <c r="D23" t="n">
-        <v>0.230241</v>
+        <v>0.233857</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.283022</v>
+        <v>0.295861</v>
       </c>
       <c r="C24" t="n">
-        <v>0.224898</v>
+        <v>0.236985</v>
       </c>
       <c r="D24" t="n">
-        <v>0.224037</v>
+        <v>0.232981</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.288352</v>
+        <v>0.303543</v>
       </c>
       <c r="C25" t="n">
-        <v>0.240112</v>
+        <v>0.242712</v>
       </c>
       <c r="D25" t="n">
-        <v>0.230287</v>
+        <v>0.248541</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.298861</v>
+        <v>0.305689</v>
       </c>
       <c r="C26" t="n">
-        <v>0.228852</v>
+        <v>0.247531</v>
       </c>
       <c r="D26" t="n">
-        <v>0.234284</v>
+        <v>0.248535</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.262675</v>
+        <v>0.280537</v>
       </c>
       <c r="C27" t="n">
-        <v>0.240844</v>
+        <v>0.257182</v>
       </c>
       <c r="D27" t="n">
-        <v>0.255613</v>
+        <v>0.249235</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.293321</v>
+        <v>0.291917</v>
       </c>
       <c r="C28" t="n">
-        <v>0.238906</v>
+        <v>0.258382</v>
       </c>
       <c r="D28" t="n">
-        <v>0.243225</v>
+        <v>0.242698</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.273231</v>
+        <v>0.28747</v>
       </c>
       <c r="C29" t="n">
-        <v>0.250715</v>
+        <v>0.27347</v>
       </c>
       <c r="D29" t="n">
-        <v>0.242664</v>
+        <v>0.247878</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.282597</v>
+        <v>0.2979</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2677</v>
+        <v>0.265164</v>
       </c>
       <c r="D30" t="n">
-        <v>0.241716</v>
+        <v>0.248224</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.281739</v>
+        <v>0.311874</v>
       </c>
       <c r="C31" t="n">
-        <v>0.253756</v>
+        <v>0.259612</v>
       </c>
       <c r="D31" t="n">
-        <v>0.264763</v>
+        <v>0.267166</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.293802</v>
+        <v>0.319593</v>
       </c>
       <c r="C32" t="n">
-        <v>0.266875</v>
+        <v>0.271153</v>
       </c>
       <c r="D32" t="n">
-        <v>0.254267</v>
+        <v>0.262537</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.310877</v>
+        <v>0.34532</v>
       </c>
       <c r="C33" t="n">
-        <v>0.272573</v>
+        <v>0.282366</v>
       </c>
       <c r="D33" t="n">
-        <v>0.259661</v>
+        <v>0.263465</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.30402</v>
+        <v>0.333525</v>
       </c>
       <c r="C34" t="n">
-        <v>0.276782</v>
+        <v>0.294105</v>
       </c>
       <c r="D34" t="n">
-        <v>0.250713</v>
+        <v>0.270912</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.311336</v>
+        <v>0.350131</v>
       </c>
       <c r="C35" t="n">
-        <v>0.251251</v>
+        <v>0.254108</v>
       </c>
       <c r="D35" t="n">
-        <v>0.239264</v>
+        <v>0.258247</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.321906</v>
+        <v>0.359935</v>
       </c>
       <c r="C36" t="n">
-        <v>0.252321</v>
+        <v>0.255288</v>
       </c>
       <c r="D36" t="n">
-        <v>0.250439</v>
+        <v>0.269995</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.340939</v>
+        <v>0.372803</v>
       </c>
       <c r="C37" t="n">
-        <v>0.258789</v>
+        <v>0.275452</v>
       </c>
       <c r="D37" t="n">
-        <v>0.262248</v>
+        <v>0.266823</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.348107</v>
+        <v>0.382923</v>
       </c>
       <c r="C38" t="n">
-        <v>0.265587</v>
+        <v>0.28408</v>
       </c>
       <c r="D38" t="n">
-        <v>0.264924</v>
+        <v>0.266096</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.352644</v>
+        <v>0.387839</v>
       </c>
       <c r="C39" t="n">
-        <v>0.268074</v>
+        <v>0.293389</v>
       </c>
       <c r="D39" t="n">
-        <v>0.259081</v>
+        <v>0.296951</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.365359</v>
+        <v>0.401102</v>
       </c>
       <c r="C40" t="n">
-        <v>0.275386</v>
+        <v>0.30585</v>
       </c>
       <c r="D40" t="n">
-        <v>0.269818</v>
+        <v>0.282929</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.350444</v>
+        <v>0.382323</v>
       </c>
       <c r="C41" t="n">
-        <v>0.279413</v>
+        <v>0.301284</v>
       </c>
       <c r="D41" t="n">
-        <v>0.265151</v>
+        <v>0.285888</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.355466</v>
+        <v>0.406511</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2806</v>
+        <v>0.322945</v>
       </c>
       <c r="D42" t="n">
-        <v>0.277333</v>
+        <v>0.279281</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.362133</v>
+        <v>0.413487</v>
       </c>
       <c r="C43" t="n">
-        <v>0.299458</v>
+        <v>0.327098</v>
       </c>
       <c r="D43" t="n">
-        <v>0.280119</v>
+        <v>0.297842</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.371422</v>
+        <v>0.422153</v>
       </c>
       <c r="C44" t="n">
-        <v>0.301552</v>
+        <v>0.340558</v>
       </c>
       <c r="D44" t="n">
-        <v>0.271029</v>
+        <v>0.293708</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.382454</v>
+        <v>0.437524</v>
       </c>
       <c r="C45" t="n">
-        <v>0.31236</v>
+        <v>0.339166</v>
       </c>
       <c r="D45" t="n">
-        <v>0.276446</v>
+        <v>0.292834</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.381496</v>
+        <v>0.439834</v>
       </c>
       <c r="C46" t="n">
-        <v>0.307805</v>
+        <v>0.345</v>
       </c>
       <c r="D46" t="n">
-        <v>0.282819</v>
+        <v>0.308931</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.39143</v>
+        <v>0.455613</v>
       </c>
       <c r="C47" t="n">
-        <v>0.324141</v>
+        <v>0.357261</v>
       </c>
       <c r="D47" t="n">
-        <v>0.291812</v>
+        <v>0.326897</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.411123</v>
+        <v>0.49615</v>
       </c>
       <c r="C48" t="n">
-        <v>0.342626</v>
+        <v>0.380033</v>
       </c>
       <c r="D48" t="n">
-        <v>0.308854</v>
+        <v>0.312131</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.415559</v>
+        <v>0.479606</v>
       </c>
       <c r="C49" t="n">
-        <v>0.335488</v>
+        <v>0.394789</v>
       </c>
       <c r="D49" t="n">
-        <v>0.296366</v>
+        <v>0.31474</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.433617</v>
+        <v>0.490516</v>
       </c>
       <c r="C50" t="n">
-        <v>0.334797</v>
+        <v>0.383262</v>
       </c>
       <c r="D50" t="n">
-        <v>0.300954</v>
+        <v>0.338104</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.434531</v>
+        <v>0.515487</v>
       </c>
       <c r="C51" t="n">
-        <v>0.351025</v>
+        <v>0.390465</v>
       </c>
       <c r="D51" t="n">
-        <v>0.325559</v>
+        <v>0.347808</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.439591</v>
+        <v>0.511944</v>
       </c>
       <c r="C52" t="n">
-        <v>0.349952</v>
+        <v>0.407053</v>
       </c>
       <c r="D52" t="n">
-        <v>0.315548</v>
+        <v>0.348513</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.457516</v>
+        <v>0.52868</v>
       </c>
       <c r="C53" t="n">
-        <v>0.356979</v>
+        <v>0.416203</v>
       </c>
       <c r="D53" t="n">
-        <v>0.347658</v>
+        <v>0.366658</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.467442</v>
+        <v>0.536614</v>
       </c>
       <c r="C54" t="n">
-        <v>0.374708</v>
+        <v>0.431165</v>
       </c>
       <c r="D54" t="n">
-        <v>0.325713</v>
+        <v>0.362107</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.492883</v>
+        <v>0.575696</v>
       </c>
       <c r="C55" t="n">
-        <v>0.390151</v>
+        <v>0.457456</v>
       </c>
       <c r="D55" t="n">
-        <v>0.332747</v>
+        <v>0.395219</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.437904</v>
+        <v>0.530843</v>
       </c>
       <c r="C56" t="n">
-        <v>0.399387</v>
+        <v>0.453476</v>
       </c>
       <c r="D56" t="n">
-        <v>0.335337</v>
+        <v>0.388188</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.451962</v>
+        <v>0.549396</v>
       </c>
       <c r="C57" t="n">
-        <v>0.393236</v>
+        <v>0.475469</v>
       </c>
       <c r="D57" t="n">
-        <v>0.343064</v>
+        <v>0.408553</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.460422</v>
+        <v>0.562285</v>
       </c>
       <c r="C58" t="n">
-        <v>0.408521</v>
+        <v>0.494717</v>
       </c>
       <c r="D58" t="n">
-        <v>0.351763</v>
+        <v>0.411463</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.473987</v>
+        <v>0.568994</v>
       </c>
       <c r="C59" t="n">
-        <v>0.421301</v>
+        <v>0.509046</v>
       </c>
       <c r="D59" t="n">
-        <v>0.374612</v>
+        <v>0.415653</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.518402</v>
+        <v>0.580783</v>
       </c>
       <c r="C60" t="n">
-        <v>0.476731</v>
+        <v>0.529545</v>
       </c>
       <c r="D60" t="n">
-        <v>0.384413</v>
+        <v>0.432981</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.49461</v>
+        <v>0.596317</v>
       </c>
       <c r="C61" t="n">
-        <v>0.456388</v>
+        <v>0.542556</v>
       </c>
       <c r="D61" t="n">
-        <v>0.397396</v>
+        <v>0.423321</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5345220000000001</v>
+        <v>0.632714</v>
       </c>
       <c r="C62" t="n">
-        <v>0.459282</v>
+        <v>0.567405</v>
       </c>
       <c r="D62" t="n">
-        <v>0.404516</v>
+        <v>0.450431</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.520305</v>
+        <v>0.632923</v>
       </c>
       <c r="C63" t="n">
-        <v>0.487437</v>
+        <v>0.582542</v>
       </c>
       <c r="D63" t="n">
-        <v>0.403751</v>
+        <v>0.460228</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.528442</v>
+        <v>0.675336</v>
       </c>
       <c r="C64" t="n">
-        <v>0.448539</v>
+        <v>0.549602</v>
       </c>
       <c r="D64" t="n">
-        <v>0.407449</v>
+        <v>0.479918</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.555204</v>
+        <v>0.7098719999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.483656</v>
+        <v>0.5936399999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.410923</v>
+        <v>0.496295</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.585839</v>
+        <v>0.72422</v>
       </c>
       <c r="C66" t="n">
-        <v>0.476092</v>
+        <v>0.60081</v>
       </c>
       <c r="D66" t="n">
-        <v>0.419053</v>
+        <v>0.517631</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.585454</v>
+        <v>0.745085</v>
       </c>
       <c r="C67" t="n">
-        <v>0.496689</v>
+        <v>0.622754</v>
       </c>
       <c r="D67" t="n">
-        <v>0.442896</v>
+        <v>0.547274</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.620942</v>
+        <v>0.79089</v>
       </c>
       <c r="C68" t="n">
-        <v>0.515128</v>
+        <v>0.6314689999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.43519</v>
+        <v>0.565741</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6538659999999999</v>
+        <v>0.811043</v>
       </c>
       <c r="C69" t="n">
-        <v>0.525512</v>
+        <v>0.666357</v>
       </c>
       <c r="D69" t="n">
-        <v>0.443091</v>
+        <v>0.544933</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.58507</v>
+        <v>0.732699</v>
       </c>
       <c r="C70" t="n">
-        <v>0.542918</v>
+        <v>0.6906060000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.456788</v>
+        <v>0.575337</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.59848</v>
+        <v>0.749065</v>
       </c>
       <c r="C71" t="n">
-        <v>0.569425</v>
+        <v>0.719408</v>
       </c>
       <c r="D71" t="n">
-        <v>0.471238</v>
+        <v>0.594436</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.691727</v>
+        <v>0.790511</v>
       </c>
       <c r="C72" t="n">
-        <v>0.628763</v>
+        <v>0.712242</v>
       </c>
       <c r="D72" t="n">
-        <v>0.482335</v>
+        <v>0.60112</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.656631</v>
+        <v>0.796941</v>
       </c>
       <c r="C73" t="n">
-        <v>0.603698</v>
+        <v>0.742698</v>
       </c>
       <c r="D73" t="n">
-        <v>0.523292</v>
+        <v>0.630941</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.709412</v>
+        <v>0.844846</v>
       </c>
       <c r="C74" t="n">
-        <v>0.620079</v>
+        <v>0.771193</v>
       </c>
       <c r="D74" t="n">
-        <v>0.51411</v>
+        <v>0.6389320000000001</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.701438</v>
+        <v>0.877454</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6677110000000001</v>
+        <v>0.816753</v>
       </c>
       <c r="D75" t="n">
-        <v>0.534321</v>
+        <v>0.650649</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7518359999999999</v>
+        <v>0.925269</v>
       </c>
       <c r="C76" t="n">
-        <v>0.726482</v>
+        <v>0.853464</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5663</v>
+        <v>0.664184</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.753033</v>
+        <v>0.910458</v>
       </c>
       <c r="C77" t="n">
-        <v>0.724213</v>
+        <v>0.887333</v>
       </c>
       <c r="D77" t="n">
-        <v>0.589549</v>
+        <v>0.696482</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.796903</v>
+        <v>0.971976</v>
       </c>
       <c r="C78" t="n">
-        <v>0.725289</v>
+        <v>0.816716</v>
       </c>
       <c r="D78" t="n">
-        <v>0.589181</v>
+        <v>0.752351</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.892855</v>
+        <v>1.00114</v>
       </c>
       <c r="C79" t="n">
-        <v>0.731621</v>
+        <v>0.871605</v>
       </c>
       <c r="D79" t="n">
-        <v>0.61193</v>
+        <v>0.736548</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.893976</v>
+        <v>1.01045</v>
       </c>
       <c r="C80" t="n">
-        <v>0.763669</v>
+        <v>0.88813</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6709889999999999</v>
+        <v>0.791835</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.930659</v>
+        <v>1.07086</v>
       </c>
       <c r="C81" t="n">
-        <v>0.78956</v>
+        <v>0.924469</v>
       </c>
       <c r="D81" t="n">
-        <v>0.684355</v>
+        <v>0.792318</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.933908</v>
+        <v>1.12066</v>
       </c>
       <c r="C82" t="n">
-        <v>0.778081</v>
+        <v>0.980985</v>
       </c>
       <c r="D82" t="n">
-        <v>0.724002</v>
+        <v>0.850287</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.01953</v>
+        <v>1.14261</v>
       </c>
       <c r="C83" t="n">
-        <v>0.816105</v>
+        <v>0.9931219999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.748457</v>
+        <v>0.854739</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.899108</v>
+        <v>1.08004</v>
       </c>
       <c r="C84" t="n">
-        <v>0.837786</v>
+        <v>1.01379</v>
       </c>
       <c r="D84" t="n">
-        <v>0.741516</v>
+        <v>0.856874</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.908508</v>
+        <v>1.06886</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8684190000000001</v>
+        <v>1.01483</v>
       </c>
       <c r="D85" t="n">
-        <v>0.761623</v>
+        <v>0.888082</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.912749</v>
+        <v>1.12379</v>
       </c>
       <c r="C86" t="n">
-        <v>0.863341</v>
+        <v>1.0502</v>
       </c>
       <c r="D86" t="n">
-        <v>0.765193</v>
+        <v>0.916979</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.0078</v>
+        <v>1.14825</v>
       </c>
       <c r="C87" t="n">
-        <v>0.972411</v>
+        <v>1.09774</v>
       </c>
       <c r="D87" t="n">
-        <v>0.771756</v>
+        <v>0.903366</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9915</v>
+        <v>1.16647</v>
       </c>
       <c r="C88" t="n">
-        <v>0.961583</v>
+        <v>1.1037</v>
       </c>
       <c r="D88" t="n">
-        <v>0.78656</v>
+        <v>0.951522</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.04124</v>
+        <v>1.18672</v>
       </c>
       <c r="C89" t="n">
-        <v>1.02434</v>
+        <v>1.15678</v>
       </c>
       <c r="D89" t="n">
-        <v>0.804298</v>
+        <v>0.9645319999999999</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.07273</v>
+        <v>1.22078</v>
       </c>
       <c r="C90" t="n">
-        <v>1.02657</v>
+        <v>1.16919</v>
       </c>
       <c r="D90" t="n">
-        <v>0.829327</v>
+        <v>0.99151</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.09413</v>
+        <v>1.25624</v>
       </c>
       <c r="C91" t="n">
-        <v>1.02783</v>
+        <v>1.19393</v>
       </c>
       <c r="D91" t="n">
-        <v>0.858789</v>
+        <v>1.01419</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.12386</v>
+        <v>1.2095</v>
       </c>
       <c r="C92" t="n">
-        <v>0.948856</v>
+        <v>1.08908</v>
       </c>
       <c r="D92" t="n">
-        <v>0.872082</v>
+        <v>0.983385</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.15607</v>
+        <v>1.26318</v>
       </c>
       <c r="C93" t="n">
-        <v>0.982504</v>
+        <v>1.11103</v>
       </c>
       <c r="D93" t="n">
-        <v>0.888671</v>
+        <v>1.02845</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.14188</v>
+        <v>1.32249</v>
       </c>
       <c r="C94" t="n">
-        <v>1.00824</v>
+        <v>1.15423</v>
       </c>
       <c r="D94" t="n">
-        <v>0.900805</v>
+        <v>1.01985</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.19763</v>
+        <v>1.3361</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05491</v>
+        <v>1.16749</v>
       </c>
       <c r="D95" t="n">
-        <v>1.00678</v>
+        <v>1.05258</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.21345</v>
+        <v>1.38937</v>
       </c>
       <c r="C96" t="n">
-        <v>1.04084</v>
+        <v>1.16335</v>
       </c>
       <c r="D96" t="n">
-        <v>0.964481</v>
+        <v>1.07107</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.26309</v>
+        <v>1.41226</v>
       </c>
       <c r="C97" t="n">
-        <v>1.07377</v>
+        <v>1.24902</v>
       </c>
       <c r="D97" t="n">
-        <v>0.953303</v>
+        <v>1.10424</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16528</v>
+        <v>1.25827</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05696</v>
+        <v>1.24332</v>
       </c>
       <c r="D98" t="n">
-        <v>0.965872</v>
+        <v>1.07396</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.14075</v>
+        <v>1.28332</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12575</v>
+        <v>1.27309</v>
       </c>
       <c r="D99" t="n">
-        <v>1.00045</v>
+        <v>1.13813</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.20242</v>
+        <v>1.35483</v>
       </c>
       <c r="C100" t="n">
-        <v>1.11105</v>
+        <v>1.26041</v>
       </c>
       <c r="D100" t="n">
-        <v>0.983694</v>
+        <v>1.14608</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16895</v>
+        <v>1.34937</v>
       </c>
       <c r="C101" t="n">
-        <v>1.12949</v>
+        <v>1.32822</v>
       </c>
       <c r="D101" t="n">
-        <v>1.04359</v>
+        <v>1.13706</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.23131</v>
+        <v>1.35764</v>
       </c>
       <c r="C102" t="n">
-        <v>1.18387</v>
+        <v>1.33571</v>
       </c>
       <c r="D102" t="n">
-        <v>1.03792</v>
+        <v>1.18601</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.25267</v>
+        <v>1.41316</v>
       </c>
       <c r="C103" t="n">
-        <v>1.21641</v>
+        <v>1.39023</v>
       </c>
       <c r="D103" t="n">
-        <v>1.05537</v>
+        <v>1.18935</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.27729</v>
+        <v>1.44743</v>
       </c>
       <c r="C104" t="n">
-        <v>1.25488</v>
+        <v>1.41955</v>
       </c>
       <c r="D104" t="n">
-        <v>1.06571</v>
+        <v>1.19235</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.29132</v>
+        <v>1.43471</v>
       </c>
       <c r="C105" t="n">
-        <v>1.2443</v>
+        <v>1.42982</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08175</v>
+        <v>1.24271</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.35501</v>
+        <v>1.4636</v>
       </c>
       <c r="C106" t="n">
-        <v>1.29717</v>
+        <v>1.46086</v>
       </c>
       <c r="D106" t="n">
-        <v>1.09987</v>
+        <v>1.24836</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.31688</v>
+        <v>1.52931</v>
       </c>
       <c r="C107" t="n">
-        <v>1.14431</v>
+        <v>1.29666</v>
       </c>
       <c r="D107" t="n">
-        <v>1.04778</v>
+        <v>1.20981</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.35615</v>
+        <v>1.56243</v>
       </c>
       <c r="C108" t="n">
-        <v>1.1637</v>
+        <v>1.33315</v>
       </c>
       <c r="D108" t="n">
-        <v>1.08059</v>
+        <v>1.24662</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.43785</v>
+        <v>1.56654</v>
       </c>
       <c r="C109" t="n">
-        <v>1.1815</v>
+        <v>1.35558</v>
       </c>
       <c r="D109" t="n">
-        <v>1.07237</v>
+        <v>1.23851</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.42039</v>
+        <v>1.55372</v>
       </c>
       <c r="C110" t="n">
-        <v>1.20891</v>
+        <v>1.34722</v>
       </c>
       <c r="D110" t="n">
-        <v>1.07657</v>
+        <v>1.23436</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.41278</v>
+        <v>1.64618</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23158</v>
+        <v>1.39634</v>
       </c>
       <c r="D111" t="n">
-        <v>1.11761</v>
+        <v>1.24855</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.27636</v>
+        <v>1.44652</v>
       </c>
       <c r="C112" t="n">
-        <v>1.2399</v>
+        <v>1.42602</v>
       </c>
       <c r="D112" t="n">
-        <v>1.12028</v>
+        <v>1.25264</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.29366</v>
+        <v>1.45071</v>
       </c>
       <c r="C113" t="n">
-        <v>1.28868</v>
+        <v>1.43727</v>
       </c>
       <c r="D113" t="n">
-        <v>1.12055</v>
+        <v>1.30085</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.3341</v>
+        <v>1.53566</v>
       </c>
       <c r="C114" t="n">
-        <v>1.33701</v>
+        <v>1.42931</v>
       </c>
       <c r="D114" t="n">
-        <v>1.16378</v>
+        <v>1.29764</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.35067</v>
+        <v>1.53468</v>
       </c>
       <c r="C115" t="n">
-        <v>1.39134</v>
+        <v>1.4804</v>
       </c>
       <c r="D115" t="n">
-        <v>1.18943</v>
+        <v>1.33395</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.39476</v>
+        <v>1.53553</v>
       </c>
       <c r="C116" t="n">
-        <v>1.38397</v>
+        <v>1.49233</v>
       </c>
       <c r="D116" t="n">
-        <v>1.23617</v>
+        <v>1.33007</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.42375</v>
+        <v>1.58007</v>
       </c>
       <c r="C117" t="n">
-        <v>1.43571</v>
+        <v>1.54793</v>
       </c>
       <c r="D117" t="n">
-        <v>1.23379</v>
+        <v>1.34498</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.41205</v>
+        <v>1.58242</v>
       </c>
       <c r="C118" t="n">
-        <v>1.41965</v>
+        <v>1.56808</v>
       </c>
       <c r="D118" t="n">
-        <v>1.26056</v>
+        <v>1.38848</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.46093</v>
+        <v>1.59737</v>
       </c>
       <c r="C119" t="n">
-        <v>1.49825</v>
+        <v>1.62629</v>
       </c>
       <c r="D119" t="n">
-        <v>1.35269</v>
+        <v>1.39878</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.536455</v>
+        <v>0.552277</v>
       </c>
       <c r="C2" t="n">
-        <v>0.29702</v>
+        <v>0.307783</v>
       </c>
       <c r="D2" t="n">
-        <v>0.268011</v>
+        <v>0.249782</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.375885</v>
+        <v>0.385776</v>
       </c>
       <c r="C3" t="n">
-        <v>0.302252</v>
+        <v>0.31236</v>
       </c>
       <c r="D3" t="n">
-        <v>0.241251</v>
+        <v>0.242889</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.382856</v>
+        <v>0.398279</v>
       </c>
       <c r="C4" t="n">
-        <v>0.326789</v>
+        <v>0.334291</v>
       </c>
       <c r="D4" t="n">
-        <v>0.271438</v>
+        <v>0.251949</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.389804</v>
+        <v>0.406214</v>
       </c>
       <c r="C5" t="n">
-        <v>0.337211</v>
+        <v>0.358171</v>
       </c>
       <c r="D5" t="n">
-        <v>0.262824</v>
+        <v>0.261281</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.407747</v>
+        <v>0.408866</v>
       </c>
       <c r="C6" t="n">
-        <v>0.332762</v>
+        <v>0.34731</v>
       </c>
       <c r="D6" t="n">
-        <v>0.260147</v>
+        <v>0.269177</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.417572</v>
+        <v>0.431606</v>
       </c>
       <c r="C7" t="n">
-        <v>0.351536</v>
+        <v>0.37279</v>
       </c>
       <c r="D7" t="n">
-        <v>0.275214</v>
+        <v>0.277106</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.452427</v>
+        <v>0.452868</v>
       </c>
       <c r="C8" t="n">
-        <v>0.367328</v>
+        <v>0.381231</v>
       </c>
       <c r="D8" t="n">
-        <v>0.276685</v>
+        <v>0.282835</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.473621</v>
+        <v>0.478531</v>
       </c>
       <c r="C9" t="n">
-        <v>0.424723</v>
+        <v>0.394538</v>
       </c>
       <c r="D9" t="n">
-        <v>0.288438</v>
+        <v>0.292488</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5105769999999999</v>
+        <v>0.487054</v>
       </c>
       <c r="C10" t="n">
-        <v>0.430954</v>
+        <v>0.428637</v>
       </c>
       <c r="D10" t="n">
-        <v>0.314437</v>
+        <v>0.301983</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.502719</v>
+        <v>0.499433</v>
       </c>
       <c r="C11" t="n">
-        <v>0.311471</v>
+        <v>0.322574</v>
       </c>
       <c r="D11" t="n">
-        <v>0.242136</v>
+        <v>0.256258</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.505104</v>
+        <v>0.5397189999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.312903</v>
+        <v>0.327963</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250916</v>
+        <v>0.24989</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.550485</v>
+        <v>0.544763</v>
       </c>
       <c r="C13" t="n">
-        <v>0.333455</v>
+        <v>0.330134</v>
       </c>
       <c r="D13" t="n">
-        <v>0.269229</v>
+        <v>0.261314</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.611514</v>
+        <v>0.578695</v>
       </c>
       <c r="C14" t="n">
-        <v>0.362554</v>
+        <v>0.35225</v>
       </c>
       <c r="D14" t="n">
-        <v>0.276572</v>
+        <v>0.268985</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.595171</v>
+        <v>0.602681</v>
       </c>
       <c r="C15" t="n">
-        <v>0.359773</v>
+        <v>0.362526</v>
       </c>
       <c r="D15" t="n">
-        <v>0.27491</v>
+        <v>0.265468</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.597816</v>
+        <v>0.607355</v>
       </c>
       <c r="C16" t="n">
-        <v>0.365229</v>
+        <v>0.378705</v>
       </c>
       <c r="D16" t="n">
-        <v>0.275332</v>
+        <v>0.278719</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.388797</v>
+        <v>0.379781</v>
       </c>
       <c r="C17" t="n">
-        <v>0.381455</v>
+        <v>0.387077</v>
       </c>
       <c r="D17" t="n">
-        <v>0.287427</v>
+        <v>0.284788</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.445151</v>
+        <v>0.429594</v>
       </c>
       <c r="C18" t="n">
-        <v>0.386416</v>
+        <v>0.399606</v>
       </c>
       <c r="D18" t="n">
-        <v>0.30296</v>
+        <v>0.302929</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.412832</v>
+        <v>0.406548</v>
       </c>
       <c r="C19" t="n">
-        <v>0.436946</v>
+        <v>0.42101</v>
       </c>
       <c r="D19" t="n">
-        <v>0.301665</v>
+        <v>0.307844</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.431665</v>
+        <v>0.422601</v>
       </c>
       <c r="C20" t="n">
-        <v>0.482328</v>
+        <v>0.462289</v>
       </c>
       <c r="D20" t="n">
-        <v>0.314017</v>
+        <v>0.32365</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.469715</v>
+        <v>0.449244</v>
       </c>
       <c r="C21" t="n">
-        <v>0.44385</v>
+        <v>0.457551</v>
       </c>
       <c r="D21" t="n">
-        <v>0.357582</v>
+        <v>0.331948</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.46084</v>
+        <v>0.445648</v>
       </c>
       <c r="C22" t="n">
-        <v>0.478326</v>
+        <v>0.474589</v>
       </c>
       <c r="D22" t="n">
-        <v>0.339555</v>
+        <v>0.345654</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.476832</v>
+        <v>0.482033</v>
       </c>
       <c r="C23" t="n">
-        <v>0.487453</v>
+        <v>0.495856</v>
       </c>
       <c r="D23" t="n">
-        <v>0.356237</v>
+        <v>0.34351</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.519383</v>
+        <v>0.496188</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5231440000000001</v>
+        <v>0.517983</v>
       </c>
       <c r="D24" t="n">
-        <v>0.352429</v>
+        <v>0.355836</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5195070000000001</v>
+        <v>0.505389</v>
       </c>
       <c r="C25" t="n">
-        <v>0.565478</v>
+        <v>0.549992</v>
       </c>
       <c r="D25" t="n">
-        <v>0.366122</v>
+        <v>0.382061</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.512284</v>
+        <v>0.520994</v>
       </c>
       <c r="C26" t="n">
-        <v>0.352386</v>
+        <v>0.34137</v>
       </c>
       <c r="D26" t="n">
-        <v>0.273028</v>
+        <v>0.27437</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.539995</v>
+        <v>0.556621</v>
       </c>
       <c r="C27" t="n">
-        <v>0.347749</v>
+        <v>0.350587</v>
       </c>
       <c r="D27" t="n">
-        <v>0.293257</v>
+        <v>0.280038</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.556762</v>
+        <v>0.596835</v>
       </c>
       <c r="C28" t="n">
-        <v>0.363326</v>
+        <v>0.36999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.280963</v>
+        <v>0.289345</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.58483</v>
+        <v>0.61346</v>
       </c>
       <c r="C29" t="n">
-        <v>0.371692</v>
+        <v>0.368472</v>
       </c>
       <c r="D29" t="n">
-        <v>0.283764</v>
+        <v>0.305924</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.595374</v>
+        <v>0.608033</v>
       </c>
       <c r="C30" t="n">
-        <v>0.397972</v>
+        <v>0.385194</v>
       </c>
       <c r="D30" t="n">
-        <v>0.289149</v>
+        <v>0.295907</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.625353</v>
+        <v>0.650515</v>
       </c>
       <c r="C31" t="n">
-        <v>0.407655</v>
+        <v>0.412921</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313087</v>
+        <v>0.316223</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.463157</v>
+        <v>0.483598</v>
       </c>
       <c r="C32" t="n">
-        <v>0.421214</v>
+        <v>0.415287</v>
       </c>
       <c r="D32" t="n">
-        <v>0.308624</v>
+        <v>0.317277</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.484503</v>
+        <v>0.479745</v>
       </c>
       <c r="C33" t="n">
-        <v>0.43847</v>
+        <v>0.465346</v>
       </c>
       <c r="D33" t="n">
-        <v>0.32005</v>
+        <v>0.329346</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.486836</v>
+        <v>0.51638</v>
       </c>
       <c r="C34" t="n">
-        <v>0.446372</v>
+        <v>0.497059</v>
       </c>
       <c r="D34" t="n">
-        <v>0.329534</v>
+        <v>0.337759</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.506623</v>
+        <v>0.53032</v>
       </c>
       <c r="C35" t="n">
-        <v>0.478575</v>
+        <v>0.501036</v>
       </c>
       <c r="D35" t="n">
-        <v>0.360187</v>
+        <v>0.351908</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.517431</v>
+        <v>0.5631429999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5015540000000001</v>
+        <v>0.507704</v>
       </c>
       <c r="D36" t="n">
-        <v>0.357983</v>
+        <v>0.362384</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.552556</v>
+        <v>0.569951</v>
       </c>
       <c r="C37" t="n">
-        <v>0.525748</v>
+        <v>0.538448</v>
       </c>
       <c r="D37" t="n">
-        <v>0.363699</v>
+        <v>0.396482</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.573604</v>
+        <v>0.6180060000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.555751</v>
+        <v>0.582118</v>
       </c>
       <c r="D38" t="n">
-        <v>0.394843</v>
+        <v>0.405638</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.647925</v>
+        <v>0.624383</v>
       </c>
       <c r="C39" t="n">
-        <v>0.588076</v>
+        <v>0.5931689999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.396544</v>
+        <v>0.405959</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.618187</v>
+        <v>0.671793</v>
       </c>
       <c r="C40" t="n">
-        <v>0.423778</v>
+        <v>0.454958</v>
       </c>
       <c r="D40" t="n">
-        <v>0.321077</v>
+        <v>0.340051</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.664894</v>
+        <v>0.684333</v>
       </c>
       <c r="C41" t="n">
-        <v>0.430342</v>
+        <v>0.461417</v>
       </c>
       <c r="D41" t="n">
-        <v>0.353263</v>
+        <v>0.362157</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.700911</v>
+        <v>0.757339</v>
       </c>
       <c r="C42" t="n">
-        <v>0.453366</v>
+        <v>0.503183</v>
       </c>
       <c r="D42" t="n">
-        <v>0.342762</v>
+        <v>0.364812</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.706283</v>
+        <v>0.7722</v>
       </c>
       <c r="C43" t="n">
-        <v>0.496719</v>
+        <v>0.522895</v>
       </c>
       <c r="D43" t="n">
-        <v>0.352637</v>
+        <v>0.381638</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.745848</v>
+        <v>0.804352</v>
       </c>
       <c r="C44" t="n">
-        <v>0.513815</v>
+        <v>0.566971</v>
       </c>
       <c r="D44" t="n">
-        <v>0.361861</v>
+        <v>0.39415</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.786729</v>
+        <v>0.839033</v>
       </c>
       <c r="C45" t="n">
-        <v>0.522298</v>
+        <v>0.584956</v>
       </c>
       <c r="D45" t="n">
-        <v>0.380504</v>
+        <v>0.401373</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.61947</v>
+        <v>0.610754</v>
       </c>
       <c r="C46" t="n">
-        <v>0.564128</v>
+        <v>0.63185</v>
       </c>
       <c r="D46" t="n">
-        <v>0.395097</v>
+        <v>0.426694</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.612477</v>
+        <v>0.657879</v>
       </c>
       <c r="C47" t="n">
-        <v>0.613602</v>
+        <v>0.6506110000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.430659</v>
+        <v>0.441196</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.623481</v>
+        <v>0.7157790000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.607088</v>
+        <v>0.677547</v>
       </c>
       <c r="D48" t="n">
-        <v>0.466862</v>
+        <v>0.457848</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.662118</v>
+        <v>0.701884</v>
       </c>
       <c r="C49" t="n">
-        <v>0.65066</v>
+        <v>0.711409</v>
       </c>
       <c r="D49" t="n">
-        <v>0.442354</v>
+        <v>0.465869</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.739559</v>
+        <v>0.730895</v>
       </c>
       <c r="C50" t="n">
-        <v>0.730928</v>
+        <v>0.757375</v>
       </c>
       <c r="D50" t="n">
-        <v>0.492681</v>
+        <v>0.478725</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.750298</v>
+        <v>0.814773</v>
       </c>
       <c r="C51" t="n">
-        <v>0.738777</v>
+        <v>0.783347</v>
       </c>
       <c r="D51" t="n">
-        <v>0.550204</v>
+        <v>0.514792</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.759821</v>
+        <v>0.848542</v>
       </c>
       <c r="C52" t="n">
-        <v>0.819545</v>
+        <v>0.840353</v>
       </c>
       <c r="D52" t="n">
-        <v>0.499094</v>
+        <v>0.5321900000000001</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.805898</v>
+        <v>0.85992</v>
       </c>
       <c r="C53" t="n">
-        <v>0.802578</v>
+        <v>0.872932</v>
       </c>
       <c r="D53" t="n">
-        <v>0.521008</v>
+        <v>0.5531239999999999</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.828553</v>
+        <v>0.927063</v>
       </c>
       <c r="C54" t="n">
-        <v>0.617743</v>
+        <v>0.641346</v>
       </c>
       <c r="D54" t="n">
-        <v>0.433122</v>
+        <v>0.460814</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.905085</v>
+        <v>0.990264</v>
       </c>
       <c r="C55" t="n">
-        <v>0.653662</v>
+        <v>0.675839</v>
       </c>
       <c r="D55" t="n">
-        <v>0.441617</v>
+        <v>0.480119</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.940545</v>
+        <v>1.03086</v>
       </c>
       <c r="C56" t="n">
-        <v>0.648203</v>
+        <v>0.708683</v>
       </c>
       <c r="D56" t="n">
-        <v>0.466048</v>
+        <v>0.510372</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.00979</v>
+        <v>1.09318</v>
       </c>
       <c r="C57" t="n">
-        <v>0.680612</v>
+        <v>0.752923</v>
       </c>
       <c r="D57" t="n">
-        <v>0.475566</v>
+        <v>0.5021060000000001</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.03827</v>
+        <v>1.15294</v>
       </c>
       <c r="C58" t="n">
-        <v>0.75266</v>
+        <v>0.766244</v>
       </c>
       <c r="D58" t="n">
-        <v>0.547239</v>
+        <v>0.526654</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.14898</v>
+        <v>1.23645</v>
       </c>
       <c r="C59" t="n">
-        <v>0.811226</v>
+        <v>0.814615</v>
       </c>
       <c r="D59" t="n">
-        <v>0.516834</v>
+        <v>0.546655</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.807852</v>
+        <v>0.9036149999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.815932</v>
+        <v>0.871703</v>
       </c>
       <c r="D60" t="n">
-        <v>0.529672</v>
+        <v>0.572584</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.873704</v>
+        <v>0.914658</v>
       </c>
       <c r="C61" t="n">
-        <v>0.843166</v>
+        <v>0.913233</v>
       </c>
       <c r="D61" t="n">
-        <v>0.551404</v>
+        <v>0.611304</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.882223</v>
+        <v>0.959379</v>
       </c>
       <c r="C62" t="n">
-        <v>0.874671</v>
+        <v>0.949788</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5728760000000001</v>
+        <v>0.614513</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.925836</v>
+        <v>1.00273</v>
       </c>
       <c r="C63" t="n">
-        <v>0.989473</v>
+        <v>1.02565</v>
       </c>
       <c r="D63" t="n">
-        <v>0.620583</v>
+        <v>0.653892</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.945508</v>
+        <v>1.05108</v>
       </c>
       <c r="C64" t="n">
-        <v>0.964975</v>
+        <v>1.0819</v>
       </c>
       <c r="D64" t="n">
-        <v>0.654202</v>
+        <v>0.661714</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.01294</v>
+        <v>1.09595</v>
       </c>
       <c r="C65" t="n">
-        <v>1.05412</v>
+        <v>1.13082</v>
       </c>
       <c r="D65" t="n">
-        <v>0.641742</v>
+        <v>0.696635</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.10295</v>
+        <v>1.16052</v>
       </c>
       <c r="C66" t="n">
-        <v>1.25136</v>
+        <v>1.23978</v>
       </c>
       <c r="D66" t="n">
-        <v>0.69315</v>
+        <v>0.730004</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.20023</v>
+        <v>1.24848</v>
       </c>
       <c r="C67" t="n">
-        <v>1.31754</v>
+        <v>1.37835</v>
       </c>
       <c r="D67" t="n">
-        <v>0.720553</v>
+        <v>0.770551</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.37241</v>
+        <v>1.39427</v>
       </c>
       <c r="C68" t="n">
-        <v>0.820522</v>
+        <v>0.85568</v>
       </c>
       <c r="D68" t="n">
-        <v>0.558359</v>
+        <v>0.589697</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.44029</v>
+        <v>1.46588</v>
       </c>
       <c r="C69" t="n">
-        <v>0.872281</v>
+        <v>0.91314</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5751270000000001</v>
+        <v>0.629233</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.59978</v>
+        <v>1.62014</v>
       </c>
       <c r="C70" t="n">
-        <v>0.92919</v>
+        <v>0.981957</v>
       </c>
       <c r="D70" t="n">
-        <v>0.600753</v>
+        <v>0.638548</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.73145</v>
+        <v>1.69813</v>
       </c>
       <c r="C71" t="n">
-        <v>1.00743</v>
+        <v>1.02449</v>
       </c>
       <c r="D71" t="n">
-        <v>0.680607</v>
+        <v>0.659227</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.78708</v>
+        <v>1.82164</v>
       </c>
       <c r="C72" t="n">
-        <v>1.11976</v>
+        <v>1.08862</v>
       </c>
       <c r="D72" t="n">
-        <v>0.697332</v>
+        <v>0.682701</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.78145</v>
+        <v>1.98997</v>
       </c>
       <c r="C73" t="n">
-        <v>1.11194</v>
+        <v>1.18507</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7017099999999999</v>
+        <v>0.737239</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.2518</v>
+        <v>1.27995</v>
       </c>
       <c r="C74" t="n">
-        <v>1.2014</v>
+        <v>1.24906</v>
       </c>
       <c r="D74" t="n">
-        <v>0.748577</v>
+        <v>0.752075</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.26324</v>
+        <v>1.35029</v>
       </c>
       <c r="C75" t="n">
-        <v>1.33581</v>
+        <v>1.37236</v>
       </c>
       <c r="D75" t="n">
-        <v>0.740721</v>
+        <v>0.7849429999999999</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.38431</v>
+        <v>1.45516</v>
       </c>
       <c r="C76" t="n">
-        <v>1.3704</v>
+        <v>1.44246</v>
       </c>
       <c r="D76" t="n">
-        <v>0.822182</v>
+        <v>0.832937</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.46192</v>
+        <v>1.51826</v>
       </c>
       <c r="C77" t="n">
-        <v>1.65905</v>
+        <v>1.54486</v>
       </c>
       <c r="D77" t="n">
-        <v>0.866466</v>
+        <v>0.886897</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.73432</v>
+        <v>1.69046</v>
       </c>
       <c r="C78" t="n">
-        <v>1.72273</v>
+        <v>1.66268</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8708360000000001</v>
+        <v>0.931767</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.68262</v>
+        <v>1.69439</v>
       </c>
       <c r="C79" t="n">
-        <v>1.7131</v>
+        <v>1.79007</v>
       </c>
       <c r="D79" t="n">
-        <v>1.0005</v>
+        <v>0.983034</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.75916</v>
+        <v>1.77743</v>
       </c>
       <c r="C80" t="n">
-        <v>1.86295</v>
+        <v>1.8566</v>
       </c>
       <c r="D80" t="n">
-        <v>1.03735</v>
+        <v>1.01727</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.86175</v>
+        <v>1.88503</v>
       </c>
       <c r="C81" t="n">
-        <v>2.01008</v>
+        <v>2.04705</v>
       </c>
       <c r="D81" t="n">
-        <v>1.14444</v>
+        <v>1.10437</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.02754</v>
+        <v>2.08687</v>
       </c>
       <c r="C82" t="n">
-        <v>2.1574</v>
+        <v>2.16643</v>
       </c>
       <c r="D82" t="n">
-        <v>1.16098</v>
+        <v>1.15531</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.09307</v>
+        <v>2.17469</v>
       </c>
       <c r="C83" t="n">
-        <v>1.50106</v>
+        <v>1.57084</v>
       </c>
       <c r="D83" t="n">
-        <v>0.892896</v>
+        <v>0.947272</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.19569</v>
+        <v>2.3033</v>
       </c>
       <c r="C84" t="n">
-        <v>1.55683</v>
+        <v>1.63585</v>
       </c>
       <c r="D84" t="n">
-        <v>0.980331</v>
+        <v>0.994642</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.25436</v>
+        <v>2.43491</v>
       </c>
       <c r="C85" t="n">
-        <v>1.63983</v>
+        <v>1.68983</v>
       </c>
       <c r="D85" t="n">
-        <v>0.956106</v>
+        <v>1.04184</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.35003</v>
+        <v>2.51449</v>
       </c>
       <c r="C86" t="n">
-        <v>1.7551</v>
+        <v>1.88096</v>
       </c>
       <c r="D86" t="n">
-        <v>1.05523</v>
+        <v>1.08733</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.54608</v>
+        <v>2.62476</v>
       </c>
       <c r="C87" t="n">
-        <v>1.78511</v>
+        <v>1.86298</v>
       </c>
       <c r="D87" t="n">
-        <v>1.14504</v>
+        <v>1.1511</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.74972</v>
+        <v>2.81297</v>
       </c>
       <c r="C88" t="n">
-        <v>1.99368</v>
+        <v>2.02716</v>
       </c>
       <c r="D88" t="n">
-        <v>1.16832</v>
+        <v>1.2436</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.77431</v>
+        <v>1.88472</v>
       </c>
       <c r="C89" t="n">
-        <v>2.06363</v>
+        <v>2.12616</v>
       </c>
       <c r="D89" t="n">
-        <v>1.24006</v>
+        <v>1.29668</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.93391</v>
+        <v>1.99459</v>
       </c>
       <c r="C90" t="n">
-        <v>2.16193</v>
+        <v>2.21868</v>
       </c>
       <c r="D90" t="n">
-        <v>1.25846</v>
+        <v>1.30871</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.95523</v>
+        <v>2.05139</v>
       </c>
       <c r="C91" t="n">
-        <v>2.32052</v>
+        <v>2.36073</v>
       </c>
       <c r="D91" t="n">
-        <v>1.38553</v>
+        <v>1.39652</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.0532</v>
+        <v>2.12832</v>
       </c>
       <c r="C92" t="n">
-        <v>2.4467</v>
+        <v>2.50635</v>
       </c>
       <c r="D92" t="n">
-        <v>1.47507</v>
+        <v>1.47717</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.17848</v>
+        <v>2.25358</v>
       </c>
       <c r="C93" t="n">
-        <v>2.42706</v>
+        <v>2.5493</v>
       </c>
       <c r="D93" t="n">
-        <v>1.41047</v>
+        <v>1.52714</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.25648</v>
+        <v>2.34902</v>
       </c>
       <c r="C94" t="n">
-        <v>2.63236</v>
+        <v>2.83919</v>
       </c>
       <c r="D94" t="n">
-        <v>1.52592</v>
+        <v>1.56872</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.29814</v>
+        <v>2.4131</v>
       </c>
       <c r="C95" t="n">
-        <v>2.77527</v>
+        <v>2.90435</v>
       </c>
       <c r="D95" t="n">
-        <v>1.62592</v>
+        <v>1.6525</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.41732</v>
+        <v>2.58614</v>
       </c>
       <c r="C96" t="n">
-        <v>2.85895</v>
+        <v>3.15879</v>
       </c>
       <c r="D96" t="n">
-        <v>1.69852</v>
+        <v>1.77201</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.62923</v>
+        <v>2.67047</v>
       </c>
       <c r="C97" t="n">
-        <v>2.02834</v>
+        <v>1.94336</v>
       </c>
       <c r="D97" t="n">
-        <v>1.30468</v>
+        <v>1.32347</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.62682</v>
+        <v>2.78893</v>
       </c>
       <c r="C98" t="n">
-        <v>1.9149</v>
+        <v>2.0235</v>
       </c>
       <c r="D98" t="n">
-        <v>1.34594</v>
+        <v>1.38019</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.78061</v>
+        <v>2.91562</v>
       </c>
       <c r="C99" t="n">
-        <v>2.00428</v>
+        <v>2.12752</v>
       </c>
       <c r="D99" t="n">
-        <v>1.42851</v>
+        <v>1.37859</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.869</v>
+        <v>3.12577</v>
       </c>
       <c r="C100" t="n">
-        <v>2.12686</v>
+        <v>2.13966</v>
       </c>
       <c r="D100" t="n">
-        <v>1.38881</v>
+        <v>1.45256</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.07716</v>
+        <v>3.21281</v>
       </c>
       <c r="C101" t="n">
-        <v>2.14944</v>
+        <v>2.25071</v>
       </c>
       <c r="D101" t="n">
-        <v>1.44192</v>
+        <v>1.49339</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.1702</v>
+        <v>3.3611</v>
       </c>
       <c r="C102" t="n">
-        <v>2.24983</v>
+        <v>2.36514</v>
       </c>
       <c r="D102" t="n">
-        <v>1.44716</v>
+        <v>1.53678</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.14135</v>
+        <v>2.2203</v>
       </c>
       <c r="C103" t="n">
-        <v>2.30913</v>
+        <v>2.52101</v>
       </c>
       <c r="D103" t="n">
-        <v>1.55904</v>
+        <v>1.63372</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.15759</v>
+        <v>2.31904</v>
       </c>
       <c r="C104" t="n">
-        <v>2.49535</v>
+        <v>2.58627</v>
       </c>
       <c r="D104" t="n">
-        <v>1.56849</v>
+        <v>1.65301</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.31673</v>
+        <v>2.40778</v>
       </c>
       <c r="C105" t="n">
-        <v>2.49392</v>
+        <v>2.65678</v>
       </c>
       <c r="D105" t="n">
-        <v>1.61767</v>
+        <v>1.70657</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.40651</v>
+        <v>2.5152</v>
       </c>
       <c r="C106" t="n">
-        <v>2.71185</v>
+        <v>2.77834</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71269</v>
+        <v>1.78858</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.40486</v>
+        <v>2.59125</v>
       </c>
       <c r="C107" t="n">
-        <v>2.74502</v>
+        <v>2.8963</v>
       </c>
       <c r="D107" t="n">
-        <v>1.69424</v>
+        <v>1.84157</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.55083</v>
+        <v>2.71893</v>
       </c>
       <c r="C108" t="n">
-        <v>2.8883</v>
+        <v>3.09063</v>
       </c>
       <c r="D108" t="n">
-        <v>1.80037</v>
+        <v>1.87381</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.63607</v>
+        <v>2.78866</v>
       </c>
       <c r="C109" t="n">
-        <v>3.11259</v>
+        <v>3.20253</v>
       </c>
       <c r="D109" t="n">
-        <v>1.85169</v>
+        <v>1.955</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.69851</v>
+        <v>2.8935</v>
       </c>
       <c r="C110" t="n">
-        <v>3.13304</v>
+        <v>3.30052</v>
       </c>
       <c r="D110" t="n">
-        <v>1.91884</v>
+        <v>2.03611</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.78742</v>
+        <v>2.95593</v>
       </c>
       <c r="C111" t="n">
-        <v>2.03283</v>
+        <v>2.06393</v>
       </c>
       <c r="D111" t="n">
-        <v>1.43774</v>
+        <v>1.4756</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.88911</v>
+        <v>2.9597</v>
       </c>
       <c r="C112" t="n">
-        <v>2.08958</v>
+        <v>2.28324</v>
       </c>
       <c r="D112" t="n">
-        <v>1.50555</v>
+        <v>1.62515</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.98652</v>
+        <v>3.28231</v>
       </c>
       <c r="C113" t="n">
-        <v>2.23466</v>
+        <v>2.34275</v>
       </c>
       <c r="D113" t="n">
-        <v>1.56616</v>
+        <v>1.65727</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.16695</v>
+        <v>3.36855</v>
       </c>
       <c r="C114" t="n">
-        <v>2.25126</v>
+        <v>2.45559</v>
       </c>
       <c r="D114" t="n">
-        <v>1.59117</v>
+        <v>1.71502</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.23347</v>
+        <v>3.51285</v>
       </c>
       <c r="C115" t="n">
-        <v>2.35882</v>
+        <v>2.54686</v>
       </c>
       <c r="D115" t="n">
-        <v>1.64425</v>
+        <v>1.75029</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.42442</v>
+        <v>3.72391</v>
       </c>
       <c r="C116" t="n">
-        <v>2.44821</v>
+        <v>2.59833</v>
       </c>
       <c r="D116" t="n">
-        <v>1.66279</v>
+        <v>1.82936</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.23713</v>
+        <v>2.47253</v>
       </c>
       <c r="C117" t="n">
-        <v>2.54972</v>
+        <v>2.77616</v>
       </c>
       <c r="D117" t="n">
-        <v>1.73381</v>
+        <v>1.88437</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.31143</v>
+        <v>2.53589</v>
       </c>
       <c r="C118" t="n">
-        <v>2.6285</v>
+        <v>2.8705</v>
       </c>
       <c r="D118" t="n">
-        <v>1.75129</v>
+        <v>1.95258</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.36836</v>
+        <v>2.6385</v>
       </c>
       <c r="C119" t="n">
-        <v>2.73891</v>
+        <v>2.96329</v>
       </c>
       <c r="D119" t="n">
-        <v>1.7457</v>
+        <v>1.96877</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered successful looukp.xlsx
+++ b/vs/scattered successful looukp.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.238098</v>
+        <v>0.237145</v>
       </c>
       <c r="C2" t="n">
-        <v>0.214101</v>
+        <v>0.225051</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22455</v>
+        <v>0.222012</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.234046</v>
+        <v>0.234256</v>
       </c>
       <c r="C3" t="n">
-        <v>0.214286</v>
+        <v>0.229875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.233697</v>
+        <v>0.227888</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.242792</v>
+        <v>0.233847</v>
       </c>
       <c r="C4" t="n">
-        <v>0.216691</v>
+        <v>0.232963</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23688</v>
+        <v>0.230604</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.250523</v>
+        <v>0.241476</v>
       </c>
       <c r="C5" t="n">
-        <v>0.222811</v>
+        <v>0.241485</v>
       </c>
       <c r="D5" t="n">
-        <v>0.239045</v>
+        <v>0.238151</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.236747</v>
+        <v>0.241811</v>
       </c>
       <c r="C6" t="n">
-        <v>0.222267</v>
+        <v>0.236777</v>
       </c>
       <c r="D6" t="n">
-        <v>0.239994</v>
+        <v>0.23715</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.240476</v>
+        <v>0.25506</v>
       </c>
       <c r="C7" t="n">
-        <v>0.193789</v>
+        <v>0.208118</v>
       </c>
       <c r="D7" t="n">
-        <v>0.218468</v>
+        <v>0.203049</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.246095</v>
+        <v>0.251038</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196384</v>
+        <v>0.214884</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213159</v>
+        <v>0.210044</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.257935</v>
+        <v>0.256268</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192388</v>
+        <v>0.219453</v>
       </c>
       <c r="D9" t="n">
-        <v>0.212276</v>
+        <v>0.220235</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.261124</v>
+        <v>0.254093</v>
       </c>
       <c r="C10" t="n">
-        <v>0.206411</v>
+        <v>0.214862</v>
       </c>
       <c r="D10" t="n">
-        <v>0.218778</v>
+        <v>0.216627</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.260161</v>
+        <v>0.256928</v>
       </c>
       <c r="C11" t="n">
-        <v>0.198554</v>
+        <v>0.227229</v>
       </c>
       <c r="D11" t="n">
-        <v>0.223303</v>
+        <v>0.226966</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.267143</v>
+        <v>0.265177</v>
       </c>
       <c r="C12" t="n">
-        <v>0.204329</v>
+        <v>0.21645</v>
       </c>
       <c r="D12" t="n">
-        <v>0.216831</v>
+        <v>0.226682</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.219029</v>
+        <v>0.21973</v>
       </c>
       <c r="C13" t="n">
-        <v>0.19578</v>
+        <v>0.228842</v>
       </c>
       <c r="D13" t="n">
-        <v>0.226658</v>
+        <v>0.236752</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.230445</v>
+        <v>0.231978</v>
       </c>
       <c r="C14" t="n">
-        <v>0.202555</v>
+        <v>0.229874</v>
       </c>
       <c r="D14" t="n">
-        <v>0.228074</v>
+        <v>0.222444</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.224213</v>
+        <v>0.229929</v>
       </c>
       <c r="C15" t="n">
-        <v>0.208863</v>
+        <v>0.233183</v>
       </c>
       <c r="D15" t="n">
-        <v>0.240638</v>
+        <v>0.230036</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.227475</v>
+        <v>0.231335</v>
       </c>
       <c r="C16" t="n">
-        <v>0.211845</v>
+        <v>0.241755</v>
       </c>
       <c r="D16" t="n">
-        <v>0.231464</v>
+        <v>0.235039</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.244396</v>
+        <v>0.2293</v>
       </c>
       <c r="C17" t="n">
-        <v>0.211752</v>
+        <v>0.244355</v>
       </c>
       <c r="D17" t="n">
-        <v>0.240811</v>
+        <v>0.237193</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.240212</v>
+        <v>0.2358</v>
       </c>
       <c r="C18" t="n">
-        <v>0.222156</v>
+        <v>0.249922</v>
       </c>
       <c r="D18" t="n">
-        <v>0.239866</v>
+        <v>0.241921</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.244099</v>
+        <v>0.240623</v>
       </c>
       <c r="C19" t="n">
-        <v>0.221487</v>
+        <v>0.246654</v>
       </c>
       <c r="D19" t="n">
-        <v>0.24589</v>
+        <v>0.255369</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.248688</v>
+        <v>0.251458</v>
       </c>
       <c r="C20" t="n">
-        <v>0.229148</v>
+        <v>0.25306</v>
       </c>
       <c r="D20" t="n">
-        <v>0.247971</v>
+        <v>0.260166</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.251433</v>
+        <v>0.257416</v>
       </c>
       <c r="C21" t="n">
-        <v>0.188328</v>
+        <v>0.214768</v>
       </c>
       <c r="D21" t="n">
-        <v>0.215748</v>
+        <v>0.213552</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.261641</v>
+        <v>0.252352</v>
       </c>
       <c r="C22" t="n">
-        <v>0.208651</v>
+        <v>0.222562</v>
       </c>
       <c r="D22" t="n">
-        <v>0.214464</v>
+        <v>0.222191</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.258122</v>
+        <v>0.269963</v>
       </c>
       <c r="C23" t="n">
-        <v>0.20882</v>
+        <v>0.228787</v>
       </c>
       <c r="D23" t="n">
-        <v>0.224886</v>
+        <v>0.223092</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.26154</v>
+        <v>0.271289</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1973</v>
+        <v>0.225364</v>
       </c>
       <c r="D24" t="n">
-        <v>0.22553</v>
+        <v>0.22952</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.269186</v>
+        <v>0.271095</v>
       </c>
       <c r="C25" t="n">
-        <v>0.206861</v>
+        <v>0.225577</v>
       </c>
       <c r="D25" t="n">
-        <v>0.227244</v>
+        <v>0.226118</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.271703</v>
+        <v>0.274487</v>
       </c>
       <c r="C26" t="n">
-        <v>0.205564</v>
+        <v>0.226843</v>
       </c>
       <c r="D26" t="n">
-        <v>0.229911</v>
+        <v>0.235974</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.235369</v>
+        <v>0.231845</v>
       </c>
       <c r="C27" t="n">
-        <v>0.214678</v>
+        <v>0.231272</v>
       </c>
       <c r="D27" t="n">
-        <v>0.235208</v>
+        <v>0.236615</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.237047</v>
+        <v>0.248956</v>
       </c>
       <c r="C28" t="n">
-        <v>0.214296</v>
+        <v>0.245593</v>
       </c>
       <c r="D28" t="n">
-        <v>0.248988</v>
+        <v>0.239202</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.251063</v>
+        <v>0.247588</v>
       </c>
       <c r="C29" t="n">
-        <v>0.224218</v>
+        <v>0.250746</v>
       </c>
       <c r="D29" t="n">
-        <v>0.247688</v>
+        <v>0.241007</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.253214</v>
+        <v>0.243745</v>
       </c>
       <c r="C30" t="n">
-        <v>0.225389</v>
+        <v>0.252409</v>
       </c>
       <c r="D30" t="n">
-        <v>0.251076</v>
+        <v>0.246879</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.258241</v>
+        <v>0.256532</v>
       </c>
       <c r="C31" t="n">
-        <v>0.234019</v>
+        <v>0.251025</v>
       </c>
       <c r="D31" t="n">
-        <v>0.265202</v>
+        <v>0.253013</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.253032</v>
+        <v>0.258985</v>
       </c>
       <c r="C32" t="n">
-        <v>0.23521</v>
+        <v>0.268099</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2587</v>
+        <v>0.259149</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.258672</v>
+        <v>0.270691</v>
       </c>
       <c r="C33" t="n">
-        <v>0.244277</v>
+        <v>0.268701</v>
       </c>
       <c r="D33" t="n">
-        <v>0.257142</v>
+        <v>0.272085</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.270672</v>
+        <v>0.269138</v>
       </c>
       <c r="C34" t="n">
-        <v>0.25161</v>
+        <v>0.272776</v>
       </c>
       <c r="D34" t="n">
-        <v>0.272118</v>
+        <v>0.271435</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.280145</v>
+        <v>0.273047</v>
       </c>
       <c r="C35" t="n">
-        <v>0.220246</v>
+        <v>0.23697</v>
       </c>
       <c r="D35" t="n">
-        <v>0.231546</v>
+        <v>0.235352</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.278296</v>
+        <v>0.292589</v>
       </c>
       <c r="C36" t="n">
-        <v>0.223088</v>
+        <v>0.257914</v>
       </c>
       <c r="D36" t="n">
-        <v>0.241518</v>
+        <v>0.248624</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.307271</v>
+        <v>0.301113</v>
       </c>
       <c r="C37" t="n">
-        <v>0.23084</v>
+        <v>0.252359</v>
       </c>
       <c r="D37" t="n">
-        <v>0.254776</v>
+        <v>0.258009</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.312258</v>
+        <v>0.311249</v>
       </c>
       <c r="C38" t="n">
-        <v>0.230684</v>
+        <v>0.256643</v>
       </c>
       <c r="D38" t="n">
-        <v>0.260015</v>
+        <v>0.251833</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.314684</v>
+        <v>0.31335</v>
       </c>
       <c r="C39" t="n">
-        <v>0.236342</v>
+        <v>0.270234</v>
       </c>
       <c r="D39" t="n">
-        <v>0.25231</v>
+        <v>0.26989</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.314756</v>
+        <v>0.313719</v>
       </c>
       <c r="C40" t="n">
-        <v>0.244551</v>
+        <v>0.270613</v>
       </c>
       <c r="D40" t="n">
-        <v>0.27394</v>
+        <v>0.280511</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.328255</v>
+        <v>0.318589</v>
       </c>
       <c r="C41" t="n">
-        <v>0.264</v>
+        <v>0.278857</v>
       </c>
       <c r="D41" t="n">
-        <v>0.272295</v>
+        <v>0.267857</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.340041</v>
+        <v>0.331549</v>
       </c>
       <c r="C42" t="n">
-        <v>0.265325</v>
+        <v>0.280961</v>
       </c>
       <c r="D42" t="n">
-        <v>0.276472</v>
+        <v>0.285394</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.334796</v>
+        <v>0.333692</v>
       </c>
       <c r="C43" t="n">
-        <v>0.261477</v>
+        <v>0.289851</v>
       </c>
       <c r="D43" t="n">
-        <v>0.281798</v>
+        <v>0.281376</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.341259</v>
+        <v>0.353594</v>
       </c>
       <c r="C44" t="n">
-        <v>0.268674</v>
+        <v>0.301586</v>
       </c>
       <c r="D44" t="n">
-        <v>0.299428</v>
+        <v>0.297507</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.371164</v>
+        <v>0.372105</v>
       </c>
       <c r="C45" t="n">
-        <v>0.289692</v>
+        <v>0.305852</v>
       </c>
       <c r="D45" t="n">
-        <v>0.310463</v>
+        <v>0.310343</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.379281</v>
+        <v>0.370463</v>
       </c>
       <c r="C46" t="n">
-        <v>0.294414</v>
+        <v>0.315764</v>
       </c>
       <c r="D46" t="n">
-        <v>0.311967</v>
+        <v>0.314284</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.382275</v>
+        <v>0.398421</v>
       </c>
       <c r="C47" t="n">
-        <v>0.295969</v>
+        <v>0.332309</v>
       </c>
       <c r="D47" t="n">
-        <v>0.309961</v>
+        <v>0.324467</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.395647</v>
+        <v>0.410631</v>
       </c>
       <c r="C48" t="n">
-        <v>0.317745</v>
+        <v>0.336211</v>
       </c>
       <c r="D48" t="n">
-        <v>0.317583</v>
+        <v>0.349509</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.402066</v>
+        <v>0.421469</v>
       </c>
       <c r="C49" t="n">
-        <v>0.313624</v>
+        <v>0.349674</v>
       </c>
       <c r="D49" t="n">
-        <v>0.335933</v>
+        <v>0.340613</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.426471</v>
+        <v>0.431435</v>
       </c>
       <c r="C50" t="n">
-        <v>0.31666</v>
+        <v>0.340699</v>
       </c>
       <c r="D50" t="n">
-        <v>0.328003</v>
+        <v>0.326022</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.450008</v>
+        <v>0.456186</v>
       </c>
       <c r="C51" t="n">
-        <v>0.331701</v>
+        <v>0.354654</v>
       </c>
       <c r="D51" t="n">
-        <v>0.33037</v>
+        <v>0.338445</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.429708</v>
+        <v>0.478106</v>
       </c>
       <c r="C52" t="n">
-        <v>0.347672</v>
+        <v>0.370926</v>
       </c>
       <c r="D52" t="n">
-        <v>0.354849</v>
+        <v>0.341087</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.472608</v>
+        <v>0.492239</v>
       </c>
       <c r="C53" t="n">
-        <v>0.349045</v>
+        <v>0.372094</v>
       </c>
       <c r="D53" t="n">
-        <v>0.357357</v>
+        <v>0.350974</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.470514</v>
+        <v>0.483925</v>
       </c>
       <c r="C54" t="n">
-        <v>0.356138</v>
+        <v>0.398576</v>
       </c>
       <c r="D54" t="n">
-        <v>0.361365</v>
+        <v>0.36727</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.510702</v>
+        <v>0.511791</v>
       </c>
       <c r="C55" t="n">
-        <v>0.384251</v>
+        <v>0.402688</v>
       </c>
       <c r="D55" t="n">
-        <v>0.383278</v>
+        <v>0.385525</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.555907</v>
+        <v>0.561094</v>
       </c>
       <c r="C56" t="n">
-        <v>0.392693</v>
+        <v>0.385808</v>
       </c>
       <c r="D56" t="n">
-        <v>0.412595</v>
+        <v>0.377187</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.623889</v>
+        <v>0.56833</v>
       </c>
       <c r="C57" t="n">
-        <v>0.394794</v>
+        <v>0.414758</v>
       </c>
       <c r="D57" t="n">
-        <v>0.415915</v>
+        <v>0.3997</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5809879999999999</v>
+        <v>0.589428</v>
       </c>
       <c r="C58" t="n">
-        <v>0.42036</v>
+        <v>0.435713</v>
       </c>
       <c r="D58" t="n">
-        <v>0.428214</v>
+        <v>0.444632</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.631425</v>
+        <v>0.6578310000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.452979</v>
+        <v>0.459817</v>
       </c>
       <c r="D59" t="n">
-        <v>0.469834</v>
+        <v>0.431812</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.683815</v>
+        <v>0.652795</v>
       </c>
       <c r="C60" t="n">
-        <v>0.501108</v>
+        <v>0.477482</v>
       </c>
       <c r="D60" t="n">
-        <v>0.487429</v>
+        <v>0.469201</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.687966</v>
+        <v>0.654334</v>
       </c>
       <c r="C61" t="n">
-        <v>0.508012</v>
+        <v>0.506115</v>
       </c>
       <c r="D61" t="n">
-        <v>0.51203</v>
+        <v>0.507548</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.719607</v>
+        <v>0.680426</v>
       </c>
       <c r="C62" t="n">
-        <v>0.497999</v>
+        <v>0.511971</v>
       </c>
       <c r="D62" t="n">
-        <v>0.524879</v>
+        <v>0.521369</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.759228</v>
+        <v>0.7300680000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.513709</v>
+        <v>0.557615</v>
       </c>
       <c r="D63" t="n">
-        <v>0.529149</v>
+        <v>0.548529</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.752969</v>
+        <v>0.692384</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5844</v>
+        <v>0.5948</v>
       </c>
       <c r="D64" t="n">
-        <v>0.601137</v>
+        <v>0.535663</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7770820000000001</v>
+        <v>0.736895</v>
       </c>
       <c r="C65" t="n">
-        <v>0.581784</v>
+        <v>0.599175</v>
       </c>
       <c r="D65" t="n">
-        <v>0.600261</v>
+        <v>0.565381</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.77756</v>
+        <v>0.779483</v>
       </c>
       <c r="C66" t="n">
-        <v>0.606442</v>
+        <v>0.6006280000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.63519</v>
+        <v>0.615008</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.775836</v>
+        <v>0.797878</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6088980000000001</v>
+        <v>0.612977</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6336079999999999</v>
+        <v>0.593117</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.80525</v>
+        <v>0.77182</v>
       </c>
       <c r="C68" t="n">
-        <v>0.63617</v>
+        <v>0.623306</v>
       </c>
       <c r="D68" t="n">
-        <v>0.636713</v>
+        <v>0.654912</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.827971</v>
+        <v>0.849956</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6558349999999999</v>
+        <v>0.684905</v>
       </c>
       <c r="D69" t="n">
-        <v>0.670696</v>
+        <v>0.673748</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.840382</v>
+        <v>0.800831</v>
       </c>
       <c r="C70" t="n">
-        <v>0.653131</v>
+        <v>0.680406</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6996869999999999</v>
+        <v>0.689503</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.816963</v>
+        <v>0.833676</v>
       </c>
       <c r="C71" t="n">
-        <v>0.686206</v>
+        <v>0.677014</v>
       </c>
       <c r="D71" t="n">
-        <v>0.700557</v>
+        <v>0.677586</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.872175</v>
+        <v>0.849788</v>
       </c>
       <c r="C72" t="n">
-        <v>0.645654</v>
+        <v>0.738914</v>
       </c>
       <c r="D72" t="n">
-        <v>0.675488</v>
+        <v>0.743093</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.883562</v>
+        <v>0.892746</v>
       </c>
       <c r="C73" t="n">
-        <v>0.710807</v>
+        <v>0.71629</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7097909999999999</v>
+        <v>0.72399</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9186879999999999</v>
+        <v>0.8970089999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.757756</v>
+        <v>0.756319</v>
       </c>
       <c r="D74" t="n">
-        <v>0.766615</v>
+        <v>0.765844</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.89436</v>
+        <v>0.87971</v>
       </c>
       <c r="C75" t="n">
-        <v>0.784015</v>
+        <v>0.761543</v>
       </c>
       <c r="D75" t="n">
-        <v>0.765118</v>
+        <v>0.766956</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.951944</v>
+        <v>0.901281</v>
       </c>
       <c r="C76" t="n">
-        <v>0.751586</v>
+        <v>0.80193</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8061120000000001</v>
+        <v>0.79428</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9134100000000001</v>
+        <v>0.90846</v>
       </c>
       <c r="C77" t="n">
-        <v>0.78862</v>
+        <v>0.838359</v>
       </c>
       <c r="D77" t="n">
-        <v>0.848089</v>
+        <v>0.854966</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.945641</v>
+        <v>0.955049</v>
       </c>
       <c r="C78" t="n">
-        <v>0.790955</v>
+        <v>0.80362</v>
       </c>
       <c r="D78" t="n">
-        <v>0.815429</v>
+        <v>0.829712</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.970943</v>
+        <v>0.935686</v>
       </c>
       <c r="C79" t="n">
-        <v>0.798534</v>
+        <v>0.810093</v>
       </c>
       <c r="D79" t="n">
-        <v>0.817103</v>
+        <v>0.841403</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.987417</v>
+        <v>1.005</v>
       </c>
       <c r="C80" t="n">
-        <v>0.793578</v>
+        <v>0.8274550000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.850275</v>
+        <v>0.823896</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.967489</v>
+        <v>0.984361</v>
       </c>
       <c r="C81" t="n">
-        <v>0.837253</v>
+        <v>0.861352</v>
       </c>
       <c r="D81" t="n">
-        <v>0.84299</v>
+        <v>0.857657</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.990368</v>
+        <v>0.983054</v>
       </c>
       <c r="C82" t="n">
-        <v>0.802186</v>
+        <v>0.881792</v>
       </c>
       <c r="D82" t="n">
-        <v>0.859259</v>
+        <v>0.870282</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.01543</v>
+        <v>1.00302</v>
       </c>
       <c r="C83" t="n">
-        <v>0.844078</v>
+        <v>0.8744420000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.855595</v>
+        <v>0.858656</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.940172</v>
+        <v>0.968351</v>
       </c>
       <c r="C84" t="n">
-        <v>0.877784</v>
+        <v>0.890231</v>
       </c>
       <c r="D84" t="n">
-        <v>0.880892</v>
+        <v>0.881914</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.946515</v>
+        <v>0.95137</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8624540000000001</v>
+        <v>0.910641</v>
       </c>
       <c r="D85" t="n">
-        <v>0.909064</v>
+        <v>0.901146</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.995665</v>
+        <v>0.953664</v>
       </c>
       <c r="C86" t="n">
-        <v>0.881687</v>
+        <v>0.904528</v>
       </c>
       <c r="D86" t="n">
-        <v>0.92713</v>
+        <v>0.943502</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.962286</v>
+        <v>0.997054</v>
       </c>
       <c r="C87" t="n">
-        <v>0.880443</v>
+        <v>0.914026</v>
       </c>
       <c r="D87" t="n">
-        <v>0.918883</v>
+        <v>0.921323</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.02048</v>
+        <v>1.00389</v>
       </c>
       <c r="C88" t="n">
-        <v>0.897434</v>
+        <v>0.961667</v>
       </c>
       <c r="D88" t="n">
-        <v>0.938563</v>
+        <v>0.951633</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.00073</v>
+        <v>1.01214</v>
       </c>
       <c r="C89" t="n">
-        <v>0.950377</v>
+        <v>0.951337</v>
       </c>
       <c r="D89" t="n">
-        <v>0.986236</v>
+        <v>0.947227</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.0921</v>
+        <v>1.01726</v>
       </c>
       <c r="C90" t="n">
-        <v>0.968812</v>
+        <v>0.981223</v>
       </c>
       <c r="D90" t="n">
-        <v>1.00199</v>
+        <v>1.02407</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.12088</v>
+        <v>1.05675</v>
       </c>
       <c r="C91" t="n">
-        <v>0.984631</v>
+        <v>1.02655</v>
       </c>
       <c r="D91" t="n">
-        <v>0.980968</v>
+        <v>1.01474</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.07595</v>
+        <v>1.06023</v>
       </c>
       <c r="C92" t="n">
-        <v>0.883745</v>
+        <v>0.940322</v>
       </c>
       <c r="D92" t="n">
-        <v>0.968964</v>
+        <v>0.964822</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.075</v>
+        <v>1.06532</v>
       </c>
       <c r="C93" t="n">
-        <v>0.951193</v>
+        <v>0.942554</v>
       </c>
       <c r="D93" t="n">
-        <v>0.948252</v>
+        <v>0.942258</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.11275</v>
+        <v>1.06926</v>
       </c>
       <c r="C94" t="n">
-        <v>0.937071</v>
+        <v>0.951113</v>
       </c>
       <c r="D94" t="n">
-        <v>0.983905</v>
+        <v>0.958341</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.15534</v>
+        <v>1.09608</v>
       </c>
       <c r="C95" t="n">
-        <v>0.946426</v>
+        <v>0.972709</v>
       </c>
       <c r="D95" t="n">
-        <v>0.970386</v>
+        <v>0.985913</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.14248</v>
+        <v>1.13523</v>
       </c>
       <c r="C96" t="n">
-        <v>0.960677</v>
+        <v>0.992556</v>
       </c>
       <c r="D96" t="n">
-        <v>0.994011</v>
+        <v>0.961938</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.13382</v>
+        <v>1.13349</v>
       </c>
       <c r="C97" t="n">
-        <v>0.949343</v>
+        <v>1.00274</v>
       </c>
       <c r="D97" t="n">
-        <v>0.989978</v>
+        <v>1.01246</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.02952</v>
+        <v>1.01895</v>
       </c>
       <c r="C98" t="n">
-        <v>0.978494</v>
+        <v>1.02041</v>
       </c>
       <c r="D98" t="n">
-        <v>1.02642</v>
+        <v>1.01921</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.04996</v>
+        <v>1.04318</v>
       </c>
       <c r="C99" t="n">
-        <v>1.02351</v>
+        <v>1.00531</v>
       </c>
       <c r="D99" t="n">
-        <v>1.05357</v>
+        <v>1.02833</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.04476</v>
+        <v>1.06144</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02621</v>
+        <v>1.07034</v>
       </c>
       <c r="D100" t="n">
-        <v>1.04275</v>
+        <v>1.06613</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.06294</v>
+        <v>1.07649</v>
       </c>
       <c r="C101" t="n">
-        <v>1.04936</v>
+        <v>1.06989</v>
       </c>
       <c r="D101" t="n">
-        <v>1.08309</v>
+        <v>1.06916</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.06353</v>
+        <v>1.07786</v>
       </c>
       <c r="C102" t="n">
-        <v>1.05369</v>
+        <v>1.06183</v>
       </c>
       <c r="D102" t="n">
-        <v>1.08358</v>
+        <v>1.08655</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.10618</v>
+        <v>1.12723</v>
       </c>
       <c r="C103" t="n">
-        <v>1.03877</v>
+        <v>1.08895</v>
       </c>
       <c r="D103" t="n">
-        <v>1.10182</v>
+        <v>1.15285</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.1198</v>
+        <v>1.13717</v>
       </c>
       <c r="C104" t="n">
-        <v>1.07742</v>
+        <v>1.1064</v>
       </c>
       <c r="D104" t="n">
-        <v>1.11599</v>
+        <v>1.14989</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.11294</v>
+        <v>1.14464</v>
       </c>
       <c r="C105" t="n">
-        <v>1.11825</v>
+        <v>1.14727</v>
       </c>
       <c r="D105" t="n">
-        <v>1.13838</v>
+        <v>1.13226</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.1794</v>
+        <v>1.13549</v>
       </c>
       <c r="C106" t="n">
-        <v>1.11611</v>
+        <v>1.15434</v>
       </c>
       <c r="D106" t="n">
-        <v>1.18194</v>
+        <v>1.16415</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.20886</v>
+        <v>1.1765</v>
       </c>
       <c r="C107" t="n">
-        <v>1.01286</v>
+        <v>1.02891</v>
       </c>
       <c r="D107" t="n">
-        <v>1.06289</v>
+        <v>1.06009</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.18974</v>
+        <v>1.18583</v>
       </c>
       <c r="C108" t="n">
-        <v>1.02623</v>
+        <v>1.0814</v>
       </c>
       <c r="D108" t="n">
-        <v>1.06422</v>
+        <v>1.081</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.22433</v>
+        <v>1.20549</v>
       </c>
       <c r="C109" t="n">
-        <v>1.0768</v>
+        <v>1.06146</v>
       </c>
       <c r="D109" t="n">
-        <v>1.07736</v>
+        <v>1.08526</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.2285</v>
+        <v>1.21079</v>
       </c>
       <c r="C110" t="n">
-        <v>1.05568</v>
+        <v>1.0807</v>
       </c>
       <c r="D110" t="n">
-        <v>1.08348</v>
+        <v>1.07755</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.23192</v>
+        <v>1.25509</v>
       </c>
       <c r="C111" t="n">
-        <v>1.07003</v>
+        <v>1.07364</v>
       </c>
       <c r="D111" t="n">
-        <v>1.11727</v>
+        <v>1.10454</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.12298</v>
+        <v>1.12751</v>
       </c>
       <c r="C112" t="n">
-        <v>1.09829</v>
+        <v>1.0909</v>
       </c>
       <c r="D112" t="n">
-        <v>1.08459</v>
+        <v>1.1159</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.12536</v>
+        <v>1.13741</v>
       </c>
       <c r="C113" t="n">
-        <v>1.08398</v>
+        <v>1.13498</v>
       </c>
       <c r="D113" t="n">
-        <v>1.13163</v>
+        <v>1.12628</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12292</v>
+        <v>1.14558</v>
       </c>
       <c r="C114" t="n">
-        <v>1.0999</v>
+        <v>1.12865</v>
       </c>
       <c r="D114" t="n">
-        <v>1.13154</v>
+        <v>1.14026</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.14052</v>
+        <v>1.17104</v>
       </c>
       <c r="C115" t="n">
-        <v>1.1099</v>
+        <v>1.15885</v>
       </c>
       <c r="D115" t="n">
-        <v>1.15576</v>
+        <v>1.15001</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.19047</v>
+        <v>1.17823</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15212</v>
+        <v>1.17184</v>
       </c>
       <c r="D116" t="n">
-        <v>1.18232</v>
+        <v>1.17763</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.17028</v>
+        <v>1.1937</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14147</v>
+        <v>1.18859</v>
       </c>
       <c r="D117" t="n">
-        <v>1.21282</v>
+        <v>1.20414</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.20438</v>
+        <v>1.19958</v>
       </c>
       <c r="C118" t="n">
-        <v>1.17034</v>
+        <v>1.19304</v>
       </c>
       <c r="D118" t="n">
-        <v>1.20773</v>
+        <v>1.18045</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.20134</v>
+        <v>1.20595</v>
       </c>
       <c r="C119" t="n">
-        <v>1.19382</v>
+        <v>1.23056</v>
       </c>
       <c r="D119" t="n">
-        <v>1.25828</v>
+        <v>1.24867</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.228815</v>
+        <v>0.242999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.188305</v>
+        <v>0.198783</v>
       </c>
       <c r="D2" t="n">
-        <v>0.188589</v>
+        <v>0.200076</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.235208</v>
+        <v>0.237452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.193179</v>
+        <v>0.232108</v>
       </c>
       <c r="D3" t="n">
-        <v>0.190006</v>
+        <v>0.196712</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.232711</v>
+        <v>0.243835</v>
       </c>
       <c r="C4" t="n">
-        <v>0.197418</v>
+        <v>0.216373</v>
       </c>
       <c r="D4" t="n">
-        <v>0.189009</v>
+        <v>0.204725</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.266767</v>
+        <v>0.25565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.217921</v>
+        <v>0.221515</v>
       </c>
       <c r="D5" t="n">
-        <v>0.202659</v>
+        <v>0.195546</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.259352</v>
+        <v>0.241387</v>
       </c>
       <c r="C6" t="n">
-        <v>0.217595</v>
+        <v>0.223468</v>
       </c>
       <c r="D6" t="n">
-        <v>0.204843</v>
+        <v>0.201835</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.252814</v>
+        <v>0.246944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.198668</v>
+        <v>0.21422</v>
       </c>
       <c r="D7" t="n">
-        <v>0.206048</v>
+        <v>0.214606</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.260599</v>
+        <v>0.266548</v>
       </c>
       <c r="C8" t="n">
-        <v>0.207826</v>
+        <v>0.239373</v>
       </c>
       <c r="D8" t="n">
-        <v>0.216536</v>
+        <v>0.210897</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.273116</v>
+        <v>0.256021</v>
       </c>
       <c r="C9" t="n">
-        <v>0.222728</v>
+        <v>0.227531</v>
       </c>
       <c r="D9" t="n">
-        <v>0.219029</v>
+        <v>0.210097</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.282336</v>
+        <v>0.265483</v>
       </c>
       <c r="C10" t="n">
-        <v>0.218333</v>
+        <v>0.2177</v>
       </c>
       <c r="D10" t="n">
-        <v>0.220137</v>
+        <v>0.21621</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.279491</v>
+        <v>0.280856</v>
       </c>
       <c r="C11" t="n">
-        <v>0.198461</v>
+        <v>0.217732</v>
       </c>
       <c r="D11" t="n">
-        <v>0.222024</v>
+        <v>0.216028</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.281801</v>
+        <v>0.28041</v>
       </c>
       <c r="C12" t="n">
-        <v>0.219169</v>
+        <v>0.235897</v>
       </c>
       <c r="D12" t="n">
-        <v>0.237498</v>
+        <v>0.219261</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.254726</v>
+        <v>0.243843</v>
       </c>
       <c r="C13" t="n">
-        <v>0.215574</v>
+        <v>0.221707</v>
       </c>
       <c r="D13" t="n">
-        <v>0.225743</v>
+        <v>0.215499</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.262363</v>
+        <v>0.258249</v>
       </c>
       <c r="C14" t="n">
-        <v>0.214478</v>
+        <v>0.218497</v>
       </c>
       <c r="D14" t="n">
-        <v>0.225996</v>
+        <v>0.214013</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.253524</v>
+        <v>0.243098</v>
       </c>
       <c r="C15" t="n">
-        <v>0.216676</v>
+        <v>0.231134</v>
       </c>
       <c r="D15" t="n">
-        <v>0.226055</v>
+        <v>0.220005</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.265995</v>
+        <v>0.254148</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2358</v>
+        <v>0.228593</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223551</v>
+        <v>0.219205</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.268823</v>
+        <v>0.257642</v>
       </c>
       <c r="C17" t="n">
-        <v>0.222307</v>
+        <v>0.236234</v>
       </c>
       <c r="D17" t="n">
-        <v>0.232101</v>
+        <v>0.223057</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.273311</v>
+        <v>0.263478</v>
       </c>
       <c r="C18" t="n">
-        <v>0.236447</v>
+        <v>0.2428</v>
       </c>
       <c r="D18" t="n">
-        <v>0.224103</v>
+        <v>0.225507</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.271056</v>
+        <v>0.27477</v>
       </c>
       <c r="C19" t="n">
-        <v>0.235117</v>
+        <v>0.251166</v>
       </c>
       <c r="D19" t="n">
-        <v>0.238973</v>
+        <v>0.232398</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.28378</v>
+        <v>0.271319</v>
       </c>
       <c r="C20" t="n">
-        <v>0.245964</v>
+        <v>0.251353</v>
       </c>
       <c r="D20" t="n">
-        <v>0.235094</v>
+        <v>0.230087</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.26996</v>
+        <v>0.274894</v>
       </c>
       <c r="C21" t="n">
-        <v>0.230532</v>
+        <v>0.231765</v>
       </c>
       <c r="D21" t="n">
-        <v>0.233838</v>
+        <v>0.228533</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.289138</v>
+        <v>0.28426</v>
       </c>
       <c r="C22" t="n">
-        <v>0.225399</v>
+        <v>0.245936</v>
       </c>
       <c r="D22" t="n">
-        <v>0.236036</v>
+        <v>0.234165</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.293068</v>
+        <v>0.292088</v>
       </c>
       <c r="C23" t="n">
-        <v>0.224522</v>
+        <v>0.240022</v>
       </c>
       <c r="D23" t="n">
-        <v>0.233857</v>
+        <v>0.231386</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.295861</v>
+        <v>0.286306</v>
       </c>
       <c r="C24" t="n">
-        <v>0.236985</v>
+        <v>0.255589</v>
       </c>
       <c r="D24" t="n">
-        <v>0.232981</v>
+        <v>0.237841</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.303543</v>
+        <v>0.308038</v>
       </c>
       <c r="C25" t="n">
-        <v>0.242712</v>
+        <v>0.264164</v>
       </c>
       <c r="D25" t="n">
-        <v>0.248541</v>
+        <v>0.236687</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.305689</v>
+        <v>0.320961</v>
       </c>
       <c r="C26" t="n">
-        <v>0.247531</v>
+        <v>0.2586</v>
       </c>
       <c r="D26" t="n">
-        <v>0.248535</v>
+        <v>0.243127</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.280537</v>
+        <v>0.292871</v>
       </c>
       <c r="C27" t="n">
-        <v>0.257182</v>
+        <v>0.274705</v>
       </c>
       <c r="D27" t="n">
-        <v>0.249235</v>
+        <v>0.255932</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.291917</v>
+        <v>0.31719</v>
       </c>
       <c r="C28" t="n">
-        <v>0.258382</v>
+        <v>0.279079</v>
       </c>
       <c r="D28" t="n">
-        <v>0.242698</v>
+        <v>0.243061</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.28747</v>
+        <v>0.296526</v>
       </c>
       <c r="C29" t="n">
-        <v>0.27347</v>
+        <v>0.267729</v>
       </c>
       <c r="D29" t="n">
-        <v>0.247878</v>
+        <v>0.258855</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2979</v>
+        <v>0.298748</v>
       </c>
       <c r="C30" t="n">
-        <v>0.265164</v>
+        <v>0.276136</v>
       </c>
       <c r="D30" t="n">
-        <v>0.248224</v>
+        <v>0.266896</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.311874</v>
+        <v>0.310622</v>
       </c>
       <c r="C31" t="n">
-        <v>0.259612</v>
+        <v>0.278599</v>
       </c>
       <c r="D31" t="n">
-        <v>0.267166</v>
+        <v>0.270226</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.319593</v>
+        <v>0.311078</v>
       </c>
       <c r="C32" t="n">
-        <v>0.271153</v>
+        <v>0.294609</v>
       </c>
       <c r="D32" t="n">
-        <v>0.262537</v>
+        <v>0.266014</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.34532</v>
+        <v>0.335561</v>
       </c>
       <c r="C33" t="n">
-        <v>0.282366</v>
+        <v>0.297929</v>
       </c>
       <c r="D33" t="n">
-        <v>0.263465</v>
+        <v>0.272561</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.333525</v>
+        <v>0.347072</v>
       </c>
       <c r="C34" t="n">
-        <v>0.294105</v>
+        <v>0.322311</v>
       </c>
       <c r="D34" t="n">
-        <v>0.270912</v>
+        <v>0.272313</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.350131</v>
+        <v>0.349908</v>
       </c>
       <c r="C35" t="n">
-        <v>0.254108</v>
+        <v>0.274059</v>
       </c>
       <c r="D35" t="n">
-        <v>0.258247</v>
+        <v>0.263654</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.359935</v>
+        <v>0.36735</v>
       </c>
       <c r="C36" t="n">
-        <v>0.255288</v>
+        <v>0.292495</v>
       </c>
       <c r="D36" t="n">
-        <v>0.269995</v>
+        <v>0.253308</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.372803</v>
+        <v>0.381671</v>
       </c>
       <c r="C37" t="n">
-        <v>0.275452</v>
+        <v>0.282099</v>
       </c>
       <c r="D37" t="n">
-        <v>0.266823</v>
+        <v>0.258298</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.382923</v>
+        <v>0.39183</v>
       </c>
       <c r="C38" t="n">
-        <v>0.28408</v>
+        <v>0.297432</v>
       </c>
       <c r="D38" t="n">
-        <v>0.266096</v>
+        <v>0.269577</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.387839</v>
+        <v>0.396131</v>
       </c>
       <c r="C39" t="n">
-        <v>0.293389</v>
+        <v>0.300382</v>
       </c>
       <c r="D39" t="n">
-        <v>0.296951</v>
+        <v>0.268541</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.401102</v>
+        <v>0.397806</v>
       </c>
       <c r="C40" t="n">
-        <v>0.30585</v>
+        <v>0.332534</v>
       </c>
       <c r="D40" t="n">
-        <v>0.282929</v>
+        <v>0.289927</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.382323</v>
+        <v>0.41941</v>
       </c>
       <c r="C41" t="n">
-        <v>0.301284</v>
+        <v>0.332778</v>
       </c>
       <c r="D41" t="n">
-        <v>0.285888</v>
+        <v>0.273874</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.406511</v>
+        <v>0.424201</v>
       </c>
       <c r="C42" t="n">
-        <v>0.322945</v>
+        <v>0.347456</v>
       </c>
       <c r="D42" t="n">
-        <v>0.279281</v>
+        <v>0.298098</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.413487</v>
+        <v>0.447853</v>
       </c>
       <c r="C43" t="n">
-        <v>0.327098</v>
+        <v>0.357736</v>
       </c>
       <c r="D43" t="n">
-        <v>0.297842</v>
+        <v>0.288014</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.422153</v>
+        <v>0.461032</v>
       </c>
       <c r="C44" t="n">
-        <v>0.340558</v>
+        <v>0.365608</v>
       </c>
       <c r="D44" t="n">
-        <v>0.293708</v>
+        <v>0.296857</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.437524</v>
+        <v>0.460921</v>
       </c>
       <c r="C45" t="n">
-        <v>0.339166</v>
+        <v>0.362509</v>
       </c>
       <c r="D45" t="n">
-        <v>0.292834</v>
+        <v>0.311013</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.439834</v>
+        <v>0.473863</v>
       </c>
       <c r="C46" t="n">
-        <v>0.345</v>
+        <v>0.377255</v>
       </c>
       <c r="D46" t="n">
-        <v>0.308931</v>
+        <v>0.313387</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.455613</v>
+        <v>0.468584</v>
       </c>
       <c r="C47" t="n">
-        <v>0.357261</v>
+        <v>0.413211</v>
       </c>
       <c r="D47" t="n">
-        <v>0.326897</v>
+        <v>0.328179</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.49615</v>
+        <v>0.505572</v>
       </c>
       <c r="C48" t="n">
-        <v>0.380033</v>
+        <v>0.414219</v>
       </c>
       <c r="D48" t="n">
-        <v>0.312131</v>
+        <v>0.3519</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.479606</v>
+        <v>0.500567</v>
       </c>
       <c r="C49" t="n">
-        <v>0.394789</v>
+        <v>0.434574</v>
       </c>
       <c r="D49" t="n">
-        <v>0.31474</v>
+        <v>0.341636</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.490516</v>
+        <v>0.535135</v>
       </c>
       <c r="C50" t="n">
-        <v>0.383262</v>
+        <v>0.444419</v>
       </c>
       <c r="D50" t="n">
-        <v>0.338104</v>
+        <v>0.371592</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.515487</v>
+        <v>0.544121</v>
       </c>
       <c r="C51" t="n">
-        <v>0.390465</v>
+        <v>0.443966</v>
       </c>
       <c r="D51" t="n">
-        <v>0.347808</v>
+        <v>0.375725</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.511944</v>
+        <v>0.551536</v>
       </c>
       <c r="C52" t="n">
-        <v>0.407053</v>
+        <v>0.474317</v>
       </c>
       <c r="D52" t="n">
-        <v>0.348513</v>
+        <v>0.396708</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.52868</v>
+        <v>0.572379</v>
       </c>
       <c r="C53" t="n">
-        <v>0.416203</v>
+        <v>0.46936</v>
       </c>
       <c r="D53" t="n">
-        <v>0.366658</v>
+        <v>0.393364</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.536614</v>
+        <v>0.583399</v>
       </c>
       <c r="C54" t="n">
-        <v>0.431165</v>
+        <v>0.505563</v>
       </c>
       <c r="D54" t="n">
-        <v>0.362107</v>
+        <v>0.405159</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.575696</v>
+        <v>0.615913</v>
       </c>
       <c r="C55" t="n">
-        <v>0.457456</v>
+        <v>0.520717</v>
       </c>
       <c r="D55" t="n">
-        <v>0.395219</v>
+        <v>0.412594</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.530843</v>
+        <v>0.587549</v>
       </c>
       <c r="C56" t="n">
-        <v>0.453476</v>
+        <v>0.517028</v>
       </c>
       <c r="D56" t="n">
-        <v>0.388188</v>
+        <v>0.42816</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.549396</v>
+        <v>0.633403</v>
       </c>
       <c r="C57" t="n">
-        <v>0.475469</v>
+        <v>0.549508</v>
       </c>
       <c r="D57" t="n">
-        <v>0.408553</v>
+        <v>0.457846</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.562285</v>
+        <v>0.648482</v>
       </c>
       <c r="C58" t="n">
-        <v>0.494717</v>
+        <v>0.569843</v>
       </c>
       <c r="D58" t="n">
-        <v>0.411463</v>
+        <v>0.456026</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.568994</v>
+        <v>0.637801</v>
       </c>
       <c r="C59" t="n">
-        <v>0.509046</v>
+        <v>0.59956</v>
       </c>
       <c r="D59" t="n">
-        <v>0.415653</v>
+        <v>0.470291</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.580783</v>
+        <v>0.678819</v>
       </c>
       <c r="C60" t="n">
-        <v>0.529545</v>
+        <v>0.6087</v>
       </c>
       <c r="D60" t="n">
-        <v>0.432981</v>
+        <v>0.480516</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.596317</v>
+        <v>0.680073</v>
       </c>
       <c r="C61" t="n">
-        <v>0.542556</v>
+        <v>0.630451</v>
       </c>
       <c r="D61" t="n">
-        <v>0.423321</v>
+        <v>0.488728</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.632714</v>
+        <v>0.688005</v>
       </c>
       <c r="C62" t="n">
-        <v>0.567405</v>
+        <v>0.652073</v>
       </c>
       <c r="D62" t="n">
-        <v>0.450431</v>
+        <v>0.5003379999999999</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.632923</v>
+        <v>0.69655</v>
       </c>
       <c r="C63" t="n">
-        <v>0.582542</v>
+        <v>0.655744</v>
       </c>
       <c r="D63" t="n">
-        <v>0.460228</v>
+        <v>0.520336</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.675336</v>
+        <v>0.712005</v>
       </c>
       <c r="C64" t="n">
-        <v>0.549602</v>
+        <v>0.6609120000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.479918</v>
+        <v>0.570468</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7098719999999999</v>
+        <v>0.770787</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5936399999999999</v>
+        <v>0.670519</v>
       </c>
       <c r="D65" t="n">
-        <v>0.496295</v>
+        <v>0.57883</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.72422</v>
+        <v>0.785234</v>
       </c>
       <c r="C66" t="n">
-        <v>0.60081</v>
+        <v>0.687836</v>
       </c>
       <c r="D66" t="n">
-        <v>0.517631</v>
+        <v>0.5874779999999999</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.745085</v>
+        <v>0.83422</v>
       </c>
       <c r="C67" t="n">
-        <v>0.622754</v>
+        <v>0.695614</v>
       </c>
       <c r="D67" t="n">
-        <v>0.547274</v>
+        <v>0.602119</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.79089</v>
+        <v>0.878978</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6314689999999999</v>
+        <v>0.750142</v>
       </c>
       <c r="D68" t="n">
-        <v>0.565741</v>
+        <v>0.643299</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.811043</v>
+        <v>0.935765</v>
       </c>
       <c r="C69" t="n">
-        <v>0.666357</v>
+        <v>0.787057</v>
       </c>
       <c r="D69" t="n">
-        <v>0.544933</v>
+        <v>0.641875</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.732699</v>
+        <v>0.887571</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6906060000000001</v>
+        <v>0.832021</v>
       </c>
       <c r="D70" t="n">
-        <v>0.575337</v>
+        <v>0.666219</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.749065</v>
+        <v>0.8984490000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.719408</v>
+        <v>0.8583190000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.594436</v>
+        <v>0.700695</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.790511</v>
+        <v>0.934846</v>
       </c>
       <c r="C72" t="n">
-        <v>0.712242</v>
+        <v>0.887652</v>
       </c>
       <c r="D72" t="n">
-        <v>0.60112</v>
+        <v>0.686122</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.796941</v>
+        <v>0.966199</v>
       </c>
       <c r="C73" t="n">
-        <v>0.742698</v>
+        <v>0.925823</v>
       </c>
       <c r="D73" t="n">
-        <v>0.630941</v>
+        <v>0.729854</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.844846</v>
+        <v>1.018</v>
       </c>
       <c r="C74" t="n">
-        <v>0.771193</v>
+        <v>0.981439</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6389320000000001</v>
+        <v>0.785392</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.877454</v>
+        <v>1.06633</v>
       </c>
       <c r="C75" t="n">
-        <v>0.816753</v>
+        <v>0.99225</v>
       </c>
       <c r="D75" t="n">
-        <v>0.650649</v>
+        <v>0.804545</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.925269</v>
+        <v>1.06777</v>
       </c>
       <c r="C76" t="n">
-        <v>0.853464</v>
+        <v>1.00171</v>
       </c>
       <c r="D76" t="n">
-        <v>0.664184</v>
+        <v>0.796214</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.910458</v>
+        <v>1.09149</v>
       </c>
       <c r="C77" t="n">
-        <v>0.887333</v>
+        <v>1.11015</v>
       </c>
       <c r="D77" t="n">
-        <v>0.696482</v>
+        <v>0.875624</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.971976</v>
+        <v>1.1256</v>
       </c>
       <c r="C78" t="n">
-        <v>0.816716</v>
+        <v>1.06648</v>
       </c>
       <c r="D78" t="n">
-        <v>0.752351</v>
+        <v>0.926507</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.00114</v>
+        <v>1.16463</v>
       </c>
       <c r="C79" t="n">
-        <v>0.871605</v>
+        <v>1.05515</v>
       </c>
       <c r="D79" t="n">
-        <v>0.736548</v>
+        <v>0.938277</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.01045</v>
+        <v>1.21954</v>
       </c>
       <c r="C80" t="n">
-        <v>0.88813</v>
+        <v>1.07941</v>
       </c>
       <c r="D80" t="n">
-        <v>0.791835</v>
+        <v>0.958867</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.07086</v>
+        <v>1.2616</v>
       </c>
       <c r="C81" t="n">
-        <v>0.924469</v>
+        <v>1.09977</v>
       </c>
       <c r="D81" t="n">
-        <v>0.792318</v>
+        <v>0.960429</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.12066</v>
+        <v>1.30383</v>
       </c>
       <c r="C82" t="n">
-        <v>0.980985</v>
+        <v>1.17322</v>
       </c>
       <c r="D82" t="n">
-        <v>0.850287</v>
+        <v>1.00063</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.14261</v>
+        <v>1.35058</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9931219999999999</v>
+        <v>1.20007</v>
       </c>
       <c r="D83" t="n">
-        <v>0.854739</v>
+        <v>1.02163</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.08004</v>
+        <v>1.27157</v>
       </c>
       <c r="C84" t="n">
-        <v>1.01379</v>
+        <v>1.22826</v>
       </c>
       <c r="D84" t="n">
-        <v>0.856874</v>
+        <v>1.08541</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.06886</v>
+        <v>1.32171</v>
       </c>
       <c r="C85" t="n">
-        <v>1.01483</v>
+        <v>1.30692</v>
       </c>
       <c r="D85" t="n">
-        <v>0.888082</v>
+        <v>1.10769</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.12379</v>
+        <v>1.33403</v>
       </c>
       <c r="C86" t="n">
-        <v>1.0502</v>
+        <v>1.33083</v>
       </c>
       <c r="D86" t="n">
-        <v>0.916979</v>
+        <v>1.14219</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.14825</v>
+        <v>1.37238</v>
       </c>
       <c r="C87" t="n">
-        <v>1.09774</v>
+        <v>1.33055</v>
       </c>
       <c r="D87" t="n">
-        <v>0.903366</v>
+        <v>1.13618</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.16647</v>
+        <v>1.39235</v>
       </c>
       <c r="C88" t="n">
-        <v>1.1037</v>
+        <v>1.36926</v>
       </c>
       <c r="D88" t="n">
-        <v>0.951522</v>
+        <v>1.16462</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.18672</v>
+        <v>1.41782</v>
       </c>
       <c r="C89" t="n">
-        <v>1.15678</v>
+        <v>1.41079</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9645319999999999</v>
+        <v>1.19857</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.22078</v>
+        <v>1.46743</v>
       </c>
       <c r="C90" t="n">
-        <v>1.16919</v>
+        <v>1.39493</v>
       </c>
       <c r="D90" t="n">
-        <v>0.99151</v>
+        <v>1.23212</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.25624</v>
+        <v>1.44812</v>
       </c>
       <c r="C91" t="n">
-        <v>1.19393</v>
+        <v>1.49685</v>
       </c>
       <c r="D91" t="n">
-        <v>1.01419</v>
+        <v>1.26136</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.2095</v>
+        <v>1.53531</v>
       </c>
       <c r="C92" t="n">
-        <v>1.08908</v>
+        <v>1.364</v>
       </c>
       <c r="D92" t="n">
-        <v>0.983385</v>
+        <v>1.28997</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.26318</v>
+        <v>1.6386</v>
       </c>
       <c r="C93" t="n">
-        <v>1.11103</v>
+        <v>1.4161</v>
       </c>
       <c r="D93" t="n">
-        <v>1.02845</v>
+        <v>1.24189</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.32249</v>
+        <v>1.58911</v>
       </c>
       <c r="C94" t="n">
-        <v>1.15423</v>
+        <v>1.40979</v>
       </c>
       <c r="D94" t="n">
-        <v>1.01985</v>
+        <v>1.25041</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.3361</v>
+        <v>1.57494</v>
       </c>
       <c r="C95" t="n">
-        <v>1.16749</v>
+        <v>1.42762</v>
       </c>
       <c r="D95" t="n">
-        <v>1.05258</v>
+        <v>1.29511</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.38937</v>
+        <v>1.63132</v>
       </c>
       <c r="C96" t="n">
-        <v>1.16335</v>
+        <v>1.48412</v>
       </c>
       <c r="D96" t="n">
-        <v>1.07107</v>
+        <v>1.30575</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.41226</v>
+        <v>1.70951</v>
       </c>
       <c r="C97" t="n">
-        <v>1.24902</v>
+        <v>1.50011</v>
       </c>
       <c r="D97" t="n">
-        <v>1.10424</v>
+        <v>1.34345</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.25827</v>
+        <v>1.61112</v>
       </c>
       <c r="C98" t="n">
-        <v>1.24332</v>
+        <v>1.50975</v>
       </c>
       <c r="D98" t="n">
-        <v>1.07396</v>
+        <v>1.37399</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.28332</v>
+        <v>1.57883</v>
       </c>
       <c r="C99" t="n">
-        <v>1.27309</v>
+        <v>1.57118</v>
       </c>
       <c r="D99" t="n">
-        <v>1.13813</v>
+        <v>1.39911</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.35483</v>
+        <v>1.64043</v>
       </c>
       <c r="C100" t="n">
-        <v>1.26041</v>
+        <v>1.59519</v>
       </c>
       <c r="D100" t="n">
-        <v>1.14608</v>
+        <v>1.42675</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.34937</v>
+        <v>1.66278</v>
       </c>
       <c r="C101" t="n">
-        <v>1.32822</v>
+        <v>1.64198</v>
       </c>
       <c r="D101" t="n">
-        <v>1.13706</v>
+        <v>1.45004</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.35764</v>
+        <v>1.70383</v>
       </c>
       <c r="C102" t="n">
-        <v>1.33571</v>
+        <v>1.68835</v>
       </c>
       <c r="D102" t="n">
-        <v>1.18601</v>
+        <v>1.49851</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.41316</v>
+        <v>1.71564</v>
       </c>
       <c r="C103" t="n">
-        <v>1.39023</v>
+        <v>1.70752</v>
       </c>
       <c r="D103" t="n">
-        <v>1.18935</v>
+        <v>1.50069</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.44743</v>
+        <v>1.81466</v>
       </c>
       <c r="C104" t="n">
-        <v>1.41955</v>
+        <v>1.74308</v>
       </c>
       <c r="D104" t="n">
-        <v>1.19235</v>
+        <v>1.5388</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.43471</v>
+        <v>1.80312</v>
       </c>
       <c r="C105" t="n">
-        <v>1.42982</v>
+        <v>1.78559</v>
       </c>
       <c r="D105" t="n">
-        <v>1.24271</v>
+        <v>1.5082</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.4636</v>
+        <v>1.81344</v>
       </c>
       <c r="C106" t="n">
-        <v>1.46086</v>
+        <v>1.84061</v>
       </c>
       <c r="D106" t="n">
-        <v>1.24836</v>
+        <v>1.54886</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.52931</v>
+        <v>1.82919</v>
       </c>
       <c r="C107" t="n">
-        <v>1.29666</v>
+        <v>1.66517</v>
       </c>
       <c r="D107" t="n">
-        <v>1.20981</v>
+        <v>1.53984</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.56243</v>
+        <v>1.90448</v>
       </c>
       <c r="C108" t="n">
-        <v>1.33315</v>
+        <v>1.70036</v>
       </c>
       <c r="D108" t="n">
-        <v>1.24662</v>
+        <v>1.51574</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.56654</v>
+        <v>1.94839</v>
       </c>
       <c r="C109" t="n">
-        <v>1.35558</v>
+        <v>1.70562</v>
       </c>
       <c r="D109" t="n">
-        <v>1.23851</v>
+        <v>1.525</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.55372</v>
+        <v>2.01884</v>
       </c>
       <c r="C110" t="n">
-        <v>1.34722</v>
+        <v>1.75876</v>
       </c>
       <c r="D110" t="n">
-        <v>1.23436</v>
+        <v>1.56343</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.64618</v>
+        <v>1.99306</v>
       </c>
       <c r="C111" t="n">
-        <v>1.39634</v>
+        <v>1.76526</v>
       </c>
       <c r="D111" t="n">
-        <v>1.24855</v>
+        <v>1.60765</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.44652</v>
+        <v>1.9237</v>
       </c>
       <c r="C112" t="n">
-        <v>1.42602</v>
+        <v>1.79852</v>
       </c>
       <c r="D112" t="n">
-        <v>1.25264</v>
+        <v>1.58908</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.45071</v>
+        <v>1.93624</v>
       </c>
       <c r="C113" t="n">
-        <v>1.43727</v>
+        <v>1.8619</v>
       </c>
       <c r="D113" t="n">
-        <v>1.30085</v>
+        <v>1.6405</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.53566</v>
+        <v>1.94442</v>
       </c>
       <c r="C114" t="n">
-        <v>1.42931</v>
+        <v>1.86196</v>
       </c>
       <c r="D114" t="n">
-        <v>1.29764</v>
+        <v>1.67599</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.53468</v>
+        <v>2.03064</v>
       </c>
       <c r="C115" t="n">
-        <v>1.4804</v>
+        <v>1.93697</v>
       </c>
       <c r="D115" t="n">
-        <v>1.33395</v>
+        <v>1.68649</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.53553</v>
+        <v>2.05916</v>
       </c>
       <c r="C116" t="n">
-        <v>1.49233</v>
+        <v>1.91815</v>
       </c>
       <c r="D116" t="n">
-        <v>1.33007</v>
+        <v>1.72278</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.58007</v>
+        <v>2.06152</v>
       </c>
       <c r="C117" t="n">
-        <v>1.54793</v>
+        <v>1.95283</v>
       </c>
       <c r="D117" t="n">
-        <v>1.34498</v>
+        <v>1.72587</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.58242</v>
+        <v>2.10453</v>
       </c>
       <c r="C118" t="n">
-        <v>1.56808</v>
+        <v>2.02093</v>
       </c>
       <c r="D118" t="n">
-        <v>1.38848</v>
+        <v>1.73258</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.59737</v>
+        <v>2.14381</v>
       </c>
       <c r="C119" t="n">
-        <v>1.62629</v>
+        <v>2.06027</v>
       </c>
       <c r="D119" t="n">
-        <v>1.39878</v>
+        <v>1.7863</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.552277</v>
+        <v>0.560657</v>
       </c>
       <c r="C2" t="n">
-        <v>0.307783</v>
+        <v>0.31841</v>
       </c>
       <c r="D2" t="n">
-        <v>0.249782</v>
+        <v>0.242959</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.385776</v>
+        <v>0.399605</v>
       </c>
       <c r="C3" t="n">
-        <v>0.31236</v>
+        <v>0.34095</v>
       </c>
       <c r="D3" t="n">
-        <v>0.242889</v>
+        <v>0.246465</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.398279</v>
+        <v>0.395778</v>
       </c>
       <c r="C4" t="n">
-        <v>0.334291</v>
+        <v>0.339824</v>
       </c>
       <c r="D4" t="n">
-        <v>0.251949</v>
+        <v>0.260015</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.406214</v>
+        <v>0.405904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.358171</v>
+        <v>0.365552</v>
       </c>
       <c r="D5" t="n">
-        <v>0.261281</v>
+        <v>0.263938</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.408866</v>
+        <v>0.435881</v>
       </c>
       <c r="C6" t="n">
-        <v>0.34731</v>
+        <v>0.348626</v>
       </c>
       <c r="D6" t="n">
-        <v>0.269177</v>
+        <v>0.264141</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.431606</v>
+        <v>0.434019</v>
       </c>
       <c r="C7" t="n">
-        <v>0.37279</v>
+        <v>0.377328</v>
       </c>
       <c r="D7" t="n">
-        <v>0.277106</v>
+        <v>0.270567</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.452868</v>
+        <v>0.442723</v>
       </c>
       <c r="C8" t="n">
-        <v>0.381231</v>
+        <v>0.38996</v>
       </c>
       <c r="D8" t="n">
-        <v>0.282835</v>
+        <v>0.283536</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.478531</v>
+        <v>0.468136</v>
       </c>
       <c r="C9" t="n">
-        <v>0.394538</v>
+        <v>0.421001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.292488</v>
+        <v>0.291349</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.487054</v>
+        <v>0.487573</v>
       </c>
       <c r="C10" t="n">
-        <v>0.428637</v>
+        <v>0.442452</v>
       </c>
       <c r="D10" t="n">
-        <v>0.301983</v>
+        <v>0.307762</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.499433</v>
+        <v>0.503549</v>
       </c>
       <c r="C11" t="n">
-        <v>0.322574</v>
+        <v>0.335226</v>
       </c>
       <c r="D11" t="n">
-        <v>0.256258</v>
+        <v>0.251403</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5397189999999999</v>
+        <v>0.522298</v>
       </c>
       <c r="C12" t="n">
-        <v>0.327963</v>
+        <v>0.33155</v>
       </c>
       <c r="D12" t="n">
-        <v>0.24989</v>
+        <v>0.255282</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.544763</v>
+        <v>0.544686</v>
       </c>
       <c r="C13" t="n">
-        <v>0.330134</v>
+        <v>0.339511</v>
       </c>
       <c r="D13" t="n">
-        <v>0.261314</v>
+        <v>0.257632</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.578695</v>
+        <v>0.572798</v>
       </c>
       <c r="C14" t="n">
-        <v>0.35225</v>
+        <v>0.370146</v>
       </c>
       <c r="D14" t="n">
-        <v>0.268985</v>
+        <v>0.270254</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.602681</v>
+        <v>0.575881</v>
       </c>
       <c r="C15" t="n">
-        <v>0.362526</v>
+        <v>0.37362</v>
       </c>
       <c r="D15" t="n">
-        <v>0.265468</v>
+        <v>0.272023</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.607355</v>
+        <v>0.594471</v>
       </c>
       <c r="C16" t="n">
-        <v>0.378705</v>
+        <v>0.405345</v>
       </c>
       <c r="D16" t="n">
-        <v>0.278719</v>
+        <v>0.27893</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.379781</v>
+        <v>0.387649</v>
       </c>
       <c r="C17" t="n">
-        <v>0.387077</v>
+        <v>0.414519</v>
       </c>
       <c r="D17" t="n">
-        <v>0.284788</v>
+        <v>0.289787</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.429594</v>
+        <v>0.405268</v>
       </c>
       <c r="C18" t="n">
-        <v>0.399606</v>
+        <v>0.416103</v>
       </c>
       <c r="D18" t="n">
-        <v>0.302929</v>
+        <v>0.29195</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.406548</v>
+        <v>0.411992</v>
       </c>
       <c r="C19" t="n">
-        <v>0.42101</v>
+        <v>0.436521</v>
       </c>
       <c r="D19" t="n">
-        <v>0.307844</v>
+        <v>0.303168</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.422601</v>
+        <v>0.422125</v>
       </c>
       <c r="C20" t="n">
-        <v>0.462289</v>
+        <v>0.453786</v>
       </c>
       <c r="D20" t="n">
-        <v>0.32365</v>
+        <v>0.315948</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.449244</v>
+        <v>0.452545</v>
       </c>
       <c r="C21" t="n">
-        <v>0.457551</v>
+        <v>0.472735</v>
       </c>
       <c r="D21" t="n">
-        <v>0.331948</v>
+        <v>0.342991</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.445648</v>
+        <v>0.445042</v>
       </c>
       <c r="C22" t="n">
-        <v>0.474589</v>
+        <v>0.50426</v>
       </c>
       <c r="D22" t="n">
-        <v>0.345654</v>
+        <v>0.338396</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.482033</v>
+        <v>0.50063</v>
       </c>
       <c r="C23" t="n">
-        <v>0.495856</v>
+        <v>0.533304</v>
       </c>
       <c r="D23" t="n">
-        <v>0.34351</v>
+        <v>0.377348</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.496188</v>
+        <v>0.475983</v>
       </c>
       <c r="C24" t="n">
-        <v>0.517983</v>
+        <v>0.522165</v>
       </c>
       <c r="D24" t="n">
-        <v>0.355836</v>
+        <v>0.358157</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.505389</v>
+        <v>0.520804</v>
       </c>
       <c r="C25" t="n">
-        <v>0.549992</v>
+        <v>0.557134</v>
       </c>
       <c r="D25" t="n">
-        <v>0.382061</v>
+        <v>0.381351</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.520994</v>
+        <v>0.5220939999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.34137</v>
+        <v>0.361069</v>
       </c>
       <c r="D26" t="n">
-        <v>0.27437</v>
+        <v>0.272413</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.556621</v>
+        <v>0.541566</v>
       </c>
       <c r="C27" t="n">
-        <v>0.350587</v>
+        <v>0.365147</v>
       </c>
       <c r="D27" t="n">
-        <v>0.280038</v>
+        <v>0.282181</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.596835</v>
+        <v>0.548422</v>
       </c>
       <c r="C28" t="n">
-        <v>0.36999</v>
+        <v>0.398034</v>
       </c>
       <c r="D28" t="n">
-        <v>0.289345</v>
+        <v>0.29075</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.61346</v>
+        <v>0.6221950000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.368472</v>
+        <v>0.403008</v>
       </c>
       <c r="D29" t="n">
-        <v>0.305924</v>
+        <v>0.288155</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.608033</v>
+        <v>0.607532</v>
       </c>
       <c r="C30" t="n">
-        <v>0.385194</v>
+        <v>0.411323</v>
       </c>
       <c r="D30" t="n">
-        <v>0.295907</v>
+        <v>0.310835</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.650515</v>
+        <v>0.637069</v>
       </c>
       <c r="C31" t="n">
-        <v>0.412921</v>
+        <v>0.448603</v>
       </c>
       <c r="D31" t="n">
-        <v>0.316223</v>
+        <v>0.303072</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.483598</v>
+        <v>0.438806</v>
       </c>
       <c r="C32" t="n">
-        <v>0.415287</v>
+        <v>0.430383</v>
       </c>
       <c r="D32" t="n">
-        <v>0.317277</v>
+        <v>0.313695</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.479745</v>
+        <v>0.461452</v>
       </c>
       <c r="C33" t="n">
-        <v>0.465346</v>
+        <v>0.456492</v>
       </c>
       <c r="D33" t="n">
-        <v>0.329346</v>
+        <v>0.328416</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.51638</v>
+        <v>0.475193</v>
       </c>
       <c r="C34" t="n">
-        <v>0.497059</v>
+        <v>0.466338</v>
       </c>
       <c r="D34" t="n">
-        <v>0.337759</v>
+        <v>0.333112</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.53032</v>
+        <v>0.489371</v>
       </c>
       <c r="C35" t="n">
-        <v>0.501036</v>
+        <v>0.492247</v>
       </c>
       <c r="D35" t="n">
-        <v>0.351908</v>
+        <v>0.345134</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5631429999999999</v>
+        <v>0.520273</v>
       </c>
       <c r="C36" t="n">
-        <v>0.507704</v>
+        <v>0.521075</v>
       </c>
       <c r="D36" t="n">
-        <v>0.362384</v>
+        <v>0.362693</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.569951</v>
+        <v>0.5482939999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.538448</v>
+        <v>0.541713</v>
       </c>
       <c r="D37" t="n">
-        <v>0.396482</v>
+        <v>0.370969</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6180060000000001</v>
+        <v>0.578438</v>
       </c>
       <c r="C38" t="n">
-        <v>0.582118</v>
+        <v>0.585996</v>
       </c>
       <c r="D38" t="n">
-        <v>0.405638</v>
+        <v>0.385504</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.624383</v>
+        <v>0.596182</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5931689999999999</v>
+        <v>0.583468</v>
       </c>
       <c r="D39" t="n">
-        <v>0.405959</v>
+        <v>0.406378</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.671793</v>
+        <v>0.629633</v>
       </c>
       <c r="C40" t="n">
-        <v>0.454958</v>
+        <v>0.44907</v>
       </c>
       <c r="D40" t="n">
-        <v>0.340051</v>
+        <v>0.347982</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.684333</v>
+        <v>0.678949</v>
       </c>
       <c r="C41" t="n">
-        <v>0.461417</v>
+        <v>0.474242</v>
       </c>
       <c r="D41" t="n">
-        <v>0.362157</v>
+        <v>0.342522</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.757339</v>
+        <v>0.708224</v>
       </c>
       <c r="C42" t="n">
-        <v>0.503183</v>
+        <v>0.49476</v>
       </c>
       <c r="D42" t="n">
-        <v>0.364812</v>
+        <v>0.380448</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7722</v>
+        <v>0.724475</v>
       </c>
       <c r="C43" t="n">
-        <v>0.522895</v>
+        <v>0.525911</v>
       </c>
       <c r="D43" t="n">
-        <v>0.381638</v>
+        <v>0.381362</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.804352</v>
+        <v>0.791175</v>
       </c>
       <c r="C44" t="n">
-        <v>0.566971</v>
+        <v>0.565674</v>
       </c>
       <c r="D44" t="n">
-        <v>0.39415</v>
+        <v>0.400401</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.839033</v>
+        <v>0.841322</v>
       </c>
       <c r="C45" t="n">
-        <v>0.584956</v>
+        <v>0.5742350000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.401373</v>
+        <v>0.4085</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.610754</v>
+        <v>0.615081</v>
       </c>
       <c r="C46" t="n">
-        <v>0.63185</v>
+        <v>0.63269</v>
       </c>
       <c r="D46" t="n">
-        <v>0.426694</v>
+        <v>0.435806</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.657879</v>
+        <v>0.662944</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6506110000000001</v>
+        <v>0.658652</v>
       </c>
       <c r="D47" t="n">
-        <v>0.441196</v>
+        <v>0.453357</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7157790000000001</v>
+        <v>0.6971349999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.677547</v>
+        <v>0.72075</v>
       </c>
       <c r="D48" t="n">
-        <v>0.457848</v>
+        <v>0.472672</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.701884</v>
+        <v>0.729694</v>
       </c>
       <c r="C49" t="n">
-        <v>0.711409</v>
+        <v>0.745631</v>
       </c>
       <c r="D49" t="n">
-        <v>0.465869</v>
+        <v>0.479704</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.730895</v>
+        <v>0.754186</v>
       </c>
       <c r="C50" t="n">
-        <v>0.757375</v>
+        <v>0.774585</v>
       </c>
       <c r="D50" t="n">
-        <v>0.478725</v>
+        <v>0.511389</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.814773</v>
+        <v>0.799337</v>
       </c>
       <c r="C51" t="n">
-        <v>0.783347</v>
+        <v>0.825248</v>
       </c>
       <c r="D51" t="n">
-        <v>0.514792</v>
+        <v>0.558991</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.848542</v>
+        <v>0.863685</v>
       </c>
       <c r="C52" t="n">
-        <v>0.840353</v>
+        <v>0.8787469999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5321900000000001</v>
+        <v>0.578657</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.85992</v>
+        <v>0.92704</v>
       </c>
       <c r="C53" t="n">
-        <v>0.872932</v>
+        <v>0.959292</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5531239999999999</v>
+        <v>0.636172</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.927063</v>
+        <v>0.948886</v>
       </c>
       <c r="C54" t="n">
-        <v>0.641346</v>
+        <v>0.693141</v>
       </c>
       <c r="D54" t="n">
-        <v>0.460814</v>
+        <v>0.497393</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.990264</v>
+        <v>0.990208</v>
       </c>
       <c r="C55" t="n">
-        <v>0.675839</v>
+        <v>0.709345</v>
       </c>
       <c r="D55" t="n">
-        <v>0.480119</v>
+        <v>0.495363</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.03086</v>
+        <v>1.05004</v>
       </c>
       <c r="C56" t="n">
-        <v>0.708683</v>
+        <v>0.751775</v>
       </c>
       <c r="D56" t="n">
-        <v>0.510372</v>
+        <v>0.522177</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.09318</v>
+        <v>1.10991</v>
       </c>
       <c r="C57" t="n">
-        <v>0.752923</v>
+        <v>0.788768</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5021060000000001</v>
+        <v>0.542362</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.15294</v>
+        <v>1.16921</v>
       </c>
       <c r="C58" t="n">
-        <v>0.766244</v>
+        <v>0.82165</v>
       </c>
       <c r="D58" t="n">
-        <v>0.526654</v>
+        <v>0.558652</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.23645</v>
+        <v>1.25228</v>
       </c>
       <c r="C59" t="n">
-        <v>0.814615</v>
+        <v>0.856344</v>
       </c>
       <c r="D59" t="n">
-        <v>0.546655</v>
+        <v>0.576968</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9036149999999999</v>
+        <v>0.880446</v>
       </c>
       <c r="C60" t="n">
-        <v>0.871703</v>
+        <v>0.900635</v>
       </c>
       <c r="D60" t="n">
-        <v>0.572584</v>
+        <v>0.613256</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.914658</v>
+        <v>0.933959</v>
       </c>
       <c r="C61" t="n">
-        <v>0.913233</v>
+        <v>0.954755</v>
       </c>
       <c r="D61" t="n">
-        <v>0.611304</v>
+        <v>0.61367</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.959379</v>
+        <v>0.95585</v>
       </c>
       <c r="C62" t="n">
-        <v>0.949788</v>
+        <v>1.03606</v>
       </c>
       <c r="D62" t="n">
-        <v>0.614513</v>
+        <v>0.646101</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.00273</v>
+        <v>1.0276</v>
       </c>
       <c r="C63" t="n">
-        <v>1.02565</v>
+        <v>1.07487</v>
       </c>
       <c r="D63" t="n">
-        <v>0.653892</v>
+        <v>0.693313</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.05108</v>
+        <v>1.0758</v>
       </c>
       <c r="C64" t="n">
-        <v>1.0819</v>
+        <v>1.10769</v>
       </c>
       <c r="D64" t="n">
-        <v>0.661714</v>
+        <v>0.701318</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.09595</v>
+        <v>1.14376</v>
       </c>
       <c r="C65" t="n">
-        <v>1.13082</v>
+        <v>1.18808</v>
       </c>
       <c r="D65" t="n">
-        <v>0.696635</v>
+        <v>0.729048</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.16052</v>
+        <v>1.23675</v>
       </c>
       <c r="C66" t="n">
-        <v>1.23978</v>
+        <v>1.29059</v>
       </c>
       <c r="D66" t="n">
-        <v>0.730004</v>
+        <v>0.772128</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.24848</v>
+        <v>1.32041</v>
       </c>
       <c r="C67" t="n">
-        <v>1.37835</v>
+        <v>1.36064</v>
       </c>
       <c r="D67" t="n">
-        <v>0.770551</v>
+        <v>0.844768</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.39427</v>
+        <v>1.39424</v>
       </c>
       <c r="C68" t="n">
-        <v>0.85568</v>
+        <v>0.925677</v>
       </c>
       <c r="D68" t="n">
-        <v>0.589697</v>
+        <v>0.641344</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.46588</v>
+        <v>1.50253</v>
       </c>
       <c r="C69" t="n">
-        <v>0.91314</v>
+        <v>0.988169</v>
       </c>
       <c r="D69" t="n">
-        <v>0.629233</v>
+        <v>0.65995</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.62014</v>
+        <v>1.64621</v>
       </c>
       <c r="C70" t="n">
-        <v>0.981957</v>
+        <v>1.02964</v>
       </c>
       <c r="D70" t="n">
-        <v>0.638548</v>
+        <v>0.683632</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.69813</v>
+        <v>1.76152</v>
       </c>
       <c r="C71" t="n">
-        <v>1.02449</v>
+        <v>1.09314</v>
       </c>
       <c r="D71" t="n">
-        <v>0.659227</v>
+        <v>0.740479</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.82164</v>
+        <v>1.85656</v>
       </c>
       <c r="C72" t="n">
-        <v>1.08862</v>
+        <v>1.19234</v>
       </c>
       <c r="D72" t="n">
-        <v>0.682701</v>
+        <v>0.760653</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.98997</v>
+        <v>2.01875</v>
       </c>
       <c r="C73" t="n">
-        <v>1.18507</v>
+        <v>1.28889</v>
       </c>
       <c r="D73" t="n">
-        <v>0.737239</v>
+        <v>0.803227</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.27995</v>
+        <v>1.40938</v>
       </c>
       <c r="C74" t="n">
-        <v>1.24906</v>
+        <v>1.35299</v>
       </c>
       <c r="D74" t="n">
-        <v>0.752075</v>
+        <v>0.846712</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.35029</v>
+        <v>1.48279</v>
       </c>
       <c r="C75" t="n">
-        <v>1.37236</v>
+        <v>1.45891</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7849429999999999</v>
+        <v>0.899199</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.45516</v>
+        <v>1.59153</v>
       </c>
       <c r="C76" t="n">
-        <v>1.44246</v>
+        <v>1.57024</v>
       </c>
       <c r="D76" t="n">
-        <v>0.832937</v>
+        <v>0.94889</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.51826</v>
+        <v>1.69256</v>
       </c>
       <c r="C77" t="n">
-        <v>1.54486</v>
+        <v>1.67061</v>
       </c>
       <c r="D77" t="n">
-        <v>0.886897</v>
+        <v>0.9834889999999999</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.69046</v>
+        <v>1.74953</v>
       </c>
       <c r="C78" t="n">
-        <v>1.66268</v>
+        <v>1.81095</v>
       </c>
       <c r="D78" t="n">
-        <v>0.931767</v>
+        <v>1.0361</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.69439</v>
+        <v>1.83439</v>
       </c>
       <c r="C79" t="n">
-        <v>1.79007</v>
+        <v>1.90128</v>
       </c>
       <c r="D79" t="n">
-        <v>0.983034</v>
+        <v>1.10636</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.77743</v>
+        <v>1.92514</v>
       </c>
       <c r="C80" t="n">
-        <v>1.8566</v>
+        <v>1.98307</v>
       </c>
       <c r="D80" t="n">
-        <v>1.01727</v>
+        <v>1.16705</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.88503</v>
+        <v>2.06407</v>
       </c>
       <c r="C81" t="n">
-        <v>2.04705</v>
+        <v>2.17949</v>
       </c>
       <c r="D81" t="n">
-        <v>1.10437</v>
+        <v>1.24875</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.08687</v>
+        <v>2.22141</v>
       </c>
       <c r="C82" t="n">
-        <v>2.16643</v>
+        <v>2.33648</v>
       </c>
       <c r="D82" t="n">
-        <v>1.15531</v>
+        <v>1.37185</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.17469</v>
+        <v>2.31073</v>
       </c>
       <c r="C83" t="n">
-        <v>1.57084</v>
+        <v>1.68851</v>
       </c>
       <c r="D83" t="n">
-        <v>0.947272</v>
+        <v>1.15912</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.3033</v>
+        <v>2.45051</v>
       </c>
       <c r="C84" t="n">
-        <v>1.63585</v>
+        <v>1.8278</v>
       </c>
       <c r="D84" t="n">
-        <v>0.994642</v>
+        <v>1.1825</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.43491</v>
+        <v>2.59987</v>
       </c>
       <c r="C85" t="n">
-        <v>1.68983</v>
+        <v>1.90336</v>
       </c>
       <c r="D85" t="n">
-        <v>1.04184</v>
+        <v>1.22477</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.51449</v>
+        <v>2.77084</v>
       </c>
       <c r="C86" t="n">
-        <v>1.88096</v>
+        <v>1.96249</v>
       </c>
       <c r="D86" t="n">
-        <v>1.08733</v>
+        <v>1.29418</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.62476</v>
+        <v>2.852</v>
       </c>
       <c r="C87" t="n">
-        <v>1.86298</v>
+        <v>2.12657</v>
       </c>
       <c r="D87" t="n">
-        <v>1.1511</v>
+        <v>1.35926</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.81297</v>
+        <v>3.03222</v>
       </c>
       <c r="C88" t="n">
-        <v>2.02716</v>
+        <v>2.24427</v>
       </c>
       <c r="D88" t="n">
-        <v>1.2436</v>
+        <v>1.46673</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.88472</v>
+        <v>2.12981</v>
       </c>
       <c r="C89" t="n">
-        <v>2.12616</v>
+        <v>2.30281</v>
       </c>
       <c r="D89" t="n">
-        <v>1.29668</v>
+        <v>1.4976</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.99459</v>
+        <v>2.21552</v>
       </c>
       <c r="C90" t="n">
-        <v>2.21868</v>
+        <v>2.48754</v>
       </c>
       <c r="D90" t="n">
-        <v>1.30871</v>
+        <v>1.54789</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.05139</v>
+        <v>2.31489</v>
       </c>
       <c r="C91" t="n">
-        <v>2.36073</v>
+        <v>2.59801</v>
       </c>
       <c r="D91" t="n">
-        <v>1.39652</v>
+        <v>1.6431</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.12832</v>
+        <v>2.44703</v>
       </c>
       <c r="C92" t="n">
-        <v>2.50635</v>
+        <v>2.73543</v>
       </c>
       <c r="D92" t="n">
-        <v>1.47717</v>
+        <v>1.75194</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.25358</v>
+        <v>2.50016</v>
       </c>
       <c r="C93" t="n">
-        <v>2.5493</v>
+        <v>2.81786</v>
       </c>
       <c r="D93" t="n">
-        <v>1.52714</v>
+        <v>1.84311</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.34902</v>
+        <v>2.64256</v>
       </c>
       <c r="C94" t="n">
-        <v>2.83919</v>
+        <v>2.96323</v>
       </c>
       <c r="D94" t="n">
-        <v>1.56872</v>
+        <v>1.93399</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.4131</v>
+        <v>2.74122</v>
       </c>
       <c r="C95" t="n">
-        <v>2.90435</v>
+        <v>3.07799</v>
       </c>
       <c r="D95" t="n">
-        <v>1.6525</v>
+        <v>1.99794</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.58614</v>
+        <v>2.91685</v>
       </c>
       <c r="C96" t="n">
-        <v>3.15879</v>
+        <v>3.29916</v>
       </c>
       <c r="D96" t="n">
-        <v>1.77201</v>
+        <v>2.1617</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.67047</v>
+        <v>2.9835</v>
       </c>
       <c r="C97" t="n">
-        <v>1.94336</v>
+        <v>2.24929</v>
       </c>
       <c r="D97" t="n">
-        <v>1.32347</v>
+        <v>1.61408</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.78893</v>
+        <v>3.17568</v>
       </c>
       <c r="C98" t="n">
-        <v>2.0235</v>
+        <v>2.3455</v>
       </c>
       <c r="D98" t="n">
-        <v>1.38019</v>
+        <v>1.67667</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.91562</v>
+        <v>3.21892</v>
       </c>
       <c r="C99" t="n">
-        <v>2.12752</v>
+        <v>2.34717</v>
       </c>
       <c r="D99" t="n">
-        <v>1.37859</v>
+        <v>1.69382</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.12577</v>
+        <v>3.30195</v>
       </c>
       <c r="C100" t="n">
-        <v>2.13966</v>
+        <v>2.47362</v>
       </c>
       <c r="D100" t="n">
-        <v>1.45256</v>
+        <v>1.77948</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.21281</v>
+        <v>3.49559</v>
       </c>
       <c r="C101" t="n">
-        <v>2.25071</v>
+        <v>2.53561</v>
       </c>
       <c r="D101" t="n">
-        <v>1.49339</v>
+        <v>1.8749</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.3611</v>
+        <v>3.64188</v>
       </c>
       <c r="C102" t="n">
-        <v>2.36514</v>
+        <v>2.65588</v>
       </c>
       <c r="D102" t="n">
-        <v>1.53678</v>
+        <v>1.8767</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.2203</v>
+        <v>2.54687</v>
       </c>
       <c r="C103" t="n">
-        <v>2.52101</v>
+        <v>2.80509</v>
       </c>
       <c r="D103" t="n">
-        <v>1.63372</v>
+        <v>1.96476</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.31904</v>
+        <v>2.64752</v>
       </c>
       <c r="C104" t="n">
-        <v>2.58627</v>
+        <v>2.89733</v>
       </c>
       <c r="D104" t="n">
-        <v>1.65301</v>
+        <v>2.01874</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.40778</v>
+        <v>2.76677</v>
       </c>
       <c r="C105" t="n">
-        <v>2.65678</v>
+        <v>3.02036</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70657</v>
+        <v>2.09574</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.5152</v>
+        <v>2.78518</v>
       </c>
       <c r="C106" t="n">
-        <v>2.77834</v>
+        <v>3.12615</v>
       </c>
       <c r="D106" t="n">
-        <v>1.78858</v>
+        <v>2.17423</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.59125</v>
+        <v>2.91199</v>
       </c>
       <c r="C107" t="n">
-        <v>2.8963</v>
+        <v>3.25171</v>
       </c>
       <c r="D107" t="n">
-        <v>1.84157</v>
+        <v>2.23298</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.71893</v>
+        <v>3.0562</v>
       </c>
       <c r="C108" t="n">
-        <v>3.09063</v>
+        <v>3.33503</v>
       </c>
       <c r="D108" t="n">
-        <v>1.87381</v>
+        <v>2.35424</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.78866</v>
+        <v>3.1627</v>
       </c>
       <c r="C109" t="n">
-        <v>3.20253</v>
+        <v>3.57802</v>
       </c>
       <c r="D109" t="n">
-        <v>1.955</v>
+        <v>2.4274</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.8935</v>
+        <v>3.25112</v>
       </c>
       <c r="C110" t="n">
-        <v>3.30052</v>
+        <v>3.62546</v>
       </c>
       <c r="D110" t="n">
-        <v>2.03611</v>
+        <v>2.50468</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.95593</v>
+        <v>3.32314</v>
       </c>
       <c r="C111" t="n">
-        <v>2.06393</v>
+        <v>2.52728</v>
       </c>
       <c r="D111" t="n">
-        <v>1.4756</v>
+        <v>1.93974</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.9597</v>
+        <v>3.49993</v>
       </c>
       <c r="C112" t="n">
-        <v>2.28324</v>
+        <v>2.63087</v>
       </c>
       <c r="D112" t="n">
-        <v>1.62515</v>
+        <v>2.06329</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.28231</v>
+        <v>3.62456</v>
       </c>
       <c r="C113" t="n">
-        <v>2.34275</v>
+        <v>2.74682</v>
       </c>
       <c r="D113" t="n">
-        <v>1.65727</v>
+        <v>2.07728</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.36855</v>
+        <v>3.77594</v>
       </c>
       <c r="C114" t="n">
-        <v>2.45559</v>
+        <v>2.81302</v>
       </c>
       <c r="D114" t="n">
-        <v>1.71502</v>
+        <v>2.12814</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.51285</v>
+        <v>3.91855</v>
       </c>
       <c r="C115" t="n">
-        <v>2.54686</v>
+        <v>2.9396</v>
       </c>
       <c r="D115" t="n">
-        <v>1.75029</v>
+        <v>2.23914</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.72391</v>
+        <v>4.07025</v>
       </c>
       <c r="C116" t="n">
-        <v>2.59833</v>
+        <v>3.01932</v>
       </c>
       <c r="D116" t="n">
-        <v>1.82936</v>
+        <v>2.27676</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.47253</v>
+        <v>2.89019</v>
       </c>
       <c r="C117" t="n">
-        <v>2.77616</v>
+        <v>3.20148</v>
       </c>
       <c r="D117" t="n">
-        <v>1.88437</v>
+        <v>2.34611</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.53589</v>
+        <v>3.02028</v>
       </c>
       <c r="C118" t="n">
-        <v>2.8705</v>
+        <v>3.23145</v>
       </c>
       <c r="D118" t="n">
-        <v>1.95258</v>
+        <v>2.42417</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.6385</v>
+        <v>3.08291</v>
       </c>
       <c r="C119" t="n">
-        <v>2.96329</v>
+        <v>3.42867</v>
       </c>
       <c r="D119" t="n">
-        <v>1.96877</v>
+        <v>2.51067</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered successful looukp.xlsx
+++ b/vs/scattered successful looukp.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.214774</v>
+        <v>0.215321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.191411</v>
+        <v>0.204444</v>
       </c>
       <c r="D2" t="n">
-        <v>0.206075</v>
+        <v>0.218152</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.243907</v>
+        <v>0.221655</v>
       </c>
       <c r="C3" t="n">
-        <v>0.199067</v>
+        <v>0.207351</v>
       </c>
       <c r="D3" t="n">
-        <v>0.209818</v>
+        <v>0.232593</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.214503</v>
+        <v>0.238923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.23057</v>
+        <v>0.232752</v>
       </c>
       <c r="D4" t="n">
-        <v>0.257284</v>
+        <v>0.237596</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.223541</v>
+        <v>0.242069</v>
       </c>
       <c r="C5" t="n">
-        <v>0.228877</v>
+        <v>0.227137</v>
       </c>
       <c r="D5" t="n">
-        <v>0.219643</v>
+        <v>0.240512</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.223064</v>
+        <v>0.244321</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206449</v>
+        <v>0.234229</v>
       </c>
       <c r="D6" t="n">
-        <v>0.223735</v>
+        <v>0.246004</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.227749</v>
+        <v>0.253045</v>
       </c>
       <c r="C7" t="n">
-        <v>0.172987</v>
+        <v>0.199204</v>
       </c>
       <c r="D7" t="n">
-        <v>0.193373</v>
+        <v>0.214775</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.234651</v>
+        <v>0.250505</v>
       </c>
       <c r="C8" t="n">
-        <v>0.179808</v>
+        <v>0.19947</v>
       </c>
       <c r="D8" t="n">
-        <v>0.200321</v>
+        <v>0.208722</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.237291</v>
+        <v>0.257248</v>
       </c>
       <c r="C9" t="n">
-        <v>0.179419</v>
+        <v>0.204055</v>
       </c>
       <c r="D9" t="n">
-        <v>0.201159</v>
+        <v>0.217194</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.242276</v>
+        <v>0.258216</v>
       </c>
       <c r="C10" t="n">
-        <v>0.182023</v>
+        <v>0.208457</v>
       </c>
       <c r="D10" t="n">
-        <v>0.205317</v>
+        <v>0.218633</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.245671</v>
+        <v>0.262781</v>
       </c>
       <c r="C11" t="n">
-        <v>0.18557</v>
+        <v>0.211361</v>
       </c>
       <c r="D11" t="n">
-        <v>0.206971</v>
+        <v>0.219119</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.248561</v>
+        <v>0.258669</v>
       </c>
       <c r="C12" t="n">
-        <v>0.188756</v>
+        <v>0.20818</v>
       </c>
       <c r="D12" t="n">
-        <v>0.210776</v>
+        <v>0.219949</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.213644</v>
+        <v>0.227629</v>
       </c>
       <c r="C13" t="n">
-        <v>0.189838</v>
+        <v>0.212303</v>
       </c>
       <c r="D13" t="n">
-        <v>0.211939</v>
+        <v>0.229227</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.222645</v>
+        <v>0.232343</v>
       </c>
       <c r="C14" t="n">
-        <v>0.192278</v>
+        <v>0.217255</v>
       </c>
       <c r="D14" t="n">
-        <v>0.21566</v>
+        <v>0.230161</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.220299</v>
+        <v>0.226585</v>
       </c>
       <c r="C15" t="n">
-        <v>0.20753</v>
+        <v>0.211558</v>
       </c>
       <c r="D15" t="n">
-        <v>0.221203</v>
+        <v>0.235017</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.222154</v>
+        <v>0.236146</v>
       </c>
       <c r="C16" t="n">
-        <v>0.200742</v>
+        <v>0.215861</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223673</v>
+        <v>0.244595</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.225407</v>
+        <v>0.231465</v>
       </c>
       <c r="C17" t="n">
-        <v>0.20561</v>
+        <v>0.224816</v>
       </c>
       <c r="D17" t="n">
-        <v>0.231461</v>
+        <v>0.252533</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.268851</v>
+        <v>0.238145</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208907</v>
+        <v>0.225291</v>
       </c>
       <c r="D18" t="n">
-        <v>0.232493</v>
+        <v>0.250894</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.232626</v>
+        <v>0.23857</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213164</v>
+        <v>0.230541</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237057</v>
+        <v>0.240424</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.236708</v>
+        <v>0.247234</v>
       </c>
       <c r="C20" t="n">
-        <v>0.21679</v>
+        <v>0.231209</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240814</v>
+        <v>0.248449</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240986</v>
+        <v>0.255127</v>
       </c>
       <c r="C21" t="n">
-        <v>0.183781</v>
+        <v>0.200151</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204213</v>
+        <v>0.222572</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.243701</v>
+        <v>0.255927</v>
       </c>
       <c r="C22" t="n">
-        <v>0.194531</v>
+        <v>0.204684</v>
       </c>
       <c r="D22" t="n">
-        <v>0.210128</v>
+        <v>0.224054</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.248677</v>
+        <v>0.256384</v>
       </c>
       <c r="C23" t="n">
-        <v>0.190566</v>
+        <v>0.20978</v>
       </c>
       <c r="D23" t="n">
-        <v>0.213643</v>
+        <v>0.228729</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.253307</v>
+        <v>0.266344</v>
       </c>
       <c r="C24" t="n">
-        <v>0.193995</v>
+        <v>0.210428</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216407</v>
+        <v>0.22534</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.255932</v>
+        <v>0.273525</v>
       </c>
       <c r="C25" t="n">
-        <v>0.195698</v>
+        <v>0.211249</v>
       </c>
       <c r="D25" t="n">
-        <v>0.22802</v>
+        <v>0.230389</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.289582</v>
+        <v>0.271465</v>
       </c>
       <c r="C26" t="n">
-        <v>0.197682</v>
+        <v>0.216963</v>
       </c>
       <c r="D26" t="n">
-        <v>0.22189</v>
+        <v>0.239809</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.221815</v>
+        <v>0.245065</v>
       </c>
       <c r="C27" t="n">
-        <v>0.201305</v>
+        <v>0.212924</v>
       </c>
       <c r="D27" t="n">
-        <v>0.225415</v>
+        <v>0.23348</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.230778</v>
+        <v>0.23774</v>
       </c>
       <c r="C28" t="n">
-        <v>0.209484</v>
+        <v>0.23097</v>
       </c>
       <c r="D28" t="n">
-        <v>0.234476</v>
+        <v>0.241413</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.239502</v>
+        <v>0.240141</v>
       </c>
       <c r="C29" t="n">
-        <v>0.209816</v>
+        <v>0.234224</v>
       </c>
       <c r="D29" t="n">
-        <v>0.233906</v>
+        <v>0.253189</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.234856</v>
+        <v>0.255255</v>
       </c>
       <c r="C30" t="n">
-        <v>0.216852</v>
+        <v>0.231754</v>
       </c>
       <c r="D30" t="n">
-        <v>0.242399</v>
+        <v>0.264806</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.240916</v>
+        <v>0.250797</v>
       </c>
       <c r="C31" t="n">
-        <v>0.216634</v>
+        <v>0.244618</v>
       </c>
       <c r="D31" t="n">
-        <v>0.255319</v>
+        <v>0.264498</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.244328</v>
+        <v>0.262082</v>
       </c>
       <c r="C32" t="n">
-        <v>0.22449</v>
+        <v>0.258601</v>
       </c>
       <c r="D32" t="n">
-        <v>0.250028</v>
+        <v>0.269336</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.306472</v>
+        <v>0.270586</v>
       </c>
       <c r="C33" t="n">
-        <v>0.277722</v>
+        <v>0.252085</v>
       </c>
       <c r="D33" t="n">
-        <v>0.287046</v>
+        <v>0.260435</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.260437</v>
+        <v>0.279142</v>
       </c>
       <c r="C34" t="n">
-        <v>0.232909</v>
+        <v>0.26337</v>
       </c>
       <c r="D34" t="n">
-        <v>0.256378</v>
+        <v>0.277184</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258694</v>
+        <v>0.281191</v>
       </c>
       <c r="C35" t="n">
-        <v>0.203573</v>
+        <v>0.22859</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222559</v>
+        <v>0.240898</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.265048</v>
+        <v>0.283662</v>
       </c>
       <c r="C36" t="n">
-        <v>0.21001</v>
+        <v>0.227027</v>
       </c>
       <c r="D36" t="n">
-        <v>0.229077</v>
+        <v>0.238316</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.274702</v>
+        <v>0.295826</v>
       </c>
       <c r="C37" t="n">
-        <v>0.213765</v>
+        <v>0.233479</v>
       </c>
       <c r="D37" t="n">
-        <v>0.229617</v>
+        <v>0.255935</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.276621</v>
+        <v>0.304623</v>
       </c>
       <c r="C38" t="n">
-        <v>0.216155</v>
+        <v>0.244048</v>
       </c>
       <c r="D38" t="n">
-        <v>0.235434</v>
+        <v>0.263026</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.28465</v>
+        <v>0.318865</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2208</v>
+        <v>0.252123</v>
       </c>
       <c r="D39" t="n">
-        <v>0.242461</v>
+        <v>0.260002</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.290492</v>
+        <v>0.316557</v>
       </c>
       <c r="C40" t="n">
-        <v>0.252899</v>
+        <v>0.247433</v>
       </c>
       <c r="D40" t="n">
-        <v>0.283011</v>
+        <v>0.267225</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.291758</v>
+        <v>0.331437</v>
       </c>
       <c r="C41" t="n">
-        <v>0.269795</v>
+        <v>0.27329</v>
       </c>
       <c r="D41" t="n">
-        <v>0.254187</v>
+        <v>0.267044</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.295645</v>
+        <v>0.341091</v>
       </c>
       <c r="C42" t="n">
-        <v>0.237316</v>
+        <v>0.276609</v>
       </c>
       <c r="D42" t="n">
-        <v>0.260097</v>
+        <v>0.279584</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.306853</v>
+        <v>0.341574</v>
       </c>
       <c r="C43" t="n">
-        <v>0.24556</v>
+        <v>0.269044</v>
       </c>
       <c r="D43" t="n">
-        <v>0.266609</v>
+        <v>0.289784</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.314712</v>
+        <v>0.362499</v>
       </c>
       <c r="C44" t="n">
-        <v>0.252258</v>
+        <v>0.278028</v>
       </c>
       <c r="D44" t="n">
-        <v>0.274701</v>
+        <v>0.286768</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.335133</v>
+        <v>0.373975</v>
       </c>
       <c r="C45" t="n">
-        <v>0.263896</v>
+        <v>0.291997</v>
       </c>
       <c r="D45" t="n">
-        <v>0.28243</v>
+        <v>0.304002</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.339264</v>
+        <v>0.373818</v>
       </c>
       <c r="C46" t="n">
-        <v>0.268995</v>
+        <v>0.286889</v>
       </c>
       <c r="D46" t="n">
-        <v>0.28596</v>
+        <v>0.319197</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.336942</v>
+        <v>0.385737</v>
       </c>
       <c r="C47" t="n">
-        <v>0.276671</v>
+        <v>0.306951</v>
       </c>
       <c r="D47" t="n">
-        <v>0.294989</v>
+        <v>0.315191</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.352846</v>
+        <v>0.396305</v>
       </c>
       <c r="C48" t="n">
-        <v>0.278548</v>
+        <v>0.306882</v>
       </c>
       <c r="D48" t="n">
-        <v>0.300876</v>
+        <v>0.337252</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.35812</v>
+        <v>0.409116</v>
       </c>
       <c r="C49" t="n">
-        <v>0.286543</v>
+        <v>0.318792</v>
       </c>
       <c r="D49" t="n">
-        <v>0.306568</v>
+        <v>0.351009</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.384919</v>
+        <v>0.434378</v>
       </c>
       <c r="C50" t="n">
-        <v>0.295451</v>
+        <v>0.323927</v>
       </c>
       <c r="D50" t="n">
-        <v>0.292978</v>
+        <v>0.321523</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.392617</v>
+        <v>0.439656</v>
       </c>
       <c r="C51" t="n">
-        <v>0.281</v>
+        <v>0.335715</v>
       </c>
       <c r="D51" t="n">
-        <v>0.30372</v>
+        <v>0.341603</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.429531</v>
+        <v>0.476344</v>
       </c>
       <c r="C52" t="n">
-        <v>0.306472</v>
+        <v>0.351445</v>
       </c>
       <c r="D52" t="n">
-        <v>0.310191</v>
+        <v>0.352497</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.431326</v>
+        <v>0.516673</v>
       </c>
       <c r="C53" t="n">
-        <v>0.312879</v>
+        <v>0.36084</v>
       </c>
       <c r="D53" t="n">
-        <v>0.318081</v>
+        <v>0.351649</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.441788</v>
+        <v>0.470022</v>
       </c>
       <c r="C54" t="n">
-        <v>0.329714</v>
+        <v>0.345864</v>
       </c>
       <c r="D54" t="n">
-        <v>0.370998</v>
+        <v>0.361068</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.492454</v>
+        <v>0.504574</v>
       </c>
       <c r="C55" t="n">
-        <v>0.33383</v>
+        <v>0.380961</v>
       </c>
       <c r="D55" t="n">
-        <v>0.354555</v>
+        <v>0.386395</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.50612</v>
+        <v>0.606233</v>
       </c>
       <c r="C56" t="n">
-        <v>0.349541</v>
+        <v>0.389824</v>
       </c>
       <c r="D56" t="n">
-        <v>0.354608</v>
+        <v>0.382602</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.509041</v>
+        <v>0.622502</v>
       </c>
       <c r="C57" t="n">
-        <v>0.346661</v>
+        <v>0.402575</v>
       </c>
       <c r="D57" t="n">
-        <v>0.365079</v>
+        <v>0.401647</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.518331</v>
+        <v>0.668313</v>
       </c>
       <c r="C58" t="n">
-        <v>0.388223</v>
+        <v>0.428696</v>
       </c>
       <c r="D58" t="n">
-        <v>0.371546</v>
+        <v>0.430624</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.556897</v>
+        <v>0.660397</v>
       </c>
       <c r="C59" t="n">
-        <v>0.449262</v>
+        <v>0.451993</v>
       </c>
       <c r="D59" t="n">
-        <v>0.447488</v>
+        <v>0.465462</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.622241</v>
+        <v>0.667449</v>
       </c>
       <c r="C60" t="n">
-        <v>0.394137</v>
+        <v>0.456694</v>
       </c>
       <c r="D60" t="n">
-        <v>0.432028</v>
+        <v>0.481046</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.672488</v>
+        <v>0.661481</v>
       </c>
       <c r="C61" t="n">
-        <v>0.418269</v>
+        <v>0.480108</v>
       </c>
       <c r="D61" t="n">
-        <v>0.433936</v>
+        <v>0.458881</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.608432</v>
+        <v>0.715544</v>
       </c>
       <c r="C62" t="n">
-        <v>0.435545</v>
+        <v>0.498608</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4515</v>
+        <v>0.48762</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.669516</v>
+        <v>0.704435</v>
       </c>
       <c r="C63" t="n">
-        <v>0.472083</v>
+        <v>0.493369</v>
       </c>
       <c r="D63" t="n">
-        <v>0.490163</v>
+        <v>0.492235</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.69416</v>
+        <v>0.704209</v>
       </c>
       <c r="C64" t="n">
-        <v>0.508016</v>
+        <v>0.543582</v>
       </c>
       <c r="D64" t="n">
-        <v>0.552544</v>
+        <v>0.588842</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6873899999999999</v>
+        <v>0.788946</v>
       </c>
       <c r="C65" t="n">
-        <v>0.555872</v>
+        <v>0.558858</v>
       </c>
       <c r="D65" t="n">
-        <v>0.573694</v>
+        <v>0.611269</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.735612</v>
+        <v>0.779177</v>
       </c>
       <c r="C66" t="n">
-        <v>0.555656</v>
+        <v>0.575905</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5714939999999999</v>
+        <v>0.628865</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.726936</v>
+        <v>0.7723449999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.569652</v>
+        <v>0.581963</v>
       </c>
       <c r="D67" t="n">
-        <v>0.58693</v>
+        <v>0.608585</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.816891</v>
+        <v>0.795531</v>
       </c>
       <c r="C68" t="n">
-        <v>0.606097</v>
+        <v>0.602001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6199</v>
+        <v>0.623162</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.776753</v>
+        <v>0.812451</v>
       </c>
       <c r="C69" t="n">
-        <v>0.592045</v>
+        <v>0.606638</v>
       </c>
       <c r="D69" t="n">
-        <v>0.650735</v>
+        <v>0.632735</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.823265</v>
+        <v>0.843387</v>
       </c>
       <c r="C70" t="n">
-        <v>0.624016</v>
+        <v>0.666701</v>
       </c>
       <c r="D70" t="n">
-        <v>0.643782</v>
+        <v>0.700592</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.790521</v>
+        <v>0.865664</v>
       </c>
       <c r="C71" t="n">
-        <v>0.615618</v>
+        <v>0.654056</v>
       </c>
       <c r="D71" t="n">
-        <v>0.637307</v>
+        <v>0.674188</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.805554</v>
+        <v>0.842515</v>
       </c>
       <c r="C72" t="n">
-        <v>0.640984</v>
+        <v>0.693855</v>
       </c>
       <c r="D72" t="n">
-        <v>0.670835</v>
+        <v>0.704251</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.820326</v>
+        <v>0.876197</v>
       </c>
       <c r="C73" t="n">
-        <v>0.654735</v>
+        <v>0.685371</v>
       </c>
       <c r="D73" t="n">
-        <v>0.68703</v>
+        <v>0.702829</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.793113</v>
+        <v>0.887386</v>
       </c>
       <c r="C74" t="n">
-        <v>0.666609</v>
+        <v>0.728939</v>
       </c>
       <c r="D74" t="n">
-        <v>0.727773</v>
+        <v>0.748354</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.819681</v>
+        <v>0.874759</v>
       </c>
       <c r="C75" t="n">
-        <v>0.696835</v>
+        <v>0.72892</v>
       </c>
       <c r="D75" t="n">
-        <v>0.773311</v>
+        <v>0.762823</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9421119999999999</v>
+        <v>0.920358</v>
       </c>
       <c r="C76" t="n">
-        <v>0.696592</v>
+        <v>0.75016</v>
       </c>
       <c r="D76" t="n">
-        <v>0.700482</v>
+        <v>0.759413</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.833615</v>
+        <v>0.9047539999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.750328</v>
+        <v>0.778216</v>
       </c>
       <c r="D77" t="n">
-        <v>0.76661</v>
+        <v>0.8121390000000001</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.882858</v>
+        <v>0.913557</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6981810000000001</v>
+        <v>0.7837150000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.750348</v>
+        <v>0.787309</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.900639</v>
+        <v>0.966777</v>
       </c>
       <c r="C79" t="n">
-        <v>0.754683</v>
+        <v>0.765312</v>
       </c>
       <c r="D79" t="n">
-        <v>0.793122</v>
+        <v>0.834487</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.908096</v>
+        <v>0.973019</v>
       </c>
       <c r="C80" t="n">
-        <v>0.759506</v>
+        <v>0.771694</v>
       </c>
       <c r="D80" t="n">
-        <v>0.805812</v>
+        <v>0.834696</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.927438</v>
+        <v>0.974919</v>
       </c>
       <c r="C81" t="n">
-        <v>0.765286</v>
+        <v>0.807871</v>
       </c>
       <c r="D81" t="n">
-        <v>0.792052</v>
+        <v>0.8481030000000001</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.963077</v>
+        <v>1.01059</v>
       </c>
       <c r="C82" t="n">
-        <v>0.789874</v>
+        <v>0.814317</v>
       </c>
       <c r="D82" t="n">
-        <v>0.829807</v>
+        <v>0.857676</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.960408</v>
+        <v>1.05241</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8011160000000001</v>
+        <v>0.847003</v>
       </c>
       <c r="D83" t="n">
-        <v>0.809047</v>
+        <v>0.889154</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.885453</v>
+        <v>0.9467179999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.823172</v>
+        <v>0.859051</v>
       </c>
       <c r="D84" t="n">
-        <v>0.846625</v>
+        <v>0.873153</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.983283</v>
+        <v>0.993552</v>
       </c>
       <c r="C85" t="n">
-        <v>0.794835</v>
+        <v>0.86697</v>
       </c>
       <c r="D85" t="n">
-        <v>0.833485</v>
+        <v>0.90564</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.930656</v>
+        <v>0.972337</v>
       </c>
       <c r="C86" t="n">
-        <v>0.83468</v>
+        <v>0.886084</v>
       </c>
       <c r="D86" t="n">
-        <v>0.896537</v>
+        <v>0.927052</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.920309</v>
+        <v>0.980434</v>
       </c>
       <c r="C87" t="n">
-        <v>0.85721</v>
+        <v>0.890557</v>
       </c>
       <c r="D87" t="n">
-        <v>0.961417</v>
+        <v>0.955929</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.94721</v>
+        <v>1.00487</v>
       </c>
       <c r="C88" t="n">
-        <v>0.874207</v>
+        <v>0.912319</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9168190000000001</v>
+        <v>0.952398</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.968749</v>
+        <v>1.00695</v>
       </c>
       <c r="C89" t="n">
-        <v>0.891133</v>
+        <v>0.920145</v>
       </c>
       <c r="D89" t="n">
-        <v>0.928449</v>
+        <v>0.9620339999999999</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.988192</v>
+        <v>1.04808</v>
       </c>
       <c r="C90" t="n">
-        <v>0.948386</v>
+        <v>0.956013</v>
       </c>
       <c r="D90" t="n">
-        <v>0.945703</v>
+        <v>0.974577</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.988223</v>
+        <v>1.04343</v>
       </c>
       <c r="C91" t="n">
-        <v>0.905765</v>
+        <v>0.945529</v>
       </c>
       <c r="D91" t="n">
-        <v>0.991074</v>
+        <v>0.988892</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.00464</v>
+        <v>1.07479</v>
       </c>
       <c r="C92" t="n">
-        <v>0.868184</v>
+        <v>0.910781</v>
       </c>
       <c r="D92" t="n">
-        <v>0.892016</v>
+        <v>0.91715</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.0117</v>
+        <v>1.07505</v>
       </c>
       <c r="C93" t="n">
-        <v>0.843048</v>
+        <v>0.944832</v>
       </c>
       <c r="D93" t="n">
-        <v>0.874619</v>
+        <v>0.948763</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.01135</v>
+        <v>1.0847</v>
       </c>
       <c r="C94" t="n">
-        <v>0.879547</v>
+        <v>0.906511</v>
       </c>
       <c r="D94" t="n">
-        <v>0.901512</v>
+        <v>0.972859</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.07297</v>
+        <v>1.11266</v>
       </c>
       <c r="C95" t="n">
-        <v>0.87862</v>
+        <v>0.928558</v>
       </c>
       <c r="D95" t="n">
-        <v>0.919362</v>
+        <v>0.969712</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.07132</v>
+        <v>1.14357</v>
       </c>
       <c r="C96" t="n">
-        <v>0.895709</v>
+        <v>0.949414</v>
       </c>
       <c r="D96" t="n">
-        <v>0.932949</v>
+        <v>0.986939</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.07372</v>
+        <v>1.11588</v>
       </c>
       <c r="C97" t="n">
-        <v>0.90906</v>
+        <v>0.975533</v>
       </c>
       <c r="D97" t="n">
-        <v>0.945086</v>
+        <v>1.00663</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9623350000000001</v>
+        <v>1.00057</v>
       </c>
       <c r="C98" t="n">
-        <v>0.924951</v>
+        <v>0.9607250000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.961442</v>
+        <v>0.984353</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.962095</v>
+        <v>1.05927</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09288</v>
+        <v>1.00531</v>
       </c>
       <c r="D99" t="n">
-        <v>0.998827</v>
+        <v>1.03413</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.0012</v>
+        <v>1.04225</v>
       </c>
       <c r="C100" t="n">
-        <v>0.944118</v>
+        <v>1.01134</v>
       </c>
       <c r="D100" t="n">
-        <v>0.995036</v>
+        <v>1.03383</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.01039</v>
+        <v>1.06657</v>
       </c>
       <c r="C101" t="n">
-        <v>0.970657</v>
+        <v>1.01624</v>
       </c>
       <c r="D101" t="n">
-        <v>1.00916</v>
+        <v>1.05305</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.04814</v>
+        <v>1.10021</v>
       </c>
       <c r="C102" t="n">
-        <v>0.986011</v>
+        <v>1.02928</v>
       </c>
       <c r="D102" t="n">
-        <v>1.0206</v>
+        <v>1.0682</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.02889</v>
+        <v>1.10984</v>
       </c>
       <c r="C103" t="n">
-        <v>1.00581</v>
+        <v>1.05826</v>
       </c>
       <c r="D103" t="n">
-        <v>1.05231</v>
+        <v>1.08882</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.06813</v>
+        <v>1.11224</v>
       </c>
       <c r="C104" t="n">
-        <v>1.03774</v>
+        <v>1.06072</v>
       </c>
       <c r="D104" t="n">
-        <v>1.08676</v>
+        <v>1.10765</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.08113</v>
+        <v>1.14099</v>
       </c>
       <c r="C105" t="n">
-        <v>1.07759</v>
+        <v>1.10303</v>
       </c>
       <c r="D105" t="n">
-        <v>1.10105</v>
+        <v>1.12975</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.10705</v>
+        <v>1.16422</v>
       </c>
       <c r="C106" t="n">
-        <v>1.05741</v>
+        <v>1.13125</v>
       </c>
       <c r="D106" t="n">
-        <v>1.10321</v>
+        <v>1.15002</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09289</v>
+        <v>1.19132</v>
       </c>
       <c r="C107" t="n">
-        <v>0.95496</v>
+        <v>1.03539</v>
       </c>
       <c r="D107" t="n">
-        <v>0.973237</v>
+        <v>1.0664</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.11911</v>
+        <v>1.18218</v>
       </c>
       <c r="C108" t="n">
-        <v>0.961863</v>
+        <v>1.02739</v>
       </c>
       <c r="D108" t="n">
-        <v>0.99904</v>
+        <v>1.07718</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.1346</v>
+        <v>1.19288</v>
       </c>
       <c r="C109" t="n">
-        <v>0.982033</v>
+        <v>1.04153</v>
       </c>
       <c r="D109" t="n">
-        <v>1.01729</v>
+        <v>1.07033</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.15337</v>
+        <v>1.22388</v>
       </c>
       <c r="C110" t="n">
-        <v>0.991313</v>
+        <v>1.07402</v>
       </c>
       <c r="D110" t="n">
-        <v>1.01525</v>
+        <v>1.07879</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.16962</v>
+        <v>1.23881</v>
       </c>
       <c r="C111" t="n">
-        <v>1.01569</v>
+        <v>1.06908</v>
       </c>
       <c r="D111" t="n">
-        <v>1.04874</v>
+        <v>1.09846</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.06893</v>
+        <v>1.11624</v>
       </c>
       <c r="C112" t="n">
-        <v>1.02205</v>
+        <v>1.07825</v>
       </c>
       <c r="D112" t="n">
-        <v>1.0576</v>
+        <v>1.12327</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.0883</v>
+        <v>1.11856</v>
       </c>
       <c r="C113" t="n">
-        <v>1.03498</v>
+        <v>1.10356</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08125</v>
+        <v>1.14391</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.08823</v>
+        <v>1.10364</v>
       </c>
       <c r="C114" t="n">
-        <v>1.05755</v>
+        <v>1.09794</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09589</v>
+        <v>1.14261</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.09918</v>
+        <v>1.20478</v>
       </c>
       <c r="C115" t="n">
-        <v>1.05176</v>
+        <v>1.10209</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09509</v>
+        <v>1.16966</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.1306</v>
+        <v>1.1547</v>
       </c>
       <c r="C116" t="n">
-        <v>1.07623</v>
+        <v>1.13722</v>
       </c>
       <c r="D116" t="n">
-        <v>1.12532</v>
+        <v>1.20155</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.17228</v>
+        <v>1.16567</v>
       </c>
       <c r="C117" t="n">
-        <v>1.11995</v>
+        <v>1.1461</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1582</v>
+        <v>1.21561</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13648</v>
+        <v>1.21037</v>
       </c>
       <c r="C118" t="n">
-        <v>1.12872</v>
+        <v>1.18338</v>
       </c>
       <c r="D118" t="n">
-        <v>1.16017</v>
+        <v>1.24083</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.13137</v>
+        <v>1.19977</v>
       </c>
       <c r="C119" t="n">
-        <v>1.1244</v>
+        <v>1.19308</v>
       </c>
       <c r="D119" t="n">
-        <v>1.18812</v>
+        <v>1.25335</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.222345</v>
+        <v>0.236017</v>
       </c>
       <c r="C2" t="n">
-        <v>0.179197</v>
+        <v>0.187801</v>
       </c>
       <c r="D2" t="n">
-        <v>0.185328</v>
+        <v>0.200315</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.258487</v>
+        <v>0.24589</v>
       </c>
       <c r="C3" t="n">
-        <v>0.217289</v>
+        <v>0.21587</v>
       </c>
       <c r="D3" t="n">
-        <v>0.216703</v>
+        <v>0.204419</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.252001</v>
+        <v>0.251163</v>
       </c>
       <c r="C4" t="n">
-        <v>0.203782</v>
+        <v>0.203572</v>
       </c>
       <c r="D4" t="n">
-        <v>0.191872</v>
+        <v>0.195002</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.24225</v>
+        <v>0.246494</v>
       </c>
       <c r="C5" t="n">
-        <v>0.20664</v>
+        <v>0.204263</v>
       </c>
       <c r="D5" t="n">
-        <v>0.197227</v>
+        <v>0.200066</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.22911</v>
+        <v>0.259267</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197619</v>
+        <v>0.220876</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20388</v>
+        <v>0.220117</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.231944</v>
+        <v>0.259933</v>
       </c>
       <c r="C7" t="n">
-        <v>0.179345</v>
+        <v>0.198133</v>
       </c>
       <c r="D7" t="n">
-        <v>0.190293</v>
+        <v>0.211898</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.240143</v>
+        <v>0.254376</v>
       </c>
       <c r="C8" t="n">
-        <v>0.182915</v>
+        <v>0.200138</v>
       </c>
       <c r="D8" t="n">
-        <v>0.202475</v>
+        <v>0.218699</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.247888</v>
+        <v>0.280487</v>
       </c>
       <c r="C9" t="n">
-        <v>0.198376</v>
+        <v>0.209965</v>
       </c>
       <c r="D9" t="n">
-        <v>0.203943</v>
+        <v>0.217325</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.263585</v>
+        <v>0.270604</v>
       </c>
       <c r="C10" t="n">
-        <v>0.189375</v>
+        <v>0.20728</v>
       </c>
       <c r="D10" t="n">
-        <v>0.201894</v>
+        <v>0.217067</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.244976</v>
+        <v>0.265171</v>
       </c>
       <c r="C11" t="n">
-        <v>0.194081</v>
+        <v>0.209959</v>
       </c>
       <c r="D11" t="n">
-        <v>0.200422</v>
+        <v>0.218298</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.26509</v>
+        <v>0.277885</v>
       </c>
       <c r="C12" t="n">
-        <v>0.20736</v>
+        <v>0.217721</v>
       </c>
       <c r="D12" t="n">
-        <v>0.210193</v>
+        <v>0.220925</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.236302</v>
+        <v>0.240874</v>
       </c>
       <c r="C13" t="n">
-        <v>0.197979</v>
+        <v>0.209696</v>
       </c>
       <c r="D13" t="n">
-        <v>0.206185</v>
+        <v>0.214077</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.240905</v>
+        <v>0.253605</v>
       </c>
       <c r="C14" t="n">
-        <v>0.202256</v>
+        <v>0.207994</v>
       </c>
       <c r="D14" t="n">
-        <v>0.204291</v>
+        <v>0.214051</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.241351</v>
+        <v>0.242953</v>
       </c>
       <c r="C15" t="n">
-        <v>0.203181</v>
+        <v>0.218578</v>
       </c>
       <c r="D15" t="n">
-        <v>0.208822</v>
+        <v>0.221044</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.242737</v>
+        <v>0.249375</v>
       </c>
       <c r="C16" t="n">
-        <v>0.220869</v>
+        <v>0.219963</v>
       </c>
       <c r="D16" t="n">
-        <v>0.216081</v>
+        <v>0.217454</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.247079</v>
+        <v>0.255553</v>
       </c>
       <c r="C17" t="n">
-        <v>0.21487</v>
+        <v>0.216904</v>
       </c>
       <c r="D17" t="n">
-        <v>0.213766</v>
+        <v>0.22201</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.276583</v>
+        <v>0.27532</v>
       </c>
       <c r="C18" t="n">
-        <v>0.221078</v>
+        <v>0.23778</v>
       </c>
       <c r="D18" t="n">
-        <v>0.235377</v>
+        <v>0.239335</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.253934</v>
+        <v>0.269665</v>
       </c>
       <c r="C19" t="n">
-        <v>0.222508</v>
+        <v>0.242925</v>
       </c>
       <c r="D19" t="n">
-        <v>0.21711</v>
+        <v>0.233733</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.259596</v>
+        <v>0.283612</v>
       </c>
       <c r="C20" t="n">
-        <v>0.238989</v>
+        <v>0.245211</v>
       </c>
       <c r="D20" t="n">
-        <v>0.237582</v>
+        <v>0.234357</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.260862</v>
+        <v>0.276333</v>
       </c>
       <c r="C21" t="n">
-        <v>0.208971</v>
+        <v>0.212723</v>
       </c>
       <c r="D21" t="n">
-        <v>0.234713</v>
+        <v>0.23389</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.287634</v>
+        <v>0.277896</v>
       </c>
       <c r="C22" t="n">
-        <v>0.247049</v>
+        <v>0.230079</v>
       </c>
       <c r="D22" t="n">
-        <v>0.222191</v>
+        <v>0.230075</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.283321</v>
+        <v>0.295668</v>
       </c>
       <c r="C23" t="n">
-        <v>0.215653</v>
+        <v>0.229168</v>
       </c>
       <c r="D23" t="n">
-        <v>0.230241</v>
+        <v>0.238554</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.283022</v>
+        <v>0.292501</v>
       </c>
       <c r="C24" t="n">
-        <v>0.224898</v>
+        <v>0.233962</v>
       </c>
       <c r="D24" t="n">
-        <v>0.224037</v>
+        <v>0.24158</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.288352</v>
+        <v>0.301086</v>
       </c>
       <c r="C25" t="n">
-        <v>0.240112</v>
+        <v>0.249771</v>
       </c>
       <c r="D25" t="n">
-        <v>0.230287</v>
+        <v>0.24457</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.298861</v>
+        <v>0.309656</v>
       </c>
       <c r="C26" t="n">
-        <v>0.228852</v>
+        <v>0.245181</v>
       </c>
       <c r="D26" t="n">
-        <v>0.234284</v>
+        <v>0.253378</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.262675</v>
+        <v>0.288248</v>
       </c>
       <c r="C27" t="n">
-        <v>0.240844</v>
+        <v>0.251759</v>
       </c>
       <c r="D27" t="n">
-        <v>0.255613</v>
+        <v>0.239632</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.293321</v>
+        <v>0.28995</v>
       </c>
       <c r="C28" t="n">
-        <v>0.238906</v>
+        <v>0.247887</v>
       </c>
       <c r="D28" t="n">
-        <v>0.243225</v>
+        <v>0.251689</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.273231</v>
+        <v>0.301043</v>
       </c>
       <c r="C29" t="n">
-        <v>0.250715</v>
+        <v>0.265259</v>
       </c>
       <c r="D29" t="n">
-        <v>0.242664</v>
+        <v>0.265071</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.282597</v>
+        <v>0.301856</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2677</v>
+        <v>0.278762</v>
       </c>
       <c r="D30" t="n">
-        <v>0.241716</v>
+        <v>0.248723</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.281739</v>
+        <v>0.316867</v>
       </c>
       <c r="C31" t="n">
-        <v>0.253756</v>
+        <v>0.265511</v>
       </c>
       <c r="D31" t="n">
-        <v>0.264763</v>
+        <v>0.249706</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.293802</v>
+        <v>0.330298</v>
       </c>
       <c r="C32" t="n">
-        <v>0.266875</v>
+        <v>0.280014</v>
       </c>
       <c r="D32" t="n">
-        <v>0.254267</v>
+        <v>0.263623</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.310877</v>
+        <v>0.317572</v>
       </c>
       <c r="C33" t="n">
-        <v>0.272573</v>
+        <v>0.290022</v>
       </c>
       <c r="D33" t="n">
-        <v>0.259661</v>
+        <v>0.2694</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.30402</v>
+        <v>0.331395</v>
       </c>
       <c r="C34" t="n">
-        <v>0.276782</v>
+        <v>0.293617</v>
       </c>
       <c r="D34" t="n">
-        <v>0.250713</v>
+        <v>0.265716</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.311336</v>
+        <v>0.35363</v>
       </c>
       <c r="C35" t="n">
-        <v>0.251251</v>
+        <v>0.250493</v>
       </c>
       <c r="D35" t="n">
-        <v>0.239264</v>
+        <v>0.255355</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.321906</v>
+        <v>0.364784</v>
       </c>
       <c r="C36" t="n">
-        <v>0.252321</v>
+        <v>0.272417</v>
       </c>
       <c r="D36" t="n">
-        <v>0.250439</v>
+        <v>0.266109</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.340939</v>
+        <v>0.354515</v>
       </c>
       <c r="C37" t="n">
-        <v>0.258789</v>
+        <v>0.256783</v>
       </c>
       <c r="D37" t="n">
-        <v>0.262248</v>
+        <v>0.260113</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.348107</v>
+        <v>0.378806</v>
       </c>
       <c r="C38" t="n">
-        <v>0.265587</v>
+        <v>0.277437</v>
       </c>
       <c r="D38" t="n">
-        <v>0.264924</v>
+        <v>0.26555</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.352644</v>
+        <v>0.37853</v>
       </c>
       <c r="C39" t="n">
-        <v>0.268074</v>
+        <v>0.288989</v>
       </c>
       <c r="D39" t="n">
-        <v>0.259081</v>
+        <v>0.27966</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.365359</v>
+        <v>0.418708</v>
       </c>
       <c r="C40" t="n">
-        <v>0.275386</v>
+        <v>0.288642</v>
       </c>
       <c r="D40" t="n">
-        <v>0.269818</v>
+        <v>0.281127</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.350444</v>
+        <v>0.394186</v>
       </c>
       <c r="C41" t="n">
-        <v>0.279413</v>
+        <v>0.294781</v>
       </c>
       <c r="D41" t="n">
-        <v>0.265151</v>
+        <v>0.274772</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.355466</v>
+        <v>0.407354</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2806</v>
+        <v>0.296728</v>
       </c>
       <c r="D42" t="n">
-        <v>0.277333</v>
+        <v>0.287643</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.362133</v>
+        <v>0.420753</v>
       </c>
       <c r="C43" t="n">
-        <v>0.299458</v>
+        <v>0.304494</v>
       </c>
       <c r="D43" t="n">
-        <v>0.280119</v>
+        <v>0.291527</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.371422</v>
+        <v>0.426845</v>
       </c>
       <c r="C44" t="n">
-        <v>0.301552</v>
+        <v>0.328964</v>
       </c>
       <c r="D44" t="n">
-        <v>0.271029</v>
+        <v>0.296372</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.382454</v>
+        <v>0.431623</v>
       </c>
       <c r="C45" t="n">
-        <v>0.31236</v>
+        <v>0.324064</v>
       </c>
       <c r="D45" t="n">
-        <v>0.276446</v>
+        <v>0.315997</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.381496</v>
+        <v>0.44159</v>
       </c>
       <c r="C46" t="n">
-        <v>0.307805</v>
+        <v>0.341482</v>
       </c>
       <c r="D46" t="n">
-        <v>0.282819</v>
+        <v>0.3225</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.39143</v>
+        <v>0.445728</v>
       </c>
       <c r="C47" t="n">
-        <v>0.324141</v>
+        <v>0.354183</v>
       </c>
       <c r="D47" t="n">
-        <v>0.291812</v>
+        <v>0.318253</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.411123</v>
+        <v>0.475191</v>
       </c>
       <c r="C48" t="n">
-        <v>0.342626</v>
+        <v>0.367837</v>
       </c>
       <c r="D48" t="n">
-        <v>0.308854</v>
+        <v>0.322989</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.415559</v>
+        <v>0.476311</v>
       </c>
       <c r="C49" t="n">
-        <v>0.335488</v>
+        <v>0.37867</v>
       </c>
       <c r="D49" t="n">
-        <v>0.296366</v>
+        <v>0.318408</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.433617</v>
+        <v>0.485405</v>
       </c>
       <c r="C50" t="n">
-        <v>0.334797</v>
+        <v>0.373191</v>
       </c>
       <c r="D50" t="n">
-        <v>0.300954</v>
+        <v>0.342158</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.434531</v>
+        <v>0.490557</v>
       </c>
       <c r="C51" t="n">
-        <v>0.351025</v>
+        <v>0.383449</v>
       </c>
       <c r="D51" t="n">
-        <v>0.325559</v>
+        <v>0.354973</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.439591</v>
+        <v>0.512923</v>
       </c>
       <c r="C52" t="n">
-        <v>0.349952</v>
+        <v>0.384473</v>
       </c>
       <c r="D52" t="n">
-        <v>0.315548</v>
+        <v>0.353327</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.457516</v>
+        <v>0.535002</v>
       </c>
       <c r="C53" t="n">
-        <v>0.356979</v>
+        <v>0.403849</v>
       </c>
       <c r="D53" t="n">
-        <v>0.347658</v>
+        <v>0.373937</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.467442</v>
+        <v>0.556067</v>
       </c>
       <c r="C54" t="n">
-        <v>0.374708</v>
+        <v>0.411504</v>
       </c>
       <c r="D54" t="n">
-        <v>0.325713</v>
+        <v>0.362046</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.492883</v>
+        <v>0.556792</v>
       </c>
       <c r="C55" t="n">
-        <v>0.390151</v>
+        <v>0.426276</v>
       </c>
       <c r="D55" t="n">
-        <v>0.332747</v>
+        <v>0.387836</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.437904</v>
+        <v>0.530063</v>
       </c>
       <c r="C56" t="n">
-        <v>0.399387</v>
+        <v>0.439795</v>
       </c>
       <c r="D56" t="n">
-        <v>0.335337</v>
+        <v>0.390592</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.451962</v>
+        <v>0.523923</v>
       </c>
       <c r="C57" t="n">
-        <v>0.393236</v>
+        <v>0.454749</v>
       </c>
       <c r="D57" t="n">
-        <v>0.343064</v>
+        <v>0.391711</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.460422</v>
+        <v>0.556378</v>
       </c>
       <c r="C58" t="n">
-        <v>0.408521</v>
+        <v>0.471572</v>
       </c>
       <c r="D58" t="n">
-        <v>0.351763</v>
+        <v>0.415367</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.473987</v>
+        <v>0.576067</v>
       </c>
       <c r="C59" t="n">
-        <v>0.421301</v>
+        <v>0.492217</v>
       </c>
       <c r="D59" t="n">
-        <v>0.374612</v>
+        <v>0.407099</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.518402</v>
+        <v>0.576535</v>
       </c>
       <c r="C60" t="n">
-        <v>0.476731</v>
+        <v>0.493694</v>
       </c>
       <c r="D60" t="n">
-        <v>0.384413</v>
+        <v>0.436867</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.49461</v>
+        <v>0.605927</v>
       </c>
       <c r="C61" t="n">
-        <v>0.456388</v>
+        <v>0.511872</v>
       </c>
       <c r="D61" t="n">
-        <v>0.397396</v>
+        <v>0.459923</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5345220000000001</v>
+        <v>0.602752</v>
       </c>
       <c r="C62" t="n">
-        <v>0.459282</v>
+        <v>0.548418</v>
       </c>
       <c r="D62" t="n">
-        <v>0.404516</v>
+        <v>0.444766</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.520305</v>
+        <v>0.658206</v>
       </c>
       <c r="C63" t="n">
-        <v>0.487437</v>
+        <v>0.552696</v>
       </c>
       <c r="D63" t="n">
-        <v>0.403751</v>
+        <v>0.453133</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.528442</v>
+        <v>0.663559</v>
       </c>
       <c r="C64" t="n">
-        <v>0.448539</v>
+        <v>0.545598</v>
       </c>
       <c r="D64" t="n">
-        <v>0.407449</v>
+        <v>0.485178</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.555204</v>
+        <v>0.6752590000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.483656</v>
+        <v>0.535291</v>
       </c>
       <c r="D65" t="n">
-        <v>0.410923</v>
+        <v>0.502642</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.585839</v>
+        <v>0.729243</v>
       </c>
       <c r="C66" t="n">
-        <v>0.476092</v>
+        <v>0.556149</v>
       </c>
       <c r="D66" t="n">
-        <v>0.419053</v>
+        <v>0.512334</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.585454</v>
+        <v>0.714636</v>
       </c>
       <c r="C67" t="n">
-        <v>0.496689</v>
+        <v>0.576606</v>
       </c>
       <c r="D67" t="n">
-        <v>0.442896</v>
+        <v>0.532234</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.620942</v>
+        <v>0.764898</v>
       </c>
       <c r="C68" t="n">
-        <v>0.515128</v>
+        <v>0.5843739999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.43519</v>
+        <v>0.5358849999999999</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6538659999999999</v>
+        <v>0.796728</v>
       </c>
       <c r="C69" t="n">
-        <v>0.525512</v>
+        <v>0.626627</v>
       </c>
       <c r="D69" t="n">
-        <v>0.443091</v>
+        <v>0.5248119999999999</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.58507</v>
+        <v>0.7352880000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.542918</v>
+        <v>0.647165</v>
       </c>
       <c r="D70" t="n">
-        <v>0.456788</v>
+        <v>0.550696</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.59848</v>
+        <v>0.758124</v>
       </c>
       <c r="C71" t="n">
-        <v>0.569425</v>
+        <v>0.649765</v>
       </c>
       <c r="D71" t="n">
-        <v>0.471238</v>
+        <v>0.560592</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.691727</v>
+        <v>0.774257</v>
       </c>
       <c r="C72" t="n">
-        <v>0.628763</v>
+        <v>0.680026</v>
       </c>
       <c r="D72" t="n">
-        <v>0.482335</v>
+        <v>0.627591</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.656631</v>
+        <v>0.797856</v>
       </c>
       <c r="C73" t="n">
-        <v>0.603698</v>
+        <v>0.739529</v>
       </c>
       <c r="D73" t="n">
-        <v>0.523292</v>
+        <v>0.620164</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.709412</v>
+        <v>0.86048</v>
       </c>
       <c r="C74" t="n">
-        <v>0.620079</v>
+        <v>0.73875</v>
       </c>
       <c r="D74" t="n">
-        <v>0.51411</v>
+        <v>0.648576</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.701438</v>
+        <v>0.8782180000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6677110000000001</v>
+        <v>0.803248</v>
       </c>
       <c r="D75" t="n">
-        <v>0.534321</v>
+        <v>0.680548</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7518359999999999</v>
+        <v>0.921916</v>
       </c>
       <c r="C76" t="n">
-        <v>0.726482</v>
+        <v>0.861483</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5663</v>
+        <v>0.716276</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.753033</v>
+        <v>0.9427680000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.724213</v>
+        <v>0.903016</v>
       </c>
       <c r="D77" t="n">
-        <v>0.589549</v>
+        <v>0.75765</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.796903</v>
+        <v>0.972956</v>
       </c>
       <c r="C78" t="n">
-        <v>0.725289</v>
+        <v>0.80785</v>
       </c>
       <c r="D78" t="n">
-        <v>0.589181</v>
+        <v>0.756474</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.892855</v>
+        <v>1.03075</v>
       </c>
       <c r="C79" t="n">
-        <v>0.731621</v>
+        <v>0.830586</v>
       </c>
       <c r="D79" t="n">
-        <v>0.61193</v>
+        <v>0.771193</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.893976</v>
+        <v>1.06167</v>
       </c>
       <c r="C80" t="n">
-        <v>0.763669</v>
+        <v>0.84678</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6709889999999999</v>
+        <v>0.7992899999999999</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.930659</v>
+        <v>1.10297</v>
       </c>
       <c r="C81" t="n">
-        <v>0.78956</v>
+        <v>0.884708</v>
       </c>
       <c r="D81" t="n">
-        <v>0.684355</v>
+        <v>0.798441</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.933908</v>
+        <v>1.12302</v>
       </c>
       <c r="C82" t="n">
-        <v>0.778081</v>
+        <v>0.916602</v>
       </c>
       <c r="D82" t="n">
-        <v>0.724002</v>
+        <v>0.835767</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.01953</v>
+        <v>1.15412</v>
       </c>
       <c r="C83" t="n">
-        <v>0.816105</v>
+        <v>0.930832</v>
       </c>
       <c r="D83" t="n">
-        <v>0.748457</v>
+        <v>0.847079</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.899108</v>
+        <v>1.06188</v>
       </c>
       <c r="C84" t="n">
-        <v>0.837786</v>
+        <v>0.967911</v>
       </c>
       <c r="D84" t="n">
-        <v>0.741516</v>
+        <v>0.854294</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.908508</v>
+        <v>1.08776</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8684190000000001</v>
+        <v>1.01329</v>
       </c>
       <c r="D85" t="n">
-        <v>0.761623</v>
+        <v>0.8914609999999999</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.912749</v>
+        <v>1.10197</v>
       </c>
       <c r="C86" t="n">
-        <v>0.863341</v>
+        <v>0.9900870000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.765193</v>
+        <v>0.884198</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.0078</v>
+        <v>1.10864</v>
       </c>
       <c r="C87" t="n">
-        <v>0.972411</v>
+        <v>1.04495</v>
       </c>
       <c r="D87" t="n">
-        <v>0.771756</v>
+        <v>0.935773</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9915</v>
+        <v>1.12913</v>
       </c>
       <c r="C88" t="n">
-        <v>0.961583</v>
+        <v>1.04294</v>
       </c>
       <c r="D88" t="n">
-        <v>0.78656</v>
+        <v>0.9595050000000001</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.04124</v>
+        <v>1.1636</v>
       </c>
       <c r="C89" t="n">
-        <v>1.02434</v>
+        <v>1.10709</v>
       </c>
       <c r="D89" t="n">
-        <v>0.804298</v>
+        <v>0.975756</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.07273</v>
+        <v>1.19727</v>
       </c>
       <c r="C90" t="n">
-        <v>1.02657</v>
+        <v>1.13797</v>
       </c>
       <c r="D90" t="n">
-        <v>0.829327</v>
+        <v>0.995641</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.09413</v>
+        <v>1.24326</v>
       </c>
       <c r="C91" t="n">
-        <v>1.02783</v>
+        <v>1.17383</v>
       </c>
       <c r="D91" t="n">
-        <v>0.858789</v>
+        <v>1.01725</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.12386</v>
+        <v>1.30968</v>
       </c>
       <c r="C92" t="n">
-        <v>0.948856</v>
+        <v>1.09188</v>
       </c>
       <c r="D92" t="n">
-        <v>0.872082</v>
+        <v>1.04345</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.15607</v>
+        <v>1.34946</v>
       </c>
       <c r="C93" t="n">
-        <v>0.982504</v>
+        <v>1.08818</v>
       </c>
       <c r="D93" t="n">
-        <v>0.888671</v>
+        <v>1.01411</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.14188</v>
+        <v>1.3083</v>
       </c>
       <c r="C94" t="n">
-        <v>1.00824</v>
+        <v>1.09286</v>
       </c>
       <c r="D94" t="n">
-        <v>0.900805</v>
+        <v>1.0522</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.19763</v>
+        <v>1.33457</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05491</v>
+        <v>1.12744</v>
       </c>
       <c r="D95" t="n">
-        <v>1.00678</v>
+        <v>1.05472</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.21345</v>
+        <v>1.35993</v>
       </c>
       <c r="C96" t="n">
-        <v>1.04084</v>
+        <v>1.13597</v>
       </c>
       <c r="D96" t="n">
-        <v>0.964481</v>
+        <v>1.06457</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.26309</v>
+        <v>1.42915</v>
       </c>
       <c r="C97" t="n">
-        <v>1.07377</v>
+        <v>1.16224</v>
       </c>
       <c r="D97" t="n">
-        <v>0.953303</v>
+        <v>1.09004</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16528</v>
+        <v>1.27866</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05696</v>
+        <v>1.23245</v>
       </c>
       <c r="D98" t="n">
-        <v>0.965872</v>
+        <v>1.08825</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.14075</v>
+        <v>1.32205</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12575</v>
+        <v>1.22905</v>
       </c>
       <c r="D99" t="n">
-        <v>1.00045</v>
+        <v>1.12067</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.20242</v>
+        <v>1.3295</v>
       </c>
       <c r="C100" t="n">
-        <v>1.11105</v>
+        <v>1.26173</v>
       </c>
       <c r="D100" t="n">
-        <v>0.983694</v>
+        <v>1.13929</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16895</v>
+        <v>1.35431</v>
       </c>
       <c r="C101" t="n">
-        <v>1.12949</v>
+        <v>1.28308</v>
       </c>
       <c r="D101" t="n">
-        <v>1.04359</v>
+        <v>1.16329</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.23131</v>
+        <v>1.38405</v>
       </c>
       <c r="C102" t="n">
-        <v>1.18387</v>
+        <v>1.31785</v>
       </c>
       <c r="D102" t="n">
-        <v>1.03792</v>
+        <v>1.16234</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.25267</v>
+        <v>1.40214</v>
       </c>
       <c r="C103" t="n">
-        <v>1.21641</v>
+        <v>1.35374</v>
       </c>
       <c r="D103" t="n">
-        <v>1.05537</v>
+        <v>1.21755</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.27729</v>
+        <v>1.46968</v>
       </c>
       <c r="C104" t="n">
-        <v>1.25488</v>
+        <v>1.39216</v>
       </c>
       <c r="D104" t="n">
-        <v>1.06571</v>
+        <v>1.22131</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.29132</v>
+        <v>1.45272</v>
       </c>
       <c r="C105" t="n">
-        <v>1.2443</v>
+        <v>1.3919</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08175</v>
+        <v>1.23866</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.35501</v>
+        <v>1.47185</v>
       </c>
       <c r="C106" t="n">
-        <v>1.29717</v>
+        <v>1.40761</v>
       </c>
       <c r="D106" t="n">
-        <v>1.09987</v>
+        <v>1.26576</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.31688</v>
+        <v>1.52376</v>
       </c>
       <c r="C107" t="n">
-        <v>1.14431</v>
+        <v>1.33138</v>
       </c>
       <c r="D107" t="n">
-        <v>1.04778</v>
+        <v>1.22284</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.35615</v>
+        <v>1.51592</v>
       </c>
       <c r="C108" t="n">
-        <v>1.1637</v>
+        <v>1.28823</v>
       </c>
       <c r="D108" t="n">
-        <v>1.08059</v>
+        <v>1.23041</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.43785</v>
+        <v>1.60904</v>
       </c>
       <c r="C109" t="n">
-        <v>1.1815</v>
+        <v>1.34171</v>
       </c>
       <c r="D109" t="n">
-        <v>1.07237</v>
+        <v>1.23165</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.42039</v>
+        <v>1.6098</v>
       </c>
       <c r="C110" t="n">
-        <v>1.20891</v>
+        <v>1.36931</v>
       </c>
       <c r="D110" t="n">
-        <v>1.07657</v>
+        <v>1.26563</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.41278</v>
+        <v>1.64354</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23158</v>
+        <v>1.3815</v>
       </c>
       <c r="D111" t="n">
-        <v>1.11761</v>
+        <v>1.25675</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.27636</v>
+        <v>1.60254</v>
       </c>
       <c r="C112" t="n">
-        <v>1.2399</v>
+        <v>1.36062</v>
       </c>
       <c r="D112" t="n">
-        <v>1.12028</v>
+        <v>1.23554</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.29366</v>
+        <v>1.59746</v>
       </c>
       <c r="C113" t="n">
-        <v>1.28868</v>
+        <v>1.43636</v>
       </c>
       <c r="D113" t="n">
-        <v>1.12055</v>
+        <v>1.29882</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.3341</v>
+        <v>1.59741</v>
       </c>
       <c r="C114" t="n">
-        <v>1.33701</v>
+        <v>1.45639</v>
       </c>
       <c r="D114" t="n">
-        <v>1.16378</v>
+        <v>1.30541</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.35067</v>
+        <v>1.58562</v>
       </c>
       <c r="C115" t="n">
-        <v>1.39134</v>
+        <v>1.47228</v>
       </c>
       <c r="D115" t="n">
-        <v>1.18943</v>
+        <v>1.30961</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.39476</v>
+        <v>1.61361</v>
       </c>
       <c r="C116" t="n">
-        <v>1.38397</v>
+        <v>1.49562</v>
       </c>
       <c r="D116" t="n">
-        <v>1.23617</v>
+        <v>1.3621</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.42375</v>
+        <v>1.69475</v>
       </c>
       <c r="C117" t="n">
-        <v>1.43571</v>
+        <v>1.54587</v>
       </c>
       <c r="D117" t="n">
-        <v>1.23379</v>
+        <v>1.40135</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.41205</v>
+        <v>1.67101</v>
       </c>
       <c r="C118" t="n">
-        <v>1.41965</v>
+        <v>1.55806</v>
       </c>
       <c r="D118" t="n">
-        <v>1.26056</v>
+        <v>1.40356</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.46093</v>
+        <v>1.76024</v>
       </c>
       <c r="C119" t="n">
-        <v>1.49825</v>
+        <v>1.59768</v>
       </c>
       <c r="D119" t="n">
-        <v>1.35269</v>
+        <v>1.3988</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.536455</v>
+        <v>0.564623</v>
       </c>
       <c r="C2" t="n">
-        <v>0.29702</v>
+        <v>0.314896</v>
       </c>
       <c r="D2" t="n">
-        <v>0.268011</v>
+        <v>0.248051</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.375885</v>
+        <v>0.395815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.302252</v>
+        <v>0.31977</v>
       </c>
       <c r="D3" t="n">
-        <v>0.241251</v>
+        <v>0.247807</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.382856</v>
+        <v>0.401257</v>
       </c>
       <c r="C4" t="n">
-        <v>0.326789</v>
+        <v>0.341004</v>
       </c>
       <c r="D4" t="n">
-        <v>0.271438</v>
+        <v>0.254932</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.389804</v>
+        <v>0.409898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.337211</v>
+        <v>0.351624</v>
       </c>
       <c r="D5" t="n">
-        <v>0.262824</v>
+        <v>0.259671</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.407747</v>
+        <v>0.4209</v>
       </c>
       <c r="C6" t="n">
-        <v>0.332762</v>
+        <v>0.349442</v>
       </c>
       <c r="D6" t="n">
-        <v>0.260147</v>
+        <v>0.25786</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.417572</v>
+        <v>0.433983</v>
       </c>
       <c r="C7" t="n">
-        <v>0.351536</v>
+        <v>0.387304</v>
       </c>
       <c r="D7" t="n">
-        <v>0.275214</v>
+        <v>0.273861</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.452427</v>
+        <v>0.44762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.367328</v>
+        <v>0.384035</v>
       </c>
       <c r="D8" t="n">
-        <v>0.276685</v>
+        <v>0.286263</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.473621</v>
+        <v>0.46142</v>
       </c>
       <c r="C9" t="n">
-        <v>0.424723</v>
+        <v>0.428258</v>
       </c>
       <c r="D9" t="n">
-        <v>0.288438</v>
+        <v>0.299886</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5105769999999999</v>
+        <v>0.510706</v>
       </c>
       <c r="C10" t="n">
-        <v>0.430954</v>
+        <v>0.435375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.314437</v>
+        <v>0.30078</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.502719</v>
+        <v>0.503684</v>
       </c>
       <c r="C11" t="n">
-        <v>0.311471</v>
+        <v>0.332283</v>
       </c>
       <c r="D11" t="n">
-        <v>0.242136</v>
+        <v>0.259239</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.505104</v>
+        <v>0.528762</v>
       </c>
       <c r="C12" t="n">
-        <v>0.312903</v>
+        <v>0.334286</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250916</v>
+        <v>0.256854</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.550485</v>
+        <v>0.558445</v>
       </c>
       <c r="C13" t="n">
-        <v>0.333455</v>
+        <v>0.349298</v>
       </c>
       <c r="D13" t="n">
-        <v>0.269229</v>
+        <v>0.264093</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.611514</v>
+        <v>0.581711</v>
       </c>
       <c r="C14" t="n">
-        <v>0.362554</v>
+        <v>0.365118</v>
       </c>
       <c r="D14" t="n">
-        <v>0.276572</v>
+        <v>0.26593</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.595171</v>
+        <v>0.584742</v>
       </c>
       <c r="C15" t="n">
-        <v>0.359773</v>
+        <v>0.365151</v>
       </c>
       <c r="D15" t="n">
-        <v>0.27491</v>
+        <v>0.276995</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.597816</v>
+        <v>0.626791</v>
       </c>
       <c r="C16" t="n">
-        <v>0.365229</v>
+        <v>0.378322</v>
       </c>
       <c r="D16" t="n">
-        <v>0.275332</v>
+        <v>0.291226</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.388797</v>
+        <v>0.394721</v>
       </c>
       <c r="C17" t="n">
-        <v>0.381455</v>
+        <v>0.410064</v>
       </c>
       <c r="D17" t="n">
-        <v>0.287427</v>
+        <v>0.300662</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.445151</v>
+        <v>0.423677</v>
       </c>
       <c r="C18" t="n">
-        <v>0.386416</v>
+        <v>0.407859</v>
       </c>
       <c r="D18" t="n">
-        <v>0.30296</v>
+        <v>0.291988</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.412832</v>
+        <v>0.412994</v>
       </c>
       <c r="C19" t="n">
-        <v>0.436946</v>
+        <v>0.43695</v>
       </c>
       <c r="D19" t="n">
-        <v>0.301665</v>
+        <v>0.30585</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.431665</v>
+        <v>0.43408</v>
       </c>
       <c r="C20" t="n">
-        <v>0.482328</v>
+        <v>0.453077</v>
       </c>
       <c r="D20" t="n">
-        <v>0.314017</v>
+        <v>0.315951</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.469715</v>
+        <v>0.428934</v>
       </c>
       <c r="C21" t="n">
-        <v>0.44385</v>
+        <v>0.46247</v>
       </c>
       <c r="D21" t="n">
-        <v>0.357582</v>
+        <v>0.332363</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.46084</v>
+        <v>0.463713</v>
       </c>
       <c r="C22" t="n">
-        <v>0.478326</v>
+        <v>0.493847</v>
       </c>
       <c r="D22" t="n">
-        <v>0.339555</v>
+        <v>0.348583</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.476832</v>
+        <v>0.470454</v>
       </c>
       <c r="C23" t="n">
-        <v>0.487453</v>
+        <v>0.508128</v>
       </c>
       <c r="D23" t="n">
-        <v>0.356237</v>
+        <v>0.35229</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.519383</v>
+        <v>0.498634</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5231440000000001</v>
+        <v>0.530104</v>
       </c>
       <c r="D24" t="n">
-        <v>0.352429</v>
+        <v>0.369428</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5195070000000001</v>
+        <v>0.512648</v>
       </c>
       <c r="C25" t="n">
-        <v>0.565478</v>
+        <v>0.558658</v>
       </c>
       <c r="D25" t="n">
-        <v>0.366122</v>
+        <v>0.372745</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.512284</v>
+        <v>0.515695</v>
       </c>
       <c r="C26" t="n">
-        <v>0.352386</v>
+        <v>0.352299</v>
       </c>
       <c r="D26" t="n">
-        <v>0.273028</v>
+        <v>0.273899</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.539995</v>
+        <v>0.533953</v>
       </c>
       <c r="C27" t="n">
-        <v>0.347749</v>
+        <v>0.359009</v>
       </c>
       <c r="D27" t="n">
-        <v>0.293257</v>
+        <v>0.270592</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.556762</v>
+        <v>0.579511</v>
       </c>
       <c r="C28" t="n">
-        <v>0.363326</v>
+        <v>0.367327</v>
       </c>
       <c r="D28" t="n">
-        <v>0.280963</v>
+        <v>0.283068</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.58483</v>
+        <v>0.609447</v>
       </c>
       <c r="C29" t="n">
-        <v>0.371692</v>
+        <v>0.367535</v>
       </c>
       <c r="D29" t="n">
-        <v>0.283764</v>
+        <v>0.286168</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.595374</v>
+        <v>0.613461</v>
       </c>
       <c r="C30" t="n">
-        <v>0.397972</v>
+        <v>0.399113</v>
       </c>
       <c r="D30" t="n">
-        <v>0.289149</v>
+        <v>0.30112</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.625353</v>
+        <v>0.646414</v>
       </c>
       <c r="C31" t="n">
-        <v>0.407655</v>
+        <v>0.398096</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313087</v>
+        <v>0.296648</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.463157</v>
+        <v>0.449592</v>
       </c>
       <c r="C32" t="n">
-        <v>0.421214</v>
+        <v>0.409526</v>
       </c>
       <c r="D32" t="n">
-        <v>0.308624</v>
+        <v>0.324255</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.484503</v>
+        <v>0.47474</v>
       </c>
       <c r="C33" t="n">
-        <v>0.43847</v>
+        <v>0.456108</v>
       </c>
       <c r="D33" t="n">
-        <v>0.32005</v>
+        <v>0.3341</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.486836</v>
+        <v>0.487815</v>
       </c>
       <c r="C34" t="n">
-        <v>0.446372</v>
+        <v>0.47105</v>
       </c>
       <c r="D34" t="n">
-        <v>0.329534</v>
+        <v>0.336456</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.506623</v>
+        <v>0.512939</v>
       </c>
       <c r="C35" t="n">
-        <v>0.478575</v>
+        <v>0.504534</v>
       </c>
       <c r="D35" t="n">
-        <v>0.360187</v>
+        <v>0.34726</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.517431</v>
+        <v>0.520859</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5015540000000001</v>
+        <v>0.511425</v>
       </c>
       <c r="D36" t="n">
-        <v>0.357983</v>
+        <v>0.368181</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.552556</v>
+        <v>0.567033</v>
       </c>
       <c r="C37" t="n">
-        <v>0.525748</v>
+        <v>0.541681</v>
       </c>
       <c r="D37" t="n">
-        <v>0.363699</v>
+        <v>0.373087</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.573604</v>
+        <v>0.6218129999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>0.555751</v>
+        <v>0.567371</v>
       </c>
       <c r="D38" t="n">
-        <v>0.394843</v>
+        <v>0.388556</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.647925</v>
+        <v>0.601337</v>
       </c>
       <c r="C39" t="n">
-        <v>0.588076</v>
+        <v>0.597271</v>
       </c>
       <c r="D39" t="n">
-        <v>0.396544</v>
+        <v>0.407482</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.618187</v>
+        <v>0.6490089999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>0.423778</v>
+        <v>0.438866</v>
       </c>
       <c r="D40" t="n">
-        <v>0.321077</v>
+        <v>0.35792</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.664894</v>
+        <v>0.712946</v>
       </c>
       <c r="C41" t="n">
-        <v>0.430342</v>
+        <v>0.467354</v>
       </c>
       <c r="D41" t="n">
-        <v>0.353263</v>
+        <v>0.350404</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.700911</v>
+        <v>0.717881</v>
       </c>
       <c r="C42" t="n">
-        <v>0.453366</v>
+        <v>0.484233</v>
       </c>
       <c r="D42" t="n">
-        <v>0.342762</v>
+        <v>0.358514</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.706283</v>
+        <v>0.755842</v>
       </c>
       <c r="C43" t="n">
-        <v>0.496719</v>
+        <v>0.5083800000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.352637</v>
+        <v>0.379205</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.745848</v>
+        <v>0.811368</v>
       </c>
       <c r="C44" t="n">
-        <v>0.513815</v>
+        <v>0.550296</v>
       </c>
       <c r="D44" t="n">
-        <v>0.361861</v>
+        <v>0.399803</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.786729</v>
+        <v>0.841472</v>
       </c>
       <c r="C45" t="n">
-        <v>0.522298</v>
+        <v>0.540245</v>
       </c>
       <c r="D45" t="n">
-        <v>0.380504</v>
+        <v>0.405703</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.61947</v>
+        <v>0.605064</v>
       </c>
       <c r="C46" t="n">
-        <v>0.564128</v>
+        <v>0.591834</v>
       </c>
       <c r="D46" t="n">
-        <v>0.395097</v>
+        <v>0.415446</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.612477</v>
+        <v>0.6480629999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.613602</v>
+        <v>0.626699</v>
       </c>
       <c r="D47" t="n">
-        <v>0.430659</v>
+        <v>0.432337</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.623481</v>
+        <v>0.669798</v>
       </c>
       <c r="C48" t="n">
-        <v>0.607088</v>
+        <v>0.656945</v>
       </c>
       <c r="D48" t="n">
-        <v>0.466862</v>
+        <v>0.448037</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.662118</v>
+        <v>0.708394</v>
       </c>
       <c r="C49" t="n">
-        <v>0.65066</v>
+        <v>0.679293</v>
       </c>
       <c r="D49" t="n">
-        <v>0.442354</v>
+        <v>0.47985</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.739559</v>
+        <v>0.7508590000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.730928</v>
+        <v>0.743451</v>
       </c>
       <c r="D50" t="n">
-        <v>0.492681</v>
+        <v>0.486648</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.750298</v>
+        <v>0.805583</v>
       </c>
       <c r="C51" t="n">
-        <v>0.738777</v>
+        <v>0.7662330000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.550204</v>
+        <v>0.533324</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.759821</v>
+        <v>0.83295</v>
       </c>
       <c r="C52" t="n">
-        <v>0.819545</v>
+        <v>0.8142740000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.499094</v>
+        <v>0.544853</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.805898</v>
+        <v>0.871719</v>
       </c>
       <c r="C53" t="n">
-        <v>0.802578</v>
+        <v>0.85192</v>
       </c>
       <c r="D53" t="n">
-        <v>0.521008</v>
+        <v>0.551388</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.828553</v>
+        <v>0.923795</v>
       </c>
       <c r="C54" t="n">
-        <v>0.617743</v>
+        <v>0.64258</v>
       </c>
       <c r="D54" t="n">
-        <v>0.433122</v>
+        <v>0.461201</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.905085</v>
+        <v>1.00208</v>
       </c>
       <c r="C55" t="n">
-        <v>0.653662</v>
+        <v>0.6738960000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.441617</v>
+        <v>0.464434</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.940545</v>
+        <v>1.00555</v>
       </c>
       <c r="C56" t="n">
-        <v>0.648203</v>
+        <v>0.707647</v>
       </c>
       <c r="D56" t="n">
-        <v>0.466048</v>
+        <v>0.487355</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.00979</v>
+        <v>1.13389</v>
       </c>
       <c r="C57" t="n">
-        <v>0.680612</v>
+        <v>0.715278</v>
       </c>
       <c r="D57" t="n">
-        <v>0.475566</v>
+        <v>0.5136230000000001</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.03827</v>
+        <v>1.12535</v>
       </c>
       <c r="C58" t="n">
-        <v>0.75266</v>
+        <v>0.74847</v>
       </c>
       <c r="D58" t="n">
-        <v>0.547239</v>
+        <v>0.5170360000000001</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.14898</v>
+        <v>1.19678</v>
       </c>
       <c r="C59" t="n">
-        <v>0.811226</v>
+        <v>0.777854</v>
       </c>
       <c r="D59" t="n">
-        <v>0.516834</v>
+        <v>0.550598</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.807852</v>
+        <v>0.8492</v>
       </c>
       <c r="C60" t="n">
-        <v>0.815932</v>
+        <v>0.806638</v>
       </c>
       <c r="D60" t="n">
-        <v>0.529672</v>
+        <v>0.557011</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.873704</v>
+        <v>0.95397</v>
       </c>
       <c r="C61" t="n">
-        <v>0.843166</v>
+        <v>0.848707</v>
       </c>
       <c r="D61" t="n">
-        <v>0.551404</v>
+        <v>0.5917210000000001</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.882223</v>
+        <v>0.95688</v>
       </c>
       <c r="C62" t="n">
-        <v>0.874671</v>
+        <v>0.902411</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5728760000000001</v>
+        <v>0.612937</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.925836</v>
+        <v>1.01319</v>
       </c>
       <c r="C63" t="n">
-        <v>0.989473</v>
+        <v>1.02185</v>
       </c>
       <c r="D63" t="n">
-        <v>0.620583</v>
+        <v>0.63864</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.945508</v>
+        <v>1.05322</v>
       </c>
       <c r="C64" t="n">
-        <v>0.964975</v>
+        <v>1.04868</v>
       </c>
       <c r="D64" t="n">
-        <v>0.654202</v>
+        <v>0.677603</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.01294</v>
+        <v>1.13869</v>
       </c>
       <c r="C65" t="n">
-        <v>1.05412</v>
+        <v>1.13142</v>
       </c>
       <c r="D65" t="n">
-        <v>0.641742</v>
+        <v>0.715873</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.10295</v>
+        <v>1.16838</v>
       </c>
       <c r="C66" t="n">
-        <v>1.25136</v>
+        <v>1.20652</v>
       </c>
       <c r="D66" t="n">
-        <v>0.69315</v>
+        <v>0.740659</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.20023</v>
+        <v>1.24701</v>
       </c>
       <c r="C67" t="n">
-        <v>1.31754</v>
+        <v>1.25555</v>
       </c>
       <c r="D67" t="n">
-        <v>0.720553</v>
+        <v>0.7572759999999999</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.37241</v>
+        <v>1.34536</v>
       </c>
       <c r="C68" t="n">
-        <v>0.820522</v>
+        <v>0.828622</v>
       </c>
       <c r="D68" t="n">
-        <v>0.558359</v>
+        <v>0.5857</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.44029</v>
+        <v>1.4586</v>
       </c>
       <c r="C69" t="n">
-        <v>0.872281</v>
+        <v>0.835114</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5751270000000001</v>
+        <v>0.589178</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.59978</v>
+        <v>1.53668</v>
       </c>
       <c r="C70" t="n">
-        <v>0.92919</v>
+        <v>0.947186</v>
       </c>
       <c r="D70" t="n">
-        <v>0.600753</v>
+        <v>0.632273</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.73145</v>
+        <v>1.61591</v>
       </c>
       <c r="C71" t="n">
-        <v>1.00743</v>
+        <v>0.971611</v>
       </c>
       <c r="D71" t="n">
-        <v>0.680607</v>
+        <v>0.664995</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.78708</v>
+        <v>1.8179</v>
       </c>
       <c r="C72" t="n">
-        <v>1.11976</v>
+        <v>1.03218</v>
       </c>
       <c r="D72" t="n">
-        <v>0.697332</v>
+        <v>0.6926099999999999</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.78145</v>
+        <v>1.95992</v>
       </c>
       <c r="C73" t="n">
-        <v>1.11194</v>
+        <v>1.11075</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7017099999999999</v>
+        <v>0.722554</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.2518</v>
+        <v>1.2909</v>
       </c>
       <c r="C74" t="n">
-        <v>1.2014</v>
+        <v>1.17299</v>
       </c>
       <c r="D74" t="n">
-        <v>0.748577</v>
+        <v>0.74071</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.26324</v>
+        <v>1.37276</v>
       </c>
       <c r="C75" t="n">
-        <v>1.33581</v>
+        <v>1.25071</v>
       </c>
       <c r="D75" t="n">
-        <v>0.740721</v>
+        <v>0.790819</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.38431</v>
+        <v>1.45814</v>
       </c>
       <c r="C76" t="n">
-        <v>1.3704</v>
+        <v>1.34943</v>
       </c>
       <c r="D76" t="n">
-        <v>0.822182</v>
+        <v>0.8197410000000001</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.46192</v>
+        <v>1.54869</v>
       </c>
       <c r="C77" t="n">
-        <v>1.65905</v>
+        <v>1.44349</v>
       </c>
       <c r="D77" t="n">
-        <v>0.866466</v>
+        <v>0.882499</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.73432</v>
+        <v>1.65208</v>
       </c>
       <c r="C78" t="n">
-        <v>1.72273</v>
+        <v>1.5548</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8708360000000001</v>
+        <v>0.889223</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.68262</v>
+        <v>1.7052</v>
       </c>
       <c r="C79" t="n">
-        <v>1.7131</v>
+        <v>1.60569</v>
       </c>
       <c r="D79" t="n">
-        <v>1.0005</v>
+        <v>0.97921</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.75916</v>
+        <v>1.7959</v>
       </c>
       <c r="C80" t="n">
-        <v>1.86295</v>
+        <v>1.75719</v>
       </c>
       <c r="D80" t="n">
-        <v>1.03735</v>
+        <v>1.05315</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.86175</v>
+        <v>1.944</v>
       </c>
       <c r="C81" t="n">
-        <v>2.01008</v>
+        <v>1.86978</v>
       </c>
       <c r="D81" t="n">
-        <v>1.14444</v>
+        <v>1.10515</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.02754</v>
+        <v>1.98747</v>
       </c>
       <c r="C82" t="n">
-        <v>2.1574</v>
+        <v>1.98277</v>
       </c>
       <c r="D82" t="n">
-        <v>1.16098</v>
+        <v>1.16418</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.09307</v>
+        <v>2.1181</v>
       </c>
       <c r="C83" t="n">
-        <v>1.50106</v>
+        <v>1.45465</v>
       </c>
       <c r="D83" t="n">
-        <v>0.892896</v>
+        <v>0.960809</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.19569</v>
+        <v>2.23786</v>
       </c>
       <c r="C84" t="n">
-        <v>1.55683</v>
+        <v>1.52005</v>
       </c>
       <c r="D84" t="n">
-        <v>0.980331</v>
+        <v>1.01702</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.25436</v>
+        <v>2.44598</v>
       </c>
       <c r="C85" t="n">
-        <v>1.63983</v>
+        <v>1.59447</v>
       </c>
       <c r="D85" t="n">
-        <v>0.956106</v>
+        <v>1.03777</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.35003</v>
+        <v>2.54437</v>
       </c>
       <c r="C86" t="n">
-        <v>1.7551</v>
+        <v>1.70647</v>
       </c>
       <c r="D86" t="n">
-        <v>1.05523</v>
+        <v>1.11991</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.54608</v>
+        <v>2.65501</v>
       </c>
       <c r="C87" t="n">
-        <v>1.78511</v>
+        <v>1.81315</v>
       </c>
       <c r="D87" t="n">
-        <v>1.14504</v>
+        <v>1.17791</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.74972</v>
+        <v>2.86897</v>
       </c>
       <c r="C88" t="n">
-        <v>1.99368</v>
+        <v>1.94562</v>
       </c>
       <c r="D88" t="n">
-        <v>1.16832</v>
+        <v>1.24216</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.77431</v>
+        <v>1.89582</v>
       </c>
       <c r="C89" t="n">
-        <v>2.06363</v>
+        <v>1.98447</v>
       </c>
       <c r="D89" t="n">
-        <v>1.24006</v>
+        <v>1.32552</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.93391</v>
+        <v>2.02129</v>
       </c>
       <c r="C90" t="n">
-        <v>2.16193</v>
+        <v>2.10592</v>
       </c>
       <c r="D90" t="n">
-        <v>1.25846</v>
+        <v>1.34405</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.95523</v>
+        <v>2.07978</v>
       </c>
       <c r="C91" t="n">
-        <v>2.32052</v>
+        <v>2.24116</v>
       </c>
       <c r="D91" t="n">
-        <v>1.38553</v>
+        <v>1.42395</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.0532</v>
+        <v>2.13903</v>
       </c>
       <c r="C92" t="n">
-        <v>2.4467</v>
+        <v>2.29779</v>
       </c>
       <c r="D92" t="n">
-        <v>1.47507</v>
+        <v>1.48459</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.17848</v>
+        <v>2.22727</v>
       </c>
       <c r="C93" t="n">
-        <v>2.42706</v>
+        <v>2.48648</v>
       </c>
       <c r="D93" t="n">
-        <v>1.41047</v>
+        <v>1.52354</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.25648</v>
+        <v>2.33768</v>
       </c>
       <c r="C94" t="n">
-        <v>2.63236</v>
+        <v>2.53018</v>
       </c>
       <c r="D94" t="n">
-        <v>1.52592</v>
+        <v>1.62543</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.29814</v>
+        <v>2.48025</v>
       </c>
       <c r="C95" t="n">
-        <v>2.77527</v>
+        <v>2.66148</v>
       </c>
       <c r="D95" t="n">
-        <v>1.62592</v>
+        <v>1.68334</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.41732</v>
+        <v>2.50719</v>
       </c>
       <c r="C96" t="n">
-        <v>2.85895</v>
+        <v>2.8202</v>
       </c>
       <c r="D96" t="n">
-        <v>1.69852</v>
+        <v>1.76238</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.62923</v>
+        <v>2.68804</v>
       </c>
       <c r="C97" t="n">
-        <v>2.02834</v>
+        <v>1.83075</v>
       </c>
       <c r="D97" t="n">
-        <v>1.30468</v>
+        <v>1.3106</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.62682</v>
+        <v>2.82553</v>
       </c>
       <c r="C98" t="n">
-        <v>1.9149</v>
+        <v>1.90597</v>
       </c>
       <c r="D98" t="n">
-        <v>1.34594</v>
+        <v>1.33596</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.78061</v>
+        <v>2.95965</v>
       </c>
       <c r="C99" t="n">
-        <v>2.00428</v>
+        <v>2.01279</v>
       </c>
       <c r="D99" t="n">
-        <v>1.42851</v>
+        <v>1.41727</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.869</v>
+        <v>3.09558</v>
       </c>
       <c r="C100" t="n">
-        <v>2.12686</v>
+        <v>2.09117</v>
       </c>
       <c r="D100" t="n">
-        <v>1.38881</v>
+        <v>1.47147</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.07716</v>
+        <v>3.23149</v>
       </c>
       <c r="C101" t="n">
-        <v>2.14944</v>
+        <v>2.12467</v>
       </c>
       <c r="D101" t="n">
-        <v>1.44192</v>
+        <v>1.5084</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.1702</v>
+        <v>3.45168</v>
       </c>
       <c r="C102" t="n">
-        <v>2.24983</v>
+        <v>2.23109</v>
       </c>
       <c r="D102" t="n">
-        <v>1.44716</v>
+        <v>1.59179</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.14135</v>
+        <v>2.20839</v>
       </c>
       <c r="C103" t="n">
-        <v>2.30913</v>
+        <v>2.30608</v>
       </c>
       <c r="D103" t="n">
-        <v>1.55904</v>
+        <v>1.62357</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.15759</v>
+        <v>2.32708</v>
       </c>
       <c r="C104" t="n">
-        <v>2.49535</v>
+        <v>2.45286</v>
       </c>
       <c r="D104" t="n">
-        <v>1.56849</v>
+        <v>1.68438</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.31673</v>
+        <v>2.37966</v>
       </c>
       <c r="C105" t="n">
-        <v>2.49392</v>
+        <v>2.50304</v>
       </c>
       <c r="D105" t="n">
-        <v>1.61767</v>
+        <v>1.73913</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.40651</v>
+        <v>2.51698</v>
       </c>
       <c r="C106" t="n">
-        <v>2.71185</v>
+        <v>2.54746</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71269</v>
+        <v>1.71671</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.40486</v>
+        <v>2.55854</v>
       </c>
       <c r="C107" t="n">
-        <v>2.74502</v>
+        <v>2.73499</v>
       </c>
       <c r="D107" t="n">
-        <v>1.69424</v>
+        <v>1.81414</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.55083</v>
+        <v>2.70149</v>
       </c>
       <c r="C108" t="n">
-        <v>2.8883</v>
+        <v>2.81443</v>
       </c>
       <c r="D108" t="n">
-        <v>1.80037</v>
+        <v>1.94806</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.63607</v>
+        <v>2.80816</v>
       </c>
       <c r="C109" t="n">
-        <v>3.11259</v>
+        <v>2.97658</v>
       </c>
       <c r="D109" t="n">
-        <v>1.85169</v>
+        <v>1.97844</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.69851</v>
+        <v>2.93192</v>
       </c>
       <c r="C110" t="n">
-        <v>3.13304</v>
+        <v>3.05409</v>
       </c>
       <c r="D110" t="n">
-        <v>1.91884</v>
+        <v>2.07244</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.78742</v>
+        <v>2.9738</v>
       </c>
       <c r="C111" t="n">
-        <v>2.03283</v>
+        <v>2.10782</v>
       </c>
       <c r="D111" t="n">
-        <v>1.43774</v>
+        <v>1.57713</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.88911</v>
+        <v>3.15915</v>
       </c>
       <c r="C112" t="n">
-        <v>2.08958</v>
+        <v>2.23295</v>
       </c>
       <c r="D112" t="n">
-        <v>1.50555</v>
+        <v>1.67598</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.98652</v>
+        <v>3.25778</v>
       </c>
       <c r="C113" t="n">
-        <v>2.23466</v>
+        <v>2.30125</v>
       </c>
       <c r="D113" t="n">
-        <v>1.56616</v>
+        <v>1.71418</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.16695</v>
+        <v>3.43033</v>
       </c>
       <c r="C114" t="n">
-        <v>2.25126</v>
+        <v>2.32031</v>
       </c>
       <c r="D114" t="n">
-        <v>1.59117</v>
+        <v>1.71958</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.23347</v>
+        <v>3.56427</v>
       </c>
       <c r="C115" t="n">
-        <v>2.35882</v>
+        <v>2.40508</v>
       </c>
       <c r="D115" t="n">
-        <v>1.64425</v>
+        <v>1.8124</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.42442</v>
+        <v>3.68215</v>
       </c>
       <c r="C116" t="n">
-        <v>2.44821</v>
+        <v>2.46111</v>
       </c>
       <c r="D116" t="n">
-        <v>1.66279</v>
+        <v>1.79501</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.23713</v>
+        <v>2.47134</v>
       </c>
       <c r="C117" t="n">
-        <v>2.54972</v>
+        <v>2.62779</v>
       </c>
       <c r="D117" t="n">
-        <v>1.73381</v>
+        <v>1.91811</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.31143</v>
+        <v>2.61972</v>
       </c>
       <c r="C118" t="n">
-        <v>2.6285</v>
+        <v>2.75411</v>
       </c>
       <c r="D118" t="n">
-        <v>1.75129</v>
+        <v>1.96876</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.36836</v>
+        <v>2.63456</v>
       </c>
       <c r="C119" t="n">
-        <v>2.73891</v>
+        <v>2.88971</v>
       </c>
       <c r="D119" t="n">
-        <v>1.7457</v>
+        <v>2.03077</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered successful looukp.xlsx
+++ b/vs/scattered successful looukp.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.215321</v>
+        <v>0.229567</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204444</v>
+        <v>0.214464</v>
       </c>
       <c r="D2" t="n">
-        <v>0.218152</v>
+        <v>0.221155</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.221655</v>
+        <v>0.231905</v>
       </c>
       <c r="C3" t="n">
-        <v>0.207351</v>
+        <v>0.224913</v>
       </c>
       <c r="D3" t="n">
-        <v>0.232593</v>
+        <v>0.239422</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.238923</v>
+        <v>0.248973</v>
       </c>
       <c r="C4" t="n">
-        <v>0.232752</v>
+        <v>0.22291</v>
       </c>
       <c r="D4" t="n">
-        <v>0.237596</v>
+        <v>0.240231</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.242069</v>
+        <v>0.253049</v>
       </c>
       <c r="C5" t="n">
-        <v>0.227137</v>
+        <v>0.233996</v>
       </c>
       <c r="D5" t="n">
-        <v>0.240512</v>
+        <v>0.239858</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.244321</v>
+        <v>0.241718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.234229</v>
+        <v>0.233029</v>
       </c>
       <c r="D6" t="n">
-        <v>0.246004</v>
+        <v>0.240603</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.253045</v>
+        <v>0.245008</v>
       </c>
       <c r="C7" t="n">
-        <v>0.199204</v>
+        <v>0.198943</v>
       </c>
       <c r="D7" t="n">
-        <v>0.214775</v>
+        <v>0.211479</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.250505</v>
+        <v>0.253744</v>
       </c>
       <c r="C8" t="n">
-        <v>0.19947</v>
+        <v>0.202041</v>
       </c>
       <c r="D8" t="n">
-        <v>0.208722</v>
+        <v>0.21727</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.257248</v>
+        <v>0.256717</v>
       </c>
       <c r="C9" t="n">
-        <v>0.204055</v>
+        <v>0.204174</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217194</v>
+        <v>0.211202</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.258216</v>
+        <v>0.257613</v>
       </c>
       <c r="C10" t="n">
-        <v>0.208457</v>
+        <v>0.202617</v>
       </c>
       <c r="D10" t="n">
-        <v>0.218633</v>
+        <v>0.223711</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.262781</v>
+        <v>0.262085</v>
       </c>
       <c r="C11" t="n">
-        <v>0.211361</v>
+        <v>0.206703</v>
       </c>
       <c r="D11" t="n">
-        <v>0.219119</v>
+        <v>0.220838</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.258669</v>
+        <v>0.256749</v>
       </c>
       <c r="C12" t="n">
-        <v>0.20818</v>
+        <v>0.209809</v>
       </c>
       <c r="D12" t="n">
-        <v>0.219949</v>
+        <v>0.221939</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.227629</v>
+        <v>0.221573</v>
       </c>
       <c r="C13" t="n">
-        <v>0.212303</v>
+        <v>0.210623</v>
       </c>
       <c r="D13" t="n">
-        <v>0.229227</v>
+        <v>0.221909</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.232343</v>
+        <v>0.235817</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217255</v>
+        <v>0.206691</v>
       </c>
       <c r="D14" t="n">
-        <v>0.230161</v>
+        <v>0.229301</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.226585</v>
+        <v>0.232299</v>
       </c>
       <c r="C15" t="n">
-        <v>0.211558</v>
+        <v>0.215046</v>
       </c>
       <c r="D15" t="n">
-        <v>0.235017</v>
+        <v>0.225061</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.236146</v>
+        <v>0.232327</v>
       </c>
       <c r="C16" t="n">
-        <v>0.215861</v>
+        <v>0.221802</v>
       </c>
       <c r="D16" t="n">
-        <v>0.244595</v>
+        <v>0.236301</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.231465</v>
+        <v>0.240477</v>
       </c>
       <c r="C17" t="n">
-        <v>0.224816</v>
+        <v>0.228063</v>
       </c>
       <c r="D17" t="n">
-        <v>0.252533</v>
+        <v>0.240458</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.238145</v>
+        <v>0.246707</v>
       </c>
       <c r="C18" t="n">
-        <v>0.225291</v>
+        <v>0.236664</v>
       </c>
       <c r="D18" t="n">
-        <v>0.250894</v>
+        <v>0.239731</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.23857</v>
+        <v>0.249343</v>
       </c>
       <c r="C19" t="n">
-        <v>0.230541</v>
+        <v>0.233342</v>
       </c>
       <c r="D19" t="n">
-        <v>0.240424</v>
+        <v>0.244913</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.247234</v>
+        <v>0.255704</v>
       </c>
       <c r="C20" t="n">
-        <v>0.231209</v>
+        <v>0.253043</v>
       </c>
       <c r="D20" t="n">
-        <v>0.248449</v>
+        <v>0.253906</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.255127</v>
+        <v>0.257432</v>
       </c>
       <c r="C21" t="n">
-        <v>0.200151</v>
+        <v>0.203325</v>
       </c>
       <c r="D21" t="n">
-        <v>0.222572</v>
+        <v>0.219385</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.255927</v>
+        <v>0.256593</v>
       </c>
       <c r="C22" t="n">
-        <v>0.204684</v>
+        <v>0.209553</v>
       </c>
       <c r="D22" t="n">
-        <v>0.224054</v>
+        <v>0.216128</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.256384</v>
+        <v>0.25657</v>
       </c>
       <c r="C23" t="n">
-        <v>0.20978</v>
+        <v>0.211585</v>
       </c>
       <c r="D23" t="n">
-        <v>0.228729</v>
+        <v>0.226319</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.266344</v>
+        <v>0.269084</v>
       </c>
       <c r="C24" t="n">
-        <v>0.210428</v>
+        <v>0.214527</v>
       </c>
       <c r="D24" t="n">
-        <v>0.22534</v>
+        <v>0.225235</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.273525</v>
+        <v>0.26492</v>
       </c>
       <c r="C25" t="n">
-        <v>0.211249</v>
+        <v>0.210899</v>
       </c>
       <c r="D25" t="n">
-        <v>0.230389</v>
+        <v>0.22829</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.271465</v>
+        <v>0.274317</v>
       </c>
       <c r="C26" t="n">
-        <v>0.216963</v>
+        <v>0.223799</v>
       </c>
       <c r="D26" t="n">
-        <v>0.239809</v>
+        <v>0.229005</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.245065</v>
+        <v>0.235686</v>
       </c>
       <c r="C27" t="n">
-        <v>0.212924</v>
+        <v>0.227727</v>
       </c>
       <c r="D27" t="n">
-        <v>0.23348</v>
+        <v>0.240137</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.23774</v>
+        <v>0.250348</v>
       </c>
       <c r="C28" t="n">
-        <v>0.23097</v>
+        <v>0.233121</v>
       </c>
       <c r="D28" t="n">
-        <v>0.241413</v>
+        <v>0.246752</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.240141</v>
+        <v>0.243465</v>
       </c>
       <c r="C29" t="n">
-        <v>0.234224</v>
+        <v>0.227026</v>
       </c>
       <c r="D29" t="n">
-        <v>0.253189</v>
+        <v>0.243009</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.255255</v>
+        <v>0.24937</v>
       </c>
       <c r="C30" t="n">
-        <v>0.231754</v>
+        <v>0.234671</v>
       </c>
       <c r="D30" t="n">
-        <v>0.264806</v>
+        <v>0.249079</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.250797</v>
+        <v>0.262346</v>
       </c>
       <c r="C31" t="n">
-        <v>0.244618</v>
+        <v>0.242061</v>
       </c>
       <c r="D31" t="n">
-        <v>0.264498</v>
+        <v>0.268094</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.262082</v>
+        <v>0.267755</v>
       </c>
       <c r="C32" t="n">
-        <v>0.258601</v>
+        <v>0.248743</v>
       </c>
       <c r="D32" t="n">
-        <v>0.269336</v>
+        <v>0.263847</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.270586</v>
+        <v>0.274791</v>
       </c>
       <c r="C33" t="n">
-        <v>0.252085</v>
+        <v>0.247425</v>
       </c>
       <c r="D33" t="n">
-        <v>0.260435</v>
+        <v>0.275802</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.279142</v>
+        <v>0.26724</v>
       </c>
       <c r="C34" t="n">
-        <v>0.26337</v>
+        <v>0.248274</v>
       </c>
       <c r="D34" t="n">
-        <v>0.277184</v>
+        <v>0.270432</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.281191</v>
+        <v>0.272757</v>
       </c>
       <c r="C35" t="n">
-        <v>0.22859</v>
+        <v>0.22688</v>
       </c>
       <c r="D35" t="n">
-        <v>0.240898</v>
+        <v>0.242053</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.283662</v>
+        <v>0.284495</v>
       </c>
       <c r="C36" t="n">
-        <v>0.227027</v>
+        <v>0.22689</v>
       </c>
       <c r="D36" t="n">
-        <v>0.238316</v>
+        <v>0.244249</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.295826</v>
+        <v>0.293015</v>
       </c>
       <c r="C37" t="n">
-        <v>0.233479</v>
+        <v>0.23807</v>
       </c>
       <c r="D37" t="n">
-        <v>0.255935</v>
+        <v>0.252629</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.304623</v>
+        <v>0.306567</v>
       </c>
       <c r="C38" t="n">
-        <v>0.244048</v>
+        <v>0.23977</v>
       </c>
       <c r="D38" t="n">
-        <v>0.263026</v>
+        <v>0.252967</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.318865</v>
+        <v>0.288623</v>
       </c>
       <c r="C39" t="n">
-        <v>0.252123</v>
+        <v>0.244884</v>
       </c>
       <c r="D39" t="n">
-        <v>0.260002</v>
+        <v>0.265307</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.316557</v>
+        <v>0.320429</v>
       </c>
       <c r="C40" t="n">
-        <v>0.247433</v>
+        <v>0.26351</v>
       </c>
       <c r="D40" t="n">
-        <v>0.267225</v>
+        <v>0.27412</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.331437</v>
+        <v>0.329495</v>
       </c>
       <c r="C41" t="n">
-        <v>0.27329</v>
+        <v>0.271062</v>
       </c>
       <c r="D41" t="n">
-        <v>0.267044</v>
+        <v>0.280516</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.341091</v>
+        <v>0.333559</v>
       </c>
       <c r="C42" t="n">
-        <v>0.276609</v>
+        <v>0.275004</v>
       </c>
       <c r="D42" t="n">
-        <v>0.279584</v>
+        <v>0.270037</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.341574</v>
+        <v>0.34751</v>
       </c>
       <c r="C43" t="n">
-        <v>0.269044</v>
+        <v>0.271256</v>
       </c>
       <c r="D43" t="n">
-        <v>0.289784</v>
+        <v>0.288971</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.362499</v>
+        <v>0.351189</v>
       </c>
       <c r="C44" t="n">
-        <v>0.278028</v>
+        <v>0.268766</v>
       </c>
       <c r="D44" t="n">
-        <v>0.286768</v>
+        <v>0.28886</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.373975</v>
+        <v>0.360571</v>
       </c>
       <c r="C45" t="n">
-        <v>0.291997</v>
+        <v>0.280257</v>
       </c>
       <c r="D45" t="n">
-        <v>0.304002</v>
+        <v>0.304544</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.373818</v>
+        <v>0.363549</v>
       </c>
       <c r="C46" t="n">
-        <v>0.286889</v>
+        <v>0.293579</v>
       </c>
       <c r="D46" t="n">
-        <v>0.319197</v>
+        <v>0.296332</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.385737</v>
+        <v>0.372346</v>
       </c>
       <c r="C47" t="n">
-        <v>0.306951</v>
+        <v>0.300566</v>
       </c>
       <c r="D47" t="n">
-        <v>0.315191</v>
+        <v>0.303901</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.396305</v>
+        <v>0.385438</v>
       </c>
       <c r="C48" t="n">
-        <v>0.306882</v>
+        <v>0.316101</v>
       </c>
       <c r="D48" t="n">
-        <v>0.337252</v>
+        <v>0.33339</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.409116</v>
+        <v>0.406821</v>
       </c>
       <c r="C49" t="n">
-        <v>0.318792</v>
+        <v>0.315057</v>
       </c>
       <c r="D49" t="n">
-        <v>0.351009</v>
+        <v>0.32835</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.434378</v>
+        <v>0.435565</v>
       </c>
       <c r="C50" t="n">
-        <v>0.323927</v>
+        <v>0.315692</v>
       </c>
       <c r="D50" t="n">
-        <v>0.321523</v>
+        <v>0.336587</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.439656</v>
+        <v>0.430774</v>
       </c>
       <c r="C51" t="n">
-        <v>0.335715</v>
+        <v>0.332932</v>
       </c>
       <c r="D51" t="n">
-        <v>0.341603</v>
+        <v>0.334729</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.476344</v>
+        <v>0.433795</v>
       </c>
       <c r="C52" t="n">
-        <v>0.351445</v>
+        <v>0.337381</v>
       </c>
       <c r="D52" t="n">
-        <v>0.352497</v>
+        <v>0.338171</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.516673</v>
+        <v>0.456081</v>
       </c>
       <c r="C53" t="n">
-        <v>0.36084</v>
+        <v>0.340429</v>
       </c>
       <c r="D53" t="n">
-        <v>0.351649</v>
+        <v>0.349534</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.470022</v>
+        <v>0.470586</v>
       </c>
       <c r="C54" t="n">
-        <v>0.345864</v>
+        <v>0.359844</v>
       </c>
       <c r="D54" t="n">
-        <v>0.361068</v>
+        <v>0.36118</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.504574</v>
+        <v>0.490881</v>
       </c>
       <c r="C55" t="n">
-        <v>0.380961</v>
+        <v>0.387127</v>
       </c>
       <c r="D55" t="n">
-        <v>0.386395</v>
+        <v>0.383421</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.606233</v>
+        <v>0.587646</v>
       </c>
       <c r="C56" t="n">
-        <v>0.389824</v>
+        <v>0.365251</v>
       </c>
       <c r="D56" t="n">
-        <v>0.382602</v>
+        <v>0.399558</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.622502</v>
+        <v>0.552647</v>
       </c>
       <c r="C57" t="n">
-        <v>0.402575</v>
+        <v>0.390178</v>
       </c>
       <c r="D57" t="n">
-        <v>0.401647</v>
+        <v>0.406273</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.668313</v>
+        <v>0.580329</v>
       </c>
       <c r="C58" t="n">
-        <v>0.428696</v>
+        <v>0.40304</v>
       </c>
       <c r="D58" t="n">
-        <v>0.430624</v>
+        <v>0.41674</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.660397</v>
+        <v>0.627074</v>
       </c>
       <c r="C59" t="n">
-        <v>0.451993</v>
+        <v>0.422433</v>
       </c>
       <c r="D59" t="n">
-        <v>0.465462</v>
+        <v>0.475993</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.667449</v>
+        <v>0.650637</v>
       </c>
       <c r="C60" t="n">
-        <v>0.456694</v>
+        <v>0.440845</v>
       </c>
       <c r="D60" t="n">
-        <v>0.481046</v>
+        <v>0.494708</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.661481</v>
+        <v>0.669558</v>
       </c>
       <c r="C61" t="n">
-        <v>0.480108</v>
+        <v>0.486927</v>
       </c>
       <c r="D61" t="n">
-        <v>0.458881</v>
+        <v>0.518999</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.715544</v>
+        <v>0.680887</v>
       </c>
       <c r="C62" t="n">
-        <v>0.498608</v>
+        <v>0.47226</v>
       </c>
       <c r="D62" t="n">
-        <v>0.48762</v>
+        <v>0.500555</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.704435</v>
+        <v>0.705349</v>
       </c>
       <c r="C63" t="n">
-        <v>0.493369</v>
+        <v>0.527505</v>
       </c>
       <c r="D63" t="n">
-        <v>0.492235</v>
+        <v>0.543898</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.704209</v>
+        <v>0.71632</v>
       </c>
       <c r="C64" t="n">
-        <v>0.543582</v>
+        <v>0.546111</v>
       </c>
       <c r="D64" t="n">
-        <v>0.588842</v>
+        <v>0.550783</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.788946</v>
+        <v>0.732993</v>
       </c>
       <c r="C65" t="n">
-        <v>0.558858</v>
+        <v>0.605562</v>
       </c>
       <c r="D65" t="n">
-        <v>0.611269</v>
+        <v>0.577166</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.779177</v>
+        <v>0.751173</v>
       </c>
       <c r="C66" t="n">
-        <v>0.575905</v>
+        <v>0.561951</v>
       </c>
       <c r="D66" t="n">
-        <v>0.628865</v>
+        <v>0.5888370000000001</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7723449999999999</v>
+        <v>0.793521</v>
       </c>
       <c r="C67" t="n">
-        <v>0.581963</v>
+        <v>0.601057</v>
       </c>
       <c r="D67" t="n">
-        <v>0.608585</v>
+        <v>0.60548</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.795531</v>
+        <v>0.810718</v>
       </c>
       <c r="C68" t="n">
-        <v>0.602001</v>
+        <v>0.589039</v>
       </c>
       <c r="D68" t="n">
-        <v>0.623162</v>
+        <v>0.662254</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.812451</v>
+        <v>0.824783</v>
       </c>
       <c r="C69" t="n">
-        <v>0.606638</v>
+        <v>0.650743</v>
       </c>
       <c r="D69" t="n">
-        <v>0.632735</v>
+        <v>0.668457</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.843387</v>
+        <v>0.827884</v>
       </c>
       <c r="C70" t="n">
-        <v>0.666701</v>
+        <v>0.624421</v>
       </c>
       <c r="D70" t="n">
-        <v>0.700592</v>
+        <v>0.668448</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.865664</v>
+        <v>0.831719</v>
       </c>
       <c r="C71" t="n">
-        <v>0.654056</v>
+        <v>0.65722</v>
       </c>
       <c r="D71" t="n">
-        <v>0.674188</v>
+        <v>0.697491</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.842515</v>
+        <v>0.848413</v>
       </c>
       <c r="C72" t="n">
-        <v>0.693855</v>
+        <v>0.704599</v>
       </c>
       <c r="D72" t="n">
-        <v>0.704251</v>
+        <v>0.742884</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.876197</v>
+        <v>0.857744</v>
       </c>
       <c r="C73" t="n">
-        <v>0.685371</v>
+        <v>0.693786</v>
       </c>
       <c r="D73" t="n">
-        <v>0.702829</v>
+        <v>0.716855</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.887386</v>
+        <v>0.890968</v>
       </c>
       <c r="C74" t="n">
-        <v>0.728939</v>
+        <v>0.6982699999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.748354</v>
+        <v>0.7479749999999999</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.874759</v>
+        <v>0.886649</v>
       </c>
       <c r="C75" t="n">
-        <v>0.72892</v>
+        <v>0.74538</v>
       </c>
       <c r="D75" t="n">
-        <v>0.762823</v>
+        <v>0.759447</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.920358</v>
+        <v>0.925847</v>
       </c>
       <c r="C76" t="n">
-        <v>0.75016</v>
+        <v>0.763858</v>
       </c>
       <c r="D76" t="n">
-        <v>0.759413</v>
+        <v>0.806423</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9047539999999999</v>
+        <v>0.903746</v>
       </c>
       <c r="C77" t="n">
-        <v>0.778216</v>
+        <v>0.802274</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8121390000000001</v>
+        <v>0.816805</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.913557</v>
+        <v>0.967244</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7837150000000001</v>
+        <v>0.791399</v>
       </c>
       <c r="D78" t="n">
-        <v>0.787309</v>
+        <v>0.850127</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.966777</v>
+        <v>0.9502</v>
       </c>
       <c r="C79" t="n">
-        <v>0.765312</v>
+        <v>0.779573</v>
       </c>
       <c r="D79" t="n">
-        <v>0.834487</v>
+        <v>0.808442</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.973019</v>
+        <v>0.94559</v>
       </c>
       <c r="C80" t="n">
-        <v>0.771694</v>
+        <v>0.797778</v>
       </c>
       <c r="D80" t="n">
-        <v>0.834696</v>
+        <v>0.817172</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.974919</v>
+        <v>0.991347</v>
       </c>
       <c r="C81" t="n">
-        <v>0.807871</v>
+        <v>0.821119</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8481030000000001</v>
+        <v>0.856823</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.01059</v>
+        <v>1.01001</v>
       </c>
       <c r="C82" t="n">
-        <v>0.814317</v>
+        <v>0.822226</v>
       </c>
       <c r="D82" t="n">
-        <v>0.857676</v>
+        <v>0.848755</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.05241</v>
+        <v>1.02707</v>
       </c>
       <c r="C83" t="n">
-        <v>0.847003</v>
+        <v>0.836626</v>
       </c>
       <c r="D83" t="n">
-        <v>0.889154</v>
+        <v>0.866864</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9467179999999999</v>
+        <v>0.979193</v>
       </c>
       <c r="C84" t="n">
-        <v>0.859051</v>
+        <v>0.850515</v>
       </c>
       <c r="D84" t="n">
-        <v>0.873153</v>
+        <v>0.8862989999999999</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.993552</v>
+        <v>0.972683</v>
       </c>
       <c r="C85" t="n">
-        <v>0.86697</v>
+        <v>0.883796</v>
       </c>
       <c r="D85" t="n">
-        <v>0.90564</v>
+        <v>0.913372</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.972337</v>
+        <v>0.968895</v>
       </c>
       <c r="C86" t="n">
-        <v>0.886084</v>
+        <v>0.903529</v>
       </c>
       <c r="D86" t="n">
-        <v>0.927052</v>
+        <v>0.916748</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.980434</v>
+        <v>0.9906</v>
       </c>
       <c r="C87" t="n">
-        <v>0.890557</v>
+        <v>0.9182169999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.955929</v>
+        <v>0.973368</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.00487</v>
+        <v>0.980509</v>
       </c>
       <c r="C88" t="n">
-        <v>0.912319</v>
+        <v>0.922848</v>
       </c>
       <c r="D88" t="n">
-        <v>0.952398</v>
+        <v>0.971588</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.00695</v>
+        <v>1.03624</v>
       </c>
       <c r="C89" t="n">
-        <v>0.920145</v>
+        <v>0.937615</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9620339999999999</v>
+        <v>0.982641</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.04808</v>
+        <v>1.01802</v>
       </c>
       <c r="C90" t="n">
-        <v>0.956013</v>
+        <v>0.9372</v>
       </c>
       <c r="D90" t="n">
-        <v>0.974577</v>
+        <v>0.9831220000000001</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.04343</v>
+        <v>1.0458</v>
       </c>
       <c r="C91" t="n">
-        <v>0.945529</v>
+        <v>0.985247</v>
       </c>
       <c r="D91" t="n">
-        <v>0.988892</v>
+        <v>1.04344</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.07479</v>
+        <v>1.0476</v>
       </c>
       <c r="C92" t="n">
-        <v>0.910781</v>
+        <v>0.901541</v>
       </c>
       <c r="D92" t="n">
-        <v>0.91715</v>
+        <v>0.915177</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.07505</v>
+        <v>1.08573</v>
       </c>
       <c r="C93" t="n">
-        <v>0.944832</v>
+        <v>0.946842</v>
       </c>
       <c r="D93" t="n">
-        <v>0.948763</v>
+        <v>0.939584</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.0847</v>
+        <v>1.08114</v>
       </c>
       <c r="C94" t="n">
-        <v>0.906511</v>
+        <v>0.924992</v>
       </c>
       <c r="D94" t="n">
-        <v>0.972859</v>
+        <v>0.985771</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.11266</v>
+        <v>1.09584</v>
       </c>
       <c r="C95" t="n">
-        <v>0.928558</v>
+        <v>0.945148</v>
       </c>
       <c r="D95" t="n">
-        <v>0.969712</v>
+        <v>0.982668</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.14357</v>
+        <v>1.12469</v>
       </c>
       <c r="C96" t="n">
-        <v>0.949414</v>
+        <v>0.9580920000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.986939</v>
+        <v>0.98669</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.11588</v>
+        <v>1.12229</v>
       </c>
       <c r="C97" t="n">
-        <v>0.975533</v>
+        <v>0.979094</v>
       </c>
       <c r="D97" t="n">
-        <v>1.00663</v>
+        <v>1.01438</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.00057</v>
+        <v>1.02403</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9607250000000001</v>
+        <v>0.957063</v>
       </c>
       <c r="D98" t="n">
-        <v>0.984353</v>
+        <v>1.01239</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.05927</v>
+        <v>1.02785</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00531</v>
+        <v>0.986702</v>
       </c>
       <c r="D99" t="n">
-        <v>1.03413</v>
+        <v>1.02963</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.04225</v>
+        <v>1.0684</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01134</v>
+        <v>0.990736</v>
       </c>
       <c r="D100" t="n">
-        <v>1.03383</v>
+        <v>1.0474</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.06657</v>
+        <v>1.09589</v>
       </c>
       <c r="C101" t="n">
-        <v>1.01624</v>
+        <v>1.03353</v>
       </c>
       <c r="D101" t="n">
-        <v>1.05305</v>
+        <v>1.07993</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.10021</v>
+        <v>1.07822</v>
       </c>
       <c r="C102" t="n">
-        <v>1.02928</v>
+        <v>1.04989</v>
       </c>
       <c r="D102" t="n">
-        <v>1.0682</v>
+        <v>1.08292</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.10984</v>
+        <v>1.09112</v>
       </c>
       <c r="C103" t="n">
-        <v>1.05826</v>
+        <v>1.068</v>
       </c>
       <c r="D103" t="n">
-        <v>1.08882</v>
+        <v>1.08909</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.11224</v>
+        <v>1.14417</v>
       </c>
       <c r="C104" t="n">
-        <v>1.06072</v>
+        <v>1.10084</v>
       </c>
       <c r="D104" t="n">
-        <v>1.10765</v>
+        <v>1.13784</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.14099</v>
+        <v>1.14257</v>
       </c>
       <c r="C105" t="n">
-        <v>1.10303</v>
+        <v>1.11975</v>
       </c>
       <c r="D105" t="n">
-        <v>1.12975</v>
+        <v>1.14346</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.16422</v>
+        <v>1.15676</v>
       </c>
       <c r="C106" t="n">
-        <v>1.13125</v>
+        <v>1.12207</v>
       </c>
       <c r="D106" t="n">
-        <v>1.15002</v>
+        <v>1.15227</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.19132</v>
+        <v>1.17028</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03539</v>
+        <v>1.00668</v>
       </c>
       <c r="D107" t="n">
-        <v>1.0664</v>
+        <v>1.06324</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.18218</v>
+        <v>1.19024</v>
       </c>
       <c r="C108" t="n">
-        <v>1.02739</v>
+        <v>1.01106</v>
       </c>
       <c r="D108" t="n">
-        <v>1.07718</v>
+        <v>1.05631</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.19288</v>
+        <v>1.19994</v>
       </c>
       <c r="C109" t="n">
-        <v>1.04153</v>
+        <v>1.03359</v>
       </c>
       <c r="D109" t="n">
-        <v>1.07033</v>
+        <v>1.06444</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.22388</v>
+        <v>1.25032</v>
       </c>
       <c r="C110" t="n">
-        <v>1.07402</v>
+        <v>1.05447</v>
       </c>
       <c r="D110" t="n">
-        <v>1.07879</v>
+        <v>1.07756</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.23881</v>
+        <v>1.2697</v>
       </c>
       <c r="C111" t="n">
-        <v>1.06908</v>
+        <v>1.05212</v>
       </c>
       <c r="D111" t="n">
-        <v>1.09846</v>
+        <v>1.07343</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.11624</v>
+        <v>1.13344</v>
       </c>
       <c r="C112" t="n">
-        <v>1.07825</v>
+        <v>1.07371</v>
       </c>
       <c r="D112" t="n">
-        <v>1.12327</v>
+        <v>1.10663</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.11856</v>
+        <v>1.10624</v>
       </c>
       <c r="C113" t="n">
-        <v>1.10356</v>
+        <v>1.09514</v>
       </c>
       <c r="D113" t="n">
-        <v>1.14391</v>
+        <v>1.14911</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.10364</v>
+        <v>1.17711</v>
       </c>
       <c r="C114" t="n">
-        <v>1.09794</v>
+        <v>1.10214</v>
       </c>
       <c r="D114" t="n">
-        <v>1.14261</v>
+        <v>1.1661</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.20478</v>
+        <v>1.17676</v>
       </c>
       <c r="C115" t="n">
-        <v>1.10209</v>
+        <v>1.11661</v>
       </c>
       <c r="D115" t="n">
-        <v>1.16966</v>
+        <v>1.15521</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.1547</v>
+        <v>1.22026</v>
       </c>
       <c r="C116" t="n">
-        <v>1.13722</v>
+        <v>1.15203</v>
       </c>
       <c r="D116" t="n">
-        <v>1.20155</v>
+        <v>1.20541</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.16567</v>
+        <v>1.20651</v>
       </c>
       <c r="C117" t="n">
-        <v>1.1461</v>
+        <v>1.1534</v>
       </c>
       <c r="D117" t="n">
-        <v>1.21561</v>
+        <v>1.21229</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.21037</v>
+        <v>1.24183</v>
       </c>
       <c r="C118" t="n">
-        <v>1.18338</v>
+        <v>1.19991</v>
       </c>
       <c r="D118" t="n">
-        <v>1.24083</v>
+        <v>1.23969</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.19977</v>
+        <v>1.25284</v>
       </c>
       <c r="C119" t="n">
-        <v>1.19308</v>
+        <v>1.21592</v>
       </c>
       <c r="D119" t="n">
-        <v>1.25335</v>
+        <v>1.2594</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.236017</v>
+        <v>0.25803</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187801</v>
+        <v>0.226339</v>
       </c>
       <c r="D2" t="n">
-        <v>0.200315</v>
+        <v>0.206026</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.24589</v>
+        <v>0.239789</v>
       </c>
       <c r="C3" t="n">
-        <v>0.21587</v>
+        <v>0.237199</v>
       </c>
       <c r="D3" t="n">
-        <v>0.204419</v>
+        <v>0.193742</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.251163</v>
+        <v>0.251147</v>
       </c>
       <c r="C4" t="n">
-        <v>0.203572</v>
+        <v>0.230649</v>
       </c>
       <c r="D4" t="n">
-        <v>0.195002</v>
+        <v>0.20867</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.246494</v>
+        <v>0.245224</v>
       </c>
       <c r="C5" t="n">
-        <v>0.204263</v>
+        <v>0.234335</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200066</v>
+        <v>0.190118</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.259267</v>
+        <v>0.249468</v>
       </c>
       <c r="C6" t="n">
-        <v>0.220876</v>
+        <v>0.240731</v>
       </c>
       <c r="D6" t="n">
-        <v>0.220117</v>
+        <v>0.203152</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.259933</v>
+        <v>0.260581</v>
       </c>
       <c r="C7" t="n">
-        <v>0.198133</v>
+        <v>0.20273</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211898</v>
+        <v>0.225923</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.254376</v>
+        <v>0.265049</v>
       </c>
       <c r="C8" t="n">
-        <v>0.200138</v>
+        <v>0.201966</v>
       </c>
       <c r="D8" t="n">
-        <v>0.218699</v>
+        <v>0.218185</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.280487</v>
+        <v>0.268065</v>
       </c>
       <c r="C9" t="n">
-        <v>0.209965</v>
+        <v>0.208231</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217325</v>
+        <v>0.21838</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.270604</v>
+        <v>0.278822</v>
       </c>
       <c r="C10" t="n">
-        <v>0.20728</v>
+        <v>0.22759</v>
       </c>
       <c r="D10" t="n">
-        <v>0.217067</v>
+        <v>0.218941</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.265171</v>
+        <v>0.280313</v>
       </c>
       <c r="C11" t="n">
-        <v>0.209959</v>
+        <v>0.211881</v>
       </c>
       <c r="D11" t="n">
-        <v>0.218298</v>
+        <v>0.21952</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.277885</v>
+        <v>0.273472</v>
       </c>
       <c r="C12" t="n">
-        <v>0.217721</v>
+        <v>0.2244</v>
       </c>
       <c r="D12" t="n">
-        <v>0.220925</v>
+        <v>0.223363</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.240874</v>
+        <v>0.255279</v>
       </c>
       <c r="C13" t="n">
-        <v>0.209696</v>
+        <v>0.222471</v>
       </c>
       <c r="D13" t="n">
-        <v>0.214077</v>
+        <v>0.221173</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.253605</v>
+        <v>0.259848</v>
       </c>
       <c r="C14" t="n">
-        <v>0.207994</v>
+        <v>0.212143</v>
       </c>
       <c r="D14" t="n">
-        <v>0.214051</v>
+        <v>0.232914</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.242953</v>
+        <v>0.25965</v>
       </c>
       <c r="C15" t="n">
-        <v>0.218578</v>
+        <v>0.221003</v>
       </c>
       <c r="D15" t="n">
-        <v>0.221044</v>
+        <v>0.218522</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.249375</v>
+        <v>0.257067</v>
       </c>
       <c r="C16" t="n">
-        <v>0.219963</v>
+        <v>0.221012</v>
       </c>
       <c r="D16" t="n">
-        <v>0.217454</v>
+        <v>0.224462</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.255553</v>
+        <v>0.267198</v>
       </c>
       <c r="C17" t="n">
-        <v>0.216904</v>
+        <v>0.225625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.22201</v>
+        <v>0.221394</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.27532</v>
+        <v>0.257719</v>
       </c>
       <c r="C18" t="n">
-        <v>0.23778</v>
+        <v>0.226995</v>
       </c>
       <c r="D18" t="n">
-        <v>0.239335</v>
+        <v>0.235735</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.269665</v>
+        <v>0.26263</v>
       </c>
       <c r="C19" t="n">
-        <v>0.242925</v>
+        <v>0.236949</v>
       </c>
       <c r="D19" t="n">
-        <v>0.233733</v>
+        <v>0.229187</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.283612</v>
+        <v>0.277694</v>
       </c>
       <c r="C20" t="n">
-        <v>0.245211</v>
+        <v>0.232072</v>
       </c>
       <c r="D20" t="n">
-        <v>0.234357</v>
+        <v>0.244049</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.276333</v>
+        <v>0.280397</v>
       </c>
       <c r="C21" t="n">
-        <v>0.212723</v>
+        <v>0.231615</v>
       </c>
       <c r="D21" t="n">
-        <v>0.23389</v>
+        <v>0.234487</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.277896</v>
+        <v>0.286287</v>
       </c>
       <c r="C22" t="n">
-        <v>0.230079</v>
+        <v>0.224023</v>
       </c>
       <c r="D22" t="n">
-        <v>0.230075</v>
+        <v>0.232877</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.295668</v>
+        <v>0.291748</v>
       </c>
       <c r="C23" t="n">
-        <v>0.229168</v>
+        <v>0.222049</v>
       </c>
       <c r="D23" t="n">
-        <v>0.238554</v>
+        <v>0.233908</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.292501</v>
+        <v>0.284448</v>
       </c>
       <c r="C24" t="n">
-        <v>0.233962</v>
+        <v>0.24056</v>
       </c>
       <c r="D24" t="n">
-        <v>0.24158</v>
+        <v>0.238666</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.301086</v>
+        <v>0.306347</v>
       </c>
       <c r="C25" t="n">
-        <v>0.249771</v>
+        <v>0.247767</v>
       </c>
       <c r="D25" t="n">
-        <v>0.24457</v>
+        <v>0.247082</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.309656</v>
+        <v>0.317288</v>
       </c>
       <c r="C26" t="n">
-        <v>0.245181</v>
+        <v>0.273614</v>
       </c>
       <c r="D26" t="n">
-        <v>0.253378</v>
+        <v>0.243314</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.288248</v>
+        <v>0.287808</v>
       </c>
       <c r="C27" t="n">
-        <v>0.251759</v>
+        <v>0.251322</v>
       </c>
       <c r="D27" t="n">
-        <v>0.239632</v>
+        <v>0.246355</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.28995</v>
+        <v>0.286402</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247887</v>
+        <v>0.258334</v>
       </c>
       <c r="D28" t="n">
-        <v>0.251689</v>
+        <v>0.247109</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.301043</v>
+        <v>0.298986</v>
       </c>
       <c r="C29" t="n">
-        <v>0.265259</v>
+        <v>0.258931</v>
       </c>
       <c r="D29" t="n">
-        <v>0.265071</v>
+        <v>0.246564</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.301856</v>
+        <v>0.30378</v>
       </c>
       <c r="C30" t="n">
-        <v>0.278762</v>
+        <v>0.270238</v>
       </c>
       <c r="D30" t="n">
-        <v>0.248723</v>
+        <v>0.265028</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.316867</v>
+        <v>0.317229</v>
       </c>
       <c r="C31" t="n">
-        <v>0.265511</v>
+        <v>0.273857</v>
       </c>
       <c r="D31" t="n">
-        <v>0.249706</v>
+        <v>0.269014</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.330298</v>
+        <v>0.325655</v>
       </c>
       <c r="C32" t="n">
-        <v>0.280014</v>
+        <v>0.284823</v>
       </c>
       <c r="D32" t="n">
-        <v>0.263623</v>
+        <v>0.26052</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.317572</v>
+        <v>0.353673</v>
       </c>
       <c r="C33" t="n">
-        <v>0.290022</v>
+        <v>0.296705</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2694</v>
+        <v>0.269716</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.331395</v>
+        <v>0.338625</v>
       </c>
       <c r="C34" t="n">
-        <v>0.293617</v>
+        <v>0.305206</v>
       </c>
       <c r="D34" t="n">
-        <v>0.265716</v>
+        <v>0.26983</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.35363</v>
+        <v>0.343522</v>
       </c>
       <c r="C35" t="n">
-        <v>0.250493</v>
+        <v>0.250681</v>
       </c>
       <c r="D35" t="n">
-        <v>0.255355</v>
+        <v>0.250412</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.364784</v>
+        <v>0.364763</v>
       </c>
       <c r="C36" t="n">
-        <v>0.272417</v>
+        <v>0.256052</v>
       </c>
       <c r="D36" t="n">
-        <v>0.266109</v>
+        <v>0.254176</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.354515</v>
+        <v>0.376953</v>
       </c>
       <c r="C37" t="n">
-        <v>0.256783</v>
+        <v>0.261513</v>
       </c>
       <c r="D37" t="n">
-        <v>0.260113</v>
+        <v>0.268331</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.378806</v>
+        <v>0.378171</v>
       </c>
       <c r="C38" t="n">
-        <v>0.277437</v>
+        <v>0.272174</v>
       </c>
       <c r="D38" t="n">
-        <v>0.26555</v>
+        <v>0.281877</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.37853</v>
+        <v>0.38858</v>
       </c>
       <c r="C39" t="n">
-        <v>0.288989</v>
+        <v>0.287802</v>
       </c>
       <c r="D39" t="n">
-        <v>0.27966</v>
+        <v>0.270128</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.418708</v>
+        <v>0.410333</v>
       </c>
       <c r="C40" t="n">
-        <v>0.288642</v>
+        <v>0.299551</v>
       </c>
       <c r="D40" t="n">
-        <v>0.281127</v>
+        <v>0.280074</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.394186</v>
+        <v>0.392968</v>
       </c>
       <c r="C41" t="n">
-        <v>0.294781</v>
+        <v>0.298324</v>
       </c>
       <c r="D41" t="n">
-        <v>0.274772</v>
+        <v>0.281319</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.407354</v>
+        <v>0.408428</v>
       </c>
       <c r="C42" t="n">
-        <v>0.296728</v>
+        <v>0.312189</v>
       </c>
       <c r="D42" t="n">
-        <v>0.287643</v>
+        <v>0.2924</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.420753</v>
+        <v>0.425334</v>
       </c>
       <c r="C43" t="n">
-        <v>0.304494</v>
+        <v>0.311306</v>
       </c>
       <c r="D43" t="n">
-        <v>0.291527</v>
+        <v>0.29792</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.426845</v>
+        <v>0.42785</v>
       </c>
       <c r="C44" t="n">
-        <v>0.328964</v>
+        <v>0.326286</v>
       </c>
       <c r="D44" t="n">
-        <v>0.296372</v>
+        <v>0.291935</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.431623</v>
+        <v>0.426144</v>
       </c>
       <c r="C45" t="n">
-        <v>0.324064</v>
+        <v>0.336147</v>
       </c>
       <c r="D45" t="n">
-        <v>0.315997</v>
+        <v>0.31041</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.44159</v>
+        <v>0.436588</v>
       </c>
       <c r="C46" t="n">
-        <v>0.341482</v>
+        <v>0.343178</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3225</v>
+        <v>0.31228</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.445728</v>
+        <v>0.447431</v>
       </c>
       <c r="C47" t="n">
-        <v>0.354183</v>
+        <v>0.357117</v>
       </c>
       <c r="D47" t="n">
-        <v>0.318253</v>
+        <v>0.318513</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.475191</v>
+        <v>0.479592</v>
       </c>
       <c r="C48" t="n">
-        <v>0.367837</v>
+        <v>0.373361</v>
       </c>
       <c r="D48" t="n">
-        <v>0.322989</v>
+        <v>0.330345</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.476311</v>
+        <v>0.47456</v>
       </c>
       <c r="C49" t="n">
-        <v>0.37867</v>
+        <v>0.383599</v>
       </c>
       <c r="D49" t="n">
-        <v>0.318408</v>
+        <v>0.325426</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.485405</v>
+        <v>0.512549</v>
       </c>
       <c r="C50" t="n">
-        <v>0.373191</v>
+        <v>0.37481</v>
       </c>
       <c r="D50" t="n">
-        <v>0.342158</v>
+        <v>0.335485</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.490557</v>
+        <v>0.50432</v>
       </c>
       <c r="C51" t="n">
-        <v>0.383449</v>
+        <v>0.392058</v>
       </c>
       <c r="D51" t="n">
-        <v>0.354973</v>
+        <v>0.361375</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.512923</v>
+        <v>0.538036</v>
       </c>
       <c r="C52" t="n">
-        <v>0.384473</v>
+        <v>0.402719</v>
       </c>
       <c r="D52" t="n">
-        <v>0.353327</v>
+        <v>0.359063</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.535002</v>
+        <v>0.535934</v>
       </c>
       <c r="C53" t="n">
-        <v>0.403849</v>
+        <v>0.400928</v>
       </c>
       <c r="D53" t="n">
-        <v>0.373937</v>
+        <v>0.365104</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.556067</v>
+        <v>0.568062</v>
       </c>
       <c r="C54" t="n">
-        <v>0.411504</v>
+        <v>0.416845</v>
       </c>
       <c r="D54" t="n">
-        <v>0.362046</v>
+        <v>0.36702</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.556792</v>
+        <v>0.560885</v>
       </c>
       <c r="C55" t="n">
-        <v>0.426276</v>
+        <v>0.415924</v>
       </c>
       <c r="D55" t="n">
-        <v>0.387836</v>
+        <v>0.373509</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.530063</v>
+        <v>0.517027</v>
       </c>
       <c r="C56" t="n">
-        <v>0.439795</v>
+        <v>0.421542</v>
       </c>
       <c r="D56" t="n">
-        <v>0.390592</v>
+        <v>0.395167</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.523923</v>
+        <v>0.541782</v>
       </c>
       <c r="C57" t="n">
-        <v>0.454749</v>
+        <v>0.460633</v>
       </c>
       <c r="D57" t="n">
-        <v>0.391711</v>
+        <v>0.404995</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.556378</v>
+        <v>0.536729</v>
       </c>
       <c r="C58" t="n">
-        <v>0.471572</v>
+        <v>0.478518</v>
       </c>
       <c r="D58" t="n">
-        <v>0.415367</v>
+        <v>0.415897</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.576067</v>
+        <v>0.583476</v>
       </c>
       <c r="C59" t="n">
-        <v>0.492217</v>
+        <v>0.485408</v>
       </c>
       <c r="D59" t="n">
-        <v>0.407099</v>
+        <v>0.419874</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.576535</v>
+        <v>0.601085</v>
       </c>
       <c r="C60" t="n">
-        <v>0.493694</v>
+        <v>0.500381</v>
       </c>
       <c r="D60" t="n">
-        <v>0.436867</v>
+        <v>0.423087</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.605927</v>
+        <v>0.611252</v>
       </c>
       <c r="C61" t="n">
-        <v>0.511872</v>
+        <v>0.5182330000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.459923</v>
+        <v>0.437718</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.602752</v>
+        <v>0.622261</v>
       </c>
       <c r="C62" t="n">
-        <v>0.548418</v>
+        <v>0.530184</v>
       </c>
       <c r="D62" t="n">
-        <v>0.444766</v>
+        <v>0.450027</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.658206</v>
+        <v>0.629038</v>
       </c>
       <c r="C63" t="n">
-        <v>0.552696</v>
+        <v>0.551484</v>
       </c>
       <c r="D63" t="n">
-        <v>0.453133</v>
+        <v>0.455684</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.663559</v>
+        <v>0.652779</v>
       </c>
       <c r="C64" t="n">
-        <v>0.545598</v>
+        <v>0.520523</v>
       </c>
       <c r="D64" t="n">
-        <v>0.485178</v>
+        <v>0.484308</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6752590000000001</v>
+        <v>0.692066</v>
       </c>
       <c r="C65" t="n">
-        <v>0.535291</v>
+        <v>0.537608</v>
       </c>
       <c r="D65" t="n">
-        <v>0.502642</v>
+        <v>0.481015</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.729243</v>
+        <v>0.727212</v>
       </c>
       <c r="C66" t="n">
-        <v>0.556149</v>
+        <v>0.577243</v>
       </c>
       <c r="D66" t="n">
-        <v>0.512334</v>
+        <v>0.508485</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.714636</v>
+        <v>0.728106</v>
       </c>
       <c r="C67" t="n">
-        <v>0.576606</v>
+        <v>0.581618</v>
       </c>
       <c r="D67" t="n">
-        <v>0.532234</v>
+        <v>0.544503</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.764898</v>
+        <v>0.7738120000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5843739999999999</v>
+        <v>0.600156</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5358849999999999</v>
+        <v>0.529298</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.796728</v>
+        <v>0.8377869999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.626627</v>
+        <v>0.609961</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5248119999999999</v>
+        <v>0.555631</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7352880000000001</v>
+        <v>0.767922</v>
       </c>
       <c r="C70" t="n">
-        <v>0.647165</v>
+        <v>0.617949</v>
       </c>
       <c r="D70" t="n">
-        <v>0.550696</v>
+        <v>0.550885</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.758124</v>
+        <v>0.731303</v>
       </c>
       <c r="C71" t="n">
-        <v>0.649765</v>
+        <v>0.640866</v>
       </c>
       <c r="D71" t="n">
-        <v>0.560592</v>
+        <v>0.575997</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.774257</v>
+        <v>0.781382</v>
       </c>
       <c r="C72" t="n">
-        <v>0.680026</v>
+        <v>0.666042</v>
       </c>
       <c r="D72" t="n">
-        <v>0.627591</v>
+        <v>0.615098</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.797856</v>
+        <v>0.796879</v>
       </c>
       <c r="C73" t="n">
-        <v>0.739529</v>
+        <v>0.728001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.620164</v>
+        <v>0.64608</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.86048</v>
+        <v>0.8360919999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.73875</v>
+        <v>0.755448</v>
       </c>
       <c r="D74" t="n">
-        <v>0.648576</v>
+        <v>0.636776</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8782180000000001</v>
+        <v>0.881982</v>
       </c>
       <c r="C75" t="n">
-        <v>0.803248</v>
+        <v>0.787623</v>
       </c>
       <c r="D75" t="n">
-        <v>0.680548</v>
+        <v>0.661266</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.921916</v>
+        <v>0.914473</v>
       </c>
       <c r="C76" t="n">
-        <v>0.861483</v>
+        <v>0.799543</v>
       </c>
       <c r="D76" t="n">
-        <v>0.716276</v>
+        <v>0.6949</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9427680000000001</v>
+        <v>0.918181</v>
       </c>
       <c r="C77" t="n">
-        <v>0.903016</v>
+        <v>0.864347</v>
       </c>
       <c r="D77" t="n">
-        <v>0.75765</v>
+        <v>0.710217</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.972956</v>
+        <v>0.983021</v>
       </c>
       <c r="C78" t="n">
-        <v>0.80785</v>
+        <v>0.818557</v>
       </c>
       <c r="D78" t="n">
-        <v>0.756474</v>
+        <v>0.771716</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.03075</v>
+        <v>1.00096</v>
       </c>
       <c r="C79" t="n">
-        <v>0.830586</v>
+        <v>0.828329</v>
       </c>
       <c r="D79" t="n">
-        <v>0.771193</v>
+        <v>0.761541</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.06167</v>
+        <v>1.07564</v>
       </c>
       <c r="C80" t="n">
-        <v>0.84678</v>
+        <v>0.854155</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7992899999999999</v>
+        <v>0.795533</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.10297</v>
+        <v>1.08126</v>
       </c>
       <c r="C81" t="n">
-        <v>0.884708</v>
+        <v>0.886817</v>
       </c>
       <c r="D81" t="n">
-        <v>0.798441</v>
+        <v>0.825844</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.12302</v>
+        <v>1.15286</v>
       </c>
       <c r="C82" t="n">
-        <v>0.916602</v>
+        <v>0.905247</v>
       </c>
       <c r="D82" t="n">
-        <v>0.835767</v>
+        <v>0.858426</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.15412</v>
+        <v>1.14775</v>
       </c>
       <c r="C83" t="n">
-        <v>0.930832</v>
+        <v>0.91217</v>
       </c>
       <c r="D83" t="n">
-        <v>0.847079</v>
+        <v>0.862135</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.06188</v>
+        <v>1.04878</v>
       </c>
       <c r="C84" t="n">
-        <v>0.967911</v>
+        <v>1.00065</v>
       </c>
       <c r="D84" t="n">
-        <v>0.854294</v>
+        <v>0.904976</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.08776</v>
+        <v>1.09881</v>
       </c>
       <c r="C85" t="n">
-        <v>1.01329</v>
+        <v>0.97426</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8914609999999999</v>
+        <v>0.91921</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.10197</v>
+        <v>1.10701</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9900870000000001</v>
+        <v>1.03048</v>
       </c>
       <c r="D86" t="n">
-        <v>0.884198</v>
+        <v>0.941418</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.10864</v>
+        <v>1.10393</v>
       </c>
       <c r="C87" t="n">
-        <v>1.04495</v>
+        <v>1.08569</v>
       </c>
       <c r="D87" t="n">
-        <v>0.935773</v>
+        <v>0.904379</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.12913</v>
+        <v>1.15564</v>
       </c>
       <c r="C88" t="n">
-        <v>1.04294</v>
+        <v>1.07422</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9595050000000001</v>
+        <v>0.945275</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.1636</v>
+        <v>1.17011</v>
       </c>
       <c r="C89" t="n">
-        <v>1.10709</v>
+        <v>1.10507</v>
       </c>
       <c r="D89" t="n">
-        <v>0.975756</v>
+        <v>0.965075</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.19727</v>
+        <v>1.22218</v>
       </c>
       <c r="C90" t="n">
-        <v>1.13797</v>
+        <v>1.14359</v>
       </c>
       <c r="D90" t="n">
-        <v>0.995641</v>
+        <v>1.01154</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.24326</v>
+        <v>1.24199</v>
       </c>
       <c r="C91" t="n">
-        <v>1.17383</v>
+        <v>1.17361</v>
       </c>
       <c r="D91" t="n">
-        <v>1.01725</v>
+        <v>1.00909</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.30968</v>
+        <v>1.27513</v>
       </c>
       <c r="C92" t="n">
-        <v>1.09188</v>
+        <v>1.08174</v>
       </c>
       <c r="D92" t="n">
-        <v>1.04345</v>
+        <v>1.01038</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.34946</v>
+        <v>1.32526</v>
       </c>
       <c r="C93" t="n">
-        <v>1.08818</v>
+        <v>1.08782</v>
       </c>
       <c r="D93" t="n">
-        <v>1.01411</v>
+        <v>1.03959</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.3083</v>
+        <v>1.34738</v>
       </c>
       <c r="C94" t="n">
-        <v>1.09286</v>
+        <v>1.11179</v>
       </c>
       <c r="D94" t="n">
-        <v>1.0522</v>
+        <v>1.0689</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.33457</v>
+        <v>1.36762</v>
       </c>
       <c r="C95" t="n">
-        <v>1.12744</v>
+        <v>1.14181</v>
       </c>
       <c r="D95" t="n">
-        <v>1.05472</v>
+        <v>1.05074</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.35993</v>
+        <v>1.40588</v>
       </c>
       <c r="C96" t="n">
-        <v>1.13597</v>
+        <v>1.15356</v>
       </c>
       <c r="D96" t="n">
-        <v>1.06457</v>
+        <v>1.0806</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.42915</v>
+        <v>1.44538</v>
       </c>
       <c r="C97" t="n">
-        <v>1.16224</v>
+        <v>1.21524</v>
       </c>
       <c r="D97" t="n">
-        <v>1.09004</v>
+        <v>1.12409</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.27866</v>
+        <v>1.2678</v>
       </c>
       <c r="C98" t="n">
-        <v>1.23245</v>
+        <v>1.21774</v>
       </c>
       <c r="D98" t="n">
-        <v>1.08825</v>
+        <v>1.11122</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.32205</v>
+        <v>1.32192</v>
       </c>
       <c r="C99" t="n">
-        <v>1.22905</v>
+        <v>1.26853</v>
       </c>
       <c r="D99" t="n">
-        <v>1.12067</v>
+        <v>1.12296</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.3295</v>
+        <v>1.32774</v>
       </c>
       <c r="C100" t="n">
-        <v>1.26173</v>
+        <v>1.26987</v>
       </c>
       <c r="D100" t="n">
-        <v>1.13929</v>
+        <v>1.13799</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.35431</v>
+        <v>1.33688</v>
       </c>
       <c r="C101" t="n">
-        <v>1.28308</v>
+        <v>1.31288</v>
       </c>
       <c r="D101" t="n">
-        <v>1.16329</v>
+        <v>1.16894</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.38405</v>
+        <v>1.36733</v>
       </c>
       <c r="C102" t="n">
-        <v>1.31785</v>
+        <v>1.33476</v>
       </c>
       <c r="D102" t="n">
-        <v>1.16234</v>
+        <v>1.17345</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.40214</v>
+        <v>1.39104</v>
       </c>
       <c r="C103" t="n">
-        <v>1.35374</v>
+        <v>1.32706</v>
       </c>
       <c r="D103" t="n">
-        <v>1.21755</v>
+        <v>1.20817</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.46968</v>
+        <v>1.41751</v>
       </c>
       <c r="C104" t="n">
-        <v>1.39216</v>
+        <v>1.40029</v>
       </c>
       <c r="D104" t="n">
-        <v>1.22131</v>
+        <v>1.23809</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.45272</v>
+        <v>1.42402</v>
       </c>
       <c r="C105" t="n">
-        <v>1.3919</v>
+        <v>1.38362</v>
       </c>
       <c r="D105" t="n">
-        <v>1.23866</v>
+        <v>1.2396</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.47185</v>
+        <v>1.47645</v>
       </c>
       <c r="C106" t="n">
-        <v>1.40761</v>
+        <v>1.44756</v>
       </c>
       <c r="D106" t="n">
-        <v>1.26576</v>
+        <v>1.28202</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.52376</v>
+        <v>1.46026</v>
       </c>
       <c r="C107" t="n">
-        <v>1.33138</v>
+        <v>1.30304</v>
       </c>
       <c r="D107" t="n">
-        <v>1.22284</v>
+        <v>1.22103</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.51592</v>
+        <v>1.56444</v>
       </c>
       <c r="C108" t="n">
-        <v>1.28823</v>
+        <v>1.30966</v>
       </c>
       <c r="D108" t="n">
-        <v>1.23041</v>
+        <v>1.22154</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.60904</v>
+        <v>1.57309</v>
       </c>
       <c r="C109" t="n">
-        <v>1.34171</v>
+        <v>1.3097</v>
       </c>
       <c r="D109" t="n">
-        <v>1.23165</v>
+        <v>1.28767</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.6098</v>
+        <v>1.60606</v>
       </c>
       <c r="C110" t="n">
-        <v>1.36931</v>
+        <v>1.359</v>
       </c>
       <c r="D110" t="n">
-        <v>1.26563</v>
+        <v>1.22804</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.64354</v>
+        <v>1.62429</v>
       </c>
       <c r="C111" t="n">
-        <v>1.3815</v>
+        <v>1.35972</v>
       </c>
       <c r="D111" t="n">
-        <v>1.25675</v>
+        <v>1.26302</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.60254</v>
+        <v>1.5071</v>
       </c>
       <c r="C112" t="n">
-        <v>1.36062</v>
+        <v>1.39139</v>
       </c>
       <c r="D112" t="n">
-        <v>1.23554</v>
+        <v>1.26585</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.59746</v>
+        <v>1.50831</v>
       </c>
       <c r="C113" t="n">
-        <v>1.43636</v>
+        <v>1.40074</v>
       </c>
       <c r="D113" t="n">
-        <v>1.29882</v>
+        <v>1.30624</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.59741</v>
+        <v>1.59116</v>
       </c>
       <c r="C114" t="n">
-        <v>1.45639</v>
+        <v>1.45979</v>
       </c>
       <c r="D114" t="n">
-        <v>1.30541</v>
+        <v>1.33928</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.58562</v>
+        <v>1.57652</v>
       </c>
       <c r="C115" t="n">
-        <v>1.47228</v>
+        <v>1.44136</v>
       </c>
       <c r="D115" t="n">
-        <v>1.30961</v>
+        <v>1.34474</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.61361</v>
+        <v>1.62682</v>
       </c>
       <c r="C116" t="n">
-        <v>1.49562</v>
+        <v>1.48272</v>
       </c>
       <c r="D116" t="n">
-        <v>1.3621</v>
+        <v>1.34598</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.69475</v>
+        <v>1.69285</v>
       </c>
       <c r="C117" t="n">
-        <v>1.54587</v>
+        <v>1.52225</v>
       </c>
       <c r="D117" t="n">
-        <v>1.40135</v>
+        <v>1.37355</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.67101</v>
+        <v>1.69514</v>
       </c>
       <c r="C118" t="n">
-        <v>1.55806</v>
+        <v>1.56217</v>
       </c>
       <c r="D118" t="n">
-        <v>1.40356</v>
+        <v>1.41335</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.76024</v>
+        <v>1.67962</v>
       </c>
       <c r="C119" t="n">
-        <v>1.59768</v>
+        <v>1.57986</v>
       </c>
       <c r="D119" t="n">
-        <v>1.3988</v>
+        <v>1.40186</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.564623</v>
+        <v>0.565276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.314896</v>
+        <v>0.311687</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248051</v>
+        <v>0.251645</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.395815</v>
+        <v>0.396433</v>
       </c>
       <c r="C3" t="n">
-        <v>0.31977</v>
+        <v>0.324222</v>
       </c>
       <c r="D3" t="n">
-        <v>0.247807</v>
+        <v>0.244784</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.401257</v>
+        <v>0.394387</v>
       </c>
       <c r="C4" t="n">
-        <v>0.341004</v>
+        <v>0.335688</v>
       </c>
       <c r="D4" t="n">
-        <v>0.254932</v>
+        <v>0.261953</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.409898</v>
+        <v>0.401976</v>
       </c>
       <c r="C5" t="n">
-        <v>0.351624</v>
+        <v>0.352236</v>
       </c>
       <c r="D5" t="n">
-        <v>0.259671</v>
+        <v>0.262879</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4209</v>
+        <v>0.428302</v>
       </c>
       <c r="C6" t="n">
-        <v>0.349442</v>
+        <v>0.367166</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25786</v>
+        <v>0.262348</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.433983</v>
+        <v>0.421468</v>
       </c>
       <c r="C7" t="n">
-        <v>0.387304</v>
+        <v>0.375769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.273861</v>
+        <v>0.26722</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.44762</v>
+        <v>0.445489</v>
       </c>
       <c r="C8" t="n">
-        <v>0.384035</v>
+        <v>0.397948</v>
       </c>
       <c r="D8" t="n">
-        <v>0.286263</v>
+        <v>0.277104</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.46142</v>
+        <v>0.484021</v>
       </c>
       <c r="C9" t="n">
-        <v>0.428258</v>
+        <v>0.408939</v>
       </c>
       <c r="D9" t="n">
-        <v>0.299886</v>
+        <v>0.29257</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.510706</v>
+        <v>0.5039940000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.435375</v>
+        <v>0.448136</v>
       </c>
       <c r="D10" t="n">
-        <v>0.30078</v>
+        <v>0.300091</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.503684</v>
+        <v>0.492196</v>
       </c>
       <c r="C11" t="n">
-        <v>0.332283</v>
+        <v>0.323578</v>
       </c>
       <c r="D11" t="n">
-        <v>0.259239</v>
+        <v>0.25132</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.528762</v>
+        <v>0.5111289999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.334286</v>
+        <v>0.328685</v>
       </c>
       <c r="D12" t="n">
-        <v>0.256854</v>
+        <v>0.249022</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.558445</v>
+        <v>0.548578</v>
       </c>
       <c r="C13" t="n">
-        <v>0.349298</v>
+        <v>0.340136</v>
       </c>
       <c r="D13" t="n">
-        <v>0.264093</v>
+        <v>0.265729</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.581711</v>
+        <v>0.553424</v>
       </c>
       <c r="C14" t="n">
-        <v>0.365118</v>
+        <v>0.35352</v>
       </c>
       <c r="D14" t="n">
-        <v>0.26593</v>
+        <v>0.266991</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.584742</v>
+        <v>0.568009</v>
       </c>
       <c r="C15" t="n">
-        <v>0.365151</v>
+        <v>0.368272</v>
       </c>
       <c r="D15" t="n">
-        <v>0.276995</v>
+        <v>0.273758</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.626791</v>
+        <v>0.611282</v>
       </c>
       <c r="C16" t="n">
-        <v>0.378322</v>
+        <v>0.37664</v>
       </c>
       <c r="D16" t="n">
-        <v>0.291226</v>
+        <v>0.276593</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.394721</v>
+        <v>0.389996</v>
       </c>
       <c r="C17" t="n">
-        <v>0.410064</v>
+        <v>0.401012</v>
       </c>
       <c r="D17" t="n">
-        <v>0.300662</v>
+        <v>0.300429</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.423677</v>
+        <v>0.399192</v>
       </c>
       <c r="C18" t="n">
-        <v>0.407859</v>
+        <v>0.413173</v>
       </c>
       <c r="D18" t="n">
-        <v>0.291988</v>
+        <v>0.292241</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.412994</v>
+        <v>0.418674</v>
       </c>
       <c r="C19" t="n">
-        <v>0.43695</v>
+        <v>0.43072</v>
       </c>
       <c r="D19" t="n">
-        <v>0.30585</v>
+        <v>0.305952</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.43408</v>
+        <v>0.443591</v>
       </c>
       <c r="C20" t="n">
-        <v>0.453077</v>
+        <v>0.45355</v>
       </c>
       <c r="D20" t="n">
-        <v>0.315951</v>
+        <v>0.323451</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.428934</v>
+        <v>0.454367</v>
       </c>
       <c r="C21" t="n">
-        <v>0.46247</v>
+        <v>0.464904</v>
       </c>
       <c r="D21" t="n">
-        <v>0.332363</v>
+        <v>0.329021</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.463713</v>
+        <v>0.474426</v>
       </c>
       <c r="C22" t="n">
-        <v>0.493847</v>
+        <v>0.489692</v>
       </c>
       <c r="D22" t="n">
-        <v>0.348583</v>
+        <v>0.326665</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.470454</v>
+        <v>0.481672</v>
       </c>
       <c r="C23" t="n">
-        <v>0.508128</v>
+        <v>0.506692</v>
       </c>
       <c r="D23" t="n">
-        <v>0.35229</v>
+        <v>0.357276</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.498634</v>
+        <v>0.492798</v>
       </c>
       <c r="C24" t="n">
-        <v>0.530104</v>
+        <v>0.5113799999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.369428</v>
+        <v>0.36854</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.512648</v>
+        <v>0.510606</v>
       </c>
       <c r="C25" t="n">
-        <v>0.558658</v>
+        <v>0.541914</v>
       </c>
       <c r="D25" t="n">
-        <v>0.372745</v>
+        <v>0.37361</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.515695</v>
+        <v>0.537917</v>
       </c>
       <c r="C26" t="n">
-        <v>0.352299</v>
+        <v>0.407761</v>
       </c>
       <c r="D26" t="n">
-        <v>0.273899</v>
+        <v>0.270265</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.533953</v>
+        <v>0.542227</v>
       </c>
       <c r="C27" t="n">
-        <v>0.359009</v>
+        <v>0.414945</v>
       </c>
       <c r="D27" t="n">
-        <v>0.270592</v>
+        <v>0.281347</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.579511</v>
+        <v>0.582344</v>
       </c>
       <c r="C28" t="n">
-        <v>0.367327</v>
+        <v>0.438616</v>
       </c>
       <c r="D28" t="n">
-        <v>0.283068</v>
+        <v>0.28932</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.609447</v>
+        <v>0.605575</v>
       </c>
       <c r="C29" t="n">
-        <v>0.367535</v>
+        <v>0.452184</v>
       </c>
       <c r="D29" t="n">
-        <v>0.286168</v>
+        <v>0.291154</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.613461</v>
+        <v>0.633547</v>
       </c>
       <c r="C30" t="n">
-        <v>0.399113</v>
+        <v>0.471993</v>
       </c>
       <c r="D30" t="n">
-        <v>0.30112</v>
+        <v>0.299282</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.646414</v>
+        <v>0.685539</v>
       </c>
       <c r="C31" t="n">
-        <v>0.398096</v>
+        <v>0.488539</v>
       </c>
       <c r="D31" t="n">
-        <v>0.296648</v>
+        <v>0.31796</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.449592</v>
+        <v>0.5158470000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>0.409526</v>
+        <v>0.519294</v>
       </c>
       <c r="D32" t="n">
-        <v>0.324255</v>
+        <v>0.323253</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.47474</v>
+        <v>0.507346</v>
       </c>
       <c r="C33" t="n">
-        <v>0.456108</v>
+        <v>0.549523</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3341</v>
+        <v>0.337074</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.487815</v>
+        <v>0.540564</v>
       </c>
       <c r="C34" t="n">
-        <v>0.47105</v>
+        <v>0.5643820000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.336456</v>
+        <v>0.345435</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.512939</v>
+        <v>0.551661</v>
       </c>
       <c r="C35" t="n">
-        <v>0.504534</v>
+        <v>0.588796</v>
       </c>
       <c r="D35" t="n">
-        <v>0.34726</v>
+        <v>0.345833</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.520859</v>
+        <v>0.564294</v>
       </c>
       <c r="C36" t="n">
-        <v>0.511425</v>
+        <v>0.634862</v>
       </c>
       <c r="D36" t="n">
-        <v>0.368181</v>
+        <v>0.367451</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.567033</v>
+        <v>0.602047</v>
       </c>
       <c r="C37" t="n">
-        <v>0.541681</v>
+        <v>0.64501</v>
       </c>
       <c r="D37" t="n">
-        <v>0.373087</v>
+        <v>0.396631</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6218129999999999</v>
+        <v>0.618889</v>
       </c>
       <c r="C38" t="n">
-        <v>0.567371</v>
+        <v>0.694858</v>
       </c>
       <c r="D38" t="n">
-        <v>0.388556</v>
+        <v>0.402149</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.601337</v>
+        <v>0.665095</v>
       </c>
       <c r="C39" t="n">
-        <v>0.597271</v>
+        <v>0.712547</v>
       </c>
       <c r="D39" t="n">
-        <v>0.407482</v>
+        <v>0.425383</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6490089999999999</v>
+        <v>0.684924</v>
       </c>
       <c r="C40" t="n">
-        <v>0.438866</v>
+        <v>0.476786</v>
       </c>
       <c r="D40" t="n">
-        <v>0.35792</v>
+        <v>0.363239</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.712946</v>
+        <v>0.7212229999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.467354</v>
+        <v>0.470836</v>
       </c>
       <c r="D41" t="n">
-        <v>0.350404</v>
+        <v>0.36599</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.717881</v>
+        <v>0.763586</v>
       </c>
       <c r="C42" t="n">
-        <v>0.484233</v>
+        <v>0.491709</v>
       </c>
       <c r="D42" t="n">
-        <v>0.358514</v>
+        <v>0.372006</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.755842</v>
+        <v>0.783531</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5083800000000001</v>
+        <v>0.524768</v>
       </c>
       <c r="D43" t="n">
-        <v>0.379205</v>
+        <v>0.394456</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.811368</v>
+        <v>0.845074</v>
       </c>
       <c r="C44" t="n">
-        <v>0.550296</v>
+        <v>0.5467</v>
       </c>
       <c r="D44" t="n">
-        <v>0.399803</v>
+        <v>0.40523</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.841472</v>
+        <v>0.889615</v>
       </c>
       <c r="C45" t="n">
-        <v>0.540245</v>
+        <v>0.5902539999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.405703</v>
+        <v>0.39991</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.605064</v>
+        <v>0.6216699999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.591834</v>
+        <v>0.632629</v>
       </c>
       <c r="D46" t="n">
-        <v>0.415446</v>
+        <v>0.439619</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6480629999999999</v>
+        <v>0.661548</v>
       </c>
       <c r="C47" t="n">
-        <v>0.626699</v>
+        <v>0.653967</v>
       </c>
       <c r="D47" t="n">
-        <v>0.432337</v>
+        <v>0.442469</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.669798</v>
+        <v>0.708867</v>
       </c>
       <c r="C48" t="n">
-        <v>0.656945</v>
+        <v>0.675901</v>
       </c>
       <c r="D48" t="n">
-        <v>0.448037</v>
+        <v>0.449485</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.708394</v>
+        <v>0.701194</v>
       </c>
       <c r="C49" t="n">
-        <v>0.679293</v>
+        <v>0.701611</v>
       </c>
       <c r="D49" t="n">
-        <v>0.47985</v>
+        <v>0.467168</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7508590000000001</v>
+        <v>0.765588</v>
       </c>
       <c r="C50" t="n">
-        <v>0.743451</v>
+        <v>0.743174</v>
       </c>
       <c r="D50" t="n">
-        <v>0.486648</v>
+        <v>0.479903</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.805583</v>
+        <v>0.804499</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7662330000000001</v>
+        <v>0.7734259999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.533324</v>
+        <v>0.522293</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.83295</v>
+        <v>0.842742</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8142740000000001</v>
+        <v>0.819238</v>
       </c>
       <c r="D52" t="n">
-        <v>0.544853</v>
+        <v>0.542087</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.871719</v>
+        <v>0.868186</v>
       </c>
       <c r="C53" t="n">
-        <v>0.85192</v>
+        <v>0.858508</v>
       </c>
       <c r="D53" t="n">
-        <v>0.551388</v>
+        <v>0.566661</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.923795</v>
+        <v>0.919094</v>
       </c>
       <c r="C54" t="n">
-        <v>0.64258</v>
+        <v>0.6469819999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.461201</v>
+        <v>0.459453</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>1.00208</v>
+        <v>0.993617</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6738960000000001</v>
+        <v>0.673386</v>
       </c>
       <c r="D55" t="n">
-        <v>0.464434</v>
+        <v>0.472724</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.00555</v>
+        <v>1.0414</v>
       </c>
       <c r="C56" t="n">
-        <v>0.707647</v>
+        <v>0.697592</v>
       </c>
       <c r="D56" t="n">
-        <v>0.487355</v>
+        <v>0.500265</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.13389</v>
+        <v>1.06743</v>
       </c>
       <c r="C57" t="n">
-        <v>0.715278</v>
+        <v>0.729164</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5136230000000001</v>
+        <v>0.49835</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.12535</v>
+        <v>1.13581</v>
       </c>
       <c r="C58" t="n">
-        <v>0.74847</v>
+        <v>0.751139</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5170360000000001</v>
+        <v>0.515937</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.19678</v>
+        <v>1.19329</v>
       </c>
       <c r="C59" t="n">
-        <v>0.777854</v>
+        <v>0.785977</v>
       </c>
       <c r="D59" t="n">
-        <v>0.550598</v>
+        <v>0.5662239999999999</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8492</v>
+        <v>0.853361</v>
       </c>
       <c r="C60" t="n">
-        <v>0.806638</v>
+        <v>0.880286</v>
       </c>
       <c r="D60" t="n">
-        <v>0.557011</v>
+        <v>0.577247</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.95397</v>
+        <v>0.914978</v>
       </c>
       <c r="C61" t="n">
-        <v>0.848707</v>
+        <v>0.897374</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5917210000000001</v>
+        <v>0.610867</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.95688</v>
+        <v>0.957837</v>
       </c>
       <c r="C62" t="n">
-        <v>0.902411</v>
+        <v>0.922022</v>
       </c>
       <c r="D62" t="n">
-        <v>0.612937</v>
+        <v>0.620294</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01319</v>
+        <v>0.990787</v>
       </c>
       <c r="C63" t="n">
-        <v>1.02185</v>
+        <v>0.984747</v>
       </c>
       <c r="D63" t="n">
-        <v>0.63864</v>
+        <v>0.6395149999999999</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.05322</v>
+        <v>1.05644</v>
       </c>
       <c r="C64" t="n">
-        <v>1.04868</v>
+        <v>1.0125</v>
       </c>
       <c r="D64" t="n">
-        <v>0.677603</v>
+        <v>0.66845</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.13869</v>
+        <v>1.1059</v>
       </c>
       <c r="C65" t="n">
-        <v>1.13142</v>
+        <v>1.10522</v>
       </c>
       <c r="D65" t="n">
-        <v>0.715873</v>
+        <v>0.675993</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.16838</v>
+        <v>1.16577</v>
       </c>
       <c r="C66" t="n">
-        <v>1.20652</v>
+        <v>1.18421</v>
       </c>
       <c r="D66" t="n">
-        <v>0.740659</v>
+        <v>0.744592</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.24701</v>
+        <v>1.26385</v>
       </c>
       <c r="C67" t="n">
-        <v>1.25555</v>
+        <v>1.25592</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7572759999999999</v>
+        <v>0.758744</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.34536</v>
+        <v>1.34661</v>
       </c>
       <c r="C68" t="n">
-        <v>0.828622</v>
+        <v>0.8069730000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5857</v>
+        <v>0.572968</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.4586</v>
+        <v>1.41537</v>
       </c>
       <c r="C69" t="n">
-        <v>0.835114</v>
+        <v>0.840434</v>
       </c>
       <c r="D69" t="n">
-        <v>0.589178</v>
+        <v>0.5845129999999999</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.53668</v>
+        <v>1.51265</v>
       </c>
       <c r="C70" t="n">
-        <v>0.947186</v>
+        <v>0.937486</v>
       </c>
       <c r="D70" t="n">
-        <v>0.632273</v>
+        <v>0.631188</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.61591</v>
+        <v>1.71622</v>
       </c>
       <c r="C71" t="n">
-        <v>0.971611</v>
+        <v>0.959631</v>
       </c>
       <c r="D71" t="n">
-        <v>0.664995</v>
+        <v>0.662305</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.8179</v>
+        <v>1.75272</v>
       </c>
       <c r="C72" t="n">
-        <v>1.03218</v>
+        <v>1.00681</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6926099999999999</v>
+        <v>0.6840619999999999</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.95992</v>
+        <v>1.88472</v>
       </c>
       <c r="C73" t="n">
-        <v>1.11075</v>
+        <v>1.06952</v>
       </c>
       <c r="D73" t="n">
-        <v>0.722554</v>
+        <v>0.6853089999999999</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.2909</v>
+        <v>1.26651</v>
       </c>
       <c r="C74" t="n">
-        <v>1.17299</v>
+        <v>1.17008</v>
       </c>
       <c r="D74" t="n">
-        <v>0.74071</v>
+        <v>0.734989</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.37276</v>
+        <v>1.38547</v>
       </c>
       <c r="C75" t="n">
-        <v>1.25071</v>
+        <v>1.24606</v>
       </c>
       <c r="D75" t="n">
-        <v>0.790819</v>
+        <v>0.778706</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.45814</v>
+        <v>1.43472</v>
       </c>
       <c r="C76" t="n">
-        <v>1.34943</v>
+        <v>1.34738</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8197410000000001</v>
+        <v>0.8079</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.54869</v>
+        <v>1.50204</v>
       </c>
       <c r="C77" t="n">
-        <v>1.44349</v>
+        <v>1.44831</v>
       </c>
       <c r="D77" t="n">
-        <v>0.882499</v>
+        <v>0.855306</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.65208</v>
+        <v>1.56911</v>
       </c>
       <c r="C78" t="n">
-        <v>1.5548</v>
+        <v>1.51872</v>
       </c>
       <c r="D78" t="n">
-        <v>0.889223</v>
+        <v>0.909657</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.7052</v>
+        <v>1.7521</v>
       </c>
       <c r="C79" t="n">
-        <v>1.60569</v>
+        <v>1.60056</v>
       </c>
       <c r="D79" t="n">
-        <v>0.97921</v>
+        <v>0.9567600000000001</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.7959</v>
+        <v>1.83764</v>
       </c>
       <c r="C80" t="n">
-        <v>1.75719</v>
+        <v>1.77488</v>
       </c>
       <c r="D80" t="n">
-        <v>1.05315</v>
+        <v>1.04412</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.944</v>
+        <v>1.91398</v>
       </c>
       <c r="C81" t="n">
-        <v>1.86978</v>
+        <v>1.96117</v>
       </c>
       <c r="D81" t="n">
-        <v>1.10515</v>
+        <v>1.11196</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.98747</v>
+        <v>2.00287</v>
       </c>
       <c r="C82" t="n">
-        <v>1.98277</v>
+        <v>1.99523</v>
       </c>
       <c r="D82" t="n">
-        <v>1.16418</v>
+        <v>1.17453</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.1181</v>
+        <v>2.10086</v>
       </c>
       <c r="C83" t="n">
-        <v>1.45465</v>
+        <v>1.45257</v>
       </c>
       <c r="D83" t="n">
-        <v>0.960809</v>
+        <v>0.977058</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.23786</v>
+        <v>2.22481</v>
       </c>
       <c r="C84" t="n">
-        <v>1.52005</v>
+        <v>1.51955</v>
       </c>
       <c r="D84" t="n">
-        <v>1.01702</v>
+        <v>1.00253</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.44598</v>
+        <v>2.43611</v>
       </c>
       <c r="C85" t="n">
-        <v>1.59447</v>
+        <v>1.61615</v>
       </c>
       <c r="D85" t="n">
-        <v>1.03777</v>
+        <v>1.07383</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.54437</v>
+        <v>2.47036</v>
       </c>
       <c r="C86" t="n">
-        <v>1.70647</v>
+        <v>1.69809</v>
       </c>
       <c r="D86" t="n">
-        <v>1.11991</v>
+        <v>1.08027</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.65501</v>
+        <v>2.71468</v>
       </c>
       <c r="C87" t="n">
-        <v>1.81315</v>
+        <v>1.77169</v>
       </c>
       <c r="D87" t="n">
-        <v>1.17791</v>
+        <v>1.1676</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.86897</v>
+        <v>2.81595</v>
       </c>
       <c r="C88" t="n">
-        <v>1.94562</v>
+        <v>1.94854</v>
       </c>
       <c r="D88" t="n">
-        <v>1.24216</v>
+        <v>1.24026</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.89582</v>
+        <v>1.87629</v>
       </c>
       <c r="C89" t="n">
-        <v>1.98447</v>
+        <v>1.95989</v>
       </c>
       <c r="D89" t="n">
-        <v>1.32552</v>
+        <v>1.26185</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.02129</v>
+        <v>1.98964</v>
       </c>
       <c r="C90" t="n">
-        <v>2.10592</v>
+        <v>2.12288</v>
       </c>
       <c r="D90" t="n">
-        <v>1.34405</v>
+        <v>1.37533</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.07978</v>
+        <v>2.08247</v>
       </c>
       <c r="C91" t="n">
-        <v>2.24116</v>
+        <v>2.26717</v>
       </c>
       <c r="D91" t="n">
-        <v>1.42395</v>
+        <v>1.399</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.13903</v>
+        <v>2.13492</v>
       </c>
       <c r="C92" t="n">
-        <v>2.29779</v>
+        <v>2.30206</v>
       </c>
       <c r="D92" t="n">
-        <v>1.48459</v>
+        <v>1.48727</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.22727</v>
+        <v>2.26991</v>
       </c>
       <c r="C93" t="n">
-        <v>2.48648</v>
+        <v>2.40444</v>
       </c>
       <c r="D93" t="n">
-        <v>1.52354</v>
+        <v>1.5234</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.33768</v>
+        <v>2.34454</v>
       </c>
       <c r="C94" t="n">
-        <v>2.53018</v>
+        <v>2.60867</v>
       </c>
       <c r="D94" t="n">
-        <v>1.62543</v>
+        <v>1.60867</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.48025</v>
+        <v>2.45902</v>
       </c>
       <c r="C95" t="n">
-        <v>2.66148</v>
+        <v>2.62102</v>
       </c>
       <c r="D95" t="n">
-        <v>1.68334</v>
+        <v>1.65177</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.50719</v>
+        <v>2.51387</v>
       </c>
       <c r="C96" t="n">
-        <v>2.8202</v>
+        <v>2.7639</v>
       </c>
       <c r="D96" t="n">
-        <v>1.76238</v>
+        <v>1.75902</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.68804</v>
+        <v>2.64955</v>
       </c>
       <c r="C97" t="n">
-        <v>1.83075</v>
+        <v>1.90557</v>
       </c>
       <c r="D97" t="n">
-        <v>1.3106</v>
+        <v>1.34936</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.82553</v>
+        <v>2.7836</v>
       </c>
       <c r="C98" t="n">
-        <v>1.90597</v>
+        <v>1.93673</v>
       </c>
       <c r="D98" t="n">
-        <v>1.33596</v>
+        <v>1.39304</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.95965</v>
+        <v>2.95031</v>
       </c>
       <c r="C99" t="n">
-        <v>2.01279</v>
+        <v>2.01583</v>
       </c>
       <c r="D99" t="n">
-        <v>1.41727</v>
+        <v>1.4135</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.09558</v>
+        <v>3.02611</v>
       </c>
       <c r="C100" t="n">
-        <v>2.09117</v>
+        <v>2.09482</v>
       </c>
       <c r="D100" t="n">
-        <v>1.47147</v>
+        <v>1.47671</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.23149</v>
+        <v>3.18871</v>
       </c>
       <c r="C101" t="n">
-        <v>2.12467</v>
+        <v>2.18016</v>
       </c>
       <c r="D101" t="n">
-        <v>1.5084</v>
+        <v>1.56007</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.45168</v>
+        <v>3.29006</v>
       </c>
       <c r="C102" t="n">
-        <v>2.23109</v>
+        <v>2.23626</v>
       </c>
       <c r="D102" t="n">
-        <v>1.59179</v>
+        <v>1.55653</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.20839</v>
+        <v>2.20752</v>
       </c>
       <c r="C103" t="n">
-        <v>2.30608</v>
+        <v>2.29396</v>
       </c>
       <c r="D103" t="n">
-        <v>1.62357</v>
+        <v>1.60513</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.32708</v>
+        <v>2.29584</v>
       </c>
       <c r="C104" t="n">
-        <v>2.45286</v>
+        <v>2.39614</v>
       </c>
       <c r="D104" t="n">
-        <v>1.68438</v>
+        <v>1.64172</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.37966</v>
+        <v>2.37598</v>
       </c>
       <c r="C105" t="n">
-        <v>2.50304</v>
+        <v>2.53274</v>
       </c>
       <c r="D105" t="n">
-        <v>1.73913</v>
+        <v>1.69583</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.51698</v>
+        <v>2.46632</v>
       </c>
       <c r="C106" t="n">
-        <v>2.54746</v>
+        <v>2.59865</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71671</v>
+        <v>1.76057</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.55854</v>
+        <v>2.5889</v>
       </c>
       <c r="C107" t="n">
-        <v>2.73499</v>
+        <v>2.73012</v>
       </c>
       <c r="D107" t="n">
-        <v>1.81414</v>
+        <v>1.8075</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.70149</v>
+        <v>2.71391</v>
       </c>
       <c r="C108" t="n">
-        <v>2.81443</v>
+        <v>2.85135</v>
       </c>
       <c r="D108" t="n">
-        <v>1.94806</v>
+        <v>1.89106</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.80816</v>
+        <v>2.8439</v>
       </c>
       <c r="C109" t="n">
-        <v>2.97658</v>
+        <v>2.96979</v>
       </c>
       <c r="D109" t="n">
-        <v>1.97844</v>
+        <v>1.98465</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.93192</v>
+        <v>2.89476</v>
       </c>
       <c r="C110" t="n">
-        <v>3.05409</v>
+        <v>3.0358</v>
       </c>
       <c r="D110" t="n">
-        <v>2.07244</v>
+        <v>2.05697</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.9738</v>
+        <v>2.99432</v>
       </c>
       <c r="C111" t="n">
-        <v>2.10782</v>
+        <v>2.12316</v>
       </c>
       <c r="D111" t="n">
-        <v>1.57713</v>
+        <v>1.65128</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.15915</v>
+        <v>3.08165</v>
       </c>
       <c r="C112" t="n">
-        <v>2.23295</v>
+        <v>2.19891</v>
       </c>
       <c r="D112" t="n">
-        <v>1.67598</v>
+        <v>1.63933</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.25778</v>
+        <v>3.24092</v>
       </c>
       <c r="C113" t="n">
-        <v>2.30125</v>
+        <v>2.29395</v>
       </c>
       <c r="D113" t="n">
-        <v>1.71418</v>
+        <v>1.65801</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.43033</v>
+        <v>3.33712</v>
       </c>
       <c r="C114" t="n">
-        <v>2.32031</v>
+        <v>2.33694</v>
       </c>
       <c r="D114" t="n">
-        <v>1.71958</v>
+        <v>1.7325</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.56427</v>
+        <v>3.51964</v>
       </c>
       <c r="C115" t="n">
-        <v>2.40508</v>
+        <v>2.39344</v>
       </c>
       <c r="D115" t="n">
-        <v>1.8124</v>
+        <v>1.78747</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.68215</v>
+        <v>3.64258</v>
       </c>
       <c r="C116" t="n">
-        <v>2.46111</v>
+        <v>2.54982</v>
       </c>
       <c r="D116" t="n">
-        <v>1.79501</v>
+        <v>1.88175</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.47134</v>
+        <v>2.45655</v>
       </c>
       <c r="C117" t="n">
-        <v>2.62779</v>
+        <v>2.58085</v>
       </c>
       <c r="D117" t="n">
-        <v>1.91811</v>
+        <v>1.86734</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.61972</v>
+        <v>2.54935</v>
       </c>
       <c r="C118" t="n">
-        <v>2.75411</v>
+        <v>2.66447</v>
       </c>
       <c r="D118" t="n">
-        <v>1.96876</v>
+        <v>1.93395</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.63456</v>
+        <v>2.64747</v>
       </c>
       <c r="C119" t="n">
-        <v>2.88971</v>
+        <v>2.77731</v>
       </c>
       <c r="D119" t="n">
-        <v>2.03077</v>
+        <v>2.05431</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered successful looukp.xlsx
+++ b/vs/scattered successful looukp.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.214774</v>
+        <v>0.221362</v>
       </c>
       <c r="C2" t="n">
-        <v>0.191411</v>
+        <v>0.206337</v>
       </c>
       <c r="D2" t="n">
-        <v>0.206075</v>
+        <v>0.219472</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.243907</v>
+        <v>0.232388</v>
       </c>
       <c r="C3" t="n">
-        <v>0.199067</v>
+        <v>0.206555</v>
       </c>
       <c r="D3" t="n">
-        <v>0.209818</v>
+        <v>0.219594</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.214503</v>
+        <v>0.234361</v>
       </c>
       <c r="C4" t="n">
-        <v>0.23057</v>
+        <v>0.216996</v>
       </c>
       <c r="D4" t="n">
-        <v>0.257284</v>
+        <v>0.224962</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.223541</v>
+        <v>0.227347</v>
       </c>
       <c r="C5" t="n">
-        <v>0.228877</v>
+        <v>0.221384</v>
       </c>
       <c r="D5" t="n">
-        <v>0.219643</v>
+        <v>0.235595</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.223064</v>
+        <v>0.243415</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206449</v>
+        <v>0.218621</v>
       </c>
       <c r="D6" t="n">
-        <v>0.223735</v>
+        <v>0.242126</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.227749</v>
+        <v>0.248374</v>
       </c>
       <c r="C7" t="n">
-        <v>0.172987</v>
+        <v>0.193632</v>
       </c>
       <c r="D7" t="n">
-        <v>0.193373</v>
+        <v>0.213118</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.234651</v>
+        <v>0.248992</v>
       </c>
       <c r="C8" t="n">
-        <v>0.179808</v>
+        <v>0.188596</v>
       </c>
       <c r="D8" t="n">
-        <v>0.200321</v>
+        <v>0.206972</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.237291</v>
+        <v>0.249961</v>
       </c>
       <c r="C9" t="n">
-        <v>0.179419</v>
+        <v>0.19367</v>
       </c>
       <c r="D9" t="n">
-        <v>0.201159</v>
+        <v>0.208621</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.242276</v>
+        <v>0.261434</v>
       </c>
       <c r="C10" t="n">
-        <v>0.182023</v>
+        <v>0.210248</v>
       </c>
       <c r="D10" t="n">
-        <v>0.205317</v>
+        <v>0.233422</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.245671</v>
+        <v>0.26919</v>
       </c>
       <c r="C11" t="n">
-        <v>0.18557</v>
+        <v>0.201966</v>
       </c>
       <c r="D11" t="n">
-        <v>0.206971</v>
+        <v>0.227913</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.248561</v>
+        <v>0.27383</v>
       </c>
       <c r="C12" t="n">
-        <v>0.188756</v>
+        <v>0.209833</v>
       </c>
       <c r="D12" t="n">
-        <v>0.210776</v>
+        <v>0.23075</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.213644</v>
+        <v>0.227591</v>
       </c>
       <c r="C13" t="n">
-        <v>0.189838</v>
+        <v>0.21221</v>
       </c>
       <c r="D13" t="n">
-        <v>0.211939</v>
+        <v>0.233712</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.222645</v>
+        <v>0.236463</v>
       </c>
       <c r="C14" t="n">
-        <v>0.192278</v>
+        <v>0.20457</v>
       </c>
       <c r="D14" t="n">
-        <v>0.21566</v>
+        <v>0.238618</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.220299</v>
+        <v>0.233804</v>
       </c>
       <c r="C15" t="n">
-        <v>0.20753</v>
+        <v>0.210404</v>
       </c>
       <c r="D15" t="n">
-        <v>0.221203</v>
+        <v>0.239789</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.222154</v>
+        <v>0.238185</v>
       </c>
       <c r="C16" t="n">
-        <v>0.200742</v>
+        <v>0.212325</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223673</v>
+        <v>0.230331</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.225407</v>
+        <v>0.239629</v>
       </c>
       <c r="C17" t="n">
-        <v>0.20561</v>
+        <v>0.214582</v>
       </c>
       <c r="D17" t="n">
-        <v>0.231461</v>
+        <v>0.242393</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.268851</v>
+        <v>0.246999</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208907</v>
+        <v>0.220202</v>
       </c>
       <c r="D18" t="n">
-        <v>0.232493</v>
+        <v>0.23663</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.232626</v>
+        <v>0.240637</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213164</v>
+        <v>0.222651</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237057</v>
+        <v>0.246116</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.236708</v>
+        <v>0.244864</v>
       </c>
       <c r="C20" t="n">
-        <v>0.21679</v>
+        <v>0.22879</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240814</v>
+        <v>0.249603</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240986</v>
+        <v>0.262587</v>
       </c>
       <c r="C21" t="n">
-        <v>0.183781</v>
+        <v>0.194977</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204213</v>
+        <v>0.207903</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.243701</v>
+        <v>0.254928</v>
       </c>
       <c r="C22" t="n">
-        <v>0.194531</v>
+        <v>0.191996</v>
       </c>
       <c r="D22" t="n">
-        <v>0.210128</v>
+        <v>0.223326</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.248677</v>
+        <v>0.256918</v>
       </c>
       <c r="C23" t="n">
-        <v>0.190566</v>
+        <v>0.199755</v>
       </c>
       <c r="D23" t="n">
-        <v>0.213643</v>
+        <v>0.219905</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.253307</v>
+        <v>0.265059</v>
       </c>
       <c r="C24" t="n">
-        <v>0.193995</v>
+        <v>0.208498</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216407</v>
+        <v>0.224389</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.255932</v>
+        <v>0.271682</v>
       </c>
       <c r="C25" t="n">
-        <v>0.195698</v>
+        <v>0.206328</v>
       </c>
       <c r="D25" t="n">
-        <v>0.22802</v>
+        <v>0.228388</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.289582</v>
+        <v>0.275404</v>
       </c>
       <c r="C26" t="n">
-        <v>0.197682</v>
+        <v>0.213628</v>
       </c>
       <c r="D26" t="n">
-        <v>0.22189</v>
+        <v>0.232006</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.221815</v>
+        <v>0.234415</v>
       </c>
       <c r="C27" t="n">
-        <v>0.201305</v>
+        <v>0.211508</v>
       </c>
       <c r="D27" t="n">
-        <v>0.225415</v>
+        <v>0.237984</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.230778</v>
+        <v>0.243106</v>
       </c>
       <c r="C28" t="n">
-        <v>0.209484</v>
+        <v>0.213922</v>
       </c>
       <c r="D28" t="n">
-        <v>0.234476</v>
+        <v>0.239605</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.239502</v>
+        <v>0.246831</v>
       </c>
       <c r="C29" t="n">
-        <v>0.209816</v>
+        <v>0.230496</v>
       </c>
       <c r="D29" t="n">
-        <v>0.233906</v>
+        <v>0.250827</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.234856</v>
+        <v>0.253245</v>
       </c>
       <c r="C30" t="n">
-        <v>0.216852</v>
+        <v>0.225429</v>
       </c>
       <c r="D30" t="n">
-        <v>0.242399</v>
+        <v>0.259262</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.240916</v>
+        <v>0.260371</v>
       </c>
       <c r="C31" t="n">
-        <v>0.216634</v>
+        <v>0.227663</v>
       </c>
       <c r="D31" t="n">
-        <v>0.255319</v>
+        <v>0.253225</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.244328</v>
+        <v>0.269015</v>
       </c>
       <c r="C32" t="n">
-        <v>0.22449</v>
+        <v>0.237222</v>
       </c>
       <c r="D32" t="n">
-        <v>0.250028</v>
+        <v>0.261774</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.306472</v>
+        <v>0.279278</v>
       </c>
       <c r="C33" t="n">
-        <v>0.277722</v>
+        <v>0.246021</v>
       </c>
       <c r="D33" t="n">
-        <v>0.287046</v>
+        <v>0.274044</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.260437</v>
+        <v>0.269563</v>
       </c>
       <c r="C34" t="n">
-        <v>0.232909</v>
+        <v>0.257979</v>
       </c>
       <c r="D34" t="n">
-        <v>0.256378</v>
+        <v>0.272738</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258694</v>
+        <v>0.278073</v>
       </c>
       <c r="C35" t="n">
-        <v>0.203573</v>
+        <v>0.220925</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222559</v>
+        <v>0.230331</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.265048</v>
+        <v>0.284173</v>
       </c>
       <c r="C36" t="n">
-        <v>0.21001</v>
+        <v>0.222868</v>
       </c>
       <c r="D36" t="n">
-        <v>0.229077</v>
+        <v>0.239498</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.274702</v>
+        <v>0.294664</v>
       </c>
       <c r="C37" t="n">
-        <v>0.213765</v>
+        <v>0.229692</v>
       </c>
       <c r="D37" t="n">
-        <v>0.229617</v>
+        <v>0.253695</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.276621</v>
+        <v>0.302007</v>
       </c>
       <c r="C38" t="n">
-        <v>0.216155</v>
+        <v>0.236695</v>
       </c>
       <c r="D38" t="n">
-        <v>0.235434</v>
+        <v>0.245499</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.28465</v>
+        <v>0.302955</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2208</v>
+        <v>0.247698</v>
       </c>
       <c r="D39" t="n">
-        <v>0.242461</v>
+        <v>0.265623</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.290492</v>
+        <v>0.335148</v>
       </c>
       <c r="C40" t="n">
-        <v>0.252899</v>
+        <v>0.236855</v>
       </c>
       <c r="D40" t="n">
-        <v>0.283011</v>
+        <v>0.27505</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.291758</v>
+        <v>0.321157</v>
       </c>
       <c r="C41" t="n">
-        <v>0.269795</v>
+        <v>0.246031</v>
       </c>
       <c r="D41" t="n">
-        <v>0.254187</v>
+        <v>0.26604</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.295645</v>
+        <v>0.32754</v>
       </c>
       <c r="C42" t="n">
-        <v>0.237316</v>
+        <v>0.266467</v>
       </c>
       <c r="D42" t="n">
-        <v>0.260097</v>
+        <v>0.285107</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.306853</v>
+        <v>0.336171</v>
       </c>
       <c r="C43" t="n">
-        <v>0.24556</v>
+        <v>0.260526</v>
       </c>
       <c r="D43" t="n">
-        <v>0.266609</v>
+        <v>0.298652</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.314712</v>
+        <v>0.357414</v>
       </c>
       <c r="C44" t="n">
-        <v>0.252258</v>
+        <v>0.273693</v>
       </c>
       <c r="D44" t="n">
-        <v>0.274701</v>
+        <v>0.291218</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.335133</v>
+        <v>0.362311</v>
       </c>
       <c r="C45" t="n">
-        <v>0.263896</v>
+        <v>0.295805</v>
       </c>
       <c r="D45" t="n">
-        <v>0.28243</v>
+        <v>0.309659</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.339264</v>
+        <v>0.36999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.268995</v>
+        <v>0.297895</v>
       </c>
       <c r="D46" t="n">
-        <v>0.28596</v>
+        <v>0.303515</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.336942</v>
+        <v>0.366644</v>
       </c>
       <c r="C47" t="n">
-        <v>0.276671</v>
+        <v>0.308909</v>
       </c>
       <c r="D47" t="n">
-        <v>0.294989</v>
+        <v>0.315813</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.352846</v>
+        <v>0.395789</v>
       </c>
       <c r="C48" t="n">
-        <v>0.278548</v>
+        <v>0.31513</v>
       </c>
       <c r="D48" t="n">
-        <v>0.300876</v>
+        <v>0.332807</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.35812</v>
+        <v>0.405559</v>
       </c>
       <c r="C49" t="n">
-        <v>0.286543</v>
+        <v>0.30818</v>
       </c>
       <c r="D49" t="n">
-        <v>0.306568</v>
+        <v>0.341619</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.384919</v>
+        <v>0.423342</v>
       </c>
       <c r="C50" t="n">
-        <v>0.295451</v>
+        <v>0.318218</v>
       </c>
       <c r="D50" t="n">
-        <v>0.292978</v>
+        <v>0.333537</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.392617</v>
+        <v>0.447481</v>
       </c>
       <c r="C51" t="n">
-        <v>0.281</v>
+        <v>0.313255</v>
       </c>
       <c r="D51" t="n">
-        <v>0.30372</v>
+        <v>0.333552</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.429531</v>
+        <v>0.464079</v>
       </c>
       <c r="C52" t="n">
-        <v>0.306472</v>
+        <v>0.32916</v>
       </c>
       <c r="D52" t="n">
-        <v>0.310191</v>
+        <v>0.34145</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.431326</v>
+        <v>0.467271</v>
       </c>
       <c r="C53" t="n">
-        <v>0.312879</v>
+        <v>0.338974</v>
       </c>
       <c r="D53" t="n">
-        <v>0.318081</v>
+        <v>0.371467</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.441788</v>
+        <v>0.466043</v>
       </c>
       <c r="C54" t="n">
-        <v>0.329714</v>
+        <v>0.34293</v>
       </c>
       <c r="D54" t="n">
-        <v>0.370998</v>
+        <v>0.364306</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.492454</v>
+        <v>0.491372</v>
       </c>
       <c r="C55" t="n">
-        <v>0.33383</v>
+        <v>0.361079</v>
       </c>
       <c r="D55" t="n">
-        <v>0.354555</v>
+        <v>0.366195</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.50612</v>
+        <v>0.556052</v>
       </c>
       <c r="C56" t="n">
-        <v>0.349541</v>
+        <v>0.383519</v>
       </c>
       <c r="D56" t="n">
-        <v>0.354608</v>
+        <v>0.39282</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.509041</v>
+        <v>0.565219</v>
       </c>
       <c r="C57" t="n">
-        <v>0.346661</v>
+        <v>0.391101</v>
       </c>
       <c r="D57" t="n">
-        <v>0.365079</v>
+        <v>0.433081</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.518331</v>
+        <v>0.584688</v>
       </c>
       <c r="C58" t="n">
-        <v>0.388223</v>
+        <v>0.409292</v>
       </c>
       <c r="D58" t="n">
-        <v>0.371546</v>
+        <v>0.424378</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.556897</v>
+        <v>0.631215</v>
       </c>
       <c r="C59" t="n">
-        <v>0.449262</v>
+        <v>0.458377</v>
       </c>
       <c r="D59" t="n">
-        <v>0.447488</v>
+        <v>0.45322</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.622241</v>
+        <v>0.691966</v>
       </c>
       <c r="C60" t="n">
-        <v>0.394137</v>
+        <v>0.469828</v>
       </c>
       <c r="D60" t="n">
-        <v>0.432028</v>
+        <v>0.486502</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.672488</v>
+        <v>0.682321</v>
       </c>
       <c r="C61" t="n">
-        <v>0.418269</v>
+        <v>0.49456</v>
       </c>
       <c r="D61" t="n">
-        <v>0.433936</v>
+        <v>0.494451</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.608432</v>
+        <v>0.69867</v>
       </c>
       <c r="C62" t="n">
-        <v>0.435545</v>
+        <v>0.512697</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4515</v>
+        <v>0.506116</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.669516</v>
+        <v>0.715639</v>
       </c>
       <c r="C63" t="n">
-        <v>0.472083</v>
+        <v>0.501604</v>
       </c>
       <c r="D63" t="n">
-        <v>0.490163</v>
+        <v>0.528622</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.69416</v>
+        <v>0.724066</v>
       </c>
       <c r="C64" t="n">
-        <v>0.508016</v>
+        <v>0.5715980000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.552544</v>
+        <v>0.582574</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6873899999999999</v>
+        <v>0.721708</v>
       </c>
       <c r="C65" t="n">
-        <v>0.555872</v>
+        <v>0.552</v>
       </c>
       <c r="D65" t="n">
-        <v>0.573694</v>
+        <v>0.603125</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.735612</v>
+        <v>0.759585</v>
       </c>
       <c r="C66" t="n">
-        <v>0.555656</v>
+        <v>0.5910530000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5714939999999999</v>
+        <v>0.608472</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.726936</v>
+        <v>0.7919929999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.569652</v>
+        <v>0.613661</v>
       </c>
       <c r="D67" t="n">
-        <v>0.58693</v>
+        <v>0.608282</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.816891</v>
+        <v>0.787619</v>
       </c>
       <c r="C68" t="n">
-        <v>0.606097</v>
+        <v>0.645293</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6199</v>
+        <v>0.667169</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.776753</v>
+        <v>0.832021</v>
       </c>
       <c r="C69" t="n">
-        <v>0.592045</v>
+        <v>0.64973</v>
       </c>
       <c r="D69" t="n">
-        <v>0.650735</v>
+        <v>0.668862</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.823265</v>
+        <v>0.844226</v>
       </c>
       <c r="C70" t="n">
-        <v>0.624016</v>
+        <v>0.634648</v>
       </c>
       <c r="D70" t="n">
-        <v>0.643782</v>
+        <v>0.712913</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.790521</v>
+        <v>0.851343</v>
       </c>
       <c r="C71" t="n">
-        <v>0.615618</v>
+        <v>0.697684</v>
       </c>
       <c r="D71" t="n">
-        <v>0.637307</v>
+        <v>0.71718</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.805554</v>
+        <v>0.850012</v>
       </c>
       <c r="C72" t="n">
-        <v>0.640984</v>
+        <v>0.668762</v>
       </c>
       <c r="D72" t="n">
-        <v>0.670835</v>
+        <v>0.723396</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.820326</v>
+        <v>0.850041</v>
       </c>
       <c r="C73" t="n">
-        <v>0.654735</v>
+        <v>0.712964</v>
       </c>
       <c r="D73" t="n">
-        <v>0.68703</v>
+        <v>0.738316</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.793113</v>
+        <v>0.884483</v>
       </c>
       <c r="C74" t="n">
-        <v>0.666609</v>
+        <v>0.698681</v>
       </c>
       <c r="D74" t="n">
-        <v>0.727773</v>
+        <v>0.765829</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.819681</v>
+        <v>0.897707</v>
       </c>
       <c r="C75" t="n">
-        <v>0.696835</v>
+        <v>0.739601</v>
       </c>
       <c r="D75" t="n">
-        <v>0.773311</v>
+        <v>0.7884949999999999</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9421119999999999</v>
+        <v>0.9213440000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.696592</v>
+        <v>0.7732830000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.700482</v>
+        <v>0.814617</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.833615</v>
+        <v>0.917354</v>
       </c>
       <c r="C77" t="n">
-        <v>0.750328</v>
+        <v>0.7605769999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.76661</v>
+        <v>0.84599</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.882858</v>
+        <v>0.940299</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6981810000000001</v>
+        <v>0.764731</v>
       </c>
       <c r="D78" t="n">
-        <v>0.750348</v>
+        <v>0.806304</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.900639</v>
+        <v>0.971104</v>
       </c>
       <c r="C79" t="n">
-        <v>0.754683</v>
+        <v>0.77982</v>
       </c>
       <c r="D79" t="n">
-        <v>0.793122</v>
+        <v>0.846801</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.908096</v>
+        <v>0.948885</v>
       </c>
       <c r="C80" t="n">
-        <v>0.759506</v>
+        <v>0.7829120000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.805812</v>
+        <v>0.845397</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.927438</v>
+        <v>0.988528</v>
       </c>
       <c r="C81" t="n">
-        <v>0.765286</v>
+        <v>0.816348</v>
       </c>
       <c r="D81" t="n">
-        <v>0.792052</v>
+        <v>0.855231</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.963077</v>
+        <v>1.04953</v>
       </c>
       <c r="C82" t="n">
-        <v>0.789874</v>
+        <v>0.815994</v>
       </c>
       <c r="D82" t="n">
-        <v>0.829807</v>
+        <v>0.874824</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.960408</v>
+        <v>1.02783</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8011160000000001</v>
+        <v>0.8407790000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.809047</v>
+        <v>0.892635</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.885453</v>
+        <v>0.954853</v>
       </c>
       <c r="C84" t="n">
-        <v>0.823172</v>
+        <v>0.857283</v>
       </c>
       <c r="D84" t="n">
-        <v>0.846625</v>
+        <v>0.928254</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.983283</v>
+        <v>0.958237</v>
       </c>
       <c r="C85" t="n">
-        <v>0.794835</v>
+        <v>0.866032</v>
       </c>
       <c r="D85" t="n">
-        <v>0.833485</v>
+        <v>0.936097</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.930656</v>
+        <v>0.9777439999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>0.83468</v>
+        <v>0.912506</v>
       </c>
       <c r="D86" t="n">
-        <v>0.896537</v>
+        <v>0.944206</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.920309</v>
+        <v>0.966948</v>
       </c>
       <c r="C87" t="n">
-        <v>0.85721</v>
+        <v>0.888755</v>
       </c>
       <c r="D87" t="n">
-        <v>0.961417</v>
+        <v>0.962386</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.94721</v>
+        <v>1.00631</v>
       </c>
       <c r="C88" t="n">
-        <v>0.874207</v>
+        <v>0.9215179999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9168190000000001</v>
+        <v>0.966413</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.968749</v>
+        <v>1.04152</v>
       </c>
       <c r="C89" t="n">
-        <v>0.891133</v>
+        <v>0.940974</v>
       </c>
       <c r="D89" t="n">
-        <v>0.928449</v>
+        <v>1.02888</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.988192</v>
+        <v>1.04541</v>
       </c>
       <c r="C90" t="n">
-        <v>0.948386</v>
+        <v>0.940215</v>
       </c>
       <c r="D90" t="n">
-        <v>0.945703</v>
+        <v>1.00693</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.988223</v>
+        <v>1.03104</v>
       </c>
       <c r="C91" t="n">
-        <v>0.905765</v>
+        <v>0.9909790000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.991074</v>
+        <v>1.05484</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.00464</v>
+        <v>1.0365</v>
       </c>
       <c r="C92" t="n">
-        <v>0.868184</v>
+        <v>0.886659</v>
       </c>
       <c r="D92" t="n">
-        <v>0.892016</v>
+        <v>0.9392740000000001</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.0117</v>
+        <v>1.0731</v>
       </c>
       <c r="C93" t="n">
-        <v>0.843048</v>
+        <v>0.917878</v>
       </c>
       <c r="D93" t="n">
-        <v>0.874619</v>
+        <v>0.978031</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.01135</v>
+        <v>1.06016</v>
       </c>
       <c r="C94" t="n">
-        <v>0.879547</v>
+        <v>0.906446</v>
       </c>
       <c r="D94" t="n">
-        <v>0.901512</v>
+        <v>1.00932</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.07297</v>
+        <v>1.11154</v>
       </c>
       <c r="C95" t="n">
-        <v>0.87862</v>
+        <v>0.938989</v>
       </c>
       <c r="D95" t="n">
-        <v>0.919362</v>
+        <v>0.990043</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.07132</v>
+        <v>1.12019</v>
       </c>
       <c r="C96" t="n">
-        <v>0.895709</v>
+        <v>0.941747</v>
       </c>
       <c r="D96" t="n">
-        <v>0.932949</v>
+        <v>1.02863</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.07372</v>
+        <v>1.16213</v>
       </c>
       <c r="C97" t="n">
-        <v>0.90906</v>
+        <v>0.97048</v>
       </c>
       <c r="D97" t="n">
-        <v>0.945086</v>
+        <v>1.02965</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9623350000000001</v>
+        <v>1.02085</v>
       </c>
       <c r="C98" t="n">
-        <v>0.924951</v>
+        <v>1.01268</v>
       </c>
       <c r="D98" t="n">
-        <v>0.961442</v>
+        <v>1.02724</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.962095</v>
+        <v>1.05153</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09288</v>
+        <v>1.02938</v>
       </c>
       <c r="D99" t="n">
-        <v>0.998827</v>
+        <v>1.0459</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.0012</v>
+        <v>1.07267</v>
       </c>
       <c r="C100" t="n">
-        <v>0.944118</v>
+        <v>1.02157</v>
       </c>
       <c r="D100" t="n">
-        <v>0.995036</v>
+        <v>1.07741</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.01039</v>
+        <v>1.05417</v>
       </c>
       <c r="C101" t="n">
-        <v>0.970657</v>
+        <v>1.04211</v>
       </c>
       <c r="D101" t="n">
-        <v>1.00916</v>
+        <v>1.11035</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.04814</v>
+        <v>1.08102</v>
       </c>
       <c r="C102" t="n">
-        <v>0.986011</v>
+        <v>1.02903</v>
       </c>
       <c r="D102" t="n">
-        <v>1.0206</v>
+        <v>1.10696</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.02889</v>
+        <v>1.11524</v>
       </c>
       <c r="C103" t="n">
-        <v>1.00581</v>
+        <v>1.06502</v>
       </c>
       <c r="D103" t="n">
-        <v>1.05231</v>
+        <v>1.12227</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.06813</v>
+        <v>1.1331</v>
       </c>
       <c r="C104" t="n">
-        <v>1.03774</v>
+        <v>1.08469</v>
       </c>
       <c r="D104" t="n">
-        <v>1.08676</v>
+        <v>1.14625</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.08113</v>
+        <v>1.14171</v>
       </c>
       <c r="C105" t="n">
-        <v>1.07759</v>
+        <v>1.10743</v>
       </c>
       <c r="D105" t="n">
-        <v>1.10105</v>
+        <v>1.15804</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.10705</v>
+        <v>1.16184</v>
       </c>
       <c r="C106" t="n">
-        <v>1.05741</v>
+        <v>1.12287</v>
       </c>
       <c r="D106" t="n">
-        <v>1.10321</v>
+        <v>1.20666</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09289</v>
+        <v>1.17446</v>
       </c>
       <c r="C107" t="n">
-        <v>0.95496</v>
+        <v>1.03893</v>
       </c>
       <c r="D107" t="n">
-        <v>0.973237</v>
+        <v>1.07055</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.11911</v>
+        <v>1.1963</v>
       </c>
       <c r="C108" t="n">
-        <v>0.961863</v>
+        <v>1.02411</v>
       </c>
       <c r="D108" t="n">
-        <v>0.99904</v>
+        <v>1.08721</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.1346</v>
+        <v>1.18162</v>
       </c>
       <c r="C109" t="n">
-        <v>0.982033</v>
+        <v>1.03647</v>
       </c>
       <c r="D109" t="n">
-        <v>1.01729</v>
+        <v>1.10443</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.15337</v>
+        <v>1.23351</v>
       </c>
       <c r="C110" t="n">
-        <v>0.991313</v>
+        <v>1.04524</v>
       </c>
       <c r="D110" t="n">
-        <v>1.01525</v>
+        <v>1.10538</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.16962</v>
+        <v>1.24058</v>
       </c>
       <c r="C111" t="n">
-        <v>1.01569</v>
+        <v>1.04958</v>
       </c>
       <c r="D111" t="n">
-        <v>1.04874</v>
+        <v>1.13488</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.06893</v>
+        <v>1.1137</v>
       </c>
       <c r="C112" t="n">
-        <v>1.02205</v>
+        <v>1.05371</v>
       </c>
       <c r="D112" t="n">
-        <v>1.0576</v>
+        <v>1.14907</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.0883</v>
+        <v>1.11113</v>
       </c>
       <c r="C113" t="n">
-        <v>1.03498</v>
+        <v>1.08052</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08125</v>
+        <v>1.16798</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.08823</v>
+        <v>1.13557</v>
       </c>
       <c r="C114" t="n">
-        <v>1.05755</v>
+        <v>1.09977</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09589</v>
+        <v>1.2158</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.09918</v>
+        <v>1.13045</v>
       </c>
       <c r="C115" t="n">
-        <v>1.05176</v>
+        <v>1.12765</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09509</v>
+        <v>1.19483</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.1306</v>
+        <v>1.16934</v>
       </c>
       <c r="C116" t="n">
-        <v>1.07623</v>
+        <v>1.14689</v>
       </c>
       <c r="D116" t="n">
-        <v>1.12532</v>
+        <v>1.21549</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.17228</v>
+        <v>1.18105</v>
       </c>
       <c r="C117" t="n">
-        <v>1.11995</v>
+        <v>1.14497</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1582</v>
+        <v>1.23547</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13648</v>
+        <v>1.21711</v>
       </c>
       <c r="C118" t="n">
-        <v>1.12872</v>
+        <v>1.16406</v>
       </c>
       <c r="D118" t="n">
-        <v>1.16017</v>
+        <v>1.26588</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.13137</v>
+        <v>1.21015</v>
       </c>
       <c r="C119" t="n">
-        <v>1.1244</v>
+        <v>1.16182</v>
       </c>
       <c r="D119" t="n">
-        <v>1.18812</v>
+        <v>1.27502</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.222345</v>
+        <v>0.259244</v>
       </c>
       <c r="C2" t="n">
-        <v>0.179197</v>
+        <v>0.188482</v>
       </c>
       <c r="D2" t="n">
-        <v>0.185328</v>
+        <v>0.205143</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.258487</v>
+        <v>0.237895</v>
       </c>
       <c r="C3" t="n">
-        <v>0.217289</v>
+        <v>0.206755</v>
       </c>
       <c r="D3" t="n">
-        <v>0.216703</v>
+        <v>0.197134</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.252001</v>
+        <v>0.23621</v>
       </c>
       <c r="C4" t="n">
-        <v>0.203782</v>
+        <v>0.212963</v>
       </c>
       <c r="D4" t="n">
-        <v>0.191872</v>
+        <v>0.202418</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.24225</v>
+        <v>0.256541</v>
       </c>
       <c r="C5" t="n">
-        <v>0.20664</v>
+        <v>0.211677</v>
       </c>
       <c r="D5" t="n">
-        <v>0.197227</v>
+        <v>0.204975</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.22911</v>
+        <v>0.248547</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197619</v>
+        <v>0.21006</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20388</v>
+        <v>0.210037</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.231944</v>
+        <v>0.257105</v>
       </c>
       <c r="C7" t="n">
-        <v>0.179345</v>
+        <v>0.220491</v>
       </c>
       <c r="D7" t="n">
-        <v>0.190293</v>
+        <v>0.212842</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.240143</v>
+        <v>0.267554</v>
       </c>
       <c r="C8" t="n">
-        <v>0.182915</v>
+        <v>0.224248</v>
       </c>
       <c r="D8" t="n">
-        <v>0.202475</v>
+        <v>0.219657</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.247888</v>
+        <v>0.281105</v>
       </c>
       <c r="C9" t="n">
-        <v>0.198376</v>
+        <v>0.232055</v>
       </c>
       <c r="D9" t="n">
-        <v>0.203943</v>
+        <v>0.210683</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.263585</v>
+        <v>0.270616</v>
       </c>
       <c r="C10" t="n">
-        <v>0.189375</v>
+        <v>0.242652</v>
       </c>
       <c r="D10" t="n">
-        <v>0.201894</v>
+        <v>0.212414</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.244976</v>
+        <v>0.272919</v>
       </c>
       <c r="C11" t="n">
-        <v>0.194081</v>
+        <v>0.236904</v>
       </c>
       <c r="D11" t="n">
-        <v>0.200422</v>
+        <v>0.211145</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.26509</v>
+        <v>0.282168</v>
       </c>
       <c r="C12" t="n">
-        <v>0.20736</v>
+        <v>0.247452</v>
       </c>
       <c r="D12" t="n">
-        <v>0.210193</v>
+        <v>0.227536</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.236302</v>
+        <v>0.241</v>
       </c>
       <c r="C13" t="n">
-        <v>0.197979</v>
+        <v>0.236942</v>
       </c>
       <c r="D13" t="n">
-        <v>0.206185</v>
+        <v>0.214602</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.240905</v>
+        <v>0.246326</v>
       </c>
       <c r="C14" t="n">
-        <v>0.202256</v>
+        <v>0.236625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.204291</v>
+        <v>0.222433</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.241351</v>
+        <v>0.250879</v>
       </c>
       <c r="C15" t="n">
-        <v>0.203181</v>
+        <v>0.255862</v>
       </c>
       <c r="D15" t="n">
-        <v>0.208822</v>
+        <v>0.231101</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.242737</v>
+        <v>0.252715</v>
       </c>
       <c r="C16" t="n">
-        <v>0.220869</v>
+        <v>0.256034</v>
       </c>
       <c r="D16" t="n">
-        <v>0.216081</v>
+        <v>0.22334</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.247079</v>
+        <v>0.253269</v>
       </c>
       <c r="C17" t="n">
-        <v>0.21487</v>
+        <v>0.25268</v>
       </c>
       <c r="D17" t="n">
-        <v>0.213766</v>
+        <v>0.22077</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.276583</v>
+        <v>0.26557</v>
       </c>
       <c r="C18" t="n">
-        <v>0.221078</v>
+        <v>0.266796</v>
       </c>
       <c r="D18" t="n">
-        <v>0.235377</v>
+        <v>0.226673</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.253934</v>
+        <v>0.262335</v>
       </c>
       <c r="C19" t="n">
-        <v>0.222508</v>
+        <v>0.258599</v>
       </c>
       <c r="D19" t="n">
-        <v>0.21711</v>
+        <v>0.242553</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.259596</v>
+        <v>0.274567</v>
       </c>
       <c r="C20" t="n">
-        <v>0.238989</v>
+        <v>0.280894</v>
       </c>
       <c r="D20" t="n">
-        <v>0.237582</v>
+        <v>0.237979</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.260862</v>
+        <v>0.274626</v>
       </c>
       <c r="C21" t="n">
-        <v>0.208971</v>
+        <v>0.219744</v>
       </c>
       <c r="D21" t="n">
-        <v>0.234713</v>
+        <v>0.243102</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.287634</v>
+        <v>0.302764</v>
       </c>
       <c r="C22" t="n">
-        <v>0.247049</v>
+        <v>0.233642</v>
       </c>
       <c r="D22" t="n">
-        <v>0.222191</v>
+        <v>0.229027</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.283321</v>
+        <v>0.301706</v>
       </c>
       <c r="C23" t="n">
-        <v>0.215653</v>
+        <v>0.235365</v>
       </c>
       <c r="D23" t="n">
-        <v>0.230241</v>
+        <v>0.24065</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.283022</v>
+        <v>0.298264</v>
       </c>
       <c r="C24" t="n">
-        <v>0.224898</v>
+        <v>0.232921</v>
       </c>
       <c r="D24" t="n">
-        <v>0.224037</v>
+        <v>0.232853</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.288352</v>
+        <v>0.309856</v>
       </c>
       <c r="C25" t="n">
-        <v>0.240112</v>
+        <v>0.244558</v>
       </c>
       <c r="D25" t="n">
-        <v>0.230287</v>
+        <v>0.235845</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.298861</v>
+        <v>0.315205</v>
       </c>
       <c r="C26" t="n">
-        <v>0.228852</v>
+        <v>0.246561</v>
       </c>
       <c r="D26" t="n">
-        <v>0.234284</v>
+        <v>0.235978</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.262675</v>
+        <v>0.293574</v>
       </c>
       <c r="C27" t="n">
-        <v>0.240844</v>
+        <v>0.250535</v>
       </c>
       <c r="D27" t="n">
-        <v>0.255613</v>
+        <v>0.242725</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.293321</v>
+        <v>0.286046</v>
       </c>
       <c r="C28" t="n">
-        <v>0.238906</v>
+        <v>0.258715</v>
       </c>
       <c r="D28" t="n">
-        <v>0.243225</v>
+        <v>0.254319</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.273231</v>
+        <v>0.298683</v>
       </c>
       <c r="C29" t="n">
-        <v>0.250715</v>
+        <v>0.278105</v>
       </c>
       <c r="D29" t="n">
-        <v>0.242664</v>
+        <v>0.248758</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.282597</v>
+        <v>0.300742</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2677</v>
+        <v>0.27735</v>
       </c>
       <c r="D30" t="n">
-        <v>0.241716</v>
+        <v>0.256028</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.281739</v>
+        <v>0.314232</v>
       </c>
       <c r="C31" t="n">
-        <v>0.253756</v>
+        <v>0.27171</v>
       </c>
       <c r="D31" t="n">
-        <v>0.264763</v>
+        <v>0.260866</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.293802</v>
+        <v>0.335581</v>
       </c>
       <c r="C32" t="n">
-        <v>0.266875</v>
+        <v>0.279786</v>
       </c>
       <c r="D32" t="n">
-        <v>0.254267</v>
+        <v>0.263673</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.310877</v>
+        <v>0.340089</v>
       </c>
       <c r="C33" t="n">
-        <v>0.272573</v>
+        <v>0.287897</v>
       </c>
       <c r="D33" t="n">
-        <v>0.259661</v>
+        <v>0.261334</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.30402</v>
+        <v>0.331067</v>
       </c>
       <c r="C34" t="n">
-        <v>0.276782</v>
+        <v>0.297694</v>
       </c>
       <c r="D34" t="n">
-        <v>0.250713</v>
+        <v>0.274568</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.311336</v>
+        <v>0.3543</v>
       </c>
       <c r="C35" t="n">
-        <v>0.251251</v>
+        <v>0.250679</v>
       </c>
       <c r="D35" t="n">
-        <v>0.239264</v>
+        <v>0.264095</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.321906</v>
+        <v>0.353806</v>
       </c>
       <c r="C36" t="n">
-        <v>0.252321</v>
+        <v>0.268766</v>
       </c>
       <c r="D36" t="n">
-        <v>0.250439</v>
+        <v>0.262543</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.340939</v>
+        <v>0.358947</v>
       </c>
       <c r="C37" t="n">
-        <v>0.258789</v>
+        <v>0.284528</v>
       </c>
       <c r="D37" t="n">
-        <v>0.262248</v>
+        <v>0.269302</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.348107</v>
+        <v>0.376315</v>
       </c>
       <c r="C38" t="n">
-        <v>0.265587</v>
+        <v>0.290661</v>
       </c>
       <c r="D38" t="n">
-        <v>0.264924</v>
+        <v>0.261703</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.352644</v>
+        <v>0.391736</v>
       </c>
       <c r="C39" t="n">
-        <v>0.268074</v>
+        <v>0.305457</v>
       </c>
       <c r="D39" t="n">
-        <v>0.259081</v>
+        <v>0.282424</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.365359</v>
+        <v>0.398278</v>
       </c>
       <c r="C40" t="n">
-        <v>0.275386</v>
+        <v>0.319045</v>
       </c>
       <c r="D40" t="n">
-        <v>0.269818</v>
+        <v>0.274569</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.350444</v>
+        <v>0.387505</v>
       </c>
       <c r="C41" t="n">
-        <v>0.279413</v>
+        <v>0.308309</v>
       </c>
       <c r="D41" t="n">
-        <v>0.265151</v>
+        <v>0.302168</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.355466</v>
+        <v>0.411106</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2806</v>
+        <v>0.310721</v>
       </c>
       <c r="D42" t="n">
-        <v>0.277333</v>
+        <v>0.292551</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.362133</v>
+        <v>0.417324</v>
       </c>
       <c r="C43" t="n">
-        <v>0.299458</v>
+        <v>0.331882</v>
       </c>
       <c r="D43" t="n">
-        <v>0.280119</v>
+        <v>0.293435</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.371422</v>
+        <v>0.425377</v>
       </c>
       <c r="C44" t="n">
-        <v>0.301552</v>
+        <v>0.356359</v>
       </c>
       <c r="D44" t="n">
-        <v>0.271029</v>
+        <v>0.292122</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.382454</v>
+        <v>0.441116</v>
       </c>
       <c r="C45" t="n">
-        <v>0.31236</v>
+        <v>0.36204</v>
       </c>
       <c r="D45" t="n">
-        <v>0.276446</v>
+        <v>0.307876</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.381496</v>
+        <v>0.428576</v>
       </c>
       <c r="C46" t="n">
-        <v>0.307805</v>
+        <v>0.348253</v>
       </c>
       <c r="D46" t="n">
-        <v>0.282819</v>
+        <v>0.304082</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.39143</v>
+        <v>0.453922</v>
       </c>
       <c r="C47" t="n">
-        <v>0.324141</v>
+        <v>0.372647</v>
       </c>
       <c r="D47" t="n">
-        <v>0.291812</v>
+        <v>0.313993</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.411123</v>
+        <v>0.471836</v>
       </c>
       <c r="C48" t="n">
-        <v>0.342626</v>
+        <v>0.389382</v>
       </c>
       <c r="D48" t="n">
-        <v>0.308854</v>
+        <v>0.319078</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.415559</v>
+        <v>0.486208</v>
       </c>
       <c r="C49" t="n">
-        <v>0.335488</v>
+        <v>0.394875</v>
       </c>
       <c r="D49" t="n">
-        <v>0.296366</v>
+        <v>0.333209</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.433617</v>
+        <v>0.473461</v>
       </c>
       <c r="C50" t="n">
-        <v>0.334797</v>
+        <v>0.409309</v>
       </c>
       <c r="D50" t="n">
-        <v>0.300954</v>
+        <v>0.351435</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.434531</v>
+        <v>0.496748</v>
       </c>
       <c r="C51" t="n">
-        <v>0.351025</v>
+        <v>0.434497</v>
       </c>
       <c r="D51" t="n">
-        <v>0.325559</v>
+        <v>0.359482</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.439591</v>
+        <v>0.522071</v>
       </c>
       <c r="C52" t="n">
-        <v>0.349952</v>
+        <v>0.420636</v>
       </c>
       <c r="D52" t="n">
-        <v>0.315548</v>
+        <v>0.354939</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.457516</v>
+        <v>0.53823</v>
       </c>
       <c r="C53" t="n">
-        <v>0.356979</v>
+        <v>0.445727</v>
       </c>
       <c r="D53" t="n">
-        <v>0.347658</v>
+        <v>0.349678</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.467442</v>
+        <v>0.553293</v>
       </c>
       <c r="C54" t="n">
-        <v>0.374708</v>
+        <v>0.457425</v>
       </c>
       <c r="D54" t="n">
-        <v>0.325713</v>
+        <v>0.367362</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.492883</v>
+        <v>0.574443</v>
       </c>
       <c r="C55" t="n">
-        <v>0.390151</v>
+        <v>0.474283</v>
       </c>
       <c r="D55" t="n">
-        <v>0.332747</v>
+        <v>0.390234</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.437904</v>
+        <v>0.518114</v>
       </c>
       <c r="C56" t="n">
-        <v>0.399387</v>
+        <v>0.495924</v>
       </c>
       <c r="D56" t="n">
-        <v>0.335337</v>
+        <v>0.385313</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.451962</v>
+        <v>0.532481</v>
       </c>
       <c r="C57" t="n">
-        <v>0.393236</v>
+        <v>0.508832</v>
       </c>
       <c r="D57" t="n">
-        <v>0.343064</v>
+        <v>0.396159</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.460422</v>
+        <v>0.547084</v>
       </c>
       <c r="C58" t="n">
-        <v>0.408521</v>
+        <v>0.529928</v>
       </c>
       <c r="D58" t="n">
-        <v>0.351763</v>
+        <v>0.396398</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.473987</v>
+        <v>0.569868</v>
       </c>
       <c r="C59" t="n">
-        <v>0.421301</v>
+        <v>0.53293</v>
       </c>
       <c r="D59" t="n">
-        <v>0.374612</v>
+        <v>0.424917</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.518402</v>
+        <v>0.568933</v>
       </c>
       <c r="C60" t="n">
-        <v>0.476731</v>
+        <v>0.553746</v>
       </c>
       <c r="D60" t="n">
-        <v>0.384413</v>
+        <v>0.41415</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.49461</v>
+        <v>0.598105</v>
       </c>
       <c r="C61" t="n">
-        <v>0.456388</v>
+        <v>0.571167</v>
       </c>
       <c r="D61" t="n">
-        <v>0.397396</v>
+        <v>0.43074</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5345220000000001</v>
+        <v>0.612895</v>
       </c>
       <c r="C62" t="n">
-        <v>0.459282</v>
+        <v>0.59174</v>
       </c>
       <c r="D62" t="n">
-        <v>0.404516</v>
+        <v>0.441268</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.520305</v>
+        <v>0.623727</v>
       </c>
       <c r="C63" t="n">
-        <v>0.487437</v>
+        <v>0.639558</v>
       </c>
       <c r="D63" t="n">
-        <v>0.403751</v>
+        <v>0.461253</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.528442</v>
+        <v>0.641649</v>
       </c>
       <c r="C64" t="n">
-        <v>0.448539</v>
+        <v>0.611635</v>
       </c>
       <c r="D64" t="n">
-        <v>0.407449</v>
+        <v>0.487028</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.555204</v>
+        <v>0.681779</v>
       </c>
       <c r="C65" t="n">
-        <v>0.483656</v>
+        <v>0.614735</v>
       </c>
       <c r="D65" t="n">
-        <v>0.410923</v>
+        <v>0.486811</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.585839</v>
+        <v>0.695862</v>
       </c>
       <c r="C66" t="n">
-        <v>0.476092</v>
+        <v>0.648207</v>
       </c>
       <c r="D66" t="n">
-        <v>0.419053</v>
+        <v>0.502533</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.585454</v>
+        <v>0.725948</v>
       </c>
       <c r="C67" t="n">
-        <v>0.496689</v>
+        <v>0.646294</v>
       </c>
       <c r="D67" t="n">
-        <v>0.442896</v>
+        <v>0.496732</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.620942</v>
+        <v>0.76213</v>
       </c>
       <c r="C68" t="n">
-        <v>0.515128</v>
+        <v>0.680631</v>
       </c>
       <c r="D68" t="n">
-        <v>0.43519</v>
+        <v>0.534614</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6538659999999999</v>
+        <v>0.785763</v>
       </c>
       <c r="C69" t="n">
-        <v>0.525512</v>
+        <v>0.706786</v>
       </c>
       <c r="D69" t="n">
-        <v>0.443091</v>
+        <v>0.544216</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.58507</v>
+        <v>0.72829</v>
       </c>
       <c r="C70" t="n">
-        <v>0.542918</v>
+        <v>0.741734</v>
       </c>
       <c r="D70" t="n">
-        <v>0.456788</v>
+        <v>0.571005</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.59848</v>
+        <v>0.7823909999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.569425</v>
+        <v>0.773513</v>
       </c>
       <c r="D71" t="n">
-        <v>0.471238</v>
+        <v>0.571673</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.691727</v>
+        <v>0.779185</v>
       </c>
       <c r="C72" t="n">
-        <v>0.628763</v>
+        <v>0.79399</v>
       </c>
       <c r="D72" t="n">
-        <v>0.482335</v>
+        <v>0.590456</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.656631</v>
+        <v>0.830869</v>
       </c>
       <c r="C73" t="n">
-        <v>0.603698</v>
+        <v>0.840732</v>
       </c>
       <c r="D73" t="n">
-        <v>0.523292</v>
+        <v>0.598044</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.709412</v>
+        <v>0.831995</v>
       </c>
       <c r="C74" t="n">
-        <v>0.620079</v>
+        <v>0.875234</v>
       </c>
       <c r="D74" t="n">
-        <v>0.51411</v>
+        <v>0.610115</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.701438</v>
+        <v>0.873315</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6677110000000001</v>
+        <v>0.9166570000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.534321</v>
+        <v>0.680681</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7518359999999999</v>
+        <v>0.923334</v>
       </c>
       <c r="C76" t="n">
-        <v>0.726482</v>
+        <v>0.93813</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5663</v>
+        <v>0.696107</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.753033</v>
+        <v>0.949698</v>
       </c>
       <c r="C77" t="n">
-        <v>0.724213</v>
+        <v>1.00134</v>
       </c>
       <c r="D77" t="n">
-        <v>0.589549</v>
+        <v>0.702296</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.796903</v>
+        <v>0.977634</v>
       </c>
       <c r="C78" t="n">
-        <v>0.725289</v>
+        <v>0.930705</v>
       </c>
       <c r="D78" t="n">
-        <v>0.589181</v>
+        <v>0.744464</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.892855</v>
+        <v>1.04457</v>
       </c>
       <c r="C79" t="n">
-        <v>0.731621</v>
+        <v>1.00441</v>
       </c>
       <c r="D79" t="n">
-        <v>0.61193</v>
+        <v>0.7886</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.893976</v>
+        <v>1.02638</v>
       </c>
       <c r="C80" t="n">
-        <v>0.763669</v>
+        <v>1.04086</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6709889999999999</v>
+        <v>0.804019</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.930659</v>
+        <v>1.09285</v>
       </c>
       <c r="C81" t="n">
-        <v>0.78956</v>
+        <v>1.0271</v>
       </c>
       <c r="D81" t="n">
-        <v>0.684355</v>
+        <v>0.817784</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.933908</v>
+        <v>1.12579</v>
       </c>
       <c r="C82" t="n">
-        <v>0.778081</v>
+        <v>1.03626</v>
       </c>
       <c r="D82" t="n">
-        <v>0.724002</v>
+        <v>0.832199</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.01953</v>
+        <v>1.16081</v>
       </c>
       <c r="C83" t="n">
-        <v>0.816105</v>
+        <v>1.11187</v>
       </c>
       <c r="D83" t="n">
-        <v>0.748457</v>
+        <v>0.828184</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.899108</v>
+        <v>1.01706</v>
       </c>
       <c r="C84" t="n">
-        <v>0.837786</v>
+        <v>1.12778</v>
       </c>
       <c r="D84" t="n">
-        <v>0.741516</v>
+        <v>0.855308</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.908508</v>
+        <v>1.07752</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8684190000000001</v>
+        <v>1.16111</v>
       </c>
       <c r="D85" t="n">
-        <v>0.761623</v>
+        <v>0.898254</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.912749</v>
+        <v>1.07206</v>
       </c>
       <c r="C86" t="n">
-        <v>0.863341</v>
+        <v>1.16304</v>
       </c>
       <c r="D86" t="n">
-        <v>0.765193</v>
+        <v>0.911209</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.0078</v>
+        <v>1.11385</v>
       </c>
       <c r="C87" t="n">
-        <v>0.972411</v>
+        <v>1.26866</v>
       </c>
       <c r="D87" t="n">
-        <v>0.771756</v>
+        <v>0.951124</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9915</v>
+        <v>1.16679</v>
       </c>
       <c r="C88" t="n">
-        <v>0.961583</v>
+        <v>1.26065</v>
       </c>
       <c r="D88" t="n">
-        <v>0.78656</v>
+        <v>0.93459</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.04124</v>
+        <v>1.21069</v>
       </c>
       <c r="C89" t="n">
-        <v>1.02434</v>
+        <v>1.29723</v>
       </c>
       <c r="D89" t="n">
-        <v>0.804298</v>
+        <v>0.954668</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.07273</v>
+        <v>1.21014</v>
       </c>
       <c r="C90" t="n">
-        <v>1.02657</v>
+        <v>1.32606</v>
       </c>
       <c r="D90" t="n">
-        <v>0.829327</v>
+        <v>1.00391</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.09413</v>
+        <v>1.23085</v>
       </c>
       <c r="C91" t="n">
-        <v>1.02783</v>
+        <v>1.3619</v>
       </c>
       <c r="D91" t="n">
-        <v>0.858789</v>
+        <v>1.00899</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.12386</v>
+        <v>1.24871</v>
       </c>
       <c r="C92" t="n">
-        <v>0.948856</v>
+        <v>1.23082</v>
       </c>
       <c r="D92" t="n">
-        <v>0.872082</v>
+        <v>0.983166</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.15607</v>
+        <v>1.26605</v>
       </c>
       <c r="C93" t="n">
-        <v>0.982504</v>
+        <v>1.2877</v>
       </c>
       <c r="D93" t="n">
-        <v>0.888671</v>
+        <v>1.02651</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.14188</v>
+        <v>1.28913</v>
       </c>
       <c r="C94" t="n">
-        <v>1.00824</v>
+        <v>1.29624</v>
       </c>
       <c r="D94" t="n">
-        <v>0.900805</v>
+        <v>1.06989</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.19763</v>
+        <v>1.37521</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05491</v>
+        <v>1.33233</v>
       </c>
       <c r="D95" t="n">
-        <v>1.00678</v>
+        <v>1.06746</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.21345</v>
+        <v>1.4151</v>
       </c>
       <c r="C96" t="n">
-        <v>1.04084</v>
+        <v>1.33144</v>
       </c>
       <c r="D96" t="n">
-        <v>0.964481</v>
+        <v>1.0483</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.26309</v>
+        <v>1.43702</v>
       </c>
       <c r="C97" t="n">
-        <v>1.07377</v>
+        <v>1.40875</v>
       </c>
       <c r="D97" t="n">
-        <v>0.953303</v>
+        <v>1.08221</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16528</v>
+        <v>1.3243</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05696</v>
+        <v>1.41203</v>
       </c>
       <c r="D98" t="n">
-        <v>0.965872</v>
+        <v>1.07987</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.14075</v>
+        <v>1.31263</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12575</v>
+        <v>1.44084</v>
       </c>
       <c r="D99" t="n">
-        <v>1.00045</v>
+        <v>1.12073</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.20242</v>
+        <v>1.32908</v>
       </c>
       <c r="C100" t="n">
-        <v>1.11105</v>
+        <v>1.46169</v>
       </c>
       <c r="D100" t="n">
-        <v>0.983694</v>
+        <v>1.14847</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16895</v>
+        <v>1.35158</v>
       </c>
       <c r="C101" t="n">
-        <v>1.12949</v>
+        <v>1.4877</v>
       </c>
       <c r="D101" t="n">
-        <v>1.04359</v>
+        <v>1.19176</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.23131</v>
+        <v>1.39384</v>
       </c>
       <c r="C102" t="n">
-        <v>1.18387</v>
+        <v>1.56365</v>
       </c>
       <c r="D102" t="n">
-        <v>1.03792</v>
+        <v>1.18688</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.25267</v>
+        <v>1.39714</v>
       </c>
       <c r="C103" t="n">
-        <v>1.21641</v>
+        <v>1.53938</v>
       </c>
       <c r="D103" t="n">
-        <v>1.05537</v>
+        <v>1.20885</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.27729</v>
+        <v>1.41559</v>
       </c>
       <c r="C104" t="n">
-        <v>1.25488</v>
+        <v>1.554</v>
       </c>
       <c r="D104" t="n">
-        <v>1.06571</v>
+        <v>1.19282</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.29132</v>
+        <v>1.43282</v>
       </c>
       <c r="C105" t="n">
-        <v>1.2443</v>
+        <v>1.62092</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08175</v>
+        <v>1.23583</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.35501</v>
+        <v>1.48659</v>
       </c>
       <c r="C106" t="n">
-        <v>1.29717</v>
+        <v>1.65214</v>
       </c>
       <c r="D106" t="n">
-        <v>1.09987</v>
+        <v>1.27805</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.31688</v>
+        <v>1.49442</v>
       </c>
       <c r="C107" t="n">
-        <v>1.14431</v>
+        <v>1.54821</v>
       </c>
       <c r="D107" t="n">
-        <v>1.04778</v>
+        <v>1.2142</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.35615</v>
+        <v>1.50636</v>
       </c>
       <c r="C108" t="n">
-        <v>1.1637</v>
+        <v>1.55293</v>
       </c>
       <c r="D108" t="n">
-        <v>1.08059</v>
+        <v>1.19317</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.43785</v>
+        <v>1.58718</v>
       </c>
       <c r="C109" t="n">
-        <v>1.1815</v>
+        <v>1.56388</v>
       </c>
       <c r="D109" t="n">
-        <v>1.07237</v>
+        <v>1.2258</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.42039</v>
+        <v>1.59864</v>
       </c>
       <c r="C110" t="n">
-        <v>1.20891</v>
+        <v>1.58263</v>
       </c>
       <c r="D110" t="n">
-        <v>1.07657</v>
+        <v>1.24718</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.41278</v>
+        <v>1.63947</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23158</v>
+        <v>1.57</v>
       </c>
       <c r="D111" t="n">
-        <v>1.11761</v>
+        <v>1.25146</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.27636</v>
+        <v>1.4494</v>
       </c>
       <c r="C112" t="n">
-        <v>1.2399</v>
+        <v>1.61321</v>
       </c>
       <c r="D112" t="n">
-        <v>1.12028</v>
+        <v>1.2785</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.29366</v>
+        <v>1.47799</v>
       </c>
       <c r="C113" t="n">
-        <v>1.28868</v>
+        <v>1.67786</v>
       </c>
       <c r="D113" t="n">
-        <v>1.12055</v>
+        <v>1.27109</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.3341</v>
+        <v>1.48142</v>
       </c>
       <c r="C114" t="n">
-        <v>1.33701</v>
+        <v>1.66929</v>
       </c>
       <c r="D114" t="n">
-        <v>1.16378</v>
+        <v>1.32958</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.35067</v>
+        <v>1.5304</v>
       </c>
       <c r="C115" t="n">
-        <v>1.39134</v>
+        <v>1.71182</v>
       </c>
       <c r="D115" t="n">
-        <v>1.18943</v>
+        <v>1.34056</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.39476</v>
+        <v>1.5498</v>
       </c>
       <c r="C116" t="n">
-        <v>1.38397</v>
+        <v>1.73716</v>
       </c>
       <c r="D116" t="n">
-        <v>1.23617</v>
+        <v>1.31502</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.42375</v>
+        <v>1.54886</v>
       </c>
       <c r="C117" t="n">
-        <v>1.43571</v>
+        <v>1.77218</v>
       </c>
       <c r="D117" t="n">
-        <v>1.23379</v>
+        <v>1.34883</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.41205</v>
+        <v>1.63002</v>
       </c>
       <c r="C118" t="n">
-        <v>1.41965</v>
+        <v>1.84831</v>
       </c>
       <c r="D118" t="n">
-        <v>1.26056</v>
+        <v>1.35226</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.46093</v>
+        <v>1.60081</v>
       </c>
       <c r="C119" t="n">
-        <v>1.49825</v>
+        <v>1.83326</v>
       </c>
       <c r="D119" t="n">
-        <v>1.35269</v>
+        <v>1.42258</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.536455</v>
+        <v>0.568098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.29702</v>
+        <v>0.304994</v>
       </c>
       <c r="D2" t="n">
-        <v>0.268011</v>
+        <v>0.242092</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.375885</v>
+        <v>0.390833</v>
       </c>
       <c r="C3" t="n">
-        <v>0.302252</v>
+        <v>0.313768</v>
       </c>
       <c r="D3" t="n">
-        <v>0.241251</v>
+        <v>0.255114</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.382856</v>
+        <v>0.39153</v>
       </c>
       <c r="C4" t="n">
-        <v>0.326789</v>
+        <v>0.328429</v>
       </c>
       <c r="D4" t="n">
-        <v>0.271438</v>
+        <v>0.251912</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.389804</v>
+        <v>0.413815</v>
       </c>
       <c r="C5" t="n">
-        <v>0.337211</v>
+        <v>0.339788</v>
       </c>
       <c r="D5" t="n">
-        <v>0.262824</v>
+        <v>0.264921</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.407747</v>
+        <v>0.424637</v>
       </c>
       <c r="C6" t="n">
-        <v>0.332762</v>
+        <v>0.343017</v>
       </c>
       <c r="D6" t="n">
-        <v>0.260147</v>
+        <v>0.274027</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.417572</v>
+        <v>0.424307</v>
       </c>
       <c r="C7" t="n">
-        <v>0.351536</v>
+        <v>0.374381</v>
       </c>
       <c r="D7" t="n">
-        <v>0.275214</v>
+        <v>0.268712</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.452427</v>
+        <v>0.449962</v>
       </c>
       <c r="C8" t="n">
-        <v>0.367328</v>
+        <v>0.390789</v>
       </c>
       <c r="D8" t="n">
-        <v>0.276685</v>
+        <v>0.278361</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.473621</v>
+        <v>0.454666</v>
       </c>
       <c r="C9" t="n">
-        <v>0.424723</v>
+        <v>0.405969</v>
       </c>
       <c r="D9" t="n">
-        <v>0.288438</v>
+        <v>0.296947</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5105769999999999</v>
+        <v>0.48344</v>
       </c>
       <c r="C10" t="n">
-        <v>0.430954</v>
+        <v>0.429264</v>
       </c>
       <c r="D10" t="n">
-        <v>0.314437</v>
+        <v>0.310171</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.502719</v>
+        <v>0.49569</v>
       </c>
       <c r="C11" t="n">
-        <v>0.311471</v>
+        <v>0.317296</v>
       </c>
       <c r="D11" t="n">
-        <v>0.242136</v>
+        <v>0.263737</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.505104</v>
+        <v>0.53405</v>
       </c>
       <c r="C12" t="n">
-        <v>0.312903</v>
+        <v>0.339535</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250916</v>
+        <v>0.256486</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.550485</v>
+        <v>0.557494</v>
       </c>
       <c r="C13" t="n">
-        <v>0.333455</v>
+        <v>0.33661</v>
       </c>
       <c r="D13" t="n">
-        <v>0.269229</v>
+        <v>0.261334</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.611514</v>
+        <v>0.575969</v>
       </c>
       <c r="C14" t="n">
-        <v>0.362554</v>
+        <v>0.359962</v>
       </c>
       <c r="D14" t="n">
-        <v>0.276572</v>
+        <v>0.2659</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.595171</v>
+        <v>0.597888</v>
       </c>
       <c r="C15" t="n">
-        <v>0.359773</v>
+        <v>0.359703</v>
       </c>
       <c r="D15" t="n">
-        <v>0.27491</v>
+        <v>0.278271</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.597816</v>
+        <v>0.599604</v>
       </c>
       <c r="C16" t="n">
-        <v>0.365229</v>
+        <v>0.386024</v>
       </c>
       <c r="D16" t="n">
-        <v>0.275332</v>
+        <v>0.280879</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.388797</v>
+        <v>0.378295</v>
       </c>
       <c r="C17" t="n">
-        <v>0.381455</v>
+        <v>0.39501</v>
       </c>
       <c r="D17" t="n">
-        <v>0.287427</v>
+        <v>0.28905</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.445151</v>
+        <v>0.395689</v>
       </c>
       <c r="C18" t="n">
-        <v>0.386416</v>
+        <v>0.39955</v>
       </c>
       <c r="D18" t="n">
-        <v>0.30296</v>
+        <v>0.28947</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.412832</v>
+        <v>0.418773</v>
       </c>
       <c r="C19" t="n">
-        <v>0.436946</v>
+        <v>0.425864</v>
       </c>
       <c r="D19" t="n">
-        <v>0.301665</v>
+        <v>0.297195</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.431665</v>
+        <v>0.447166</v>
       </c>
       <c r="C20" t="n">
-        <v>0.482328</v>
+        <v>0.456417</v>
       </c>
       <c r="D20" t="n">
-        <v>0.314017</v>
+        <v>0.312426</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.469715</v>
+        <v>0.439285</v>
       </c>
       <c r="C21" t="n">
-        <v>0.44385</v>
+        <v>0.455903</v>
       </c>
       <c r="D21" t="n">
-        <v>0.357582</v>
+        <v>0.330055</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.46084</v>
+        <v>0.456405</v>
       </c>
       <c r="C22" t="n">
-        <v>0.478326</v>
+        <v>0.47221</v>
       </c>
       <c r="D22" t="n">
-        <v>0.339555</v>
+        <v>0.34048</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.476832</v>
+        <v>0.477565</v>
       </c>
       <c r="C23" t="n">
-        <v>0.487453</v>
+        <v>0.505323</v>
       </c>
       <c r="D23" t="n">
-        <v>0.356237</v>
+        <v>0.352477</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.519383</v>
+        <v>0.50791</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5231440000000001</v>
+        <v>0.5292829999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.352429</v>
+        <v>0.356428</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5195070000000001</v>
+        <v>0.523257</v>
       </c>
       <c r="C25" t="n">
-        <v>0.565478</v>
+        <v>0.546944</v>
       </c>
       <c r="D25" t="n">
-        <v>0.366122</v>
+        <v>0.383413</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.512284</v>
+        <v>0.582806</v>
       </c>
       <c r="C26" t="n">
-        <v>0.352386</v>
+        <v>0.355752</v>
       </c>
       <c r="D26" t="n">
-        <v>0.273028</v>
+        <v>0.27372</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.539995</v>
+        <v>0.5814240000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>0.347749</v>
+        <v>0.363178</v>
       </c>
       <c r="D27" t="n">
-        <v>0.293257</v>
+        <v>0.287788</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.556762</v>
+        <v>0.557624</v>
       </c>
       <c r="C28" t="n">
-        <v>0.363326</v>
+        <v>0.390987</v>
       </c>
       <c r="D28" t="n">
-        <v>0.280963</v>
+        <v>0.295453</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.58483</v>
+        <v>0.606572</v>
       </c>
       <c r="C29" t="n">
-        <v>0.371692</v>
+        <v>0.399982</v>
       </c>
       <c r="D29" t="n">
-        <v>0.283764</v>
+        <v>0.29526</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.595374</v>
+        <v>0.601058</v>
       </c>
       <c r="C30" t="n">
-        <v>0.397972</v>
+        <v>0.409245</v>
       </c>
       <c r="D30" t="n">
-        <v>0.289149</v>
+        <v>0.294867</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.625353</v>
+        <v>0.672629</v>
       </c>
       <c r="C31" t="n">
-        <v>0.407655</v>
+        <v>0.430785</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313087</v>
+        <v>0.319472</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.463157</v>
+        <v>0.467655</v>
       </c>
       <c r="C32" t="n">
-        <v>0.421214</v>
+        <v>0.446007</v>
       </c>
       <c r="D32" t="n">
-        <v>0.308624</v>
+        <v>0.325651</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.484503</v>
+        <v>0.46751</v>
       </c>
       <c r="C33" t="n">
-        <v>0.43847</v>
+        <v>0.448334</v>
       </c>
       <c r="D33" t="n">
-        <v>0.32005</v>
+        <v>0.324434</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.486836</v>
+        <v>0.481884</v>
       </c>
       <c r="C34" t="n">
-        <v>0.446372</v>
+        <v>0.466969</v>
       </c>
       <c r="D34" t="n">
-        <v>0.329534</v>
+        <v>0.344432</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.506623</v>
+        <v>0.533353</v>
       </c>
       <c r="C35" t="n">
-        <v>0.478575</v>
+        <v>0.532604</v>
       </c>
       <c r="D35" t="n">
-        <v>0.360187</v>
+        <v>0.357691</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.517431</v>
+        <v>0.542239</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5015540000000001</v>
+        <v>0.524195</v>
       </c>
       <c r="D36" t="n">
-        <v>0.357983</v>
+        <v>0.365793</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.552556</v>
+        <v>0.559397</v>
       </c>
       <c r="C37" t="n">
-        <v>0.525748</v>
+        <v>0.553042</v>
       </c>
       <c r="D37" t="n">
-        <v>0.363699</v>
+        <v>0.375906</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.573604</v>
+        <v>0.595756</v>
       </c>
       <c r="C38" t="n">
-        <v>0.555751</v>
+        <v>0.567178</v>
       </c>
       <c r="D38" t="n">
-        <v>0.394843</v>
+        <v>0.390132</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.647925</v>
+        <v>0.647218</v>
       </c>
       <c r="C39" t="n">
-        <v>0.588076</v>
+        <v>0.640368</v>
       </c>
       <c r="D39" t="n">
-        <v>0.396544</v>
+        <v>0.395608</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.618187</v>
+        <v>0.647607</v>
       </c>
       <c r="C40" t="n">
-        <v>0.423778</v>
+        <v>0.522475</v>
       </c>
       <c r="D40" t="n">
-        <v>0.321077</v>
+        <v>0.345298</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.664894</v>
+        <v>0.720672</v>
       </c>
       <c r="C41" t="n">
-        <v>0.430342</v>
+        <v>0.543345</v>
       </c>
       <c r="D41" t="n">
-        <v>0.353263</v>
+        <v>0.349391</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.700911</v>
+        <v>0.752755</v>
       </c>
       <c r="C42" t="n">
-        <v>0.453366</v>
+        <v>0.562898</v>
       </c>
       <c r="D42" t="n">
-        <v>0.342762</v>
+        <v>0.365156</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.706283</v>
+        <v>0.753339</v>
       </c>
       <c r="C43" t="n">
-        <v>0.496719</v>
+        <v>0.581222</v>
       </c>
       <c r="D43" t="n">
-        <v>0.352637</v>
+        <v>0.397353</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.745848</v>
+        <v>0.8076100000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.513815</v>
+        <v>0.625925</v>
       </c>
       <c r="D44" t="n">
-        <v>0.361861</v>
+        <v>0.383411</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.786729</v>
+        <v>0.870774</v>
       </c>
       <c r="C45" t="n">
-        <v>0.522298</v>
+        <v>0.63855</v>
       </c>
       <c r="D45" t="n">
-        <v>0.380504</v>
+        <v>0.406108</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.61947</v>
+        <v>0.608595</v>
       </c>
       <c r="C46" t="n">
-        <v>0.564128</v>
+        <v>0.702879</v>
       </c>
       <c r="D46" t="n">
-        <v>0.395097</v>
+        <v>0.425819</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.612477</v>
+        <v>0.651065</v>
       </c>
       <c r="C47" t="n">
-        <v>0.613602</v>
+        <v>0.729914</v>
       </c>
       <c r="D47" t="n">
-        <v>0.430659</v>
+        <v>0.428806</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.623481</v>
+        <v>0.6801</v>
       </c>
       <c r="C48" t="n">
-        <v>0.607088</v>
+        <v>0.74963</v>
       </c>
       <c r="D48" t="n">
-        <v>0.466862</v>
+        <v>0.451194</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.662118</v>
+        <v>0.716454</v>
       </c>
       <c r="C49" t="n">
-        <v>0.65066</v>
+        <v>0.806376</v>
       </c>
       <c r="D49" t="n">
-        <v>0.442354</v>
+        <v>0.470918</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.739559</v>
+        <v>0.738595</v>
       </c>
       <c r="C50" t="n">
-        <v>0.730928</v>
+        <v>0.825488</v>
       </c>
       <c r="D50" t="n">
-        <v>0.492681</v>
+        <v>0.510494</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.750298</v>
+        <v>0.792537</v>
       </c>
       <c r="C51" t="n">
-        <v>0.738777</v>
+        <v>0.862026</v>
       </c>
       <c r="D51" t="n">
-        <v>0.550204</v>
+        <v>0.51428</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.759821</v>
+        <v>0.826038</v>
       </c>
       <c r="C52" t="n">
-        <v>0.819545</v>
+        <v>0.9315290000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.499094</v>
+        <v>0.527607</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.805898</v>
+        <v>0.87961</v>
       </c>
       <c r="C53" t="n">
-        <v>0.802578</v>
+        <v>0.953481</v>
       </c>
       <c r="D53" t="n">
-        <v>0.521008</v>
+        <v>0.552472</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.828553</v>
+        <v>0.921637</v>
       </c>
       <c r="C54" t="n">
-        <v>0.617743</v>
+        <v>0.6588889999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.433122</v>
+        <v>0.452169</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.905085</v>
+        <v>0.999545</v>
       </c>
       <c r="C55" t="n">
-        <v>0.653662</v>
+        <v>0.68669</v>
       </c>
       <c r="D55" t="n">
-        <v>0.441617</v>
+        <v>0.463108</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.940545</v>
+        <v>1.02203</v>
       </c>
       <c r="C56" t="n">
-        <v>0.648203</v>
+        <v>0.737202</v>
       </c>
       <c r="D56" t="n">
-        <v>0.466048</v>
+        <v>0.471286</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.00979</v>
+        <v>1.10012</v>
       </c>
       <c r="C57" t="n">
-        <v>0.680612</v>
+        <v>0.763082</v>
       </c>
       <c r="D57" t="n">
-        <v>0.475566</v>
+        <v>0.507092</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.03827</v>
+        <v>1.13604</v>
       </c>
       <c r="C58" t="n">
-        <v>0.75266</v>
+        <v>0.8012</v>
       </c>
       <c r="D58" t="n">
-        <v>0.547239</v>
+        <v>0.518429</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.14898</v>
+        <v>1.19893</v>
       </c>
       <c r="C59" t="n">
-        <v>0.811226</v>
+        <v>0.852974</v>
       </c>
       <c r="D59" t="n">
-        <v>0.516834</v>
+        <v>0.547498</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.807852</v>
+        <v>0.851283</v>
       </c>
       <c r="C60" t="n">
-        <v>0.815932</v>
+        <v>0.860271</v>
       </c>
       <c r="D60" t="n">
-        <v>0.529672</v>
+        <v>0.549096</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.873704</v>
+        <v>0.9035069999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.843166</v>
+        <v>0.940074</v>
       </c>
       <c r="D61" t="n">
-        <v>0.551404</v>
+        <v>0.593193</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.882223</v>
+        <v>0.9662849999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.874671</v>
+        <v>0.971146</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5728760000000001</v>
+        <v>0.5991340000000001</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.925836</v>
+        <v>1.02509</v>
       </c>
       <c r="C63" t="n">
-        <v>0.989473</v>
+        <v>1.03531</v>
       </c>
       <c r="D63" t="n">
-        <v>0.620583</v>
+        <v>0.670425</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.945508</v>
+        <v>1.05656</v>
       </c>
       <c r="C64" t="n">
-        <v>0.964975</v>
+        <v>1.07168</v>
       </c>
       <c r="D64" t="n">
-        <v>0.654202</v>
+        <v>0.6686800000000001</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.01294</v>
+        <v>1.15118</v>
       </c>
       <c r="C65" t="n">
-        <v>1.05412</v>
+        <v>1.17689</v>
       </c>
       <c r="D65" t="n">
-        <v>0.641742</v>
+        <v>0.7015400000000001</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.10295</v>
+        <v>1.20327</v>
       </c>
       <c r="C66" t="n">
-        <v>1.25136</v>
+        <v>1.25807</v>
       </c>
       <c r="D66" t="n">
-        <v>0.69315</v>
+        <v>0.745935</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.20023</v>
+        <v>1.27503</v>
       </c>
       <c r="C67" t="n">
-        <v>1.31754</v>
+        <v>1.33643</v>
       </c>
       <c r="D67" t="n">
-        <v>0.720553</v>
+        <v>0.750008</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.37241</v>
+        <v>1.31919</v>
       </c>
       <c r="C68" t="n">
-        <v>0.820522</v>
+        <v>0.899645</v>
       </c>
       <c r="D68" t="n">
-        <v>0.558359</v>
+        <v>0.585293</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.44029</v>
+        <v>1.50209</v>
       </c>
       <c r="C69" t="n">
-        <v>0.872281</v>
+        <v>0.968503</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5751270000000001</v>
+        <v>0.62391</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.59978</v>
+        <v>1.50168</v>
       </c>
       <c r="C70" t="n">
-        <v>0.92919</v>
+        <v>1.00779</v>
       </c>
       <c r="D70" t="n">
-        <v>0.600753</v>
+        <v>0.629154</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.73145</v>
+        <v>1.67526</v>
       </c>
       <c r="C71" t="n">
-        <v>1.00743</v>
+        <v>1.09378</v>
       </c>
       <c r="D71" t="n">
-        <v>0.680607</v>
+        <v>0.64999</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.78708</v>
+        <v>1.80942</v>
       </c>
       <c r="C72" t="n">
-        <v>1.11976</v>
+        <v>1.10678</v>
       </c>
       <c r="D72" t="n">
-        <v>0.697332</v>
+        <v>0.669111</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.78145</v>
+        <v>1.96021</v>
       </c>
       <c r="C73" t="n">
-        <v>1.11194</v>
+        <v>1.26291</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7017099999999999</v>
+        <v>0.73245</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.2518</v>
+        <v>1.31908</v>
       </c>
       <c r="C74" t="n">
-        <v>1.2014</v>
+        <v>1.36257</v>
       </c>
       <c r="D74" t="n">
-        <v>0.748577</v>
+        <v>0.766377</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.26324</v>
+        <v>1.3937</v>
       </c>
       <c r="C75" t="n">
-        <v>1.33581</v>
+        <v>1.44444</v>
       </c>
       <c r="D75" t="n">
-        <v>0.740721</v>
+        <v>0.779677</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.38431</v>
+        <v>1.43987</v>
       </c>
       <c r="C76" t="n">
-        <v>1.3704</v>
+        <v>1.51928</v>
       </c>
       <c r="D76" t="n">
-        <v>0.822182</v>
+        <v>0.8275709999999999</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.46192</v>
+        <v>1.53457</v>
       </c>
       <c r="C77" t="n">
-        <v>1.65905</v>
+        <v>1.61253</v>
       </c>
       <c r="D77" t="n">
-        <v>0.866466</v>
+        <v>0.859746</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.73432</v>
+        <v>1.60143</v>
       </c>
       <c r="C78" t="n">
-        <v>1.72273</v>
+        <v>1.75123</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8708360000000001</v>
+        <v>0.923324</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.68262</v>
+        <v>1.78106</v>
       </c>
       <c r="C79" t="n">
-        <v>1.7131</v>
+        <v>1.88874</v>
       </c>
       <c r="D79" t="n">
-        <v>1.0005</v>
+        <v>0.996865</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.75916</v>
+        <v>1.8265</v>
       </c>
       <c r="C80" t="n">
-        <v>1.86295</v>
+        <v>1.99165</v>
       </c>
       <c r="D80" t="n">
-        <v>1.03735</v>
+        <v>1.06284</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.86175</v>
+        <v>1.90092</v>
       </c>
       <c r="C81" t="n">
-        <v>2.01008</v>
+        <v>2.17668</v>
       </c>
       <c r="D81" t="n">
-        <v>1.14444</v>
+        <v>1.14492</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.02754</v>
+        <v>2.04659</v>
       </c>
       <c r="C82" t="n">
-        <v>2.1574</v>
+        <v>2.29086</v>
       </c>
       <c r="D82" t="n">
-        <v>1.16098</v>
+        <v>1.18394</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.09307</v>
+        <v>2.16269</v>
       </c>
       <c r="C83" t="n">
-        <v>1.50106</v>
+        <v>1.66213</v>
       </c>
       <c r="D83" t="n">
-        <v>0.892896</v>
+        <v>0.962647</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.19569</v>
+        <v>2.28585</v>
       </c>
       <c r="C84" t="n">
-        <v>1.55683</v>
+        <v>1.76004</v>
       </c>
       <c r="D84" t="n">
-        <v>0.980331</v>
+        <v>1.03271</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.25436</v>
+        <v>2.37513</v>
       </c>
       <c r="C85" t="n">
-        <v>1.63983</v>
+        <v>1.86307</v>
       </c>
       <c r="D85" t="n">
-        <v>0.956106</v>
+        <v>1.05462</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.35003</v>
+        <v>2.57459</v>
       </c>
       <c r="C86" t="n">
-        <v>1.7551</v>
+        <v>1.96252</v>
       </c>
       <c r="D86" t="n">
-        <v>1.05523</v>
+        <v>1.13215</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.54608</v>
+        <v>2.69151</v>
       </c>
       <c r="C87" t="n">
-        <v>1.78511</v>
+        <v>2.03873</v>
       </c>
       <c r="D87" t="n">
-        <v>1.14504</v>
+        <v>1.15137</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.74972</v>
+        <v>2.89128</v>
       </c>
       <c r="C88" t="n">
-        <v>1.99368</v>
+        <v>2.16958</v>
       </c>
       <c r="D88" t="n">
-        <v>1.16832</v>
+        <v>1.21987</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.77431</v>
+        <v>1.90233</v>
       </c>
       <c r="C89" t="n">
-        <v>2.06363</v>
+        <v>2.30364</v>
       </c>
       <c r="D89" t="n">
-        <v>1.24006</v>
+        <v>1.27649</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.93391</v>
+        <v>1.97564</v>
       </c>
       <c r="C90" t="n">
-        <v>2.16193</v>
+        <v>2.42954</v>
       </c>
       <c r="D90" t="n">
-        <v>1.25846</v>
+        <v>1.33733</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.95523</v>
+        <v>2.07598</v>
       </c>
       <c r="C91" t="n">
-        <v>2.32052</v>
+        <v>2.53581</v>
       </c>
       <c r="D91" t="n">
-        <v>1.38553</v>
+        <v>1.4289</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.0532</v>
+        <v>2.19285</v>
       </c>
       <c r="C92" t="n">
-        <v>2.4467</v>
+        <v>2.67266</v>
       </c>
       <c r="D92" t="n">
-        <v>1.47507</v>
+        <v>1.49701</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.17848</v>
+        <v>2.24085</v>
       </c>
       <c r="C93" t="n">
-        <v>2.42706</v>
+        <v>2.75673</v>
       </c>
       <c r="D93" t="n">
-        <v>1.41047</v>
+        <v>1.52555</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.25648</v>
+        <v>2.37409</v>
       </c>
       <c r="C94" t="n">
-        <v>2.63236</v>
+        <v>2.93655</v>
       </c>
       <c r="D94" t="n">
-        <v>1.52592</v>
+        <v>1.58779</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.29814</v>
+        <v>2.46098</v>
       </c>
       <c r="C95" t="n">
-        <v>2.77527</v>
+        <v>3.03135</v>
       </c>
       <c r="D95" t="n">
-        <v>1.62592</v>
+        <v>1.66041</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.41732</v>
+        <v>2.56444</v>
       </c>
       <c r="C96" t="n">
-        <v>2.85895</v>
+        <v>3.27196</v>
       </c>
       <c r="D96" t="n">
-        <v>1.69852</v>
+        <v>1.73569</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.62923</v>
+        <v>2.69554</v>
       </c>
       <c r="C97" t="n">
-        <v>2.02834</v>
+        <v>2.14734</v>
       </c>
       <c r="D97" t="n">
-        <v>1.30468</v>
+        <v>1.34296</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.62682</v>
+        <v>2.79691</v>
       </c>
       <c r="C98" t="n">
-        <v>1.9149</v>
+        <v>2.15914</v>
       </c>
       <c r="D98" t="n">
-        <v>1.34594</v>
+        <v>1.37013</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.78061</v>
+        <v>2.99826</v>
       </c>
       <c r="C99" t="n">
-        <v>2.00428</v>
+        <v>2.2999</v>
       </c>
       <c r="D99" t="n">
-        <v>1.42851</v>
+        <v>1.42392</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.869</v>
+        <v>3.07726</v>
       </c>
       <c r="C100" t="n">
-        <v>2.12686</v>
+        <v>2.39928</v>
       </c>
       <c r="D100" t="n">
-        <v>1.38881</v>
+        <v>1.46942</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.07716</v>
+        <v>3.22128</v>
       </c>
       <c r="C101" t="n">
-        <v>2.14944</v>
+        <v>2.47779</v>
       </c>
       <c r="D101" t="n">
-        <v>1.44192</v>
+        <v>1.49411</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.1702</v>
+        <v>3.40064</v>
       </c>
       <c r="C102" t="n">
-        <v>2.24983</v>
+        <v>2.52486</v>
       </c>
       <c r="D102" t="n">
-        <v>1.44716</v>
+        <v>1.52651</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.14135</v>
+        <v>2.20534</v>
       </c>
       <c r="C103" t="n">
-        <v>2.30913</v>
+        <v>2.6749</v>
       </c>
       <c r="D103" t="n">
-        <v>1.55904</v>
+        <v>1.59877</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.15759</v>
+        <v>2.28932</v>
       </c>
       <c r="C104" t="n">
-        <v>2.49535</v>
+        <v>2.74807</v>
       </c>
       <c r="D104" t="n">
-        <v>1.56849</v>
+        <v>1.64525</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.31673</v>
+        <v>2.38068</v>
       </c>
       <c r="C105" t="n">
-        <v>2.49392</v>
+        <v>2.92311</v>
       </c>
       <c r="D105" t="n">
-        <v>1.61767</v>
+        <v>1.71946</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.40651</v>
+        <v>2.507</v>
       </c>
       <c r="C106" t="n">
-        <v>2.71185</v>
+        <v>2.98586</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71269</v>
+        <v>1.79949</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.40486</v>
+        <v>2.61392</v>
       </c>
       <c r="C107" t="n">
-        <v>2.74502</v>
+        <v>3.13135</v>
       </c>
       <c r="D107" t="n">
-        <v>1.69424</v>
+        <v>1.84716</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.55083</v>
+        <v>2.67543</v>
       </c>
       <c r="C108" t="n">
-        <v>2.8883</v>
+        <v>3.24722</v>
       </c>
       <c r="D108" t="n">
-        <v>1.80037</v>
+        <v>1.86766</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.63607</v>
+        <v>2.76888</v>
       </c>
       <c r="C109" t="n">
-        <v>3.11259</v>
+        <v>3.40735</v>
       </c>
       <c r="D109" t="n">
-        <v>1.85169</v>
+        <v>2.01319</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.69851</v>
+        <v>2.91343</v>
       </c>
       <c r="C110" t="n">
-        <v>3.13304</v>
+        <v>3.55324</v>
       </c>
       <c r="D110" t="n">
-        <v>1.91884</v>
+        <v>2.01498</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.78742</v>
+        <v>3.00941</v>
       </c>
       <c r="C111" t="n">
-        <v>2.03283</v>
+        <v>2.42136</v>
       </c>
       <c r="D111" t="n">
-        <v>1.43774</v>
+        <v>1.59138</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.88911</v>
+        <v>3.15403</v>
       </c>
       <c r="C112" t="n">
-        <v>2.08958</v>
+        <v>2.56198</v>
       </c>
       <c r="D112" t="n">
-        <v>1.50555</v>
+        <v>1.62521</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.98652</v>
+        <v>3.22422</v>
       </c>
       <c r="C113" t="n">
-        <v>2.23466</v>
+        <v>2.5908</v>
       </c>
       <c r="D113" t="n">
-        <v>1.56616</v>
+        <v>1.63678</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.16695</v>
+        <v>3.37981</v>
       </c>
       <c r="C114" t="n">
-        <v>2.25126</v>
+        <v>2.65208</v>
       </c>
       <c r="D114" t="n">
-        <v>1.59117</v>
+        <v>1.74655</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.23347</v>
+        <v>3.52448</v>
       </c>
       <c r="C115" t="n">
-        <v>2.35882</v>
+        <v>2.78532</v>
       </c>
       <c r="D115" t="n">
-        <v>1.64425</v>
+        <v>1.77396</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.42442</v>
+        <v>3.67201</v>
       </c>
       <c r="C116" t="n">
-        <v>2.44821</v>
+        <v>2.86929</v>
       </c>
       <c r="D116" t="n">
-        <v>1.66279</v>
+        <v>1.82016</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.23713</v>
+        <v>2.48401</v>
       </c>
       <c r="C117" t="n">
-        <v>2.54972</v>
+        <v>2.9634</v>
       </c>
       <c r="D117" t="n">
-        <v>1.73381</v>
+        <v>1.85352</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.31143</v>
+        <v>2.54689</v>
       </c>
       <c r="C118" t="n">
-        <v>2.6285</v>
+        <v>3.03279</v>
       </c>
       <c r="D118" t="n">
-        <v>1.75129</v>
+        <v>1.93009</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.36836</v>
+        <v>2.66867</v>
       </c>
       <c r="C119" t="n">
-        <v>2.73891</v>
+        <v>3.21972</v>
       </c>
       <c r="D119" t="n">
-        <v>1.7457</v>
+        <v>1.99419</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered successful looukp.xlsx
+++ b/vs/scattered successful looukp.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.229567</v>
+        <v>0.232</v>
       </c>
       <c r="C2" t="n">
-        <v>0.214464</v>
+        <v>0.21602</v>
       </c>
       <c r="D2" t="n">
-        <v>0.221155</v>
+        <v>0.220866</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.231905</v>
+        <v>0.228718</v>
       </c>
       <c r="C3" t="n">
-        <v>0.224913</v>
+        <v>0.214743</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239422</v>
+        <v>0.221185</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.248973</v>
+        <v>0.232684</v>
       </c>
       <c r="C4" t="n">
-        <v>0.22291</v>
+        <v>0.225595</v>
       </c>
       <c r="D4" t="n">
-        <v>0.240231</v>
+        <v>0.229088</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.253049</v>
+        <v>0.242736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.233996</v>
+        <v>0.224689</v>
       </c>
       <c r="D5" t="n">
-        <v>0.239858</v>
+        <v>0.251977</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.241718</v>
+        <v>0.255543</v>
       </c>
       <c r="C6" t="n">
-        <v>0.233029</v>
+        <v>0.237934</v>
       </c>
       <c r="D6" t="n">
-        <v>0.240603</v>
+        <v>0.254215</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.245008</v>
+        <v>0.244225</v>
       </c>
       <c r="C7" t="n">
-        <v>0.198943</v>
+        <v>0.201535</v>
       </c>
       <c r="D7" t="n">
-        <v>0.211479</v>
+        <v>0.209474</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.253744</v>
+        <v>0.25819</v>
       </c>
       <c r="C8" t="n">
-        <v>0.202041</v>
+        <v>0.20364</v>
       </c>
       <c r="D8" t="n">
-        <v>0.21727</v>
+        <v>0.228382</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.256717</v>
+        <v>0.260185</v>
       </c>
       <c r="C9" t="n">
-        <v>0.204174</v>
+        <v>0.206009</v>
       </c>
       <c r="D9" t="n">
-        <v>0.211202</v>
+        <v>0.22391</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.257613</v>
+        <v>0.262395</v>
       </c>
       <c r="C10" t="n">
-        <v>0.202617</v>
+        <v>0.210229</v>
       </c>
       <c r="D10" t="n">
-        <v>0.223711</v>
+        <v>0.227712</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.262085</v>
+        <v>0.262417</v>
       </c>
       <c r="C11" t="n">
-        <v>0.206703</v>
+        <v>0.206984</v>
       </c>
       <c r="D11" t="n">
-        <v>0.220838</v>
+        <v>0.229757</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.256749</v>
+        <v>0.260534</v>
       </c>
       <c r="C12" t="n">
-        <v>0.209809</v>
+        <v>0.208194</v>
       </c>
       <c r="D12" t="n">
-        <v>0.221939</v>
+        <v>0.229475</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.221573</v>
+        <v>0.230071</v>
       </c>
       <c r="C13" t="n">
-        <v>0.210623</v>
+        <v>0.217581</v>
       </c>
       <c r="D13" t="n">
-        <v>0.221909</v>
+        <v>0.232159</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.235817</v>
+        <v>0.230065</v>
       </c>
       <c r="C14" t="n">
-        <v>0.206691</v>
+        <v>0.209678</v>
       </c>
       <c r="D14" t="n">
-        <v>0.229301</v>
+        <v>0.226015</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.232299</v>
+        <v>0.228194</v>
       </c>
       <c r="C15" t="n">
-        <v>0.215046</v>
+        <v>0.212361</v>
       </c>
       <c r="D15" t="n">
-        <v>0.225061</v>
+        <v>0.234762</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.232327</v>
+        <v>0.229546</v>
       </c>
       <c r="C16" t="n">
-        <v>0.221802</v>
+        <v>0.22258</v>
       </c>
       <c r="D16" t="n">
-        <v>0.236301</v>
+        <v>0.232656</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.240477</v>
+        <v>0.233347</v>
       </c>
       <c r="C17" t="n">
-        <v>0.228063</v>
+        <v>0.224723</v>
       </c>
       <c r="D17" t="n">
-        <v>0.240458</v>
+        <v>0.237976</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.246707</v>
+        <v>0.234894</v>
       </c>
       <c r="C18" t="n">
-        <v>0.236664</v>
+        <v>0.220654</v>
       </c>
       <c r="D18" t="n">
-        <v>0.239731</v>
+        <v>0.247884</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.249343</v>
+        <v>0.245206</v>
       </c>
       <c r="C19" t="n">
-        <v>0.233342</v>
+        <v>0.22803</v>
       </c>
       <c r="D19" t="n">
-        <v>0.244913</v>
+        <v>0.246293</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.255704</v>
+        <v>0.247335</v>
       </c>
       <c r="C20" t="n">
-        <v>0.253043</v>
+        <v>0.234491</v>
       </c>
       <c r="D20" t="n">
-        <v>0.253906</v>
+        <v>0.251067</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.257432</v>
+        <v>0.248133</v>
       </c>
       <c r="C21" t="n">
-        <v>0.203325</v>
+        <v>0.20258</v>
       </c>
       <c r="D21" t="n">
-        <v>0.219385</v>
+        <v>0.21499</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.256593</v>
+        <v>0.256909</v>
       </c>
       <c r="C22" t="n">
-        <v>0.209553</v>
+        <v>0.202213</v>
       </c>
       <c r="D22" t="n">
-        <v>0.216128</v>
+        <v>0.216812</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.25657</v>
+        <v>0.259577</v>
       </c>
       <c r="C23" t="n">
-        <v>0.211585</v>
+        <v>0.207105</v>
       </c>
       <c r="D23" t="n">
-        <v>0.226319</v>
+        <v>0.219172</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.269084</v>
+        <v>0.266115</v>
       </c>
       <c r="C24" t="n">
-        <v>0.214527</v>
+        <v>0.216217</v>
       </c>
       <c r="D24" t="n">
-        <v>0.225235</v>
+        <v>0.220743</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.26492</v>
+        <v>0.261597</v>
       </c>
       <c r="C25" t="n">
-        <v>0.210899</v>
+        <v>0.217612</v>
       </c>
       <c r="D25" t="n">
-        <v>0.22829</v>
+        <v>0.224923</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.274317</v>
+        <v>0.267915</v>
       </c>
       <c r="C26" t="n">
-        <v>0.223799</v>
+        <v>0.225199</v>
       </c>
       <c r="D26" t="n">
-        <v>0.229005</v>
+        <v>0.235795</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.235686</v>
+        <v>0.241637</v>
       </c>
       <c r="C27" t="n">
-        <v>0.227727</v>
+        <v>0.220142</v>
       </c>
       <c r="D27" t="n">
-        <v>0.240137</v>
+        <v>0.242056</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.250348</v>
+        <v>0.240501</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233121</v>
+        <v>0.223387</v>
       </c>
       <c r="D28" t="n">
-        <v>0.246752</v>
+        <v>0.23923</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.243465</v>
+        <v>0.243674</v>
       </c>
       <c r="C29" t="n">
-        <v>0.227026</v>
+        <v>0.225777</v>
       </c>
       <c r="D29" t="n">
-        <v>0.243009</v>
+        <v>0.24679</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.24937</v>
+        <v>0.250261</v>
       </c>
       <c r="C30" t="n">
-        <v>0.234671</v>
+        <v>0.228862</v>
       </c>
       <c r="D30" t="n">
-        <v>0.249079</v>
+        <v>0.258457</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.262346</v>
+        <v>0.258696</v>
       </c>
       <c r="C31" t="n">
-        <v>0.242061</v>
+        <v>0.239339</v>
       </c>
       <c r="D31" t="n">
-        <v>0.268094</v>
+        <v>0.256262</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.267755</v>
+        <v>0.256637</v>
       </c>
       <c r="C32" t="n">
-        <v>0.248743</v>
+        <v>0.248407</v>
       </c>
       <c r="D32" t="n">
-        <v>0.263847</v>
+        <v>0.256701</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.274791</v>
+        <v>0.266873</v>
       </c>
       <c r="C33" t="n">
-        <v>0.247425</v>
+        <v>0.254167</v>
       </c>
       <c r="D33" t="n">
-        <v>0.275802</v>
+        <v>0.269554</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.26724</v>
+        <v>0.275708</v>
       </c>
       <c r="C34" t="n">
-        <v>0.248274</v>
+        <v>0.254283</v>
       </c>
       <c r="D34" t="n">
-        <v>0.270432</v>
+        <v>0.274764</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.272757</v>
+        <v>0.270454</v>
       </c>
       <c r="C35" t="n">
-        <v>0.22688</v>
+        <v>0.222772</v>
       </c>
       <c r="D35" t="n">
-        <v>0.242053</v>
+        <v>0.233443</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.284495</v>
+        <v>0.283339</v>
       </c>
       <c r="C36" t="n">
-        <v>0.22689</v>
+        <v>0.231156</v>
       </c>
       <c r="D36" t="n">
-        <v>0.244249</v>
+        <v>0.240676</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.293015</v>
+        <v>0.293099</v>
       </c>
       <c r="C37" t="n">
-        <v>0.23807</v>
+        <v>0.236694</v>
       </c>
       <c r="D37" t="n">
-        <v>0.252629</v>
+        <v>0.247531</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.306567</v>
+        <v>0.300984</v>
       </c>
       <c r="C38" t="n">
-        <v>0.23977</v>
+        <v>0.236999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.252967</v>
+        <v>0.243151</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.288623</v>
+        <v>0.30644</v>
       </c>
       <c r="C39" t="n">
-        <v>0.244884</v>
+        <v>0.250334</v>
       </c>
       <c r="D39" t="n">
-        <v>0.265307</v>
+        <v>0.272835</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.320429</v>
+        <v>0.316885</v>
       </c>
       <c r="C40" t="n">
-        <v>0.26351</v>
+        <v>0.249475</v>
       </c>
       <c r="D40" t="n">
-        <v>0.27412</v>
+        <v>0.26336</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.329495</v>
+        <v>0.314293</v>
       </c>
       <c r="C41" t="n">
-        <v>0.271062</v>
+        <v>0.262964</v>
       </c>
       <c r="D41" t="n">
-        <v>0.280516</v>
+        <v>0.271744</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.333559</v>
+        <v>0.325634</v>
       </c>
       <c r="C42" t="n">
-        <v>0.275004</v>
+        <v>0.27071</v>
       </c>
       <c r="D42" t="n">
-        <v>0.270037</v>
+        <v>0.277751</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.34751</v>
+        <v>0.342218</v>
       </c>
       <c r="C43" t="n">
-        <v>0.271256</v>
+        <v>0.281884</v>
       </c>
       <c r="D43" t="n">
-        <v>0.288971</v>
+        <v>0.296812</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.351189</v>
+        <v>0.359698</v>
       </c>
       <c r="C44" t="n">
-        <v>0.268766</v>
+        <v>0.283928</v>
       </c>
       <c r="D44" t="n">
-        <v>0.28886</v>
+        <v>0.294245</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.360571</v>
+        <v>0.359368</v>
       </c>
       <c r="C45" t="n">
-        <v>0.280257</v>
+        <v>0.288232</v>
       </c>
       <c r="D45" t="n">
-        <v>0.304544</v>
+        <v>0.305254</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.363549</v>
+        <v>0.360016</v>
       </c>
       <c r="C46" t="n">
-        <v>0.293579</v>
+        <v>0.295001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.296332</v>
+        <v>0.306393</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.372346</v>
+        <v>0.373764</v>
       </c>
       <c r="C47" t="n">
-        <v>0.300566</v>
+        <v>0.30068</v>
       </c>
       <c r="D47" t="n">
-        <v>0.303901</v>
+        <v>0.319149</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.385438</v>
+        <v>0.391348</v>
       </c>
       <c r="C48" t="n">
-        <v>0.316101</v>
+        <v>0.316045</v>
       </c>
       <c r="D48" t="n">
-        <v>0.33339</v>
+        <v>0.32548</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.406821</v>
+        <v>0.399343</v>
       </c>
       <c r="C49" t="n">
-        <v>0.315057</v>
+        <v>0.318246</v>
       </c>
       <c r="D49" t="n">
-        <v>0.32835</v>
+        <v>0.33306</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.435565</v>
+        <v>0.430799</v>
       </c>
       <c r="C50" t="n">
-        <v>0.315692</v>
+        <v>0.31022</v>
       </c>
       <c r="D50" t="n">
-        <v>0.336587</v>
+        <v>0.314366</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.430774</v>
+        <v>0.437738</v>
       </c>
       <c r="C51" t="n">
-        <v>0.332932</v>
+        <v>0.329919</v>
       </c>
       <c r="D51" t="n">
-        <v>0.334729</v>
+        <v>0.322992</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.433795</v>
+        <v>0.439985</v>
       </c>
       <c r="C52" t="n">
-        <v>0.337381</v>
+        <v>0.319114</v>
       </c>
       <c r="D52" t="n">
-        <v>0.338171</v>
+        <v>0.330509</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.456081</v>
+        <v>0.450838</v>
       </c>
       <c r="C53" t="n">
-        <v>0.340429</v>
+        <v>0.333735</v>
       </c>
       <c r="D53" t="n">
-        <v>0.349534</v>
+        <v>0.350611</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.470586</v>
+        <v>0.468842</v>
       </c>
       <c r="C54" t="n">
-        <v>0.359844</v>
+        <v>0.351071</v>
       </c>
       <c r="D54" t="n">
-        <v>0.36118</v>
+        <v>0.359153</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.490881</v>
+        <v>0.49161</v>
       </c>
       <c r="C55" t="n">
-        <v>0.387127</v>
+        <v>0.361539</v>
       </c>
       <c r="D55" t="n">
-        <v>0.383421</v>
+        <v>0.370871</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.587646</v>
+        <v>0.55746</v>
       </c>
       <c r="C56" t="n">
-        <v>0.365251</v>
+        <v>0.37763</v>
       </c>
       <c r="D56" t="n">
-        <v>0.399558</v>
+        <v>0.385774</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.552647</v>
+        <v>0.567587</v>
       </c>
       <c r="C57" t="n">
-        <v>0.390178</v>
+        <v>0.409619</v>
       </c>
       <c r="D57" t="n">
-        <v>0.406273</v>
+        <v>0.397785</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.580329</v>
+        <v>0.606271</v>
       </c>
       <c r="C58" t="n">
-        <v>0.40304</v>
+        <v>0.399486</v>
       </c>
       <c r="D58" t="n">
-        <v>0.41674</v>
+        <v>0.424103</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.627074</v>
+        <v>0.594602</v>
       </c>
       <c r="C59" t="n">
-        <v>0.422433</v>
+        <v>0.429853</v>
       </c>
       <c r="D59" t="n">
-        <v>0.475993</v>
+        <v>0.451061</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.650637</v>
+        <v>0.634844</v>
       </c>
       <c r="C60" t="n">
-        <v>0.440845</v>
+        <v>0.435301</v>
       </c>
       <c r="D60" t="n">
-        <v>0.494708</v>
+        <v>0.456139</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.669558</v>
+        <v>0.653367</v>
       </c>
       <c r="C61" t="n">
-        <v>0.486927</v>
+        <v>0.45769</v>
       </c>
       <c r="D61" t="n">
-        <v>0.518999</v>
+        <v>0.48234</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.680887</v>
+        <v>0.696834</v>
       </c>
       <c r="C62" t="n">
-        <v>0.47226</v>
+        <v>0.480406</v>
       </c>
       <c r="D62" t="n">
-        <v>0.500555</v>
+        <v>0.499653</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.705349</v>
+        <v>0.7160840000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.527505</v>
+        <v>0.49757</v>
       </c>
       <c r="D63" t="n">
-        <v>0.543898</v>
+        <v>0.53263</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.71632</v>
+        <v>0.705336</v>
       </c>
       <c r="C64" t="n">
-        <v>0.546111</v>
+        <v>0.5284219999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.550783</v>
+        <v>0.579149</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.732993</v>
+        <v>0.690617</v>
       </c>
       <c r="C65" t="n">
-        <v>0.605562</v>
+        <v>0.5448</v>
       </c>
       <c r="D65" t="n">
-        <v>0.577166</v>
+        <v>0.567837</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.751173</v>
+        <v>0.707752</v>
       </c>
       <c r="C66" t="n">
-        <v>0.561951</v>
+        <v>0.552326</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5888370000000001</v>
+        <v>0.569536</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.793521</v>
+        <v>0.763686</v>
       </c>
       <c r="C67" t="n">
-        <v>0.601057</v>
+        <v>0.567284</v>
       </c>
       <c r="D67" t="n">
-        <v>0.60548</v>
+        <v>0.617467</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.810718</v>
+        <v>0.777409</v>
       </c>
       <c r="C68" t="n">
-        <v>0.589039</v>
+        <v>0.584997</v>
       </c>
       <c r="D68" t="n">
-        <v>0.662254</v>
+        <v>0.618797</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.824783</v>
+        <v>0.821259</v>
       </c>
       <c r="C69" t="n">
-        <v>0.650743</v>
+        <v>0.610496</v>
       </c>
       <c r="D69" t="n">
-        <v>0.668457</v>
+        <v>0.620291</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.827884</v>
+        <v>0.788264</v>
       </c>
       <c r="C70" t="n">
-        <v>0.624421</v>
+        <v>0.6124579999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.668448</v>
+        <v>0.64075</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.831719</v>
+        <v>0.823439</v>
       </c>
       <c r="C71" t="n">
-        <v>0.65722</v>
+        <v>0.661529</v>
       </c>
       <c r="D71" t="n">
-        <v>0.697491</v>
+        <v>0.681692</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.848413</v>
+        <v>0.880297</v>
       </c>
       <c r="C72" t="n">
-        <v>0.704599</v>
+        <v>0.644689</v>
       </c>
       <c r="D72" t="n">
-        <v>0.742884</v>
+        <v>0.688574</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.857744</v>
+        <v>0.83847</v>
       </c>
       <c r="C73" t="n">
-        <v>0.693786</v>
+        <v>0.70947</v>
       </c>
       <c r="D73" t="n">
-        <v>0.716855</v>
+        <v>0.724854</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.890968</v>
+        <v>0.887808</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6982699999999999</v>
+        <v>0.713133</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7479749999999999</v>
+        <v>0.736361</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.886649</v>
+        <v>0.886312</v>
       </c>
       <c r="C75" t="n">
-        <v>0.74538</v>
+        <v>0.738413</v>
       </c>
       <c r="D75" t="n">
-        <v>0.759447</v>
+        <v>0.730674</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.925847</v>
+        <v>0.888451</v>
       </c>
       <c r="C76" t="n">
-        <v>0.763858</v>
+        <v>0.7737000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.806423</v>
+        <v>0.7953249999999999</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.903746</v>
+        <v>0.926034</v>
       </c>
       <c r="C77" t="n">
-        <v>0.802274</v>
+        <v>0.756561</v>
       </c>
       <c r="D77" t="n">
-        <v>0.816805</v>
+        <v>0.812805</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.967244</v>
+        <v>0.914623</v>
       </c>
       <c r="C78" t="n">
-        <v>0.791399</v>
+        <v>0.7821630000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.850127</v>
+        <v>0.778394</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9502</v>
+        <v>0.950211</v>
       </c>
       <c r="C79" t="n">
-        <v>0.779573</v>
+        <v>0.8069</v>
       </c>
       <c r="D79" t="n">
-        <v>0.808442</v>
+        <v>0.792885</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.94559</v>
+        <v>0.9855930000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.797778</v>
+        <v>0.767209</v>
       </c>
       <c r="D80" t="n">
-        <v>0.817172</v>
+        <v>0.796519</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.991347</v>
+        <v>0.996957</v>
       </c>
       <c r="C81" t="n">
-        <v>0.821119</v>
+        <v>0.813626</v>
       </c>
       <c r="D81" t="n">
-        <v>0.856823</v>
+        <v>0.8292310000000001</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.01001</v>
+        <v>1.0062</v>
       </c>
       <c r="C82" t="n">
-        <v>0.822226</v>
+        <v>0.805059</v>
       </c>
       <c r="D82" t="n">
-        <v>0.848755</v>
+        <v>0.825801</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.02707</v>
+        <v>1.03891</v>
       </c>
       <c r="C83" t="n">
-        <v>0.836626</v>
+        <v>0.827197</v>
       </c>
       <c r="D83" t="n">
-        <v>0.866864</v>
+        <v>0.854375</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.979193</v>
+        <v>0.9330889999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.850515</v>
+        <v>0.862714</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8862989999999999</v>
+        <v>0.879019</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.972683</v>
+        <v>0.973809</v>
       </c>
       <c r="C85" t="n">
-        <v>0.883796</v>
+        <v>0.843346</v>
       </c>
       <c r="D85" t="n">
-        <v>0.913372</v>
+        <v>0.902363</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.968895</v>
+        <v>0.997179</v>
       </c>
       <c r="C86" t="n">
-        <v>0.903529</v>
+        <v>0.867399</v>
       </c>
       <c r="D86" t="n">
-        <v>0.916748</v>
+        <v>0.907976</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9906</v>
+        <v>0.987345</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9182169999999999</v>
+        <v>0.878895</v>
       </c>
       <c r="D87" t="n">
-        <v>0.973368</v>
+        <v>0.929067</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.980509</v>
+        <v>0.987606</v>
       </c>
       <c r="C88" t="n">
-        <v>0.922848</v>
+        <v>0.895913</v>
       </c>
       <c r="D88" t="n">
-        <v>0.971588</v>
+        <v>0.968685</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.03624</v>
+        <v>1.0264</v>
       </c>
       <c r="C89" t="n">
-        <v>0.937615</v>
+        <v>0.903043</v>
       </c>
       <c r="D89" t="n">
-        <v>0.982641</v>
+        <v>0.973978</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.01802</v>
+        <v>1.02762</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9372</v>
+        <v>0.9648949999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9831220000000001</v>
+        <v>0.99665</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.0458</v>
+        <v>1.03603</v>
       </c>
       <c r="C91" t="n">
-        <v>0.985247</v>
+        <v>0.939545</v>
       </c>
       <c r="D91" t="n">
-        <v>1.04344</v>
+        <v>0.973499</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.0476</v>
+        <v>1.06185</v>
       </c>
       <c r="C92" t="n">
-        <v>0.901541</v>
+        <v>0.906117</v>
       </c>
       <c r="D92" t="n">
-        <v>0.915177</v>
+        <v>0.927498</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.08573</v>
+        <v>1.08504</v>
       </c>
       <c r="C93" t="n">
-        <v>0.946842</v>
+        <v>0.903842</v>
       </c>
       <c r="D93" t="n">
-        <v>0.939584</v>
+        <v>0.92265</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.08114</v>
+        <v>1.13581</v>
       </c>
       <c r="C94" t="n">
-        <v>0.924992</v>
+        <v>0.933901</v>
       </c>
       <c r="D94" t="n">
-        <v>0.985771</v>
+        <v>0.93929</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.09584</v>
+        <v>1.10257</v>
       </c>
       <c r="C95" t="n">
-        <v>0.945148</v>
+        <v>0.927872</v>
       </c>
       <c r="D95" t="n">
-        <v>0.982668</v>
+        <v>0.940013</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.12469</v>
+        <v>1.11301</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9580920000000001</v>
+        <v>0.953739</v>
       </c>
       <c r="D96" t="n">
-        <v>0.98669</v>
+        <v>0.963238</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.12229</v>
+        <v>1.14293</v>
       </c>
       <c r="C97" t="n">
-        <v>0.979094</v>
+        <v>0.977726</v>
       </c>
       <c r="D97" t="n">
-        <v>1.01438</v>
+        <v>1.00622</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.02403</v>
+        <v>1.0265</v>
       </c>
       <c r="C98" t="n">
-        <v>0.957063</v>
+        <v>0.952738</v>
       </c>
       <c r="D98" t="n">
-        <v>1.01239</v>
+        <v>1.03937</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.02785</v>
+        <v>1.03904</v>
       </c>
       <c r="C99" t="n">
-        <v>0.986702</v>
+        <v>0.998532</v>
       </c>
       <c r="D99" t="n">
-        <v>1.02963</v>
+        <v>1.01264</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.0684</v>
+        <v>1.05568</v>
       </c>
       <c r="C100" t="n">
-        <v>0.990736</v>
+        <v>1.01838</v>
       </c>
       <c r="D100" t="n">
-        <v>1.0474</v>
+        <v>1.05921</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.09589</v>
+        <v>1.0684</v>
       </c>
       <c r="C101" t="n">
-        <v>1.03353</v>
+        <v>1.01569</v>
       </c>
       <c r="D101" t="n">
-        <v>1.07993</v>
+        <v>1.04842</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.07822</v>
+        <v>1.09476</v>
       </c>
       <c r="C102" t="n">
-        <v>1.04989</v>
+        <v>1.035</v>
       </c>
       <c r="D102" t="n">
-        <v>1.08292</v>
+        <v>1.08463</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.09112</v>
+        <v>1.09965</v>
       </c>
       <c r="C103" t="n">
-        <v>1.068</v>
+        <v>1.05832</v>
       </c>
       <c r="D103" t="n">
-        <v>1.08909</v>
+        <v>1.09762</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.14417</v>
+        <v>1.10307</v>
       </c>
       <c r="C104" t="n">
-        <v>1.10084</v>
+        <v>1.08281</v>
       </c>
       <c r="D104" t="n">
-        <v>1.13784</v>
+        <v>1.10526</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.14257</v>
+        <v>1.12095</v>
       </c>
       <c r="C105" t="n">
-        <v>1.11975</v>
+        <v>1.1141</v>
       </c>
       <c r="D105" t="n">
-        <v>1.14346</v>
+        <v>1.14247</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.15676</v>
+        <v>1.13399</v>
       </c>
       <c r="C106" t="n">
-        <v>1.12207</v>
+        <v>1.12976</v>
       </c>
       <c r="D106" t="n">
-        <v>1.15227</v>
+        <v>1.1476</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.17028</v>
+        <v>1.1464</v>
       </c>
       <c r="C107" t="n">
-        <v>1.00668</v>
+        <v>0.992865</v>
       </c>
       <c r="D107" t="n">
-        <v>1.06324</v>
+        <v>1.02438</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.19024</v>
+        <v>1.20722</v>
       </c>
       <c r="C108" t="n">
-        <v>1.01106</v>
+        <v>1.01696</v>
       </c>
       <c r="D108" t="n">
-        <v>1.05631</v>
+        <v>1.02883</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.19994</v>
+        <v>1.18447</v>
       </c>
       <c r="C109" t="n">
-        <v>1.03359</v>
+        <v>1.01813</v>
       </c>
       <c r="D109" t="n">
-        <v>1.06444</v>
+        <v>1.08475</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.25032</v>
+        <v>1.19052</v>
       </c>
       <c r="C110" t="n">
-        <v>1.05447</v>
+        <v>1.05132</v>
       </c>
       <c r="D110" t="n">
-        <v>1.07756</v>
+        <v>1.05858</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.2697</v>
+        <v>1.22288</v>
       </c>
       <c r="C111" t="n">
-        <v>1.05212</v>
+        <v>1.038</v>
       </c>
       <c r="D111" t="n">
-        <v>1.07343</v>
+        <v>1.07044</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.13344</v>
+        <v>1.1098</v>
       </c>
       <c r="C112" t="n">
-        <v>1.07371</v>
+        <v>1.07647</v>
       </c>
       <c r="D112" t="n">
-        <v>1.10663</v>
+        <v>1.09315</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.10624</v>
+        <v>1.15791</v>
       </c>
       <c r="C113" t="n">
-        <v>1.09514</v>
+        <v>1.08231</v>
       </c>
       <c r="D113" t="n">
-        <v>1.14911</v>
+        <v>1.11403</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.17711</v>
+        <v>1.12529</v>
       </c>
       <c r="C114" t="n">
-        <v>1.10214</v>
+        <v>1.11512</v>
       </c>
       <c r="D114" t="n">
-        <v>1.1661</v>
+        <v>1.11315</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.17676</v>
+        <v>1.16363</v>
       </c>
       <c r="C115" t="n">
-        <v>1.11661</v>
+        <v>1.10136</v>
       </c>
       <c r="D115" t="n">
-        <v>1.15521</v>
+        <v>1.15845</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.22026</v>
+        <v>1.22383</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15203</v>
+        <v>1.11514</v>
       </c>
       <c r="D116" t="n">
-        <v>1.20541</v>
+        <v>1.17564</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.20651</v>
+        <v>1.17415</v>
       </c>
       <c r="C117" t="n">
-        <v>1.1534</v>
+        <v>1.14952</v>
       </c>
       <c r="D117" t="n">
-        <v>1.21229</v>
+        <v>1.22477</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.24183</v>
+        <v>1.19315</v>
       </c>
       <c r="C118" t="n">
-        <v>1.19991</v>
+        <v>1.17057</v>
       </c>
       <c r="D118" t="n">
-        <v>1.23969</v>
+        <v>1.22202</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.25284</v>
+        <v>1.22977</v>
       </c>
       <c r="C119" t="n">
-        <v>1.21592</v>
+        <v>1.21808</v>
       </c>
       <c r="D119" t="n">
-        <v>1.2594</v>
+        <v>1.24518</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.25803</v>
+        <v>0.246037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.226339</v>
+        <v>0.197411</v>
       </c>
       <c r="D2" t="n">
-        <v>0.206026</v>
+        <v>0.199753</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239789</v>
+        <v>0.237706</v>
       </c>
       <c r="C3" t="n">
-        <v>0.237199</v>
+        <v>0.208948</v>
       </c>
       <c r="D3" t="n">
-        <v>0.193742</v>
+        <v>0.195202</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.251147</v>
+        <v>0.239249</v>
       </c>
       <c r="C4" t="n">
-        <v>0.230649</v>
+        <v>0.201267</v>
       </c>
       <c r="D4" t="n">
-        <v>0.20867</v>
+        <v>0.206135</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.245224</v>
+        <v>0.244961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.234335</v>
+        <v>0.203398</v>
       </c>
       <c r="D5" t="n">
-        <v>0.190118</v>
+        <v>0.19939</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.249468</v>
+        <v>0.239054</v>
       </c>
       <c r="C6" t="n">
-        <v>0.240731</v>
+        <v>0.208718</v>
       </c>
       <c r="D6" t="n">
-        <v>0.203152</v>
+        <v>0.196474</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.260581</v>
+        <v>0.244508</v>
       </c>
       <c r="C7" t="n">
-        <v>0.20273</v>
+        <v>0.191149</v>
       </c>
       <c r="D7" t="n">
-        <v>0.225923</v>
+        <v>0.200398</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.265049</v>
+        <v>0.265264</v>
       </c>
       <c r="C8" t="n">
-        <v>0.201966</v>
+        <v>0.218762</v>
       </c>
       <c r="D8" t="n">
-        <v>0.218185</v>
+        <v>0.234483</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.268065</v>
+        <v>0.257888</v>
       </c>
       <c r="C9" t="n">
-        <v>0.208231</v>
+        <v>0.210724</v>
       </c>
       <c r="D9" t="n">
-        <v>0.21838</v>
+        <v>0.222036</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.278822</v>
+        <v>0.291898</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22759</v>
+        <v>0.217066</v>
       </c>
       <c r="D10" t="n">
-        <v>0.218941</v>
+        <v>0.226455</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.280313</v>
+        <v>0.266224</v>
       </c>
       <c r="C11" t="n">
-        <v>0.211881</v>
+        <v>0.211701</v>
       </c>
       <c r="D11" t="n">
-        <v>0.21952</v>
+        <v>0.218061</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.273472</v>
+        <v>0.290189</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2244</v>
+        <v>0.231298</v>
       </c>
       <c r="D12" t="n">
-        <v>0.223363</v>
+        <v>0.217279</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.255279</v>
+        <v>0.252984</v>
       </c>
       <c r="C13" t="n">
-        <v>0.222471</v>
+        <v>0.207968</v>
       </c>
       <c r="D13" t="n">
-        <v>0.221173</v>
+        <v>0.227495</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.259848</v>
+        <v>0.261127</v>
       </c>
       <c r="C14" t="n">
-        <v>0.212143</v>
+        <v>0.225475</v>
       </c>
       <c r="D14" t="n">
-        <v>0.232914</v>
+        <v>0.226798</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.25965</v>
+        <v>0.253184</v>
       </c>
       <c r="C15" t="n">
-        <v>0.221003</v>
+        <v>0.21855</v>
       </c>
       <c r="D15" t="n">
-        <v>0.218522</v>
+        <v>0.223151</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.257067</v>
+        <v>0.253353</v>
       </c>
       <c r="C16" t="n">
-        <v>0.221012</v>
+        <v>0.216564</v>
       </c>
       <c r="D16" t="n">
-        <v>0.224462</v>
+        <v>0.234667</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.267198</v>
+        <v>0.267159</v>
       </c>
       <c r="C17" t="n">
-        <v>0.225625</v>
+        <v>0.219023</v>
       </c>
       <c r="D17" t="n">
-        <v>0.221394</v>
+        <v>0.227521</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.257719</v>
+        <v>0.25489</v>
       </c>
       <c r="C18" t="n">
-        <v>0.226995</v>
+        <v>0.226006</v>
       </c>
       <c r="D18" t="n">
-        <v>0.235735</v>
+        <v>0.241712</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.26263</v>
+        <v>0.274888</v>
       </c>
       <c r="C19" t="n">
-        <v>0.236949</v>
+        <v>0.240182</v>
       </c>
       <c r="D19" t="n">
-        <v>0.229187</v>
+        <v>0.235849</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.277694</v>
+        <v>0.270116</v>
       </c>
       <c r="C20" t="n">
-        <v>0.232072</v>
+        <v>0.24735</v>
       </c>
       <c r="D20" t="n">
-        <v>0.244049</v>
+        <v>0.228762</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.280397</v>
+        <v>0.27175</v>
       </c>
       <c r="C21" t="n">
-        <v>0.231615</v>
+        <v>0.222837</v>
       </c>
       <c r="D21" t="n">
-        <v>0.234487</v>
+        <v>0.232283</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.286287</v>
+        <v>0.272049</v>
       </c>
       <c r="C22" t="n">
-        <v>0.224023</v>
+        <v>0.217836</v>
       </c>
       <c r="D22" t="n">
-        <v>0.232877</v>
+        <v>0.22769</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.291748</v>
+        <v>0.285858</v>
       </c>
       <c r="C23" t="n">
-        <v>0.222049</v>
+        <v>0.234437</v>
       </c>
       <c r="D23" t="n">
-        <v>0.233908</v>
+        <v>0.235408</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.284448</v>
+        <v>0.296216</v>
       </c>
       <c r="C24" t="n">
-        <v>0.24056</v>
+        <v>0.241838</v>
       </c>
       <c r="D24" t="n">
-        <v>0.238666</v>
+        <v>0.234685</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.306347</v>
+        <v>0.303288</v>
       </c>
       <c r="C25" t="n">
-        <v>0.247767</v>
+        <v>0.246579</v>
       </c>
       <c r="D25" t="n">
-        <v>0.247082</v>
+        <v>0.239504</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.317288</v>
+        <v>0.309872</v>
       </c>
       <c r="C26" t="n">
-        <v>0.273614</v>
+        <v>0.246291</v>
       </c>
       <c r="D26" t="n">
-        <v>0.243314</v>
+        <v>0.245914</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.287808</v>
+        <v>0.28985</v>
       </c>
       <c r="C27" t="n">
-        <v>0.251322</v>
+        <v>0.253153</v>
       </c>
       <c r="D27" t="n">
-        <v>0.246355</v>
+        <v>0.248063</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.286402</v>
+        <v>0.287429</v>
       </c>
       <c r="C28" t="n">
-        <v>0.258334</v>
+        <v>0.257571</v>
       </c>
       <c r="D28" t="n">
-        <v>0.247109</v>
+        <v>0.249607</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.298986</v>
+        <v>0.297725</v>
       </c>
       <c r="C29" t="n">
-        <v>0.258931</v>
+        <v>0.259837</v>
       </c>
       <c r="D29" t="n">
-        <v>0.246564</v>
+        <v>0.247614</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.30378</v>
+        <v>0.322336</v>
       </c>
       <c r="C30" t="n">
-        <v>0.270238</v>
+        <v>0.272472</v>
       </c>
       <c r="D30" t="n">
-        <v>0.265028</v>
+        <v>0.251823</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.317229</v>
+        <v>0.316407</v>
       </c>
       <c r="C31" t="n">
-        <v>0.273857</v>
+        <v>0.265271</v>
       </c>
       <c r="D31" t="n">
-        <v>0.269014</v>
+        <v>0.261007</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.325655</v>
+        <v>0.327851</v>
       </c>
       <c r="C32" t="n">
-        <v>0.284823</v>
+        <v>0.290294</v>
       </c>
       <c r="D32" t="n">
-        <v>0.26052</v>
+        <v>0.265438</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.353673</v>
+        <v>0.332662</v>
       </c>
       <c r="C33" t="n">
-        <v>0.296705</v>
+        <v>0.290431</v>
       </c>
       <c r="D33" t="n">
-        <v>0.269716</v>
+        <v>0.274698</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.338625</v>
+        <v>0.348192</v>
       </c>
       <c r="C34" t="n">
-        <v>0.305206</v>
+        <v>0.298596</v>
       </c>
       <c r="D34" t="n">
-        <v>0.26983</v>
+        <v>0.263405</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.343522</v>
+        <v>0.360321</v>
       </c>
       <c r="C35" t="n">
-        <v>0.250681</v>
+        <v>0.254076</v>
       </c>
       <c r="D35" t="n">
-        <v>0.250412</v>
+        <v>0.248797</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.364763</v>
+        <v>0.376708</v>
       </c>
       <c r="C36" t="n">
-        <v>0.256052</v>
+        <v>0.256572</v>
       </c>
       <c r="D36" t="n">
-        <v>0.254176</v>
+        <v>0.254415</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.376953</v>
+        <v>0.385992</v>
       </c>
       <c r="C37" t="n">
-        <v>0.261513</v>
+        <v>0.268745</v>
       </c>
       <c r="D37" t="n">
-        <v>0.268331</v>
+        <v>0.267054</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.378171</v>
+        <v>0.379742</v>
       </c>
       <c r="C38" t="n">
-        <v>0.272174</v>
+        <v>0.278935</v>
       </c>
       <c r="D38" t="n">
-        <v>0.281877</v>
+        <v>0.273639</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.38858</v>
+        <v>0.400269</v>
       </c>
       <c r="C39" t="n">
-        <v>0.287802</v>
+        <v>0.283494</v>
       </c>
       <c r="D39" t="n">
-        <v>0.270128</v>
+        <v>0.27337</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.410333</v>
+        <v>0.395852</v>
       </c>
       <c r="C40" t="n">
-        <v>0.299551</v>
+        <v>0.292988</v>
       </c>
       <c r="D40" t="n">
-        <v>0.280074</v>
+        <v>0.290165</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.392968</v>
+        <v>0.39607</v>
       </c>
       <c r="C41" t="n">
-        <v>0.298324</v>
+        <v>0.302876</v>
       </c>
       <c r="D41" t="n">
-        <v>0.281319</v>
+        <v>0.284497</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.408428</v>
+        <v>0.412063</v>
       </c>
       <c r="C42" t="n">
-        <v>0.312189</v>
+        <v>0.299612</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2924</v>
+        <v>0.283988</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.425334</v>
+        <v>0.418136</v>
       </c>
       <c r="C43" t="n">
-        <v>0.311306</v>
+        <v>0.312071</v>
       </c>
       <c r="D43" t="n">
-        <v>0.29792</v>
+        <v>0.279585</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.42785</v>
+        <v>0.434214</v>
       </c>
       <c r="C44" t="n">
-        <v>0.326286</v>
+        <v>0.322738</v>
       </c>
       <c r="D44" t="n">
-        <v>0.291935</v>
+        <v>0.292831</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.426144</v>
+        <v>0.439568</v>
       </c>
       <c r="C45" t="n">
-        <v>0.336147</v>
+        <v>0.334578</v>
       </c>
       <c r="D45" t="n">
-        <v>0.31041</v>
+        <v>0.306453</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.436588</v>
+        <v>0.449124</v>
       </c>
       <c r="C46" t="n">
-        <v>0.343178</v>
+        <v>0.332492</v>
       </c>
       <c r="D46" t="n">
-        <v>0.31228</v>
+        <v>0.308145</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.447431</v>
+        <v>0.452943</v>
       </c>
       <c r="C47" t="n">
-        <v>0.357117</v>
+        <v>0.356803</v>
       </c>
       <c r="D47" t="n">
-        <v>0.318513</v>
+        <v>0.327602</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.479592</v>
+        <v>0.471952</v>
       </c>
       <c r="C48" t="n">
-        <v>0.373361</v>
+        <v>0.355535</v>
       </c>
       <c r="D48" t="n">
-        <v>0.330345</v>
+        <v>0.318333</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.47456</v>
+        <v>0.484077</v>
       </c>
       <c r="C49" t="n">
-        <v>0.383599</v>
+        <v>0.376552</v>
       </c>
       <c r="D49" t="n">
-        <v>0.325426</v>
+        <v>0.331019</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.512549</v>
+        <v>0.487175</v>
       </c>
       <c r="C50" t="n">
-        <v>0.37481</v>
+        <v>0.371477</v>
       </c>
       <c r="D50" t="n">
-        <v>0.335485</v>
+        <v>0.338095</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.50432</v>
+        <v>0.4947</v>
       </c>
       <c r="C51" t="n">
-        <v>0.392058</v>
+        <v>0.375749</v>
       </c>
       <c r="D51" t="n">
-        <v>0.361375</v>
+        <v>0.350401</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.538036</v>
+        <v>0.523709</v>
       </c>
       <c r="C52" t="n">
-        <v>0.402719</v>
+        <v>0.382556</v>
       </c>
       <c r="D52" t="n">
-        <v>0.359063</v>
+        <v>0.358656</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.535934</v>
+        <v>0.536185</v>
       </c>
       <c r="C53" t="n">
-        <v>0.400928</v>
+        <v>0.407122</v>
       </c>
       <c r="D53" t="n">
-        <v>0.365104</v>
+        <v>0.352137</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.568062</v>
+        <v>0.543991</v>
       </c>
       <c r="C54" t="n">
-        <v>0.416845</v>
+        <v>0.414997</v>
       </c>
       <c r="D54" t="n">
-        <v>0.36702</v>
+        <v>0.37522</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.560885</v>
+        <v>0.573115</v>
       </c>
       <c r="C55" t="n">
-        <v>0.415924</v>
+        <v>0.439917</v>
       </c>
       <c r="D55" t="n">
-        <v>0.373509</v>
+        <v>0.377146</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.517027</v>
+        <v>0.509043</v>
       </c>
       <c r="C56" t="n">
-        <v>0.421542</v>
+        <v>0.426091</v>
       </c>
       <c r="D56" t="n">
-        <v>0.395167</v>
+        <v>0.386508</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.541782</v>
+        <v>0.518702</v>
       </c>
       <c r="C57" t="n">
-        <v>0.460633</v>
+        <v>0.454054</v>
       </c>
       <c r="D57" t="n">
-        <v>0.404995</v>
+        <v>0.390638</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.536729</v>
+        <v>0.544258</v>
       </c>
       <c r="C58" t="n">
-        <v>0.478518</v>
+        <v>0.489532</v>
       </c>
       <c r="D58" t="n">
-        <v>0.415897</v>
+        <v>0.397676</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.583476</v>
+        <v>0.570684</v>
       </c>
       <c r="C59" t="n">
-        <v>0.485408</v>
+        <v>0.498534</v>
       </c>
       <c r="D59" t="n">
-        <v>0.419874</v>
+        <v>0.415434</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.601085</v>
+        <v>0.587476</v>
       </c>
       <c r="C60" t="n">
-        <v>0.500381</v>
+        <v>0.491956</v>
       </c>
       <c r="D60" t="n">
-        <v>0.423087</v>
+        <v>0.427042</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.611252</v>
+        <v>0.594888</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5182330000000001</v>
+        <v>0.533999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.437718</v>
+        <v>0.440395</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.622261</v>
+        <v>0.599782</v>
       </c>
       <c r="C62" t="n">
-        <v>0.530184</v>
+        <v>0.5282249999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.450027</v>
+        <v>0.441571</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.629038</v>
+        <v>0.639962</v>
       </c>
       <c r="C63" t="n">
-        <v>0.551484</v>
+        <v>0.566641</v>
       </c>
       <c r="D63" t="n">
-        <v>0.455684</v>
+        <v>0.455723</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.652779</v>
+        <v>0.651489</v>
       </c>
       <c r="C64" t="n">
-        <v>0.520523</v>
+        <v>0.546013</v>
       </c>
       <c r="D64" t="n">
-        <v>0.484308</v>
+        <v>0.491735</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.692066</v>
+        <v>0.704252</v>
       </c>
       <c r="C65" t="n">
-        <v>0.537608</v>
+        <v>0.537883</v>
       </c>
       <c r="D65" t="n">
-        <v>0.481015</v>
+        <v>0.482536</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.727212</v>
+        <v>0.695483</v>
       </c>
       <c r="C66" t="n">
-        <v>0.577243</v>
+        <v>0.548979</v>
       </c>
       <c r="D66" t="n">
-        <v>0.508485</v>
+        <v>0.485291</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.728106</v>
+        <v>0.743405</v>
       </c>
       <c r="C67" t="n">
-        <v>0.581618</v>
+        <v>0.569547</v>
       </c>
       <c r="D67" t="n">
-        <v>0.544503</v>
+        <v>0.520415</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7738120000000001</v>
+        <v>0.792687</v>
       </c>
       <c r="C68" t="n">
-        <v>0.600156</v>
+        <v>0.5842349999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.529298</v>
+        <v>0.527092</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8377869999999999</v>
+        <v>0.801143</v>
       </c>
       <c r="C69" t="n">
-        <v>0.609961</v>
+        <v>0.596106</v>
       </c>
       <c r="D69" t="n">
-        <v>0.555631</v>
+        <v>0.56857</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.767922</v>
+        <v>0.753109</v>
       </c>
       <c r="C70" t="n">
-        <v>0.617949</v>
+        <v>0.653327</v>
       </c>
       <c r="D70" t="n">
-        <v>0.550885</v>
+        <v>0.557674</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.731303</v>
+        <v>0.76273</v>
       </c>
       <c r="C71" t="n">
-        <v>0.640866</v>
+        <v>0.680164</v>
       </c>
       <c r="D71" t="n">
-        <v>0.575997</v>
+        <v>0.55481</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.781382</v>
+        <v>0.799095</v>
       </c>
       <c r="C72" t="n">
-        <v>0.666042</v>
+        <v>0.694796</v>
       </c>
       <c r="D72" t="n">
-        <v>0.615098</v>
+        <v>0.620108</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.796879</v>
+        <v>0.824116</v>
       </c>
       <c r="C73" t="n">
-        <v>0.728001</v>
+        <v>0.746661</v>
       </c>
       <c r="D73" t="n">
-        <v>0.64608</v>
+        <v>0.60595</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8360919999999999</v>
+        <v>0.858845</v>
       </c>
       <c r="C74" t="n">
-        <v>0.755448</v>
+        <v>0.755482</v>
       </c>
       <c r="D74" t="n">
-        <v>0.636776</v>
+        <v>0.639621</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.881982</v>
+        <v>0.922387</v>
       </c>
       <c r="C75" t="n">
-        <v>0.787623</v>
+        <v>0.798508</v>
       </c>
       <c r="D75" t="n">
-        <v>0.661266</v>
+        <v>0.657463</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.914473</v>
+        <v>0.921112</v>
       </c>
       <c r="C76" t="n">
-        <v>0.799543</v>
+        <v>0.840807</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6949</v>
+        <v>0.687505</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.918181</v>
+        <v>0.929552</v>
       </c>
       <c r="C77" t="n">
-        <v>0.864347</v>
+        <v>0.842876</v>
       </c>
       <c r="D77" t="n">
-        <v>0.710217</v>
+        <v>0.7151690000000001</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.983021</v>
+        <v>0.988492</v>
       </c>
       <c r="C78" t="n">
-        <v>0.818557</v>
+        <v>0.77827</v>
       </c>
       <c r="D78" t="n">
-        <v>0.771716</v>
+        <v>0.72924</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.00096</v>
+        <v>1.01392</v>
       </c>
       <c r="C79" t="n">
-        <v>0.828329</v>
+        <v>0.81076</v>
       </c>
       <c r="D79" t="n">
-        <v>0.761541</v>
+        <v>0.7443340000000001</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.07564</v>
+        <v>1.06831</v>
       </c>
       <c r="C80" t="n">
-        <v>0.854155</v>
+        <v>0.818227</v>
       </c>
       <c r="D80" t="n">
-        <v>0.795533</v>
+        <v>0.792425</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08126</v>
+        <v>1.08093</v>
       </c>
       <c r="C81" t="n">
-        <v>0.886817</v>
+        <v>0.872139</v>
       </c>
       <c r="D81" t="n">
-        <v>0.825844</v>
+        <v>0.787976</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.15286</v>
+        <v>1.09836</v>
       </c>
       <c r="C82" t="n">
-        <v>0.905247</v>
+        <v>0.903756</v>
       </c>
       <c r="D82" t="n">
-        <v>0.858426</v>
+        <v>0.852177</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.14775</v>
+        <v>1.17383</v>
       </c>
       <c r="C83" t="n">
-        <v>0.91217</v>
+        <v>0.925296</v>
       </c>
       <c r="D83" t="n">
-        <v>0.862135</v>
+        <v>0.847361</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.04878</v>
+        <v>1.03768</v>
       </c>
       <c r="C84" t="n">
-        <v>1.00065</v>
+        <v>0.974946</v>
       </c>
       <c r="D84" t="n">
-        <v>0.904976</v>
+        <v>0.88182</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.09881</v>
+        <v>1.08596</v>
       </c>
       <c r="C85" t="n">
-        <v>0.97426</v>
+        <v>1.01202</v>
       </c>
       <c r="D85" t="n">
-        <v>0.91921</v>
+        <v>0.931547</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.10701</v>
+        <v>1.09151</v>
       </c>
       <c r="C86" t="n">
-        <v>1.03048</v>
+        <v>1.01602</v>
       </c>
       <c r="D86" t="n">
-        <v>0.941418</v>
+        <v>0.928267</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.10393</v>
+        <v>1.13908</v>
       </c>
       <c r="C87" t="n">
-        <v>1.08569</v>
+        <v>1.03027</v>
       </c>
       <c r="D87" t="n">
-        <v>0.904379</v>
+        <v>0.92208</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.15564</v>
+        <v>1.17384</v>
       </c>
       <c r="C88" t="n">
-        <v>1.07422</v>
+        <v>1.06006</v>
       </c>
       <c r="D88" t="n">
-        <v>0.945275</v>
+        <v>0.944812</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.17011</v>
+        <v>1.17308</v>
       </c>
       <c r="C89" t="n">
-        <v>1.10507</v>
+        <v>1.09673</v>
       </c>
       <c r="D89" t="n">
-        <v>0.965075</v>
+        <v>0.976337</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.22218</v>
+        <v>1.24483</v>
       </c>
       <c r="C90" t="n">
-        <v>1.14359</v>
+        <v>1.16294</v>
       </c>
       <c r="D90" t="n">
-        <v>1.01154</v>
+        <v>1.00662</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.24199</v>
+        <v>1.24971</v>
       </c>
       <c r="C91" t="n">
-        <v>1.17361</v>
+        <v>1.1639</v>
       </c>
       <c r="D91" t="n">
-        <v>1.00909</v>
+        <v>1.00871</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.27513</v>
+        <v>1.25682</v>
       </c>
       <c r="C92" t="n">
-        <v>1.08174</v>
+        <v>1.05419</v>
       </c>
       <c r="D92" t="n">
-        <v>1.01038</v>
+        <v>0.991285</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.32526</v>
+        <v>1.27147</v>
       </c>
       <c r="C93" t="n">
-        <v>1.08782</v>
+        <v>1.06177</v>
       </c>
       <c r="D93" t="n">
-        <v>1.03959</v>
+        <v>1.02637</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.34738</v>
+        <v>1.31125</v>
       </c>
       <c r="C94" t="n">
-        <v>1.11179</v>
+        <v>1.08626</v>
       </c>
       <c r="D94" t="n">
-        <v>1.0689</v>
+        <v>1.01413</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.36762</v>
+        <v>1.36007</v>
       </c>
       <c r="C95" t="n">
-        <v>1.14181</v>
+        <v>1.10902</v>
       </c>
       <c r="D95" t="n">
-        <v>1.05074</v>
+        <v>1.08285</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.40588</v>
+        <v>1.38733</v>
       </c>
       <c r="C96" t="n">
-        <v>1.15356</v>
+        <v>1.13004</v>
       </c>
       <c r="D96" t="n">
-        <v>1.0806</v>
+        <v>1.05279</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.44538</v>
+        <v>1.4581</v>
       </c>
       <c r="C97" t="n">
-        <v>1.21524</v>
+        <v>1.18364</v>
       </c>
       <c r="D97" t="n">
-        <v>1.12409</v>
+        <v>1.10018</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.2678</v>
+        <v>1.2727</v>
       </c>
       <c r="C98" t="n">
-        <v>1.21774</v>
+        <v>1.18974</v>
       </c>
       <c r="D98" t="n">
-        <v>1.11122</v>
+        <v>1.11276</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.32192</v>
+        <v>1.30416</v>
       </c>
       <c r="C99" t="n">
-        <v>1.26853</v>
+        <v>1.2155</v>
       </c>
       <c r="D99" t="n">
-        <v>1.12296</v>
+        <v>1.14944</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.32774</v>
+        <v>1.34754</v>
       </c>
       <c r="C100" t="n">
-        <v>1.26987</v>
+        <v>1.26501</v>
       </c>
       <c r="D100" t="n">
-        <v>1.13799</v>
+        <v>1.12896</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.33688</v>
+        <v>1.39505</v>
       </c>
       <c r="C101" t="n">
-        <v>1.31288</v>
+        <v>1.31359</v>
       </c>
       <c r="D101" t="n">
-        <v>1.16894</v>
+        <v>1.15892</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.36733</v>
+        <v>1.35148</v>
       </c>
       <c r="C102" t="n">
-        <v>1.33476</v>
+        <v>1.32633</v>
       </c>
       <c r="D102" t="n">
-        <v>1.17345</v>
+        <v>1.20203</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.39104</v>
+        <v>1.42047</v>
       </c>
       <c r="C103" t="n">
-        <v>1.32706</v>
+        <v>1.35867</v>
       </c>
       <c r="D103" t="n">
-        <v>1.20817</v>
+        <v>1.18585</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.41751</v>
+        <v>1.4294</v>
       </c>
       <c r="C104" t="n">
-        <v>1.40029</v>
+        <v>1.36039</v>
       </c>
       <c r="D104" t="n">
-        <v>1.23809</v>
+        <v>1.24065</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.42402</v>
+        <v>1.47802</v>
       </c>
       <c r="C105" t="n">
-        <v>1.38362</v>
+        <v>1.41923</v>
       </c>
       <c r="D105" t="n">
-        <v>1.2396</v>
+        <v>1.22916</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.47645</v>
+        <v>1.46358</v>
       </c>
       <c r="C106" t="n">
-        <v>1.44756</v>
+        <v>1.42927</v>
       </c>
       <c r="D106" t="n">
-        <v>1.28202</v>
+        <v>1.27204</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.46026</v>
+        <v>1.53216</v>
       </c>
       <c r="C107" t="n">
-        <v>1.30304</v>
+        <v>1.2768</v>
       </c>
       <c r="D107" t="n">
-        <v>1.22103</v>
+        <v>1.18799</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.56444</v>
+        <v>1.51115</v>
       </c>
       <c r="C108" t="n">
-        <v>1.30966</v>
+        <v>1.31732</v>
       </c>
       <c r="D108" t="n">
-        <v>1.22154</v>
+        <v>1.22139</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.57309</v>
+        <v>1.60429</v>
       </c>
       <c r="C109" t="n">
-        <v>1.3097</v>
+        <v>1.32849</v>
       </c>
       <c r="D109" t="n">
-        <v>1.28767</v>
+        <v>1.22963</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.60606</v>
+        <v>1.55482</v>
       </c>
       <c r="C110" t="n">
-        <v>1.359</v>
+        <v>1.32276</v>
       </c>
       <c r="D110" t="n">
-        <v>1.22804</v>
+        <v>1.23241</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.62429</v>
+        <v>1.70803</v>
       </c>
       <c r="C111" t="n">
-        <v>1.35972</v>
+        <v>1.37644</v>
       </c>
       <c r="D111" t="n">
-        <v>1.26302</v>
+        <v>1.26231</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.5071</v>
+        <v>1.49081</v>
       </c>
       <c r="C112" t="n">
-        <v>1.39139</v>
+        <v>1.3815</v>
       </c>
       <c r="D112" t="n">
-        <v>1.26585</v>
+        <v>1.258</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.50831</v>
+        <v>1.49192</v>
       </c>
       <c r="C113" t="n">
-        <v>1.40074</v>
+        <v>1.40222</v>
       </c>
       <c r="D113" t="n">
-        <v>1.30624</v>
+        <v>1.26795</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.59116</v>
+        <v>1.44746</v>
       </c>
       <c r="C114" t="n">
-        <v>1.45979</v>
+        <v>1.45789</v>
       </c>
       <c r="D114" t="n">
-        <v>1.33928</v>
+        <v>1.30261</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.57652</v>
+        <v>1.57467</v>
       </c>
       <c r="C115" t="n">
-        <v>1.44136</v>
+        <v>1.48923</v>
       </c>
       <c r="D115" t="n">
-        <v>1.34474</v>
+        <v>1.35454</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.62682</v>
+        <v>1.5687</v>
       </c>
       <c r="C116" t="n">
-        <v>1.48272</v>
+        <v>1.5181</v>
       </c>
       <c r="D116" t="n">
-        <v>1.34598</v>
+        <v>1.37277</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.69285</v>
+        <v>1.5436</v>
       </c>
       <c r="C117" t="n">
-        <v>1.52225</v>
+        <v>1.52374</v>
       </c>
       <c r="D117" t="n">
-        <v>1.37355</v>
+        <v>1.34728</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.69514</v>
+        <v>1.5816</v>
       </c>
       <c r="C118" t="n">
-        <v>1.56217</v>
+        <v>1.57418</v>
       </c>
       <c r="D118" t="n">
-        <v>1.41335</v>
+        <v>1.38146</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.67962</v>
+        <v>1.64969</v>
       </c>
       <c r="C119" t="n">
-        <v>1.57986</v>
+        <v>1.66567</v>
       </c>
       <c r="D119" t="n">
-        <v>1.40186</v>
+        <v>1.40024</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.565276</v>
+        <v>0.558744</v>
       </c>
       <c r="C2" t="n">
-        <v>0.311687</v>
+        <v>0.320757</v>
       </c>
       <c r="D2" t="n">
-        <v>0.251645</v>
+        <v>0.244492</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.396433</v>
+        <v>0.397138</v>
       </c>
       <c r="C3" t="n">
-        <v>0.324222</v>
+        <v>0.320276</v>
       </c>
       <c r="D3" t="n">
-        <v>0.244784</v>
+        <v>0.24712</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.394387</v>
+        <v>0.395834</v>
       </c>
       <c r="C4" t="n">
-        <v>0.335688</v>
+        <v>0.346684</v>
       </c>
       <c r="D4" t="n">
-        <v>0.261953</v>
+        <v>0.252779</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.401976</v>
+        <v>0.412027</v>
       </c>
       <c r="C5" t="n">
-        <v>0.352236</v>
+        <v>0.349151</v>
       </c>
       <c r="D5" t="n">
-        <v>0.262879</v>
+        <v>0.260043</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.428302</v>
+        <v>0.433353</v>
       </c>
       <c r="C6" t="n">
-        <v>0.367166</v>
+        <v>0.355942</v>
       </c>
       <c r="D6" t="n">
-        <v>0.262348</v>
+        <v>0.262202</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.421468</v>
+        <v>0.417779</v>
       </c>
       <c r="C7" t="n">
-        <v>0.375769</v>
+        <v>0.376743</v>
       </c>
       <c r="D7" t="n">
-        <v>0.26722</v>
+        <v>0.278268</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.445489</v>
+        <v>0.439086</v>
       </c>
       <c r="C8" t="n">
-        <v>0.397948</v>
+        <v>0.386563</v>
       </c>
       <c r="D8" t="n">
-        <v>0.277104</v>
+        <v>0.283626</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.484021</v>
+        <v>0.474722</v>
       </c>
       <c r="C9" t="n">
-        <v>0.408939</v>
+        <v>0.416862</v>
       </c>
       <c r="D9" t="n">
-        <v>0.29257</v>
+        <v>0.292124</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5039940000000001</v>
+        <v>0.499003</v>
       </c>
       <c r="C10" t="n">
-        <v>0.448136</v>
+        <v>0.4236</v>
       </c>
       <c r="D10" t="n">
-        <v>0.300091</v>
+        <v>0.300015</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.492196</v>
+        <v>0.49041</v>
       </c>
       <c r="C11" t="n">
-        <v>0.323578</v>
+        <v>0.331171</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25132</v>
+        <v>0.249073</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5111289999999999</v>
+        <v>0.526011</v>
       </c>
       <c r="C12" t="n">
-        <v>0.328685</v>
+        <v>0.329706</v>
       </c>
       <c r="D12" t="n">
-        <v>0.249022</v>
+        <v>0.246107</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.548578</v>
+        <v>0.56043</v>
       </c>
       <c r="C13" t="n">
-        <v>0.340136</v>
+        <v>0.346891</v>
       </c>
       <c r="D13" t="n">
-        <v>0.265729</v>
+        <v>0.265139</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.553424</v>
+        <v>0.5759919999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.35352</v>
+        <v>0.367115</v>
       </c>
       <c r="D14" t="n">
-        <v>0.266991</v>
+        <v>0.270483</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.568009</v>
+        <v>0.582557</v>
       </c>
       <c r="C15" t="n">
-        <v>0.368272</v>
+        <v>0.375888</v>
       </c>
       <c r="D15" t="n">
-        <v>0.273758</v>
+        <v>0.270713</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.611282</v>
+        <v>0.6002690000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>0.37664</v>
+        <v>0.382064</v>
       </c>
       <c r="D16" t="n">
-        <v>0.276593</v>
+        <v>0.279915</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.389996</v>
+        <v>0.395672</v>
       </c>
       <c r="C17" t="n">
-        <v>0.401012</v>
+        <v>0.393603</v>
       </c>
       <c r="D17" t="n">
-        <v>0.300429</v>
+        <v>0.288022</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.399192</v>
+        <v>0.405573</v>
       </c>
       <c r="C18" t="n">
-        <v>0.413173</v>
+        <v>0.410553</v>
       </c>
       <c r="D18" t="n">
-        <v>0.292241</v>
+        <v>0.29176</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.418674</v>
+        <v>0.418738</v>
       </c>
       <c r="C19" t="n">
-        <v>0.43072</v>
+        <v>0.435431</v>
       </c>
       <c r="D19" t="n">
-        <v>0.305952</v>
+        <v>0.301053</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.443591</v>
+        <v>0.435267</v>
       </c>
       <c r="C20" t="n">
-        <v>0.45355</v>
+        <v>0.45433</v>
       </c>
       <c r="D20" t="n">
-        <v>0.323451</v>
+        <v>0.310582</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.454367</v>
+        <v>0.461859</v>
       </c>
       <c r="C21" t="n">
-        <v>0.464904</v>
+        <v>0.477885</v>
       </c>
       <c r="D21" t="n">
-        <v>0.329021</v>
+        <v>0.329957</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.474426</v>
+        <v>0.460976</v>
       </c>
       <c r="C22" t="n">
-        <v>0.489692</v>
+        <v>0.493348</v>
       </c>
       <c r="D22" t="n">
-        <v>0.326665</v>
+        <v>0.339351</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.481672</v>
+        <v>0.479027</v>
       </c>
       <c r="C23" t="n">
-        <v>0.506692</v>
+        <v>0.519746</v>
       </c>
       <c r="D23" t="n">
-        <v>0.357276</v>
+        <v>0.364368</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.492798</v>
+        <v>0.502316</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5113799999999999</v>
+        <v>0.525147</v>
       </c>
       <c r="D24" t="n">
-        <v>0.36854</v>
+        <v>0.352553</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.510606</v>
+        <v>0.5358309999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.541914</v>
+        <v>0.573117</v>
       </c>
       <c r="D25" t="n">
-        <v>0.37361</v>
+        <v>0.36856</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.537917</v>
+        <v>0.5553090000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.407761</v>
+        <v>0.369705</v>
       </c>
       <c r="D26" t="n">
-        <v>0.270265</v>
+        <v>0.278195</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.542227</v>
+        <v>0.604922</v>
       </c>
       <c r="C27" t="n">
-        <v>0.414945</v>
+        <v>0.389457</v>
       </c>
       <c r="D27" t="n">
-        <v>0.281347</v>
+        <v>0.281071</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.582344</v>
+        <v>0.609223</v>
       </c>
       <c r="C28" t="n">
-        <v>0.438616</v>
+        <v>0.389448</v>
       </c>
       <c r="D28" t="n">
-        <v>0.28932</v>
+        <v>0.284772</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.605575</v>
+        <v>0.6411829999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.452184</v>
+        <v>0.3775</v>
       </c>
       <c r="D29" t="n">
-        <v>0.291154</v>
+        <v>0.29951</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.633547</v>
+        <v>0.6558659999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.471993</v>
+        <v>0.409733</v>
       </c>
       <c r="D30" t="n">
-        <v>0.299282</v>
+        <v>0.305103</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.685539</v>
+        <v>0.703565</v>
       </c>
       <c r="C31" t="n">
-        <v>0.488539</v>
+        <v>0.426529</v>
       </c>
       <c r="D31" t="n">
-        <v>0.31796</v>
+        <v>0.314445</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5158470000000001</v>
+        <v>0.465542</v>
       </c>
       <c r="C32" t="n">
-        <v>0.519294</v>
+        <v>0.434144</v>
       </c>
       <c r="D32" t="n">
-        <v>0.323253</v>
+        <v>0.317878</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.507346</v>
+        <v>0.498412</v>
       </c>
       <c r="C33" t="n">
-        <v>0.549523</v>
+        <v>0.478079</v>
       </c>
       <c r="D33" t="n">
-        <v>0.337074</v>
+        <v>0.331199</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.540564</v>
+        <v>0.503976</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5643820000000001</v>
+        <v>0.477372</v>
       </c>
       <c r="D34" t="n">
-        <v>0.345435</v>
+        <v>0.340239</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.551661</v>
+        <v>0.538269</v>
       </c>
       <c r="C35" t="n">
-        <v>0.588796</v>
+        <v>0.503488</v>
       </c>
       <c r="D35" t="n">
-        <v>0.345833</v>
+        <v>0.343294</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.564294</v>
+        <v>0.5395990000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>0.634862</v>
+        <v>0.53123</v>
       </c>
       <c r="D36" t="n">
-        <v>0.367451</v>
+        <v>0.359342</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.602047</v>
+        <v>0.5905010000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>0.64501</v>
+        <v>0.564124</v>
       </c>
       <c r="D37" t="n">
-        <v>0.396631</v>
+        <v>0.380771</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.618889</v>
+        <v>0.603832</v>
       </c>
       <c r="C38" t="n">
-        <v>0.694858</v>
+        <v>0.605583</v>
       </c>
       <c r="D38" t="n">
-        <v>0.402149</v>
+        <v>0.396745</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.665095</v>
+        <v>0.644995</v>
       </c>
       <c r="C39" t="n">
-        <v>0.712547</v>
+        <v>0.616286</v>
       </c>
       <c r="D39" t="n">
-        <v>0.425383</v>
+        <v>0.432669</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.684924</v>
+        <v>0.672829</v>
       </c>
       <c r="C40" t="n">
-        <v>0.476786</v>
+        <v>0.464882</v>
       </c>
       <c r="D40" t="n">
-        <v>0.363239</v>
+        <v>0.349114</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7212229999999999</v>
+        <v>0.689025</v>
       </c>
       <c r="C41" t="n">
-        <v>0.470836</v>
+        <v>0.474832</v>
       </c>
       <c r="D41" t="n">
-        <v>0.36599</v>
+        <v>0.366172</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.763586</v>
+        <v>0.732172</v>
       </c>
       <c r="C42" t="n">
-        <v>0.491709</v>
+        <v>0.497585</v>
       </c>
       <c r="D42" t="n">
-        <v>0.372006</v>
+        <v>0.377262</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.783531</v>
+        <v>0.784233</v>
       </c>
       <c r="C43" t="n">
-        <v>0.524768</v>
+        <v>0.533907</v>
       </c>
       <c r="D43" t="n">
-        <v>0.394456</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.845074</v>
+        <v>0.804043</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5467</v>
+        <v>0.5686290000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.40523</v>
+        <v>0.392128</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.889615</v>
+        <v>0.8739710000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5902539999999999</v>
+        <v>0.567795</v>
       </c>
       <c r="D45" t="n">
-        <v>0.39991</v>
+        <v>0.412079</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6216699999999999</v>
+        <v>0.613218</v>
       </c>
       <c r="C46" t="n">
-        <v>0.632629</v>
+        <v>0.6159</v>
       </c>
       <c r="D46" t="n">
-        <v>0.439619</v>
+        <v>0.429151</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.661548</v>
+        <v>0.662745</v>
       </c>
       <c r="C47" t="n">
-        <v>0.653967</v>
+        <v>0.6107860000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.442469</v>
+        <v>0.428055</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.708867</v>
+        <v>0.693167</v>
       </c>
       <c r="C48" t="n">
-        <v>0.675901</v>
+        <v>0.687083</v>
       </c>
       <c r="D48" t="n">
-        <v>0.449485</v>
+        <v>0.471041</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.701194</v>
+        <v>0.729927</v>
       </c>
       <c r="C49" t="n">
-        <v>0.701611</v>
+        <v>0.707713</v>
       </c>
       <c r="D49" t="n">
-        <v>0.467168</v>
+        <v>0.479702</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.765588</v>
+        <v>0.748073</v>
       </c>
       <c r="C50" t="n">
-        <v>0.743174</v>
+        <v>0.73375</v>
       </c>
       <c r="D50" t="n">
-        <v>0.479903</v>
+        <v>0.498123</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.804499</v>
+        <v>0.793512</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7734259999999999</v>
+        <v>0.791486</v>
       </c>
       <c r="D51" t="n">
-        <v>0.522293</v>
+        <v>0.520373</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.842742</v>
+        <v>0.858487</v>
       </c>
       <c r="C52" t="n">
-        <v>0.819238</v>
+        <v>0.815716</v>
       </c>
       <c r="D52" t="n">
-        <v>0.542087</v>
+        <v>0.553354</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.868186</v>
+        <v>0.905459</v>
       </c>
       <c r="C53" t="n">
-        <v>0.858508</v>
+        <v>0.85649</v>
       </c>
       <c r="D53" t="n">
-        <v>0.566661</v>
+        <v>0.565035</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.919094</v>
+        <v>0.91986</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6469819999999999</v>
+        <v>0.644254</v>
       </c>
       <c r="D54" t="n">
-        <v>0.459453</v>
+        <v>0.452815</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.993617</v>
+        <v>0.9746</v>
       </c>
       <c r="C55" t="n">
-        <v>0.673386</v>
+        <v>0.682907</v>
       </c>
       <c r="D55" t="n">
-        <v>0.472724</v>
+        <v>0.467178</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.0414</v>
+        <v>1.01853</v>
       </c>
       <c r="C56" t="n">
-        <v>0.697592</v>
+        <v>0.690767</v>
       </c>
       <c r="D56" t="n">
-        <v>0.500265</v>
+        <v>0.485014</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.06743</v>
+        <v>1.08078</v>
       </c>
       <c r="C57" t="n">
-        <v>0.729164</v>
+        <v>0.7319329999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.49835</v>
+        <v>0.504095</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.13581</v>
+        <v>1.1838</v>
       </c>
       <c r="C58" t="n">
-        <v>0.751139</v>
+        <v>0.764436</v>
       </c>
       <c r="D58" t="n">
-        <v>0.515937</v>
+        <v>0.515823</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.19329</v>
+        <v>1.21257</v>
       </c>
       <c r="C59" t="n">
-        <v>0.785977</v>
+        <v>0.809654</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5662239999999999</v>
+        <v>0.539515</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.853361</v>
+        <v>0.8684809999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.880286</v>
+        <v>0.829529</v>
       </c>
       <c r="D60" t="n">
-        <v>0.577247</v>
+        <v>0.569511</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.914978</v>
+        <v>0.916324</v>
       </c>
       <c r="C61" t="n">
-        <v>0.897374</v>
+        <v>0.9048</v>
       </c>
       <c r="D61" t="n">
-        <v>0.610867</v>
+        <v>0.585646</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.957837</v>
+        <v>0.931104</v>
       </c>
       <c r="C62" t="n">
-        <v>0.922022</v>
+        <v>0.945298</v>
       </c>
       <c r="D62" t="n">
-        <v>0.620294</v>
+        <v>0.628595</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.990787</v>
+        <v>1.01554</v>
       </c>
       <c r="C63" t="n">
-        <v>0.984747</v>
+        <v>1.02099</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6395149999999999</v>
+        <v>0.652399</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.05644</v>
+        <v>1.04154</v>
       </c>
       <c r="C64" t="n">
-        <v>1.0125</v>
+        <v>1.02951</v>
       </c>
       <c r="D64" t="n">
-        <v>0.66845</v>
+        <v>0.653354</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.1059</v>
+        <v>1.13837</v>
       </c>
       <c r="C65" t="n">
-        <v>1.10522</v>
+        <v>1.11363</v>
       </c>
       <c r="D65" t="n">
-        <v>0.675993</v>
+        <v>0.70895</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.16577</v>
+        <v>1.22263</v>
       </c>
       <c r="C66" t="n">
-        <v>1.18421</v>
+        <v>1.20642</v>
       </c>
       <c r="D66" t="n">
-        <v>0.744592</v>
+        <v>0.733577</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.26385</v>
+        <v>1.26646</v>
       </c>
       <c r="C67" t="n">
-        <v>1.25592</v>
+        <v>1.25571</v>
       </c>
       <c r="D67" t="n">
-        <v>0.758744</v>
+        <v>0.758409</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.34661</v>
+        <v>1.36322</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8069730000000001</v>
+        <v>0.857324</v>
       </c>
       <c r="D68" t="n">
-        <v>0.572968</v>
+        <v>0.593901</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.41537</v>
+        <v>1.45274</v>
       </c>
       <c r="C69" t="n">
-        <v>0.840434</v>
+        <v>0.87996</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5845129999999999</v>
+        <v>0.619669</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.51265</v>
+        <v>1.58754</v>
       </c>
       <c r="C70" t="n">
-        <v>0.937486</v>
+        <v>0.92745</v>
       </c>
       <c r="D70" t="n">
-        <v>0.631188</v>
+        <v>0.63161</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.71622</v>
+        <v>1.67985</v>
       </c>
       <c r="C71" t="n">
-        <v>0.959631</v>
+        <v>0.9604510000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.662305</v>
+        <v>0.65006</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.75272</v>
+        <v>1.77417</v>
       </c>
       <c r="C72" t="n">
-        <v>1.00681</v>
+        <v>1.03846</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6840619999999999</v>
+        <v>0.672912</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.88472</v>
+        <v>1.89895</v>
       </c>
       <c r="C73" t="n">
-        <v>1.06952</v>
+        <v>1.11771</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6853089999999999</v>
+        <v>0.737669</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.26651</v>
+        <v>1.26567</v>
       </c>
       <c r="C74" t="n">
-        <v>1.17008</v>
+        <v>1.22782</v>
       </c>
       <c r="D74" t="n">
-        <v>0.734989</v>
+        <v>0.764218</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.38547</v>
+        <v>1.38234</v>
       </c>
       <c r="C75" t="n">
-        <v>1.24606</v>
+        <v>1.23725</v>
       </c>
       <c r="D75" t="n">
-        <v>0.778706</v>
+        <v>0.806706</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.43472</v>
+        <v>1.46931</v>
       </c>
       <c r="C76" t="n">
-        <v>1.34738</v>
+        <v>1.40582</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8079</v>
+        <v>0.870685</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.50204</v>
+        <v>1.53702</v>
       </c>
       <c r="C77" t="n">
-        <v>1.44831</v>
+        <v>1.472</v>
       </c>
       <c r="D77" t="n">
-        <v>0.855306</v>
+        <v>0.8927580000000001</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.56911</v>
+        <v>1.6941</v>
       </c>
       <c r="C78" t="n">
-        <v>1.51872</v>
+        <v>1.51314</v>
       </c>
       <c r="D78" t="n">
-        <v>0.909657</v>
+        <v>0.944797</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.7521</v>
+        <v>1.68877</v>
       </c>
       <c r="C79" t="n">
-        <v>1.60056</v>
+        <v>1.64443</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9567600000000001</v>
+        <v>0.996705</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.83764</v>
+        <v>1.79852</v>
       </c>
       <c r="C80" t="n">
-        <v>1.77488</v>
+        <v>1.75802</v>
       </c>
       <c r="D80" t="n">
-        <v>1.04412</v>
+        <v>1.05387</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.91398</v>
+        <v>1.98239</v>
       </c>
       <c r="C81" t="n">
-        <v>1.96117</v>
+        <v>1.91968</v>
       </c>
       <c r="D81" t="n">
-        <v>1.11196</v>
+        <v>1.1202</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.00287</v>
+        <v>2.07376</v>
       </c>
       <c r="C82" t="n">
-        <v>1.99523</v>
+        <v>2.04456</v>
       </c>
       <c r="D82" t="n">
-        <v>1.17453</v>
+        <v>1.24978</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.10086</v>
+        <v>2.11685</v>
       </c>
       <c r="C83" t="n">
-        <v>1.45257</v>
+        <v>1.45794</v>
       </c>
       <c r="D83" t="n">
-        <v>0.977058</v>
+        <v>0.978271</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.22481</v>
+        <v>2.25456</v>
       </c>
       <c r="C84" t="n">
-        <v>1.51955</v>
+        <v>1.53614</v>
       </c>
       <c r="D84" t="n">
-        <v>1.00253</v>
+        <v>1.01189</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.43611</v>
+        <v>2.47472</v>
       </c>
       <c r="C85" t="n">
-        <v>1.61615</v>
+        <v>1.61819</v>
       </c>
       <c r="D85" t="n">
-        <v>1.07383</v>
+        <v>1.04021</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.47036</v>
+        <v>2.54961</v>
       </c>
       <c r="C86" t="n">
-        <v>1.69809</v>
+        <v>1.74277</v>
       </c>
       <c r="D86" t="n">
-        <v>1.08027</v>
+        <v>1.11763</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.71468</v>
+        <v>2.64089</v>
       </c>
       <c r="C87" t="n">
-        <v>1.77169</v>
+        <v>1.8173</v>
       </c>
       <c r="D87" t="n">
-        <v>1.1676</v>
+        <v>1.15434</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.81595</v>
+        <v>2.85416</v>
       </c>
       <c r="C88" t="n">
-        <v>1.94854</v>
+        <v>1.88887</v>
       </c>
       <c r="D88" t="n">
-        <v>1.24026</v>
+        <v>1.19935</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.87629</v>
+        <v>1.9265</v>
       </c>
       <c r="C89" t="n">
-        <v>1.95989</v>
+        <v>1.98256</v>
       </c>
       <c r="D89" t="n">
-        <v>1.26185</v>
+        <v>1.29124</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.98964</v>
+        <v>1.95019</v>
       </c>
       <c r="C90" t="n">
-        <v>2.12288</v>
+        <v>2.0529</v>
       </c>
       <c r="D90" t="n">
-        <v>1.37533</v>
+        <v>1.34342</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.08247</v>
+        <v>2.05778</v>
       </c>
       <c r="C91" t="n">
-        <v>2.26717</v>
+        <v>2.26801</v>
       </c>
       <c r="D91" t="n">
-        <v>1.399</v>
+        <v>1.38979</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.13492</v>
+        <v>2.15821</v>
       </c>
       <c r="C92" t="n">
-        <v>2.30206</v>
+        <v>2.31943</v>
       </c>
       <c r="D92" t="n">
-        <v>1.48727</v>
+        <v>1.51011</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.26991</v>
+        <v>2.22823</v>
       </c>
       <c r="C93" t="n">
-        <v>2.40444</v>
+        <v>2.41034</v>
       </c>
       <c r="D93" t="n">
-        <v>1.5234</v>
+        <v>1.50774</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.34454</v>
+        <v>2.32835</v>
       </c>
       <c r="C94" t="n">
-        <v>2.60867</v>
+        <v>2.47117</v>
       </c>
       <c r="D94" t="n">
-        <v>1.60867</v>
+        <v>1.63363</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.45902</v>
+        <v>2.45196</v>
       </c>
       <c r="C95" t="n">
-        <v>2.62102</v>
+        <v>2.65179</v>
       </c>
       <c r="D95" t="n">
-        <v>1.65177</v>
+        <v>1.62965</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.51387</v>
+        <v>2.5118</v>
       </c>
       <c r="C96" t="n">
-        <v>2.7639</v>
+        <v>2.7766</v>
       </c>
       <c r="D96" t="n">
-        <v>1.75902</v>
+        <v>1.76599</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.64955</v>
+        <v>2.69668</v>
       </c>
       <c r="C97" t="n">
-        <v>1.90557</v>
+        <v>1.88535</v>
       </c>
       <c r="D97" t="n">
-        <v>1.34936</v>
+        <v>1.35002</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.7836</v>
+        <v>2.83915</v>
       </c>
       <c r="C98" t="n">
-        <v>1.93673</v>
+        <v>1.94742</v>
       </c>
       <c r="D98" t="n">
-        <v>1.39304</v>
+        <v>1.39188</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.95031</v>
+        <v>2.95612</v>
       </c>
       <c r="C99" t="n">
-        <v>2.01583</v>
+        <v>1.99565</v>
       </c>
       <c r="D99" t="n">
-        <v>1.4135</v>
+        <v>1.43287</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.02611</v>
+        <v>3.01651</v>
       </c>
       <c r="C100" t="n">
-        <v>2.09482</v>
+        <v>2.05083</v>
       </c>
       <c r="D100" t="n">
-        <v>1.47671</v>
+        <v>1.52419</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.18871</v>
+        <v>3.1616</v>
       </c>
       <c r="C101" t="n">
-        <v>2.18016</v>
+        <v>2.13596</v>
       </c>
       <c r="D101" t="n">
-        <v>1.56007</v>
+        <v>1.53227</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.29006</v>
+        <v>3.36608</v>
       </c>
       <c r="C102" t="n">
-        <v>2.23626</v>
+        <v>2.23801</v>
       </c>
       <c r="D102" t="n">
-        <v>1.55653</v>
+        <v>1.57726</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.20752</v>
+        <v>2.24164</v>
       </c>
       <c r="C103" t="n">
-        <v>2.29396</v>
+        <v>2.34582</v>
       </c>
       <c r="D103" t="n">
-        <v>1.60513</v>
+        <v>1.62946</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.29584</v>
+        <v>2.29201</v>
       </c>
       <c r="C104" t="n">
-        <v>2.39614</v>
+        <v>2.44705</v>
       </c>
       <c r="D104" t="n">
-        <v>1.64172</v>
+        <v>1.6978</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.37598</v>
+        <v>2.42169</v>
       </c>
       <c r="C105" t="n">
-        <v>2.53274</v>
+        <v>2.46366</v>
       </c>
       <c r="D105" t="n">
-        <v>1.69583</v>
+        <v>1.75897</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.46632</v>
+        <v>2.53165</v>
       </c>
       <c r="C106" t="n">
-        <v>2.59865</v>
+        <v>2.61427</v>
       </c>
       <c r="D106" t="n">
-        <v>1.76057</v>
+        <v>1.82432</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.5889</v>
+        <v>2.61264</v>
       </c>
       <c r="C107" t="n">
-        <v>2.73012</v>
+        <v>2.71572</v>
       </c>
       <c r="D107" t="n">
-        <v>1.8075</v>
+        <v>1.8314</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.71391</v>
+        <v>2.67278</v>
       </c>
       <c r="C108" t="n">
-        <v>2.85135</v>
+        <v>2.82762</v>
       </c>
       <c r="D108" t="n">
-        <v>1.89106</v>
+        <v>1.90138</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.8439</v>
+        <v>2.80213</v>
       </c>
       <c r="C109" t="n">
-        <v>2.96979</v>
+        <v>2.96143</v>
       </c>
       <c r="D109" t="n">
-        <v>1.98465</v>
+        <v>2.00607</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.89476</v>
+        <v>2.89046</v>
       </c>
       <c r="C110" t="n">
-        <v>3.0358</v>
+        <v>3.06609</v>
       </c>
       <c r="D110" t="n">
-        <v>2.05697</v>
+        <v>2.03853</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.99432</v>
+        <v>3.04055</v>
       </c>
       <c r="C111" t="n">
-        <v>2.12316</v>
+        <v>2.13616</v>
       </c>
       <c r="D111" t="n">
-        <v>1.65128</v>
+        <v>1.6351</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.08165</v>
+        <v>3.15577</v>
       </c>
       <c r="C112" t="n">
-        <v>2.19891</v>
+        <v>2.19918</v>
       </c>
       <c r="D112" t="n">
-        <v>1.63933</v>
+        <v>1.60832</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.24092</v>
+        <v>3.28037</v>
       </c>
       <c r="C113" t="n">
-        <v>2.29395</v>
+        <v>2.28729</v>
       </c>
       <c r="D113" t="n">
-        <v>1.65801</v>
+        <v>1.72003</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.33712</v>
+        <v>3.40702</v>
       </c>
       <c r="C114" t="n">
-        <v>2.33694</v>
+        <v>2.33785</v>
       </c>
       <c r="D114" t="n">
-        <v>1.7325</v>
+        <v>1.759</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.51964</v>
+        <v>3.5442</v>
       </c>
       <c r="C115" t="n">
-        <v>2.39344</v>
+        <v>2.41432</v>
       </c>
       <c r="D115" t="n">
-        <v>1.78747</v>
+        <v>1.79403</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.64258</v>
+        <v>3.67903</v>
       </c>
       <c r="C116" t="n">
-        <v>2.54982</v>
+        <v>2.47227</v>
       </c>
       <c r="D116" t="n">
-        <v>1.88175</v>
+        <v>1.81931</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.45655</v>
+        <v>2.44609</v>
       </c>
       <c r="C117" t="n">
-        <v>2.58085</v>
+        <v>2.57495</v>
       </c>
       <c r="D117" t="n">
-        <v>1.86734</v>
+        <v>1.86557</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.54935</v>
+        <v>2.55268</v>
       </c>
       <c r="C118" t="n">
-        <v>2.66447</v>
+        <v>2.75221</v>
       </c>
       <c r="D118" t="n">
-        <v>1.93395</v>
+        <v>1.98425</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.64747</v>
+        <v>2.6832</v>
       </c>
       <c r="C119" t="n">
-        <v>2.77731</v>
+        <v>2.83909</v>
       </c>
       <c r="D119" t="n">
-        <v>2.05431</v>
+        <v>2.05571</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered successful looukp.xlsx
+++ b/vs/scattered successful looukp.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.232</v>
+        <v>0.216439</v>
       </c>
       <c r="C2" t="n">
-        <v>0.21602</v>
+        <v>0.197989</v>
       </c>
       <c r="D2" t="n">
-        <v>0.220866</v>
+        <v>0.215963</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.228718</v>
+        <v>0.232356</v>
       </c>
       <c r="C3" t="n">
-        <v>0.214743</v>
+        <v>0.214446</v>
       </c>
       <c r="D3" t="n">
-        <v>0.221185</v>
+        <v>0.22126</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.232684</v>
+        <v>0.228443</v>
       </c>
       <c r="C4" t="n">
-        <v>0.225595</v>
+        <v>0.212911</v>
       </c>
       <c r="D4" t="n">
-        <v>0.229088</v>
+        <v>0.224962</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.242736</v>
+        <v>0.237272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.224689</v>
+        <v>0.228169</v>
       </c>
       <c r="D5" t="n">
-        <v>0.251977</v>
+        <v>0.232586</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.255543</v>
+        <v>0.243669</v>
       </c>
       <c r="C6" t="n">
-        <v>0.237934</v>
+        <v>0.227967</v>
       </c>
       <c r="D6" t="n">
-        <v>0.254215</v>
+        <v>0.233101</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.244225</v>
+        <v>0.243983</v>
       </c>
       <c r="C7" t="n">
-        <v>0.201535</v>
+        <v>0.1888</v>
       </c>
       <c r="D7" t="n">
-        <v>0.209474</v>
+        <v>0.205123</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.25819</v>
+        <v>0.243174</v>
       </c>
       <c r="C8" t="n">
-        <v>0.20364</v>
+        <v>0.196918</v>
       </c>
       <c r="D8" t="n">
-        <v>0.228382</v>
+        <v>0.210857</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.260185</v>
+        <v>0.255379</v>
       </c>
       <c r="C9" t="n">
-        <v>0.206009</v>
+        <v>0.192866</v>
       </c>
       <c r="D9" t="n">
-        <v>0.22391</v>
+        <v>0.208377</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.262395</v>
+        <v>0.251177</v>
       </c>
       <c r="C10" t="n">
-        <v>0.210229</v>
+        <v>0.197106</v>
       </c>
       <c r="D10" t="n">
-        <v>0.227712</v>
+        <v>0.208387</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.262417</v>
+        <v>0.249087</v>
       </c>
       <c r="C11" t="n">
-        <v>0.206984</v>
+        <v>0.198107</v>
       </c>
       <c r="D11" t="n">
-        <v>0.229757</v>
+        <v>0.207382</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.260534</v>
+        <v>0.250677</v>
       </c>
       <c r="C12" t="n">
-        <v>0.208194</v>
+        <v>0.203565</v>
       </c>
       <c r="D12" t="n">
-        <v>0.229475</v>
+        <v>0.232485</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.230071</v>
+        <v>0.252569</v>
       </c>
       <c r="C13" t="n">
-        <v>0.217581</v>
+        <v>0.22675</v>
       </c>
       <c r="D13" t="n">
-        <v>0.232159</v>
+        <v>0.24046</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.230065</v>
+        <v>0.234644</v>
       </c>
       <c r="C14" t="n">
-        <v>0.209678</v>
+        <v>0.217258</v>
       </c>
       <c r="D14" t="n">
-        <v>0.226015</v>
+        <v>0.243637</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.228194</v>
+        <v>0.241984</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212361</v>
+        <v>0.230668</v>
       </c>
       <c r="D15" t="n">
-        <v>0.234762</v>
+        <v>0.254726</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.229546</v>
+        <v>0.25862</v>
       </c>
       <c r="C16" t="n">
-        <v>0.22258</v>
+        <v>0.247161</v>
       </c>
       <c r="D16" t="n">
-        <v>0.232656</v>
+        <v>0.247678</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.233347</v>
+        <v>0.256111</v>
       </c>
       <c r="C17" t="n">
-        <v>0.224723</v>
+        <v>0.239211</v>
       </c>
       <c r="D17" t="n">
-        <v>0.237976</v>
+        <v>0.26205</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.234894</v>
+        <v>0.2623</v>
       </c>
       <c r="C18" t="n">
-        <v>0.220654</v>
+        <v>0.239326</v>
       </c>
       <c r="D18" t="n">
-        <v>0.247884</v>
+        <v>0.254947</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.245206</v>
+        <v>0.252317</v>
       </c>
       <c r="C19" t="n">
-        <v>0.22803</v>
+        <v>0.231488</v>
       </c>
       <c r="D19" t="n">
-        <v>0.246293</v>
+        <v>0.256459</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.247335</v>
+        <v>0.250842</v>
       </c>
       <c r="C20" t="n">
-        <v>0.234491</v>
+        <v>0.238646</v>
       </c>
       <c r="D20" t="n">
-        <v>0.251067</v>
+        <v>0.25018</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.248133</v>
+        <v>0.245257</v>
       </c>
       <c r="C21" t="n">
-        <v>0.20258</v>
+        <v>0.201612</v>
       </c>
       <c r="D21" t="n">
-        <v>0.21499</v>
+        <v>0.206006</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.256909</v>
+        <v>0.249264</v>
       </c>
       <c r="C22" t="n">
-        <v>0.202213</v>
+        <v>0.203833</v>
       </c>
       <c r="D22" t="n">
-        <v>0.216812</v>
+        <v>0.222851</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.259577</v>
+        <v>0.257521</v>
       </c>
       <c r="C23" t="n">
-        <v>0.207105</v>
+        <v>0.204837</v>
       </c>
       <c r="D23" t="n">
-        <v>0.219172</v>
+        <v>0.230904</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.266115</v>
+        <v>0.270312</v>
       </c>
       <c r="C24" t="n">
-        <v>0.216217</v>
+        <v>0.202517</v>
       </c>
       <c r="D24" t="n">
-        <v>0.220743</v>
+        <v>0.234294</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.261597</v>
+        <v>0.267231</v>
       </c>
       <c r="C25" t="n">
-        <v>0.217612</v>
+        <v>0.206937</v>
       </c>
       <c r="D25" t="n">
-        <v>0.224923</v>
+        <v>0.229794</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.267915</v>
+        <v>0.270983</v>
       </c>
       <c r="C26" t="n">
-        <v>0.225199</v>
+        <v>0.21809</v>
       </c>
       <c r="D26" t="n">
-        <v>0.235795</v>
+        <v>0.234036</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.241637</v>
+        <v>0.239356</v>
       </c>
       <c r="C27" t="n">
-        <v>0.220142</v>
+        <v>0.216632</v>
       </c>
       <c r="D27" t="n">
-        <v>0.242056</v>
+        <v>0.241643</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.240501</v>
+        <v>0.255311</v>
       </c>
       <c r="C28" t="n">
-        <v>0.223387</v>
+        <v>0.222801</v>
       </c>
       <c r="D28" t="n">
-        <v>0.23923</v>
+        <v>0.243654</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.243674</v>
+        <v>0.249448</v>
       </c>
       <c r="C29" t="n">
-        <v>0.225777</v>
+        <v>0.23036</v>
       </c>
       <c r="D29" t="n">
-        <v>0.24679</v>
+        <v>0.245175</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.250261</v>
+        <v>0.251235</v>
       </c>
       <c r="C30" t="n">
-        <v>0.228862</v>
+        <v>0.231256</v>
       </c>
       <c r="D30" t="n">
-        <v>0.258457</v>
+        <v>0.256305</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.258696</v>
+        <v>0.260542</v>
       </c>
       <c r="C31" t="n">
-        <v>0.239339</v>
+        <v>0.24396</v>
       </c>
       <c r="D31" t="n">
-        <v>0.256262</v>
+        <v>0.256951</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.256637</v>
+        <v>0.269243</v>
       </c>
       <c r="C32" t="n">
-        <v>0.248407</v>
+        <v>0.241704</v>
       </c>
       <c r="D32" t="n">
-        <v>0.256701</v>
+        <v>0.26498</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.266873</v>
+        <v>0.277307</v>
       </c>
       <c r="C33" t="n">
-        <v>0.254167</v>
+        <v>0.249461</v>
       </c>
       <c r="D33" t="n">
-        <v>0.269554</v>
+        <v>0.265932</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.275708</v>
+        <v>0.277936</v>
       </c>
       <c r="C34" t="n">
-        <v>0.254283</v>
+        <v>0.253402</v>
       </c>
       <c r="D34" t="n">
-        <v>0.274764</v>
+        <v>0.27808</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.270454</v>
+        <v>0.280682</v>
       </c>
       <c r="C35" t="n">
-        <v>0.222772</v>
+        <v>0.215639</v>
       </c>
       <c r="D35" t="n">
-        <v>0.233443</v>
+        <v>0.233714</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.283339</v>
+        <v>0.287771</v>
       </c>
       <c r="C36" t="n">
-        <v>0.231156</v>
+        <v>0.227134</v>
       </c>
       <c r="D36" t="n">
-        <v>0.240676</v>
+        <v>0.240385</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.293099</v>
+        <v>0.290068</v>
       </c>
       <c r="C37" t="n">
-        <v>0.236694</v>
+        <v>0.230336</v>
       </c>
       <c r="D37" t="n">
-        <v>0.247531</v>
+        <v>0.244315</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.300984</v>
+        <v>0.299894</v>
       </c>
       <c r="C38" t="n">
-        <v>0.236999</v>
+        <v>0.244012</v>
       </c>
       <c r="D38" t="n">
-        <v>0.243151</v>
+        <v>0.251155</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.30644</v>
+        <v>0.309292</v>
       </c>
       <c r="C39" t="n">
-        <v>0.250334</v>
+        <v>0.240229</v>
       </c>
       <c r="D39" t="n">
-        <v>0.272835</v>
+        <v>0.256326</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.316885</v>
+        <v>0.321993</v>
       </c>
       <c r="C40" t="n">
-        <v>0.249475</v>
+        <v>0.24606</v>
       </c>
       <c r="D40" t="n">
-        <v>0.26336</v>
+        <v>0.271869</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.314293</v>
+        <v>0.309944</v>
       </c>
       <c r="C41" t="n">
-        <v>0.262964</v>
+        <v>0.258307</v>
       </c>
       <c r="D41" t="n">
-        <v>0.271744</v>
+        <v>0.267158</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325634</v>
+        <v>0.316886</v>
       </c>
       <c r="C42" t="n">
-        <v>0.27071</v>
+        <v>0.253249</v>
       </c>
       <c r="D42" t="n">
-        <v>0.277751</v>
+        <v>0.27354</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.342218</v>
+        <v>0.334317</v>
       </c>
       <c r="C43" t="n">
-        <v>0.281884</v>
+        <v>0.268212</v>
       </c>
       <c r="D43" t="n">
-        <v>0.296812</v>
+        <v>0.282701</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.359698</v>
+        <v>0.339293</v>
       </c>
       <c r="C44" t="n">
-        <v>0.283928</v>
+        <v>0.272088</v>
       </c>
       <c r="D44" t="n">
-        <v>0.294245</v>
+        <v>0.292751</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.359368</v>
+        <v>0.353184</v>
       </c>
       <c r="C45" t="n">
-        <v>0.288232</v>
+        <v>0.280959</v>
       </c>
       <c r="D45" t="n">
-        <v>0.305254</v>
+        <v>0.292756</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.360016</v>
+        <v>0.364008</v>
       </c>
       <c r="C46" t="n">
-        <v>0.295001</v>
+        <v>0.287281</v>
       </c>
       <c r="D46" t="n">
-        <v>0.306393</v>
+        <v>0.296262</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.373764</v>
+        <v>0.364561</v>
       </c>
       <c r="C47" t="n">
-        <v>0.30068</v>
+        <v>0.296753</v>
       </c>
       <c r="D47" t="n">
-        <v>0.319149</v>
+        <v>0.326845</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.391348</v>
+        <v>0.384769</v>
       </c>
       <c r="C48" t="n">
-        <v>0.316045</v>
+        <v>0.304961</v>
       </c>
       <c r="D48" t="n">
-        <v>0.32548</v>
+        <v>0.322791</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.399343</v>
+        <v>0.402915</v>
       </c>
       <c r="C49" t="n">
-        <v>0.318246</v>
+        <v>0.307421</v>
       </c>
       <c r="D49" t="n">
-        <v>0.33306</v>
+        <v>0.334519</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.430799</v>
+        <v>0.418481</v>
       </c>
       <c r="C50" t="n">
-        <v>0.31022</v>
+        <v>0.318708</v>
       </c>
       <c r="D50" t="n">
-        <v>0.314366</v>
+        <v>0.309778</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.437738</v>
+        <v>0.423799</v>
       </c>
       <c r="C51" t="n">
-        <v>0.329919</v>
+        <v>0.326348</v>
       </c>
       <c r="D51" t="n">
-        <v>0.322992</v>
+        <v>0.318155</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.439985</v>
+        <v>0.451662</v>
       </c>
       <c r="C52" t="n">
-        <v>0.319114</v>
+        <v>0.337375</v>
       </c>
       <c r="D52" t="n">
-        <v>0.330509</v>
+        <v>0.338307</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.450838</v>
+        <v>0.45593</v>
       </c>
       <c r="C53" t="n">
-        <v>0.333735</v>
+        <v>0.342069</v>
       </c>
       <c r="D53" t="n">
-        <v>0.350611</v>
+        <v>0.347512</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.468842</v>
+        <v>0.484854</v>
       </c>
       <c r="C54" t="n">
-        <v>0.351071</v>
+        <v>0.356872</v>
       </c>
       <c r="D54" t="n">
-        <v>0.359153</v>
+        <v>0.362485</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.49161</v>
+        <v>0.487844</v>
       </c>
       <c r="C55" t="n">
-        <v>0.361539</v>
+        <v>0.362289</v>
       </c>
       <c r="D55" t="n">
-        <v>0.370871</v>
+        <v>0.36483</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.55746</v>
+        <v>0.546053</v>
       </c>
       <c r="C56" t="n">
-        <v>0.37763</v>
+        <v>0.387276</v>
       </c>
       <c r="D56" t="n">
-        <v>0.385774</v>
+        <v>0.384238</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.567587</v>
+        <v>0.55189</v>
       </c>
       <c r="C57" t="n">
-        <v>0.409619</v>
+        <v>0.396419</v>
       </c>
       <c r="D57" t="n">
-        <v>0.397785</v>
+        <v>0.390682</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.606271</v>
+        <v>0.59713</v>
       </c>
       <c r="C58" t="n">
-        <v>0.399486</v>
+        <v>0.411608</v>
       </c>
       <c r="D58" t="n">
-        <v>0.424103</v>
+        <v>0.4114</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.594602</v>
+        <v>0.594801</v>
       </c>
       <c r="C59" t="n">
-        <v>0.429853</v>
+        <v>0.411067</v>
       </c>
       <c r="D59" t="n">
-        <v>0.451061</v>
+        <v>0.447968</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.634844</v>
+        <v>0.609671</v>
       </c>
       <c r="C60" t="n">
-        <v>0.435301</v>
+        <v>0.448388</v>
       </c>
       <c r="D60" t="n">
-        <v>0.456139</v>
+        <v>0.442427</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.653367</v>
+        <v>0.630702</v>
       </c>
       <c r="C61" t="n">
-        <v>0.45769</v>
+        <v>0.46302</v>
       </c>
       <c r="D61" t="n">
-        <v>0.48234</v>
+        <v>0.481849</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.696834</v>
+        <v>0.666434</v>
       </c>
       <c r="C62" t="n">
-        <v>0.480406</v>
+        <v>0.467376</v>
       </c>
       <c r="D62" t="n">
-        <v>0.499653</v>
+        <v>0.472763</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7160840000000001</v>
+        <v>0.684599</v>
       </c>
       <c r="C63" t="n">
-        <v>0.49757</v>
+        <v>0.484578</v>
       </c>
       <c r="D63" t="n">
-        <v>0.53263</v>
+        <v>0.505209</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.705336</v>
+        <v>0.686002</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5284219999999999</v>
+        <v>0.543668</v>
       </c>
       <c r="D64" t="n">
-        <v>0.579149</v>
+        <v>0.547551</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.690617</v>
+        <v>0.772307</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5448</v>
+        <v>0.591191</v>
       </c>
       <c r="D65" t="n">
-        <v>0.567837</v>
+        <v>0.555833</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.707752</v>
+        <v>0.783355</v>
       </c>
       <c r="C66" t="n">
-        <v>0.552326</v>
+        <v>0.587658</v>
       </c>
       <c r="D66" t="n">
-        <v>0.569536</v>
+        <v>0.613462</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.763686</v>
+        <v>0.794997</v>
       </c>
       <c r="C67" t="n">
-        <v>0.567284</v>
+        <v>0.633204</v>
       </c>
       <c r="D67" t="n">
-        <v>0.617467</v>
+        <v>0.628999</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.777409</v>
+        <v>0.797287</v>
       </c>
       <c r="C68" t="n">
-        <v>0.584997</v>
+        <v>0.666686</v>
       </c>
       <c r="D68" t="n">
-        <v>0.618797</v>
+        <v>0.641323</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.821259</v>
+        <v>0.825947</v>
       </c>
       <c r="C69" t="n">
-        <v>0.610496</v>
+        <v>0.632486</v>
       </c>
       <c r="D69" t="n">
-        <v>0.620291</v>
+        <v>0.654038</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.788264</v>
+        <v>0.809643</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6124579999999999</v>
+        <v>0.650312</v>
       </c>
       <c r="D70" t="n">
-        <v>0.64075</v>
+        <v>0.6537770000000001</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.823439</v>
+        <v>0.838543</v>
       </c>
       <c r="C71" t="n">
-        <v>0.661529</v>
+        <v>0.665956</v>
       </c>
       <c r="D71" t="n">
-        <v>0.681692</v>
+        <v>0.6974590000000001</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.880297</v>
+        <v>0.848105</v>
       </c>
       <c r="C72" t="n">
-        <v>0.644689</v>
+        <v>0.674459</v>
       </c>
       <c r="D72" t="n">
-        <v>0.688574</v>
+        <v>0.690948</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.83847</v>
+        <v>0.865502</v>
       </c>
       <c r="C73" t="n">
-        <v>0.70947</v>
+        <v>0.7206669999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.724854</v>
+        <v>0.7567970000000001</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.887808</v>
+        <v>0.879599</v>
       </c>
       <c r="C74" t="n">
-        <v>0.713133</v>
+        <v>0.690956</v>
       </c>
       <c r="D74" t="n">
-        <v>0.736361</v>
+        <v>0.727168</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.886312</v>
+        <v>0.874579</v>
       </c>
       <c r="C75" t="n">
-        <v>0.738413</v>
+        <v>0.726357</v>
       </c>
       <c r="D75" t="n">
-        <v>0.730674</v>
+        <v>0.743767</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.888451</v>
+        <v>0.924467</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7737000000000001</v>
+        <v>0.739833</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7953249999999999</v>
+        <v>0.784367</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.926034</v>
+        <v>0.9180779999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.756561</v>
+        <v>0.7795260000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.812805</v>
+        <v>0.812916</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.914623</v>
+        <v>0.929001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7821630000000001</v>
+        <v>0.7645149999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.778394</v>
+        <v>0.7889429999999999</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.950211</v>
+        <v>0.9387180000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8069</v>
+        <v>0.774411</v>
       </c>
       <c r="D79" t="n">
-        <v>0.792885</v>
+        <v>0.814126</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9855930000000001</v>
+        <v>0.965104</v>
       </c>
       <c r="C80" t="n">
-        <v>0.767209</v>
+        <v>0.770888</v>
       </c>
       <c r="D80" t="n">
-        <v>0.796519</v>
+        <v>0.805648</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.996957</v>
+        <v>0.994789</v>
       </c>
       <c r="C81" t="n">
-        <v>0.813626</v>
+        <v>0.835458</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8292310000000001</v>
+        <v>0.839005</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.0062</v>
+        <v>1.01645</v>
       </c>
       <c r="C82" t="n">
-        <v>0.805059</v>
+        <v>0.857778</v>
       </c>
       <c r="D82" t="n">
-        <v>0.825801</v>
+        <v>0.8316</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.03891</v>
+        <v>1.02562</v>
       </c>
       <c r="C83" t="n">
-        <v>0.827197</v>
+        <v>0.847503</v>
       </c>
       <c r="D83" t="n">
-        <v>0.854375</v>
+        <v>0.8431419999999999</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9330889999999999</v>
+        <v>0.9341970000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.862714</v>
+        <v>0.8375280000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.879019</v>
+        <v>0.897279</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.973809</v>
+        <v>0.9465209999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.843346</v>
+        <v>0.869279</v>
       </c>
       <c r="D85" t="n">
-        <v>0.902363</v>
+        <v>0.9050820000000001</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.997179</v>
+        <v>0.967226</v>
       </c>
       <c r="C86" t="n">
-        <v>0.867399</v>
+        <v>0.87596</v>
       </c>
       <c r="D86" t="n">
-        <v>0.907976</v>
+        <v>0.919368</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.987345</v>
+        <v>1.00312</v>
       </c>
       <c r="C87" t="n">
-        <v>0.878895</v>
+        <v>0.891746</v>
       </c>
       <c r="D87" t="n">
-        <v>0.929067</v>
+        <v>0.935505</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.987606</v>
+        <v>0.971002</v>
       </c>
       <c r="C88" t="n">
-        <v>0.895913</v>
+        <v>0.940845</v>
       </c>
       <c r="D88" t="n">
-        <v>0.968685</v>
+        <v>0.935131</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.0264</v>
+        <v>1.01366</v>
       </c>
       <c r="C89" t="n">
-        <v>0.903043</v>
+        <v>0.922195</v>
       </c>
       <c r="D89" t="n">
-        <v>0.973978</v>
+        <v>0.932379</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.02762</v>
+        <v>1.00629</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9648949999999999</v>
+        <v>0.926329</v>
       </c>
       <c r="D90" t="n">
-        <v>0.99665</v>
+        <v>0.991082</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.03603</v>
+        <v>1.05169</v>
       </c>
       <c r="C91" t="n">
-        <v>0.939545</v>
+        <v>0.933486</v>
       </c>
       <c r="D91" t="n">
-        <v>0.973499</v>
+        <v>0.987812</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.06185</v>
+        <v>1.03573</v>
       </c>
       <c r="C92" t="n">
-        <v>0.906117</v>
+        <v>0.924345</v>
       </c>
       <c r="D92" t="n">
-        <v>0.927498</v>
+        <v>0.942537</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.08504</v>
+        <v>1.07366</v>
       </c>
       <c r="C93" t="n">
-        <v>0.903842</v>
+        <v>0.901248</v>
       </c>
       <c r="D93" t="n">
-        <v>0.92265</v>
+        <v>0.918225</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.13581</v>
+        <v>1.07359</v>
       </c>
       <c r="C94" t="n">
-        <v>0.933901</v>
+        <v>0.924814</v>
       </c>
       <c r="D94" t="n">
-        <v>0.93929</v>
+        <v>0.926406</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.10257</v>
+        <v>1.09118</v>
       </c>
       <c r="C95" t="n">
-        <v>0.927872</v>
+        <v>0.934793</v>
       </c>
       <c r="D95" t="n">
-        <v>0.940013</v>
+        <v>0.965059</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.11301</v>
+        <v>1.10024</v>
       </c>
       <c r="C96" t="n">
-        <v>0.953739</v>
+        <v>0.960416</v>
       </c>
       <c r="D96" t="n">
-        <v>0.963238</v>
+        <v>0.982663</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.14293</v>
+        <v>1.12558</v>
       </c>
       <c r="C97" t="n">
-        <v>0.977726</v>
+        <v>0.956223</v>
       </c>
       <c r="D97" t="n">
-        <v>1.00622</v>
+        <v>0.99518</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.0265</v>
+        <v>1.02688</v>
       </c>
       <c r="C98" t="n">
-        <v>0.952738</v>
+        <v>0.9746010000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>1.03937</v>
+        <v>1.01993</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.03904</v>
+        <v>1.02896</v>
       </c>
       <c r="C99" t="n">
-        <v>0.998532</v>
+        <v>1.00282</v>
       </c>
       <c r="D99" t="n">
-        <v>1.01264</v>
+        <v>1.03293</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.05568</v>
+        <v>1.03602</v>
       </c>
       <c r="C100" t="n">
-        <v>1.01838</v>
+        <v>1.02503</v>
       </c>
       <c r="D100" t="n">
-        <v>1.05921</v>
+        <v>1.07788</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.0684</v>
+        <v>1.06051</v>
       </c>
       <c r="C101" t="n">
-        <v>1.01569</v>
+        <v>1.03206</v>
       </c>
       <c r="D101" t="n">
-        <v>1.04842</v>
+        <v>1.06631</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.09476</v>
+        <v>1.08073</v>
       </c>
       <c r="C102" t="n">
-        <v>1.035</v>
+        <v>1.05384</v>
       </c>
       <c r="D102" t="n">
-        <v>1.08463</v>
+        <v>1.09464</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.09965</v>
+        <v>1.09428</v>
       </c>
       <c r="C103" t="n">
-        <v>1.05832</v>
+        <v>1.06321</v>
       </c>
       <c r="D103" t="n">
-        <v>1.09762</v>
+        <v>1.09504</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.10307</v>
+        <v>1.10866</v>
       </c>
       <c r="C104" t="n">
-        <v>1.08281</v>
+        <v>1.07305</v>
       </c>
       <c r="D104" t="n">
-        <v>1.10526</v>
+        <v>1.14145</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.12095</v>
+        <v>1.12859</v>
       </c>
       <c r="C105" t="n">
-        <v>1.1141</v>
+        <v>1.07827</v>
       </c>
       <c r="D105" t="n">
-        <v>1.14247</v>
+        <v>1.13817</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.13399</v>
+        <v>1.14192</v>
       </c>
       <c r="C106" t="n">
-        <v>1.12976</v>
+        <v>1.12647</v>
       </c>
       <c r="D106" t="n">
-        <v>1.1476</v>
+        <v>1.13092</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.1464</v>
+        <v>1.17316</v>
       </c>
       <c r="C107" t="n">
-        <v>0.992865</v>
+        <v>1.02</v>
       </c>
       <c r="D107" t="n">
-        <v>1.02438</v>
+        <v>1.03238</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.20722</v>
+        <v>1.17755</v>
       </c>
       <c r="C108" t="n">
-        <v>1.01696</v>
+        <v>1.00221</v>
       </c>
       <c r="D108" t="n">
-        <v>1.02883</v>
+        <v>1.06864</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.18447</v>
+        <v>1.17742</v>
       </c>
       <c r="C109" t="n">
-        <v>1.01813</v>
+        <v>1.02862</v>
       </c>
       <c r="D109" t="n">
-        <v>1.08475</v>
+        <v>1.05659</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.19052</v>
+        <v>1.23003</v>
       </c>
       <c r="C110" t="n">
-        <v>1.05132</v>
+        <v>1.03889</v>
       </c>
       <c r="D110" t="n">
-        <v>1.05858</v>
+        <v>1.07129</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.22288</v>
+        <v>1.23802</v>
       </c>
       <c r="C111" t="n">
-        <v>1.038</v>
+        <v>1.07983</v>
       </c>
       <c r="D111" t="n">
-        <v>1.07044</v>
+        <v>1.10172</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.1098</v>
+        <v>1.08875</v>
       </c>
       <c r="C112" t="n">
-        <v>1.07647</v>
+        <v>1.08133</v>
       </c>
       <c r="D112" t="n">
-        <v>1.09315</v>
+        <v>1.10119</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.15791</v>
+        <v>1.12106</v>
       </c>
       <c r="C113" t="n">
-        <v>1.08231</v>
+        <v>1.09451</v>
       </c>
       <c r="D113" t="n">
-        <v>1.11403</v>
+        <v>1.14362</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12529</v>
+        <v>1.11624</v>
       </c>
       <c r="C114" t="n">
-        <v>1.11512</v>
+        <v>1.09386</v>
       </c>
       <c r="D114" t="n">
-        <v>1.11315</v>
+        <v>1.1383</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.16363</v>
+        <v>1.13746</v>
       </c>
       <c r="C115" t="n">
-        <v>1.10136</v>
+        <v>1.11254</v>
       </c>
       <c r="D115" t="n">
-        <v>1.15845</v>
+        <v>1.15774</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.22383</v>
+        <v>1.1519</v>
       </c>
       <c r="C116" t="n">
-        <v>1.11514</v>
+        <v>1.15437</v>
       </c>
       <c r="D116" t="n">
-        <v>1.17564</v>
+        <v>1.18242</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.17415</v>
+        <v>1.15399</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14952</v>
+        <v>1.13784</v>
       </c>
       <c r="D117" t="n">
-        <v>1.22477</v>
+        <v>1.19009</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.19315</v>
+        <v>1.18123</v>
       </c>
       <c r="C118" t="n">
-        <v>1.17057</v>
+        <v>1.16306</v>
       </c>
       <c r="D118" t="n">
-        <v>1.22202</v>
+        <v>1.20608</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.22977</v>
+        <v>1.19075</v>
       </c>
       <c r="C119" t="n">
-        <v>1.21808</v>
+        <v>1.18399</v>
       </c>
       <c r="D119" t="n">
-        <v>1.24518</v>
+        <v>1.2332</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.246037</v>
+        <v>0.238965</v>
       </c>
       <c r="C2" t="n">
-        <v>0.197411</v>
+        <v>0.204208</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199753</v>
+        <v>0.197169</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.237706</v>
+        <v>0.239537</v>
       </c>
       <c r="C3" t="n">
-        <v>0.208948</v>
+        <v>0.209257</v>
       </c>
       <c r="D3" t="n">
-        <v>0.195202</v>
+        <v>0.198366</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239249</v>
+        <v>0.239519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.201267</v>
+        <v>0.218234</v>
       </c>
       <c r="D4" t="n">
-        <v>0.206135</v>
+        <v>0.198238</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.244961</v>
+        <v>0.254368</v>
       </c>
       <c r="C5" t="n">
-        <v>0.203398</v>
+        <v>0.220439</v>
       </c>
       <c r="D5" t="n">
-        <v>0.19939</v>
+        <v>0.213388</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.239054</v>
+        <v>0.255596</v>
       </c>
       <c r="C6" t="n">
-        <v>0.208718</v>
+        <v>0.239597</v>
       </c>
       <c r="D6" t="n">
-        <v>0.196474</v>
+        <v>0.204555</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.244508</v>
+        <v>0.256863</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191149</v>
+        <v>0.207073</v>
       </c>
       <c r="D7" t="n">
-        <v>0.200398</v>
+        <v>0.206725</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.265264</v>
+        <v>0.266357</v>
       </c>
       <c r="C8" t="n">
-        <v>0.218762</v>
+        <v>0.214969</v>
       </c>
       <c r="D8" t="n">
-        <v>0.234483</v>
+        <v>0.2258</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.257888</v>
+        <v>0.262297</v>
       </c>
       <c r="C9" t="n">
-        <v>0.210724</v>
+        <v>0.216401</v>
       </c>
       <c r="D9" t="n">
-        <v>0.222036</v>
+        <v>0.218714</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.291898</v>
+        <v>0.288793</v>
       </c>
       <c r="C10" t="n">
-        <v>0.217066</v>
+        <v>0.221162</v>
       </c>
       <c r="D10" t="n">
-        <v>0.226455</v>
+        <v>0.210659</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.266224</v>
+        <v>0.268352</v>
       </c>
       <c r="C11" t="n">
-        <v>0.211701</v>
+        <v>0.208284</v>
       </c>
       <c r="D11" t="n">
-        <v>0.218061</v>
+        <v>0.215311</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.290189</v>
+        <v>0.275033</v>
       </c>
       <c r="C12" t="n">
-        <v>0.231298</v>
+        <v>0.223641</v>
       </c>
       <c r="D12" t="n">
-        <v>0.217279</v>
+        <v>0.218541</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.252984</v>
+        <v>0.257385</v>
       </c>
       <c r="C13" t="n">
-        <v>0.207968</v>
+        <v>0.225353</v>
       </c>
       <c r="D13" t="n">
-        <v>0.227495</v>
+        <v>0.231245</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.261127</v>
+        <v>0.260797</v>
       </c>
       <c r="C14" t="n">
-        <v>0.225475</v>
+        <v>0.227687</v>
       </c>
       <c r="D14" t="n">
-        <v>0.226798</v>
+        <v>0.219609</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.253184</v>
+        <v>0.258139</v>
       </c>
       <c r="C15" t="n">
-        <v>0.21855</v>
+        <v>0.22875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.223151</v>
+        <v>0.228363</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.253353</v>
+        <v>0.271373</v>
       </c>
       <c r="C16" t="n">
-        <v>0.216564</v>
+        <v>0.231426</v>
       </c>
       <c r="D16" t="n">
-        <v>0.234667</v>
+        <v>0.225182</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.267159</v>
+        <v>0.260032</v>
       </c>
       <c r="C17" t="n">
-        <v>0.219023</v>
+        <v>0.233083</v>
       </c>
       <c r="D17" t="n">
-        <v>0.227521</v>
+        <v>0.226602</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.25489</v>
+        <v>0.257572</v>
       </c>
       <c r="C18" t="n">
-        <v>0.226006</v>
+        <v>0.239065</v>
       </c>
       <c r="D18" t="n">
-        <v>0.241712</v>
+        <v>0.229928</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.274888</v>
+        <v>0.262669</v>
       </c>
       <c r="C19" t="n">
-        <v>0.240182</v>
+        <v>0.253389</v>
       </c>
       <c r="D19" t="n">
-        <v>0.235849</v>
+        <v>0.228638</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.270116</v>
+        <v>0.280851</v>
       </c>
       <c r="C20" t="n">
-        <v>0.24735</v>
+        <v>0.252678</v>
       </c>
       <c r="D20" t="n">
-        <v>0.228762</v>
+        <v>0.227371</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.27175</v>
+        <v>0.275711</v>
       </c>
       <c r="C21" t="n">
-        <v>0.222837</v>
+        <v>0.227006</v>
       </c>
       <c r="D21" t="n">
-        <v>0.232283</v>
+        <v>0.228798</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.272049</v>
+        <v>0.283851</v>
       </c>
       <c r="C22" t="n">
-        <v>0.217836</v>
+        <v>0.244147</v>
       </c>
       <c r="D22" t="n">
-        <v>0.22769</v>
+        <v>0.227832</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.285858</v>
+        <v>0.297631</v>
       </c>
       <c r="C23" t="n">
-        <v>0.234437</v>
+        <v>0.237633</v>
       </c>
       <c r="D23" t="n">
-        <v>0.235408</v>
+        <v>0.238298</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.296216</v>
+        <v>0.300237</v>
       </c>
       <c r="C24" t="n">
-        <v>0.241838</v>
+        <v>0.241393</v>
       </c>
       <c r="D24" t="n">
-        <v>0.234685</v>
+        <v>0.23859</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.303288</v>
+        <v>0.302681</v>
       </c>
       <c r="C25" t="n">
-        <v>0.246579</v>
+        <v>0.250604</v>
       </c>
       <c r="D25" t="n">
-        <v>0.239504</v>
+        <v>0.241398</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.309872</v>
+        <v>0.317903</v>
       </c>
       <c r="C26" t="n">
-        <v>0.246291</v>
+        <v>0.266852</v>
       </c>
       <c r="D26" t="n">
-        <v>0.245914</v>
+        <v>0.248846</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.28985</v>
+        <v>0.282145</v>
       </c>
       <c r="C27" t="n">
-        <v>0.253153</v>
+        <v>0.263428</v>
       </c>
       <c r="D27" t="n">
-        <v>0.248063</v>
+        <v>0.248065</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.287429</v>
+        <v>0.305185</v>
       </c>
       <c r="C28" t="n">
-        <v>0.257571</v>
+        <v>0.268066</v>
       </c>
       <c r="D28" t="n">
-        <v>0.249607</v>
+        <v>0.248602</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.297725</v>
+        <v>0.285839</v>
       </c>
       <c r="C29" t="n">
-        <v>0.259837</v>
+        <v>0.261039</v>
       </c>
       <c r="D29" t="n">
-        <v>0.247614</v>
+        <v>0.252977</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.322336</v>
+        <v>0.314518</v>
       </c>
       <c r="C30" t="n">
-        <v>0.272472</v>
+        <v>0.288314</v>
       </c>
       <c r="D30" t="n">
-        <v>0.251823</v>
+        <v>0.252814</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.316407</v>
+        <v>0.313967</v>
       </c>
       <c r="C31" t="n">
-        <v>0.265271</v>
+        <v>0.283059</v>
       </c>
       <c r="D31" t="n">
-        <v>0.261007</v>
+        <v>0.256369</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.327851</v>
+        <v>0.314321</v>
       </c>
       <c r="C32" t="n">
-        <v>0.290294</v>
+        <v>0.290512</v>
       </c>
       <c r="D32" t="n">
-        <v>0.265438</v>
+        <v>0.263823</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.332662</v>
+        <v>0.337279</v>
       </c>
       <c r="C33" t="n">
-        <v>0.290431</v>
+        <v>0.301403</v>
       </c>
       <c r="D33" t="n">
-        <v>0.274698</v>
+        <v>0.271709</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.348192</v>
+        <v>0.33554</v>
       </c>
       <c r="C34" t="n">
-        <v>0.298596</v>
+        <v>0.313131</v>
       </c>
       <c r="D34" t="n">
-        <v>0.263405</v>
+        <v>0.279648</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.360321</v>
+        <v>0.338652</v>
       </c>
       <c r="C35" t="n">
-        <v>0.254076</v>
+        <v>0.259839</v>
       </c>
       <c r="D35" t="n">
-        <v>0.248797</v>
+        <v>0.25895</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.376708</v>
+        <v>0.35097</v>
       </c>
       <c r="C36" t="n">
-        <v>0.256572</v>
+        <v>0.262093</v>
       </c>
       <c r="D36" t="n">
-        <v>0.254415</v>
+        <v>0.2558</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.385992</v>
+        <v>0.389504</v>
       </c>
       <c r="C37" t="n">
-        <v>0.268745</v>
+        <v>0.284216</v>
       </c>
       <c r="D37" t="n">
-        <v>0.267054</v>
+        <v>0.270019</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.379742</v>
+        <v>0.366333</v>
       </c>
       <c r="C38" t="n">
-        <v>0.278935</v>
+        <v>0.305946</v>
       </c>
       <c r="D38" t="n">
-        <v>0.273639</v>
+        <v>0.263619</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.400269</v>
+        <v>0.403336</v>
       </c>
       <c r="C39" t="n">
-        <v>0.283494</v>
+        <v>0.297382</v>
       </c>
       <c r="D39" t="n">
-        <v>0.27337</v>
+        <v>0.289449</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.395852</v>
+        <v>0.404463</v>
       </c>
       <c r="C40" t="n">
-        <v>0.292988</v>
+        <v>0.318076</v>
       </c>
       <c r="D40" t="n">
-        <v>0.290165</v>
+        <v>0.273931</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.39607</v>
+        <v>0.412727</v>
       </c>
       <c r="C41" t="n">
-        <v>0.302876</v>
+        <v>0.313117</v>
       </c>
       <c r="D41" t="n">
-        <v>0.284497</v>
+        <v>0.272109</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.412063</v>
+        <v>0.398399</v>
       </c>
       <c r="C42" t="n">
-        <v>0.299612</v>
+        <v>0.325549</v>
       </c>
       <c r="D42" t="n">
-        <v>0.283988</v>
+        <v>0.285992</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.418136</v>
+        <v>0.408214</v>
       </c>
       <c r="C43" t="n">
-        <v>0.312071</v>
+        <v>0.346354</v>
       </c>
       <c r="D43" t="n">
-        <v>0.279585</v>
+        <v>0.291397</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.434214</v>
+        <v>0.423611</v>
       </c>
       <c r="C44" t="n">
-        <v>0.322738</v>
+        <v>0.352735</v>
       </c>
       <c r="D44" t="n">
-        <v>0.292831</v>
+        <v>0.298989</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.439568</v>
+        <v>0.435176</v>
       </c>
       <c r="C45" t="n">
-        <v>0.334578</v>
+        <v>0.355496</v>
       </c>
       <c r="D45" t="n">
-        <v>0.306453</v>
+        <v>0.301507</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.449124</v>
+        <v>0.439402</v>
       </c>
       <c r="C46" t="n">
-        <v>0.332492</v>
+        <v>0.365043</v>
       </c>
       <c r="D46" t="n">
-        <v>0.308145</v>
+        <v>0.314189</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.452943</v>
+        <v>0.458343</v>
       </c>
       <c r="C47" t="n">
-        <v>0.356803</v>
+        <v>0.383069</v>
       </c>
       <c r="D47" t="n">
-        <v>0.327602</v>
+        <v>0.311569</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.471952</v>
+        <v>0.453349</v>
       </c>
       <c r="C48" t="n">
-        <v>0.355535</v>
+        <v>0.376164</v>
       </c>
       <c r="D48" t="n">
-        <v>0.318333</v>
+        <v>0.319942</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.484077</v>
+        <v>0.490241</v>
       </c>
       <c r="C49" t="n">
-        <v>0.376552</v>
+        <v>0.396871</v>
       </c>
       <c r="D49" t="n">
-        <v>0.331019</v>
+        <v>0.322076</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.487175</v>
+        <v>0.494652</v>
       </c>
       <c r="C50" t="n">
-        <v>0.371477</v>
+        <v>0.397593</v>
       </c>
       <c r="D50" t="n">
-        <v>0.338095</v>
+        <v>0.345262</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4947</v>
+        <v>0.502273</v>
       </c>
       <c r="C51" t="n">
-        <v>0.375749</v>
+        <v>0.436085</v>
       </c>
       <c r="D51" t="n">
-        <v>0.350401</v>
+        <v>0.351286</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.523709</v>
+        <v>0.52124</v>
       </c>
       <c r="C52" t="n">
-        <v>0.382556</v>
+        <v>0.410787</v>
       </c>
       <c r="D52" t="n">
-        <v>0.358656</v>
+        <v>0.351391</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.536185</v>
+        <v>0.529975</v>
       </c>
       <c r="C53" t="n">
-        <v>0.407122</v>
+        <v>0.437517</v>
       </c>
       <c r="D53" t="n">
-        <v>0.352137</v>
+        <v>0.358161</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.543991</v>
+        <v>0.544577</v>
       </c>
       <c r="C54" t="n">
-        <v>0.414997</v>
+        <v>0.448741</v>
       </c>
       <c r="D54" t="n">
-        <v>0.37522</v>
+        <v>0.376652</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.573115</v>
+        <v>0.555445</v>
       </c>
       <c r="C55" t="n">
-        <v>0.439917</v>
+        <v>0.469752</v>
       </c>
       <c r="D55" t="n">
-        <v>0.377146</v>
+        <v>0.389705</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.509043</v>
+        <v>0.529027</v>
       </c>
       <c r="C56" t="n">
-        <v>0.426091</v>
+        <v>0.478364</v>
       </c>
       <c r="D56" t="n">
-        <v>0.386508</v>
+        <v>0.385047</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.518702</v>
+        <v>0.534608</v>
       </c>
       <c r="C57" t="n">
-        <v>0.454054</v>
+        <v>0.492151</v>
       </c>
       <c r="D57" t="n">
-        <v>0.390638</v>
+        <v>0.406166</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.544258</v>
+        <v>0.5430700000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.489532</v>
+        <v>0.5284140000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.397676</v>
+        <v>0.410844</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.570684</v>
+        <v>0.569618</v>
       </c>
       <c r="C59" t="n">
-        <v>0.498534</v>
+        <v>0.525985</v>
       </c>
       <c r="D59" t="n">
-        <v>0.415434</v>
+        <v>0.418103</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.587476</v>
+        <v>0.592063</v>
       </c>
       <c r="C60" t="n">
-        <v>0.491956</v>
+        <v>0.542339</v>
       </c>
       <c r="D60" t="n">
-        <v>0.427042</v>
+        <v>0.434238</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.594888</v>
+        <v>0.576624</v>
       </c>
       <c r="C61" t="n">
-        <v>0.533999</v>
+        <v>0.5608030000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.440395</v>
+        <v>0.437726</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.599782</v>
+        <v>0.6346889999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5282249999999999</v>
+        <v>0.591399</v>
       </c>
       <c r="D62" t="n">
-        <v>0.441571</v>
+        <v>0.457962</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.639962</v>
+        <v>0.634734</v>
       </c>
       <c r="C63" t="n">
-        <v>0.566641</v>
+        <v>0.613053</v>
       </c>
       <c r="D63" t="n">
-        <v>0.455723</v>
+        <v>0.463174</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.651489</v>
+        <v>0.643508</v>
       </c>
       <c r="C64" t="n">
-        <v>0.546013</v>
+        <v>0.602431</v>
       </c>
       <c r="D64" t="n">
-        <v>0.491735</v>
+        <v>0.466971</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.704252</v>
+        <v>0.67149</v>
       </c>
       <c r="C65" t="n">
-        <v>0.537883</v>
+        <v>0.580639</v>
       </c>
       <c r="D65" t="n">
-        <v>0.482536</v>
+        <v>0.499311</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.695483</v>
+        <v>0.692894</v>
       </c>
       <c r="C66" t="n">
-        <v>0.548979</v>
+        <v>0.609772</v>
       </c>
       <c r="D66" t="n">
-        <v>0.485291</v>
+        <v>0.50811</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.743405</v>
+        <v>0.732161</v>
       </c>
       <c r="C67" t="n">
-        <v>0.569547</v>
+        <v>0.645994</v>
       </c>
       <c r="D67" t="n">
-        <v>0.520415</v>
+        <v>0.52716</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.792687</v>
+        <v>0.797358</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5842349999999999</v>
+        <v>0.658739</v>
       </c>
       <c r="D68" t="n">
-        <v>0.527092</v>
+        <v>0.532375</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.801143</v>
+        <v>0.818899</v>
       </c>
       <c r="C69" t="n">
-        <v>0.596106</v>
+        <v>0.687535</v>
       </c>
       <c r="D69" t="n">
-        <v>0.56857</v>
+        <v>0.553902</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.753109</v>
+        <v>0.723616</v>
       </c>
       <c r="C70" t="n">
-        <v>0.653327</v>
+        <v>0.704372</v>
       </c>
       <c r="D70" t="n">
-        <v>0.557674</v>
+        <v>0.571918</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.76273</v>
+        <v>0.748798</v>
       </c>
       <c r="C71" t="n">
-        <v>0.680164</v>
+        <v>0.73053</v>
       </c>
       <c r="D71" t="n">
-        <v>0.55481</v>
+        <v>0.571626</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.799095</v>
+        <v>0.799187</v>
       </c>
       <c r="C72" t="n">
-        <v>0.694796</v>
+        <v>0.754966</v>
       </c>
       <c r="D72" t="n">
-        <v>0.620108</v>
+        <v>0.568644</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.824116</v>
+        <v>0.794089</v>
       </c>
       <c r="C73" t="n">
-        <v>0.746661</v>
+        <v>0.774301</v>
       </c>
       <c r="D73" t="n">
-        <v>0.60595</v>
+        <v>0.61495</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.858845</v>
+        <v>0.836972</v>
       </c>
       <c r="C74" t="n">
-        <v>0.755482</v>
+        <v>0.800482</v>
       </c>
       <c r="D74" t="n">
-        <v>0.639621</v>
+        <v>0.629098</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.922387</v>
+        <v>0.868131</v>
       </c>
       <c r="C75" t="n">
-        <v>0.798508</v>
+        <v>0.856788</v>
       </c>
       <c r="D75" t="n">
-        <v>0.657463</v>
+        <v>0.650343</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.921112</v>
+        <v>0.905513</v>
       </c>
       <c r="C76" t="n">
-        <v>0.840807</v>
+        <v>0.912057</v>
       </c>
       <c r="D76" t="n">
-        <v>0.687505</v>
+        <v>0.672006</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.929552</v>
+        <v>0.979061</v>
       </c>
       <c r="C77" t="n">
-        <v>0.842876</v>
+        <v>0.975225</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7151690000000001</v>
+        <v>0.672316</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.988492</v>
+        <v>0.9365250000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.77827</v>
+        <v>0.820732</v>
       </c>
       <c r="D78" t="n">
-        <v>0.72924</v>
+        <v>0.726012</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.01392</v>
+        <v>0.984758</v>
       </c>
       <c r="C79" t="n">
-        <v>0.81076</v>
+        <v>0.8545700000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7443340000000001</v>
+        <v>0.729865</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.06831</v>
+        <v>1.01297</v>
       </c>
       <c r="C80" t="n">
-        <v>0.818227</v>
+        <v>0.890353</v>
       </c>
       <c r="D80" t="n">
-        <v>0.792425</v>
+        <v>0.77545</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08093</v>
+        <v>1.06097</v>
       </c>
       <c r="C81" t="n">
-        <v>0.872139</v>
+        <v>0.9191009999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.787976</v>
+        <v>0.769257</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.09836</v>
+        <v>1.12284</v>
       </c>
       <c r="C82" t="n">
-        <v>0.903756</v>
+        <v>0.937886</v>
       </c>
       <c r="D82" t="n">
-        <v>0.852177</v>
+        <v>0.82783</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.17383</v>
+        <v>1.16031</v>
       </c>
       <c r="C83" t="n">
-        <v>0.925296</v>
+        <v>0.985776</v>
       </c>
       <c r="D83" t="n">
-        <v>0.847361</v>
+        <v>0.81502</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.03768</v>
+        <v>0.991038</v>
       </c>
       <c r="C84" t="n">
-        <v>0.974946</v>
+        <v>1.02096</v>
       </c>
       <c r="D84" t="n">
-        <v>0.88182</v>
+        <v>0.843202</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.08596</v>
+        <v>1.02867</v>
       </c>
       <c r="C85" t="n">
-        <v>1.01202</v>
+        <v>1.03712</v>
       </c>
       <c r="D85" t="n">
-        <v>0.931547</v>
+        <v>0.862382</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.09151</v>
+        <v>1.08032</v>
       </c>
       <c r="C86" t="n">
-        <v>1.01602</v>
+        <v>1.09776</v>
       </c>
       <c r="D86" t="n">
-        <v>0.928267</v>
+        <v>0.901473</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.13908</v>
+        <v>1.09951</v>
       </c>
       <c r="C87" t="n">
-        <v>1.03027</v>
+        <v>1.09797</v>
       </c>
       <c r="D87" t="n">
-        <v>0.92208</v>
+        <v>0.926695</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.17384</v>
+        <v>1.13182</v>
       </c>
       <c r="C88" t="n">
-        <v>1.06006</v>
+        <v>1.14738</v>
       </c>
       <c r="D88" t="n">
-        <v>0.944812</v>
+        <v>0.933697</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.17308</v>
+        <v>1.14444</v>
       </c>
       <c r="C89" t="n">
-        <v>1.09673</v>
+        <v>1.17624</v>
       </c>
       <c r="D89" t="n">
-        <v>0.976337</v>
+        <v>0.921364</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.24483</v>
+        <v>1.23098</v>
       </c>
       <c r="C90" t="n">
-        <v>1.16294</v>
+        <v>1.19879</v>
       </c>
       <c r="D90" t="n">
-        <v>1.00662</v>
+        <v>0.952965</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.24971</v>
+        <v>1.2098</v>
       </c>
       <c r="C91" t="n">
-        <v>1.1639</v>
+        <v>1.22548</v>
       </c>
       <c r="D91" t="n">
-        <v>1.00871</v>
+        <v>0.997103</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.25682</v>
+        <v>1.23652</v>
       </c>
       <c r="C92" t="n">
-        <v>1.05419</v>
+        <v>1.08266</v>
       </c>
       <c r="D92" t="n">
-        <v>0.991285</v>
+        <v>1.00817</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.27147</v>
+        <v>1.27413</v>
       </c>
       <c r="C93" t="n">
-        <v>1.06177</v>
+        <v>1.1085</v>
       </c>
       <c r="D93" t="n">
-        <v>1.02637</v>
+        <v>1.02141</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.31125</v>
+        <v>1.32449</v>
       </c>
       <c r="C94" t="n">
-        <v>1.08626</v>
+        <v>1.13905</v>
       </c>
       <c r="D94" t="n">
-        <v>1.01413</v>
+        <v>1.03569</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.36007</v>
+        <v>1.36493</v>
       </c>
       <c r="C95" t="n">
-        <v>1.10902</v>
+        <v>1.16834</v>
       </c>
       <c r="D95" t="n">
-        <v>1.08285</v>
+        <v>1.05544</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.38733</v>
+        <v>1.37329</v>
       </c>
       <c r="C96" t="n">
-        <v>1.13004</v>
+        <v>1.18616</v>
       </c>
       <c r="D96" t="n">
-        <v>1.05279</v>
+        <v>1.03889</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.4581</v>
+        <v>1.40945</v>
       </c>
       <c r="C97" t="n">
-        <v>1.18364</v>
+        <v>1.18178</v>
       </c>
       <c r="D97" t="n">
-        <v>1.10018</v>
+        <v>1.06471</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.2727</v>
+        <v>1.26841</v>
       </c>
       <c r="C98" t="n">
-        <v>1.18974</v>
+        <v>1.25581</v>
       </c>
       <c r="D98" t="n">
-        <v>1.11276</v>
+        <v>1.06523</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.30416</v>
+        <v>1.31499</v>
       </c>
       <c r="C99" t="n">
-        <v>1.2155</v>
+        <v>1.26844</v>
       </c>
       <c r="D99" t="n">
-        <v>1.14944</v>
+        <v>1.10779</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.34754</v>
+        <v>1.33138</v>
       </c>
       <c r="C100" t="n">
-        <v>1.26501</v>
+        <v>1.29582</v>
       </c>
       <c r="D100" t="n">
-        <v>1.12896</v>
+        <v>1.11967</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.39505</v>
+        <v>1.34846</v>
       </c>
       <c r="C101" t="n">
-        <v>1.31359</v>
+        <v>1.3466</v>
       </c>
       <c r="D101" t="n">
-        <v>1.15892</v>
+        <v>1.15532</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.35148</v>
+        <v>1.38121</v>
       </c>
       <c r="C102" t="n">
-        <v>1.32633</v>
+        <v>1.34488</v>
       </c>
       <c r="D102" t="n">
-        <v>1.20203</v>
+        <v>1.15128</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.42047</v>
+        <v>1.40309</v>
       </c>
       <c r="C103" t="n">
-        <v>1.35867</v>
+        <v>1.38768</v>
       </c>
       <c r="D103" t="n">
-        <v>1.18585</v>
+        <v>1.19384</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.4294</v>
+        <v>1.41243</v>
       </c>
       <c r="C104" t="n">
-        <v>1.36039</v>
+        <v>1.42484</v>
       </c>
       <c r="D104" t="n">
-        <v>1.24065</v>
+        <v>1.19159</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.47802</v>
+        <v>1.43286</v>
       </c>
       <c r="C105" t="n">
-        <v>1.41923</v>
+        <v>1.47291</v>
       </c>
       <c r="D105" t="n">
-        <v>1.22916</v>
+        <v>1.20205</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.46358</v>
+        <v>1.42817</v>
       </c>
       <c r="C106" t="n">
-        <v>1.42927</v>
+        <v>1.47129</v>
       </c>
       <c r="D106" t="n">
-        <v>1.27204</v>
+        <v>1.23315</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.53216</v>
+        <v>1.49685</v>
       </c>
       <c r="C107" t="n">
-        <v>1.2768</v>
+        <v>1.31215</v>
       </c>
       <c r="D107" t="n">
-        <v>1.18799</v>
+        <v>1.19245</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.51115</v>
+        <v>1.53529</v>
       </c>
       <c r="C108" t="n">
-        <v>1.31732</v>
+        <v>1.37656</v>
       </c>
       <c r="D108" t="n">
-        <v>1.22139</v>
+        <v>1.18046</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.60429</v>
+        <v>1.54572</v>
       </c>
       <c r="C109" t="n">
-        <v>1.32849</v>
+        <v>1.33406</v>
       </c>
       <c r="D109" t="n">
-        <v>1.22963</v>
+        <v>1.20702</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.55482</v>
+        <v>1.6034</v>
       </c>
       <c r="C110" t="n">
-        <v>1.32276</v>
+        <v>1.34203</v>
       </c>
       <c r="D110" t="n">
-        <v>1.23241</v>
+        <v>1.20784</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.70803</v>
+        <v>1.58978</v>
       </c>
       <c r="C111" t="n">
-        <v>1.37644</v>
+        <v>1.39479</v>
       </c>
       <c r="D111" t="n">
-        <v>1.26231</v>
+        <v>1.2385</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.49081</v>
+        <v>1.55332</v>
       </c>
       <c r="C112" t="n">
-        <v>1.3815</v>
+        <v>1.41279</v>
       </c>
       <c r="D112" t="n">
-        <v>1.258</v>
+        <v>1.26157</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.49192</v>
+        <v>1.62336</v>
       </c>
       <c r="C113" t="n">
-        <v>1.40222</v>
+        <v>1.48789</v>
       </c>
       <c r="D113" t="n">
-        <v>1.26795</v>
+        <v>1.27706</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.44746</v>
+        <v>1.61003</v>
       </c>
       <c r="C114" t="n">
-        <v>1.45789</v>
+        <v>1.53297</v>
       </c>
       <c r="D114" t="n">
-        <v>1.30261</v>
+        <v>1.31407</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.57467</v>
+        <v>1.60073</v>
       </c>
       <c r="C115" t="n">
-        <v>1.48923</v>
+        <v>1.53878</v>
       </c>
       <c r="D115" t="n">
-        <v>1.35454</v>
+        <v>1.3093</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.5687</v>
+        <v>1.64227</v>
       </c>
       <c r="C116" t="n">
-        <v>1.5181</v>
+        <v>1.59202</v>
       </c>
       <c r="D116" t="n">
-        <v>1.37277</v>
+        <v>1.30356</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.5436</v>
+        <v>1.67679</v>
       </c>
       <c r="C117" t="n">
-        <v>1.52374</v>
+        <v>1.55521</v>
       </c>
       <c r="D117" t="n">
-        <v>1.34728</v>
+        <v>1.3494</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.5816</v>
+        <v>1.59118</v>
       </c>
       <c r="C118" t="n">
-        <v>1.57418</v>
+        <v>1.62045</v>
       </c>
       <c r="D118" t="n">
-        <v>1.38146</v>
+        <v>1.37216</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.64969</v>
+        <v>1.61291</v>
       </c>
       <c r="C119" t="n">
-        <v>1.66567</v>
+        <v>1.6293</v>
       </c>
       <c r="D119" t="n">
-        <v>1.40024</v>
+        <v>1.38513</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.558744</v>
+        <v>0.533162</v>
       </c>
       <c r="C2" t="n">
-        <v>0.320757</v>
+        <v>0.344942</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244492</v>
+        <v>0.236007</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.397138</v>
+        <v>0.401028</v>
       </c>
       <c r="C3" t="n">
-        <v>0.320276</v>
+        <v>0.341269</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24712</v>
+        <v>0.246977</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.395834</v>
+        <v>0.405264</v>
       </c>
       <c r="C4" t="n">
-        <v>0.346684</v>
+        <v>0.368656</v>
       </c>
       <c r="D4" t="n">
-        <v>0.252779</v>
+        <v>0.257494</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.412027</v>
+        <v>0.413888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.349151</v>
+        <v>0.380581</v>
       </c>
       <c r="D5" t="n">
-        <v>0.260043</v>
+        <v>0.266289</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.433353</v>
+        <v>0.427781</v>
       </c>
       <c r="C6" t="n">
-        <v>0.355942</v>
+        <v>0.383948</v>
       </c>
       <c r="D6" t="n">
-        <v>0.262202</v>
+        <v>0.264838</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.417779</v>
+        <v>0.451123</v>
       </c>
       <c r="C7" t="n">
-        <v>0.376743</v>
+        <v>0.41086</v>
       </c>
       <c r="D7" t="n">
-        <v>0.278268</v>
+        <v>0.274297</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.439086</v>
+        <v>0.445721</v>
       </c>
       <c r="C8" t="n">
-        <v>0.386563</v>
+        <v>0.417324</v>
       </c>
       <c r="D8" t="n">
-        <v>0.283626</v>
+        <v>0.286223</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.474722</v>
+        <v>0.467413</v>
       </c>
       <c r="C9" t="n">
-        <v>0.416862</v>
+        <v>0.471117</v>
       </c>
       <c r="D9" t="n">
-        <v>0.292124</v>
+        <v>0.287429</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.499003</v>
+        <v>0.476803</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4236</v>
+        <v>0.464407</v>
       </c>
       <c r="D10" t="n">
-        <v>0.300015</v>
+        <v>0.305989</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.49041</v>
+        <v>0.520618</v>
       </c>
       <c r="C11" t="n">
-        <v>0.331171</v>
+        <v>0.351302</v>
       </c>
       <c r="D11" t="n">
-        <v>0.249073</v>
+        <v>0.244517</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.526011</v>
+        <v>0.522595</v>
       </c>
       <c r="C12" t="n">
-        <v>0.329706</v>
+        <v>0.345451</v>
       </c>
       <c r="D12" t="n">
-        <v>0.246107</v>
+        <v>0.244416</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.56043</v>
+        <v>0.546947</v>
       </c>
       <c r="C13" t="n">
-        <v>0.346891</v>
+        <v>0.375085</v>
       </c>
       <c r="D13" t="n">
-        <v>0.265139</v>
+        <v>0.265192</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5759919999999999</v>
+        <v>0.567897</v>
       </c>
       <c r="C14" t="n">
-        <v>0.367115</v>
+        <v>0.396585</v>
       </c>
       <c r="D14" t="n">
-        <v>0.270483</v>
+        <v>0.257225</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.582557</v>
+        <v>0.584206</v>
       </c>
       <c r="C15" t="n">
-        <v>0.375888</v>
+        <v>0.405992</v>
       </c>
       <c r="D15" t="n">
-        <v>0.270713</v>
+        <v>0.271435</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6002690000000001</v>
+        <v>0.610155</v>
       </c>
       <c r="C16" t="n">
-        <v>0.382064</v>
+        <v>0.414214</v>
       </c>
       <c r="D16" t="n">
-        <v>0.279915</v>
+        <v>0.283061</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.395672</v>
+        <v>0.375148</v>
       </c>
       <c r="C17" t="n">
-        <v>0.393603</v>
+        <v>0.432272</v>
       </c>
       <c r="D17" t="n">
-        <v>0.288022</v>
+        <v>0.287072</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.405573</v>
+        <v>0.403827</v>
       </c>
       <c r="C18" t="n">
-        <v>0.410553</v>
+        <v>0.434932</v>
       </c>
       <c r="D18" t="n">
-        <v>0.29176</v>
+        <v>0.284789</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.418738</v>
+        <v>0.402584</v>
       </c>
       <c r="C19" t="n">
-        <v>0.435431</v>
+        <v>0.46571</v>
       </c>
       <c r="D19" t="n">
-        <v>0.301053</v>
+        <v>0.306399</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.435267</v>
+        <v>0.4221</v>
       </c>
       <c r="C20" t="n">
-        <v>0.45433</v>
+        <v>0.485768</v>
       </c>
       <c r="D20" t="n">
-        <v>0.310582</v>
+        <v>0.306108</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.461859</v>
+        <v>0.438592</v>
       </c>
       <c r="C21" t="n">
-        <v>0.477885</v>
+        <v>0.498501</v>
       </c>
       <c r="D21" t="n">
-        <v>0.329957</v>
+        <v>0.326867</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.460976</v>
+        <v>0.444127</v>
       </c>
       <c r="C22" t="n">
-        <v>0.493348</v>
+        <v>0.521046</v>
       </c>
       <c r="D22" t="n">
-        <v>0.339351</v>
+        <v>0.333596</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.479027</v>
+        <v>0.474341</v>
       </c>
       <c r="C23" t="n">
-        <v>0.519746</v>
+        <v>0.543886</v>
       </c>
       <c r="D23" t="n">
-        <v>0.364368</v>
+        <v>0.351202</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.502316</v>
+        <v>0.51806</v>
       </c>
       <c r="C24" t="n">
-        <v>0.525147</v>
+        <v>0.55719</v>
       </c>
       <c r="D24" t="n">
-        <v>0.352553</v>
+        <v>0.361964</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5358309999999999</v>
+        <v>0.527825</v>
       </c>
       <c r="C25" t="n">
-        <v>0.573117</v>
+        <v>0.593174</v>
       </c>
       <c r="D25" t="n">
-        <v>0.36856</v>
+        <v>0.375791</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5553090000000001</v>
+        <v>0.553207</v>
       </c>
       <c r="C26" t="n">
-        <v>0.369705</v>
+        <v>0.396975</v>
       </c>
       <c r="D26" t="n">
-        <v>0.278195</v>
+        <v>0.271718</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.604922</v>
+        <v>0.557267</v>
       </c>
       <c r="C27" t="n">
-        <v>0.389457</v>
+        <v>0.395812</v>
       </c>
       <c r="D27" t="n">
-        <v>0.281071</v>
+        <v>0.289438</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.609223</v>
+        <v>0.605376</v>
       </c>
       <c r="C28" t="n">
-        <v>0.389448</v>
+        <v>0.399961</v>
       </c>
       <c r="D28" t="n">
-        <v>0.284772</v>
+        <v>0.29765</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6411829999999999</v>
+        <v>0.631578</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3775</v>
+        <v>0.408921</v>
       </c>
       <c r="D29" t="n">
-        <v>0.29951</v>
+        <v>0.303735</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6558659999999999</v>
+        <v>0.631483</v>
       </c>
       <c r="C30" t="n">
-        <v>0.409733</v>
+        <v>0.435843</v>
       </c>
       <c r="D30" t="n">
-        <v>0.305103</v>
+        <v>0.304254</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.703565</v>
+        <v>0.699738</v>
       </c>
       <c r="C31" t="n">
-        <v>0.426529</v>
+        <v>0.48018</v>
       </c>
       <c r="D31" t="n">
-        <v>0.314445</v>
+        <v>0.319273</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.465542</v>
+        <v>0.500789</v>
       </c>
       <c r="C32" t="n">
-        <v>0.434144</v>
+        <v>0.497018</v>
       </c>
       <c r="D32" t="n">
-        <v>0.317878</v>
+        <v>0.319142</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.498412</v>
+        <v>0.507363</v>
       </c>
       <c r="C33" t="n">
-        <v>0.478079</v>
+        <v>0.487135</v>
       </c>
       <c r="D33" t="n">
-        <v>0.331199</v>
+        <v>0.340674</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.503976</v>
+        <v>0.5042759999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.477372</v>
+        <v>0.509383</v>
       </c>
       <c r="D34" t="n">
-        <v>0.340239</v>
+        <v>0.33761</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.538269</v>
+        <v>0.5343329999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>0.503488</v>
+        <v>0.54838</v>
       </c>
       <c r="D35" t="n">
-        <v>0.343294</v>
+        <v>0.356916</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5395990000000001</v>
+        <v>0.555168</v>
       </c>
       <c r="C36" t="n">
-        <v>0.53123</v>
+        <v>0.5845050000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.359342</v>
+        <v>0.376135</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5905010000000001</v>
+        <v>0.588418</v>
       </c>
       <c r="C37" t="n">
-        <v>0.564124</v>
+        <v>0.61542</v>
       </c>
       <c r="D37" t="n">
-        <v>0.380771</v>
+        <v>0.384893</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.603832</v>
+        <v>0.615205</v>
       </c>
       <c r="C38" t="n">
-        <v>0.605583</v>
+        <v>0.631112</v>
       </c>
       <c r="D38" t="n">
-        <v>0.396745</v>
+        <v>0.400141</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.644995</v>
+        <v>0.612569</v>
       </c>
       <c r="C39" t="n">
-        <v>0.616286</v>
+        <v>0.699537</v>
       </c>
       <c r="D39" t="n">
-        <v>0.432669</v>
+        <v>0.411262</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.672829</v>
+        <v>0.653817</v>
       </c>
       <c r="C40" t="n">
-        <v>0.464882</v>
+        <v>0.477837</v>
       </c>
       <c r="D40" t="n">
-        <v>0.349114</v>
+        <v>0.350071</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.689025</v>
+        <v>0.692994</v>
       </c>
       <c r="C41" t="n">
-        <v>0.474832</v>
+        <v>0.510379</v>
       </c>
       <c r="D41" t="n">
-        <v>0.366172</v>
+        <v>0.360305</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.732172</v>
+        <v>0.730004</v>
       </c>
       <c r="C42" t="n">
-        <v>0.497585</v>
+        <v>0.561596</v>
       </c>
       <c r="D42" t="n">
-        <v>0.377262</v>
+        <v>0.359868</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.784233</v>
+        <v>0.770732</v>
       </c>
       <c r="C43" t="n">
-        <v>0.533907</v>
+        <v>0.55561</v>
       </c>
       <c r="D43" t="n">
-        <v>0.375</v>
+        <v>0.388202</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.804043</v>
+        <v>0.776367</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5686290000000001</v>
+        <v>0.59938</v>
       </c>
       <c r="D44" t="n">
-        <v>0.392128</v>
+        <v>0.396388</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8739710000000001</v>
+        <v>0.832269</v>
       </c>
       <c r="C45" t="n">
-        <v>0.567795</v>
+        <v>0.612555</v>
       </c>
       <c r="D45" t="n">
-        <v>0.412079</v>
+        <v>0.404117</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.613218</v>
+        <v>0.627788</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6159</v>
+        <v>0.679222</v>
       </c>
       <c r="D46" t="n">
-        <v>0.429151</v>
+        <v>0.420989</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.662745</v>
+        <v>0.656716</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6107860000000001</v>
+        <v>0.6712129999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.428055</v>
+        <v>0.4325</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.693167</v>
+        <v>0.674871</v>
       </c>
       <c r="C48" t="n">
-        <v>0.687083</v>
+        <v>0.711603</v>
       </c>
       <c r="D48" t="n">
-        <v>0.471041</v>
+        <v>0.454121</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.729927</v>
+        <v>0.704051</v>
       </c>
       <c r="C49" t="n">
-        <v>0.707713</v>
+        <v>0.768957</v>
       </c>
       <c r="D49" t="n">
-        <v>0.479702</v>
+        <v>0.468371</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.748073</v>
+        <v>0.752745</v>
       </c>
       <c r="C50" t="n">
-        <v>0.73375</v>
+        <v>0.784814</v>
       </c>
       <c r="D50" t="n">
-        <v>0.498123</v>
+        <v>0.487154</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.793512</v>
+        <v>0.801543</v>
       </c>
       <c r="C51" t="n">
-        <v>0.791486</v>
+        <v>0.852743</v>
       </c>
       <c r="D51" t="n">
-        <v>0.520373</v>
+        <v>0.504143</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.858487</v>
+        <v>0.830214</v>
       </c>
       <c r="C52" t="n">
-        <v>0.815716</v>
+        <v>0.877022</v>
       </c>
       <c r="D52" t="n">
-        <v>0.553354</v>
+        <v>0.537301</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.905459</v>
+        <v>0.869918</v>
       </c>
       <c r="C53" t="n">
-        <v>0.85649</v>
+        <v>0.9676979999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.565035</v>
+        <v>0.557416</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.91986</v>
+        <v>0.917979</v>
       </c>
       <c r="C54" t="n">
-        <v>0.644254</v>
+        <v>0.691451</v>
       </c>
       <c r="D54" t="n">
-        <v>0.452815</v>
+        <v>0.447647</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9746</v>
+        <v>0.9787400000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>0.682907</v>
+        <v>0.72738</v>
       </c>
       <c r="D55" t="n">
-        <v>0.467178</v>
+        <v>0.462477</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.01853</v>
+        <v>1.02166</v>
       </c>
       <c r="C56" t="n">
-        <v>0.690767</v>
+        <v>0.769017</v>
       </c>
       <c r="D56" t="n">
-        <v>0.485014</v>
+        <v>0.496891</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.08078</v>
+        <v>1.09236</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7319329999999999</v>
+        <v>0.795237</v>
       </c>
       <c r="D57" t="n">
-        <v>0.504095</v>
+        <v>0.508661</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.1838</v>
+        <v>1.14712</v>
       </c>
       <c r="C58" t="n">
-        <v>0.764436</v>
+        <v>0.854772</v>
       </c>
       <c r="D58" t="n">
-        <v>0.515823</v>
+        <v>0.542643</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.21257</v>
+        <v>1.217</v>
       </c>
       <c r="C59" t="n">
-        <v>0.809654</v>
+        <v>0.865693</v>
       </c>
       <c r="D59" t="n">
-        <v>0.539515</v>
+        <v>0.535285</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8684809999999999</v>
+        <v>0.877969</v>
       </c>
       <c r="C60" t="n">
-        <v>0.829529</v>
+        <v>0.940402</v>
       </c>
       <c r="D60" t="n">
-        <v>0.569511</v>
+        <v>0.558381</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.916324</v>
+        <v>0.882219</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9048</v>
+        <v>0.9672460000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.585646</v>
+        <v>0.610656</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.931104</v>
+        <v>0.939544</v>
       </c>
       <c r="C62" t="n">
-        <v>0.945298</v>
+        <v>1.03498</v>
       </c>
       <c r="D62" t="n">
-        <v>0.628595</v>
+        <v>0.603565</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.01554</v>
+        <v>0.991534</v>
       </c>
       <c r="C63" t="n">
-        <v>1.02099</v>
+        <v>1.07815</v>
       </c>
       <c r="D63" t="n">
-        <v>0.652399</v>
+        <v>0.632966</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.04154</v>
+        <v>1.07567</v>
       </c>
       <c r="C64" t="n">
-        <v>1.02951</v>
+        <v>1.15387</v>
       </c>
       <c r="D64" t="n">
-        <v>0.653354</v>
+        <v>0.653827</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.13837</v>
+        <v>1.13724</v>
       </c>
       <c r="C65" t="n">
-        <v>1.11363</v>
+        <v>1.26267</v>
       </c>
       <c r="D65" t="n">
-        <v>0.70895</v>
+        <v>0.689271</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.22263</v>
+        <v>1.14548</v>
       </c>
       <c r="C66" t="n">
-        <v>1.20642</v>
+        <v>1.31738</v>
       </c>
       <c r="D66" t="n">
-        <v>0.733577</v>
+        <v>0.722795</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.26646</v>
+        <v>1.21615</v>
       </c>
       <c r="C67" t="n">
-        <v>1.25571</v>
+        <v>1.4247</v>
       </c>
       <c r="D67" t="n">
-        <v>0.758409</v>
+        <v>0.7841320000000001</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.36322</v>
+        <v>1.29772</v>
       </c>
       <c r="C68" t="n">
-        <v>0.857324</v>
+        <v>0.954968</v>
       </c>
       <c r="D68" t="n">
-        <v>0.593901</v>
+        <v>0.579283</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.45274</v>
+        <v>1.48345</v>
       </c>
       <c r="C69" t="n">
-        <v>0.87996</v>
+        <v>0.98846</v>
       </c>
       <c r="D69" t="n">
-        <v>0.619669</v>
+        <v>0.59807</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.58754</v>
+        <v>1.49003</v>
       </c>
       <c r="C70" t="n">
-        <v>0.92745</v>
+        <v>1.0481</v>
       </c>
       <c r="D70" t="n">
-        <v>0.63161</v>
+        <v>0.613255</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.67985</v>
+        <v>1.6441</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9604510000000001</v>
+        <v>1.11493</v>
       </c>
       <c r="D71" t="n">
-        <v>0.65006</v>
+        <v>0.642604</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.77417</v>
+        <v>1.80496</v>
       </c>
       <c r="C72" t="n">
-        <v>1.03846</v>
+        <v>1.21364</v>
       </c>
       <c r="D72" t="n">
-        <v>0.672912</v>
+        <v>0.712293</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.89895</v>
+        <v>1.90664</v>
       </c>
       <c r="C73" t="n">
-        <v>1.11771</v>
+        <v>1.28343</v>
       </c>
       <c r="D73" t="n">
-        <v>0.737669</v>
+        <v>0.709765</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.26567</v>
+        <v>1.31017</v>
       </c>
       <c r="C74" t="n">
-        <v>1.22782</v>
+        <v>1.39621</v>
       </c>
       <c r="D74" t="n">
-        <v>0.764218</v>
+        <v>0.7401990000000001</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.38234</v>
+        <v>1.33676</v>
       </c>
       <c r="C75" t="n">
-        <v>1.23725</v>
+        <v>1.46217</v>
       </c>
       <c r="D75" t="n">
-        <v>0.806706</v>
+        <v>0.772878</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.46931</v>
+        <v>1.40544</v>
       </c>
       <c r="C76" t="n">
-        <v>1.40582</v>
+        <v>1.56128</v>
       </c>
       <c r="D76" t="n">
-        <v>0.870685</v>
+        <v>0.813368</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.53702</v>
+        <v>1.49183</v>
       </c>
       <c r="C77" t="n">
-        <v>1.472</v>
+        <v>1.69403</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8927580000000001</v>
+        <v>0.8861329999999999</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.6941</v>
+        <v>1.60251</v>
       </c>
       <c r="C78" t="n">
-        <v>1.51314</v>
+        <v>1.75957</v>
       </c>
       <c r="D78" t="n">
-        <v>0.944797</v>
+        <v>0.908187</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.68877</v>
+        <v>1.66771</v>
       </c>
       <c r="C79" t="n">
-        <v>1.64443</v>
+        <v>1.90463</v>
       </c>
       <c r="D79" t="n">
-        <v>0.996705</v>
+        <v>0.9928670000000001</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.79852</v>
+        <v>1.79948</v>
       </c>
       <c r="C80" t="n">
-        <v>1.75802</v>
+        <v>2.05022</v>
       </c>
       <c r="D80" t="n">
-        <v>1.05387</v>
+        <v>1.07454</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.98239</v>
+        <v>1.89628</v>
       </c>
       <c r="C81" t="n">
-        <v>1.91968</v>
+        <v>2.20425</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1202</v>
+        <v>1.10224</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.07376</v>
+        <v>2.06431</v>
       </c>
       <c r="C82" t="n">
-        <v>2.04456</v>
+        <v>2.43081</v>
       </c>
       <c r="D82" t="n">
-        <v>1.24978</v>
+        <v>1.16539</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.11685</v>
+        <v>2.09232</v>
       </c>
       <c r="C83" t="n">
-        <v>1.45794</v>
+        <v>1.67258</v>
       </c>
       <c r="D83" t="n">
-        <v>0.978271</v>
+        <v>0.981912</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.25456</v>
+        <v>2.25666</v>
       </c>
       <c r="C84" t="n">
-        <v>1.53614</v>
+        <v>1.7252</v>
       </c>
       <c r="D84" t="n">
-        <v>1.01189</v>
+        <v>1.03271</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.47472</v>
+        <v>2.36729</v>
       </c>
       <c r="C85" t="n">
-        <v>1.61819</v>
+        <v>1.84296</v>
       </c>
       <c r="D85" t="n">
-        <v>1.04021</v>
+        <v>1.06056</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.54961</v>
+        <v>2.49374</v>
       </c>
       <c r="C86" t="n">
-        <v>1.74277</v>
+        <v>1.91061</v>
       </c>
       <c r="D86" t="n">
-        <v>1.11763</v>
+        <v>1.10685</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.64089</v>
+        <v>2.62885</v>
       </c>
       <c r="C87" t="n">
-        <v>1.8173</v>
+        <v>2.02402</v>
       </c>
       <c r="D87" t="n">
-        <v>1.15434</v>
+        <v>1.14459</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.85416</v>
+        <v>2.76919</v>
       </c>
       <c r="C88" t="n">
-        <v>1.88887</v>
+        <v>2.20317</v>
       </c>
       <c r="D88" t="n">
-        <v>1.19935</v>
+        <v>1.22431</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.9265</v>
+        <v>1.92029</v>
       </c>
       <c r="C89" t="n">
-        <v>1.98256</v>
+        <v>2.26467</v>
       </c>
       <c r="D89" t="n">
-        <v>1.29124</v>
+        <v>1.26811</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.95019</v>
+        <v>1.99082</v>
       </c>
       <c r="C90" t="n">
-        <v>2.0529</v>
+        <v>2.3715</v>
       </c>
       <c r="D90" t="n">
-        <v>1.34342</v>
+        <v>1.31078</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.05778</v>
+        <v>2.0608</v>
       </c>
       <c r="C91" t="n">
-        <v>2.26801</v>
+        <v>2.51791</v>
       </c>
       <c r="D91" t="n">
-        <v>1.38979</v>
+        <v>1.39421</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.15821</v>
+        <v>2.1725</v>
       </c>
       <c r="C92" t="n">
-        <v>2.31943</v>
+        <v>2.63005</v>
       </c>
       <c r="D92" t="n">
-        <v>1.51011</v>
+        <v>1.48707</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.22823</v>
+        <v>2.22191</v>
       </c>
       <c r="C93" t="n">
-        <v>2.41034</v>
+        <v>2.74127</v>
       </c>
       <c r="D93" t="n">
-        <v>1.50774</v>
+        <v>1.5337</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.32835</v>
+        <v>2.30709</v>
       </c>
       <c r="C94" t="n">
-        <v>2.47117</v>
+        <v>2.94488</v>
       </c>
       <c r="D94" t="n">
-        <v>1.63363</v>
+        <v>1.61455</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.45196</v>
+        <v>2.42085</v>
       </c>
       <c r="C95" t="n">
-        <v>2.65179</v>
+        <v>3.08482</v>
       </c>
       <c r="D95" t="n">
-        <v>1.62965</v>
+        <v>1.65897</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.5118</v>
+        <v>2.56083</v>
       </c>
       <c r="C96" t="n">
-        <v>2.7766</v>
+        <v>3.22279</v>
       </c>
       <c r="D96" t="n">
-        <v>1.76599</v>
+        <v>1.7447</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.69668</v>
+        <v>2.64235</v>
       </c>
       <c r="C97" t="n">
-        <v>1.88535</v>
+        <v>2.05698</v>
       </c>
       <c r="D97" t="n">
-        <v>1.35002</v>
+        <v>1.3243</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.83915</v>
+        <v>2.77502</v>
       </c>
       <c r="C98" t="n">
-        <v>1.94742</v>
+        <v>2.15541</v>
       </c>
       <c r="D98" t="n">
-        <v>1.39188</v>
+        <v>1.35158</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.95612</v>
+        <v>2.96425</v>
       </c>
       <c r="C99" t="n">
-        <v>1.99565</v>
+        <v>2.23345</v>
       </c>
       <c r="D99" t="n">
-        <v>1.43287</v>
+        <v>1.40205</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.01651</v>
+        <v>3.02091</v>
       </c>
       <c r="C100" t="n">
-        <v>2.05083</v>
+        <v>2.28504</v>
       </c>
       <c r="D100" t="n">
-        <v>1.52419</v>
+        <v>1.48027</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.1616</v>
+        <v>3.11916</v>
       </c>
       <c r="C101" t="n">
-        <v>2.13596</v>
+        <v>2.37523</v>
       </c>
       <c r="D101" t="n">
-        <v>1.53227</v>
+        <v>1.50852</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.36608</v>
+        <v>3.29546</v>
       </c>
       <c r="C102" t="n">
-        <v>2.23801</v>
+        <v>2.48104</v>
       </c>
       <c r="D102" t="n">
-        <v>1.57726</v>
+        <v>1.5358</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.24164</v>
+        <v>2.19719</v>
       </c>
       <c r="C103" t="n">
-        <v>2.34582</v>
+        <v>2.58168</v>
       </c>
       <c r="D103" t="n">
-        <v>1.62946</v>
+        <v>1.65007</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.29201</v>
+        <v>2.31691</v>
       </c>
       <c r="C104" t="n">
-        <v>2.44705</v>
+        <v>2.71959</v>
       </c>
       <c r="D104" t="n">
-        <v>1.6978</v>
+        <v>1.67041</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.42169</v>
+        <v>2.44969</v>
       </c>
       <c r="C105" t="n">
-        <v>2.46366</v>
+        <v>2.86562</v>
       </c>
       <c r="D105" t="n">
-        <v>1.75897</v>
+        <v>1.74663</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.53165</v>
+        <v>2.51232</v>
       </c>
       <c r="C106" t="n">
-        <v>2.61427</v>
+        <v>2.92655</v>
       </c>
       <c r="D106" t="n">
-        <v>1.82432</v>
+        <v>1.76878</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.61264</v>
+        <v>2.57379</v>
       </c>
       <c r="C107" t="n">
-        <v>2.71572</v>
+        <v>3.04081</v>
       </c>
       <c r="D107" t="n">
-        <v>1.8314</v>
+        <v>1.8512</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.67278</v>
+        <v>2.71787</v>
       </c>
       <c r="C108" t="n">
-        <v>2.82762</v>
+        <v>3.24727</v>
       </c>
       <c r="D108" t="n">
-        <v>1.90138</v>
+        <v>1.91965</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.80213</v>
+        <v>2.8082</v>
       </c>
       <c r="C109" t="n">
-        <v>2.96143</v>
+        <v>3.38147</v>
       </c>
       <c r="D109" t="n">
-        <v>2.00607</v>
+        <v>1.96409</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.89046</v>
+        <v>2.89179</v>
       </c>
       <c r="C110" t="n">
-        <v>3.06609</v>
+        <v>3.52125</v>
       </c>
       <c r="D110" t="n">
-        <v>2.03853</v>
+        <v>2.04912</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.04055</v>
+        <v>3.04181</v>
       </c>
       <c r="C111" t="n">
-        <v>2.13616</v>
+        <v>2.30165</v>
       </c>
       <c r="D111" t="n">
-        <v>1.6351</v>
+        <v>1.59326</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.15577</v>
+        <v>3.07515</v>
       </c>
       <c r="C112" t="n">
-        <v>2.19918</v>
+        <v>2.40311</v>
       </c>
       <c r="D112" t="n">
-        <v>1.60832</v>
+        <v>1.64804</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.28037</v>
+        <v>3.25254</v>
       </c>
       <c r="C113" t="n">
-        <v>2.28729</v>
+        <v>2.50056</v>
       </c>
       <c r="D113" t="n">
-        <v>1.72003</v>
+        <v>1.70475</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.40702</v>
+        <v>3.37011</v>
       </c>
       <c r="C114" t="n">
-        <v>2.33785</v>
+        <v>2.55941</v>
       </c>
       <c r="D114" t="n">
-        <v>1.759</v>
+        <v>1.72233</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.5442</v>
+        <v>3.61344</v>
       </c>
       <c r="C115" t="n">
-        <v>2.41432</v>
+        <v>2.78371</v>
       </c>
       <c r="D115" t="n">
-        <v>1.79403</v>
+        <v>1.7587</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.67903</v>
+        <v>3.69324</v>
       </c>
       <c r="C116" t="n">
-        <v>2.47227</v>
+        <v>2.80257</v>
       </c>
       <c r="D116" t="n">
-        <v>1.81931</v>
+        <v>1.82258</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.44609</v>
+        <v>2.46739</v>
       </c>
       <c r="C117" t="n">
-        <v>2.57495</v>
+        <v>2.97197</v>
       </c>
       <c r="D117" t="n">
-        <v>1.86557</v>
+        <v>1.91314</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.55268</v>
+        <v>2.53871</v>
       </c>
       <c r="C118" t="n">
-        <v>2.75221</v>
+        <v>3.12158</v>
       </c>
       <c r="D118" t="n">
-        <v>1.98425</v>
+        <v>1.98929</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.6832</v>
+        <v>2.63078</v>
       </c>
       <c r="C119" t="n">
-        <v>2.83909</v>
+        <v>3.26421</v>
       </c>
       <c r="D119" t="n">
-        <v>2.05571</v>
+        <v>1.98735</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered successful looukp.xlsx
+++ b/vs/scattered successful looukp.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.216439</v>
+        <v>0.21712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.197989</v>
+        <v>0.205065</v>
       </c>
       <c r="D2" t="n">
-        <v>0.215963</v>
+        <v>0.215855</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.232356</v>
+        <v>0.228664</v>
       </c>
       <c r="C3" t="n">
-        <v>0.214446</v>
+        <v>0.204456</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22126</v>
+        <v>0.224704</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.228443</v>
+        <v>0.228832</v>
       </c>
       <c r="C4" t="n">
-        <v>0.212911</v>
+        <v>0.221291</v>
       </c>
       <c r="D4" t="n">
-        <v>0.224962</v>
+        <v>0.228773</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.237272</v>
+        <v>0.230545</v>
       </c>
       <c r="C5" t="n">
-        <v>0.228169</v>
+        <v>0.218236</v>
       </c>
       <c r="D5" t="n">
-        <v>0.232586</v>
+        <v>0.228072</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.243669</v>
+        <v>0.238268</v>
       </c>
       <c r="C6" t="n">
-        <v>0.227967</v>
+        <v>0.22145</v>
       </c>
       <c r="D6" t="n">
-        <v>0.233101</v>
+        <v>0.238251</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.243983</v>
+        <v>0.250866</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1888</v>
+        <v>0.191077</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205123</v>
+        <v>0.212079</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.243174</v>
+        <v>0.249799</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196918</v>
+        <v>0.194993</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210857</v>
+        <v>0.211524</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.255379</v>
+        <v>0.253137</v>
       </c>
       <c r="C9" t="n">
-        <v>0.192866</v>
+        <v>0.19759</v>
       </c>
       <c r="D9" t="n">
-        <v>0.208377</v>
+        <v>0.214635</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.251177</v>
+        <v>0.248546</v>
       </c>
       <c r="C10" t="n">
-        <v>0.197106</v>
+        <v>0.19918</v>
       </c>
       <c r="D10" t="n">
-        <v>0.208387</v>
+        <v>0.215332</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.249087</v>
+        <v>0.259782</v>
       </c>
       <c r="C11" t="n">
-        <v>0.198107</v>
+        <v>0.204543</v>
       </c>
       <c r="D11" t="n">
-        <v>0.207382</v>
+        <v>0.221202</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.250677</v>
+        <v>0.265639</v>
       </c>
       <c r="C12" t="n">
-        <v>0.203565</v>
+        <v>0.204415</v>
       </c>
       <c r="D12" t="n">
-        <v>0.232485</v>
+        <v>0.219203</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.252569</v>
+        <v>0.226353</v>
       </c>
       <c r="C13" t="n">
-        <v>0.22675</v>
+        <v>0.202153</v>
       </c>
       <c r="D13" t="n">
-        <v>0.24046</v>
+        <v>0.223832</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.234644</v>
+        <v>0.220705</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217258</v>
+        <v>0.210473</v>
       </c>
       <c r="D14" t="n">
-        <v>0.243637</v>
+        <v>0.227995</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.241984</v>
+        <v>0.227251</v>
       </c>
       <c r="C15" t="n">
-        <v>0.230668</v>
+        <v>0.212104</v>
       </c>
       <c r="D15" t="n">
-        <v>0.254726</v>
+        <v>0.228486</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.25862</v>
+        <v>0.229256</v>
       </c>
       <c r="C16" t="n">
-        <v>0.247161</v>
+        <v>0.22118</v>
       </c>
       <c r="D16" t="n">
-        <v>0.247678</v>
+        <v>0.236828</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.256111</v>
+        <v>0.243338</v>
       </c>
       <c r="C17" t="n">
-        <v>0.239211</v>
+        <v>0.219873</v>
       </c>
       <c r="D17" t="n">
-        <v>0.26205</v>
+        <v>0.241969</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2623</v>
+        <v>0.23752</v>
       </c>
       <c r="C18" t="n">
-        <v>0.239326</v>
+        <v>0.229041</v>
       </c>
       <c r="D18" t="n">
-        <v>0.254947</v>
+        <v>0.242686</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.252317</v>
+        <v>0.235922</v>
       </c>
       <c r="C19" t="n">
-        <v>0.231488</v>
+        <v>0.230145</v>
       </c>
       <c r="D19" t="n">
-        <v>0.256459</v>
+        <v>0.247692</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.250842</v>
+        <v>0.246734</v>
       </c>
       <c r="C20" t="n">
-        <v>0.238646</v>
+        <v>0.23187</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25018</v>
+        <v>0.25589</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.245257</v>
+        <v>0.246257</v>
       </c>
       <c r="C21" t="n">
-        <v>0.201612</v>
+        <v>0.193876</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206006</v>
+        <v>0.213179</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.249264</v>
+        <v>0.251968</v>
       </c>
       <c r="C22" t="n">
-        <v>0.203833</v>
+        <v>0.202198</v>
       </c>
       <c r="D22" t="n">
-        <v>0.222851</v>
+        <v>0.219118</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.257521</v>
+        <v>0.25431</v>
       </c>
       <c r="C23" t="n">
-        <v>0.204837</v>
+        <v>0.210447</v>
       </c>
       <c r="D23" t="n">
-        <v>0.230904</v>
+        <v>0.215541</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.270312</v>
+        <v>0.260502</v>
       </c>
       <c r="C24" t="n">
-        <v>0.202517</v>
+        <v>0.203675</v>
       </c>
       <c r="D24" t="n">
-        <v>0.234294</v>
+        <v>0.21781</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.267231</v>
+        <v>0.263315</v>
       </c>
       <c r="C25" t="n">
-        <v>0.206937</v>
+        <v>0.211236</v>
       </c>
       <c r="D25" t="n">
-        <v>0.229794</v>
+        <v>0.227416</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.270983</v>
+        <v>0.269818</v>
       </c>
       <c r="C26" t="n">
-        <v>0.21809</v>
+        <v>0.210873</v>
       </c>
       <c r="D26" t="n">
-        <v>0.234036</v>
+        <v>0.24383</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.239356</v>
+        <v>0.236676</v>
       </c>
       <c r="C27" t="n">
-        <v>0.216632</v>
+        <v>0.213484</v>
       </c>
       <c r="D27" t="n">
-        <v>0.241643</v>
+        <v>0.236315</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.255311</v>
+        <v>0.233769</v>
       </c>
       <c r="C28" t="n">
-        <v>0.222801</v>
+        <v>0.219686</v>
       </c>
       <c r="D28" t="n">
-        <v>0.243654</v>
+        <v>0.241155</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.249448</v>
+        <v>0.245086</v>
       </c>
       <c r="C29" t="n">
-        <v>0.23036</v>
+        <v>0.232118</v>
       </c>
       <c r="D29" t="n">
-        <v>0.245175</v>
+        <v>0.247956</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.251235</v>
+        <v>0.244647</v>
       </c>
       <c r="C30" t="n">
-        <v>0.231256</v>
+        <v>0.231976</v>
       </c>
       <c r="D30" t="n">
-        <v>0.256305</v>
+        <v>0.250319</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.260542</v>
+        <v>0.253604</v>
       </c>
       <c r="C31" t="n">
-        <v>0.24396</v>
+        <v>0.238999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.256951</v>
+        <v>0.261187</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.269243</v>
+        <v>0.261375</v>
       </c>
       <c r="C32" t="n">
-        <v>0.241704</v>
+        <v>0.247864</v>
       </c>
       <c r="D32" t="n">
-        <v>0.26498</v>
+        <v>0.262792</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.277307</v>
+        <v>0.260996</v>
       </c>
       <c r="C33" t="n">
-        <v>0.249461</v>
+        <v>0.254294</v>
       </c>
       <c r="D33" t="n">
-        <v>0.265932</v>
+        <v>0.266164</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.277936</v>
+        <v>0.272255</v>
       </c>
       <c r="C34" t="n">
-        <v>0.253402</v>
+        <v>0.260736</v>
       </c>
       <c r="D34" t="n">
-        <v>0.27808</v>
+        <v>0.265808</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.280682</v>
+        <v>0.272844</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215639</v>
+        <v>0.221474</v>
       </c>
       <c r="D35" t="n">
-        <v>0.233714</v>
+        <v>0.235699</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.287771</v>
+        <v>0.280365</v>
       </c>
       <c r="C36" t="n">
-        <v>0.227134</v>
+        <v>0.219109</v>
       </c>
       <c r="D36" t="n">
-        <v>0.240385</v>
+        <v>0.239278</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.290068</v>
+        <v>0.285007</v>
       </c>
       <c r="C37" t="n">
-        <v>0.230336</v>
+        <v>0.237081</v>
       </c>
       <c r="D37" t="n">
-        <v>0.244315</v>
+        <v>0.245681</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.299894</v>
+        <v>0.295447</v>
       </c>
       <c r="C38" t="n">
-        <v>0.244012</v>
+        <v>0.249502</v>
       </c>
       <c r="D38" t="n">
-        <v>0.251155</v>
+        <v>0.251893</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.309292</v>
+        <v>0.302603</v>
       </c>
       <c r="C39" t="n">
-        <v>0.240229</v>
+        <v>0.245143</v>
       </c>
       <c r="D39" t="n">
-        <v>0.256326</v>
+        <v>0.258607</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.321993</v>
+        <v>0.309401</v>
       </c>
       <c r="C40" t="n">
-        <v>0.24606</v>
+        <v>0.253447</v>
       </c>
       <c r="D40" t="n">
-        <v>0.271869</v>
+        <v>0.26366</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.309944</v>
+        <v>0.31618</v>
       </c>
       <c r="C41" t="n">
-        <v>0.258307</v>
+        <v>0.257464</v>
       </c>
       <c r="D41" t="n">
-        <v>0.267158</v>
+        <v>0.273243</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.316886</v>
+        <v>0.326821</v>
       </c>
       <c r="C42" t="n">
-        <v>0.253249</v>
+        <v>0.260804</v>
       </c>
       <c r="D42" t="n">
-        <v>0.27354</v>
+        <v>0.271685</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.334317</v>
+        <v>0.318536</v>
       </c>
       <c r="C43" t="n">
-        <v>0.268212</v>
+        <v>0.272506</v>
       </c>
       <c r="D43" t="n">
-        <v>0.282701</v>
+        <v>0.277817</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.339293</v>
+        <v>0.32658</v>
       </c>
       <c r="C44" t="n">
-        <v>0.272088</v>
+        <v>0.271277</v>
       </c>
       <c r="D44" t="n">
-        <v>0.292751</v>
+        <v>0.300396</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.353184</v>
+        <v>0.339997</v>
       </c>
       <c r="C45" t="n">
-        <v>0.280959</v>
+        <v>0.289228</v>
       </c>
       <c r="D45" t="n">
-        <v>0.292756</v>
+        <v>0.291092</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.364008</v>
+        <v>0.344863</v>
       </c>
       <c r="C46" t="n">
-        <v>0.287281</v>
+        <v>0.286707</v>
       </c>
       <c r="D46" t="n">
-        <v>0.296262</v>
+        <v>0.303026</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.364561</v>
+        <v>0.368312</v>
       </c>
       <c r="C47" t="n">
-        <v>0.296753</v>
+        <v>0.29099</v>
       </c>
       <c r="D47" t="n">
-        <v>0.326845</v>
+        <v>0.318845</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.384769</v>
+        <v>0.371406</v>
       </c>
       <c r="C48" t="n">
-        <v>0.304961</v>
+        <v>0.302542</v>
       </c>
       <c r="D48" t="n">
-        <v>0.322791</v>
+        <v>0.314306</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.402915</v>
+        <v>0.384046</v>
       </c>
       <c r="C49" t="n">
-        <v>0.307421</v>
+        <v>0.316529</v>
       </c>
       <c r="D49" t="n">
-        <v>0.334519</v>
+        <v>0.339094</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.418481</v>
+        <v>0.402627</v>
       </c>
       <c r="C50" t="n">
-        <v>0.318708</v>
+        <v>0.301536</v>
       </c>
       <c r="D50" t="n">
-        <v>0.309778</v>
+        <v>0.30338</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.423799</v>
+        <v>0.405212</v>
       </c>
       <c r="C51" t="n">
-        <v>0.326348</v>
+        <v>0.309521</v>
       </c>
       <c r="D51" t="n">
-        <v>0.318155</v>
+        <v>0.319897</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.451662</v>
+        <v>0.434044</v>
       </c>
       <c r="C52" t="n">
-        <v>0.337375</v>
+        <v>0.320463</v>
       </c>
       <c r="D52" t="n">
-        <v>0.338307</v>
+        <v>0.314772</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.45593</v>
+        <v>0.438861</v>
       </c>
       <c r="C53" t="n">
-        <v>0.342069</v>
+        <v>0.327632</v>
       </c>
       <c r="D53" t="n">
-        <v>0.347512</v>
+        <v>0.34198</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.484854</v>
+        <v>0.463296</v>
       </c>
       <c r="C54" t="n">
-        <v>0.356872</v>
+        <v>0.331182</v>
       </c>
       <c r="D54" t="n">
-        <v>0.362485</v>
+        <v>0.351982</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.487844</v>
+        <v>0.460747</v>
       </c>
       <c r="C55" t="n">
-        <v>0.362289</v>
+        <v>0.354615</v>
       </c>
       <c r="D55" t="n">
-        <v>0.36483</v>
+        <v>0.353075</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.546053</v>
+        <v>0.511856</v>
       </c>
       <c r="C56" t="n">
-        <v>0.387276</v>
+        <v>0.356888</v>
       </c>
       <c r="D56" t="n">
-        <v>0.384238</v>
+        <v>0.382713</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.55189</v>
+        <v>0.517502</v>
       </c>
       <c r="C57" t="n">
-        <v>0.396419</v>
+        <v>0.38526</v>
       </c>
       <c r="D57" t="n">
-        <v>0.390682</v>
+        <v>0.371726</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.59713</v>
+        <v>0.547244</v>
       </c>
       <c r="C58" t="n">
-        <v>0.411608</v>
+        <v>0.388224</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4114</v>
+        <v>0.394842</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.594801</v>
+        <v>0.570225</v>
       </c>
       <c r="C59" t="n">
-        <v>0.411067</v>
+        <v>0.392153</v>
       </c>
       <c r="D59" t="n">
-        <v>0.447968</v>
+        <v>0.404051</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.609671</v>
+        <v>0.588941</v>
       </c>
       <c r="C60" t="n">
-        <v>0.448388</v>
+        <v>0.416161</v>
       </c>
       <c r="D60" t="n">
-        <v>0.442427</v>
+        <v>0.429179</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.630702</v>
+        <v>0.606127</v>
       </c>
       <c r="C61" t="n">
-        <v>0.46302</v>
+        <v>0.427713</v>
       </c>
       <c r="D61" t="n">
-        <v>0.481849</v>
+        <v>0.442841</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.666434</v>
+        <v>0.6036280000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.467376</v>
+        <v>0.450783</v>
       </c>
       <c r="D62" t="n">
-        <v>0.472763</v>
+        <v>0.450583</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.684599</v>
+        <v>0.6204190000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.484578</v>
+        <v>0.464039</v>
       </c>
       <c r="D63" t="n">
-        <v>0.505209</v>
+        <v>0.468949</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.686002</v>
+        <v>0.669353</v>
       </c>
       <c r="C64" t="n">
-        <v>0.543668</v>
+        <v>0.503413</v>
       </c>
       <c r="D64" t="n">
-        <v>0.547551</v>
+        <v>0.513175</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.772307</v>
+        <v>0.692855</v>
       </c>
       <c r="C65" t="n">
-        <v>0.591191</v>
+        <v>0.520199</v>
       </c>
       <c r="D65" t="n">
-        <v>0.555833</v>
+        <v>0.538046</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.783355</v>
+        <v>0.704213</v>
       </c>
       <c r="C66" t="n">
-        <v>0.587658</v>
+        <v>0.547293</v>
       </c>
       <c r="D66" t="n">
-        <v>0.613462</v>
+        <v>0.544789</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.794997</v>
+        <v>0.726405</v>
       </c>
       <c r="C67" t="n">
-        <v>0.633204</v>
+        <v>0.557264</v>
       </c>
       <c r="D67" t="n">
-        <v>0.628999</v>
+        <v>0.572707</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.797287</v>
+        <v>0.771817</v>
       </c>
       <c r="C68" t="n">
-        <v>0.666686</v>
+        <v>0.554447</v>
       </c>
       <c r="D68" t="n">
-        <v>0.641323</v>
+        <v>0.5715980000000001</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.825947</v>
+        <v>0.759511</v>
       </c>
       <c r="C69" t="n">
-        <v>0.632486</v>
+        <v>0.56826</v>
       </c>
       <c r="D69" t="n">
-        <v>0.654038</v>
+        <v>0.577557</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.809643</v>
+        <v>0.765547</v>
       </c>
       <c r="C70" t="n">
-        <v>0.650312</v>
+        <v>0.595835</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6537770000000001</v>
+        <v>0.622932</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.838543</v>
+        <v>0.783407</v>
       </c>
       <c r="C71" t="n">
-        <v>0.665956</v>
+        <v>0.61929</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6974590000000001</v>
+        <v>0.678146</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.848105</v>
+        <v>0.778845</v>
       </c>
       <c r="C72" t="n">
-        <v>0.674459</v>
+        <v>0.628981</v>
       </c>
       <c r="D72" t="n">
-        <v>0.690948</v>
+        <v>0.650435</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.865502</v>
+        <v>0.803642</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7206669999999999</v>
+        <v>0.68941</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7567970000000001</v>
+        <v>0.701435</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.879599</v>
+        <v>0.831473</v>
       </c>
       <c r="C74" t="n">
-        <v>0.690956</v>
+        <v>0.670497</v>
       </c>
       <c r="D74" t="n">
-        <v>0.727168</v>
+        <v>0.686994</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.874579</v>
+        <v>0.877799</v>
       </c>
       <c r="C75" t="n">
-        <v>0.726357</v>
+        <v>0.682469</v>
       </c>
       <c r="D75" t="n">
-        <v>0.743767</v>
+        <v>0.708013</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.924467</v>
+        <v>0.8415589999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.739833</v>
+        <v>0.732118</v>
       </c>
       <c r="D76" t="n">
-        <v>0.784367</v>
+        <v>0.7551020000000001</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9180779999999999</v>
+        <v>0.86881</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7795260000000001</v>
+        <v>0.732758</v>
       </c>
       <c r="D77" t="n">
-        <v>0.812916</v>
+        <v>0.761316</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.929001</v>
+        <v>0.892032</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7645149999999999</v>
+        <v>0.744022</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7889429999999999</v>
+        <v>0.739614</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9387180000000001</v>
+        <v>0.914044</v>
       </c>
       <c r="C79" t="n">
-        <v>0.774411</v>
+        <v>0.731222</v>
       </c>
       <c r="D79" t="n">
-        <v>0.814126</v>
+        <v>0.772914</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.965104</v>
+        <v>0.929411</v>
       </c>
       <c r="C80" t="n">
-        <v>0.770888</v>
+        <v>0.761308</v>
       </c>
       <c r="D80" t="n">
-        <v>0.805648</v>
+        <v>0.769617</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.994789</v>
+        <v>0.956346</v>
       </c>
       <c r="C81" t="n">
-        <v>0.835458</v>
+        <v>0.786346</v>
       </c>
       <c r="D81" t="n">
-        <v>0.839005</v>
+        <v>0.797576</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.01645</v>
+        <v>0.983541</v>
       </c>
       <c r="C82" t="n">
-        <v>0.857778</v>
+        <v>0.7883599999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8316</v>
+        <v>0.7935449999999999</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.02562</v>
+        <v>0.998567</v>
       </c>
       <c r="C83" t="n">
-        <v>0.847503</v>
+        <v>0.794212</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8431419999999999</v>
+        <v>0.8112819999999999</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9341970000000001</v>
+        <v>0.902335</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8375280000000001</v>
+        <v>0.810972</v>
       </c>
       <c r="D84" t="n">
-        <v>0.897279</v>
+        <v>0.8535430000000001</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9465209999999999</v>
+        <v>0.9211549999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>0.869279</v>
+        <v>0.845175</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9050820000000001</v>
+        <v>0.861386</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.967226</v>
+        <v>0.939082</v>
       </c>
       <c r="C86" t="n">
-        <v>0.87596</v>
+        <v>0.863003</v>
       </c>
       <c r="D86" t="n">
-        <v>0.919368</v>
+        <v>0.861621</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.00312</v>
+        <v>0.9399420000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>0.891746</v>
+        <v>0.859383</v>
       </c>
       <c r="D87" t="n">
-        <v>0.935505</v>
+        <v>0.907002</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.971002</v>
+        <v>0.966521</v>
       </c>
       <c r="C88" t="n">
-        <v>0.940845</v>
+        <v>0.892755</v>
       </c>
       <c r="D88" t="n">
-        <v>0.935131</v>
+        <v>0.941099</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.01366</v>
+        <v>1.00243</v>
       </c>
       <c r="C89" t="n">
-        <v>0.922195</v>
+        <v>0.925314</v>
       </c>
       <c r="D89" t="n">
-        <v>0.932379</v>
+        <v>0.921946</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.00629</v>
+        <v>1.00084</v>
       </c>
       <c r="C90" t="n">
-        <v>0.926329</v>
+        <v>0.932986</v>
       </c>
       <c r="D90" t="n">
-        <v>0.991082</v>
+        <v>0.955039</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.05169</v>
+        <v>1.00551</v>
       </c>
       <c r="C91" t="n">
-        <v>0.933486</v>
+        <v>0.937508</v>
       </c>
       <c r="D91" t="n">
-        <v>0.987812</v>
+        <v>0.956637</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.03573</v>
+        <v>1.03339</v>
       </c>
       <c r="C92" t="n">
-        <v>0.924345</v>
+        <v>0.8966730000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.942537</v>
+        <v>0.8961710000000001</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.07366</v>
+        <v>1.05401</v>
       </c>
       <c r="C93" t="n">
-        <v>0.901248</v>
+        <v>0.899197</v>
       </c>
       <c r="D93" t="n">
-        <v>0.918225</v>
+        <v>0.931959</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.07359</v>
+        <v>1.0832</v>
       </c>
       <c r="C94" t="n">
-        <v>0.924814</v>
+        <v>0.901495</v>
       </c>
       <c r="D94" t="n">
-        <v>0.926406</v>
+        <v>0.923824</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.09118</v>
+        <v>1.07619</v>
       </c>
       <c r="C95" t="n">
-        <v>0.934793</v>
+        <v>0.896334</v>
       </c>
       <c r="D95" t="n">
-        <v>0.965059</v>
+        <v>0.945234</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.10024</v>
+        <v>1.11091</v>
       </c>
       <c r="C96" t="n">
-        <v>0.960416</v>
+        <v>0.920342</v>
       </c>
       <c r="D96" t="n">
-        <v>0.982663</v>
+        <v>0.944762</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.12558</v>
+        <v>1.13726</v>
       </c>
       <c r="C97" t="n">
-        <v>0.956223</v>
+        <v>0.931092</v>
       </c>
       <c r="D97" t="n">
-        <v>0.99518</v>
+        <v>0.971885</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.02688</v>
+        <v>1.02813</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9746010000000001</v>
+        <v>0.957632</v>
       </c>
       <c r="D98" t="n">
-        <v>1.01993</v>
+        <v>0.990578</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.02896</v>
+        <v>1.03814</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00282</v>
+        <v>0.971253</v>
       </c>
       <c r="D99" t="n">
-        <v>1.03293</v>
+        <v>0.993465</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.03602</v>
+        <v>1.06189</v>
       </c>
       <c r="C100" t="n">
-        <v>1.02503</v>
+        <v>0.999058</v>
       </c>
       <c r="D100" t="n">
-        <v>1.07788</v>
+        <v>1.03708</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.06051</v>
+        <v>1.07303</v>
       </c>
       <c r="C101" t="n">
-        <v>1.03206</v>
+        <v>1.03915</v>
       </c>
       <c r="D101" t="n">
-        <v>1.06631</v>
+        <v>1.04055</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.08073</v>
+        <v>1.07203</v>
       </c>
       <c r="C102" t="n">
-        <v>1.05384</v>
+        <v>1.04504</v>
       </c>
       <c r="D102" t="n">
-        <v>1.09464</v>
+        <v>1.10357</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.09428</v>
+        <v>1.11806</v>
       </c>
       <c r="C103" t="n">
-        <v>1.06321</v>
+        <v>1.03552</v>
       </c>
       <c r="D103" t="n">
-        <v>1.09504</v>
+        <v>1.10619</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.10866</v>
+        <v>1.10251</v>
       </c>
       <c r="C104" t="n">
-        <v>1.07305</v>
+        <v>1.07562</v>
       </c>
       <c r="D104" t="n">
-        <v>1.14145</v>
+        <v>1.12673</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.12859</v>
+        <v>1.12963</v>
       </c>
       <c r="C105" t="n">
-        <v>1.07827</v>
+        <v>1.07732</v>
       </c>
       <c r="D105" t="n">
-        <v>1.13817</v>
+        <v>1.11083</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.14192</v>
+        <v>1.1331</v>
       </c>
       <c r="C106" t="n">
-        <v>1.12647</v>
+        <v>1.09462</v>
       </c>
       <c r="D106" t="n">
-        <v>1.13092</v>
+        <v>1.13142</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.17316</v>
+        <v>1.16344</v>
       </c>
       <c r="C107" t="n">
-        <v>1.02</v>
+        <v>0.985524</v>
       </c>
       <c r="D107" t="n">
-        <v>1.03238</v>
+        <v>1.02539</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.17755</v>
+        <v>1.19201</v>
       </c>
       <c r="C108" t="n">
-        <v>1.00221</v>
+        <v>1.01014</v>
       </c>
       <c r="D108" t="n">
-        <v>1.06864</v>
+        <v>1.05086</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.17742</v>
+        <v>1.18423</v>
       </c>
       <c r="C109" t="n">
-        <v>1.02862</v>
+        <v>1.03723</v>
       </c>
       <c r="D109" t="n">
-        <v>1.05659</v>
+        <v>1.05866</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.23003</v>
+        <v>1.21789</v>
       </c>
       <c r="C110" t="n">
-        <v>1.03889</v>
+        <v>1.03673</v>
       </c>
       <c r="D110" t="n">
-        <v>1.07129</v>
+        <v>1.0731</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.23802</v>
+        <v>1.22801</v>
       </c>
       <c r="C111" t="n">
-        <v>1.07983</v>
+        <v>1.04341</v>
       </c>
       <c r="D111" t="n">
-        <v>1.10172</v>
+        <v>1.10376</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.08875</v>
+        <v>1.10477</v>
       </c>
       <c r="C112" t="n">
-        <v>1.08133</v>
+        <v>1.08403</v>
       </c>
       <c r="D112" t="n">
-        <v>1.10119</v>
+        <v>1.11316</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.12106</v>
+        <v>1.11765</v>
       </c>
       <c r="C113" t="n">
-        <v>1.09451</v>
+        <v>1.11698</v>
       </c>
       <c r="D113" t="n">
-        <v>1.14362</v>
+        <v>1.11132</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.11624</v>
+        <v>1.12138</v>
       </c>
       <c r="C114" t="n">
-        <v>1.09386</v>
+        <v>1.09934</v>
       </c>
       <c r="D114" t="n">
-        <v>1.1383</v>
+        <v>1.12951</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13746</v>
+        <v>1.15811</v>
       </c>
       <c r="C115" t="n">
-        <v>1.11254</v>
+        <v>1.14402</v>
       </c>
       <c r="D115" t="n">
-        <v>1.15774</v>
+        <v>1.163</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.1519</v>
+        <v>1.16743</v>
       </c>
       <c r="C116" t="n">
-        <v>1.15437</v>
+        <v>1.13844</v>
       </c>
       <c r="D116" t="n">
-        <v>1.18242</v>
+        <v>1.1733</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.15399</v>
+        <v>1.1936</v>
       </c>
       <c r="C117" t="n">
-        <v>1.13784</v>
+        <v>1.15161</v>
       </c>
       <c r="D117" t="n">
-        <v>1.19009</v>
+        <v>1.21929</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.18123</v>
+        <v>1.19102</v>
       </c>
       <c r="C118" t="n">
-        <v>1.16306</v>
+        <v>1.1738</v>
       </c>
       <c r="D118" t="n">
-        <v>1.20608</v>
+        <v>1.21786</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.19075</v>
+        <v>1.20947</v>
       </c>
       <c r="C119" t="n">
-        <v>1.18399</v>
+        <v>1.20922</v>
       </c>
       <c r="D119" t="n">
-        <v>1.2332</v>
+        <v>1.27795</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.238965</v>
+        <v>0.247731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204208</v>
+        <v>0.234417</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197169</v>
+        <v>0.213692</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239537</v>
+        <v>0.235184</v>
       </c>
       <c r="C3" t="n">
-        <v>0.209257</v>
+        <v>0.198681</v>
       </c>
       <c r="D3" t="n">
-        <v>0.198366</v>
+        <v>0.195522</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239519</v>
+        <v>0.239535</v>
       </c>
       <c r="C4" t="n">
-        <v>0.218234</v>
+        <v>0.20473</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198238</v>
+        <v>0.199553</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.254368</v>
+        <v>0.235968</v>
       </c>
       <c r="C5" t="n">
-        <v>0.220439</v>
+        <v>0.213454</v>
       </c>
       <c r="D5" t="n">
-        <v>0.213388</v>
+        <v>0.198501</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.255596</v>
+        <v>0.246568</v>
       </c>
       <c r="C6" t="n">
-        <v>0.239597</v>
+        <v>0.221616</v>
       </c>
       <c r="D6" t="n">
-        <v>0.204555</v>
+        <v>0.212811</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.256863</v>
+        <v>0.243448</v>
       </c>
       <c r="C7" t="n">
-        <v>0.207073</v>
+        <v>0.196117</v>
       </c>
       <c r="D7" t="n">
-        <v>0.206725</v>
+        <v>0.221541</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.266357</v>
+        <v>0.256619</v>
       </c>
       <c r="C8" t="n">
-        <v>0.214969</v>
+        <v>0.197658</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2258</v>
+        <v>0.20918</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.262297</v>
+        <v>0.258233</v>
       </c>
       <c r="C9" t="n">
-        <v>0.216401</v>
+        <v>0.204688</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218714</v>
+        <v>0.208267</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.288793</v>
+        <v>0.265145</v>
       </c>
       <c r="C10" t="n">
-        <v>0.221162</v>
+        <v>0.207242</v>
       </c>
       <c r="D10" t="n">
-        <v>0.210659</v>
+        <v>0.208247</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.268352</v>
+        <v>0.265587</v>
       </c>
       <c r="C11" t="n">
-        <v>0.208284</v>
+        <v>0.207776</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215311</v>
+        <v>0.213823</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.275033</v>
+        <v>0.280889</v>
       </c>
       <c r="C12" t="n">
-        <v>0.223641</v>
+        <v>0.21111</v>
       </c>
       <c r="D12" t="n">
-        <v>0.218541</v>
+        <v>0.217748</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.257385</v>
+        <v>0.241083</v>
       </c>
       <c r="C13" t="n">
-        <v>0.225353</v>
+        <v>0.215354</v>
       </c>
       <c r="D13" t="n">
-        <v>0.231245</v>
+        <v>0.214925</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.260797</v>
+        <v>0.250917</v>
       </c>
       <c r="C14" t="n">
-        <v>0.227687</v>
+        <v>0.254907</v>
       </c>
       <c r="D14" t="n">
-        <v>0.219609</v>
+        <v>0.222705</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.258139</v>
+        <v>0.257424</v>
       </c>
       <c r="C15" t="n">
-        <v>0.22875</v>
+        <v>0.233175</v>
       </c>
       <c r="D15" t="n">
-        <v>0.228363</v>
+        <v>0.247002</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.271373</v>
+        <v>0.257128</v>
       </c>
       <c r="C16" t="n">
-        <v>0.231426</v>
+        <v>0.226017</v>
       </c>
       <c r="D16" t="n">
-        <v>0.225182</v>
+        <v>0.219733</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.260032</v>
+        <v>0.264143</v>
       </c>
       <c r="C17" t="n">
-        <v>0.233083</v>
+        <v>0.22816</v>
       </c>
       <c r="D17" t="n">
-        <v>0.226602</v>
+        <v>0.223282</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.257572</v>
+        <v>0.272906</v>
       </c>
       <c r="C18" t="n">
-        <v>0.239065</v>
+        <v>0.255335</v>
       </c>
       <c r="D18" t="n">
-        <v>0.229928</v>
+        <v>0.230231</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.262669</v>
+        <v>0.263195</v>
       </c>
       <c r="C19" t="n">
-        <v>0.253389</v>
+        <v>0.243141</v>
       </c>
       <c r="D19" t="n">
-        <v>0.228638</v>
+        <v>0.24571</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.280851</v>
+        <v>0.276978</v>
       </c>
       <c r="C20" t="n">
-        <v>0.252678</v>
+        <v>0.270178</v>
       </c>
       <c r="D20" t="n">
-        <v>0.227371</v>
+        <v>0.233633</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.275711</v>
+        <v>0.274388</v>
       </c>
       <c r="C21" t="n">
-        <v>0.227006</v>
+        <v>0.224544</v>
       </c>
       <c r="D21" t="n">
-        <v>0.228798</v>
+        <v>0.227564</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.283851</v>
+        <v>0.278514</v>
       </c>
       <c r="C22" t="n">
-        <v>0.244147</v>
+        <v>0.230311</v>
       </c>
       <c r="D22" t="n">
-        <v>0.227832</v>
+        <v>0.230294</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.297631</v>
+        <v>0.289436</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237633</v>
+        <v>0.252092</v>
       </c>
       <c r="D23" t="n">
-        <v>0.238298</v>
+        <v>0.267626</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.300237</v>
+        <v>0.296071</v>
       </c>
       <c r="C24" t="n">
-        <v>0.241393</v>
+        <v>0.256539</v>
       </c>
       <c r="D24" t="n">
-        <v>0.23859</v>
+        <v>0.239084</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.302681</v>
+        <v>0.300604</v>
       </c>
       <c r="C25" t="n">
-        <v>0.250604</v>
+        <v>0.256294</v>
       </c>
       <c r="D25" t="n">
-        <v>0.241398</v>
+        <v>0.239322</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.317903</v>
+        <v>0.305308</v>
       </c>
       <c r="C26" t="n">
-        <v>0.266852</v>
+        <v>0.258479</v>
       </c>
       <c r="D26" t="n">
-        <v>0.248846</v>
+        <v>0.240187</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.282145</v>
+        <v>0.291304</v>
       </c>
       <c r="C27" t="n">
-        <v>0.263428</v>
+        <v>0.261618</v>
       </c>
       <c r="D27" t="n">
-        <v>0.248065</v>
+        <v>0.25038</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.305185</v>
+        <v>0.299035</v>
       </c>
       <c r="C28" t="n">
-        <v>0.268066</v>
+        <v>0.288475</v>
       </c>
       <c r="D28" t="n">
-        <v>0.248602</v>
+        <v>0.245435</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.285839</v>
+        <v>0.301451</v>
       </c>
       <c r="C29" t="n">
-        <v>0.261039</v>
+        <v>0.26997</v>
       </c>
       <c r="D29" t="n">
-        <v>0.252977</v>
+        <v>0.249396</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.314518</v>
+        <v>0.315185</v>
       </c>
       <c r="C30" t="n">
-        <v>0.288314</v>
+        <v>0.30233</v>
       </c>
       <c r="D30" t="n">
-        <v>0.252814</v>
+        <v>0.257307</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.313967</v>
+        <v>0.323225</v>
       </c>
       <c r="C31" t="n">
-        <v>0.283059</v>
+        <v>0.286073</v>
       </c>
       <c r="D31" t="n">
-        <v>0.256369</v>
+        <v>0.254149</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.314321</v>
+        <v>0.318882</v>
       </c>
       <c r="C32" t="n">
-        <v>0.290512</v>
+        <v>0.298097</v>
       </c>
       <c r="D32" t="n">
-        <v>0.263823</v>
+        <v>0.273027</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.337279</v>
+        <v>0.331107</v>
       </c>
       <c r="C33" t="n">
-        <v>0.301403</v>
+        <v>0.306364</v>
       </c>
       <c r="D33" t="n">
-        <v>0.271709</v>
+        <v>0.272246</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.33554</v>
+        <v>0.340107</v>
       </c>
       <c r="C34" t="n">
-        <v>0.313131</v>
+        <v>0.323167</v>
       </c>
       <c r="D34" t="n">
-        <v>0.279648</v>
+        <v>0.266724</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.338652</v>
+        <v>0.347191</v>
       </c>
       <c r="C35" t="n">
-        <v>0.259839</v>
+        <v>0.252679</v>
       </c>
       <c r="D35" t="n">
-        <v>0.25895</v>
+        <v>0.266399</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.35097</v>
+        <v>0.373088</v>
       </c>
       <c r="C36" t="n">
-        <v>0.262093</v>
+        <v>0.259154</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2558</v>
+        <v>0.257957</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.389504</v>
+        <v>0.458851</v>
       </c>
       <c r="C37" t="n">
-        <v>0.284216</v>
+        <v>0.282211</v>
       </c>
       <c r="D37" t="n">
-        <v>0.270019</v>
+        <v>0.261701</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.366333</v>
+        <v>0.384469</v>
       </c>
       <c r="C38" t="n">
-        <v>0.305946</v>
+        <v>0.28824</v>
       </c>
       <c r="D38" t="n">
-        <v>0.263619</v>
+        <v>0.266297</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.403336</v>
+        <v>0.386381</v>
       </c>
       <c r="C39" t="n">
-        <v>0.297382</v>
+        <v>0.2861</v>
       </c>
       <c r="D39" t="n">
-        <v>0.289449</v>
+        <v>0.283707</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.404463</v>
+        <v>0.403672</v>
       </c>
       <c r="C40" t="n">
-        <v>0.318076</v>
+        <v>0.312682</v>
       </c>
       <c r="D40" t="n">
-        <v>0.273931</v>
+        <v>0.282944</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.412727</v>
+        <v>0.395201</v>
       </c>
       <c r="C41" t="n">
-        <v>0.313117</v>
+        <v>0.312846</v>
       </c>
       <c r="D41" t="n">
-        <v>0.272109</v>
+        <v>0.28257</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.398399</v>
+        <v>0.409504</v>
       </c>
       <c r="C42" t="n">
-        <v>0.325549</v>
+        <v>0.314567</v>
       </c>
       <c r="D42" t="n">
-        <v>0.285992</v>
+        <v>0.286889</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.408214</v>
+        <v>0.406121</v>
       </c>
       <c r="C43" t="n">
-        <v>0.346354</v>
+        <v>0.319455</v>
       </c>
       <c r="D43" t="n">
-        <v>0.291397</v>
+        <v>0.290743</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.423611</v>
+        <v>0.426302</v>
       </c>
       <c r="C44" t="n">
-        <v>0.352735</v>
+        <v>0.335595</v>
       </c>
       <c r="D44" t="n">
-        <v>0.298989</v>
+        <v>0.298071</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.435176</v>
+        <v>0.433481</v>
       </c>
       <c r="C45" t="n">
-        <v>0.355496</v>
+        <v>0.340723</v>
       </c>
       <c r="D45" t="n">
-        <v>0.301507</v>
+        <v>0.299132</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.439402</v>
+        <v>0.439724</v>
       </c>
       <c r="C46" t="n">
-        <v>0.365043</v>
+        <v>0.356476</v>
       </c>
       <c r="D46" t="n">
-        <v>0.314189</v>
+        <v>0.310244</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.458343</v>
+        <v>0.447185</v>
       </c>
       <c r="C47" t="n">
-        <v>0.383069</v>
+        <v>0.369174</v>
       </c>
       <c r="D47" t="n">
-        <v>0.311569</v>
+        <v>0.306504</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.453349</v>
+        <v>0.460398</v>
       </c>
       <c r="C48" t="n">
-        <v>0.376164</v>
+        <v>0.38998</v>
       </c>
       <c r="D48" t="n">
-        <v>0.319942</v>
+        <v>0.327164</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.490241</v>
+        <v>0.467029</v>
       </c>
       <c r="C49" t="n">
-        <v>0.396871</v>
+        <v>0.391579</v>
       </c>
       <c r="D49" t="n">
-        <v>0.322076</v>
+        <v>0.341714</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.494652</v>
+        <v>0.495003</v>
       </c>
       <c r="C50" t="n">
-        <v>0.397593</v>
+        <v>0.387114</v>
       </c>
       <c r="D50" t="n">
-        <v>0.345262</v>
+        <v>0.349106</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.502273</v>
+        <v>0.512609</v>
       </c>
       <c r="C51" t="n">
-        <v>0.436085</v>
+        <v>0.396389</v>
       </c>
       <c r="D51" t="n">
-        <v>0.351286</v>
+        <v>0.344758</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.52124</v>
+        <v>0.512096</v>
       </c>
       <c r="C52" t="n">
-        <v>0.410787</v>
+        <v>0.411479</v>
       </c>
       <c r="D52" t="n">
-        <v>0.351391</v>
+        <v>0.353417</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.529975</v>
+        <v>0.558226</v>
       </c>
       <c r="C53" t="n">
-        <v>0.437517</v>
+        <v>0.415159</v>
       </c>
       <c r="D53" t="n">
-        <v>0.358161</v>
+        <v>0.376361</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.544577</v>
+        <v>0.580817</v>
       </c>
       <c r="C54" t="n">
-        <v>0.448741</v>
+        <v>0.445723</v>
       </c>
       <c r="D54" t="n">
-        <v>0.376652</v>
+        <v>0.384283</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.555445</v>
+        <v>0.613331</v>
       </c>
       <c r="C55" t="n">
-        <v>0.469752</v>
+        <v>0.449971</v>
       </c>
       <c r="D55" t="n">
-        <v>0.389705</v>
+        <v>0.370373</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.529027</v>
+        <v>0.533145</v>
       </c>
       <c r="C56" t="n">
-        <v>0.478364</v>
+        <v>0.455109</v>
       </c>
       <c r="D56" t="n">
-        <v>0.385047</v>
+        <v>0.39865</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.534608</v>
+        <v>0.545114</v>
       </c>
       <c r="C57" t="n">
-        <v>0.492151</v>
+        <v>0.476172</v>
       </c>
       <c r="D57" t="n">
-        <v>0.406166</v>
+        <v>0.386229</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5430700000000001</v>
+        <v>0.552933</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5284140000000001</v>
+        <v>0.504336</v>
       </c>
       <c r="D58" t="n">
-        <v>0.410844</v>
+        <v>0.404046</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.569618</v>
+        <v>0.582851</v>
       </c>
       <c r="C59" t="n">
-        <v>0.525985</v>
+        <v>0.519797</v>
       </c>
       <c r="D59" t="n">
-        <v>0.418103</v>
+        <v>0.435012</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.592063</v>
+        <v>0.636822</v>
       </c>
       <c r="C60" t="n">
-        <v>0.542339</v>
+        <v>0.552583</v>
       </c>
       <c r="D60" t="n">
-        <v>0.434238</v>
+        <v>0.42646</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.576624</v>
+        <v>0.618973</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5608030000000001</v>
+        <v>0.563288</v>
       </c>
       <c r="D61" t="n">
-        <v>0.437726</v>
+        <v>0.459094</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6346889999999999</v>
+        <v>0.6726569999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.591399</v>
+        <v>0.723616</v>
       </c>
       <c r="D62" t="n">
-        <v>0.457962</v>
+        <v>0.503248</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.634734</v>
+        <v>0.700299</v>
       </c>
       <c r="C63" t="n">
-        <v>0.613053</v>
+        <v>0.626359</v>
       </c>
       <c r="D63" t="n">
-        <v>0.463174</v>
+        <v>0.493428</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.643508</v>
+        <v>0.69899</v>
       </c>
       <c r="C64" t="n">
-        <v>0.602431</v>
+        <v>0.586217</v>
       </c>
       <c r="D64" t="n">
-        <v>0.466971</v>
+        <v>0.501888</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.67149</v>
+        <v>0.839846</v>
       </c>
       <c r="C65" t="n">
-        <v>0.580639</v>
+        <v>0.821652</v>
       </c>
       <c r="D65" t="n">
-        <v>0.499311</v>
+        <v>0.535092</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.692894</v>
+        <v>0.818283</v>
       </c>
       <c r="C66" t="n">
-        <v>0.609772</v>
+        <v>0.693589</v>
       </c>
       <c r="D66" t="n">
-        <v>0.50811</v>
+        <v>0.7188600000000001</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.732161</v>
+        <v>0.828386</v>
       </c>
       <c r="C67" t="n">
-        <v>0.645994</v>
+        <v>0.8495</v>
       </c>
       <c r="D67" t="n">
-        <v>0.52716</v>
+        <v>0.674241</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.797358</v>
+        <v>0.913038</v>
       </c>
       <c r="C68" t="n">
-        <v>0.658739</v>
+        <v>0.6885599999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.532375</v>
+        <v>0.56981</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.818899</v>
+        <v>0.958298</v>
       </c>
       <c r="C69" t="n">
-        <v>0.687535</v>
+        <v>0.672817</v>
       </c>
       <c r="D69" t="n">
-        <v>0.553902</v>
+        <v>0.562158</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.723616</v>
+        <v>0.822197</v>
       </c>
       <c r="C70" t="n">
-        <v>0.704372</v>
+        <v>0.787211</v>
       </c>
       <c r="D70" t="n">
-        <v>0.571918</v>
+        <v>0.586712</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.748798</v>
+        <v>0.901683</v>
       </c>
       <c r="C71" t="n">
-        <v>0.73053</v>
+        <v>0.733617</v>
       </c>
       <c r="D71" t="n">
-        <v>0.571626</v>
+        <v>0.598568</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.799187</v>
+        <v>0.806873</v>
       </c>
       <c r="C72" t="n">
-        <v>0.754966</v>
+        <v>0.761084</v>
       </c>
       <c r="D72" t="n">
-        <v>0.568644</v>
+        <v>0.634201</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.794089</v>
+        <v>0.846593</v>
       </c>
       <c r="C73" t="n">
-        <v>0.774301</v>
+        <v>0.818559</v>
       </c>
       <c r="D73" t="n">
-        <v>0.61495</v>
+        <v>0.675825</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.836972</v>
+        <v>0.931615</v>
       </c>
       <c r="C74" t="n">
-        <v>0.800482</v>
+        <v>0.935268</v>
       </c>
       <c r="D74" t="n">
-        <v>0.629098</v>
+        <v>0.81028</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.868131</v>
+        <v>0.941631</v>
       </c>
       <c r="C75" t="n">
-        <v>0.856788</v>
+        <v>1.00953</v>
       </c>
       <c r="D75" t="n">
-        <v>0.650343</v>
+        <v>0.702525</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.905513</v>
+        <v>1.08809</v>
       </c>
       <c r="C76" t="n">
-        <v>0.912057</v>
+        <v>0.955582</v>
       </c>
       <c r="D76" t="n">
-        <v>0.672006</v>
+        <v>0.750573</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.979061</v>
+        <v>1.00521</v>
       </c>
       <c r="C77" t="n">
-        <v>0.975225</v>
+        <v>1.14042</v>
       </c>
       <c r="D77" t="n">
-        <v>0.672316</v>
+        <v>0.917978</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9365250000000001</v>
+        <v>1.06186</v>
       </c>
       <c r="C78" t="n">
-        <v>0.820732</v>
+        <v>0.882999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.726012</v>
+        <v>0.795164</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.984758</v>
+        <v>1.16963</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8545700000000001</v>
+        <v>0.893864</v>
       </c>
       <c r="D79" t="n">
-        <v>0.729865</v>
+        <v>0.810745</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.01297</v>
+        <v>1.11185</v>
       </c>
       <c r="C80" t="n">
-        <v>0.890353</v>
+        <v>0.960335</v>
       </c>
       <c r="D80" t="n">
-        <v>0.77545</v>
+        <v>0.840134</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.06097</v>
+        <v>1.08166</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9191009999999999</v>
+        <v>0.894019</v>
       </c>
       <c r="D81" t="n">
-        <v>0.769257</v>
+        <v>0.742173</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.12284</v>
+        <v>1.05002</v>
       </c>
       <c r="C82" t="n">
-        <v>0.937886</v>
+        <v>0.8809129999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.82783</v>
+        <v>0.7651480000000001</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.16031</v>
+        <v>1.08471</v>
       </c>
       <c r="C83" t="n">
-        <v>0.985776</v>
+        <v>0.924625</v>
       </c>
       <c r="D83" t="n">
-        <v>0.81502</v>
+        <v>0.783413</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.991038</v>
+        <v>0.974261</v>
       </c>
       <c r="C84" t="n">
-        <v>1.02096</v>
+        <v>0.955443</v>
       </c>
       <c r="D84" t="n">
-        <v>0.843202</v>
+        <v>0.853497</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.02867</v>
+        <v>1.01739</v>
       </c>
       <c r="C85" t="n">
-        <v>1.03712</v>
+        <v>0.971405</v>
       </c>
       <c r="D85" t="n">
-        <v>0.862382</v>
+        <v>0.830824</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.08032</v>
+        <v>1.05778</v>
       </c>
       <c r="C86" t="n">
-        <v>1.09776</v>
+        <v>1.03211</v>
       </c>
       <c r="D86" t="n">
-        <v>0.901473</v>
+        <v>0.861606</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.09951</v>
+        <v>1.08093</v>
       </c>
       <c r="C87" t="n">
-        <v>1.09797</v>
+        <v>1.01911</v>
       </c>
       <c r="D87" t="n">
-        <v>0.926695</v>
+        <v>0.890006</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.13182</v>
+        <v>1.10393</v>
       </c>
       <c r="C88" t="n">
-        <v>1.14738</v>
+        <v>1.05843</v>
       </c>
       <c r="D88" t="n">
-        <v>0.933697</v>
+        <v>0.907801</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.14444</v>
+        <v>1.14457</v>
       </c>
       <c r="C89" t="n">
-        <v>1.17624</v>
+        <v>1.09857</v>
       </c>
       <c r="D89" t="n">
-        <v>0.921364</v>
+        <v>0.911843</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.23098</v>
+        <v>1.16051</v>
       </c>
       <c r="C90" t="n">
-        <v>1.19879</v>
+        <v>1.14364</v>
       </c>
       <c r="D90" t="n">
-        <v>0.952965</v>
+        <v>0.949905</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.2098</v>
+        <v>1.19239</v>
       </c>
       <c r="C91" t="n">
-        <v>1.22548</v>
+        <v>1.33376</v>
       </c>
       <c r="D91" t="n">
-        <v>0.997103</v>
+        <v>0.966205</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.23652</v>
+        <v>1.21339</v>
       </c>
       <c r="C92" t="n">
-        <v>1.08266</v>
+        <v>1.04206</v>
       </c>
       <c r="D92" t="n">
-        <v>1.00817</v>
+        <v>0.9690569999999999</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.27413</v>
+        <v>1.23048</v>
       </c>
       <c r="C93" t="n">
-        <v>1.1085</v>
+        <v>1.08191</v>
       </c>
       <c r="D93" t="n">
-        <v>1.02141</v>
+        <v>0.965953</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.32449</v>
+        <v>1.28012</v>
       </c>
       <c r="C94" t="n">
-        <v>1.13905</v>
+        <v>1.09507</v>
       </c>
       <c r="D94" t="n">
-        <v>1.03569</v>
+        <v>0.985161</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.36493</v>
+        <v>1.31004</v>
       </c>
       <c r="C95" t="n">
-        <v>1.16834</v>
+        <v>1.12691</v>
       </c>
       <c r="D95" t="n">
-        <v>1.05544</v>
+        <v>1.01419</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.37329</v>
+        <v>1.3416</v>
       </c>
       <c r="C96" t="n">
-        <v>1.18616</v>
+        <v>1.15234</v>
       </c>
       <c r="D96" t="n">
-        <v>1.03889</v>
+        <v>1.02397</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.40945</v>
+        <v>1.3848</v>
       </c>
       <c r="C97" t="n">
-        <v>1.18178</v>
+        <v>1.1913</v>
       </c>
       <c r="D97" t="n">
-        <v>1.06471</v>
+        <v>1.04889</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.26841</v>
+        <v>1.23074</v>
       </c>
       <c r="C98" t="n">
-        <v>1.25581</v>
+        <v>1.19917</v>
       </c>
       <c r="D98" t="n">
-        <v>1.06523</v>
+        <v>1.0836</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.31499</v>
+        <v>1.27309</v>
       </c>
       <c r="C99" t="n">
-        <v>1.26844</v>
+        <v>1.23126</v>
       </c>
       <c r="D99" t="n">
-        <v>1.10779</v>
+        <v>1.0946</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.33138</v>
+        <v>1.26613</v>
       </c>
       <c r="C100" t="n">
-        <v>1.29582</v>
+        <v>1.27266</v>
       </c>
       <c r="D100" t="n">
-        <v>1.11967</v>
+        <v>1.11869</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.34846</v>
+        <v>1.31997</v>
       </c>
       <c r="C101" t="n">
-        <v>1.3466</v>
+        <v>1.29883</v>
       </c>
       <c r="D101" t="n">
-        <v>1.15532</v>
+        <v>1.19481</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.38121</v>
+        <v>1.41984</v>
       </c>
       <c r="C102" t="n">
-        <v>1.34488</v>
+        <v>1.3558</v>
       </c>
       <c r="D102" t="n">
-        <v>1.15128</v>
+        <v>1.14647</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.40309</v>
+        <v>1.38763</v>
       </c>
       <c r="C103" t="n">
-        <v>1.38768</v>
+        <v>1.37577</v>
       </c>
       <c r="D103" t="n">
-        <v>1.19384</v>
+        <v>1.2077</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.41243</v>
+        <v>1.46303</v>
       </c>
       <c r="C104" t="n">
-        <v>1.42484</v>
+        <v>1.50465</v>
       </c>
       <c r="D104" t="n">
-        <v>1.19159</v>
+        <v>1.20189</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.43286</v>
+        <v>1.43196</v>
       </c>
       <c r="C105" t="n">
-        <v>1.47291</v>
+        <v>1.44322</v>
       </c>
       <c r="D105" t="n">
-        <v>1.20205</v>
+        <v>1.24953</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.42817</v>
+        <v>1.47525</v>
       </c>
       <c r="C106" t="n">
-        <v>1.47129</v>
+        <v>1.53017</v>
       </c>
       <c r="D106" t="n">
-        <v>1.23315</v>
+        <v>1.22992</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.49685</v>
+        <v>1.49967</v>
       </c>
       <c r="C107" t="n">
-        <v>1.31215</v>
+        <v>1.30911</v>
       </c>
       <c r="D107" t="n">
-        <v>1.19245</v>
+        <v>1.17339</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.53529</v>
+        <v>1.51541</v>
       </c>
       <c r="C108" t="n">
-        <v>1.37656</v>
+        <v>1.31215</v>
       </c>
       <c r="D108" t="n">
-        <v>1.18046</v>
+        <v>1.18911</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.54572</v>
+        <v>1.58316</v>
       </c>
       <c r="C109" t="n">
-        <v>1.33406</v>
+        <v>1.34444</v>
       </c>
       <c r="D109" t="n">
-        <v>1.20702</v>
+        <v>1.21072</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.6034</v>
+        <v>1.57171</v>
       </c>
       <c r="C110" t="n">
-        <v>1.34203</v>
+        <v>1.37252</v>
       </c>
       <c r="D110" t="n">
-        <v>1.20784</v>
+        <v>1.25456</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.58978</v>
+        <v>1.60851</v>
       </c>
       <c r="C111" t="n">
-        <v>1.39479</v>
+        <v>1.42041</v>
       </c>
       <c r="D111" t="n">
-        <v>1.2385</v>
+        <v>1.23966</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.55332</v>
+        <v>1.50701</v>
       </c>
       <c r="C112" t="n">
-        <v>1.41279</v>
+        <v>1.44014</v>
       </c>
       <c r="D112" t="n">
-        <v>1.26157</v>
+        <v>1.25322</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.62336</v>
+        <v>1.46647</v>
       </c>
       <c r="C113" t="n">
-        <v>1.48789</v>
+        <v>1.49454</v>
       </c>
       <c r="D113" t="n">
-        <v>1.27706</v>
+        <v>1.32848</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.61003</v>
+        <v>1.548</v>
       </c>
       <c r="C114" t="n">
-        <v>1.53297</v>
+        <v>1.49345</v>
       </c>
       <c r="D114" t="n">
-        <v>1.31407</v>
+        <v>1.29283</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.60073</v>
+        <v>1.52492</v>
       </c>
       <c r="C115" t="n">
-        <v>1.53878</v>
+        <v>1.55556</v>
       </c>
       <c r="D115" t="n">
-        <v>1.3093</v>
+        <v>1.31696</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.64227</v>
+        <v>1.56376</v>
       </c>
       <c r="C116" t="n">
-        <v>1.59202</v>
+        <v>1.58793</v>
       </c>
       <c r="D116" t="n">
-        <v>1.30356</v>
+        <v>1.34303</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.67679</v>
+        <v>1.58112</v>
       </c>
       <c r="C117" t="n">
-        <v>1.55521</v>
+        <v>1.82218</v>
       </c>
       <c r="D117" t="n">
-        <v>1.3494</v>
+        <v>1.38233</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.59118</v>
+        <v>1.60821</v>
       </c>
       <c r="C118" t="n">
-        <v>1.62045</v>
+        <v>1.61759</v>
       </c>
       <c r="D118" t="n">
-        <v>1.37216</v>
+        <v>1.38272</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.61291</v>
+        <v>1.67964</v>
       </c>
       <c r="C119" t="n">
-        <v>1.6293</v>
+        <v>1.66268</v>
       </c>
       <c r="D119" t="n">
-        <v>1.38513</v>
+        <v>1.41729</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.533162</v>
+        <v>0.551445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.344942</v>
+        <v>0.341468</v>
       </c>
       <c r="D2" t="n">
-        <v>0.236007</v>
+        <v>0.245186</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.401028</v>
+        <v>0.383321</v>
       </c>
       <c r="C3" t="n">
-        <v>0.341269</v>
+        <v>0.349579</v>
       </c>
       <c r="D3" t="n">
-        <v>0.246977</v>
+        <v>0.242925</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.405264</v>
+        <v>0.393359</v>
       </c>
       <c r="C4" t="n">
-        <v>0.368656</v>
+        <v>0.366673</v>
       </c>
       <c r="D4" t="n">
-        <v>0.257494</v>
+        <v>0.252565</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.413888</v>
+        <v>0.401624</v>
       </c>
       <c r="C5" t="n">
-        <v>0.380581</v>
+        <v>0.376323</v>
       </c>
       <c r="D5" t="n">
-        <v>0.266289</v>
+        <v>0.257641</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.427781</v>
+        <v>0.422045</v>
       </c>
       <c r="C6" t="n">
-        <v>0.383948</v>
+        <v>0.386736</v>
       </c>
       <c r="D6" t="n">
-        <v>0.264838</v>
+        <v>0.265125</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.451123</v>
+        <v>0.434744</v>
       </c>
       <c r="C7" t="n">
-        <v>0.41086</v>
+        <v>0.408878</v>
       </c>
       <c r="D7" t="n">
-        <v>0.274297</v>
+        <v>0.270303</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.445721</v>
+        <v>0.459018</v>
       </c>
       <c r="C8" t="n">
-        <v>0.417324</v>
+        <v>0.429456</v>
       </c>
       <c r="D8" t="n">
-        <v>0.286223</v>
+        <v>0.285636</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.467413</v>
+        <v>0.471497</v>
       </c>
       <c r="C9" t="n">
-        <v>0.471117</v>
+        <v>0.472729</v>
       </c>
       <c r="D9" t="n">
-        <v>0.287429</v>
+        <v>0.294062</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.476803</v>
+        <v>0.492778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.464407</v>
+        <v>0.4683</v>
       </c>
       <c r="D10" t="n">
-        <v>0.305989</v>
+        <v>0.302795</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.520618</v>
+        <v>0.487125</v>
       </c>
       <c r="C11" t="n">
-        <v>0.351302</v>
+        <v>0.391168</v>
       </c>
       <c r="D11" t="n">
-        <v>0.244517</v>
+        <v>0.269074</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.522595</v>
+        <v>0.5153219999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.345451</v>
+        <v>0.354768</v>
       </c>
       <c r="D12" t="n">
-        <v>0.244416</v>
+        <v>0.249222</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.546947</v>
+        <v>0.546716</v>
       </c>
       <c r="C13" t="n">
-        <v>0.375085</v>
+        <v>0.367871</v>
       </c>
       <c r="D13" t="n">
-        <v>0.265192</v>
+        <v>0.268911</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.567897</v>
+        <v>0.564394</v>
       </c>
       <c r="C14" t="n">
-        <v>0.396585</v>
+        <v>0.387849</v>
       </c>
       <c r="D14" t="n">
-        <v>0.257225</v>
+        <v>0.266406</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.584206</v>
+        <v>0.577974</v>
       </c>
       <c r="C15" t="n">
-        <v>0.405992</v>
+        <v>0.402738</v>
       </c>
       <c r="D15" t="n">
-        <v>0.271435</v>
+        <v>0.270984</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.610155</v>
+        <v>0.65028</v>
       </c>
       <c r="C16" t="n">
-        <v>0.414214</v>
+        <v>0.424887</v>
       </c>
       <c r="D16" t="n">
-        <v>0.283061</v>
+        <v>0.281664</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.375148</v>
+        <v>0.391293</v>
       </c>
       <c r="C17" t="n">
-        <v>0.432272</v>
+        <v>0.436552</v>
       </c>
       <c r="D17" t="n">
-        <v>0.287072</v>
+        <v>0.292259</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.403827</v>
+        <v>0.409326</v>
       </c>
       <c r="C18" t="n">
-        <v>0.434932</v>
+        <v>0.443828</v>
       </c>
       <c r="D18" t="n">
-        <v>0.284789</v>
+        <v>0.292082</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.402584</v>
+        <v>0.412376</v>
       </c>
       <c r="C19" t="n">
-        <v>0.46571</v>
+        <v>0.464791</v>
       </c>
       <c r="D19" t="n">
-        <v>0.306399</v>
+        <v>0.297033</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4221</v>
+        <v>0.428317</v>
       </c>
       <c r="C20" t="n">
-        <v>0.485768</v>
+        <v>0.484739</v>
       </c>
       <c r="D20" t="n">
-        <v>0.306108</v>
+        <v>0.317635</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.438592</v>
+        <v>0.43329</v>
       </c>
       <c r="C21" t="n">
-        <v>0.498501</v>
+        <v>0.50021</v>
       </c>
       <c r="D21" t="n">
-        <v>0.326867</v>
+        <v>0.328198</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.444127</v>
+        <v>0.452008</v>
       </c>
       <c r="C22" t="n">
-        <v>0.521046</v>
+        <v>0.5286960000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.333596</v>
+        <v>0.339538</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.474341</v>
+        <v>0.505613</v>
       </c>
       <c r="C23" t="n">
-        <v>0.543886</v>
+        <v>0.560477</v>
       </c>
       <c r="D23" t="n">
-        <v>0.351202</v>
+        <v>0.350805</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.51806</v>
+        <v>0.497178</v>
       </c>
       <c r="C24" t="n">
-        <v>0.55719</v>
+        <v>0.581379</v>
       </c>
       <c r="D24" t="n">
-        <v>0.361964</v>
+        <v>0.358571</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.527825</v>
+        <v>0.512073</v>
       </c>
       <c r="C25" t="n">
-        <v>0.593174</v>
+        <v>0.594504</v>
       </c>
       <c r="D25" t="n">
-        <v>0.375791</v>
+        <v>0.368724</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.553207</v>
+        <v>0.524278</v>
       </c>
       <c r="C26" t="n">
-        <v>0.396975</v>
+        <v>0.384309</v>
       </c>
       <c r="D26" t="n">
-        <v>0.271718</v>
+        <v>0.274539</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.557267</v>
+        <v>0.535825</v>
       </c>
       <c r="C27" t="n">
-        <v>0.395812</v>
+        <v>0.380953</v>
       </c>
       <c r="D27" t="n">
-        <v>0.289438</v>
+        <v>0.276182</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.605376</v>
+        <v>0.56797</v>
       </c>
       <c r="C28" t="n">
-        <v>0.399961</v>
+        <v>0.445565</v>
       </c>
       <c r="D28" t="n">
-        <v>0.29765</v>
+        <v>0.282408</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.631578</v>
+        <v>0.590599</v>
       </c>
       <c r="C29" t="n">
-        <v>0.408921</v>
+        <v>0.405338</v>
       </c>
       <c r="D29" t="n">
-        <v>0.303735</v>
+        <v>0.281265</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.631483</v>
+        <v>0.612869</v>
       </c>
       <c r="C30" t="n">
-        <v>0.435843</v>
+        <v>0.4268</v>
       </c>
       <c r="D30" t="n">
-        <v>0.304254</v>
+        <v>0.290545</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.699738</v>
+        <v>0.625345</v>
       </c>
       <c r="C31" t="n">
-        <v>0.48018</v>
+        <v>0.432655</v>
       </c>
       <c r="D31" t="n">
-        <v>0.319273</v>
+        <v>0.304342</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.500789</v>
+        <v>0.466323</v>
       </c>
       <c r="C32" t="n">
-        <v>0.497018</v>
+        <v>0.470759</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319142</v>
+        <v>0.32349</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.507363</v>
+        <v>0.470982</v>
       </c>
       <c r="C33" t="n">
-        <v>0.487135</v>
+        <v>0.467299</v>
       </c>
       <c r="D33" t="n">
-        <v>0.340674</v>
+        <v>0.318909</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5042759999999999</v>
+        <v>0.490884</v>
       </c>
       <c r="C34" t="n">
-        <v>0.509383</v>
+        <v>0.503799</v>
       </c>
       <c r="D34" t="n">
-        <v>0.33761</v>
+        <v>0.351372</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5343329999999999</v>
+        <v>0.582994</v>
       </c>
       <c r="C35" t="n">
-        <v>0.54838</v>
+        <v>0.55372</v>
       </c>
       <c r="D35" t="n">
-        <v>0.356916</v>
+        <v>0.353747</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.555168</v>
+        <v>0.521826</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5845050000000001</v>
+        <v>0.535122</v>
       </c>
       <c r="D36" t="n">
-        <v>0.376135</v>
+        <v>0.364538</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.588418</v>
+        <v>0.561491</v>
       </c>
       <c r="C37" t="n">
-        <v>0.61542</v>
+        <v>0.591768</v>
       </c>
       <c r="D37" t="n">
-        <v>0.384893</v>
+        <v>0.371653</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.615205</v>
+        <v>0.572964</v>
       </c>
       <c r="C38" t="n">
-        <v>0.631112</v>
+        <v>0.6198050000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.400141</v>
+        <v>0.407039</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.612569</v>
+        <v>0.606734</v>
       </c>
       <c r="C39" t="n">
-        <v>0.699537</v>
+        <v>0.666429</v>
       </c>
       <c r="D39" t="n">
-        <v>0.411262</v>
+        <v>0.397506</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.653817</v>
+        <v>0.628261</v>
       </c>
       <c r="C40" t="n">
-        <v>0.477837</v>
+        <v>0.46454</v>
       </c>
       <c r="D40" t="n">
-        <v>0.350071</v>
+        <v>0.357597</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.692994</v>
+        <v>0.665109</v>
       </c>
       <c r="C41" t="n">
-        <v>0.510379</v>
+        <v>0.513675</v>
       </c>
       <c r="D41" t="n">
-        <v>0.360305</v>
+        <v>0.371057</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.730004</v>
+        <v>0.727405</v>
       </c>
       <c r="C42" t="n">
-        <v>0.561596</v>
+        <v>0.524432</v>
       </c>
       <c r="D42" t="n">
-        <v>0.359868</v>
+        <v>0.3652</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.770732</v>
+        <v>0.744669</v>
       </c>
       <c r="C43" t="n">
-        <v>0.55561</v>
+        <v>0.549426</v>
       </c>
       <c r="D43" t="n">
-        <v>0.388202</v>
+        <v>0.3623</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.776367</v>
+        <v>0.773916</v>
       </c>
       <c r="C44" t="n">
-        <v>0.59938</v>
+        <v>0.584608</v>
       </c>
       <c r="D44" t="n">
-        <v>0.396388</v>
+        <v>0.405284</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.832269</v>
+        <v>0.829826</v>
       </c>
       <c r="C45" t="n">
-        <v>0.612555</v>
+        <v>0.603363</v>
       </c>
       <c r="D45" t="n">
-        <v>0.404117</v>
+        <v>0.403662</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.627788</v>
+        <v>0.603705</v>
       </c>
       <c r="C46" t="n">
-        <v>0.679222</v>
+        <v>0.656829</v>
       </c>
       <c r="D46" t="n">
-        <v>0.420989</v>
+        <v>0.420356</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.656716</v>
+        <v>0.6956639999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6712129999999999</v>
+        <v>0.660446</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4325</v>
+        <v>0.435501</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.674871</v>
+        <v>0.671336</v>
       </c>
       <c r="C48" t="n">
-        <v>0.711603</v>
+        <v>0.704183</v>
       </c>
       <c r="D48" t="n">
-        <v>0.454121</v>
+        <v>0.450206</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.704051</v>
+        <v>0.731683</v>
       </c>
       <c r="C49" t="n">
-        <v>0.768957</v>
+        <v>0.76634</v>
       </c>
       <c r="D49" t="n">
-        <v>0.468371</v>
+        <v>0.467612</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.752745</v>
+        <v>0.7623490000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.784814</v>
+        <v>0.789048</v>
       </c>
       <c r="D50" t="n">
-        <v>0.487154</v>
+        <v>0.482577</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.801543</v>
+        <v>0.792848</v>
       </c>
       <c r="C51" t="n">
-        <v>0.852743</v>
+        <v>0.874209</v>
       </c>
       <c r="D51" t="n">
-        <v>0.504143</v>
+        <v>0.502789</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.830214</v>
+        <v>0.871615</v>
       </c>
       <c r="C52" t="n">
-        <v>0.877022</v>
+        <v>0.896258</v>
       </c>
       <c r="D52" t="n">
-        <v>0.537301</v>
+        <v>0.52482</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.869918</v>
+        <v>0.870522</v>
       </c>
       <c r="C53" t="n">
-        <v>0.9676979999999999</v>
+        <v>0.975847</v>
       </c>
       <c r="D53" t="n">
-        <v>0.557416</v>
+        <v>0.578306</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.917979</v>
+        <v>0.9746860000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.691451</v>
+        <v>0.7068449999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.447647</v>
+        <v>0.469709</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9787400000000001</v>
+        <v>0.999189</v>
       </c>
       <c r="C55" t="n">
-        <v>0.72738</v>
+        <v>0.712553</v>
       </c>
       <c r="D55" t="n">
-        <v>0.462477</v>
+        <v>0.484852</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.02166</v>
+        <v>1.04472</v>
       </c>
       <c r="C56" t="n">
-        <v>0.769017</v>
+        <v>0.759853</v>
       </c>
       <c r="D56" t="n">
-        <v>0.496891</v>
+        <v>0.493149</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.09236</v>
+        <v>1.08493</v>
       </c>
       <c r="C57" t="n">
-        <v>0.795237</v>
+        <v>0.827336</v>
       </c>
       <c r="D57" t="n">
-        <v>0.508661</v>
+        <v>0.532449</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.14712</v>
+        <v>1.1512</v>
       </c>
       <c r="C58" t="n">
-        <v>0.854772</v>
+        <v>0.834975</v>
       </c>
       <c r="D58" t="n">
-        <v>0.542643</v>
+        <v>0.530845</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.217</v>
+        <v>1.16494</v>
       </c>
       <c r="C59" t="n">
-        <v>0.865693</v>
+        <v>0.881727</v>
       </c>
       <c r="D59" t="n">
-        <v>0.535285</v>
+        <v>0.549449</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.877969</v>
+        <v>0.926528</v>
       </c>
       <c r="C60" t="n">
-        <v>0.940402</v>
+        <v>0.921092</v>
       </c>
       <c r="D60" t="n">
-        <v>0.558381</v>
+        <v>0.559582</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.882219</v>
+        <v>0.890717</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9672460000000001</v>
+        <v>0.969827</v>
       </c>
       <c r="D61" t="n">
-        <v>0.610656</v>
+        <v>0.575307</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.939544</v>
+        <v>0.926213</v>
       </c>
       <c r="C62" t="n">
-        <v>1.03498</v>
+        <v>1.03048</v>
       </c>
       <c r="D62" t="n">
-        <v>0.603565</v>
+        <v>0.600743</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.991534</v>
+        <v>0.948944</v>
       </c>
       <c r="C63" t="n">
-        <v>1.07815</v>
+        <v>1.14022</v>
       </c>
       <c r="D63" t="n">
-        <v>0.632966</v>
+        <v>0.648792</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.07567</v>
+        <v>1.01123</v>
       </c>
       <c r="C64" t="n">
-        <v>1.15387</v>
+        <v>1.13675</v>
       </c>
       <c r="D64" t="n">
-        <v>0.653827</v>
+        <v>0.684824</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.13724</v>
+        <v>1.09835</v>
       </c>
       <c r="C65" t="n">
-        <v>1.26267</v>
+        <v>1.27876</v>
       </c>
       <c r="D65" t="n">
-        <v>0.689271</v>
+        <v>0.723305</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.14548</v>
+        <v>1.14427</v>
       </c>
       <c r="C66" t="n">
-        <v>1.31738</v>
+        <v>1.30889</v>
       </c>
       <c r="D66" t="n">
-        <v>0.722795</v>
+        <v>0.7346819999999999</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.21615</v>
+        <v>1.21503</v>
       </c>
       <c r="C67" t="n">
-        <v>1.4247</v>
+        <v>1.41037</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7841320000000001</v>
+        <v>0.766092</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.29772</v>
+        <v>1.3403</v>
       </c>
       <c r="C68" t="n">
-        <v>0.954968</v>
+        <v>0.910752</v>
       </c>
       <c r="D68" t="n">
-        <v>0.579283</v>
+        <v>0.588073</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.48345</v>
+        <v>1.46434</v>
       </c>
       <c r="C69" t="n">
-        <v>0.98846</v>
+        <v>0.988869</v>
       </c>
       <c r="D69" t="n">
-        <v>0.59807</v>
+        <v>0.624573</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.49003</v>
+        <v>1.55058</v>
       </c>
       <c r="C70" t="n">
-        <v>1.0481</v>
+        <v>1.06168</v>
       </c>
       <c r="D70" t="n">
-        <v>0.613255</v>
+        <v>0.62864</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.6441</v>
+        <v>1.67352</v>
       </c>
       <c r="C71" t="n">
-        <v>1.11493</v>
+        <v>1.1297</v>
       </c>
       <c r="D71" t="n">
-        <v>0.642604</v>
+        <v>0.664639</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.80496</v>
+        <v>1.78176</v>
       </c>
       <c r="C72" t="n">
-        <v>1.21364</v>
+        <v>1.15912</v>
       </c>
       <c r="D72" t="n">
-        <v>0.712293</v>
+        <v>0.694747</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.90664</v>
+        <v>1.95838</v>
       </c>
       <c r="C73" t="n">
-        <v>1.28343</v>
+        <v>1.29263</v>
       </c>
       <c r="D73" t="n">
-        <v>0.709765</v>
+        <v>0.729144</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.31017</v>
+        <v>1.31228</v>
       </c>
       <c r="C74" t="n">
-        <v>1.39621</v>
+        <v>1.37669</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7401990000000001</v>
+        <v>0.74812</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.33676</v>
+        <v>1.41028</v>
       </c>
       <c r="C75" t="n">
-        <v>1.46217</v>
+        <v>1.47876</v>
       </c>
       <c r="D75" t="n">
-        <v>0.772878</v>
+        <v>0.799254</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.40544</v>
+        <v>1.51976</v>
       </c>
       <c r="C76" t="n">
-        <v>1.56128</v>
+        <v>1.55322</v>
       </c>
       <c r="D76" t="n">
-        <v>0.813368</v>
+        <v>0.8379219999999999</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.49183</v>
+        <v>1.51043</v>
       </c>
       <c r="C77" t="n">
-        <v>1.69403</v>
+        <v>1.69493</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8861329999999999</v>
+        <v>0.885382</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.60251</v>
+        <v>1.63804</v>
       </c>
       <c r="C78" t="n">
-        <v>1.75957</v>
+        <v>1.76955</v>
       </c>
       <c r="D78" t="n">
-        <v>0.908187</v>
+        <v>0.92709</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.66771</v>
+        <v>1.82451</v>
       </c>
       <c r="C79" t="n">
-        <v>1.90463</v>
+        <v>1.87786</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9928670000000001</v>
+        <v>0.985774</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.79948</v>
+        <v>1.832</v>
       </c>
       <c r="C80" t="n">
-        <v>2.05022</v>
+        <v>2.08079</v>
       </c>
       <c r="D80" t="n">
-        <v>1.07454</v>
+        <v>1.02626</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.89628</v>
+        <v>1.98971</v>
       </c>
       <c r="C81" t="n">
-        <v>2.20425</v>
+        <v>2.19461</v>
       </c>
       <c r="D81" t="n">
-        <v>1.10224</v>
+        <v>1.11628</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.06431</v>
+        <v>2.06611</v>
       </c>
       <c r="C82" t="n">
-        <v>2.43081</v>
+        <v>2.39325</v>
       </c>
       <c r="D82" t="n">
-        <v>1.16539</v>
+        <v>1.2152</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.09232</v>
+        <v>2.18183</v>
       </c>
       <c r="C83" t="n">
-        <v>1.67258</v>
+        <v>1.68741</v>
       </c>
       <c r="D83" t="n">
-        <v>0.981912</v>
+        <v>0.954297</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.25666</v>
+        <v>2.30597</v>
       </c>
       <c r="C84" t="n">
-        <v>1.7252</v>
+        <v>1.76554</v>
       </c>
       <c r="D84" t="n">
-        <v>1.03271</v>
+        <v>1.02771</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.36729</v>
+        <v>2.46114</v>
       </c>
       <c r="C85" t="n">
-        <v>1.84296</v>
+        <v>1.84413</v>
       </c>
       <c r="D85" t="n">
-        <v>1.06056</v>
+        <v>1.04015</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.49374</v>
+        <v>2.54103</v>
       </c>
       <c r="C86" t="n">
-        <v>1.91061</v>
+        <v>1.96302</v>
       </c>
       <c r="D86" t="n">
-        <v>1.10685</v>
+        <v>1.09363</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.62885</v>
+        <v>2.72298</v>
       </c>
       <c r="C87" t="n">
-        <v>2.02402</v>
+        <v>2.03698</v>
       </c>
       <c r="D87" t="n">
-        <v>1.14459</v>
+        <v>1.14375</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.76919</v>
+        <v>2.85657</v>
       </c>
       <c r="C88" t="n">
-        <v>2.20317</v>
+        <v>2.23901</v>
       </c>
       <c r="D88" t="n">
-        <v>1.22431</v>
+        <v>1.20218</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.92029</v>
+        <v>1.9203</v>
       </c>
       <c r="C89" t="n">
-        <v>2.26467</v>
+        <v>2.30454</v>
       </c>
       <c r="D89" t="n">
-        <v>1.26811</v>
+        <v>1.28507</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.99082</v>
+        <v>2.00724</v>
       </c>
       <c r="C90" t="n">
-        <v>2.3715</v>
+        <v>2.37632</v>
       </c>
       <c r="D90" t="n">
-        <v>1.31078</v>
+        <v>1.36769</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.0608</v>
+        <v>2.10703</v>
       </c>
       <c r="C91" t="n">
-        <v>2.51791</v>
+        <v>2.52629</v>
       </c>
       <c r="D91" t="n">
-        <v>1.39421</v>
+        <v>1.36817</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.1725</v>
+        <v>2.17414</v>
       </c>
       <c r="C92" t="n">
-        <v>2.63005</v>
+        <v>2.65946</v>
       </c>
       <c r="D92" t="n">
-        <v>1.48707</v>
+        <v>1.45932</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.22191</v>
+        <v>2.26586</v>
       </c>
       <c r="C93" t="n">
-        <v>2.74127</v>
+        <v>2.78531</v>
       </c>
       <c r="D93" t="n">
-        <v>1.5337</v>
+        <v>1.5373</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.30709</v>
+        <v>2.35332</v>
       </c>
       <c r="C94" t="n">
-        <v>2.94488</v>
+        <v>2.91041</v>
       </c>
       <c r="D94" t="n">
-        <v>1.61455</v>
+        <v>1.6135</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.42085</v>
+        <v>2.47429</v>
       </c>
       <c r="C95" t="n">
-        <v>3.08482</v>
+        <v>3.08112</v>
       </c>
       <c r="D95" t="n">
-        <v>1.65897</v>
+        <v>1.66085</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.56083</v>
+        <v>2.63642</v>
       </c>
       <c r="C96" t="n">
-        <v>3.22279</v>
+        <v>3.24605</v>
       </c>
       <c r="D96" t="n">
-        <v>1.7447</v>
+        <v>1.77098</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.64235</v>
+        <v>2.72023</v>
       </c>
       <c r="C97" t="n">
-        <v>2.05698</v>
+        <v>2.02881</v>
       </c>
       <c r="D97" t="n">
-        <v>1.3243</v>
+        <v>1.3071</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.77502</v>
+        <v>2.82098</v>
       </c>
       <c r="C98" t="n">
-        <v>2.15541</v>
+        <v>2.11442</v>
       </c>
       <c r="D98" t="n">
-        <v>1.35158</v>
+        <v>1.37145</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.96425</v>
+        <v>2.90859</v>
       </c>
       <c r="C99" t="n">
-        <v>2.23345</v>
+        <v>2.15922</v>
       </c>
       <c r="D99" t="n">
-        <v>1.40205</v>
+        <v>1.40347</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.02091</v>
+        <v>3.02285</v>
       </c>
       <c r="C100" t="n">
-        <v>2.28504</v>
+        <v>2.26816</v>
       </c>
       <c r="D100" t="n">
-        <v>1.48027</v>
+        <v>1.46269</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.11916</v>
+        <v>3.26276</v>
       </c>
       <c r="C101" t="n">
-        <v>2.37523</v>
+        <v>2.4066</v>
       </c>
       <c r="D101" t="n">
-        <v>1.50852</v>
+        <v>1.50859</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.29546</v>
+        <v>3.37684</v>
       </c>
       <c r="C102" t="n">
-        <v>2.48104</v>
+        <v>2.51017</v>
       </c>
       <c r="D102" t="n">
-        <v>1.5358</v>
+        <v>1.56965</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.19719</v>
+        <v>2.26593</v>
       </c>
       <c r="C103" t="n">
-        <v>2.58168</v>
+        <v>2.5826</v>
       </c>
       <c r="D103" t="n">
-        <v>1.65007</v>
+        <v>1.6517</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.31691</v>
+        <v>2.36585</v>
       </c>
       <c r="C104" t="n">
-        <v>2.71959</v>
+        <v>2.68444</v>
       </c>
       <c r="D104" t="n">
-        <v>1.67041</v>
+        <v>1.65304</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.44969</v>
+        <v>2.38273</v>
       </c>
       <c r="C105" t="n">
-        <v>2.86562</v>
+        <v>2.85868</v>
       </c>
       <c r="D105" t="n">
-        <v>1.74663</v>
+        <v>1.73979</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.51232</v>
+        <v>2.52428</v>
       </c>
       <c r="C106" t="n">
-        <v>2.92655</v>
+        <v>2.92357</v>
       </c>
       <c r="D106" t="n">
-        <v>1.76878</v>
+        <v>1.79093</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.57379</v>
+        <v>2.62342</v>
       </c>
       <c r="C107" t="n">
-        <v>3.04081</v>
+        <v>3.01511</v>
       </c>
       <c r="D107" t="n">
-        <v>1.8512</v>
+        <v>1.81883</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.71787</v>
+        <v>2.70181</v>
       </c>
       <c r="C108" t="n">
-        <v>3.24727</v>
+        <v>3.21865</v>
       </c>
       <c r="D108" t="n">
-        <v>1.91965</v>
+        <v>1.89052</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.8082</v>
+        <v>2.779</v>
       </c>
       <c r="C109" t="n">
-        <v>3.38147</v>
+        <v>3.38139</v>
       </c>
       <c r="D109" t="n">
-        <v>1.96409</v>
+        <v>1.97799</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.89179</v>
+        <v>2.90842</v>
       </c>
       <c r="C110" t="n">
-        <v>3.52125</v>
+        <v>3.47422</v>
       </c>
       <c r="D110" t="n">
-        <v>2.04912</v>
+        <v>2.0506</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.04181</v>
+        <v>3.02585</v>
       </c>
       <c r="C111" t="n">
-        <v>2.30165</v>
+        <v>2.25454</v>
       </c>
       <c r="D111" t="n">
-        <v>1.59326</v>
+        <v>1.58184</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.07515</v>
+        <v>3.15019</v>
       </c>
       <c r="C112" t="n">
-        <v>2.40311</v>
+        <v>2.34309</v>
       </c>
       <c r="D112" t="n">
-        <v>1.64804</v>
+        <v>1.64173</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.25254</v>
+        <v>3.25843</v>
       </c>
       <c r="C113" t="n">
-        <v>2.50056</v>
+        <v>2.47781</v>
       </c>
       <c r="D113" t="n">
-        <v>1.70475</v>
+        <v>1.71742</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.37011</v>
+        <v>3.40765</v>
       </c>
       <c r="C114" t="n">
-        <v>2.55941</v>
+        <v>2.52194</v>
       </c>
       <c r="D114" t="n">
-        <v>1.72233</v>
+        <v>1.79116</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.61344</v>
+        <v>3.54495</v>
       </c>
       <c r="C115" t="n">
-        <v>2.78371</v>
+        <v>2.57935</v>
       </c>
       <c r="D115" t="n">
-        <v>1.7587</v>
+        <v>1.77939</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.69324</v>
+        <v>3.65302</v>
       </c>
       <c r="C116" t="n">
-        <v>2.80257</v>
+        <v>2.70014</v>
       </c>
       <c r="D116" t="n">
-        <v>1.82258</v>
+        <v>1.8532</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.46739</v>
+        <v>2.47445</v>
       </c>
       <c r="C117" t="n">
-        <v>2.97197</v>
+        <v>2.84869</v>
       </c>
       <c r="D117" t="n">
-        <v>1.91314</v>
+        <v>1.92021</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.53871</v>
+        <v>2.57049</v>
       </c>
       <c r="C118" t="n">
-        <v>3.12158</v>
+        <v>2.9583</v>
       </c>
       <c r="D118" t="n">
-        <v>1.98929</v>
+        <v>1.97698</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.63078</v>
+        <v>2.627</v>
       </c>
       <c r="C119" t="n">
-        <v>3.26421</v>
+        <v>3.05877</v>
       </c>
       <c r="D119" t="n">
-        <v>1.98735</v>
+        <v>1.98851</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered successful looukp.xlsx
+++ b/vs/scattered successful looukp.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.214774</v>
+        <v>0.224763</v>
       </c>
       <c r="C2" t="n">
-        <v>0.191411</v>
+        <v>0.208828</v>
       </c>
       <c r="D2" t="n">
-        <v>0.206075</v>
+        <v>0.223084</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.243907</v>
+        <v>0.237155</v>
       </c>
       <c r="C3" t="n">
-        <v>0.199067</v>
+        <v>0.206511</v>
       </c>
       <c r="D3" t="n">
-        <v>0.209818</v>
+        <v>0.222915</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.214503</v>
+        <v>0.235387</v>
       </c>
       <c r="C4" t="n">
-        <v>0.23057</v>
+        <v>0.218729</v>
       </c>
       <c r="D4" t="n">
-        <v>0.257284</v>
+        <v>0.22727</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.223541</v>
+        <v>0.239319</v>
       </c>
       <c r="C5" t="n">
-        <v>0.228877</v>
+        <v>0.217141</v>
       </c>
       <c r="D5" t="n">
-        <v>0.219643</v>
+        <v>0.235295</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.223064</v>
+        <v>0.244058</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206449</v>
+        <v>0.219145</v>
       </c>
       <c r="D6" t="n">
-        <v>0.223735</v>
+        <v>0.236655</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.227749</v>
+        <v>0.245849</v>
       </c>
       <c r="C7" t="n">
-        <v>0.172987</v>
+        <v>0.190334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.193373</v>
+        <v>0.212797</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.234651</v>
+        <v>0.248449</v>
       </c>
       <c r="C8" t="n">
-        <v>0.179808</v>
+        <v>0.193059</v>
       </c>
       <c r="D8" t="n">
-        <v>0.200321</v>
+        <v>0.210389</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.237291</v>
+        <v>0.249173</v>
       </c>
       <c r="C9" t="n">
-        <v>0.179419</v>
+        <v>0.197806</v>
       </c>
       <c r="D9" t="n">
-        <v>0.201159</v>
+        <v>0.211234</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.242276</v>
+        <v>0.249718</v>
       </c>
       <c r="C10" t="n">
-        <v>0.182023</v>
+        <v>0.194319</v>
       </c>
       <c r="D10" t="n">
-        <v>0.205317</v>
+        <v>0.226876</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.245671</v>
+        <v>0.285844</v>
       </c>
       <c r="C11" t="n">
-        <v>0.18557</v>
+        <v>0.215944</v>
       </c>
       <c r="D11" t="n">
-        <v>0.206971</v>
+        <v>0.23708</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.248561</v>
+        <v>0.27379</v>
       </c>
       <c r="C12" t="n">
-        <v>0.188756</v>
+        <v>0.210275</v>
       </c>
       <c r="D12" t="n">
-        <v>0.210776</v>
+        <v>0.239049</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.213644</v>
+        <v>0.241731</v>
       </c>
       <c r="C13" t="n">
-        <v>0.189838</v>
+        <v>0.221205</v>
       </c>
       <c r="D13" t="n">
-        <v>0.211939</v>
+        <v>0.245521</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.222645</v>
+        <v>0.242636</v>
       </c>
       <c r="C14" t="n">
-        <v>0.192278</v>
+        <v>0.227641</v>
       </c>
       <c r="D14" t="n">
-        <v>0.21566</v>
+        <v>0.249634</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.220299</v>
+        <v>0.250385</v>
       </c>
       <c r="C15" t="n">
-        <v>0.20753</v>
+        <v>0.224147</v>
       </c>
       <c r="D15" t="n">
-        <v>0.221203</v>
+        <v>0.24624</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.222154</v>
+        <v>0.252389</v>
       </c>
       <c r="C16" t="n">
-        <v>0.200742</v>
+        <v>0.219882</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223673</v>
+        <v>0.240349</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.225407</v>
+        <v>0.245917</v>
       </c>
       <c r="C17" t="n">
-        <v>0.20561</v>
+        <v>0.222434</v>
       </c>
       <c r="D17" t="n">
-        <v>0.231461</v>
+        <v>0.245022</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.268851</v>
+        <v>0.240752</v>
       </c>
       <c r="C18" t="n">
-        <v>0.208907</v>
+        <v>0.215447</v>
       </c>
       <c r="D18" t="n">
-        <v>0.232493</v>
+        <v>0.240631</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.232626</v>
+        <v>0.246144</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213164</v>
+        <v>0.224952</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237057</v>
+        <v>0.251984</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.236708</v>
+        <v>0.245079</v>
       </c>
       <c r="C20" t="n">
-        <v>0.21679</v>
+        <v>0.220733</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240814</v>
+        <v>0.24653</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.240986</v>
+        <v>0.24585</v>
       </c>
       <c r="C21" t="n">
-        <v>0.183781</v>
+        <v>0.189313</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204213</v>
+        <v>0.21557</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.243701</v>
+        <v>0.256431</v>
       </c>
       <c r="C22" t="n">
-        <v>0.194531</v>
+        <v>0.191956</v>
       </c>
       <c r="D22" t="n">
-        <v>0.210128</v>
+        <v>0.219176</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.248677</v>
+        <v>0.264488</v>
       </c>
       <c r="C23" t="n">
-        <v>0.190566</v>
+        <v>0.196242</v>
       </c>
       <c r="D23" t="n">
-        <v>0.213643</v>
+        <v>0.229445</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.253307</v>
+        <v>0.26659</v>
       </c>
       <c r="C24" t="n">
-        <v>0.193995</v>
+        <v>0.206556</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216407</v>
+        <v>0.22601</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.255932</v>
+        <v>0.270386</v>
       </c>
       <c r="C25" t="n">
-        <v>0.195698</v>
+        <v>0.202757</v>
       </c>
       <c r="D25" t="n">
-        <v>0.22802</v>
+        <v>0.228653</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.289582</v>
+        <v>0.26329</v>
       </c>
       <c r="C26" t="n">
-        <v>0.197682</v>
+        <v>0.213405</v>
       </c>
       <c r="D26" t="n">
-        <v>0.22189</v>
+        <v>0.230356</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.221815</v>
+        <v>0.243894</v>
       </c>
       <c r="C27" t="n">
-        <v>0.201305</v>
+        <v>0.214046</v>
       </c>
       <c r="D27" t="n">
-        <v>0.225415</v>
+        <v>0.2342</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.230778</v>
+        <v>0.237133</v>
       </c>
       <c r="C28" t="n">
-        <v>0.209484</v>
+        <v>0.222645</v>
       </c>
       <c r="D28" t="n">
-        <v>0.234476</v>
+        <v>0.239305</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.239502</v>
+        <v>0.243526</v>
       </c>
       <c r="C29" t="n">
-        <v>0.209816</v>
+        <v>0.217014</v>
       </c>
       <c r="D29" t="n">
-        <v>0.233906</v>
+        <v>0.244343</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.234856</v>
+        <v>0.247419</v>
       </c>
       <c r="C30" t="n">
-        <v>0.216852</v>
+        <v>0.225734</v>
       </c>
       <c r="D30" t="n">
-        <v>0.242399</v>
+        <v>0.255233</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.240916</v>
+        <v>0.253715</v>
       </c>
       <c r="C31" t="n">
-        <v>0.216634</v>
+        <v>0.229324</v>
       </c>
       <c r="D31" t="n">
-        <v>0.255319</v>
+        <v>0.254523</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.244328</v>
+        <v>0.258877</v>
       </c>
       <c r="C32" t="n">
-        <v>0.22449</v>
+        <v>0.231699</v>
       </c>
       <c r="D32" t="n">
-        <v>0.250028</v>
+        <v>0.26706</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.306472</v>
+        <v>0.264018</v>
       </c>
       <c r="C33" t="n">
-        <v>0.277722</v>
+        <v>0.240204</v>
       </c>
       <c r="D33" t="n">
-        <v>0.287046</v>
+        <v>0.264172</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.260437</v>
+        <v>0.272666</v>
       </c>
       <c r="C34" t="n">
-        <v>0.232909</v>
+        <v>0.249342</v>
       </c>
       <c r="D34" t="n">
-        <v>0.256378</v>
+        <v>0.27444</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258694</v>
+        <v>0.273879</v>
       </c>
       <c r="C35" t="n">
-        <v>0.203573</v>
+        <v>0.220476</v>
       </c>
       <c r="D35" t="n">
-        <v>0.222559</v>
+        <v>0.234753</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.265048</v>
+        <v>0.288521</v>
       </c>
       <c r="C36" t="n">
-        <v>0.21001</v>
+        <v>0.226406</v>
       </c>
       <c r="D36" t="n">
-        <v>0.229077</v>
+        <v>0.249166</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.274702</v>
+        <v>0.293341</v>
       </c>
       <c r="C37" t="n">
-        <v>0.213765</v>
+        <v>0.232205</v>
       </c>
       <c r="D37" t="n">
-        <v>0.229617</v>
+        <v>0.246523</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.276621</v>
+        <v>0.304177</v>
       </c>
       <c r="C38" t="n">
-        <v>0.216155</v>
+        <v>0.235602</v>
       </c>
       <c r="D38" t="n">
-        <v>0.235434</v>
+        <v>0.249462</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.28465</v>
+        <v>0.30953</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2208</v>
+        <v>0.237174</v>
       </c>
       <c r="D39" t="n">
-        <v>0.242461</v>
+        <v>0.264608</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.290492</v>
+        <v>0.315665</v>
       </c>
       <c r="C40" t="n">
-        <v>0.252899</v>
+        <v>0.254982</v>
       </c>
       <c r="D40" t="n">
-        <v>0.283011</v>
+        <v>0.263537</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.291758</v>
+        <v>0.314516</v>
       </c>
       <c r="C41" t="n">
-        <v>0.269795</v>
+        <v>0.251297</v>
       </c>
       <c r="D41" t="n">
-        <v>0.254187</v>
+        <v>0.270618</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.295645</v>
+        <v>0.323398</v>
       </c>
       <c r="C42" t="n">
-        <v>0.237316</v>
+        <v>0.254956</v>
       </c>
       <c r="D42" t="n">
-        <v>0.260097</v>
+        <v>0.276675</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.306853</v>
+        <v>0.32982</v>
       </c>
       <c r="C43" t="n">
-        <v>0.24556</v>
+        <v>0.260252</v>
       </c>
       <c r="D43" t="n">
-        <v>0.266609</v>
+        <v>0.289563</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.314712</v>
+        <v>0.351494</v>
       </c>
       <c r="C44" t="n">
-        <v>0.252258</v>
+        <v>0.278647</v>
       </c>
       <c r="D44" t="n">
-        <v>0.274701</v>
+        <v>0.301869</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.335133</v>
+        <v>0.352585</v>
       </c>
       <c r="C45" t="n">
-        <v>0.263896</v>
+        <v>0.279694</v>
       </c>
       <c r="D45" t="n">
-        <v>0.28243</v>
+        <v>0.29963</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.339264</v>
+        <v>0.374551</v>
       </c>
       <c r="C46" t="n">
-        <v>0.268995</v>
+        <v>0.282015</v>
       </c>
       <c r="D46" t="n">
-        <v>0.28596</v>
+        <v>0.304999</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.336942</v>
+        <v>0.380064</v>
       </c>
       <c r="C47" t="n">
-        <v>0.276671</v>
+        <v>0.293636</v>
       </c>
       <c r="D47" t="n">
-        <v>0.294989</v>
+        <v>0.326326</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.352846</v>
+        <v>0.404983</v>
       </c>
       <c r="C48" t="n">
-        <v>0.278548</v>
+        <v>0.300692</v>
       </c>
       <c r="D48" t="n">
-        <v>0.300876</v>
+        <v>0.330715</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.35812</v>
+        <v>0.390854</v>
       </c>
       <c r="C49" t="n">
-        <v>0.286543</v>
+        <v>0.31366</v>
       </c>
       <c r="D49" t="n">
-        <v>0.306568</v>
+        <v>0.344084</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.384919</v>
+        <v>0.42508</v>
       </c>
       <c r="C50" t="n">
-        <v>0.295451</v>
+        <v>0.308457</v>
       </c>
       <c r="D50" t="n">
-        <v>0.292978</v>
+        <v>0.340165</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.392617</v>
+        <v>0.428947</v>
       </c>
       <c r="C51" t="n">
-        <v>0.281</v>
+        <v>0.327234</v>
       </c>
       <c r="D51" t="n">
-        <v>0.30372</v>
+        <v>0.335107</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.429531</v>
+        <v>0.456705</v>
       </c>
       <c r="C52" t="n">
-        <v>0.306472</v>
+        <v>0.329412</v>
       </c>
       <c r="D52" t="n">
-        <v>0.310191</v>
+        <v>0.330906</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.431326</v>
+        <v>0.471537</v>
       </c>
       <c r="C53" t="n">
-        <v>0.312879</v>
+        <v>0.331276</v>
       </c>
       <c r="D53" t="n">
-        <v>0.318081</v>
+        <v>0.341742</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.441788</v>
+        <v>0.468499</v>
       </c>
       <c r="C54" t="n">
-        <v>0.329714</v>
+        <v>0.351625</v>
       </c>
       <c r="D54" t="n">
-        <v>0.370998</v>
+        <v>0.370502</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.492454</v>
+        <v>0.498867</v>
       </c>
       <c r="C55" t="n">
-        <v>0.33383</v>
+        <v>0.357151</v>
       </c>
       <c r="D55" t="n">
-        <v>0.354555</v>
+        <v>0.394927</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.50612</v>
+        <v>0.539228</v>
       </c>
       <c r="C56" t="n">
-        <v>0.349541</v>
+        <v>0.370019</v>
       </c>
       <c r="D56" t="n">
-        <v>0.354608</v>
+        <v>0.40095</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.509041</v>
+        <v>0.560694</v>
       </c>
       <c r="C57" t="n">
-        <v>0.346661</v>
+        <v>0.392903</v>
       </c>
       <c r="D57" t="n">
-        <v>0.365079</v>
+        <v>0.410048</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.518331</v>
+        <v>0.5664169999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.388223</v>
+        <v>0.388062</v>
       </c>
       <c r="D58" t="n">
-        <v>0.371546</v>
+        <v>0.397414</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.556897</v>
+        <v>0.585141</v>
       </c>
       <c r="C59" t="n">
-        <v>0.449262</v>
+        <v>0.420853</v>
       </c>
       <c r="D59" t="n">
-        <v>0.447488</v>
+        <v>0.417337</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.622241</v>
+        <v>0.63754</v>
       </c>
       <c r="C60" t="n">
-        <v>0.394137</v>
+        <v>0.437167</v>
       </c>
       <c r="D60" t="n">
-        <v>0.432028</v>
+        <v>0.446777</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.672488</v>
+        <v>0.630708</v>
       </c>
       <c r="C61" t="n">
-        <v>0.418269</v>
+        <v>0.449237</v>
       </c>
       <c r="D61" t="n">
-        <v>0.433936</v>
+        <v>0.448593</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.608432</v>
+        <v>0.643331</v>
       </c>
       <c r="C62" t="n">
-        <v>0.435545</v>
+        <v>0.482804</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4515</v>
+        <v>0.483436</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.669516</v>
+        <v>0.667893</v>
       </c>
       <c r="C63" t="n">
-        <v>0.472083</v>
+        <v>0.486643</v>
       </c>
       <c r="D63" t="n">
-        <v>0.490163</v>
+        <v>0.502176</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.69416</v>
+        <v>0.693395</v>
       </c>
       <c r="C64" t="n">
-        <v>0.508016</v>
+        <v>0.5218120000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.552544</v>
+        <v>0.538148</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6873899999999999</v>
+        <v>0.69212</v>
       </c>
       <c r="C65" t="n">
-        <v>0.555872</v>
+        <v>0.53764</v>
       </c>
       <c r="D65" t="n">
-        <v>0.573694</v>
+        <v>0.555904</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.735612</v>
+        <v>0.737395</v>
       </c>
       <c r="C66" t="n">
-        <v>0.555656</v>
+        <v>0.553054</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5714939999999999</v>
+        <v>0.601555</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.726936</v>
+        <v>0.7523919999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.569652</v>
+        <v>0.5855590000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.58693</v>
+        <v>0.584064</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.816891</v>
+        <v>0.780015</v>
       </c>
       <c r="C68" t="n">
-        <v>0.606097</v>
+        <v>0.5775979999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6199</v>
+        <v>0.612573</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.776753</v>
+        <v>0.809504</v>
       </c>
       <c r="C69" t="n">
-        <v>0.592045</v>
+        <v>0.589637</v>
       </c>
       <c r="D69" t="n">
-        <v>0.650735</v>
+        <v>0.615974</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.823265</v>
+        <v>0.776044</v>
       </c>
       <c r="C70" t="n">
-        <v>0.624016</v>
+        <v>0.5988059999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.643782</v>
+        <v>0.628727</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.790521</v>
+        <v>0.808069</v>
       </c>
       <c r="C71" t="n">
-        <v>0.615618</v>
+        <v>0.670082</v>
       </c>
       <c r="D71" t="n">
-        <v>0.637307</v>
+        <v>0.655146</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.805554</v>
+        <v>0.807149</v>
       </c>
       <c r="C72" t="n">
-        <v>0.640984</v>
+        <v>0.6470860000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.670835</v>
+        <v>0.68438</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.820326</v>
+        <v>0.846251</v>
       </c>
       <c r="C73" t="n">
-        <v>0.654735</v>
+        <v>0.653918</v>
       </c>
       <c r="D73" t="n">
-        <v>0.68703</v>
+        <v>0.701197</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.793113</v>
+        <v>0.84779</v>
       </c>
       <c r="C74" t="n">
-        <v>0.666609</v>
+        <v>0.699255</v>
       </c>
       <c r="D74" t="n">
-        <v>0.727773</v>
+        <v>0.7349599999999999</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.819681</v>
+        <v>0.868005</v>
       </c>
       <c r="C75" t="n">
-        <v>0.696835</v>
+        <v>0.738935</v>
       </c>
       <c r="D75" t="n">
-        <v>0.773311</v>
+        <v>0.7519709999999999</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9421119999999999</v>
+        <v>0.889453</v>
       </c>
       <c r="C76" t="n">
-        <v>0.696592</v>
+        <v>0.7451989999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.700482</v>
+        <v>0.774608</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.833615</v>
+        <v>0.899195</v>
       </c>
       <c r="C77" t="n">
-        <v>0.750328</v>
+        <v>0.7722560000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.76661</v>
+        <v>0.772319</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.882858</v>
+        <v>0.925258</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6981810000000001</v>
+        <v>0.770783</v>
       </c>
       <c r="D78" t="n">
-        <v>0.750348</v>
+        <v>0.774149</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.900639</v>
+        <v>0.948366</v>
       </c>
       <c r="C79" t="n">
-        <v>0.754683</v>
+        <v>0.758112</v>
       </c>
       <c r="D79" t="n">
-        <v>0.793122</v>
+        <v>0.799397</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.908096</v>
+        <v>0.9825159999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.759506</v>
+        <v>0.778824</v>
       </c>
       <c r="D80" t="n">
-        <v>0.805812</v>
+        <v>0.818099</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.927438</v>
+        <v>0.9926160000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>0.765286</v>
+        <v>0.755704</v>
       </c>
       <c r="D81" t="n">
-        <v>0.792052</v>
+        <v>0.851308</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.963077</v>
+        <v>0.988939</v>
       </c>
       <c r="C82" t="n">
-        <v>0.789874</v>
+        <v>0.849679</v>
       </c>
       <c r="D82" t="n">
-        <v>0.829807</v>
+        <v>0.8677319999999999</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.960408</v>
+        <v>1.00212</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8011160000000001</v>
+        <v>0.827523</v>
       </c>
       <c r="D83" t="n">
-        <v>0.809047</v>
+        <v>0.861542</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.885453</v>
+        <v>0.93736</v>
       </c>
       <c r="C84" t="n">
-        <v>0.823172</v>
+        <v>0.840929</v>
       </c>
       <c r="D84" t="n">
-        <v>0.846625</v>
+        <v>0.888568</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.983283</v>
+        <v>0.937559</v>
       </c>
       <c r="C85" t="n">
-        <v>0.794835</v>
+        <v>0.896993</v>
       </c>
       <c r="D85" t="n">
-        <v>0.833485</v>
+        <v>0.895601</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.930656</v>
+        <v>0.944335</v>
       </c>
       <c r="C86" t="n">
-        <v>0.83468</v>
+        <v>0.8859050000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.896537</v>
+        <v>0.924473</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.920309</v>
+        <v>1.00698</v>
       </c>
       <c r="C87" t="n">
-        <v>0.85721</v>
+        <v>0.913407</v>
       </c>
       <c r="D87" t="n">
-        <v>0.961417</v>
+        <v>0.917539</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.94721</v>
+        <v>1.00836</v>
       </c>
       <c r="C88" t="n">
-        <v>0.874207</v>
+        <v>0.9081669999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9168190000000001</v>
+        <v>0.933319</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.968749</v>
+        <v>1.01204</v>
       </c>
       <c r="C89" t="n">
-        <v>0.891133</v>
+        <v>0.913204</v>
       </c>
       <c r="D89" t="n">
-        <v>0.928449</v>
+        <v>0.970702</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.988192</v>
+        <v>1.03708</v>
       </c>
       <c r="C90" t="n">
-        <v>0.948386</v>
+        <v>0.960522</v>
       </c>
       <c r="D90" t="n">
-        <v>0.945703</v>
+        <v>0.967417</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.988223</v>
+        <v>1.03117</v>
       </c>
       <c r="C91" t="n">
-        <v>0.905765</v>
+        <v>0.955268</v>
       </c>
       <c r="D91" t="n">
-        <v>0.991074</v>
+        <v>1.01896</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.00464</v>
+        <v>1.06435</v>
       </c>
       <c r="C92" t="n">
-        <v>0.868184</v>
+        <v>0.881661</v>
       </c>
       <c r="D92" t="n">
-        <v>0.892016</v>
+        <v>0.926145</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.0117</v>
+        <v>1.074</v>
       </c>
       <c r="C93" t="n">
-        <v>0.843048</v>
+        <v>0.883532</v>
       </c>
       <c r="D93" t="n">
-        <v>0.874619</v>
+        <v>0.9466059999999999</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.01135</v>
+        <v>1.07462</v>
       </c>
       <c r="C94" t="n">
-        <v>0.879547</v>
+        <v>0.917556</v>
       </c>
       <c r="D94" t="n">
-        <v>0.901512</v>
+        <v>0.9309809999999999</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.07297</v>
+        <v>1.10967</v>
       </c>
       <c r="C95" t="n">
-        <v>0.87862</v>
+        <v>0.928512</v>
       </c>
       <c r="D95" t="n">
-        <v>0.919362</v>
+        <v>0.959687</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.07132</v>
+        <v>1.11328</v>
       </c>
       <c r="C96" t="n">
-        <v>0.895709</v>
+        <v>0.945858</v>
       </c>
       <c r="D96" t="n">
-        <v>0.932949</v>
+        <v>0.971796</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.07372</v>
+        <v>1.1238</v>
       </c>
       <c r="C97" t="n">
-        <v>0.90906</v>
+        <v>0.961268</v>
       </c>
       <c r="D97" t="n">
-        <v>0.945086</v>
+        <v>1.01465</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9623350000000001</v>
+        <v>1.03308</v>
       </c>
       <c r="C98" t="n">
-        <v>0.924951</v>
+        <v>0.990988</v>
       </c>
       <c r="D98" t="n">
-        <v>0.961442</v>
+        <v>1.01167</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.962095</v>
+        <v>1.03012</v>
       </c>
       <c r="C99" t="n">
-        <v>1.09288</v>
+        <v>1.01055</v>
       </c>
       <c r="D99" t="n">
-        <v>0.998827</v>
+        <v>1.0426</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.0012</v>
+        <v>1.04895</v>
       </c>
       <c r="C100" t="n">
-        <v>0.944118</v>
+        <v>1.00909</v>
       </c>
       <c r="D100" t="n">
-        <v>0.995036</v>
+        <v>1.03506</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.01039</v>
+        <v>1.06483</v>
       </c>
       <c r="C101" t="n">
-        <v>0.970657</v>
+        <v>1.03683</v>
       </c>
       <c r="D101" t="n">
-        <v>1.00916</v>
+        <v>1.06155</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.04814</v>
+        <v>1.0691</v>
       </c>
       <c r="C102" t="n">
-        <v>0.986011</v>
+        <v>1.06533</v>
       </c>
       <c r="D102" t="n">
-        <v>1.0206</v>
+        <v>1.0672</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.02889</v>
+        <v>1.12077</v>
       </c>
       <c r="C103" t="n">
-        <v>1.00581</v>
+        <v>1.08567</v>
       </c>
       <c r="D103" t="n">
-        <v>1.05231</v>
+        <v>1.0958</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.06813</v>
+        <v>1.12812</v>
       </c>
       <c r="C104" t="n">
-        <v>1.03774</v>
+        <v>1.09572</v>
       </c>
       <c r="D104" t="n">
-        <v>1.08676</v>
+        <v>1.09894</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.08113</v>
+        <v>1.12786</v>
       </c>
       <c r="C105" t="n">
-        <v>1.07759</v>
+        <v>1.08734</v>
       </c>
       <c r="D105" t="n">
-        <v>1.10105</v>
+        <v>1.12416</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.10705</v>
+        <v>1.15054</v>
       </c>
       <c r="C106" t="n">
-        <v>1.05741</v>
+        <v>1.10492</v>
       </c>
       <c r="D106" t="n">
-        <v>1.10321</v>
+        <v>1.17881</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.09289</v>
+        <v>1.15476</v>
       </c>
       <c r="C107" t="n">
-        <v>0.95496</v>
+        <v>1.04153</v>
       </c>
       <c r="D107" t="n">
-        <v>0.973237</v>
+        <v>1.0504</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.11911</v>
+        <v>1.17407</v>
       </c>
       <c r="C108" t="n">
-        <v>0.961863</v>
+        <v>1.01629</v>
       </c>
       <c r="D108" t="n">
-        <v>0.99904</v>
+        <v>1.04915</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.1346</v>
+        <v>1.17924</v>
       </c>
       <c r="C109" t="n">
-        <v>0.982033</v>
+        <v>1.04231</v>
       </c>
       <c r="D109" t="n">
-        <v>1.01729</v>
+        <v>1.06385</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.15337</v>
+        <v>1.2058</v>
       </c>
       <c r="C110" t="n">
-        <v>0.991313</v>
+        <v>1.05291</v>
       </c>
       <c r="D110" t="n">
-        <v>1.01525</v>
+        <v>1.071</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.16962</v>
+        <v>1.27707</v>
       </c>
       <c r="C111" t="n">
-        <v>1.01569</v>
+        <v>1.04088</v>
       </c>
       <c r="D111" t="n">
-        <v>1.04874</v>
+        <v>1.10242</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.06893</v>
+        <v>1.09809</v>
       </c>
       <c r="C112" t="n">
-        <v>1.02205</v>
+        <v>1.08644</v>
       </c>
       <c r="D112" t="n">
-        <v>1.0576</v>
+        <v>1.11531</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.0883</v>
+        <v>1.08634</v>
       </c>
       <c r="C113" t="n">
-        <v>1.03498</v>
+        <v>1.08452</v>
       </c>
       <c r="D113" t="n">
-        <v>1.08125</v>
+        <v>1.11257</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.08823</v>
+        <v>1.12696</v>
       </c>
       <c r="C114" t="n">
-        <v>1.05755</v>
+        <v>1.08683</v>
       </c>
       <c r="D114" t="n">
-        <v>1.09589</v>
+        <v>1.12251</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.09918</v>
+        <v>1.14106</v>
       </c>
       <c r="C115" t="n">
-        <v>1.05176</v>
+        <v>1.10369</v>
       </c>
       <c r="D115" t="n">
-        <v>1.09509</v>
+        <v>1.1823</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.1306</v>
+        <v>1.18988</v>
       </c>
       <c r="C116" t="n">
-        <v>1.07623</v>
+        <v>1.14221</v>
       </c>
       <c r="D116" t="n">
-        <v>1.12532</v>
+        <v>1.15089</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.17228</v>
+        <v>1.19097</v>
       </c>
       <c r="C117" t="n">
-        <v>1.11995</v>
+        <v>1.18307</v>
       </c>
       <c r="D117" t="n">
-        <v>1.1582</v>
+        <v>1.20104</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.13648</v>
+        <v>1.26624</v>
       </c>
       <c r="C118" t="n">
-        <v>1.12872</v>
+        <v>1.15485</v>
       </c>
       <c r="D118" t="n">
-        <v>1.16017</v>
+        <v>1.22525</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.13137</v>
+        <v>1.2511</v>
       </c>
       <c r="C119" t="n">
-        <v>1.1244</v>
+        <v>1.19156</v>
       </c>
       <c r="D119" t="n">
-        <v>1.18812</v>
+        <v>1.23963</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.222345</v>
+        <v>0.243596</v>
       </c>
       <c r="C2" t="n">
-        <v>0.179197</v>
+        <v>0.193056</v>
       </c>
       <c r="D2" t="n">
-        <v>0.185328</v>
+        <v>0.192319</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.258487</v>
+        <v>0.245573</v>
       </c>
       <c r="C3" t="n">
-        <v>0.217289</v>
+        <v>0.204122</v>
       </c>
       <c r="D3" t="n">
-        <v>0.216703</v>
+        <v>0.202693</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.252001</v>
+        <v>0.261558</v>
       </c>
       <c r="C4" t="n">
-        <v>0.203782</v>
+        <v>0.207926</v>
       </c>
       <c r="D4" t="n">
-        <v>0.191872</v>
+        <v>0.213895</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.24225</v>
+        <v>0.24888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.20664</v>
+        <v>0.211543</v>
       </c>
       <c r="D5" t="n">
-        <v>0.197227</v>
+        <v>0.207741</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.22911</v>
+        <v>0.250868</v>
       </c>
       <c r="C6" t="n">
-        <v>0.197619</v>
+        <v>0.213302</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20388</v>
+        <v>0.20847</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.231944</v>
+        <v>0.264946</v>
       </c>
       <c r="C7" t="n">
-        <v>0.179345</v>
+        <v>0.195473</v>
       </c>
       <c r="D7" t="n">
-        <v>0.190293</v>
+        <v>0.213015</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.240143</v>
+        <v>0.266814</v>
       </c>
       <c r="C8" t="n">
-        <v>0.182915</v>
+        <v>0.198967</v>
       </c>
       <c r="D8" t="n">
-        <v>0.202475</v>
+        <v>0.219123</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.247888</v>
+        <v>0.268663</v>
       </c>
       <c r="C9" t="n">
-        <v>0.198376</v>
+        <v>0.213957</v>
       </c>
       <c r="D9" t="n">
-        <v>0.203943</v>
+        <v>0.222945</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.263585</v>
+        <v>0.284008</v>
       </c>
       <c r="C10" t="n">
-        <v>0.189375</v>
+        <v>0.210784</v>
       </c>
       <c r="D10" t="n">
-        <v>0.201894</v>
+        <v>0.21359</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.244976</v>
+        <v>0.2789</v>
       </c>
       <c r="C11" t="n">
-        <v>0.194081</v>
+        <v>0.200625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.200422</v>
+        <v>0.209069</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.26509</v>
+        <v>0.279358</v>
       </c>
       <c r="C12" t="n">
-        <v>0.20736</v>
+        <v>0.210988</v>
       </c>
       <c r="D12" t="n">
-        <v>0.210193</v>
+        <v>0.220515</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.236302</v>
+        <v>0.270495</v>
       </c>
       <c r="C13" t="n">
-        <v>0.197979</v>
+        <v>0.240242</v>
       </c>
       <c r="D13" t="n">
-        <v>0.206185</v>
+        <v>0.232563</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.240905</v>
+        <v>0.261029</v>
       </c>
       <c r="C14" t="n">
-        <v>0.202256</v>
+        <v>0.231682</v>
       </c>
       <c r="D14" t="n">
-        <v>0.204291</v>
+        <v>0.237009</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.241351</v>
+        <v>0.268373</v>
       </c>
       <c r="C15" t="n">
-        <v>0.203181</v>
+        <v>0.228672</v>
       </c>
       <c r="D15" t="n">
-        <v>0.208822</v>
+        <v>0.228583</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.242737</v>
+        <v>0.272121</v>
       </c>
       <c r="C16" t="n">
-        <v>0.220869</v>
+        <v>0.240452</v>
       </c>
       <c r="D16" t="n">
-        <v>0.216081</v>
+        <v>0.221254</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.247079</v>
+        <v>0.270958</v>
       </c>
       <c r="C17" t="n">
-        <v>0.21487</v>
+        <v>0.227944</v>
       </c>
       <c r="D17" t="n">
-        <v>0.213766</v>
+        <v>0.22918</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.276583</v>
+        <v>0.269649</v>
       </c>
       <c r="C18" t="n">
-        <v>0.221078</v>
+        <v>0.234084</v>
       </c>
       <c r="D18" t="n">
-        <v>0.235377</v>
+        <v>0.222345</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.253934</v>
+        <v>0.270002</v>
       </c>
       <c r="C19" t="n">
-        <v>0.222508</v>
+        <v>0.230567</v>
       </c>
       <c r="D19" t="n">
-        <v>0.21711</v>
+        <v>0.236005</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.259596</v>
+        <v>0.266872</v>
       </c>
       <c r="C20" t="n">
-        <v>0.238989</v>
+        <v>0.238306</v>
       </c>
       <c r="D20" t="n">
-        <v>0.237582</v>
+        <v>0.231459</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.260862</v>
+        <v>0.273343</v>
       </c>
       <c r="C21" t="n">
-        <v>0.208971</v>
+        <v>0.217247</v>
       </c>
       <c r="D21" t="n">
-        <v>0.234713</v>
+        <v>0.231204</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.287634</v>
+        <v>0.283089</v>
       </c>
       <c r="C22" t="n">
-        <v>0.247049</v>
+        <v>0.222123</v>
       </c>
       <c r="D22" t="n">
-        <v>0.222191</v>
+        <v>0.240746</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.283321</v>
+        <v>0.287398</v>
       </c>
       <c r="C23" t="n">
-        <v>0.215653</v>
+        <v>0.22376</v>
       </c>
       <c r="D23" t="n">
-        <v>0.230241</v>
+        <v>0.234562</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.283022</v>
+        <v>0.294004</v>
       </c>
       <c r="C24" t="n">
-        <v>0.224898</v>
+        <v>0.24016</v>
       </c>
       <c r="D24" t="n">
-        <v>0.224037</v>
+        <v>0.244868</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.288352</v>
+        <v>0.294625</v>
       </c>
       <c r="C25" t="n">
-        <v>0.240112</v>
+        <v>0.247701</v>
       </c>
       <c r="D25" t="n">
-        <v>0.230287</v>
+        <v>0.242347</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.298861</v>
+        <v>0.310147</v>
       </c>
       <c r="C26" t="n">
-        <v>0.228852</v>
+        <v>0.243264</v>
       </c>
       <c r="D26" t="n">
-        <v>0.234284</v>
+        <v>0.246701</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.262675</v>
+        <v>0.272106</v>
       </c>
       <c r="C27" t="n">
-        <v>0.240844</v>
+        <v>0.255953</v>
       </c>
       <c r="D27" t="n">
-        <v>0.255613</v>
+        <v>0.242543</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.293321</v>
+        <v>0.282556</v>
       </c>
       <c r="C28" t="n">
-        <v>0.238906</v>
+        <v>0.251878</v>
       </c>
       <c r="D28" t="n">
-        <v>0.243225</v>
+        <v>0.249156</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.273231</v>
+        <v>0.298725</v>
       </c>
       <c r="C29" t="n">
-        <v>0.250715</v>
+        <v>0.25199</v>
       </c>
       <c r="D29" t="n">
-        <v>0.242664</v>
+        <v>0.251649</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.282597</v>
+        <v>0.305022</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2677</v>
+        <v>0.271765</v>
       </c>
       <c r="D30" t="n">
-        <v>0.241716</v>
+        <v>0.250331</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.281739</v>
+        <v>0.315079</v>
       </c>
       <c r="C31" t="n">
-        <v>0.253756</v>
+        <v>0.276175</v>
       </c>
       <c r="D31" t="n">
-        <v>0.264763</v>
+        <v>0.2501</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.293802</v>
+        <v>0.326638</v>
       </c>
       <c r="C32" t="n">
-        <v>0.266875</v>
+        <v>0.281315</v>
       </c>
       <c r="D32" t="n">
-        <v>0.254267</v>
+        <v>0.257209</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.310877</v>
+        <v>0.337384</v>
       </c>
       <c r="C33" t="n">
-        <v>0.272573</v>
+        <v>0.279245</v>
       </c>
       <c r="D33" t="n">
-        <v>0.259661</v>
+        <v>0.265979</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.30402</v>
+        <v>0.334502</v>
       </c>
       <c r="C34" t="n">
-        <v>0.276782</v>
+        <v>0.292967</v>
       </c>
       <c r="D34" t="n">
-        <v>0.250713</v>
+        <v>0.269956</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.311336</v>
+        <v>0.332761</v>
       </c>
       <c r="C35" t="n">
-        <v>0.251251</v>
+        <v>0.250007</v>
       </c>
       <c r="D35" t="n">
-        <v>0.239264</v>
+        <v>0.256726</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.321906</v>
+        <v>0.345573</v>
       </c>
       <c r="C36" t="n">
-        <v>0.252321</v>
+        <v>0.268471</v>
       </c>
       <c r="D36" t="n">
-        <v>0.250439</v>
+        <v>0.267667</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.340939</v>
+        <v>0.375021</v>
       </c>
       <c r="C37" t="n">
-        <v>0.258789</v>
+        <v>0.276764</v>
       </c>
       <c r="D37" t="n">
-        <v>0.262248</v>
+        <v>0.261626</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.348107</v>
+        <v>0.366866</v>
       </c>
       <c r="C38" t="n">
-        <v>0.265587</v>
+        <v>0.27656</v>
       </c>
       <c r="D38" t="n">
-        <v>0.264924</v>
+        <v>0.263806</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.352644</v>
+        <v>0.397505</v>
       </c>
       <c r="C39" t="n">
-        <v>0.268074</v>
+        <v>0.286017</v>
       </c>
       <c r="D39" t="n">
-        <v>0.259081</v>
+        <v>0.274535</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.365359</v>
+        <v>0.397941</v>
       </c>
       <c r="C40" t="n">
-        <v>0.275386</v>
+        <v>0.293441</v>
       </c>
       <c r="D40" t="n">
-        <v>0.269818</v>
+        <v>0.272721</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.350444</v>
+        <v>0.386557</v>
       </c>
       <c r="C41" t="n">
-        <v>0.279413</v>
+        <v>0.311852</v>
       </c>
       <c r="D41" t="n">
-        <v>0.265151</v>
+        <v>0.271926</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.355466</v>
+        <v>0.41584</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2806</v>
+        <v>0.304914</v>
       </c>
       <c r="D42" t="n">
-        <v>0.277333</v>
+        <v>0.280278</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.362133</v>
+        <v>0.431719</v>
       </c>
       <c r="C43" t="n">
-        <v>0.299458</v>
+        <v>0.326993</v>
       </c>
       <c r="D43" t="n">
-        <v>0.280119</v>
+        <v>0.292183</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.371422</v>
+        <v>0.433467</v>
       </c>
       <c r="C44" t="n">
-        <v>0.301552</v>
+        <v>0.331307</v>
       </c>
       <c r="D44" t="n">
-        <v>0.271029</v>
+        <v>0.294193</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.382454</v>
+        <v>0.443821</v>
       </c>
       <c r="C45" t="n">
-        <v>0.31236</v>
+        <v>0.338389</v>
       </c>
       <c r="D45" t="n">
-        <v>0.276446</v>
+        <v>0.308522</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.381496</v>
+        <v>0.435903</v>
       </c>
       <c r="C46" t="n">
-        <v>0.307805</v>
+        <v>0.344795</v>
       </c>
       <c r="D46" t="n">
-        <v>0.282819</v>
+        <v>0.306551</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.39143</v>
+        <v>0.452939</v>
       </c>
       <c r="C47" t="n">
-        <v>0.324141</v>
+        <v>0.364233</v>
       </c>
       <c r="D47" t="n">
-        <v>0.291812</v>
+        <v>0.309569</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.411123</v>
+        <v>0.461046</v>
       </c>
       <c r="C48" t="n">
-        <v>0.342626</v>
+        <v>0.373388</v>
       </c>
       <c r="D48" t="n">
-        <v>0.308854</v>
+        <v>0.322573</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.415559</v>
+        <v>0.476396</v>
       </c>
       <c r="C49" t="n">
-        <v>0.335488</v>
+        <v>0.383549</v>
       </c>
       <c r="D49" t="n">
-        <v>0.296366</v>
+        <v>0.336592</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.433617</v>
+        <v>0.490024</v>
       </c>
       <c r="C50" t="n">
-        <v>0.334797</v>
+        <v>0.403553</v>
       </c>
       <c r="D50" t="n">
-        <v>0.300954</v>
+        <v>0.346104</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.434531</v>
+        <v>0.5184800000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.351025</v>
+        <v>0.407079</v>
       </c>
       <c r="D51" t="n">
-        <v>0.325559</v>
+        <v>0.34377</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.439591</v>
+        <v>0.533368</v>
       </c>
       <c r="C52" t="n">
-        <v>0.349952</v>
+        <v>0.42889</v>
       </c>
       <c r="D52" t="n">
-        <v>0.315548</v>
+        <v>0.351658</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.457516</v>
+        <v>0.554087</v>
       </c>
       <c r="C53" t="n">
-        <v>0.356979</v>
+        <v>0.446114</v>
       </c>
       <c r="D53" t="n">
-        <v>0.347658</v>
+        <v>0.367812</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.467442</v>
+        <v>0.543092</v>
       </c>
       <c r="C54" t="n">
-        <v>0.374708</v>
+        <v>0.443024</v>
       </c>
       <c r="D54" t="n">
-        <v>0.325713</v>
+        <v>0.3804</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.492883</v>
+        <v>0.556411</v>
       </c>
       <c r="C55" t="n">
-        <v>0.390151</v>
+        <v>0.448996</v>
       </c>
       <c r="D55" t="n">
-        <v>0.332747</v>
+        <v>0.371661</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.437904</v>
+        <v>0.5401589999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.399387</v>
+        <v>0.459589</v>
       </c>
       <c r="D56" t="n">
-        <v>0.335337</v>
+        <v>0.389191</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.451962</v>
+        <v>0.542557</v>
       </c>
       <c r="C57" t="n">
-        <v>0.393236</v>
+        <v>0.476334</v>
       </c>
       <c r="D57" t="n">
-        <v>0.343064</v>
+        <v>0.404185</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.460422</v>
+        <v>0.551952</v>
       </c>
       <c r="C58" t="n">
-        <v>0.408521</v>
+        <v>0.496432</v>
       </c>
       <c r="D58" t="n">
-        <v>0.351763</v>
+        <v>0.404764</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.473987</v>
+        <v>0.564698</v>
       </c>
       <c r="C59" t="n">
-        <v>0.421301</v>
+        <v>0.498051</v>
       </c>
       <c r="D59" t="n">
-        <v>0.374612</v>
+        <v>0.417783</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.518402</v>
+        <v>0.586241</v>
       </c>
       <c r="C60" t="n">
-        <v>0.476731</v>
+        <v>0.531101</v>
       </c>
       <c r="D60" t="n">
-        <v>0.384413</v>
+        <v>0.440456</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.49461</v>
+        <v>0.625282</v>
       </c>
       <c r="C61" t="n">
-        <v>0.456388</v>
+        <v>0.550406</v>
       </c>
       <c r="D61" t="n">
-        <v>0.397396</v>
+        <v>0.449666</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5345220000000001</v>
+        <v>0.605911</v>
       </c>
       <c r="C62" t="n">
-        <v>0.459282</v>
+        <v>0.562375</v>
       </c>
       <c r="D62" t="n">
-        <v>0.404516</v>
+        <v>0.451829</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.520305</v>
+        <v>0.622427</v>
       </c>
       <c r="C63" t="n">
-        <v>0.487437</v>
+        <v>0.588052</v>
       </c>
       <c r="D63" t="n">
-        <v>0.403751</v>
+        <v>0.445751</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.528442</v>
+        <v>0.641958</v>
       </c>
       <c r="C64" t="n">
-        <v>0.448539</v>
+        <v>0.548163</v>
       </c>
       <c r="D64" t="n">
-        <v>0.407449</v>
+        <v>0.479564</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.555204</v>
+        <v>0.686452</v>
       </c>
       <c r="C65" t="n">
-        <v>0.483656</v>
+        <v>0.573306</v>
       </c>
       <c r="D65" t="n">
-        <v>0.410923</v>
+        <v>0.503472</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.585839</v>
+        <v>0.73385</v>
       </c>
       <c r="C66" t="n">
-        <v>0.476092</v>
+        <v>0.585549</v>
       </c>
       <c r="D66" t="n">
-        <v>0.419053</v>
+        <v>0.494767</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.585454</v>
+        <v>0.728074</v>
       </c>
       <c r="C67" t="n">
-        <v>0.496689</v>
+        <v>0.623841</v>
       </c>
       <c r="D67" t="n">
-        <v>0.442896</v>
+        <v>0.507143</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.620942</v>
+        <v>0.750826</v>
       </c>
       <c r="C68" t="n">
-        <v>0.515128</v>
+        <v>0.632598</v>
       </c>
       <c r="D68" t="n">
-        <v>0.43519</v>
+        <v>0.530469</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6538659999999999</v>
+        <v>0.808877</v>
       </c>
       <c r="C69" t="n">
-        <v>0.525512</v>
+        <v>0.654718</v>
       </c>
       <c r="D69" t="n">
-        <v>0.443091</v>
+        <v>0.554833</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.58507</v>
+        <v>0.725644</v>
       </c>
       <c r="C70" t="n">
-        <v>0.542918</v>
+        <v>0.672467</v>
       </c>
       <c r="D70" t="n">
-        <v>0.456788</v>
+        <v>0.5643010000000001</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.59848</v>
+        <v>0.768173</v>
       </c>
       <c r="C71" t="n">
-        <v>0.569425</v>
+        <v>0.706303</v>
       </c>
       <c r="D71" t="n">
-        <v>0.471238</v>
+        <v>0.5822079999999999</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.691727</v>
+        <v>0.770938</v>
       </c>
       <c r="C72" t="n">
-        <v>0.628763</v>
+        <v>0.723838</v>
       </c>
       <c r="D72" t="n">
-        <v>0.482335</v>
+        <v>0.569055</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.656631</v>
+        <v>0.7877150000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.603698</v>
+        <v>0.7648160000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.523292</v>
+        <v>0.613692</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.709412</v>
+        <v>0.796172</v>
       </c>
       <c r="C74" t="n">
-        <v>0.620079</v>
+        <v>0.78343</v>
       </c>
       <c r="D74" t="n">
-        <v>0.51411</v>
+        <v>0.614541</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.701438</v>
+        <v>0.8627</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6677110000000001</v>
+        <v>0.827908</v>
       </c>
       <c r="D75" t="n">
-        <v>0.534321</v>
+        <v>0.636504</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7518359999999999</v>
+        <v>0.9064179999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.726482</v>
+        <v>0.830045</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5663</v>
+        <v>0.659385</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.753033</v>
+        <v>0.925188</v>
       </c>
       <c r="C77" t="n">
-        <v>0.724213</v>
+        <v>0.897749</v>
       </c>
       <c r="D77" t="n">
-        <v>0.589549</v>
+        <v>0.708003</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.796903</v>
+        <v>0.94818</v>
       </c>
       <c r="C78" t="n">
-        <v>0.725289</v>
+        <v>0.8232</v>
       </c>
       <c r="D78" t="n">
-        <v>0.589181</v>
+        <v>0.730449</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.892855</v>
+        <v>0.982853</v>
       </c>
       <c r="C79" t="n">
-        <v>0.731621</v>
+        <v>0.872526</v>
       </c>
       <c r="D79" t="n">
-        <v>0.61193</v>
+        <v>0.7275430000000001</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.893976</v>
+        <v>1.01833</v>
       </c>
       <c r="C80" t="n">
-        <v>0.763669</v>
+        <v>0.874254</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6709889999999999</v>
+        <v>0.761347</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.930659</v>
+        <v>1.08322</v>
       </c>
       <c r="C81" t="n">
-        <v>0.78956</v>
+        <v>0.9118270000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.684355</v>
+        <v>0.783762</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.933908</v>
+        <v>1.11584</v>
       </c>
       <c r="C82" t="n">
-        <v>0.778081</v>
+        <v>0.9348959999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.724002</v>
+        <v>0.800945</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.01953</v>
+        <v>1.13587</v>
       </c>
       <c r="C83" t="n">
-        <v>0.816105</v>
+        <v>0.933708</v>
       </c>
       <c r="D83" t="n">
-        <v>0.748457</v>
+        <v>0.816833</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.899108</v>
+        <v>1.04525</v>
       </c>
       <c r="C84" t="n">
-        <v>0.837786</v>
+        <v>1.01635</v>
       </c>
       <c r="D84" t="n">
-        <v>0.741516</v>
+        <v>0.884971</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.908508</v>
+        <v>1.07167</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8684190000000001</v>
+        <v>1.00909</v>
       </c>
       <c r="D85" t="n">
-        <v>0.761623</v>
+        <v>0.89255</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.912749</v>
+        <v>1.08664</v>
       </c>
       <c r="C86" t="n">
-        <v>0.863341</v>
+        <v>1.05492</v>
       </c>
       <c r="D86" t="n">
-        <v>0.765193</v>
+        <v>0.892723</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.0078</v>
+        <v>1.11394</v>
       </c>
       <c r="C87" t="n">
-        <v>0.972411</v>
+        <v>1.0789</v>
       </c>
       <c r="D87" t="n">
-        <v>0.771756</v>
+        <v>0.938435</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9915</v>
+        <v>1.13977</v>
       </c>
       <c r="C88" t="n">
-        <v>0.961583</v>
+        <v>1.09571</v>
       </c>
       <c r="D88" t="n">
-        <v>0.78656</v>
+        <v>0.9700800000000001</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.04124</v>
+        <v>1.16993</v>
       </c>
       <c r="C89" t="n">
-        <v>1.02434</v>
+        <v>1.13229</v>
       </c>
       <c r="D89" t="n">
-        <v>0.804298</v>
+        <v>0.966512</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.07273</v>
+        <v>1.18932</v>
       </c>
       <c r="C90" t="n">
-        <v>1.02657</v>
+        <v>1.13439</v>
       </c>
       <c r="D90" t="n">
-        <v>0.829327</v>
+        <v>0.955336</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.09413</v>
+        <v>1.22265</v>
       </c>
       <c r="C91" t="n">
-        <v>1.02783</v>
+        <v>1.17862</v>
       </c>
       <c r="D91" t="n">
-        <v>0.858789</v>
+        <v>1.00591</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.12386</v>
+        <v>1.26045</v>
       </c>
       <c r="C92" t="n">
-        <v>0.948856</v>
+        <v>1.0663</v>
       </c>
       <c r="D92" t="n">
-        <v>0.872082</v>
+        <v>0.992053</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.15607</v>
+        <v>1.28344</v>
       </c>
       <c r="C93" t="n">
-        <v>0.982504</v>
+        <v>1.12423</v>
       </c>
       <c r="D93" t="n">
-        <v>0.888671</v>
+        <v>1.0024</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.14188</v>
+        <v>1.27406</v>
       </c>
       <c r="C94" t="n">
-        <v>1.00824</v>
+        <v>1.10301</v>
       </c>
       <c r="D94" t="n">
-        <v>0.900805</v>
+        <v>1.01283</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.19763</v>
+        <v>1.34242</v>
       </c>
       <c r="C95" t="n">
-        <v>1.05491</v>
+        <v>1.12761</v>
       </c>
       <c r="D95" t="n">
-        <v>1.00678</v>
+        <v>1.04384</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.21345</v>
+        <v>1.35688</v>
       </c>
       <c r="C96" t="n">
-        <v>1.04084</v>
+        <v>1.18541</v>
       </c>
       <c r="D96" t="n">
-        <v>0.964481</v>
+        <v>1.05886</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.26309</v>
+        <v>1.40762</v>
       </c>
       <c r="C97" t="n">
-        <v>1.07377</v>
+        <v>1.17575</v>
       </c>
       <c r="D97" t="n">
-        <v>0.953303</v>
+        <v>1.07564</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.16528</v>
+        <v>1.28686</v>
       </c>
       <c r="C98" t="n">
-        <v>1.05696</v>
+        <v>1.19146</v>
       </c>
       <c r="D98" t="n">
-        <v>0.965872</v>
+        <v>1.08206</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.14075</v>
+        <v>1.31129</v>
       </c>
       <c r="C99" t="n">
-        <v>1.12575</v>
+        <v>1.22157</v>
       </c>
       <c r="D99" t="n">
-        <v>1.00045</v>
+        <v>1.10733</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.20242</v>
+        <v>1.3005</v>
       </c>
       <c r="C100" t="n">
-        <v>1.11105</v>
+        <v>1.24939</v>
       </c>
       <c r="D100" t="n">
-        <v>0.983694</v>
+        <v>1.12835</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.16895</v>
+        <v>1.40701</v>
       </c>
       <c r="C101" t="n">
-        <v>1.12949</v>
+        <v>1.2983</v>
       </c>
       <c r="D101" t="n">
-        <v>1.04359</v>
+        <v>1.14307</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.23131</v>
+        <v>1.37649</v>
       </c>
       <c r="C102" t="n">
-        <v>1.18387</v>
+        <v>1.32585</v>
       </c>
       <c r="D102" t="n">
-        <v>1.03792</v>
+        <v>1.17354</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.25267</v>
+        <v>1.40343</v>
       </c>
       <c r="C103" t="n">
-        <v>1.21641</v>
+        <v>1.3803</v>
       </c>
       <c r="D103" t="n">
-        <v>1.05537</v>
+        <v>1.20858</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.27729</v>
+        <v>1.43709</v>
       </c>
       <c r="C104" t="n">
-        <v>1.25488</v>
+        <v>1.39963</v>
       </c>
       <c r="D104" t="n">
-        <v>1.06571</v>
+        <v>1.20052</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.29132</v>
+        <v>1.46618</v>
       </c>
       <c r="C105" t="n">
-        <v>1.2443</v>
+        <v>1.4035</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08175</v>
+        <v>1.22937</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.35501</v>
+        <v>1.44976</v>
       </c>
       <c r="C106" t="n">
-        <v>1.29717</v>
+        <v>1.45301</v>
       </c>
       <c r="D106" t="n">
-        <v>1.09987</v>
+        <v>1.28453</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.31688</v>
+        <v>1.5115</v>
       </c>
       <c r="C107" t="n">
-        <v>1.14431</v>
+        <v>1.29175</v>
       </c>
       <c r="D107" t="n">
-        <v>1.04778</v>
+        <v>1.21993</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.35615</v>
+        <v>1.52985</v>
       </c>
       <c r="C108" t="n">
-        <v>1.1637</v>
+        <v>1.33282</v>
       </c>
       <c r="D108" t="n">
-        <v>1.08059</v>
+        <v>1.21199</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.43785</v>
+        <v>1.57453</v>
       </c>
       <c r="C109" t="n">
-        <v>1.1815</v>
+        <v>1.3437</v>
       </c>
       <c r="D109" t="n">
-        <v>1.07237</v>
+        <v>1.19836</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.42039</v>
+        <v>1.59823</v>
       </c>
       <c r="C110" t="n">
-        <v>1.20891</v>
+        <v>1.33948</v>
       </c>
       <c r="D110" t="n">
-        <v>1.07657</v>
+        <v>1.24002</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.41278</v>
+        <v>1.62453</v>
       </c>
       <c r="C111" t="n">
-        <v>1.23158</v>
+        <v>1.3737</v>
       </c>
       <c r="D111" t="n">
-        <v>1.11761</v>
+        <v>1.24958</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.27636</v>
+        <v>1.45911</v>
       </c>
       <c r="C112" t="n">
-        <v>1.2399</v>
+        <v>1.40348</v>
       </c>
       <c r="D112" t="n">
-        <v>1.12028</v>
+        <v>1.26313</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.29366</v>
+        <v>1.46561</v>
       </c>
       <c r="C113" t="n">
-        <v>1.28868</v>
+        <v>1.40269</v>
       </c>
       <c r="D113" t="n">
-        <v>1.12055</v>
+        <v>1.27061</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.3341</v>
+        <v>1.4531</v>
       </c>
       <c r="C114" t="n">
-        <v>1.33701</v>
+        <v>1.46997</v>
       </c>
       <c r="D114" t="n">
-        <v>1.16378</v>
+        <v>1.31271</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.35067</v>
+        <v>1.49997</v>
       </c>
       <c r="C115" t="n">
-        <v>1.39134</v>
+        <v>1.49682</v>
       </c>
       <c r="D115" t="n">
-        <v>1.18943</v>
+        <v>1.31886</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.39476</v>
+        <v>1.51972</v>
       </c>
       <c r="C116" t="n">
-        <v>1.38397</v>
+        <v>1.50891</v>
       </c>
       <c r="D116" t="n">
-        <v>1.23617</v>
+        <v>1.32359</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.42375</v>
+        <v>1.56899</v>
       </c>
       <c r="C117" t="n">
-        <v>1.43571</v>
+        <v>1.58714</v>
       </c>
       <c r="D117" t="n">
-        <v>1.23379</v>
+        <v>1.35254</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.41205</v>
+        <v>1.57059</v>
       </c>
       <c r="C118" t="n">
-        <v>1.41965</v>
+        <v>1.58826</v>
       </c>
       <c r="D118" t="n">
-        <v>1.26056</v>
+        <v>1.41258</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.46093</v>
+        <v>1.61871</v>
       </c>
       <c r="C119" t="n">
-        <v>1.49825</v>
+        <v>1.61913</v>
       </c>
       <c r="D119" t="n">
-        <v>1.35269</v>
+        <v>1.38163</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.536455</v>
+        <v>0.575415</v>
       </c>
       <c r="C2" t="n">
-        <v>0.29702</v>
+        <v>0.298835</v>
       </c>
       <c r="D2" t="n">
-        <v>0.268011</v>
+        <v>0.251734</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.375885</v>
+        <v>0.409277</v>
       </c>
       <c r="C3" t="n">
-        <v>0.302252</v>
+        <v>0.318568</v>
       </c>
       <c r="D3" t="n">
-        <v>0.241251</v>
+        <v>0.250364</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.382856</v>
+        <v>0.418835</v>
       </c>
       <c r="C4" t="n">
-        <v>0.326789</v>
+        <v>0.326405</v>
       </c>
       <c r="D4" t="n">
-        <v>0.271438</v>
+        <v>0.261673</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.389804</v>
+        <v>0.39835</v>
       </c>
       <c r="C5" t="n">
-        <v>0.337211</v>
+        <v>0.327563</v>
       </c>
       <c r="D5" t="n">
-        <v>0.262824</v>
+        <v>0.264513</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.407747</v>
+        <v>0.413284</v>
       </c>
       <c r="C6" t="n">
-        <v>0.332762</v>
+        <v>0.338189</v>
       </c>
       <c r="D6" t="n">
-        <v>0.260147</v>
+        <v>0.259734</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.417572</v>
+        <v>0.43189</v>
       </c>
       <c r="C7" t="n">
-        <v>0.351536</v>
+        <v>0.364279</v>
       </c>
       <c r="D7" t="n">
-        <v>0.275214</v>
+        <v>0.269847</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.452427</v>
+        <v>0.447963</v>
       </c>
       <c r="C8" t="n">
-        <v>0.367328</v>
+        <v>0.377794</v>
       </c>
       <c r="D8" t="n">
-        <v>0.276685</v>
+        <v>0.276421</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.473621</v>
+        <v>0.467769</v>
       </c>
       <c r="C9" t="n">
-        <v>0.424723</v>
+        <v>0.399178</v>
       </c>
       <c r="D9" t="n">
-        <v>0.288438</v>
+        <v>0.293876</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5105769999999999</v>
+        <v>0.494298</v>
       </c>
       <c r="C10" t="n">
-        <v>0.430954</v>
+        <v>0.408946</v>
       </c>
       <c r="D10" t="n">
-        <v>0.314437</v>
+        <v>0.29867</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.502719</v>
+        <v>0.488687</v>
       </c>
       <c r="C11" t="n">
-        <v>0.311471</v>
+        <v>0.320471</v>
       </c>
       <c r="D11" t="n">
-        <v>0.242136</v>
+        <v>0.245061</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.505104</v>
+        <v>0.527074</v>
       </c>
       <c r="C12" t="n">
-        <v>0.312903</v>
+        <v>0.318394</v>
       </c>
       <c r="D12" t="n">
-        <v>0.250916</v>
+        <v>0.253081</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.550485</v>
+        <v>0.558033</v>
       </c>
       <c r="C13" t="n">
-        <v>0.333455</v>
+        <v>0.332555</v>
       </c>
       <c r="D13" t="n">
-        <v>0.269229</v>
+        <v>0.262553</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.611514</v>
+        <v>0.5525099999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.362554</v>
+        <v>0.35729</v>
       </c>
       <c r="D14" t="n">
-        <v>0.276572</v>
+        <v>0.269281</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.595171</v>
+        <v>0.582352</v>
       </c>
       <c r="C15" t="n">
-        <v>0.359773</v>
+        <v>0.365035</v>
       </c>
       <c r="D15" t="n">
-        <v>0.27491</v>
+        <v>0.267628</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.597816</v>
+        <v>0.614923</v>
       </c>
       <c r="C16" t="n">
-        <v>0.365229</v>
+        <v>0.370903</v>
       </c>
       <c r="D16" t="n">
-        <v>0.275332</v>
+        <v>0.278041</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.388797</v>
+        <v>0.390958</v>
       </c>
       <c r="C17" t="n">
-        <v>0.381455</v>
+        <v>0.385109</v>
       </c>
       <c r="D17" t="n">
-        <v>0.287427</v>
+        <v>0.295057</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.445151</v>
+        <v>0.400041</v>
       </c>
       <c r="C18" t="n">
-        <v>0.386416</v>
+        <v>0.405877</v>
       </c>
       <c r="D18" t="n">
-        <v>0.30296</v>
+        <v>0.291278</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.412832</v>
+        <v>0.42636</v>
       </c>
       <c r="C19" t="n">
-        <v>0.436946</v>
+        <v>0.416359</v>
       </c>
       <c r="D19" t="n">
-        <v>0.301665</v>
+        <v>0.309263</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.431665</v>
+        <v>0.421001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.482328</v>
+        <v>0.447468</v>
       </c>
       <c r="D20" t="n">
-        <v>0.314017</v>
+        <v>0.324416</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.469715</v>
+        <v>0.436705</v>
       </c>
       <c r="C21" t="n">
-        <v>0.44385</v>
+        <v>0.447949</v>
       </c>
       <c r="D21" t="n">
-        <v>0.357582</v>
+        <v>0.326531</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.46084</v>
+        <v>0.449454</v>
       </c>
       <c r="C22" t="n">
-        <v>0.478326</v>
+        <v>0.472872</v>
       </c>
       <c r="D22" t="n">
-        <v>0.339555</v>
+        <v>0.339482</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.476832</v>
+        <v>0.467901</v>
       </c>
       <c r="C23" t="n">
-        <v>0.487453</v>
+        <v>0.498837</v>
       </c>
       <c r="D23" t="n">
-        <v>0.356237</v>
+        <v>0.360201</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.519383</v>
+        <v>0.489148</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5231440000000001</v>
+        <v>0.50773</v>
       </c>
       <c r="D24" t="n">
-        <v>0.352429</v>
+        <v>0.37205</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5195070000000001</v>
+        <v>0.512564</v>
       </c>
       <c r="C25" t="n">
-        <v>0.565478</v>
+        <v>0.530699</v>
       </c>
       <c r="D25" t="n">
-        <v>0.366122</v>
+        <v>0.373465</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.512284</v>
+        <v>0.512243</v>
       </c>
       <c r="C26" t="n">
-        <v>0.352386</v>
+        <v>0.342495</v>
       </c>
       <c r="D26" t="n">
-        <v>0.273028</v>
+        <v>0.27298</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.539995</v>
+        <v>0.546073</v>
       </c>
       <c r="C27" t="n">
-        <v>0.347749</v>
+        <v>0.362924</v>
       </c>
       <c r="D27" t="n">
-        <v>0.293257</v>
+        <v>0.285553</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.556762</v>
+        <v>0.560673</v>
       </c>
       <c r="C28" t="n">
-        <v>0.363326</v>
+        <v>0.377846</v>
       </c>
       <c r="D28" t="n">
-        <v>0.280963</v>
+        <v>0.278926</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.58483</v>
+        <v>0.614367</v>
       </c>
       <c r="C29" t="n">
-        <v>0.371692</v>
+        <v>0.388649</v>
       </c>
       <c r="D29" t="n">
-        <v>0.283764</v>
+        <v>0.282741</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.595374</v>
+        <v>0.610662</v>
       </c>
       <c r="C30" t="n">
-        <v>0.397972</v>
+        <v>0.413742</v>
       </c>
       <c r="D30" t="n">
-        <v>0.289149</v>
+        <v>0.296421</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.625353</v>
+        <v>0.630041</v>
       </c>
       <c r="C31" t="n">
-        <v>0.407655</v>
+        <v>0.422471</v>
       </c>
       <c r="D31" t="n">
-        <v>0.313087</v>
+        <v>0.302669</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.463157</v>
+        <v>0.462491</v>
       </c>
       <c r="C32" t="n">
-        <v>0.421214</v>
+        <v>0.438325</v>
       </c>
       <c r="D32" t="n">
-        <v>0.308624</v>
+        <v>0.313653</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.484503</v>
+        <v>0.466936</v>
       </c>
       <c r="C33" t="n">
-        <v>0.43847</v>
+        <v>0.452795</v>
       </c>
       <c r="D33" t="n">
-        <v>0.32005</v>
+        <v>0.321598</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.486836</v>
+        <v>0.475021</v>
       </c>
       <c r="C34" t="n">
-        <v>0.446372</v>
+        <v>0.47174</v>
       </c>
       <c r="D34" t="n">
-        <v>0.329534</v>
+        <v>0.346274</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.506623</v>
+        <v>0.501346</v>
       </c>
       <c r="C35" t="n">
-        <v>0.478575</v>
+        <v>0.497503</v>
       </c>
       <c r="D35" t="n">
-        <v>0.360187</v>
+        <v>0.351117</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.517431</v>
+        <v>0.521624</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5015540000000001</v>
+        <v>0.53027</v>
       </c>
       <c r="D36" t="n">
-        <v>0.357983</v>
+        <v>0.370379</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.552556</v>
+        <v>0.55035</v>
       </c>
       <c r="C37" t="n">
-        <v>0.525748</v>
+        <v>0.542871</v>
       </c>
       <c r="D37" t="n">
-        <v>0.363699</v>
+        <v>0.373937</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.573604</v>
+        <v>0.590935</v>
       </c>
       <c r="C38" t="n">
-        <v>0.555751</v>
+        <v>0.577182</v>
       </c>
       <c r="D38" t="n">
-        <v>0.394843</v>
+        <v>0.409312</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.647925</v>
+        <v>0.606783</v>
       </c>
       <c r="C39" t="n">
-        <v>0.588076</v>
+        <v>0.608905</v>
       </c>
       <c r="D39" t="n">
-        <v>0.396544</v>
+        <v>0.426279</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.618187</v>
+        <v>0.634858</v>
       </c>
       <c r="C40" t="n">
-        <v>0.423778</v>
+        <v>0.443657</v>
       </c>
       <c r="D40" t="n">
-        <v>0.321077</v>
+        <v>0.342761</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.664894</v>
+        <v>0.672023</v>
       </c>
       <c r="C41" t="n">
-        <v>0.430342</v>
+        <v>0.464145</v>
       </c>
       <c r="D41" t="n">
-        <v>0.353263</v>
+        <v>0.343165</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.700911</v>
+        <v>0.701109</v>
       </c>
       <c r="C42" t="n">
-        <v>0.453366</v>
+        <v>0.479665</v>
       </c>
       <c r="D42" t="n">
-        <v>0.342762</v>
+        <v>0.361121</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.706283</v>
+        <v>0.736002</v>
       </c>
       <c r="C43" t="n">
-        <v>0.496719</v>
+        <v>0.508862</v>
       </c>
       <c r="D43" t="n">
-        <v>0.352637</v>
+        <v>0.365853</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.745848</v>
+        <v>0.782481</v>
       </c>
       <c r="C44" t="n">
-        <v>0.513815</v>
+        <v>0.545463</v>
       </c>
       <c r="D44" t="n">
-        <v>0.361861</v>
+        <v>0.393322</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.786729</v>
+        <v>0.82517</v>
       </c>
       <c r="C45" t="n">
-        <v>0.522298</v>
+        <v>0.571809</v>
       </c>
       <c r="D45" t="n">
-        <v>0.380504</v>
+        <v>0.400158</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.61947</v>
+        <v>0.613773</v>
       </c>
       <c r="C46" t="n">
-        <v>0.564128</v>
+        <v>0.603069</v>
       </c>
       <c r="D46" t="n">
-        <v>0.395097</v>
+        <v>0.428607</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.612477</v>
+        <v>0.647652</v>
       </c>
       <c r="C47" t="n">
-        <v>0.613602</v>
+        <v>0.626447</v>
       </c>
       <c r="D47" t="n">
-        <v>0.430659</v>
+        <v>0.435723</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.623481</v>
+        <v>0.688304</v>
       </c>
       <c r="C48" t="n">
-        <v>0.607088</v>
+        <v>0.650039</v>
       </c>
       <c r="D48" t="n">
-        <v>0.466862</v>
+        <v>0.456723</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.662118</v>
+        <v>0.727023</v>
       </c>
       <c r="C49" t="n">
-        <v>0.65066</v>
+        <v>0.707433</v>
       </c>
       <c r="D49" t="n">
-        <v>0.442354</v>
+        <v>0.470311</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.739559</v>
+        <v>0.728117</v>
       </c>
       <c r="C50" t="n">
-        <v>0.730928</v>
+        <v>0.726948</v>
       </c>
       <c r="D50" t="n">
-        <v>0.492681</v>
+        <v>0.482564</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.750298</v>
+        <v>0.770563</v>
       </c>
       <c r="C51" t="n">
-        <v>0.738777</v>
+        <v>0.802661</v>
       </c>
       <c r="D51" t="n">
-        <v>0.550204</v>
+        <v>0.515338</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.759821</v>
+        <v>0.809532</v>
       </c>
       <c r="C52" t="n">
-        <v>0.819545</v>
+        <v>0.8190269999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.499094</v>
+        <v>0.527682</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.805898</v>
+        <v>0.846805</v>
       </c>
       <c r="C53" t="n">
-        <v>0.802578</v>
+        <v>0.866258</v>
       </c>
       <c r="D53" t="n">
-        <v>0.521008</v>
+        <v>0.577512</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.828553</v>
+        <v>0.915364</v>
       </c>
       <c r="C54" t="n">
-        <v>0.617743</v>
+        <v>0.640908</v>
       </c>
       <c r="D54" t="n">
-        <v>0.433122</v>
+        <v>0.45507</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.905085</v>
+        <v>0.967189</v>
       </c>
       <c r="C55" t="n">
-        <v>0.653662</v>
+        <v>0.666842</v>
       </c>
       <c r="D55" t="n">
-        <v>0.441617</v>
+        <v>0.483307</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.940545</v>
+        <v>1.04397</v>
       </c>
       <c r="C56" t="n">
-        <v>0.648203</v>
+        <v>0.6880309999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.466048</v>
+        <v>0.484431</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.00979</v>
+        <v>1.06765</v>
       </c>
       <c r="C57" t="n">
-        <v>0.680612</v>
+        <v>0.740789</v>
       </c>
       <c r="D57" t="n">
-        <v>0.475566</v>
+        <v>0.500787</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.03827</v>
+        <v>1.12603</v>
       </c>
       <c r="C58" t="n">
-        <v>0.75266</v>
+        <v>0.756</v>
       </c>
       <c r="D58" t="n">
-        <v>0.547239</v>
+        <v>0.525971</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.14898</v>
+        <v>1.18106</v>
       </c>
       <c r="C59" t="n">
-        <v>0.811226</v>
+        <v>0.803929</v>
       </c>
       <c r="D59" t="n">
-        <v>0.516834</v>
+        <v>0.559914</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.807852</v>
+        <v>0.828098</v>
       </c>
       <c r="C60" t="n">
-        <v>0.815932</v>
+        <v>0.836264</v>
       </c>
       <c r="D60" t="n">
-        <v>0.529672</v>
+        <v>0.597862</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.873704</v>
+        <v>0.877864</v>
       </c>
       <c r="C61" t="n">
-        <v>0.843166</v>
+        <v>0.888441</v>
       </c>
       <c r="D61" t="n">
-        <v>0.551404</v>
+        <v>0.581674</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.882223</v>
+        <v>0.947794</v>
       </c>
       <c r="C62" t="n">
-        <v>0.874671</v>
+        <v>0.943173</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5728760000000001</v>
+        <v>0.592946</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.925836</v>
+        <v>0.991599</v>
       </c>
       <c r="C63" t="n">
-        <v>0.989473</v>
+        <v>1.00758</v>
       </c>
       <c r="D63" t="n">
-        <v>0.620583</v>
+        <v>0.616115</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.945508</v>
+        <v>1.00533</v>
       </c>
       <c r="C64" t="n">
-        <v>0.964975</v>
+        <v>1.05611</v>
       </c>
       <c r="D64" t="n">
-        <v>0.654202</v>
+        <v>0.672226</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.01294</v>
+        <v>1.12529</v>
       </c>
       <c r="C65" t="n">
-        <v>1.05412</v>
+        <v>1.13658</v>
       </c>
       <c r="D65" t="n">
-        <v>0.641742</v>
+        <v>0.70275</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.10295</v>
+        <v>1.19101</v>
       </c>
       <c r="C66" t="n">
-        <v>1.25136</v>
+        <v>1.20183</v>
       </c>
       <c r="D66" t="n">
-        <v>0.69315</v>
+        <v>0.737692</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.20023</v>
+        <v>1.25364</v>
       </c>
       <c r="C67" t="n">
-        <v>1.31754</v>
+        <v>1.31989</v>
       </c>
       <c r="D67" t="n">
-        <v>0.720553</v>
+        <v>0.766119</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.37241</v>
+        <v>1.40125</v>
       </c>
       <c r="C68" t="n">
-        <v>0.820522</v>
+        <v>0.830232</v>
       </c>
       <c r="D68" t="n">
-        <v>0.558359</v>
+        <v>0.5747100000000001</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.44029</v>
+        <v>1.4464</v>
       </c>
       <c r="C69" t="n">
-        <v>0.872281</v>
+        <v>0.885861</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5751270000000001</v>
+        <v>0.593898</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.59978</v>
+        <v>1.55128</v>
       </c>
       <c r="C70" t="n">
-        <v>0.92919</v>
+        <v>0.939739</v>
       </c>
       <c r="D70" t="n">
-        <v>0.600753</v>
+        <v>0.6229440000000001</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.73145</v>
+        <v>1.70425</v>
       </c>
       <c r="C71" t="n">
-        <v>1.00743</v>
+        <v>0.995561</v>
       </c>
       <c r="D71" t="n">
-        <v>0.680607</v>
+        <v>0.668109</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.78708</v>
+        <v>1.76762</v>
       </c>
       <c r="C72" t="n">
-        <v>1.11976</v>
+        <v>1.08767</v>
       </c>
       <c r="D72" t="n">
-        <v>0.697332</v>
+        <v>0.689406</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.78145</v>
+        <v>1.93886</v>
       </c>
       <c r="C73" t="n">
-        <v>1.11194</v>
+        <v>1.13874</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7017099999999999</v>
+        <v>0.703642</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.2518</v>
+        <v>1.25079</v>
       </c>
       <c r="C74" t="n">
-        <v>1.2014</v>
+        <v>1.18019</v>
       </c>
       <c r="D74" t="n">
-        <v>0.748577</v>
+        <v>0.738221</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.26324</v>
+        <v>1.34196</v>
       </c>
       <c r="C75" t="n">
-        <v>1.33581</v>
+        <v>1.28289</v>
       </c>
       <c r="D75" t="n">
-        <v>0.740721</v>
+        <v>0.813211</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.38431</v>
+        <v>1.45314</v>
       </c>
       <c r="C76" t="n">
-        <v>1.3704</v>
+        <v>1.41297</v>
       </c>
       <c r="D76" t="n">
-        <v>0.822182</v>
+        <v>0.84519</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.46192</v>
+        <v>1.56128</v>
       </c>
       <c r="C77" t="n">
-        <v>1.65905</v>
+        <v>1.50439</v>
       </c>
       <c r="D77" t="n">
-        <v>0.866466</v>
+        <v>0.895572</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.73432</v>
+        <v>1.59415</v>
       </c>
       <c r="C78" t="n">
-        <v>1.72273</v>
+        <v>1.67065</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8708360000000001</v>
+        <v>0.9565090000000001</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.68262</v>
+        <v>1.70327</v>
       </c>
       <c r="C79" t="n">
-        <v>1.7131</v>
+        <v>1.74527</v>
       </c>
       <c r="D79" t="n">
-        <v>1.0005</v>
+        <v>1.02013</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.75916</v>
+        <v>1.83565</v>
       </c>
       <c r="C80" t="n">
-        <v>1.86295</v>
+        <v>1.91949</v>
       </c>
       <c r="D80" t="n">
-        <v>1.03735</v>
+        <v>1.05651</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.86175</v>
+        <v>1.9307</v>
       </c>
       <c r="C81" t="n">
-        <v>2.01008</v>
+        <v>2.04606</v>
       </c>
       <c r="D81" t="n">
-        <v>1.14444</v>
+        <v>1.14956</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.02754</v>
+        <v>2.0617</v>
       </c>
       <c r="C82" t="n">
-        <v>2.1574</v>
+        <v>2.15768</v>
       </c>
       <c r="D82" t="n">
-        <v>1.16098</v>
+        <v>1.28107</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.09307</v>
+        <v>2.22104</v>
       </c>
       <c r="C83" t="n">
-        <v>1.50106</v>
+        <v>1.58121</v>
       </c>
       <c r="D83" t="n">
-        <v>0.892896</v>
+        <v>1.01708</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.19569</v>
+        <v>2.33493</v>
       </c>
       <c r="C84" t="n">
-        <v>1.55683</v>
+        <v>1.67219</v>
       </c>
       <c r="D84" t="n">
-        <v>0.980331</v>
+        <v>1.01115</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.25436</v>
+        <v>2.42672</v>
       </c>
       <c r="C85" t="n">
-        <v>1.63983</v>
+        <v>1.73482</v>
       </c>
       <c r="D85" t="n">
-        <v>0.956106</v>
+        <v>1.05668</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.35003</v>
+        <v>2.54861</v>
       </c>
       <c r="C86" t="n">
-        <v>1.7551</v>
+        <v>1.8441</v>
       </c>
       <c r="D86" t="n">
-        <v>1.05523</v>
+        <v>1.0924</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.54608</v>
+        <v>2.67526</v>
       </c>
       <c r="C87" t="n">
-        <v>1.78511</v>
+        <v>1.88131</v>
       </c>
       <c r="D87" t="n">
-        <v>1.14504</v>
+        <v>1.19323</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.74972</v>
+        <v>2.84943</v>
       </c>
       <c r="C88" t="n">
-        <v>1.99368</v>
+        <v>2.01648</v>
       </c>
       <c r="D88" t="n">
-        <v>1.16832</v>
+        <v>1.22921</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.77431</v>
+        <v>1.90669</v>
       </c>
       <c r="C89" t="n">
-        <v>2.06363</v>
+        <v>2.13643</v>
       </c>
       <c r="D89" t="n">
-        <v>1.24006</v>
+        <v>1.2904</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.93391</v>
+        <v>2.02242</v>
       </c>
       <c r="C90" t="n">
-        <v>2.16193</v>
+        <v>2.28151</v>
       </c>
       <c r="D90" t="n">
-        <v>1.25846</v>
+        <v>1.34926</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.95523</v>
+        <v>2.11299</v>
       </c>
       <c r="C91" t="n">
-        <v>2.32052</v>
+        <v>2.43669</v>
       </c>
       <c r="D91" t="n">
-        <v>1.38553</v>
+        <v>1.45487</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.0532</v>
+        <v>2.16797</v>
       </c>
       <c r="C92" t="n">
-        <v>2.4467</v>
+        <v>2.53747</v>
       </c>
       <c r="D92" t="n">
-        <v>1.47507</v>
+        <v>1.48653</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.17848</v>
+        <v>2.29186</v>
       </c>
       <c r="C93" t="n">
-        <v>2.42706</v>
+        <v>2.64015</v>
       </c>
       <c r="D93" t="n">
-        <v>1.41047</v>
+        <v>1.51379</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.25648</v>
+        <v>2.30528</v>
       </c>
       <c r="C94" t="n">
-        <v>2.63236</v>
+        <v>2.82401</v>
       </c>
       <c r="D94" t="n">
-        <v>1.52592</v>
+        <v>1.62531</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.29814</v>
+        <v>2.47343</v>
       </c>
       <c r="C95" t="n">
-        <v>2.77527</v>
+        <v>2.8936</v>
       </c>
       <c r="D95" t="n">
-        <v>1.62592</v>
+        <v>1.6903</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.41732</v>
+        <v>2.57289</v>
       </c>
       <c r="C96" t="n">
-        <v>2.85895</v>
+        <v>3.1296</v>
       </c>
       <c r="D96" t="n">
-        <v>1.69852</v>
+        <v>1.78139</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.62923</v>
+        <v>2.72691</v>
       </c>
       <c r="C97" t="n">
-        <v>2.02834</v>
+        <v>1.96654</v>
       </c>
       <c r="D97" t="n">
-        <v>1.30468</v>
+        <v>1.33525</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.62682</v>
+        <v>2.86981</v>
       </c>
       <c r="C98" t="n">
-        <v>1.9149</v>
+        <v>2.04562</v>
       </c>
       <c r="D98" t="n">
-        <v>1.34594</v>
+        <v>1.38639</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.78061</v>
+        <v>2.99824</v>
       </c>
       <c r="C99" t="n">
-        <v>2.00428</v>
+        <v>2.09294</v>
       </c>
       <c r="D99" t="n">
-        <v>1.42851</v>
+        <v>1.43611</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>2.869</v>
+        <v>3.10372</v>
       </c>
       <c r="C100" t="n">
-        <v>2.12686</v>
+        <v>2.17418</v>
       </c>
       <c r="D100" t="n">
-        <v>1.38881</v>
+        <v>1.47747</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.07716</v>
+        <v>3.17543</v>
       </c>
       <c r="C101" t="n">
-        <v>2.14944</v>
+        <v>2.31457</v>
       </c>
       <c r="D101" t="n">
-        <v>1.44192</v>
+        <v>1.50182</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.1702</v>
+        <v>3.43747</v>
       </c>
       <c r="C102" t="n">
-        <v>2.24983</v>
+        <v>2.36103</v>
       </c>
       <c r="D102" t="n">
-        <v>1.44716</v>
+        <v>1.56133</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.14135</v>
+        <v>2.28086</v>
       </c>
       <c r="C103" t="n">
-        <v>2.30913</v>
+        <v>2.48035</v>
       </c>
       <c r="D103" t="n">
-        <v>1.55904</v>
+        <v>1.58974</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.15759</v>
+        <v>2.34979</v>
       </c>
       <c r="C104" t="n">
-        <v>2.49535</v>
+        <v>2.56452</v>
       </c>
       <c r="D104" t="n">
-        <v>1.56849</v>
+        <v>1.65412</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.31673</v>
+        <v>2.42099</v>
       </c>
       <c r="C105" t="n">
-        <v>2.49392</v>
+        <v>2.69566</v>
       </c>
       <c r="D105" t="n">
-        <v>1.61767</v>
+        <v>1.7369</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.40651</v>
+        <v>2.4671</v>
       </c>
       <c r="C106" t="n">
-        <v>2.71185</v>
+        <v>2.87982</v>
       </c>
       <c r="D106" t="n">
-        <v>1.71269</v>
+        <v>1.736</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.40486</v>
+        <v>2.63009</v>
       </c>
       <c r="C107" t="n">
-        <v>2.74502</v>
+        <v>2.90352</v>
       </c>
       <c r="D107" t="n">
-        <v>1.69424</v>
+        <v>1.80524</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.55083</v>
+        <v>2.68663</v>
       </c>
       <c r="C108" t="n">
-        <v>2.8883</v>
+        <v>3.04311</v>
       </c>
       <c r="D108" t="n">
-        <v>1.80037</v>
+        <v>1.86696</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.63607</v>
+        <v>2.80704</v>
       </c>
       <c r="C109" t="n">
-        <v>3.11259</v>
+        <v>3.15244</v>
       </c>
       <c r="D109" t="n">
-        <v>1.85169</v>
+        <v>1.98944</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.69851</v>
+        <v>2.96937</v>
       </c>
       <c r="C110" t="n">
-        <v>3.13304</v>
+        <v>3.35074</v>
       </c>
       <c r="D110" t="n">
-        <v>1.91884</v>
+        <v>2.08442</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.78742</v>
+        <v>2.98615</v>
       </c>
       <c r="C111" t="n">
-        <v>2.03283</v>
+        <v>2.21099</v>
       </c>
       <c r="D111" t="n">
-        <v>1.43774</v>
+        <v>1.60086</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>2.88911</v>
+        <v>3.15049</v>
       </c>
       <c r="C112" t="n">
-        <v>2.08958</v>
+        <v>2.30657</v>
       </c>
       <c r="D112" t="n">
-        <v>1.50555</v>
+        <v>1.63623</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>2.98652</v>
+        <v>3.25693</v>
       </c>
       <c r="C113" t="n">
-        <v>2.23466</v>
+        <v>2.38691</v>
       </c>
       <c r="D113" t="n">
-        <v>1.56616</v>
+        <v>1.66463</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.16695</v>
+        <v>3.40966</v>
       </c>
       <c r="C114" t="n">
-        <v>2.25126</v>
+        <v>2.44815</v>
       </c>
       <c r="D114" t="n">
-        <v>1.59117</v>
+        <v>1.71656</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.23347</v>
+        <v>3.47967</v>
       </c>
       <c r="C115" t="n">
-        <v>2.35882</v>
+        <v>2.52305</v>
       </c>
       <c r="D115" t="n">
-        <v>1.64425</v>
+        <v>1.76956</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.42442</v>
+        <v>3.65967</v>
       </c>
       <c r="C116" t="n">
-        <v>2.44821</v>
+        <v>2.63276</v>
       </c>
       <c r="D116" t="n">
-        <v>1.66279</v>
+        <v>1.82768</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.23713</v>
+        <v>2.45221</v>
       </c>
       <c r="C117" t="n">
-        <v>2.54972</v>
+        <v>2.7608</v>
       </c>
       <c r="D117" t="n">
-        <v>1.73381</v>
+        <v>1.87293</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.31143</v>
+        <v>2.56359</v>
       </c>
       <c r="C118" t="n">
-        <v>2.6285</v>
+        <v>2.84437</v>
       </c>
       <c r="D118" t="n">
-        <v>1.75129</v>
+        <v>1.94621</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.36836</v>
+        <v>2.64825</v>
       </c>
       <c r="C119" t="n">
-        <v>2.73891</v>
+        <v>2.99331</v>
       </c>
       <c r="D119" t="n">
-        <v>1.7457</v>
+        <v>2.04137</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered successful looukp.xlsx
+++ b/vs/scattered successful looukp.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.224763</v>
+        <v>0.220084</v>
       </c>
       <c r="C2" t="n">
-        <v>0.208828</v>
+        <v>0.189306</v>
       </c>
       <c r="D2" t="n">
-        <v>0.223084</v>
+        <v>0.212374</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.237155</v>
+        <v>0.213727</v>
       </c>
       <c r="C3" t="n">
-        <v>0.206511</v>
+        <v>0.195395</v>
       </c>
       <c r="D3" t="n">
-        <v>0.222915</v>
+        <v>0.216158</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.235387</v>
+        <v>0.217396</v>
       </c>
       <c r="C4" t="n">
-        <v>0.218729</v>
+        <v>0.208067</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22727</v>
+        <v>0.222774</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.239319</v>
+        <v>0.224437</v>
       </c>
       <c r="C5" t="n">
-        <v>0.217141</v>
+        <v>0.208842</v>
       </c>
       <c r="D5" t="n">
-        <v>0.235295</v>
+        <v>0.237584</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.244058</v>
+        <v>0.233023</v>
       </c>
       <c r="C6" t="n">
-        <v>0.219145</v>
+        <v>0.210313</v>
       </c>
       <c r="D6" t="n">
-        <v>0.236655</v>
+        <v>0.230609</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.245849</v>
+        <v>0.236713</v>
       </c>
       <c r="C7" t="n">
-        <v>0.190334</v>
+        <v>0.178658</v>
       </c>
       <c r="D7" t="n">
-        <v>0.212797</v>
+        <v>0.198947</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.248449</v>
+        <v>0.236816</v>
       </c>
       <c r="C8" t="n">
-        <v>0.193059</v>
+        <v>0.185855</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210389</v>
+        <v>0.195139</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.249173</v>
+        <v>0.242966</v>
       </c>
       <c r="C9" t="n">
-        <v>0.197806</v>
+        <v>0.186413</v>
       </c>
       <c r="D9" t="n">
-        <v>0.211234</v>
+        <v>0.210985</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.249718</v>
+        <v>0.254797</v>
       </c>
       <c r="C10" t="n">
-        <v>0.194319</v>
+        <v>0.183859</v>
       </c>
       <c r="D10" t="n">
-        <v>0.226876</v>
+        <v>0.20488</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.285844</v>
+        <v>0.248802</v>
       </c>
       <c r="C11" t="n">
-        <v>0.215944</v>
+        <v>0.188443</v>
       </c>
       <c r="D11" t="n">
-        <v>0.23708</v>
+        <v>0.210228</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.27379</v>
+        <v>0.252659</v>
       </c>
       <c r="C12" t="n">
-        <v>0.210275</v>
+        <v>0.192827</v>
       </c>
       <c r="D12" t="n">
-        <v>0.239049</v>
+        <v>0.216783</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.241731</v>
+        <v>0.214893</v>
       </c>
       <c r="C13" t="n">
-        <v>0.221205</v>
+        <v>0.195243</v>
       </c>
       <c r="D13" t="n">
-        <v>0.245521</v>
+        <v>0.220548</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.242636</v>
+        <v>0.21735</v>
       </c>
       <c r="C14" t="n">
-        <v>0.227641</v>
+        <v>0.201799</v>
       </c>
       <c r="D14" t="n">
-        <v>0.249634</v>
+        <v>0.216311</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.250385</v>
+        <v>0.222886</v>
       </c>
       <c r="C15" t="n">
-        <v>0.224147</v>
+        <v>0.206178</v>
       </c>
       <c r="D15" t="n">
-        <v>0.24624</v>
+        <v>0.228009</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.252389</v>
+        <v>0.226568</v>
       </c>
       <c r="C16" t="n">
-        <v>0.219882</v>
+        <v>0.203375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.240349</v>
+        <v>0.231416</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.245917</v>
+        <v>0.234014</v>
       </c>
       <c r="C17" t="n">
-        <v>0.222434</v>
+        <v>0.211628</v>
       </c>
       <c r="D17" t="n">
-        <v>0.245022</v>
+        <v>0.239541</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.240752</v>
+        <v>0.233173</v>
       </c>
       <c r="C18" t="n">
-        <v>0.215447</v>
+        <v>0.210565</v>
       </c>
       <c r="D18" t="n">
-        <v>0.240631</v>
+        <v>0.240252</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.246144</v>
+        <v>0.24116</v>
       </c>
       <c r="C19" t="n">
-        <v>0.224952</v>
+        <v>0.2182</v>
       </c>
       <c r="D19" t="n">
-        <v>0.251984</v>
+        <v>0.24377</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.245079</v>
+        <v>0.24721</v>
       </c>
       <c r="C20" t="n">
-        <v>0.220733</v>
+        <v>0.225781</v>
       </c>
       <c r="D20" t="n">
-        <v>0.24653</v>
+        <v>0.246793</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.24585</v>
+        <v>0.250581</v>
       </c>
       <c r="C21" t="n">
-        <v>0.189313</v>
+        <v>0.196587</v>
       </c>
       <c r="D21" t="n">
-        <v>0.21557</v>
+        <v>0.212692</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.256431</v>
+        <v>0.252108</v>
       </c>
       <c r="C22" t="n">
-        <v>0.191956</v>
+        <v>0.195981</v>
       </c>
       <c r="D22" t="n">
-        <v>0.219176</v>
+        <v>0.219146</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.264488</v>
+        <v>0.267706</v>
       </c>
       <c r="C23" t="n">
-        <v>0.196242</v>
+        <v>0.199178</v>
       </c>
       <c r="D23" t="n">
-        <v>0.229445</v>
+        <v>0.219348</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.26659</v>
+        <v>0.261323</v>
       </c>
       <c r="C24" t="n">
-        <v>0.206556</v>
+        <v>0.207764</v>
       </c>
       <c r="D24" t="n">
-        <v>0.22601</v>
+        <v>0.225602</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.270386</v>
+        <v>0.26274</v>
       </c>
       <c r="C25" t="n">
-        <v>0.202757</v>
+        <v>0.206892</v>
       </c>
       <c r="D25" t="n">
-        <v>0.228653</v>
+        <v>0.225757</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.26329</v>
+        <v>0.270016</v>
       </c>
       <c r="C26" t="n">
-        <v>0.213405</v>
+        <v>0.206036</v>
       </c>
       <c r="D26" t="n">
-        <v>0.230356</v>
+        <v>0.227898</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.243894</v>
+        <v>0.227485</v>
       </c>
       <c r="C27" t="n">
-        <v>0.214046</v>
+        <v>0.204952</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2342</v>
+        <v>0.226691</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.237133</v>
+        <v>0.231393</v>
       </c>
       <c r="C28" t="n">
-        <v>0.222645</v>
+        <v>0.21213</v>
       </c>
       <c r="D28" t="n">
-        <v>0.239305</v>
+        <v>0.235592</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.243526</v>
+        <v>0.244879</v>
       </c>
       <c r="C29" t="n">
-        <v>0.217014</v>
+        <v>0.220094</v>
       </c>
       <c r="D29" t="n">
-        <v>0.244343</v>
+        <v>0.2467</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.247419</v>
+        <v>0.254986</v>
       </c>
       <c r="C30" t="n">
-        <v>0.225734</v>
+        <v>0.223319</v>
       </c>
       <c r="D30" t="n">
-        <v>0.255233</v>
+        <v>0.247272</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.253715</v>
+        <v>0.254651</v>
       </c>
       <c r="C31" t="n">
-        <v>0.229324</v>
+        <v>0.227018</v>
       </c>
       <c r="D31" t="n">
-        <v>0.254523</v>
+        <v>0.250332</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.258877</v>
+        <v>0.254771</v>
       </c>
       <c r="C32" t="n">
-        <v>0.231699</v>
+        <v>0.230799</v>
       </c>
       <c r="D32" t="n">
-        <v>0.26706</v>
+        <v>0.25205</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.264018</v>
+        <v>0.257906</v>
       </c>
       <c r="C33" t="n">
-        <v>0.240204</v>
+        <v>0.241281</v>
       </c>
       <c r="D33" t="n">
-        <v>0.264172</v>
+        <v>0.263916</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.272666</v>
+        <v>0.264727</v>
       </c>
       <c r="C34" t="n">
-        <v>0.249342</v>
+        <v>0.237431</v>
       </c>
       <c r="D34" t="n">
-        <v>0.27444</v>
+        <v>0.262833</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.273879</v>
+        <v>0.277917</v>
       </c>
       <c r="C35" t="n">
-        <v>0.220476</v>
+        <v>0.219635</v>
       </c>
       <c r="D35" t="n">
-        <v>0.234753</v>
+        <v>0.230114</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.288521</v>
+        <v>0.277417</v>
       </c>
       <c r="C36" t="n">
-        <v>0.226406</v>
+        <v>0.21638</v>
       </c>
       <c r="D36" t="n">
-        <v>0.249166</v>
+        <v>0.23835</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.293341</v>
+        <v>0.284377</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232205</v>
+        <v>0.233678</v>
       </c>
       <c r="D37" t="n">
-        <v>0.246523</v>
+        <v>0.246656</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.304177</v>
+        <v>0.311261</v>
       </c>
       <c r="C38" t="n">
-        <v>0.235602</v>
+        <v>0.231732</v>
       </c>
       <c r="D38" t="n">
-        <v>0.249462</v>
+        <v>0.257718</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.30953</v>
+        <v>0.300615</v>
       </c>
       <c r="C39" t="n">
-        <v>0.237174</v>
+        <v>0.230859</v>
       </c>
       <c r="D39" t="n">
-        <v>0.264608</v>
+        <v>0.253367</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.315665</v>
+        <v>0.313204</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254982</v>
+        <v>0.241304</v>
       </c>
       <c r="D40" t="n">
-        <v>0.263537</v>
+        <v>0.265323</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.314516</v>
+        <v>0.305986</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251297</v>
+        <v>0.245389</v>
       </c>
       <c r="D41" t="n">
-        <v>0.270618</v>
+        <v>0.262663</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.323398</v>
+        <v>0.312532</v>
       </c>
       <c r="C42" t="n">
-        <v>0.254956</v>
+        <v>0.252377</v>
       </c>
       <c r="D42" t="n">
-        <v>0.276675</v>
+        <v>0.276274</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.32982</v>
+        <v>0.312568</v>
       </c>
       <c r="C43" t="n">
-        <v>0.260252</v>
+        <v>0.249959</v>
       </c>
       <c r="D43" t="n">
-        <v>0.289563</v>
+        <v>0.270068</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.351494</v>
+        <v>0.342528</v>
       </c>
       <c r="C44" t="n">
-        <v>0.278647</v>
+        <v>0.265921</v>
       </c>
       <c r="D44" t="n">
-        <v>0.301869</v>
+        <v>0.29057</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.352585</v>
+        <v>0.352151</v>
       </c>
       <c r="C45" t="n">
-        <v>0.279694</v>
+        <v>0.270167</v>
       </c>
       <c r="D45" t="n">
-        <v>0.29963</v>
+        <v>0.298311</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.374551</v>
+        <v>0.347238</v>
       </c>
       <c r="C46" t="n">
-        <v>0.282015</v>
+        <v>0.280961</v>
       </c>
       <c r="D46" t="n">
-        <v>0.304999</v>
+        <v>0.304971</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.380064</v>
+        <v>0.356237</v>
       </c>
       <c r="C47" t="n">
-        <v>0.293636</v>
+        <v>0.283046</v>
       </c>
       <c r="D47" t="n">
-        <v>0.326326</v>
+        <v>0.304779</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.404983</v>
+        <v>0.364965</v>
       </c>
       <c r="C48" t="n">
-        <v>0.300692</v>
+        <v>0.290923</v>
       </c>
       <c r="D48" t="n">
-        <v>0.330715</v>
+        <v>0.322925</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.390854</v>
+        <v>0.369513</v>
       </c>
       <c r="C49" t="n">
-        <v>0.31366</v>
+        <v>0.302915</v>
       </c>
       <c r="D49" t="n">
-        <v>0.344084</v>
+        <v>0.32353</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.42508</v>
+        <v>0.391185</v>
       </c>
       <c r="C50" t="n">
-        <v>0.308457</v>
+        <v>0.295739</v>
       </c>
       <c r="D50" t="n">
-        <v>0.340165</v>
+        <v>0.292801</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.428947</v>
+        <v>0.399187</v>
       </c>
       <c r="C51" t="n">
-        <v>0.327234</v>
+        <v>0.295151</v>
       </c>
       <c r="D51" t="n">
-        <v>0.335107</v>
+        <v>0.306182</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.456705</v>
+        <v>0.416491</v>
       </c>
       <c r="C52" t="n">
-        <v>0.329412</v>
+        <v>0.311232</v>
       </c>
       <c r="D52" t="n">
-        <v>0.330906</v>
+        <v>0.312109</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.471537</v>
+        <v>0.425958</v>
       </c>
       <c r="C53" t="n">
-        <v>0.331276</v>
+        <v>0.311354</v>
       </c>
       <c r="D53" t="n">
-        <v>0.341742</v>
+        <v>0.322936</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.468499</v>
+        <v>0.438448</v>
       </c>
       <c r="C54" t="n">
-        <v>0.351625</v>
+        <v>0.319112</v>
       </c>
       <c r="D54" t="n">
-        <v>0.370502</v>
+        <v>0.346761</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.498867</v>
+        <v>0.475307</v>
       </c>
       <c r="C55" t="n">
-        <v>0.357151</v>
+        <v>0.333504</v>
       </c>
       <c r="D55" t="n">
-        <v>0.394927</v>
+        <v>0.356907</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.539228</v>
+        <v>0.562772</v>
       </c>
       <c r="C56" t="n">
-        <v>0.370019</v>
+        <v>0.350915</v>
       </c>
       <c r="D56" t="n">
-        <v>0.40095</v>
+        <v>0.366224</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.560694</v>
+        <v>0.548812</v>
       </c>
       <c r="C57" t="n">
-        <v>0.392903</v>
+        <v>0.372396</v>
       </c>
       <c r="D57" t="n">
-        <v>0.410048</v>
+        <v>0.374609</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5664169999999999</v>
+        <v>0.527019</v>
       </c>
       <c r="C58" t="n">
-        <v>0.388062</v>
+        <v>0.382331</v>
       </c>
       <c r="D58" t="n">
-        <v>0.397414</v>
+        <v>0.394183</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.585141</v>
+        <v>0.5797099999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.420853</v>
+        <v>0.404844</v>
       </c>
       <c r="D59" t="n">
-        <v>0.417337</v>
+        <v>0.428532</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.63754</v>
+        <v>0.5771810000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.437167</v>
+        <v>0.40355</v>
       </c>
       <c r="D60" t="n">
-        <v>0.446777</v>
+        <v>0.421726</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.630708</v>
+        <v>0.586798</v>
       </c>
       <c r="C61" t="n">
-        <v>0.449237</v>
+        <v>0.418424</v>
       </c>
       <c r="D61" t="n">
-        <v>0.448593</v>
+        <v>0.437338</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.643331</v>
+        <v>0.622736</v>
       </c>
       <c r="C62" t="n">
-        <v>0.482804</v>
+        <v>0.429452</v>
       </c>
       <c r="D62" t="n">
-        <v>0.483436</v>
+        <v>0.471949</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.667893</v>
+        <v>0.604626</v>
       </c>
       <c r="C63" t="n">
-        <v>0.486643</v>
+        <v>0.452907</v>
       </c>
       <c r="D63" t="n">
-        <v>0.502176</v>
+        <v>0.47908</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.693395</v>
+        <v>0.62871</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5218120000000001</v>
+        <v>0.5096850000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.538148</v>
+        <v>0.537857</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.69212</v>
+        <v>0.692895</v>
       </c>
       <c r="C65" t="n">
-        <v>0.53764</v>
+        <v>0.538732</v>
       </c>
       <c r="D65" t="n">
-        <v>0.555904</v>
+        <v>0.563034</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.737395</v>
+        <v>0.741169</v>
       </c>
       <c r="C66" t="n">
-        <v>0.553054</v>
+        <v>0.583994</v>
       </c>
       <c r="D66" t="n">
-        <v>0.601555</v>
+        <v>0.569116</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7523919999999999</v>
+        <v>0.72542</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5855590000000001</v>
+        <v>0.522311</v>
       </c>
       <c r="D67" t="n">
-        <v>0.584064</v>
+        <v>0.548314</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.780015</v>
+        <v>0.740438</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5775979999999999</v>
+        <v>0.539141</v>
       </c>
       <c r="D68" t="n">
-        <v>0.612573</v>
+        <v>0.594617</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.809504</v>
+        <v>0.770077</v>
       </c>
       <c r="C69" t="n">
-        <v>0.589637</v>
+        <v>0.598285</v>
       </c>
       <c r="D69" t="n">
-        <v>0.615974</v>
+        <v>0.620165</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.776044</v>
+        <v>0.816827</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5988059999999999</v>
+        <v>0.590315</v>
       </c>
       <c r="D70" t="n">
-        <v>0.628727</v>
+        <v>0.619167</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.808069</v>
+        <v>0.77045</v>
       </c>
       <c r="C71" t="n">
-        <v>0.670082</v>
+        <v>0.642192</v>
       </c>
       <c r="D71" t="n">
-        <v>0.655146</v>
+        <v>0.667618</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.807149</v>
+        <v>0.8337639999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6470860000000001</v>
+        <v>0.636643</v>
       </c>
       <c r="D72" t="n">
-        <v>0.68438</v>
+        <v>0.6616880000000001</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.846251</v>
+        <v>0.811948</v>
       </c>
       <c r="C73" t="n">
-        <v>0.653918</v>
+        <v>0.663063</v>
       </c>
       <c r="D73" t="n">
-        <v>0.701197</v>
+        <v>0.681907</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.84779</v>
+        <v>0.863113</v>
       </c>
       <c r="C74" t="n">
-        <v>0.699255</v>
+        <v>0.681081</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7349599999999999</v>
+        <v>0.733486</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.868005</v>
+        <v>0.847059</v>
       </c>
       <c r="C75" t="n">
-        <v>0.738935</v>
+        <v>0.698453</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7519709999999999</v>
+        <v>0.7260760000000001</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.889453</v>
+        <v>0.884365</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7451989999999999</v>
+        <v>0.738784</v>
       </c>
       <c r="D76" t="n">
-        <v>0.774608</v>
+        <v>0.747945</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.899195</v>
+        <v>0.901064</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7722560000000001</v>
+        <v>0.752638</v>
       </c>
       <c r="D77" t="n">
-        <v>0.772319</v>
+        <v>0.776446</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.925258</v>
+        <v>0.935854</v>
       </c>
       <c r="C78" t="n">
-        <v>0.770783</v>
+        <v>0.754848</v>
       </c>
       <c r="D78" t="n">
-        <v>0.774149</v>
+        <v>0.76139</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.948366</v>
+        <v>0.915129</v>
       </c>
       <c r="C79" t="n">
-        <v>0.758112</v>
+        <v>0.747411</v>
       </c>
       <c r="D79" t="n">
-        <v>0.799397</v>
+        <v>0.798673</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9825159999999999</v>
+        <v>0.932454</v>
       </c>
       <c r="C80" t="n">
-        <v>0.778824</v>
+        <v>0.7506930000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.818099</v>
+        <v>0.814672</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9926160000000001</v>
+        <v>0.946559</v>
       </c>
       <c r="C81" t="n">
-        <v>0.755704</v>
+        <v>0.7700669999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.851308</v>
+        <v>0.796362</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.988939</v>
+        <v>0.973154</v>
       </c>
       <c r="C82" t="n">
-        <v>0.849679</v>
+        <v>0.768333</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8677319999999999</v>
+        <v>0.823754</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.00212</v>
+        <v>0.986515</v>
       </c>
       <c r="C83" t="n">
-        <v>0.827523</v>
+        <v>0.817313</v>
       </c>
       <c r="D83" t="n">
-        <v>0.861542</v>
+        <v>0.822141</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.93736</v>
+        <v>0.929908</v>
       </c>
       <c r="C84" t="n">
-        <v>0.840929</v>
+        <v>0.8328680000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.888568</v>
+        <v>0.868543</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.937559</v>
+        <v>0.914526</v>
       </c>
       <c r="C85" t="n">
-        <v>0.896993</v>
+        <v>0.848774</v>
       </c>
       <c r="D85" t="n">
-        <v>0.895601</v>
+        <v>0.885177</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.944335</v>
+        <v>0.944481</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8859050000000001</v>
+        <v>0.8340959999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.924473</v>
+        <v>0.87126</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.00698</v>
+        <v>0.940923</v>
       </c>
       <c r="C87" t="n">
-        <v>0.913407</v>
+        <v>0.881324</v>
       </c>
       <c r="D87" t="n">
-        <v>0.917539</v>
+        <v>0.912053</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.00836</v>
+        <v>0.958658</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9081669999999999</v>
+        <v>0.891912</v>
       </c>
       <c r="D88" t="n">
-        <v>0.933319</v>
+        <v>0.9232089999999999</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.01204</v>
+        <v>0.973055</v>
       </c>
       <c r="C89" t="n">
-        <v>0.913204</v>
+        <v>0.880552</v>
       </c>
       <c r="D89" t="n">
-        <v>0.970702</v>
+        <v>0.925547</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.03708</v>
+        <v>1.01029</v>
       </c>
       <c r="C90" t="n">
-        <v>0.960522</v>
+        <v>0.923923</v>
       </c>
       <c r="D90" t="n">
-        <v>0.967417</v>
+        <v>0.96793</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.03117</v>
+        <v>1.02016</v>
       </c>
       <c r="C91" t="n">
-        <v>0.955268</v>
+        <v>0.936786</v>
       </c>
       <c r="D91" t="n">
-        <v>1.01896</v>
+        <v>0.976319</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.06435</v>
+        <v>1.0328</v>
       </c>
       <c r="C92" t="n">
-        <v>0.881661</v>
+        <v>0.881955</v>
       </c>
       <c r="D92" t="n">
-        <v>0.926145</v>
+        <v>0.90066</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.074</v>
+        <v>1.0405</v>
       </c>
       <c r="C93" t="n">
-        <v>0.883532</v>
+        <v>0.874027</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9466059999999999</v>
+        <v>0.93954</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.07462</v>
+        <v>1.07969</v>
       </c>
       <c r="C94" t="n">
-        <v>0.917556</v>
+        <v>0.925285</v>
       </c>
       <c r="D94" t="n">
-        <v>0.9309809999999999</v>
+        <v>0.923651</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.10967</v>
+        <v>1.07528</v>
       </c>
       <c r="C95" t="n">
-        <v>0.928512</v>
+        <v>0.907633</v>
       </c>
       <c r="D95" t="n">
-        <v>0.959687</v>
+        <v>0.9563700000000001</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.11328</v>
+        <v>1.08703</v>
       </c>
       <c r="C96" t="n">
-        <v>0.945858</v>
+        <v>0.922983</v>
       </c>
       <c r="D96" t="n">
-        <v>0.971796</v>
+        <v>0.977167</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.1238</v>
+        <v>1.13228</v>
       </c>
       <c r="C97" t="n">
-        <v>0.961268</v>
+        <v>0.939681</v>
       </c>
       <c r="D97" t="n">
-        <v>1.01465</v>
+        <v>0.960633</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.03308</v>
+        <v>0.993009</v>
       </c>
       <c r="C98" t="n">
-        <v>0.990988</v>
+        <v>0.957475</v>
       </c>
       <c r="D98" t="n">
-        <v>1.01167</v>
+        <v>0.970007</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.03012</v>
+        <v>1.01755</v>
       </c>
       <c r="C99" t="n">
-        <v>1.01055</v>
+        <v>0.95828</v>
       </c>
       <c r="D99" t="n">
-        <v>1.0426</v>
+        <v>0.9902</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.04895</v>
+        <v>1.04676</v>
       </c>
       <c r="C100" t="n">
-        <v>1.00909</v>
+        <v>1.0075</v>
       </c>
       <c r="D100" t="n">
-        <v>1.03506</v>
+        <v>1.00657</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.06483</v>
+        <v>1.03592</v>
       </c>
       <c r="C101" t="n">
-        <v>1.03683</v>
+        <v>0.998929</v>
       </c>
       <c r="D101" t="n">
-        <v>1.06155</v>
+        <v>1.03126</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.0691</v>
+        <v>1.05659</v>
       </c>
       <c r="C102" t="n">
-        <v>1.06533</v>
+        <v>1.02189</v>
       </c>
       <c r="D102" t="n">
-        <v>1.0672</v>
+        <v>1.05759</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.12077</v>
+        <v>1.0782</v>
       </c>
       <c r="C103" t="n">
-        <v>1.08567</v>
+        <v>1.03337</v>
       </c>
       <c r="D103" t="n">
-        <v>1.0958</v>
+        <v>1.09085</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.12812</v>
+        <v>1.12371</v>
       </c>
       <c r="C104" t="n">
-        <v>1.09572</v>
+        <v>1.05641</v>
       </c>
       <c r="D104" t="n">
-        <v>1.09894</v>
+        <v>1.0895</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.12786</v>
+        <v>1.09178</v>
       </c>
       <c r="C105" t="n">
-        <v>1.08734</v>
+        <v>1.08354</v>
       </c>
       <c r="D105" t="n">
-        <v>1.12416</v>
+        <v>1.10632</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.15054</v>
+        <v>1.15628</v>
       </c>
       <c r="C106" t="n">
-        <v>1.10492</v>
+        <v>1.11205</v>
       </c>
       <c r="D106" t="n">
-        <v>1.17881</v>
+        <v>1.13936</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.15476</v>
+        <v>1.15272</v>
       </c>
       <c r="C107" t="n">
-        <v>1.04153</v>
+        <v>1.01816</v>
       </c>
       <c r="D107" t="n">
-        <v>1.0504</v>
+        <v>1.0229</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.17407</v>
+        <v>1.18351</v>
       </c>
       <c r="C108" t="n">
-        <v>1.01629</v>
+        <v>1.00363</v>
       </c>
       <c r="D108" t="n">
-        <v>1.04915</v>
+        <v>1.05024</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.17924</v>
+        <v>1.1813</v>
       </c>
       <c r="C109" t="n">
-        <v>1.04231</v>
+        <v>1.02826</v>
       </c>
       <c r="D109" t="n">
-        <v>1.06385</v>
+        <v>1.06106</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.2058</v>
+        <v>1.2077</v>
       </c>
       <c r="C110" t="n">
-        <v>1.05291</v>
+        <v>1.04192</v>
       </c>
       <c r="D110" t="n">
-        <v>1.071</v>
+        <v>1.09787</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.27707</v>
+        <v>1.22881</v>
       </c>
       <c r="C111" t="n">
-        <v>1.04088</v>
+        <v>1.08927</v>
       </c>
       <c r="D111" t="n">
-        <v>1.10242</v>
+        <v>1.07768</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.09809</v>
+        <v>1.09712</v>
       </c>
       <c r="C112" t="n">
-        <v>1.08644</v>
+        <v>1.08206</v>
       </c>
       <c r="D112" t="n">
-        <v>1.11531</v>
+        <v>1.11155</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.08634</v>
+        <v>1.10425</v>
       </c>
       <c r="C113" t="n">
-        <v>1.08452</v>
+        <v>1.09937</v>
       </c>
       <c r="D113" t="n">
-        <v>1.11257</v>
+        <v>1.1227</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.12696</v>
+        <v>1.14734</v>
       </c>
       <c r="C114" t="n">
-        <v>1.08683</v>
+        <v>1.11165</v>
       </c>
       <c r="D114" t="n">
-        <v>1.12251</v>
+        <v>1.12818</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.14106</v>
+        <v>1.18009</v>
       </c>
       <c r="C115" t="n">
-        <v>1.10369</v>
+        <v>1.09738</v>
       </c>
       <c r="D115" t="n">
-        <v>1.1823</v>
+        <v>1.15282</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.18988</v>
+        <v>1.19174</v>
       </c>
       <c r="C116" t="n">
-        <v>1.14221</v>
+        <v>1.16084</v>
       </c>
       <c r="D116" t="n">
-        <v>1.15089</v>
+        <v>1.18784</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.19097</v>
+        <v>1.21744</v>
       </c>
       <c r="C117" t="n">
-        <v>1.18307</v>
+        <v>1.18662</v>
       </c>
       <c r="D117" t="n">
-        <v>1.20104</v>
+        <v>1.21879</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.26624</v>
+        <v>1.20205</v>
       </c>
       <c r="C118" t="n">
-        <v>1.15485</v>
+        <v>1.17211</v>
       </c>
       <c r="D118" t="n">
-        <v>1.22525</v>
+        <v>1.19849</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.2511</v>
+        <v>1.22454</v>
       </c>
       <c r="C119" t="n">
-        <v>1.19156</v>
+        <v>1.18638</v>
       </c>
       <c r="D119" t="n">
-        <v>1.23963</v>
+        <v>1.23167</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.243596</v>
+        <v>0.232659</v>
       </c>
       <c r="C2" t="n">
-        <v>0.193056</v>
+        <v>0.187523</v>
       </c>
       <c r="D2" t="n">
-        <v>0.192319</v>
+        <v>0.189776</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.245573</v>
+        <v>0.229105</v>
       </c>
       <c r="C3" t="n">
-        <v>0.204122</v>
+        <v>0.190798</v>
       </c>
       <c r="D3" t="n">
-        <v>0.202693</v>
+        <v>0.194303</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.261558</v>
+        <v>0.236214</v>
       </c>
       <c r="C4" t="n">
-        <v>0.207926</v>
+        <v>0.195516</v>
       </c>
       <c r="D4" t="n">
-        <v>0.213895</v>
+        <v>0.200713</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.24888</v>
+        <v>0.244981</v>
       </c>
       <c r="C5" t="n">
-        <v>0.211543</v>
+        <v>0.195701</v>
       </c>
       <c r="D5" t="n">
-        <v>0.207741</v>
+        <v>0.194664</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.250868</v>
+        <v>0.237992</v>
       </c>
       <c r="C6" t="n">
-        <v>0.213302</v>
+        <v>0.208862</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20847</v>
+        <v>0.19355</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.264946</v>
+        <v>0.240489</v>
       </c>
       <c r="C7" t="n">
-        <v>0.195473</v>
+        <v>0.180347</v>
       </c>
       <c r="D7" t="n">
-        <v>0.213015</v>
+        <v>0.194753</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.266814</v>
+        <v>0.24412</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198967</v>
+        <v>0.193696</v>
       </c>
       <c r="D8" t="n">
-        <v>0.219123</v>
+        <v>0.203932</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.268663</v>
+        <v>0.252096</v>
       </c>
       <c r="C9" t="n">
-        <v>0.213957</v>
+        <v>0.194197</v>
       </c>
       <c r="D9" t="n">
-        <v>0.222945</v>
+        <v>0.207258</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.284008</v>
+        <v>0.259447</v>
       </c>
       <c r="C10" t="n">
-        <v>0.210784</v>
+        <v>0.199112</v>
       </c>
       <c r="D10" t="n">
-        <v>0.21359</v>
+        <v>0.202315</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2789</v>
+        <v>0.252383</v>
       </c>
       <c r="C11" t="n">
-        <v>0.200625</v>
+        <v>0.194499</v>
       </c>
       <c r="D11" t="n">
-        <v>0.209069</v>
+        <v>0.205893</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.279358</v>
+        <v>0.281193</v>
       </c>
       <c r="C12" t="n">
-        <v>0.210988</v>
+        <v>0.20631</v>
       </c>
       <c r="D12" t="n">
-        <v>0.220515</v>
+        <v>0.210037</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.270495</v>
+        <v>0.23842</v>
       </c>
       <c r="C13" t="n">
-        <v>0.240242</v>
+        <v>0.206106</v>
       </c>
       <c r="D13" t="n">
-        <v>0.232563</v>
+        <v>0.212288</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.261029</v>
+        <v>0.245523</v>
       </c>
       <c r="C14" t="n">
-        <v>0.231682</v>
+        <v>0.208217</v>
       </c>
       <c r="D14" t="n">
-        <v>0.237009</v>
+        <v>0.216215</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.268373</v>
+        <v>0.24459</v>
       </c>
       <c r="C15" t="n">
-        <v>0.228672</v>
+        <v>0.222168</v>
       </c>
       <c r="D15" t="n">
-        <v>0.228583</v>
+        <v>0.212767</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.272121</v>
+        <v>0.256341</v>
       </c>
       <c r="C16" t="n">
-        <v>0.240452</v>
+        <v>0.221586</v>
       </c>
       <c r="D16" t="n">
-        <v>0.221254</v>
+        <v>0.22566</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.270958</v>
+        <v>0.259757</v>
       </c>
       <c r="C17" t="n">
-        <v>0.227944</v>
+        <v>0.215831</v>
       </c>
       <c r="D17" t="n">
-        <v>0.22918</v>
+        <v>0.222394</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.269649</v>
+        <v>0.26099</v>
       </c>
       <c r="C18" t="n">
-        <v>0.234084</v>
+        <v>0.227601</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222345</v>
+        <v>0.222032</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.270002</v>
+        <v>0.268898</v>
       </c>
       <c r="C19" t="n">
-        <v>0.230567</v>
+        <v>0.227383</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236005</v>
+        <v>0.220582</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.266872</v>
+        <v>0.270623</v>
       </c>
       <c r="C20" t="n">
-        <v>0.238306</v>
+        <v>0.234251</v>
       </c>
       <c r="D20" t="n">
-        <v>0.231459</v>
+        <v>0.226188</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.273343</v>
+        <v>0.27075</v>
       </c>
       <c r="C21" t="n">
-        <v>0.217247</v>
+        <v>0.218846</v>
       </c>
       <c r="D21" t="n">
-        <v>0.231204</v>
+        <v>0.229468</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.283089</v>
+        <v>0.27982</v>
       </c>
       <c r="C22" t="n">
-        <v>0.222123</v>
+        <v>0.219121</v>
       </c>
       <c r="D22" t="n">
-        <v>0.240746</v>
+        <v>0.23393</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.287398</v>
+        <v>0.289013</v>
       </c>
       <c r="C23" t="n">
-        <v>0.22376</v>
+        <v>0.219549</v>
       </c>
       <c r="D23" t="n">
-        <v>0.234562</v>
+        <v>0.227881</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.294004</v>
+        <v>0.287326</v>
       </c>
       <c r="C24" t="n">
-        <v>0.24016</v>
+        <v>0.230602</v>
       </c>
       <c r="D24" t="n">
-        <v>0.244868</v>
+        <v>0.234502</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.294625</v>
+        <v>0.298953</v>
       </c>
       <c r="C25" t="n">
-        <v>0.247701</v>
+        <v>0.245247</v>
       </c>
       <c r="D25" t="n">
-        <v>0.242347</v>
+        <v>0.242552</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.310147</v>
+        <v>0.301071</v>
       </c>
       <c r="C26" t="n">
-        <v>0.243264</v>
+        <v>0.254748</v>
       </c>
       <c r="D26" t="n">
-        <v>0.246701</v>
+        <v>0.236631</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.272106</v>
+        <v>0.287727</v>
       </c>
       <c r="C27" t="n">
-        <v>0.255953</v>
+        <v>0.248989</v>
       </c>
       <c r="D27" t="n">
-        <v>0.242543</v>
+        <v>0.23844</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.282556</v>
+        <v>0.29297</v>
       </c>
       <c r="C28" t="n">
-        <v>0.251878</v>
+        <v>0.256759</v>
       </c>
       <c r="D28" t="n">
-        <v>0.249156</v>
+        <v>0.254418</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.298725</v>
+        <v>0.290942</v>
       </c>
       <c r="C29" t="n">
-        <v>0.25199</v>
+        <v>0.265434</v>
       </c>
       <c r="D29" t="n">
-        <v>0.251649</v>
+        <v>0.248184</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305022</v>
+        <v>0.308719</v>
       </c>
       <c r="C30" t="n">
-        <v>0.271765</v>
+        <v>0.266422</v>
       </c>
       <c r="D30" t="n">
-        <v>0.250331</v>
+        <v>0.256833</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.315079</v>
+        <v>0.325565</v>
       </c>
       <c r="C31" t="n">
-        <v>0.276175</v>
+        <v>0.259941</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2501</v>
+        <v>0.25612</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.326638</v>
+        <v>0.319644</v>
       </c>
       <c r="C32" t="n">
-        <v>0.281315</v>
+        <v>0.272987</v>
       </c>
       <c r="D32" t="n">
-        <v>0.257209</v>
+        <v>0.259313</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.337384</v>
+        <v>0.325758</v>
       </c>
       <c r="C33" t="n">
-        <v>0.279245</v>
+        <v>0.290726</v>
       </c>
       <c r="D33" t="n">
-        <v>0.265979</v>
+        <v>0.265198</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.334502</v>
+        <v>0.341821</v>
       </c>
       <c r="C34" t="n">
-        <v>0.292967</v>
+        <v>0.29245</v>
       </c>
       <c r="D34" t="n">
-        <v>0.269956</v>
+        <v>0.275953</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.332761</v>
+        <v>0.336534</v>
       </c>
       <c r="C35" t="n">
-        <v>0.250007</v>
+        <v>0.321549</v>
       </c>
       <c r="D35" t="n">
-        <v>0.256726</v>
+        <v>0.256914</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.345573</v>
+        <v>0.350311</v>
       </c>
       <c r="C36" t="n">
-        <v>0.268471</v>
+        <v>0.341155</v>
       </c>
       <c r="D36" t="n">
-        <v>0.267667</v>
+        <v>0.262662</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.375021</v>
+        <v>0.364723</v>
       </c>
       <c r="C37" t="n">
-        <v>0.276764</v>
+        <v>0.370805</v>
       </c>
       <c r="D37" t="n">
-        <v>0.261626</v>
+        <v>0.257588</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.366866</v>
+        <v>0.377405</v>
       </c>
       <c r="C38" t="n">
-        <v>0.27656</v>
+        <v>0.363778</v>
       </c>
       <c r="D38" t="n">
-        <v>0.263806</v>
+        <v>0.259442</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.397505</v>
+        <v>0.397923</v>
       </c>
       <c r="C39" t="n">
-        <v>0.286017</v>
+        <v>0.375398</v>
       </c>
       <c r="D39" t="n">
-        <v>0.274535</v>
+        <v>0.274077</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.397941</v>
+        <v>0.390893</v>
       </c>
       <c r="C40" t="n">
-        <v>0.293441</v>
+        <v>0.375029</v>
       </c>
       <c r="D40" t="n">
-        <v>0.272721</v>
+        <v>0.278428</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.386557</v>
+        <v>0.392251</v>
       </c>
       <c r="C41" t="n">
-        <v>0.311852</v>
+        <v>0.38896</v>
       </c>
       <c r="D41" t="n">
-        <v>0.271926</v>
+        <v>0.27856</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.41584</v>
+        <v>0.401495</v>
       </c>
       <c r="C42" t="n">
-        <v>0.304914</v>
+        <v>0.414579</v>
       </c>
       <c r="D42" t="n">
-        <v>0.280278</v>
+        <v>0.283127</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.431719</v>
+        <v>0.404154</v>
       </c>
       <c r="C43" t="n">
-        <v>0.326993</v>
+        <v>0.406317</v>
       </c>
       <c r="D43" t="n">
-        <v>0.292183</v>
+        <v>0.289198</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.433467</v>
+        <v>0.416568</v>
       </c>
       <c r="C44" t="n">
-        <v>0.331307</v>
+        <v>0.422221</v>
       </c>
       <c r="D44" t="n">
-        <v>0.294193</v>
+        <v>0.296335</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.443821</v>
+        <v>0.439004</v>
       </c>
       <c r="C45" t="n">
-        <v>0.338389</v>
+        <v>0.431895</v>
       </c>
       <c r="D45" t="n">
-        <v>0.308522</v>
+        <v>0.299937</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.435903</v>
+        <v>0.442198</v>
       </c>
       <c r="C46" t="n">
-        <v>0.344795</v>
+        <v>0.446007</v>
       </c>
       <c r="D46" t="n">
-        <v>0.306551</v>
+        <v>0.320758</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.452939</v>
+        <v>0.434426</v>
       </c>
       <c r="C47" t="n">
-        <v>0.364233</v>
+        <v>0.442194</v>
       </c>
       <c r="D47" t="n">
-        <v>0.309569</v>
+        <v>0.305275</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.461046</v>
+        <v>0.469182</v>
       </c>
       <c r="C48" t="n">
-        <v>0.373388</v>
+        <v>0.461854</v>
       </c>
       <c r="D48" t="n">
-        <v>0.322573</v>
+        <v>0.314974</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.476396</v>
+        <v>0.476072</v>
       </c>
       <c r="C49" t="n">
-        <v>0.383549</v>
+        <v>0.47418</v>
       </c>
       <c r="D49" t="n">
-        <v>0.336592</v>
+        <v>0.326073</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.490024</v>
+        <v>0.472858</v>
       </c>
       <c r="C50" t="n">
-        <v>0.403553</v>
+        <v>0.374902</v>
       </c>
       <c r="D50" t="n">
-        <v>0.346104</v>
+        <v>0.336969</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5184800000000001</v>
+        <v>0.499975</v>
       </c>
       <c r="C51" t="n">
-        <v>0.407079</v>
+        <v>0.391294</v>
       </c>
       <c r="D51" t="n">
-        <v>0.34377</v>
+        <v>0.353516</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.533368</v>
+        <v>0.496652</v>
       </c>
       <c r="C52" t="n">
-        <v>0.42889</v>
+        <v>0.39716</v>
       </c>
       <c r="D52" t="n">
-        <v>0.351658</v>
+        <v>0.341035</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.554087</v>
+        <v>0.520996</v>
       </c>
       <c r="C53" t="n">
-        <v>0.446114</v>
+        <v>0.418298</v>
       </c>
       <c r="D53" t="n">
-        <v>0.367812</v>
+        <v>0.362702</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.543092</v>
+        <v>0.52395</v>
       </c>
       <c r="C54" t="n">
-        <v>0.443024</v>
+        <v>0.424818</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3804</v>
+        <v>0.376949</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.556411</v>
+        <v>0.552158</v>
       </c>
       <c r="C55" t="n">
-        <v>0.448996</v>
+        <v>0.436233</v>
       </c>
       <c r="D55" t="n">
-        <v>0.371661</v>
+        <v>0.376432</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5401589999999999</v>
+        <v>0.513732</v>
       </c>
       <c r="C56" t="n">
-        <v>0.459589</v>
+        <v>0.457439</v>
       </c>
       <c r="D56" t="n">
-        <v>0.389191</v>
+        <v>0.386302</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.542557</v>
+        <v>0.526894</v>
       </c>
       <c r="C57" t="n">
-        <v>0.476334</v>
+        <v>0.489402</v>
       </c>
       <c r="D57" t="n">
-        <v>0.404185</v>
+        <v>0.389015</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.551952</v>
+        <v>0.515073</v>
       </c>
       <c r="C58" t="n">
-        <v>0.496432</v>
+        <v>0.48483</v>
       </c>
       <c r="D58" t="n">
-        <v>0.404764</v>
+        <v>0.405289</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.564698</v>
+        <v>0.548374</v>
       </c>
       <c r="C59" t="n">
-        <v>0.498051</v>
+        <v>0.496859</v>
       </c>
       <c r="D59" t="n">
-        <v>0.417783</v>
+        <v>0.413374</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.586241</v>
+        <v>0.5554</v>
       </c>
       <c r="C60" t="n">
-        <v>0.531101</v>
+        <v>0.509034</v>
       </c>
       <c r="D60" t="n">
-        <v>0.440456</v>
+        <v>0.422532</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.625282</v>
+        <v>0.565594</v>
       </c>
       <c r="C61" t="n">
-        <v>0.550406</v>
+        <v>0.514409</v>
       </c>
       <c r="D61" t="n">
-        <v>0.449666</v>
+        <v>0.422419</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.605911</v>
+        <v>0.579803</v>
       </c>
       <c r="C62" t="n">
-        <v>0.562375</v>
+        <v>0.548655</v>
       </c>
       <c r="D62" t="n">
-        <v>0.451829</v>
+        <v>0.440019</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.622427</v>
+        <v>0.592565</v>
       </c>
       <c r="C63" t="n">
-        <v>0.588052</v>
+        <v>0.551941</v>
       </c>
       <c r="D63" t="n">
-        <v>0.445751</v>
+        <v>0.448955</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.641958</v>
+        <v>0.614312</v>
       </c>
       <c r="C64" t="n">
-        <v>0.548163</v>
+        <v>0.513974</v>
       </c>
       <c r="D64" t="n">
-        <v>0.479564</v>
+        <v>0.460909</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.686452</v>
+        <v>0.630313</v>
       </c>
       <c r="C65" t="n">
-        <v>0.573306</v>
+        <v>0.534813</v>
       </c>
       <c r="D65" t="n">
-        <v>0.503472</v>
+        <v>0.477491</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.73385</v>
+        <v>0.6535840000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.585549</v>
+        <v>0.572639</v>
       </c>
       <c r="D66" t="n">
-        <v>0.494767</v>
+        <v>0.4843</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.728074</v>
+        <v>0.667703</v>
       </c>
       <c r="C67" t="n">
-        <v>0.623841</v>
+        <v>0.563835</v>
       </c>
       <c r="D67" t="n">
-        <v>0.507143</v>
+        <v>0.492494</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.750826</v>
+        <v>0.694325</v>
       </c>
       <c r="C68" t="n">
-        <v>0.632598</v>
+        <v>0.57241</v>
       </c>
       <c r="D68" t="n">
-        <v>0.530469</v>
+        <v>0.504687</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.808877</v>
+        <v>0.732615</v>
       </c>
       <c r="C69" t="n">
-        <v>0.654718</v>
+        <v>0.591531</v>
       </c>
       <c r="D69" t="n">
-        <v>0.554833</v>
+        <v>0.506578</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.725644</v>
+        <v>0.662557</v>
       </c>
       <c r="C70" t="n">
-        <v>0.672467</v>
+        <v>0.6224420000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5643010000000001</v>
+        <v>0.50971</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.768173</v>
+        <v>0.692801</v>
       </c>
       <c r="C71" t="n">
-        <v>0.706303</v>
+        <v>0.644969</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5822079999999999</v>
+        <v>0.542747</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.770938</v>
+        <v>0.721588</v>
       </c>
       <c r="C72" t="n">
-        <v>0.723838</v>
+        <v>0.6609120000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.569055</v>
+        <v>0.548928</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7877150000000001</v>
+        <v>0.744181</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7648160000000001</v>
+        <v>0.679561</v>
       </c>
       <c r="D73" t="n">
-        <v>0.613692</v>
+        <v>0.580315</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.796172</v>
+        <v>0.782104</v>
       </c>
       <c r="C74" t="n">
-        <v>0.78343</v>
+        <v>0.731277</v>
       </c>
       <c r="D74" t="n">
-        <v>0.614541</v>
+        <v>0.595407</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8627</v>
+        <v>0.792694</v>
       </c>
       <c r="C75" t="n">
-        <v>0.827908</v>
+        <v>0.761167</v>
       </c>
       <c r="D75" t="n">
-        <v>0.636504</v>
+        <v>0.6101569999999999</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9064179999999999</v>
+        <v>0.848994</v>
       </c>
       <c r="C76" t="n">
-        <v>0.830045</v>
+        <v>0.798164</v>
       </c>
       <c r="D76" t="n">
-        <v>0.659385</v>
+        <v>0.656895</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.925188</v>
+        <v>0.859594</v>
       </c>
       <c r="C77" t="n">
-        <v>0.897749</v>
+        <v>0.795511</v>
       </c>
       <c r="D77" t="n">
-        <v>0.708003</v>
+        <v>0.652381</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.94818</v>
+        <v>0.919746</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8232</v>
+        <v>0.764384</v>
       </c>
       <c r="D78" t="n">
-        <v>0.730449</v>
+        <v>0.690253</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.982853</v>
+        <v>0.937321</v>
       </c>
       <c r="C79" t="n">
-        <v>0.872526</v>
+        <v>0.80663</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7275430000000001</v>
+        <v>0.68176</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.01833</v>
+        <v>0.962921</v>
       </c>
       <c r="C80" t="n">
-        <v>0.874254</v>
+        <v>0.825201</v>
       </c>
       <c r="D80" t="n">
-        <v>0.761347</v>
+        <v>0.7132579999999999</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.08322</v>
+        <v>1.0247</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9118270000000001</v>
+        <v>0.853702</v>
       </c>
       <c r="D81" t="n">
-        <v>0.783762</v>
+        <v>0.729665</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.11584</v>
+        <v>1.07195</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9348959999999999</v>
+        <v>0.885817</v>
       </c>
       <c r="D82" t="n">
-        <v>0.800945</v>
+        <v>0.760419</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.13587</v>
+        <v>1.10234</v>
       </c>
       <c r="C83" t="n">
-        <v>0.933708</v>
+        <v>0.901884</v>
       </c>
       <c r="D83" t="n">
-        <v>0.816833</v>
+        <v>0.820698</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.04525</v>
+        <v>1.00961</v>
       </c>
       <c r="C84" t="n">
-        <v>1.01635</v>
+        <v>0.94542</v>
       </c>
       <c r="D84" t="n">
-        <v>0.884971</v>
+        <v>0.832225</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.07167</v>
+        <v>1.00799</v>
       </c>
       <c r="C85" t="n">
-        <v>1.00909</v>
+        <v>0.959831</v>
       </c>
       <c r="D85" t="n">
-        <v>0.89255</v>
+        <v>0.8507130000000001</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.08664</v>
+        <v>1.06763</v>
       </c>
       <c r="C86" t="n">
-        <v>1.05492</v>
+        <v>0.969401</v>
       </c>
       <c r="D86" t="n">
-        <v>0.892723</v>
+        <v>0.852077</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.11394</v>
+        <v>1.07161</v>
       </c>
       <c r="C87" t="n">
-        <v>1.0789</v>
+        <v>1.01872</v>
       </c>
       <c r="D87" t="n">
-        <v>0.938435</v>
+        <v>0.886663</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.13977</v>
+        <v>1.06752</v>
       </c>
       <c r="C88" t="n">
-        <v>1.09571</v>
+        <v>1.04004</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9700800000000001</v>
+        <v>0.928902</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.16993</v>
+        <v>1.14975</v>
       </c>
       <c r="C89" t="n">
-        <v>1.13229</v>
+        <v>1.0844</v>
       </c>
       <c r="D89" t="n">
-        <v>0.966512</v>
+        <v>0.937296</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.18932</v>
+        <v>1.16266</v>
       </c>
       <c r="C90" t="n">
-        <v>1.13439</v>
+        <v>1.11344</v>
       </c>
       <c r="D90" t="n">
-        <v>0.955336</v>
+        <v>0.939573</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.22265</v>
+        <v>1.18444</v>
       </c>
       <c r="C91" t="n">
-        <v>1.17862</v>
+        <v>1.13981</v>
       </c>
       <c r="D91" t="n">
-        <v>1.00591</v>
+        <v>0.952821</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.26045</v>
+        <v>1.20054</v>
       </c>
       <c r="C92" t="n">
-        <v>1.0663</v>
+        <v>1.02122</v>
       </c>
       <c r="D92" t="n">
-        <v>0.992053</v>
+        <v>0.943379</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.28344</v>
+        <v>1.2424</v>
       </c>
       <c r="C93" t="n">
-        <v>1.12423</v>
+        <v>1.05517</v>
       </c>
       <c r="D93" t="n">
-        <v>1.0024</v>
+        <v>0.977276</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.27406</v>
+        <v>1.28162</v>
       </c>
       <c r="C94" t="n">
-        <v>1.10301</v>
+        <v>1.07499</v>
       </c>
       <c r="D94" t="n">
-        <v>1.01283</v>
+        <v>0.983715</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.34242</v>
+        <v>1.32976</v>
       </c>
       <c r="C95" t="n">
-        <v>1.12761</v>
+        <v>1.17133</v>
       </c>
       <c r="D95" t="n">
-        <v>1.04384</v>
+        <v>1.03338</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.35688</v>
+        <v>1.36565</v>
       </c>
       <c r="C96" t="n">
-        <v>1.18541</v>
+        <v>1.14941</v>
       </c>
       <c r="D96" t="n">
-        <v>1.05886</v>
+        <v>1.07019</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.40762</v>
+        <v>1.37734</v>
       </c>
       <c r="C97" t="n">
-        <v>1.17575</v>
+        <v>1.18661</v>
       </c>
       <c r="D97" t="n">
-        <v>1.07564</v>
+        <v>1.03962</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.28686</v>
+        <v>1.26216</v>
       </c>
       <c r="C98" t="n">
-        <v>1.19146</v>
+        <v>1.19184</v>
       </c>
       <c r="D98" t="n">
-        <v>1.08206</v>
+        <v>1.06656</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.31129</v>
+        <v>1.28811</v>
       </c>
       <c r="C99" t="n">
-        <v>1.22157</v>
+        <v>1.22584</v>
       </c>
       <c r="D99" t="n">
-        <v>1.10733</v>
+        <v>1.09622</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.3005</v>
+        <v>1.29555</v>
       </c>
       <c r="C100" t="n">
-        <v>1.24939</v>
+        <v>1.25469</v>
       </c>
       <c r="D100" t="n">
-        <v>1.12835</v>
+        <v>1.13089</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.40701</v>
+        <v>1.32219</v>
       </c>
       <c r="C101" t="n">
-        <v>1.2983</v>
+        <v>1.29118</v>
       </c>
       <c r="D101" t="n">
-        <v>1.14307</v>
+        <v>1.12169</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.37649</v>
+        <v>1.36038</v>
       </c>
       <c r="C102" t="n">
-        <v>1.32585</v>
+        <v>1.3245</v>
       </c>
       <c r="D102" t="n">
-        <v>1.17354</v>
+        <v>1.15171</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.40343</v>
+        <v>1.39166</v>
       </c>
       <c r="C103" t="n">
-        <v>1.3803</v>
+        <v>1.36144</v>
       </c>
       <c r="D103" t="n">
-        <v>1.20858</v>
+        <v>1.17496</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.43709</v>
+        <v>1.41908</v>
       </c>
       <c r="C104" t="n">
-        <v>1.39963</v>
+        <v>1.38066</v>
       </c>
       <c r="D104" t="n">
-        <v>1.20052</v>
+        <v>1.1962</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.46618</v>
+        <v>1.43349</v>
       </c>
       <c r="C105" t="n">
-        <v>1.4035</v>
+        <v>1.39543</v>
       </c>
       <c r="D105" t="n">
-        <v>1.22937</v>
+        <v>1.20857</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.44976</v>
+        <v>1.45124</v>
       </c>
       <c r="C106" t="n">
-        <v>1.45301</v>
+        <v>1.44329</v>
       </c>
       <c r="D106" t="n">
-        <v>1.28453</v>
+        <v>1.24758</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.5115</v>
+        <v>1.5132</v>
       </c>
       <c r="C107" t="n">
-        <v>1.29175</v>
+        <v>1.31188</v>
       </c>
       <c r="D107" t="n">
-        <v>1.21993</v>
+        <v>1.19079</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.52985</v>
+        <v>1.53586</v>
       </c>
       <c r="C108" t="n">
-        <v>1.33282</v>
+        <v>1.30329</v>
       </c>
       <c r="D108" t="n">
-        <v>1.21199</v>
+        <v>1.21685</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.57453</v>
+        <v>1.57114</v>
       </c>
       <c r="C109" t="n">
-        <v>1.3437</v>
+        <v>1.34807</v>
       </c>
       <c r="D109" t="n">
-        <v>1.19836</v>
+        <v>1.20797</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.59823</v>
+        <v>1.5829</v>
       </c>
       <c r="C110" t="n">
-        <v>1.33948</v>
+        <v>1.34474</v>
       </c>
       <c r="D110" t="n">
-        <v>1.24002</v>
+        <v>1.20582</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.62453</v>
+        <v>1.59177</v>
       </c>
       <c r="C111" t="n">
-        <v>1.3737</v>
+        <v>1.36665</v>
       </c>
       <c r="D111" t="n">
-        <v>1.24958</v>
+        <v>1.24449</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.45911</v>
+        <v>1.47856</v>
       </c>
       <c r="C112" t="n">
-        <v>1.40348</v>
+        <v>1.4342</v>
       </c>
       <c r="D112" t="n">
-        <v>1.26313</v>
+        <v>1.25788</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.46561</v>
+        <v>1.43479</v>
       </c>
       <c r="C113" t="n">
-        <v>1.40269</v>
+        <v>1.46863</v>
       </c>
       <c r="D113" t="n">
-        <v>1.27061</v>
+        <v>1.27178</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.4531</v>
+        <v>1.49433</v>
       </c>
       <c r="C114" t="n">
-        <v>1.46997</v>
+        <v>1.43868</v>
       </c>
       <c r="D114" t="n">
-        <v>1.31271</v>
+        <v>1.28464</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.49997</v>
+        <v>1.49873</v>
       </c>
       <c r="C115" t="n">
-        <v>1.49682</v>
+        <v>1.48231</v>
       </c>
       <c r="D115" t="n">
-        <v>1.31886</v>
+        <v>1.31499</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.51972</v>
+        <v>1.53889</v>
       </c>
       <c r="C116" t="n">
-        <v>1.50891</v>
+        <v>1.4881</v>
       </c>
       <c r="D116" t="n">
-        <v>1.32359</v>
+        <v>1.32374</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.56899</v>
+        <v>1.59034</v>
       </c>
       <c r="C117" t="n">
-        <v>1.58714</v>
+        <v>1.56237</v>
       </c>
       <c r="D117" t="n">
-        <v>1.35254</v>
+        <v>1.34605</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.57059</v>
+        <v>1.58627</v>
       </c>
       <c r="C118" t="n">
-        <v>1.58826</v>
+        <v>1.56654</v>
       </c>
       <c r="D118" t="n">
-        <v>1.41258</v>
+        <v>1.36784</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.61871</v>
+        <v>1.61393</v>
       </c>
       <c r="C119" t="n">
-        <v>1.61913</v>
+        <v>1.60708</v>
       </c>
       <c r="D119" t="n">
-        <v>1.38163</v>
+        <v>1.39364</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.575415</v>
+        <v>0.554505</v>
       </c>
       <c r="C2" t="n">
-        <v>0.298835</v>
+        <v>0.301597</v>
       </c>
       <c r="D2" t="n">
-        <v>0.251734</v>
+        <v>0.247098</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.409277</v>
+        <v>0.379732</v>
       </c>
       <c r="C3" t="n">
-        <v>0.318568</v>
+        <v>0.321203</v>
       </c>
       <c r="D3" t="n">
-        <v>0.250364</v>
+        <v>0.25181</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.418835</v>
+        <v>0.379789</v>
       </c>
       <c r="C4" t="n">
-        <v>0.326405</v>
+        <v>0.325342</v>
       </c>
       <c r="D4" t="n">
-        <v>0.261673</v>
+        <v>0.255383</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.39835</v>
+        <v>0.403444</v>
       </c>
       <c r="C5" t="n">
-        <v>0.327563</v>
+        <v>0.336848</v>
       </c>
       <c r="D5" t="n">
-        <v>0.264513</v>
+        <v>0.266469</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.413284</v>
+        <v>0.416048</v>
       </c>
       <c r="C6" t="n">
-        <v>0.338189</v>
+        <v>0.333589</v>
       </c>
       <c r="D6" t="n">
-        <v>0.259734</v>
+        <v>0.259176</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.43189</v>
+        <v>0.417502</v>
       </c>
       <c r="C7" t="n">
-        <v>0.364279</v>
+        <v>0.364923</v>
       </c>
       <c r="D7" t="n">
-        <v>0.269847</v>
+        <v>0.27319</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.447963</v>
+        <v>0.445334</v>
       </c>
       <c r="C8" t="n">
-        <v>0.377794</v>
+        <v>0.378991</v>
       </c>
       <c r="D8" t="n">
-        <v>0.276421</v>
+        <v>0.292727</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.467769</v>
+        <v>0.476955</v>
       </c>
       <c r="C9" t="n">
-        <v>0.399178</v>
+        <v>0.405173</v>
       </c>
       <c r="D9" t="n">
-        <v>0.293876</v>
+        <v>0.29455</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.494298</v>
+        <v>0.480048</v>
       </c>
       <c r="C10" t="n">
-        <v>0.408946</v>
+        <v>0.433612</v>
       </c>
       <c r="D10" t="n">
-        <v>0.29867</v>
+        <v>0.306552</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.488687</v>
+        <v>0.491646</v>
       </c>
       <c r="C11" t="n">
-        <v>0.320471</v>
+        <v>0.310983</v>
       </c>
       <c r="D11" t="n">
-        <v>0.245061</v>
+        <v>0.246735</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.527074</v>
+        <v>0.53806</v>
       </c>
       <c r="C12" t="n">
-        <v>0.318394</v>
+        <v>0.321184</v>
       </c>
       <c r="D12" t="n">
-        <v>0.253081</v>
+        <v>0.249591</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.558033</v>
+        <v>0.555797</v>
       </c>
       <c r="C13" t="n">
-        <v>0.332555</v>
+        <v>0.331825</v>
       </c>
       <c r="D13" t="n">
-        <v>0.262553</v>
+        <v>0.255867</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5525099999999999</v>
+        <v>0.55786</v>
       </c>
       <c r="C14" t="n">
-        <v>0.35729</v>
+        <v>0.342976</v>
       </c>
       <c r="D14" t="n">
-        <v>0.269281</v>
+        <v>0.257107</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.582352</v>
+        <v>0.575993</v>
       </c>
       <c r="C15" t="n">
-        <v>0.365035</v>
+        <v>0.35525</v>
       </c>
       <c r="D15" t="n">
-        <v>0.267628</v>
+        <v>0.278095</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.614923</v>
+        <v>0.594459</v>
       </c>
       <c r="C16" t="n">
-        <v>0.370903</v>
+        <v>0.383939</v>
       </c>
       <c r="D16" t="n">
-        <v>0.278041</v>
+        <v>0.28375</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.390958</v>
+        <v>0.38011</v>
       </c>
       <c r="C17" t="n">
-        <v>0.385109</v>
+        <v>0.389826</v>
       </c>
       <c r="D17" t="n">
-        <v>0.295057</v>
+        <v>0.290094</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.400041</v>
+        <v>0.42281</v>
       </c>
       <c r="C18" t="n">
-        <v>0.405877</v>
+        <v>0.410831</v>
       </c>
       <c r="D18" t="n">
-        <v>0.291278</v>
+        <v>0.292371</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.42636</v>
+        <v>0.413568</v>
       </c>
       <c r="C19" t="n">
-        <v>0.416359</v>
+        <v>0.419461</v>
       </c>
       <c r="D19" t="n">
-        <v>0.309263</v>
+        <v>0.30747</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.421001</v>
+        <v>0.421608</v>
       </c>
       <c r="C20" t="n">
-        <v>0.447468</v>
+        <v>0.442505</v>
       </c>
       <c r="D20" t="n">
-        <v>0.324416</v>
+        <v>0.323553</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.436705</v>
+        <v>0.436215</v>
       </c>
       <c r="C21" t="n">
-        <v>0.447949</v>
+        <v>0.455487</v>
       </c>
       <c r="D21" t="n">
-        <v>0.326531</v>
+        <v>0.334384</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.449454</v>
+        <v>0.468609</v>
       </c>
       <c r="C22" t="n">
-        <v>0.472872</v>
+        <v>0.470864</v>
       </c>
       <c r="D22" t="n">
-        <v>0.339482</v>
+        <v>0.341382</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.467901</v>
+        <v>0.473038</v>
       </c>
       <c r="C23" t="n">
-        <v>0.498837</v>
+        <v>0.490158</v>
       </c>
       <c r="D23" t="n">
-        <v>0.360201</v>
+        <v>0.357411</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.489148</v>
+        <v>0.48399</v>
       </c>
       <c r="C24" t="n">
-        <v>0.50773</v>
+        <v>0.509551</v>
       </c>
       <c r="D24" t="n">
-        <v>0.37205</v>
+        <v>0.368404</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.512564</v>
+        <v>0.548189</v>
       </c>
       <c r="C25" t="n">
-        <v>0.530699</v>
+        <v>0.53339</v>
       </c>
       <c r="D25" t="n">
-        <v>0.373465</v>
+        <v>0.381256</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.512243</v>
+        <v>0.506583</v>
       </c>
       <c r="C26" t="n">
-        <v>0.342495</v>
+        <v>0.344952</v>
       </c>
       <c r="D26" t="n">
-        <v>0.27298</v>
+        <v>0.267532</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.546073</v>
+        <v>0.547353</v>
       </c>
       <c r="C27" t="n">
-        <v>0.362924</v>
+        <v>0.362185</v>
       </c>
       <c r="D27" t="n">
-        <v>0.285553</v>
+        <v>0.283992</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.560673</v>
+        <v>0.560512</v>
       </c>
       <c r="C28" t="n">
-        <v>0.377846</v>
+        <v>0.369414</v>
       </c>
       <c r="D28" t="n">
-        <v>0.278926</v>
+        <v>0.279271</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.614367</v>
+        <v>0.611908</v>
       </c>
       <c r="C29" t="n">
-        <v>0.388649</v>
+        <v>0.381265</v>
       </c>
       <c r="D29" t="n">
-        <v>0.282741</v>
+        <v>0.294777</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.610662</v>
+        <v>0.634954</v>
       </c>
       <c r="C30" t="n">
-        <v>0.413742</v>
+        <v>0.404401</v>
       </c>
       <c r="D30" t="n">
-        <v>0.296421</v>
+        <v>0.297141</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.630041</v>
+        <v>0.644183</v>
       </c>
       <c r="C31" t="n">
-        <v>0.422471</v>
+        <v>0.414691</v>
       </c>
       <c r="D31" t="n">
-        <v>0.302669</v>
+        <v>0.307279</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.462491</v>
+        <v>0.462252</v>
       </c>
       <c r="C32" t="n">
-        <v>0.438325</v>
+        <v>0.448575</v>
       </c>
       <c r="D32" t="n">
-        <v>0.313653</v>
+        <v>0.317619</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.466936</v>
+        <v>0.494831</v>
       </c>
       <c r="C33" t="n">
-        <v>0.452795</v>
+        <v>0.458964</v>
       </c>
       <c r="D33" t="n">
-        <v>0.321598</v>
+        <v>0.337576</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.475021</v>
+        <v>0.492701</v>
       </c>
       <c r="C34" t="n">
-        <v>0.47174</v>
+        <v>0.478712</v>
       </c>
       <c r="D34" t="n">
-        <v>0.346274</v>
+        <v>0.348176</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.501346</v>
+        <v>0.542494</v>
       </c>
       <c r="C35" t="n">
-        <v>0.497503</v>
+        <v>0.503483</v>
       </c>
       <c r="D35" t="n">
-        <v>0.351117</v>
+        <v>0.352532</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.521624</v>
+        <v>0.539716</v>
       </c>
       <c r="C36" t="n">
-        <v>0.53027</v>
+        <v>0.549023</v>
       </c>
       <c r="D36" t="n">
-        <v>0.370379</v>
+        <v>0.354658</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.55035</v>
+        <v>0.5526489999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>0.542871</v>
+        <v>0.559655</v>
       </c>
       <c r="D37" t="n">
-        <v>0.373937</v>
+        <v>0.399337</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.590935</v>
+        <v>0.581342</v>
       </c>
       <c r="C38" t="n">
-        <v>0.577182</v>
+        <v>0.602949</v>
       </c>
       <c r="D38" t="n">
-        <v>0.409312</v>
+        <v>0.402597</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.606783</v>
+        <v>0.608143</v>
       </c>
       <c r="C39" t="n">
-        <v>0.608905</v>
+        <v>0.630053</v>
       </c>
       <c r="D39" t="n">
-        <v>0.426279</v>
+        <v>0.424672</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.634858</v>
+        <v>0.651532</v>
       </c>
       <c r="C40" t="n">
-        <v>0.443657</v>
+        <v>0.483923</v>
       </c>
       <c r="D40" t="n">
-        <v>0.342761</v>
+        <v>0.340711</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.672023</v>
+        <v>0.665936</v>
       </c>
       <c r="C41" t="n">
-        <v>0.464145</v>
+        <v>0.472515</v>
       </c>
       <c r="D41" t="n">
-        <v>0.343165</v>
+        <v>0.367478</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.701109</v>
+        <v>0.72726</v>
       </c>
       <c r="C42" t="n">
-        <v>0.479665</v>
+        <v>0.4993</v>
       </c>
       <c r="D42" t="n">
-        <v>0.361121</v>
+        <v>0.376305</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.736002</v>
+        <v>0.755125</v>
       </c>
       <c r="C43" t="n">
-        <v>0.508862</v>
+        <v>0.5196769999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.365853</v>
+        <v>0.410234</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.782481</v>
+        <v>0.796084</v>
       </c>
       <c r="C44" t="n">
-        <v>0.545463</v>
+        <v>0.569321</v>
       </c>
       <c r="D44" t="n">
-        <v>0.393322</v>
+        <v>0.408358</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.82517</v>
+        <v>0.832763</v>
       </c>
       <c r="C45" t="n">
-        <v>0.571809</v>
+        <v>0.578155</v>
       </c>
       <c r="D45" t="n">
-        <v>0.400158</v>
+        <v>0.421181</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.613773</v>
+        <v>0.614154</v>
       </c>
       <c r="C46" t="n">
-        <v>0.603069</v>
+        <v>0.629176</v>
       </c>
       <c r="D46" t="n">
-        <v>0.428607</v>
+        <v>0.440885</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.647652</v>
+        <v>0.634687</v>
       </c>
       <c r="C47" t="n">
-        <v>0.626447</v>
+        <v>0.66223</v>
       </c>
       <c r="D47" t="n">
-        <v>0.435723</v>
+        <v>0.447026</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.688304</v>
+        <v>0.680527</v>
       </c>
       <c r="C48" t="n">
-        <v>0.650039</v>
+        <v>0.683073</v>
       </c>
       <c r="D48" t="n">
-        <v>0.456723</v>
+        <v>0.479526</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.727023</v>
+        <v>0.687464</v>
       </c>
       <c r="C49" t="n">
-        <v>0.707433</v>
+        <v>0.725903</v>
       </c>
       <c r="D49" t="n">
-        <v>0.470311</v>
+        <v>0.512108</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.728117</v>
+        <v>0.746115</v>
       </c>
       <c r="C50" t="n">
-        <v>0.726948</v>
+        <v>0.766384</v>
       </c>
       <c r="D50" t="n">
-        <v>0.482564</v>
+        <v>0.522807</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.770563</v>
+        <v>0.788565</v>
       </c>
       <c r="C51" t="n">
-        <v>0.802661</v>
+        <v>0.810925</v>
       </c>
       <c r="D51" t="n">
-        <v>0.515338</v>
+        <v>0.53571</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.809532</v>
+        <v>0.8482769999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8190269999999999</v>
+        <v>0.845709</v>
       </c>
       <c r="D52" t="n">
-        <v>0.527682</v>
+        <v>0.562663</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.846805</v>
+        <v>0.843997</v>
       </c>
       <c r="C53" t="n">
-        <v>0.866258</v>
+        <v>0.905037</v>
       </c>
       <c r="D53" t="n">
-        <v>0.577512</v>
+        <v>0.591816</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.915364</v>
+        <v>0.927223</v>
       </c>
       <c r="C54" t="n">
-        <v>0.640908</v>
+        <v>0.656285</v>
       </c>
       <c r="D54" t="n">
-        <v>0.45507</v>
+        <v>0.466668</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.967189</v>
+        <v>0.970591</v>
       </c>
       <c r="C55" t="n">
-        <v>0.666842</v>
+        <v>0.686854</v>
       </c>
       <c r="D55" t="n">
-        <v>0.483307</v>
+        <v>0.486465</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.04397</v>
+        <v>1.01452</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6880309999999999</v>
+        <v>0.7226860000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.484431</v>
+        <v>0.5046620000000001</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.06765</v>
+        <v>1.06173</v>
       </c>
       <c r="C57" t="n">
-        <v>0.740789</v>
+        <v>0.743086</v>
       </c>
       <c r="D57" t="n">
-        <v>0.500787</v>
+        <v>0.503713</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.12603</v>
+        <v>1.11916</v>
       </c>
       <c r="C58" t="n">
-        <v>0.756</v>
+        <v>0.784732</v>
       </c>
       <c r="D58" t="n">
-        <v>0.525971</v>
+        <v>0.534413</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.18106</v>
+        <v>1.1714</v>
       </c>
       <c r="C59" t="n">
-        <v>0.803929</v>
+        <v>0.8166099999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.559914</v>
+        <v>0.556424</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.828098</v>
+        <v>0.855399</v>
       </c>
       <c r="C60" t="n">
-        <v>0.836264</v>
+        <v>0.86655</v>
       </c>
       <c r="D60" t="n">
-        <v>0.597862</v>
+        <v>0.574736</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.877864</v>
+        <v>0.883108</v>
       </c>
       <c r="C61" t="n">
-        <v>0.888441</v>
+        <v>0.940701</v>
       </c>
       <c r="D61" t="n">
-        <v>0.581674</v>
+        <v>0.5878100000000001</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.947794</v>
+        <v>0.934584</v>
       </c>
       <c r="C62" t="n">
-        <v>0.943173</v>
+        <v>0.953583</v>
       </c>
       <c r="D62" t="n">
-        <v>0.592946</v>
+        <v>0.615345</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.991599</v>
+        <v>1.00861</v>
       </c>
       <c r="C63" t="n">
-        <v>1.00758</v>
+        <v>1.03234</v>
       </c>
       <c r="D63" t="n">
-        <v>0.616115</v>
+        <v>0.661046</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.00533</v>
+        <v>1.02895</v>
       </c>
       <c r="C64" t="n">
-        <v>1.05611</v>
+        <v>1.08108</v>
       </c>
       <c r="D64" t="n">
-        <v>0.672226</v>
+        <v>0.682805</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.12529</v>
+        <v>1.12968</v>
       </c>
       <c r="C65" t="n">
-        <v>1.13658</v>
+        <v>1.17197</v>
       </c>
       <c r="D65" t="n">
-        <v>0.70275</v>
+        <v>0.72839</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.19101</v>
+        <v>1.17635</v>
       </c>
       <c r="C66" t="n">
-        <v>1.20183</v>
+        <v>1.21802</v>
       </c>
       <c r="D66" t="n">
-        <v>0.737692</v>
+        <v>0.768942</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.25364</v>
+        <v>1.23178</v>
       </c>
       <c r="C67" t="n">
-        <v>1.31989</v>
+        <v>1.33719</v>
       </c>
       <c r="D67" t="n">
-        <v>0.766119</v>
+        <v>0.783785</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.40125</v>
+        <v>1.32973</v>
       </c>
       <c r="C68" t="n">
-        <v>0.830232</v>
+        <v>0.988027</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5747100000000001</v>
+        <v>0.57835</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.4464</v>
+        <v>1.43216</v>
       </c>
       <c r="C69" t="n">
-        <v>0.885861</v>
+        <v>1.04573</v>
       </c>
       <c r="D69" t="n">
-        <v>0.593898</v>
+        <v>0.60446</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.55128</v>
+        <v>1.50214</v>
       </c>
       <c r="C70" t="n">
-        <v>0.939739</v>
+        <v>1.09005</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6229440000000001</v>
+        <v>0.618217</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.70425</v>
+        <v>1.6316</v>
       </c>
       <c r="C71" t="n">
-        <v>0.995561</v>
+        <v>1.17346</v>
       </c>
       <c r="D71" t="n">
-        <v>0.668109</v>
+        <v>0.645304</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.76762</v>
+        <v>1.7343</v>
       </c>
       <c r="C72" t="n">
-        <v>1.08767</v>
+        <v>1.23785</v>
       </c>
       <c r="D72" t="n">
-        <v>0.689406</v>
+        <v>0.675382</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.93886</v>
+        <v>1.87867</v>
       </c>
       <c r="C73" t="n">
-        <v>1.13874</v>
+        <v>1.36515</v>
       </c>
       <c r="D73" t="n">
-        <v>0.703642</v>
+        <v>0.716412</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.25079</v>
+        <v>1.27406</v>
       </c>
       <c r="C74" t="n">
-        <v>1.18019</v>
+        <v>1.44108</v>
       </c>
       <c r="D74" t="n">
-        <v>0.738221</v>
+        <v>0.758252</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.34196</v>
+        <v>1.3477</v>
       </c>
       <c r="C75" t="n">
-        <v>1.28289</v>
+        <v>1.54199</v>
       </c>
       <c r="D75" t="n">
-        <v>0.813211</v>
+        <v>0.797332</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.45314</v>
+        <v>1.44773</v>
       </c>
       <c r="C76" t="n">
-        <v>1.41297</v>
+        <v>1.68696</v>
       </c>
       <c r="D76" t="n">
-        <v>0.84519</v>
+        <v>0.869411</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.56128</v>
+        <v>1.53987</v>
       </c>
       <c r="C77" t="n">
-        <v>1.50439</v>
+        <v>1.83204</v>
       </c>
       <c r="D77" t="n">
-        <v>0.895572</v>
+        <v>0.918932</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.59415</v>
+        <v>1.60949</v>
       </c>
       <c r="C78" t="n">
-        <v>1.67065</v>
+        <v>1.91954</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9565090000000001</v>
+        <v>0.947165</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.70327</v>
+        <v>1.73222</v>
       </c>
       <c r="C79" t="n">
-        <v>1.74527</v>
+        <v>2.01433</v>
       </c>
       <c r="D79" t="n">
-        <v>1.02013</v>
+        <v>0.994407</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.83565</v>
+        <v>1.79778</v>
       </c>
       <c r="C80" t="n">
-        <v>1.91949</v>
+        <v>2.21617</v>
       </c>
       <c r="D80" t="n">
-        <v>1.05651</v>
+        <v>1.04226</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.9307</v>
+        <v>1.92337</v>
       </c>
       <c r="C81" t="n">
-        <v>2.04606</v>
+        <v>2.37189</v>
       </c>
       <c r="D81" t="n">
-        <v>1.14956</v>
+        <v>1.15402</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.0617</v>
+        <v>2.04415</v>
       </c>
       <c r="C82" t="n">
-        <v>2.15768</v>
+        <v>2.45871</v>
       </c>
       <c r="D82" t="n">
-        <v>1.28107</v>
+        <v>1.22126</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.22104</v>
+        <v>2.14541</v>
       </c>
       <c r="C83" t="n">
-        <v>1.58121</v>
+        <v>1.49773</v>
       </c>
       <c r="D83" t="n">
-        <v>1.01708</v>
+        <v>0.965601</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.33493</v>
+        <v>2.29125</v>
       </c>
       <c r="C84" t="n">
-        <v>1.67219</v>
+        <v>1.63738</v>
       </c>
       <c r="D84" t="n">
-        <v>1.01115</v>
+        <v>0.983314</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.42672</v>
+        <v>2.3719</v>
       </c>
       <c r="C85" t="n">
-        <v>1.73482</v>
+        <v>1.70478</v>
       </c>
       <c r="D85" t="n">
-        <v>1.05668</v>
+        <v>1.0518</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.54861</v>
+        <v>2.51923</v>
       </c>
       <c r="C86" t="n">
-        <v>1.8441</v>
+        <v>1.83068</v>
       </c>
       <c r="D86" t="n">
-        <v>1.0924</v>
+        <v>1.10799</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.67526</v>
+        <v>2.73144</v>
       </c>
       <c r="C87" t="n">
-        <v>1.88131</v>
+        <v>1.9093</v>
       </c>
       <c r="D87" t="n">
-        <v>1.19323</v>
+        <v>1.16211</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.84943</v>
+        <v>2.88348</v>
       </c>
       <c r="C88" t="n">
-        <v>2.01648</v>
+        <v>2.06557</v>
       </c>
       <c r="D88" t="n">
-        <v>1.22921</v>
+        <v>1.2013</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.90669</v>
+        <v>1.92589</v>
       </c>
       <c r="C89" t="n">
-        <v>2.13643</v>
+        <v>2.10477</v>
       </c>
       <c r="D89" t="n">
-        <v>1.2904</v>
+        <v>1.27117</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.02242</v>
+        <v>2.00164</v>
       </c>
       <c r="C90" t="n">
-        <v>2.28151</v>
+        <v>2.29184</v>
       </c>
       <c r="D90" t="n">
-        <v>1.34926</v>
+        <v>1.3464</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.11299</v>
+        <v>2.08019</v>
       </c>
       <c r="C91" t="n">
-        <v>2.43669</v>
+        <v>2.4053</v>
       </c>
       <c r="D91" t="n">
-        <v>1.45487</v>
+        <v>1.42316</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.16797</v>
+        <v>2.18723</v>
       </c>
       <c r="C92" t="n">
-        <v>2.53747</v>
+        <v>2.60594</v>
       </c>
       <c r="D92" t="n">
-        <v>1.48653</v>
+        <v>1.48564</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.29186</v>
+        <v>2.23477</v>
       </c>
       <c r="C93" t="n">
-        <v>2.64015</v>
+        <v>2.61837</v>
       </c>
       <c r="D93" t="n">
-        <v>1.51379</v>
+        <v>1.52209</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.30528</v>
+        <v>2.36662</v>
       </c>
       <c r="C94" t="n">
-        <v>2.82401</v>
+        <v>2.77039</v>
       </c>
       <c r="D94" t="n">
-        <v>1.62531</v>
+        <v>1.63563</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.47343</v>
+        <v>2.43868</v>
       </c>
       <c r="C95" t="n">
-        <v>2.8936</v>
+        <v>2.92003</v>
       </c>
       <c r="D95" t="n">
-        <v>1.6903</v>
+        <v>1.69495</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.57289</v>
+        <v>2.61031</v>
       </c>
       <c r="C96" t="n">
-        <v>3.1296</v>
+        <v>3.07451</v>
       </c>
       <c r="D96" t="n">
-        <v>1.78139</v>
+        <v>1.77669</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.72691</v>
+        <v>2.69002</v>
       </c>
       <c r="C97" t="n">
-        <v>1.96654</v>
+        <v>1.9543</v>
       </c>
       <c r="D97" t="n">
-        <v>1.33525</v>
+        <v>1.35118</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.86981</v>
+        <v>2.84715</v>
       </c>
       <c r="C98" t="n">
-        <v>2.04562</v>
+        <v>2.02461</v>
       </c>
       <c r="D98" t="n">
-        <v>1.38639</v>
+        <v>1.37117</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.99824</v>
+        <v>2.98821</v>
       </c>
       <c r="C99" t="n">
-        <v>2.09294</v>
+        <v>2.09547</v>
       </c>
       <c r="D99" t="n">
-        <v>1.43611</v>
+        <v>1.39636</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.10372</v>
+        <v>3.05427</v>
       </c>
       <c r="C100" t="n">
-        <v>2.17418</v>
+        <v>2.20265</v>
       </c>
       <c r="D100" t="n">
-        <v>1.47747</v>
+        <v>1.47245</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.17543</v>
+        <v>3.17887</v>
       </c>
       <c r="C101" t="n">
-        <v>2.31457</v>
+        <v>2.33453</v>
       </c>
       <c r="D101" t="n">
-        <v>1.50182</v>
+        <v>1.51298</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.43747</v>
+        <v>3.36416</v>
       </c>
       <c r="C102" t="n">
-        <v>2.36103</v>
+        <v>2.38016</v>
       </c>
       <c r="D102" t="n">
-        <v>1.56133</v>
+        <v>1.57869</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.28086</v>
+        <v>2.22594</v>
       </c>
       <c r="C103" t="n">
-        <v>2.48035</v>
+        <v>2.47593</v>
       </c>
       <c r="D103" t="n">
-        <v>1.58974</v>
+        <v>1.60309</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.34979</v>
+        <v>2.29615</v>
       </c>
       <c r="C104" t="n">
-        <v>2.56452</v>
+        <v>2.5959</v>
       </c>
       <c r="D104" t="n">
-        <v>1.65412</v>
+        <v>1.65074</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.42099</v>
+        <v>2.41265</v>
       </c>
       <c r="C105" t="n">
-        <v>2.69566</v>
+        <v>2.69258</v>
       </c>
       <c r="D105" t="n">
-        <v>1.7369</v>
+        <v>1.70649</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.4671</v>
+        <v>2.45552</v>
       </c>
       <c r="C106" t="n">
-        <v>2.87982</v>
+        <v>2.81245</v>
       </c>
       <c r="D106" t="n">
-        <v>1.736</v>
+        <v>1.76491</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.63009</v>
+        <v>2.60771</v>
       </c>
       <c r="C107" t="n">
-        <v>2.90352</v>
+        <v>2.90939</v>
       </c>
       <c r="D107" t="n">
-        <v>1.80524</v>
+        <v>1.83159</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.68663</v>
+        <v>2.72595</v>
       </c>
       <c r="C108" t="n">
-        <v>3.04311</v>
+        <v>3.03009</v>
       </c>
       <c r="D108" t="n">
-        <v>1.86696</v>
+        <v>1.89596</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.80704</v>
+        <v>2.78091</v>
       </c>
       <c r="C109" t="n">
-        <v>3.15244</v>
+        <v>3.18267</v>
       </c>
       <c r="D109" t="n">
-        <v>1.98944</v>
+        <v>1.96349</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.96937</v>
+        <v>2.9009</v>
       </c>
       <c r="C110" t="n">
-        <v>3.35074</v>
+        <v>3.38774</v>
       </c>
       <c r="D110" t="n">
-        <v>2.08442</v>
+        <v>2.02081</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.98615</v>
+        <v>2.98988</v>
       </c>
       <c r="C111" t="n">
-        <v>2.21099</v>
+        <v>2.20306</v>
       </c>
       <c r="D111" t="n">
-        <v>1.60086</v>
+        <v>1.59942</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.15049</v>
+        <v>3.12627</v>
       </c>
       <c r="C112" t="n">
-        <v>2.30657</v>
+        <v>2.29372</v>
       </c>
       <c r="D112" t="n">
-        <v>1.63623</v>
+        <v>1.62528</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.25693</v>
+        <v>3.27278</v>
       </c>
       <c r="C113" t="n">
-        <v>2.38691</v>
+        <v>2.37967</v>
       </c>
       <c r="D113" t="n">
-        <v>1.66463</v>
+        <v>1.67078</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.40966</v>
+        <v>3.34388</v>
       </c>
       <c r="C114" t="n">
-        <v>2.44815</v>
+        <v>2.465</v>
       </c>
       <c r="D114" t="n">
-        <v>1.71656</v>
+        <v>1.72828</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.47967</v>
+        <v>3.52276</v>
       </c>
       <c r="C115" t="n">
-        <v>2.52305</v>
+        <v>2.57313</v>
       </c>
       <c r="D115" t="n">
-        <v>1.76956</v>
+        <v>1.79519</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.65967</v>
+        <v>3.70506</v>
       </c>
       <c r="C116" t="n">
-        <v>2.63276</v>
+        <v>2.63227</v>
       </c>
       <c r="D116" t="n">
-        <v>1.82768</v>
+        <v>1.81078</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.45221</v>
+        <v>2.45997</v>
       </c>
       <c r="C117" t="n">
-        <v>2.7608</v>
+        <v>2.72852</v>
       </c>
       <c r="D117" t="n">
-        <v>1.87293</v>
+        <v>1.85715</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.56359</v>
+        <v>2.54855</v>
       </c>
       <c r="C118" t="n">
-        <v>2.84437</v>
+        <v>2.87002</v>
       </c>
       <c r="D118" t="n">
-        <v>1.94621</v>
+        <v>1.94499</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.64825</v>
+        <v>2.6645</v>
       </c>
       <c r="C119" t="n">
-        <v>2.99331</v>
+        <v>2.96229</v>
       </c>
       <c r="D119" t="n">
-        <v>2.04137</v>
+        <v>2.01743</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered successful looukp.xlsx
+++ b/vs/scattered successful looukp.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.220084</v>
+        <v>0.220585</v>
       </c>
       <c r="C2" t="n">
-        <v>0.189306</v>
+        <v>0.19526</v>
       </c>
       <c r="D2" t="n">
-        <v>0.212374</v>
+        <v>0.211369</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.213727</v>
+        <v>0.223706</v>
       </c>
       <c r="C3" t="n">
-        <v>0.195395</v>
+        <v>0.196938</v>
       </c>
       <c r="D3" t="n">
-        <v>0.216158</v>
+        <v>0.2192</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.217396</v>
+        <v>0.222489</v>
       </c>
       <c r="C4" t="n">
-        <v>0.208067</v>
+        <v>0.208344</v>
       </c>
       <c r="D4" t="n">
-        <v>0.222774</v>
+        <v>0.225174</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.224437</v>
+        <v>0.224061</v>
       </c>
       <c r="C5" t="n">
-        <v>0.208842</v>
+        <v>0.203956</v>
       </c>
       <c r="D5" t="n">
-        <v>0.237584</v>
+        <v>0.231166</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.233023</v>
+        <v>0.232103</v>
       </c>
       <c r="C6" t="n">
-        <v>0.210313</v>
+        <v>0.211507</v>
       </c>
       <c r="D6" t="n">
-        <v>0.230609</v>
+        <v>0.233244</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.236713</v>
+        <v>0.230354</v>
       </c>
       <c r="C7" t="n">
-        <v>0.178658</v>
+        <v>0.186579</v>
       </c>
       <c r="D7" t="n">
-        <v>0.198947</v>
+        <v>0.2011</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.236816</v>
+        <v>0.242003</v>
       </c>
       <c r="C8" t="n">
-        <v>0.185855</v>
+        <v>0.182437</v>
       </c>
       <c r="D8" t="n">
-        <v>0.195139</v>
+        <v>0.20556</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.242966</v>
+        <v>0.241551</v>
       </c>
       <c r="C9" t="n">
-        <v>0.186413</v>
+        <v>0.18542</v>
       </c>
       <c r="D9" t="n">
-        <v>0.210985</v>
+        <v>0.202601</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.254797</v>
+        <v>0.248882</v>
       </c>
       <c r="C10" t="n">
-        <v>0.183859</v>
+        <v>0.188385</v>
       </c>
       <c r="D10" t="n">
-        <v>0.20488</v>
+        <v>0.213078</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.248802</v>
+        <v>0.255251</v>
       </c>
       <c r="C11" t="n">
-        <v>0.188443</v>
+        <v>0.191275</v>
       </c>
       <c r="D11" t="n">
-        <v>0.210228</v>
+        <v>0.214912</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.252659</v>
+        <v>0.261147</v>
       </c>
       <c r="C12" t="n">
-        <v>0.192827</v>
+        <v>0.196369</v>
       </c>
       <c r="D12" t="n">
-        <v>0.216783</v>
+        <v>0.219746</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.214893</v>
+        <v>0.222117</v>
       </c>
       <c r="C13" t="n">
-        <v>0.195243</v>
+        <v>0.201143</v>
       </c>
       <c r="D13" t="n">
-        <v>0.220548</v>
+        <v>0.227001</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.21735</v>
+        <v>0.2228</v>
       </c>
       <c r="C14" t="n">
-        <v>0.201799</v>
+        <v>0.203496</v>
       </c>
       <c r="D14" t="n">
-        <v>0.216311</v>
+        <v>0.222536</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.222886</v>
+        <v>0.221682</v>
       </c>
       <c r="C15" t="n">
-        <v>0.206178</v>
+        <v>0.203078</v>
       </c>
       <c r="D15" t="n">
-        <v>0.228009</v>
+        <v>0.233976</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.226568</v>
+        <v>0.228856</v>
       </c>
       <c r="C16" t="n">
-        <v>0.203375</v>
+        <v>0.20973</v>
       </c>
       <c r="D16" t="n">
-        <v>0.231416</v>
+        <v>0.23775</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.234014</v>
+        <v>0.235472</v>
       </c>
       <c r="C17" t="n">
-        <v>0.211628</v>
+        <v>0.218056</v>
       </c>
       <c r="D17" t="n">
-        <v>0.239541</v>
+        <v>0.236274</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.233173</v>
+        <v>0.239491</v>
       </c>
       <c r="C18" t="n">
-        <v>0.210565</v>
+        <v>0.216512</v>
       </c>
       <c r="D18" t="n">
-        <v>0.240252</v>
+        <v>0.2484</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.24116</v>
+        <v>0.247494</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2182</v>
+        <v>0.230137</v>
       </c>
       <c r="D19" t="n">
-        <v>0.24377</v>
+        <v>0.240388</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.24721</v>
+        <v>0.249557</v>
       </c>
       <c r="C20" t="n">
-        <v>0.225781</v>
+        <v>0.221894</v>
       </c>
       <c r="D20" t="n">
-        <v>0.246793</v>
+        <v>0.252656</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.250581</v>
+        <v>0.25532</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196587</v>
+        <v>0.189561</v>
       </c>
       <c r="D21" t="n">
-        <v>0.212692</v>
+        <v>0.211835</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.252108</v>
+        <v>0.253336</v>
       </c>
       <c r="C22" t="n">
-        <v>0.195981</v>
+        <v>0.194924</v>
       </c>
       <c r="D22" t="n">
-        <v>0.219146</v>
+        <v>0.223943</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.267706</v>
+        <v>0.249468</v>
       </c>
       <c r="C23" t="n">
-        <v>0.199178</v>
+        <v>0.195351</v>
       </c>
       <c r="D23" t="n">
-        <v>0.219348</v>
+        <v>0.221736</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.261323</v>
+        <v>0.259068</v>
       </c>
       <c r="C24" t="n">
-        <v>0.207764</v>
+        <v>0.196415</v>
       </c>
       <c r="D24" t="n">
-        <v>0.225602</v>
+        <v>0.225409</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.26274</v>
+        <v>0.268668</v>
       </c>
       <c r="C25" t="n">
-        <v>0.206892</v>
+        <v>0.202384</v>
       </c>
       <c r="D25" t="n">
-        <v>0.225757</v>
+        <v>0.223537</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.270016</v>
+        <v>0.271699</v>
       </c>
       <c r="C26" t="n">
-        <v>0.206036</v>
+        <v>0.208005</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227898</v>
+        <v>0.229512</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.227485</v>
+        <v>0.237478</v>
       </c>
       <c r="C27" t="n">
-        <v>0.204952</v>
+        <v>0.215106</v>
       </c>
       <c r="D27" t="n">
-        <v>0.226691</v>
+        <v>0.24483</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.231393</v>
+        <v>0.235977</v>
       </c>
       <c r="C28" t="n">
-        <v>0.21213</v>
+        <v>0.213093</v>
       </c>
       <c r="D28" t="n">
-        <v>0.235592</v>
+        <v>0.235642</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.244879</v>
+        <v>0.242271</v>
       </c>
       <c r="C29" t="n">
-        <v>0.220094</v>
+        <v>0.216415</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2467</v>
+        <v>0.240953</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.254986</v>
+        <v>0.241691</v>
       </c>
       <c r="C30" t="n">
-        <v>0.223319</v>
+        <v>0.220441</v>
       </c>
       <c r="D30" t="n">
-        <v>0.247272</v>
+        <v>0.249255</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.254651</v>
+        <v>0.248381</v>
       </c>
       <c r="C31" t="n">
-        <v>0.227018</v>
+        <v>0.226405</v>
       </c>
       <c r="D31" t="n">
-        <v>0.250332</v>
+        <v>0.254298</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.254771</v>
+        <v>0.258441</v>
       </c>
       <c r="C32" t="n">
-        <v>0.230799</v>
+        <v>0.232202</v>
       </c>
       <c r="D32" t="n">
-        <v>0.25205</v>
+        <v>0.262727</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.257906</v>
+        <v>0.260619</v>
       </c>
       <c r="C33" t="n">
-        <v>0.241281</v>
+        <v>0.242164</v>
       </c>
       <c r="D33" t="n">
-        <v>0.263916</v>
+        <v>0.270584</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.264727</v>
+        <v>0.26103</v>
       </c>
       <c r="C34" t="n">
-        <v>0.237431</v>
+        <v>0.24701</v>
       </c>
       <c r="D34" t="n">
-        <v>0.262833</v>
+        <v>0.265495</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.277917</v>
+        <v>0.271924</v>
       </c>
       <c r="C35" t="n">
-        <v>0.219635</v>
+        <v>0.219184</v>
       </c>
       <c r="D35" t="n">
-        <v>0.230114</v>
+        <v>0.231394</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.277417</v>
+        <v>0.282407</v>
       </c>
       <c r="C36" t="n">
-        <v>0.21638</v>
+        <v>0.215165</v>
       </c>
       <c r="D36" t="n">
-        <v>0.23835</v>
+        <v>0.233632</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.284377</v>
+        <v>0.283132</v>
       </c>
       <c r="C37" t="n">
-        <v>0.233678</v>
+        <v>0.228715</v>
       </c>
       <c r="D37" t="n">
-        <v>0.246656</v>
+        <v>0.241724</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.311261</v>
+        <v>0.291829</v>
       </c>
       <c r="C38" t="n">
-        <v>0.231732</v>
+        <v>0.220802</v>
       </c>
       <c r="D38" t="n">
-        <v>0.257718</v>
+        <v>0.244333</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.300615</v>
+        <v>0.302193</v>
       </c>
       <c r="C39" t="n">
-        <v>0.230859</v>
+        <v>0.228469</v>
       </c>
       <c r="D39" t="n">
-        <v>0.253367</v>
+        <v>0.256819</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.313204</v>
+        <v>0.311543</v>
       </c>
       <c r="C40" t="n">
-        <v>0.241304</v>
+        <v>0.24598</v>
       </c>
       <c r="D40" t="n">
-        <v>0.265323</v>
+        <v>0.265216</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.305986</v>
+        <v>0.316693</v>
       </c>
       <c r="C41" t="n">
-        <v>0.245389</v>
+        <v>0.250701</v>
       </c>
       <c r="D41" t="n">
-        <v>0.262663</v>
+        <v>0.261926</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.312532</v>
+        <v>0.304285</v>
       </c>
       <c r="C42" t="n">
-        <v>0.252377</v>
+        <v>0.250255</v>
       </c>
       <c r="D42" t="n">
-        <v>0.276274</v>
+        <v>0.277061</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.312568</v>
+        <v>0.328107</v>
       </c>
       <c r="C43" t="n">
-        <v>0.249959</v>
+        <v>0.258686</v>
       </c>
       <c r="D43" t="n">
-        <v>0.270068</v>
+        <v>0.27865</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.342528</v>
+        <v>0.338231</v>
       </c>
       <c r="C44" t="n">
-        <v>0.265921</v>
+        <v>0.266874</v>
       </c>
       <c r="D44" t="n">
-        <v>0.29057</v>
+        <v>0.282101</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.352151</v>
+        <v>0.330588</v>
       </c>
       <c r="C45" t="n">
-        <v>0.270167</v>
+        <v>0.275828</v>
       </c>
       <c r="D45" t="n">
-        <v>0.298311</v>
+        <v>0.293874</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.347238</v>
+        <v>0.350175</v>
       </c>
       <c r="C46" t="n">
-        <v>0.280961</v>
+        <v>0.275417</v>
       </c>
       <c r="D46" t="n">
-        <v>0.304971</v>
+        <v>0.298569</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.356237</v>
+        <v>0.356299</v>
       </c>
       <c r="C47" t="n">
-        <v>0.283046</v>
+        <v>0.282045</v>
       </c>
       <c r="D47" t="n">
-        <v>0.304779</v>
+        <v>0.306123</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.364965</v>
+        <v>0.368303</v>
       </c>
       <c r="C48" t="n">
-        <v>0.290923</v>
+        <v>0.297071</v>
       </c>
       <c r="D48" t="n">
-        <v>0.322925</v>
+        <v>0.319359</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.369513</v>
+        <v>0.38753</v>
       </c>
       <c r="C49" t="n">
-        <v>0.302915</v>
+        <v>0.301078</v>
       </c>
       <c r="D49" t="n">
-        <v>0.32353</v>
+        <v>0.324792</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.391185</v>
+        <v>0.393202</v>
       </c>
       <c r="C50" t="n">
-        <v>0.295739</v>
+        <v>0.296159</v>
       </c>
       <c r="D50" t="n">
-        <v>0.292801</v>
+        <v>0.304392</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.399187</v>
+        <v>0.404329</v>
       </c>
       <c r="C51" t="n">
-        <v>0.295151</v>
+        <v>0.30707</v>
       </c>
       <c r="D51" t="n">
-        <v>0.306182</v>
+        <v>0.31257</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.416491</v>
+        <v>0.417086</v>
       </c>
       <c r="C52" t="n">
-        <v>0.311232</v>
+        <v>0.311155</v>
       </c>
       <c r="D52" t="n">
-        <v>0.312109</v>
+        <v>0.330583</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.425958</v>
+        <v>0.435858</v>
       </c>
       <c r="C53" t="n">
-        <v>0.311354</v>
+        <v>0.312511</v>
       </c>
       <c r="D53" t="n">
-        <v>0.322936</v>
+        <v>0.32168</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.438448</v>
+        <v>0.437741</v>
       </c>
       <c r="C54" t="n">
-        <v>0.319112</v>
+        <v>0.325796</v>
       </c>
       <c r="D54" t="n">
-        <v>0.346761</v>
+        <v>0.334319</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.475307</v>
+        <v>0.463094</v>
       </c>
       <c r="C55" t="n">
-        <v>0.333504</v>
+        <v>0.338386</v>
       </c>
       <c r="D55" t="n">
-        <v>0.356907</v>
+        <v>0.356224</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.562772</v>
+        <v>0.496393</v>
       </c>
       <c r="C56" t="n">
-        <v>0.350915</v>
+        <v>0.34823</v>
       </c>
       <c r="D56" t="n">
-        <v>0.366224</v>
+        <v>0.366601</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.548812</v>
+        <v>0.526554</v>
       </c>
       <c r="C57" t="n">
-        <v>0.372396</v>
+        <v>0.358832</v>
       </c>
       <c r="D57" t="n">
-        <v>0.374609</v>
+        <v>0.391032</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.527019</v>
+        <v>0.530043</v>
       </c>
       <c r="C58" t="n">
-        <v>0.382331</v>
+        <v>0.374635</v>
       </c>
       <c r="D58" t="n">
-        <v>0.394183</v>
+        <v>0.394063</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5797099999999999</v>
+        <v>0.542699</v>
       </c>
       <c r="C59" t="n">
-        <v>0.404844</v>
+        <v>0.387342</v>
       </c>
       <c r="D59" t="n">
-        <v>0.428532</v>
+        <v>0.401387</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5771810000000001</v>
+        <v>0.55867</v>
       </c>
       <c r="C60" t="n">
-        <v>0.40355</v>
+        <v>0.412892</v>
       </c>
       <c r="D60" t="n">
-        <v>0.421726</v>
+        <v>0.415123</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.586798</v>
+        <v>0.584309</v>
       </c>
       <c r="C61" t="n">
-        <v>0.418424</v>
+        <v>0.428687</v>
       </c>
       <c r="D61" t="n">
-        <v>0.437338</v>
+        <v>0.442393</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.622736</v>
+        <v>0.630081</v>
       </c>
       <c r="C62" t="n">
-        <v>0.429452</v>
+        <v>0.455642</v>
       </c>
       <c r="D62" t="n">
-        <v>0.471949</v>
+        <v>0.461325</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.604626</v>
+        <v>0.621996</v>
       </c>
       <c r="C63" t="n">
-        <v>0.452907</v>
+        <v>0.450984</v>
       </c>
       <c r="D63" t="n">
-        <v>0.47908</v>
+        <v>0.478828</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.62871</v>
+        <v>0.640518</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5096850000000001</v>
+        <v>0.5029090000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.537857</v>
+        <v>0.5058820000000001</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.692895</v>
+        <v>0.659602</v>
       </c>
       <c r="C65" t="n">
-        <v>0.538732</v>
+        <v>0.505488</v>
       </c>
       <c r="D65" t="n">
-        <v>0.563034</v>
+        <v>0.533145</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.741169</v>
+        <v>0.6735370000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.583994</v>
+        <v>0.521366</v>
       </c>
       <c r="D66" t="n">
-        <v>0.569116</v>
+        <v>0.530883</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.72542</v>
+        <v>0.712549</v>
       </c>
       <c r="C67" t="n">
-        <v>0.522311</v>
+        <v>0.544919</v>
       </c>
       <c r="D67" t="n">
-        <v>0.548314</v>
+        <v>0.560306</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.740438</v>
+        <v>0.734828</v>
       </c>
       <c r="C68" t="n">
-        <v>0.539141</v>
+        <v>0.5606910000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.594617</v>
+        <v>0.580886</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.770077</v>
+        <v>0.780645</v>
       </c>
       <c r="C69" t="n">
-        <v>0.598285</v>
+        <v>0.60131</v>
       </c>
       <c r="D69" t="n">
-        <v>0.620165</v>
+        <v>0.588081</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.816827</v>
+        <v>0.811292</v>
       </c>
       <c r="C70" t="n">
-        <v>0.590315</v>
+        <v>0.589615</v>
       </c>
       <c r="D70" t="n">
-        <v>0.619167</v>
+        <v>0.602115</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.77045</v>
+        <v>0.784738</v>
       </c>
       <c r="C71" t="n">
-        <v>0.642192</v>
+        <v>0.645439</v>
       </c>
       <c r="D71" t="n">
-        <v>0.667618</v>
+        <v>0.658245</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8337639999999999</v>
+        <v>0.82753</v>
       </c>
       <c r="C72" t="n">
-        <v>0.636643</v>
+        <v>0.622384</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6616880000000001</v>
+        <v>0.646113</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.811948</v>
+        <v>0.807358</v>
       </c>
       <c r="C73" t="n">
-        <v>0.663063</v>
+        <v>0.669921</v>
       </c>
       <c r="D73" t="n">
-        <v>0.681907</v>
+        <v>0.692379</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.863113</v>
+        <v>0.864318</v>
       </c>
       <c r="C74" t="n">
-        <v>0.681081</v>
+        <v>0.655703</v>
       </c>
       <c r="D74" t="n">
-        <v>0.733486</v>
+        <v>0.684405</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.847059</v>
+        <v>0.815215</v>
       </c>
       <c r="C75" t="n">
-        <v>0.698453</v>
+        <v>0.724226</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7260760000000001</v>
+        <v>0.731162</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.884365</v>
+        <v>0.8702299999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.738784</v>
+        <v>0.713346</v>
       </c>
       <c r="D76" t="n">
-        <v>0.747945</v>
+        <v>0.715492</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.901064</v>
+        <v>0.869653</v>
       </c>
       <c r="C77" t="n">
-        <v>0.752638</v>
+        <v>0.744705</v>
       </c>
       <c r="D77" t="n">
-        <v>0.776446</v>
+        <v>0.774184</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.935854</v>
+        <v>0.924982</v>
       </c>
       <c r="C78" t="n">
-        <v>0.754848</v>
+        <v>0.7110300000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.76139</v>
+        <v>0.782465</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.915129</v>
+        <v>0.91008</v>
       </c>
       <c r="C79" t="n">
-        <v>0.747411</v>
+        <v>0.743667</v>
       </c>
       <c r="D79" t="n">
-        <v>0.798673</v>
+        <v>0.787276</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.932454</v>
+        <v>0.921651</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7506930000000001</v>
+        <v>0.741693</v>
       </c>
       <c r="D80" t="n">
-        <v>0.814672</v>
+        <v>0.775596</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.946559</v>
+        <v>0.949373</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7700669999999999</v>
+        <v>0.760387</v>
       </c>
       <c r="D81" t="n">
-        <v>0.796362</v>
+        <v>0.819612</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.973154</v>
+        <v>0.970683</v>
       </c>
       <c r="C82" t="n">
-        <v>0.768333</v>
+        <v>0.809987</v>
       </c>
       <c r="D82" t="n">
-        <v>0.823754</v>
+        <v>0.830137</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.986515</v>
+        <v>1.00793</v>
       </c>
       <c r="C83" t="n">
-        <v>0.817313</v>
+        <v>0.792899</v>
       </c>
       <c r="D83" t="n">
-        <v>0.822141</v>
+        <v>0.832317</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.929908</v>
+        <v>0.92193</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8328680000000001</v>
+        <v>0.811155</v>
       </c>
       <c r="D84" t="n">
-        <v>0.868543</v>
+        <v>0.842477</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.914526</v>
+        <v>0.928903</v>
       </c>
       <c r="C85" t="n">
-        <v>0.848774</v>
+        <v>0.826811</v>
       </c>
       <c r="D85" t="n">
-        <v>0.885177</v>
+        <v>0.872688</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.944481</v>
+        <v>0.956809</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8340959999999999</v>
+        <v>0.859884</v>
       </c>
       <c r="D86" t="n">
-        <v>0.87126</v>
+        <v>0.891557</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.940923</v>
+        <v>0.95682</v>
       </c>
       <c r="C87" t="n">
-        <v>0.881324</v>
+        <v>0.878679</v>
       </c>
       <c r="D87" t="n">
-        <v>0.912053</v>
+        <v>0.91631</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.958658</v>
+        <v>0.992772</v>
       </c>
       <c r="C88" t="n">
-        <v>0.891912</v>
+        <v>0.896135</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9232089999999999</v>
+        <v>0.915343</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.973055</v>
+        <v>0.9917589999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>0.880552</v>
+        <v>0.89452</v>
       </c>
       <c r="D89" t="n">
-        <v>0.925547</v>
+        <v>0.9449610000000001</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.01029</v>
+        <v>1.00563</v>
       </c>
       <c r="C90" t="n">
-        <v>0.923923</v>
+        <v>0.915019</v>
       </c>
       <c r="D90" t="n">
-        <v>0.96793</v>
+        <v>0.934458</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.02016</v>
+        <v>1.01418</v>
       </c>
       <c r="C91" t="n">
-        <v>0.936786</v>
+        <v>0.943808</v>
       </c>
       <c r="D91" t="n">
-        <v>0.976319</v>
+        <v>0.967931</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.0328</v>
+        <v>1.03098</v>
       </c>
       <c r="C92" t="n">
-        <v>0.881955</v>
+        <v>0.86507</v>
       </c>
       <c r="D92" t="n">
-        <v>0.90066</v>
+        <v>0.913367</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.0405</v>
+        <v>1.02631</v>
       </c>
       <c r="C93" t="n">
-        <v>0.874027</v>
+        <v>0.891142</v>
       </c>
       <c r="D93" t="n">
-        <v>0.93954</v>
+        <v>0.914119</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.07969</v>
+        <v>1.05996</v>
       </c>
       <c r="C94" t="n">
-        <v>0.925285</v>
+        <v>0.888829</v>
       </c>
       <c r="D94" t="n">
-        <v>0.923651</v>
+        <v>0.935208</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.07528</v>
+        <v>1.11528</v>
       </c>
       <c r="C95" t="n">
-        <v>0.907633</v>
+        <v>0.92472</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9563700000000001</v>
+        <v>0.93198</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.08703</v>
+        <v>1.12615</v>
       </c>
       <c r="C96" t="n">
-        <v>0.922983</v>
+        <v>0.913224</v>
       </c>
       <c r="D96" t="n">
-        <v>0.977167</v>
+        <v>0.952695</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.13228</v>
+        <v>1.1287</v>
       </c>
       <c r="C97" t="n">
-        <v>0.939681</v>
+        <v>0.929422</v>
       </c>
       <c r="D97" t="n">
-        <v>0.960633</v>
+        <v>0.965785</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.993009</v>
+        <v>1.02277</v>
       </c>
       <c r="C98" t="n">
-        <v>0.957475</v>
+        <v>0.945513</v>
       </c>
       <c r="D98" t="n">
-        <v>0.970007</v>
+        <v>0.979274</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.01755</v>
+        <v>1.01234</v>
       </c>
       <c r="C99" t="n">
-        <v>0.95828</v>
+        <v>0.952841</v>
       </c>
       <c r="D99" t="n">
-        <v>0.9902</v>
+        <v>0.990863</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.04676</v>
+        <v>1.03206</v>
       </c>
       <c r="C100" t="n">
-        <v>1.0075</v>
+        <v>0.998965</v>
       </c>
       <c r="D100" t="n">
-        <v>1.00657</v>
+        <v>1.0249</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.03592</v>
+        <v>1.04108</v>
       </c>
       <c r="C101" t="n">
-        <v>0.998929</v>
+        <v>0.991437</v>
       </c>
       <c r="D101" t="n">
-        <v>1.03126</v>
+        <v>1.0378</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.05659</v>
+        <v>1.04801</v>
       </c>
       <c r="C102" t="n">
-        <v>1.02189</v>
+        <v>1.03037</v>
       </c>
       <c r="D102" t="n">
-        <v>1.05759</v>
+        <v>1.05662</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.0782</v>
+        <v>1.07929</v>
       </c>
       <c r="C103" t="n">
-        <v>1.03337</v>
+        <v>1.03402</v>
       </c>
       <c r="D103" t="n">
-        <v>1.09085</v>
+        <v>1.04691</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.12371</v>
+        <v>1.09844</v>
       </c>
       <c r="C104" t="n">
-        <v>1.05641</v>
+        <v>1.04965</v>
       </c>
       <c r="D104" t="n">
-        <v>1.0895</v>
+        <v>1.08765</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.09178</v>
+        <v>1.11618</v>
       </c>
       <c r="C105" t="n">
-        <v>1.08354</v>
+        <v>1.07417</v>
       </c>
       <c r="D105" t="n">
-        <v>1.10632</v>
+        <v>1.11888</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.15628</v>
+        <v>1.1095</v>
       </c>
       <c r="C106" t="n">
-        <v>1.11205</v>
+        <v>1.10513</v>
       </c>
       <c r="D106" t="n">
-        <v>1.13936</v>
+        <v>1.11855</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.15272</v>
+        <v>1.12829</v>
       </c>
       <c r="C107" t="n">
-        <v>1.01816</v>
+        <v>0.990217</v>
       </c>
       <c r="D107" t="n">
-        <v>1.0229</v>
+        <v>1.02213</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.18351</v>
+        <v>1.15719</v>
       </c>
       <c r="C108" t="n">
-        <v>1.00363</v>
+        <v>1.03679</v>
       </c>
       <c r="D108" t="n">
-        <v>1.05024</v>
+        <v>1.03198</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.1813</v>
+        <v>1.17651</v>
       </c>
       <c r="C109" t="n">
-        <v>1.02826</v>
+        <v>1.03141</v>
       </c>
       <c r="D109" t="n">
-        <v>1.06106</v>
+        <v>1.05319</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.2077</v>
+        <v>1.18954</v>
       </c>
       <c r="C110" t="n">
-        <v>1.04192</v>
+        <v>1.05717</v>
       </c>
       <c r="D110" t="n">
-        <v>1.09787</v>
+        <v>1.08009</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.22881</v>
+        <v>1.21911</v>
       </c>
       <c r="C111" t="n">
-        <v>1.08927</v>
+        <v>1.05086</v>
       </c>
       <c r="D111" t="n">
-        <v>1.07768</v>
+        <v>1.06545</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.09712</v>
+        <v>1.08105</v>
       </c>
       <c r="C112" t="n">
-        <v>1.08206</v>
+        <v>1.0664</v>
       </c>
       <c r="D112" t="n">
-        <v>1.11155</v>
+        <v>1.07776</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.10425</v>
+        <v>1.10866</v>
       </c>
       <c r="C113" t="n">
-        <v>1.09937</v>
+        <v>1.05886</v>
       </c>
       <c r="D113" t="n">
-        <v>1.1227</v>
+        <v>1.11284</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14734</v>
+        <v>1.10666</v>
       </c>
       <c r="C114" t="n">
-        <v>1.11165</v>
+        <v>1.0957</v>
       </c>
       <c r="D114" t="n">
-        <v>1.12818</v>
+        <v>1.12901</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.18009</v>
+        <v>1.13721</v>
       </c>
       <c r="C115" t="n">
-        <v>1.09738</v>
+        <v>1.11494</v>
       </c>
       <c r="D115" t="n">
-        <v>1.15282</v>
+        <v>1.16919</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.19174</v>
+        <v>1.17546</v>
       </c>
       <c r="C116" t="n">
-        <v>1.16084</v>
+        <v>1.1437</v>
       </c>
       <c r="D116" t="n">
-        <v>1.18784</v>
+        <v>1.16728</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.21744</v>
+        <v>1.19474</v>
       </c>
       <c r="C117" t="n">
-        <v>1.18662</v>
+        <v>1.16332</v>
       </c>
       <c r="D117" t="n">
-        <v>1.21879</v>
+        <v>1.19291</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.20205</v>
+        <v>1.19356</v>
       </c>
       <c r="C118" t="n">
-        <v>1.17211</v>
+        <v>1.169</v>
       </c>
       <c r="D118" t="n">
-        <v>1.19849</v>
+        <v>1.20401</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.22454</v>
+        <v>1.188</v>
       </c>
       <c r="C119" t="n">
-        <v>1.18638</v>
+        <v>1.1853</v>
       </c>
       <c r="D119" t="n">
-        <v>1.23167</v>
+        <v>1.24068</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.232659</v>
+        <v>0.232825</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187523</v>
+        <v>0.184046</v>
       </c>
       <c r="D2" t="n">
-        <v>0.189776</v>
+        <v>0.186308</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.229105</v>
+        <v>0.223826</v>
       </c>
       <c r="C3" t="n">
-        <v>0.190798</v>
+        <v>0.187713</v>
       </c>
       <c r="D3" t="n">
-        <v>0.194303</v>
+        <v>0.199695</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.236214</v>
+        <v>0.239321</v>
       </c>
       <c r="C4" t="n">
-        <v>0.195516</v>
+        <v>0.197238</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200713</v>
+        <v>0.193594</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.244981</v>
+        <v>0.242248</v>
       </c>
       <c r="C5" t="n">
-        <v>0.195701</v>
+        <v>0.194807</v>
       </c>
       <c r="D5" t="n">
-        <v>0.194664</v>
+        <v>0.201031</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.237992</v>
+        <v>0.242489</v>
       </c>
       <c r="C6" t="n">
-        <v>0.208862</v>
+        <v>0.207044</v>
       </c>
       <c r="D6" t="n">
-        <v>0.19355</v>
+        <v>0.201468</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.240489</v>
+        <v>0.24043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.180347</v>
+        <v>0.184953</v>
       </c>
       <c r="D7" t="n">
-        <v>0.194753</v>
+        <v>0.202319</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.24412</v>
+        <v>0.247504</v>
       </c>
       <c r="C8" t="n">
-        <v>0.193696</v>
+        <v>0.187159</v>
       </c>
       <c r="D8" t="n">
-        <v>0.203932</v>
+        <v>0.200184</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.252096</v>
+        <v>0.251583</v>
       </c>
       <c r="C9" t="n">
-        <v>0.194197</v>
+        <v>0.198206</v>
       </c>
       <c r="D9" t="n">
-        <v>0.207258</v>
+        <v>0.211613</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.259447</v>
+        <v>0.255903</v>
       </c>
       <c r="C10" t="n">
-        <v>0.199112</v>
+        <v>0.201224</v>
       </c>
       <c r="D10" t="n">
-        <v>0.202315</v>
+        <v>0.217992</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.252383</v>
+        <v>0.248205</v>
       </c>
       <c r="C11" t="n">
-        <v>0.194499</v>
+        <v>0.203023</v>
       </c>
       <c r="D11" t="n">
-        <v>0.205893</v>
+        <v>0.203744</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.281193</v>
+        <v>0.262332</v>
       </c>
       <c r="C12" t="n">
-        <v>0.20631</v>
+        <v>0.212601</v>
       </c>
       <c r="D12" t="n">
-        <v>0.210037</v>
+        <v>0.204299</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.23842</v>
+        <v>0.24107</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206106</v>
+        <v>0.204908</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212288</v>
+        <v>0.215669</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.245523</v>
+        <v>0.256724</v>
       </c>
       <c r="C14" t="n">
-        <v>0.208217</v>
+        <v>0.210306</v>
       </c>
       <c r="D14" t="n">
-        <v>0.216215</v>
+        <v>0.216508</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.24459</v>
+        <v>0.244331</v>
       </c>
       <c r="C15" t="n">
-        <v>0.222168</v>
+        <v>0.214334</v>
       </c>
       <c r="D15" t="n">
-        <v>0.212767</v>
+        <v>0.215723</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.256341</v>
+        <v>0.257513</v>
       </c>
       <c r="C16" t="n">
-        <v>0.221586</v>
+        <v>0.213589</v>
       </c>
       <c r="D16" t="n">
-        <v>0.22566</v>
+        <v>0.216351</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.259757</v>
+        <v>0.254275</v>
       </c>
       <c r="C17" t="n">
-        <v>0.215831</v>
+        <v>0.222326</v>
       </c>
       <c r="D17" t="n">
-        <v>0.222394</v>
+        <v>0.223597</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.26099</v>
+        <v>0.260435</v>
       </c>
       <c r="C18" t="n">
-        <v>0.227601</v>
+        <v>0.230267</v>
       </c>
       <c r="D18" t="n">
-        <v>0.222032</v>
+        <v>0.232519</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.268898</v>
+        <v>0.25735</v>
       </c>
       <c r="C19" t="n">
-        <v>0.227383</v>
+        <v>0.231714</v>
       </c>
       <c r="D19" t="n">
-        <v>0.220582</v>
+        <v>0.230898</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.270623</v>
+        <v>0.277175</v>
       </c>
       <c r="C20" t="n">
-        <v>0.234251</v>
+        <v>0.238321</v>
       </c>
       <c r="D20" t="n">
-        <v>0.226188</v>
+        <v>0.225572</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.27075</v>
+        <v>0.267851</v>
       </c>
       <c r="C21" t="n">
-        <v>0.218846</v>
+        <v>0.221632</v>
       </c>
       <c r="D21" t="n">
-        <v>0.229468</v>
+        <v>0.227269</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.27982</v>
+        <v>0.279919</v>
       </c>
       <c r="C22" t="n">
-        <v>0.219121</v>
+        <v>0.222785</v>
       </c>
       <c r="D22" t="n">
-        <v>0.23393</v>
+        <v>0.241274</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.289013</v>
+        <v>0.303989</v>
       </c>
       <c r="C23" t="n">
-        <v>0.219549</v>
+        <v>0.22373</v>
       </c>
       <c r="D23" t="n">
-        <v>0.227881</v>
+        <v>0.230175</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.287326</v>
+        <v>0.286302</v>
       </c>
       <c r="C24" t="n">
-        <v>0.230602</v>
+        <v>0.238532</v>
       </c>
       <c r="D24" t="n">
-        <v>0.234502</v>
+        <v>0.231725</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.298953</v>
+        <v>0.299315</v>
       </c>
       <c r="C25" t="n">
-        <v>0.245247</v>
+        <v>0.245084</v>
       </c>
       <c r="D25" t="n">
-        <v>0.242552</v>
+        <v>0.23806</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.301071</v>
+        <v>0.309409</v>
       </c>
       <c r="C26" t="n">
-        <v>0.254748</v>
+        <v>0.241691</v>
       </c>
       <c r="D26" t="n">
-        <v>0.236631</v>
+        <v>0.232256</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.287727</v>
+        <v>0.270476</v>
       </c>
       <c r="C27" t="n">
-        <v>0.248989</v>
+        <v>0.247536</v>
       </c>
       <c r="D27" t="n">
-        <v>0.23844</v>
+        <v>0.235771</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.29297</v>
+        <v>0.29667</v>
       </c>
       <c r="C28" t="n">
-        <v>0.256759</v>
+        <v>0.263361</v>
       </c>
       <c r="D28" t="n">
-        <v>0.254418</v>
+        <v>0.249633</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.290942</v>
+        <v>0.290398</v>
       </c>
       <c r="C29" t="n">
-        <v>0.265434</v>
+        <v>0.249212</v>
       </c>
       <c r="D29" t="n">
-        <v>0.248184</v>
+        <v>0.249036</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.308719</v>
+        <v>0.296198</v>
       </c>
       <c r="C30" t="n">
-        <v>0.266422</v>
+        <v>0.263861</v>
       </c>
       <c r="D30" t="n">
-        <v>0.256833</v>
+        <v>0.252699</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.325565</v>
+        <v>0.310513</v>
       </c>
       <c r="C31" t="n">
-        <v>0.259941</v>
+        <v>0.260127</v>
       </c>
       <c r="D31" t="n">
-        <v>0.25612</v>
+        <v>0.245036</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.319644</v>
+        <v>0.334468</v>
       </c>
       <c r="C32" t="n">
-        <v>0.272987</v>
+        <v>0.26883</v>
       </c>
       <c r="D32" t="n">
-        <v>0.259313</v>
+        <v>0.255743</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.325758</v>
+        <v>0.325566</v>
       </c>
       <c r="C33" t="n">
-        <v>0.290726</v>
+        <v>0.28754</v>
       </c>
       <c r="D33" t="n">
-        <v>0.265198</v>
+        <v>0.26254</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.341821</v>
+        <v>0.351248</v>
       </c>
       <c r="C34" t="n">
-        <v>0.29245</v>
+        <v>0.298404</v>
       </c>
       <c r="D34" t="n">
-        <v>0.275953</v>
+        <v>0.272512</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.336534</v>
+        <v>0.349264</v>
       </c>
       <c r="C35" t="n">
-        <v>0.321549</v>
+        <v>0.254093</v>
       </c>
       <c r="D35" t="n">
-        <v>0.256914</v>
+        <v>0.247802</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.350311</v>
+        <v>0.365185</v>
       </c>
       <c r="C36" t="n">
-        <v>0.341155</v>
+        <v>0.26148</v>
       </c>
       <c r="D36" t="n">
-        <v>0.262662</v>
+        <v>0.252454</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.364723</v>
+        <v>0.367307</v>
       </c>
       <c r="C37" t="n">
-        <v>0.370805</v>
+        <v>0.262935</v>
       </c>
       <c r="D37" t="n">
-        <v>0.257588</v>
+        <v>0.256755</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.377405</v>
+        <v>0.377105</v>
       </c>
       <c r="C38" t="n">
-        <v>0.363778</v>
+        <v>0.270266</v>
       </c>
       <c r="D38" t="n">
-        <v>0.259442</v>
+        <v>0.271721</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.397923</v>
+        <v>0.379625</v>
       </c>
       <c r="C39" t="n">
-        <v>0.375398</v>
+        <v>0.292804</v>
       </c>
       <c r="D39" t="n">
-        <v>0.274077</v>
+        <v>0.269533</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.390893</v>
+        <v>0.394836</v>
       </c>
       <c r="C40" t="n">
-        <v>0.375029</v>
+        <v>0.315776</v>
       </c>
       <c r="D40" t="n">
-        <v>0.278428</v>
+        <v>0.264116</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.392251</v>
+        <v>0.393067</v>
       </c>
       <c r="C41" t="n">
-        <v>0.38896</v>
+        <v>0.310033</v>
       </c>
       <c r="D41" t="n">
-        <v>0.27856</v>
+        <v>0.282265</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.401495</v>
+        <v>0.401263</v>
       </c>
       <c r="C42" t="n">
-        <v>0.414579</v>
+        <v>0.302257</v>
       </c>
       <c r="D42" t="n">
-        <v>0.283127</v>
+        <v>0.27968</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.404154</v>
+        <v>0.40483</v>
       </c>
       <c r="C43" t="n">
-        <v>0.406317</v>
+        <v>0.312926</v>
       </c>
       <c r="D43" t="n">
-        <v>0.289198</v>
+        <v>0.285536</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.416568</v>
+        <v>0.413519</v>
       </c>
       <c r="C44" t="n">
-        <v>0.422221</v>
+        <v>0.32895</v>
       </c>
       <c r="D44" t="n">
-        <v>0.296335</v>
+        <v>0.298207</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.439004</v>
+        <v>0.425763</v>
       </c>
       <c r="C45" t="n">
-        <v>0.431895</v>
+        <v>0.349494</v>
       </c>
       <c r="D45" t="n">
-        <v>0.299937</v>
+        <v>0.302175</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.442198</v>
+        <v>0.450598</v>
       </c>
       <c r="C46" t="n">
-        <v>0.446007</v>
+        <v>0.347726</v>
       </c>
       <c r="D46" t="n">
-        <v>0.320758</v>
+        <v>0.300942</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.434426</v>
+        <v>0.439036</v>
       </c>
       <c r="C47" t="n">
-        <v>0.442194</v>
+        <v>0.356346</v>
       </c>
       <c r="D47" t="n">
-        <v>0.305275</v>
+        <v>0.309156</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.469182</v>
+        <v>0.463379</v>
       </c>
       <c r="C48" t="n">
-        <v>0.461854</v>
+        <v>0.357138</v>
       </c>
       <c r="D48" t="n">
-        <v>0.314974</v>
+        <v>0.320501</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.476072</v>
+        <v>0.48124</v>
       </c>
       <c r="C49" t="n">
-        <v>0.47418</v>
+        <v>0.379934</v>
       </c>
       <c r="D49" t="n">
-        <v>0.326073</v>
+        <v>0.318988</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.472858</v>
+        <v>0.492621</v>
       </c>
       <c r="C50" t="n">
-        <v>0.374902</v>
+        <v>0.379832</v>
       </c>
       <c r="D50" t="n">
-        <v>0.336969</v>
+        <v>0.335766</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.499975</v>
+        <v>0.488342</v>
       </c>
       <c r="C51" t="n">
-        <v>0.391294</v>
+        <v>0.396373</v>
       </c>
       <c r="D51" t="n">
-        <v>0.353516</v>
+        <v>0.351528</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.496652</v>
+        <v>0.501541</v>
       </c>
       <c r="C52" t="n">
-        <v>0.39716</v>
+        <v>0.396577</v>
       </c>
       <c r="D52" t="n">
-        <v>0.341035</v>
+        <v>0.346963</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.520996</v>
+        <v>0.511467</v>
       </c>
       <c r="C53" t="n">
-        <v>0.418298</v>
+        <v>0.407566</v>
       </c>
       <c r="D53" t="n">
-        <v>0.362702</v>
+        <v>0.357773</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.52395</v>
+        <v>0.533057</v>
       </c>
       <c r="C54" t="n">
-        <v>0.424818</v>
+        <v>0.433954</v>
       </c>
       <c r="D54" t="n">
-        <v>0.376949</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.552158</v>
+        <v>0.542087</v>
       </c>
       <c r="C55" t="n">
-        <v>0.436233</v>
+        <v>0.449845</v>
       </c>
       <c r="D55" t="n">
-        <v>0.376432</v>
+        <v>0.373376</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.513732</v>
+        <v>0.513373</v>
       </c>
       <c r="C56" t="n">
-        <v>0.457439</v>
+        <v>0.439038</v>
       </c>
       <c r="D56" t="n">
-        <v>0.386302</v>
+        <v>0.394968</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.526894</v>
+        <v>0.511616</v>
       </c>
       <c r="C57" t="n">
-        <v>0.489402</v>
+        <v>0.462353</v>
       </c>
       <c r="D57" t="n">
-        <v>0.389015</v>
+        <v>0.402788</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.515073</v>
+        <v>0.518991</v>
       </c>
       <c r="C58" t="n">
-        <v>0.48483</v>
+        <v>0.491337</v>
       </c>
       <c r="D58" t="n">
-        <v>0.405289</v>
+        <v>0.392196</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.548374</v>
+        <v>0.534066</v>
       </c>
       <c r="C59" t="n">
-        <v>0.496859</v>
+        <v>0.487408</v>
       </c>
       <c r="D59" t="n">
-        <v>0.413374</v>
+        <v>0.406886</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5554</v>
+        <v>0.565773</v>
       </c>
       <c r="C60" t="n">
-        <v>0.509034</v>
+        <v>0.5194220000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.422532</v>
+        <v>0.424928</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.565594</v>
+        <v>0.564618</v>
       </c>
       <c r="C61" t="n">
-        <v>0.514409</v>
+        <v>0.524441</v>
       </c>
       <c r="D61" t="n">
-        <v>0.422419</v>
+        <v>0.42891</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.579803</v>
+        <v>0.573289</v>
       </c>
       <c r="C62" t="n">
-        <v>0.548655</v>
+        <v>0.530603</v>
       </c>
       <c r="D62" t="n">
-        <v>0.440019</v>
+        <v>0.446255</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.592565</v>
+        <v>0.606149</v>
       </c>
       <c r="C63" t="n">
-        <v>0.551941</v>
+        <v>0.551207</v>
       </c>
       <c r="D63" t="n">
-        <v>0.448955</v>
+        <v>0.449199</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.614312</v>
+        <v>0.602038</v>
       </c>
       <c r="C64" t="n">
-        <v>0.513974</v>
+        <v>0.519905</v>
       </c>
       <c r="D64" t="n">
-        <v>0.460909</v>
+        <v>0.462488</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.630313</v>
+        <v>0.616522</v>
       </c>
       <c r="C65" t="n">
-        <v>0.534813</v>
+        <v>0.536523</v>
       </c>
       <c r="D65" t="n">
-        <v>0.477491</v>
+        <v>0.465936</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6535840000000001</v>
+        <v>0.641145</v>
       </c>
       <c r="C66" t="n">
-        <v>0.572639</v>
+        <v>0.548641</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4843</v>
+        <v>0.47848</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.667703</v>
+        <v>0.682777</v>
       </c>
       <c r="C67" t="n">
-        <v>0.563835</v>
+        <v>0.5548149999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.492494</v>
+        <v>0.49714</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.694325</v>
+        <v>0.70756</v>
       </c>
       <c r="C68" t="n">
-        <v>0.57241</v>
+        <v>0.598145</v>
       </c>
       <c r="D68" t="n">
-        <v>0.504687</v>
+        <v>0.505355</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.732615</v>
+        <v>0.715663</v>
       </c>
       <c r="C69" t="n">
-        <v>0.591531</v>
+        <v>0.58217</v>
       </c>
       <c r="D69" t="n">
-        <v>0.506578</v>
+        <v>0.510189</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.662557</v>
+        <v>0.672264</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6224420000000001</v>
+        <v>0.613219</v>
       </c>
       <c r="D70" t="n">
-        <v>0.50971</v>
+        <v>0.516864</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.692801</v>
+        <v>0.694953</v>
       </c>
       <c r="C71" t="n">
-        <v>0.644969</v>
+        <v>0.631867</v>
       </c>
       <c r="D71" t="n">
-        <v>0.542747</v>
+        <v>0.542982</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.721588</v>
+        <v>0.69792</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6609120000000001</v>
+        <v>0.668408</v>
       </c>
       <c r="D72" t="n">
-        <v>0.548928</v>
+        <v>0.5437959999999999</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.744181</v>
+        <v>0.743915</v>
       </c>
       <c r="C73" t="n">
-        <v>0.679561</v>
+        <v>0.691111</v>
       </c>
       <c r="D73" t="n">
-        <v>0.580315</v>
+        <v>0.589668</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.782104</v>
+        <v>0.772215</v>
       </c>
       <c r="C74" t="n">
-        <v>0.731277</v>
+        <v>0.735208</v>
       </c>
       <c r="D74" t="n">
-        <v>0.595407</v>
+        <v>0.582762</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.792694</v>
+        <v>0.802382</v>
       </c>
       <c r="C75" t="n">
-        <v>0.761167</v>
+        <v>0.737032</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6101569999999999</v>
+        <v>0.597773</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.848994</v>
+        <v>0.838997</v>
       </c>
       <c r="C76" t="n">
-        <v>0.798164</v>
+        <v>0.8074</v>
       </c>
       <c r="D76" t="n">
-        <v>0.656895</v>
+        <v>0.62823</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.859594</v>
+        <v>0.846404</v>
       </c>
       <c r="C77" t="n">
-        <v>0.795511</v>
+        <v>0.799368</v>
       </c>
       <c r="D77" t="n">
-        <v>0.652381</v>
+        <v>0.649921</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.919746</v>
+        <v>0.877766</v>
       </c>
       <c r="C78" t="n">
-        <v>0.764384</v>
+        <v>0.755792</v>
       </c>
       <c r="D78" t="n">
-        <v>0.690253</v>
+        <v>0.696722</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.937321</v>
+        <v>0.956522</v>
       </c>
       <c r="C79" t="n">
-        <v>0.80663</v>
+        <v>0.789677</v>
       </c>
       <c r="D79" t="n">
-        <v>0.68176</v>
+        <v>0.713137</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.962921</v>
+        <v>0.9836510000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.825201</v>
+        <v>0.831519</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7132579999999999</v>
+        <v>0.708738</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.0247</v>
+        <v>0.979507</v>
       </c>
       <c r="C81" t="n">
-        <v>0.853702</v>
+        <v>0.827765</v>
       </c>
       <c r="D81" t="n">
-        <v>0.729665</v>
+        <v>0.747376</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.07195</v>
+        <v>1.06563</v>
       </c>
       <c r="C82" t="n">
-        <v>0.885817</v>
+        <v>0.877978</v>
       </c>
       <c r="D82" t="n">
-        <v>0.760419</v>
+        <v>0.762394</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.10234</v>
+        <v>1.0876</v>
       </c>
       <c r="C83" t="n">
-        <v>0.901884</v>
+        <v>0.91249</v>
       </c>
       <c r="D83" t="n">
-        <v>0.820698</v>
+        <v>0.804264</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>1.00961</v>
+        <v>0.99873</v>
       </c>
       <c r="C84" t="n">
-        <v>0.94542</v>
+        <v>0.920111</v>
       </c>
       <c r="D84" t="n">
-        <v>0.832225</v>
+        <v>0.822338</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.00799</v>
+        <v>1.02985</v>
       </c>
       <c r="C85" t="n">
-        <v>0.959831</v>
+        <v>0.957696</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8507130000000001</v>
+        <v>0.850225</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.06763</v>
+        <v>1.03926</v>
       </c>
       <c r="C86" t="n">
-        <v>0.969401</v>
+        <v>0.972262</v>
       </c>
       <c r="D86" t="n">
-        <v>0.852077</v>
+        <v>0.8706429999999999</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.07161</v>
+        <v>1.09222</v>
       </c>
       <c r="C87" t="n">
-        <v>1.01872</v>
+        <v>1.00705</v>
       </c>
       <c r="D87" t="n">
-        <v>0.886663</v>
+        <v>0.886002</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.06752</v>
+        <v>1.09689</v>
       </c>
       <c r="C88" t="n">
-        <v>1.04004</v>
+        <v>1.05397</v>
       </c>
       <c r="D88" t="n">
-        <v>0.928902</v>
+        <v>0.900573</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.14975</v>
+        <v>1.12449</v>
       </c>
       <c r="C89" t="n">
-        <v>1.0844</v>
+        <v>1.08111</v>
       </c>
       <c r="D89" t="n">
-        <v>0.937296</v>
+        <v>0.908537</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.16266</v>
+        <v>1.1733</v>
       </c>
       <c r="C90" t="n">
-        <v>1.11344</v>
+        <v>1.11791</v>
       </c>
       <c r="D90" t="n">
-        <v>0.939573</v>
+        <v>0.957036</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.18444</v>
+        <v>1.17722</v>
       </c>
       <c r="C91" t="n">
-        <v>1.13981</v>
+        <v>1.10985</v>
       </c>
       <c r="D91" t="n">
-        <v>0.952821</v>
+        <v>0.950794</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.20054</v>
+        <v>1.27841</v>
       </c>
       <c r="C92" t="n">
-        <v>1.02122</v>
+        <v>1.04537</v>
       </c>
       <c r="D92" t="n">
-        <v>0.943379</v>
+        <v>0.947831</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.2424</v>
+        <v>1.24912</v>
       </c>
       <c r="C93" t="n">
-        <v>1.05517</v>
+        <v>1.0524</v>
       </c>
       <c r="D93" t="n">
-        <v>0.977276</v>
+        <v>0.995615</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.28162</v>
+        <v>1.29138</v>
       </c>
       <c r="C94" t="n">
-        <v>1.07499</v>
+        <v>1.08805</v>
       </c>
       <c r="D94" t="n">
-        <v>0.983715</v>
+        <v>0.989868</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.32976</v>
+        <v>1.32098</v>
       </c>
       <c r="C95" t="n">
-        <v>1.17133</v>
+        <v>1.12973</v>
       </c>
       <c r="D95" t="n">
-        <v>1.03338</v>
+        <v>1.01437</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.36565</v>
+        <v>1.32097</v>
       </c>
       <c r="C96" t="n">
-        <v>1.14941</v>
+        <v>1.14309</v>
       </c>
       <c r="D96" t="n">
-        <v>1.07019</v>
+        <v>1.02739</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.37734</v>
+        <v>1.3503</v>
       </c>
       <c r="C97" t="n">
-        <v>1.18661</v>
+        <v>1.16298</v>
       </c>
       <c r="D97" t="n">
-        <v>1.03962</v>
+        <v>1.0499</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.26216</v>
+        <v>1.24481</v>
       </c>
       <c r="C98" t="n">
-        <v>1.19184</v>
+        <v>1.1904</v>
       </c>
       <c r="D98" t="n">
-        <v>1.06656</v>
+        <v>1.0555</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.28811</v>
+        <v>1.26286</v>
       </c>
       <c r="C99" t="n">
-        <v>1.22584</v>
+        <v>1.19558</v>
       </c>
       <c r="D99" t="n">
-        <v>1.09622</v>
+        <v>1.09953</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.29555</v>
+        <v>1.28306</v>
       </c>
       <c r="C100" t="n">
-        <v>1.25469</v>
+        <v>1.25951</v>
       </c>
       <c r="D100" t="n">
-        <v>1.13089</v>
+        <v>1.1128</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.32219</v>
+        <v>1.32907</v>
       </c>
       <c r="C101" t="n">
-        <v>1.29118</v>
+        <v>1.27648</v>
       </c>
       <c r="D101" t="n">
-        <v>1.12169</v>
+        <v>1.12641</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.36038</v>
+        <v>1.32578</v>
       </c>
       <c r="C102" t="n">
-        <v>1.3245</v>
+        <v>1.31169</v>
       </c>
       <c r="D102" t="n">
-        <v>1.15171</v>
+        <v>1.14571</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.39166</v>
+        <v>1.36269</v>
       </c>
       <c r="C103" t="n">
-        <v>1.36144</v>
+        <v>1.34671</v>
       </c>
       <c r="D103" t="n">
-        <v>1.17496</v>
+        <v>1.15692</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.41908</v>
+        <v>1.38911</v>
       </c>
       <c r="C104" t="n">
-        <v>1.38066</v>
+        <v>1.34049</v>
       </c>
       <c r="D104" t="n">
-        <v>1.1962</v>
+        <v>1.16351</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.43349</v>
+        <v>1.40382</v>
       </c>
       <c r="C105" t="n">
-        <v>1.39543</v>
+        <v>1.40228</v>
       </c>
       <c r="D105" t="n">
-        <v>1.20857</v>
+        <v>1.22589</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.45124</v>
+        <v>1.45486</v>
       </c>
       <c r="C106" t="n">
-        <v>1.44329</v>
+        <v>1.41798</v>
       </c>
       <c r="D106" t="n">
-        <v>1.24758</v>
+        <v>1.23524</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.5132</v>
+        <v>1.46821</v>
       </c>
       <c r="C107" t="n">
-        <v>1.31188</v>
+        <v>1.25458</v>
       </c>
       <c r="D107" t="n">
-        <v>1.19079</v>
+        <v>1.18754</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.53586</v>
+        <v>1.51217</v>
       </c>
       <c r="C108" t="n">
-        <v>1.30329</v>
+        <v>1.31863</v>
       </c>
       <c r="D108" t="n">
-        <v>1.21685</v>
+        <v>1.18254</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.57114</v>
+        <v>1.51859</v>
       </c>
       <c r="C109" t="n">
-        <v>1.34807</v>
+        <v>1.3474</v>
       </c>
       <c r="D109" t="n">
-        <v>1.20797</v>
+        <v>1.19377</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.5829</v>
+        <v>1.58958</v>
       </c>
       <c r="C110" t="n">
-        <v>1.34474</v>
+        <v>1.34945</v>
       </c>
       <c r="D110" t="n">
-        <v>1.20582</v>
+        <v>1.21029</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.59177</v>
+        <v>1.60745</v>
       </c>
       <c r="C111" t="n">
-        <v>1.36665</v>
+        <v>1.34172</v>
       </c>
       <c r="D111" t="n">
-        <v>1.24449</v>
+        <v>1.24821</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.47856</v>
+        <v>1.45733</v>
       </c>
       <c r="C112" t="n">
-        <v>1.4342</v>
+        <v>1.40926</v>
       </c>
       <c r="D112" t="n">
-        <v>1.25788</v>
+        <v>1.27071</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.43479</v>
+        <v>1.4441</v>
       </c>
       <c r="C113" t="n">
-        <v>1.46863</v>
+        <v>1.44515</v>
       </c>
       <c r="D113" t="n">
-        <v>1.27178</v>
+        <v>1.30733</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.49433</v>
+        <v>1.47181</v>
       </c>
       <c r="C114" t="n">
-        <v>1.43868</v>
+        <v>1.42357</v>
       </c>
       <c r="D114" t="n">
-        <v>1.28464</v>
+        <v>1.28519</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.49873</v>
+        <v>1.54924</v>
       </c>
       <c r="C115" t="n">
-        <v>1.48231</v>
+        <v>1.45543</v>
       </c>
       <c r="D115" t="n">
-        <v>1.31499</v>
+        <v>1.31857</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.53889</v>
+        <v>1.53121</v>
       </c>
       <c r="C116" t="n">
-        <v>1.4881</v>
+        <v>1.54234</v>
       </c>
       <c r="D116" t="n">
-        <v>1.32374</v>
+        <v>1.34067</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.59034</v>
+        <v>1.54307</v>
       </c>
       <c r="C117" t="n">
-        <v>1.56237</v>
+        <v>1.55327</v>
       </c>
       <c r="D117" t="n">
-        <v>1.34605</v>
+        <v>1.34041</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.58627</v>
+        <v>1.57102</v>
       </c>
       <c r="C118" t="n">
-        <v>1.56654</v>
+        <v>1.60669</v>
       </c>
       <c r="D118" t="n">
-        <v>1.36784</v>
+        <v>1.40268</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.61393</v>
+        <v>1.59794</v>
       </c>
       <c r="C119" t="n">
-        <v>1.60708</v>
+        <v>1.623</v>
       </c>
       <c r="D119" t="n">
-        <v>1.39364</v>
+        <v>1.40407</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.554505</v>
+        <v>0.551237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.301597</v>
+        <v>0.30753</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247098</v>
+        <v>0.244138</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.379732</v>
+        <v>0.381141</v>
       </c>
       <c r="C3" t="n">
-        <v>0.321203</v>
+        <v>0.312553</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25181</v>
+        <v>0.262915</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.379789</v>
+        <v>0.38599</v>
       </c>
       <c r="C4" t="n">
-        <v>0.325342</v>
+        <v>0.324124</v>
       </c>
       <c r="D4" t="n">
-        <v>0.255383</v>
+        <v>0.24876</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.403444</v>
+        <v>0.40414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.336848</v>
+        <v>0.328969</v>
       </c>
       <c r="D5" t="n">
-        <v>0.266469</v>
+        <v>0.260844</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.416048</v>
+        <v>0.42022</v>
       </c>
       <c r="C6" t="n">
-        <v>0.333589</v>
+        <v>0.356262</v>
       </c>
       <c r="D6" t="n">
-        <v>0.259176</v>
+        <v>0.263417</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.417502</v>
+        <v>0.435373</v>
       </c>
       <c r="C7" t="n">
-        <v>0.364923</v>
+        <v>0.359387</v>
       </c>
       <c r="D7" t="n">
-        <v>0.27319</v>
+        <v>0.278061</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.445334</v>
+        <v>0.451708</v>
       </c>
       <c r="C8" t="n">
-        <v>0.378991</v>
+        <v>0.374299</v>
       </c>
       <c r="D8" t="n">
-        <v>0.292727</v>
+        <v>0.285577</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.476955</v>
+        <v>0.465193</v>
       </c>
       <c r="C9" t="n">
-        <v>0.405173</v>
+        <v>0.392741</v>
       </c>
       <c r="D9" t="n">
-        <v>0.29455</v>
+        <v>0.296129</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.480048</v>
+        <v>0.483435</v>
       </c>
       <c r="C10" t="n">
-        <v>0.433612</v>
+        <v>0.433648</v>
       </c>
       <c r="D10" t="n">
-        <v>0.306552</v>
+        <v>0.30518</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.491646</v>
+        <v>0.491168</v>
       </c>
       <c r="C11" t="n">
-        <v>0.310983</v>
+        <v>0.309224</v>
       </c>
       <c r="D11" t="n">
-        <v>0.246735</v>
+        <v>0.251668</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.53806</v>
+        <v>0.513335</v>
       </c>
       <c r="C12" t="n">
-        <v>0.321184</v>
+        <v>0.320529</v>
       </c>
       <c r="D12" t="n">
-        <v>0.249591</v>
+        <v>0.244767</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.555797</v>
+        <v>0.549047</v>
       </c>
       <c r="C13" t="n">
-        <v>0.331825</v>
+        <v>0.324528</v>
       </c>
       <c r="D13" t="n">
-        <v>0.255867</v>
+        <v>0.265812</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.55786</v>
+        <v>0.558018</v>
       </c>
       <c r="C14" t="n">
-        <v>0.342976</v>
+        <v>0.34023</v>
       </c>
       <c r="D14" t="n">
-        <v>0.257107</v>
+        <v>0.264133</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.575993</v>
+        <v>0.576507</v>
       </c>
       <c r="C15" t="n">
-        <v>0.35525</v>
+        <v>0.357259</v>
       </c>
       <c r="D15" t="n">
-        <v>0.278095</v>
+        <v>0.266698</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.594459</v>
+        <v>0.600612</v>
       </c>
       <c r="C16" t="n">
-        <v>0.383939</v>
+        <v>0.38621</v>
       </c>
       <c r="D16" t="n">
-        <v>0.28375</v>
+        <v>0.284518</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.38011</v>
+        <v>0.407531</v>
       </c>
       <c r="C17" t="n">
-        <v>0.389826</v>
+        <v>0.379623</v>
       </c>
       <c r="D17" t="n">
-        <v>0.290094</v>
+        <v>0.299143</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.42281</v>
+        <v>0.411059</v>
       </c>
       <c r="C18" t="n">
-        <v>0.410831</v>
+        <v>0.391616</v>
       </c>
       <c r="D18" t="n">
-        <v>0.292371</v>
+        <v>0.28423</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.413568</v>
+        <v>0.418909</v>
       </c>
       <c r="C19" t="n">
-        <v>0.419461</v>
+        <v>0.417073</v>
       </c>
       <c r="D19" t="n">
-        <v>0.30747</v>
+        <v>0.305299</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.421608</v>
+        <v>0.416028</v>
       </c>
       <c r="C20" t="n">
-        <v>0.442505</v>
+        <v>0.438922</v>
       </c>
       <c r="D20" t="n">
-        <v>0.323553</v>
+        <v>0.322384</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.436215</v>
+        <v>0.444165</v>
       </c>
       <c r="C21" t="n">
-        <v>0.455487</v>
+        <v>0.451526</v>
       </c>
       <c r="D21" t="n">
-        <v>0.334384</v>
+        <v>0.328203</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.468609</v>
+        <v>0.469251</v>
       </c>
       <c r="C22" t="n">
-        <v>0.470864</v>
+        <v>0.473637</v>
       </c>
       <c r="D22" t="n">
-        <v>0.341382</v>
+        <v>0.344856</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.473038</v>
+        <v>0.47592</v>
       </c>
       <c r="C23" t="n">
-        <v>0.490158</v>
+        <v>0.490247</v>
       </c>
       <c r="D23" t="n">
-        <v>0.357411</v>
+        <v>0.358014</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.48399</v>
+        <v>0.481506</v>
       </c>
       <c r="C24" t="n">
-        <v>0.509551</v>
+        <v>0.522224</v>
       </c>
       <c r="D24" t="n">
-        <v>0.368404</v>
+        <v>0.357148</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.548189</v>
+        <v>0.518447</v>
       </c>
       <c r="C25" t="n">
-        <v>0.53339</v>
+        <v>0.534918</v>
       </c>
       <c r="D25" t="n">
-        <v>0.381256</v>
+        <v>0.376574</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.506583</v>
+        <v>0.521056</v>
       </c>
       <c r="C26" t="n">
-        <v>0.344952</v>
+        <v>0.343179</v>
       </c>
       <c r="D26" t="n">
-        <v>0.267532</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.547353</v>
+        <v>0.540104</v>
       </c>
       <c r="C27" t="n">
-        <v>0.362185</v>
+        <v>0.366917</v>
       </c>
       <c r="D27" t="n">
-        <v>0.283992</v>
+        <v>0.274537</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.560512</v>
+        <v>0.585749</v>
       </c>
       <c r="C28" t="n">
-        <v>0.369414</v>
+        <v>0.358254</v>
       </c>
       <c r="D28" t="n">
-        <v>0.279271</v>
+        <v>0.281842</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.611908</v>
+        <v>0.591872</v>
       </c>
       <c r="C29" t="n">
-        <v>0.381265</v>
+        <v>0.391027</v>
       </c>
       <c r="D29" t="n">
-        <v>0.294777</v>
+        <v>0.289965</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.634954</v>
+        <v>0.611519</v>
       </c>
       <c r="C30" t="n">
-        <v>0.404401</v>
+        <v>0.394564</v>
       </c>
       <c r="D30" t="n">
-        <v>0.297141</v>
+        <v>0.293004</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.644183</v>
+        <v>0.622491</v>
       </c>
       <c r="C31" t="n">
-        <v>0.414691</v>
+        <v>0.393773</v>
       </c>
       <c r="D31" t="n">
-        <v>0.307279</v>
+        <v>0.30337</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.462252</v>
+        <v>0.491849</v>
       </c>
       <c r="C32" t="n">
-        <v>0.448575</v>
+        <v>0.422455</v>
       </c>
       <c r="D32" t="n">
-        <v>0.317619</v>
+        <v>0.315711</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.494831</v>
+        <v>0.477722</v>
       </c>
       <c r="C33" t="n">
-        <v>0.458964</v>
+        <v>0.439013</v>
       </c>
       <c r="D33" t="n">
-        <v>0.337576</v>
+        <v>0.328457</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.492701</v>
+        <v>0.490123</v>
       </c>
       <c r="C34" t="n">
-        <v>0.478712</v>
+        <v>0.445797</v>
       </c>
       <c r="D34" t="n">
-        <v>0.348176</v>
+        <v>0.333972</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.542494</v>
+        <v>0.529012</v>
       </c>
       <c r="C35" t="n">
-        <v>0.503483</v>
+        <v>0.497469</v>
       </c>
       <c r="D35" t="n">
-        <v>0.352532</v>
+        <v>0.353251</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.539716</v>
+        <v>0.5634479999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>0.549023</v>
+        <v>0.530529</v>
       </c>
       <c r="D36" t="n">
-        <v>0.354658</v>
+        <v>0.36674</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5526489999999999</v>
+        <v>0.58112</v>
       </c>
       <c r="C37" t="n">
-        <v>0.559655</v>
+        <v>0.587765</v>
       </c>
       <c r="D37" t="n">
-        <v>0.399337</v>
+        <v>0.384803</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.581342</v>
+        <v>0.622934</v>
       </c>
       <c r="C38" t="n">
-        <v>0.602949</v>
+        <v>0.614864</v>
       </c>
       <c r="D38" t="n">
-        <v>0.402597</v>
+        <v>0.396592</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.608143</v>
+        <v>0.664815</v>
       </c>
       <c r="C39" t="n">
-        <v>0.630053</v>
+        <v>0.647105</v>
       </c>
       <c r="D39" t="n">
-        <v>0.424672</v>
+        <v>0.416397</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.651532</v>
+        <v>0.694701</v>
       </c>
       <c r="C40" t="n">
-        <v>0.483923</v>
+        <v>0.447297</v>
       </c>
       <c r="D40" t="n">
-        <v>0.340711</v>
+        <v>0.344096</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.665936</v>
+        <v>0.726171</v>
       </c>
       <c r="C41" t="n">
-        <v>0.472515</v>
+        <v>0.48781</v>
       </c>
       <c r="D41" t="n">
-        <v>0.367478</v>
+        <v>0.36018</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.72726</v>
+        <v>0.7683990000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4993</v>
+        <v>0.493939</v>
       </c>
       <c r="D42" t="n">
-        <v>0.376305</v>
+        <v>0.388079</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.755125</v>
+        <v>0.801818</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5196769999999999</v>
+        <v>0.517319</v>
       </c>
       <c r="D43" t="n">
-        <v>0.410234</v>
+        <v>0.384244</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.796084</v>
+        <v>0.825507</v>
       </c>
       <c r="C44" t="n">
-        <v>0.569321</v>
+        <v>0.552009</v>
       </c>
       <c r="D44" t="n">
-        <v>0.408358</v>
+        <v>0.395884</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.832763</v>
+        <v>0.881269</v>
       </c>
       <c r="C45" t="n">
-        <v>0.578155</v>
+        <v>0.582461</v>
       </c>
       <c r="D45" t="n">
-        <v>0.421181</v>
+        <v>0.424836</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.614154</v>
+        <v>0.614888</v>
       </c>
       <c r="C46" t="n">
-        <v>0.629176</v>
+        <v>0.611253</v>
       </c>
       <c r="D46" t="n">
-        <v>0.440885</v>
+        <v>0.425248</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.634687</v>
+        <v>0.644103</v>
       </c>
       <c r="C47" t="n">
-        <v>0.66223</v>
+        <v>0.640525</v>
       </c>
       <c r="D47" t="n">
-        <v>0.447026</v>
+        <v>0.452491</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.680527</v>
+        <v>0.683098</v>
       </c>
       <c r="C48" t="n">
-        <v>0.683073</v>
+        <v>0.668435</v>
       </c>
       <c r="D48" t="n">
-        <v>0.479526</v>
+        <v>0.487232</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.687464</v>
+        <v>0.69863</v>
       </c>
       <c r="C49" t="n">
-        <v>0.725903</v>
+        <v>0.699607</v>
       </c>
       <c r="D49" t="n">
-        <v>0.512108</v>
+        <v>0.464524</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.746115</v>
+        <v>0.748632</v>
       </c>
       <c r="C50" t="n">
-        <v>0.766384</v>
+        <v>0.736869</v>
       </c>
       <c r="D50" t="n">
-        <v>0.522807</v>
+        <v>0.487579</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.788565</v>
+        <v>0.811985</v>
       </c>
       <c r="C51" t="n">
-        <v>0.810925</v>
+        <v>0.783379</v>
       </c>
       <c r="D51" t="n">
-        <v>0.53571</v>
+        <v>0.526325</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8482769999999999</v>
+        <v>0.856642</v>
       </c>
       <c r="C52" t="n">
-        <v>0.845709</v>
+        <v>0.85528</v>
       </c>
       <c r="D52" t="n">
-        <v>0.562663</v>
+        <v>0.547889</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.843997</v>
+        <v>0.8879590000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>0.905037</v>
+        <v>0.880316</v>
       </c>
       <c r="D53" t="n">
-        <v>0.591816</v>
+        <v>0.569072</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.927223</v>
+        <v>0.934967</v>
       </c>
       <c r="C54" t="n">
-        <v>0.656285</v>
+        <v>0.67601</v>
       </c>
       <c r="D54" t="n">
-        <v>0.466668</v>
+        <v>0.456871</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.970591</v>
+        <v>0.975762</v>
       </c>
       <c r="C55" t="n">
-        <v>0.686854</v>
+        <v>0.69577</v>
       </c>
       <c r="D55" t="n">
-        <v>0.486465</v>
+        <v>0.466859</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.01452</v>
+        <v>1.0217</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7226860000000001</v>
+        <v>0.71349</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5046620000000001</v>
+        <v>0.50617</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.06173</v>
+        <v>1.09138</v>
       </c>
       <c r="C57" t="n">
-        <v>0.743086</v>
+        <v>0.769235</v>
       </c>
       <c r="D57" t="n">
-        <v>0.503713</v>
+        <v>0.503779</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.11916</v>
+        <v>1.15401</v>
       </c>
       <c r="C58" t="n">
-        <v>0.784732</v>
+        <v>0.79334</v>
       </c>
       <c r="D58" t="n">
-        <v>0.534413</v>
+        <v>0.541079</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.1714</v>
+        <v>1.20358</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8166099999999999</v>
+        <v>0.824939</v>
       </c>
       <c r="D59" t="n">
-        <v>0.556424</v>
+        <v>0.542475</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.855399</v>
+        <v>0.856472</v>
       </c>
       <c r="C60" t="n">
-        <v>0.86655</v>
+        <v>0.897713</v>
       </c>
       <c r="D60" t="n">
-        <v>0.574736</v>
+        <v>0.597344</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.883108</v>
+        <v>0.9397720000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.940701</v>
+        <v>0.9037849999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5878100000000001</v>
+        <v>0.606802</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.934584</v>
+        <v>0.929907</v>
       </c>
       <c r="C62" t="n">
-        <v>0.953583</v>
+        <v>0.965612</v>
       </c>
       <c r="D62" t="n">
-        <v>0.615345</v>
+        <v>0.630929</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>1.00861</v>
+        <v>0.985799</v>
       </c>
       <c r="C63" t="n">
-        <v>1.03234</v>
+        <v>1.04469</v>
       </c>
       <c r="D63" t="n">
-        <v>0.661046</v>
+        <v>0.666467</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.02895</v>
+        <v>1.04168</v>
       </c>
       <c r="C64" t="n">
-        <v>1.08108</v>
+        <v>1.07294</v>
       </c>
       <c r="D64" t="n">
-        <v>0.682805</v>
+        <v>0.666858</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.12968</v>
+        <v>1.09072</v>
       </c>
       <c r="C65" t="n">
-        <v>1.17197</v>
+        <v>1.15969</v>
       </c>
       <c r="D65" t="n">
-        <v>0.72839</v>
+        <v>0.71291</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.17635</v>
+        <v>1.16112</v>
       </c>
       <c r="C66" t="n">
-        <v>1.21802</v>
+        <v>1.22859</v>
       </c>
       <c r="D66" t="n">
-        <v>0.768942</v>
+        <v>0.72682</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.23178</v>
+        <v>1.25732</v>
       </c>
       <c r="C67" t="n">
-        <v>1.33719</v>
+        <v>1.33339</v>
       </c>
       <c r="D67" t="n">
-        <v>0.783785</v>
+        <v>0.798655</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.32973</v>
+        <v>1.33533</v>
       </c>
       <c r="C68" t="n">
-        <v>0.988027</v>
+        <v>0.885227</v>
       </c>
       <c r="D68" t="n">
-        <v>0.57835</v>
+        <v>0.590464</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.43216</v>
+        <v>1.51072</v>
       </c>
       <c r="C69" t="n">
-        <v>1.04573</v>
+        <v>0.90613</v>
       </c>
       <c r="D69" t="n">
-        <v>0.60446</v>
+        <v>0.615115</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.50214</v>
+        <v>1.53447</v>
       </c>
       <c r="C70" t="n">
-        <v>1.09005</v>
+        <v>0.948097</v>
       </c>
       <c r="D70" t="n">
-        <v>0.618217</v>
+        <v>0.631073</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.6316</v>
+        <v>1.69551</v>
       </c>
       <c r="C71" t="n">
-        <v>1.17346</v>
+        <v>1.01569</v>
       </c>
       <c r="D71" t="n">
-        <v>0.645304</v>
+        <v>0.652372</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.7343</v>
+        <v>1.76014</v>
       </c>
       <c r="C72" t="n">
-        <v>1.23785</v>
+        <v>1.07234</v>
       </c>
       <c r="D72" t="n">
-        <v>0.675382</v>
+        <v>0.683096</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.87867</v>
+        <v>1.90611</v>
       </c>
       <c r="C73" t="n">
-        <v>1.36515</v>
+        <v>1.16572</v>
       </c>
       <c r="D73" t="n">
-        <v>0.716412</v>
+        <v>0.698049</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.27406</v>
+        <v>1.28078</v>
       </c>
       <c r="C74" t="n">
-        <v>1.44108</v>
+        <v>1.21992</v>
       </c>
       <c r="D74" t="n">
-        <v>0.758252</v>
+        <v>0.747127</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.3477</v>
+        <v>1.37314</v>
       </c>
       <c r="C75" t="n">
-        <v>1.54199</v>
+        <v>1.36701</v>
       </c>
       <c r="D75" t="n">
-        <v>0.797332</v>
+        <v>0.788658</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.44773</v>
+        <v>1.45203</v>
       </c>
       <c r="C76" t="n">
-        <v>1.68696</v>
+        <v>1.4338</v>
       </c>
       <c r="D76" t="n">
-        <v>0.869411</v>
+        <v>0.856037</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.53987</v>
+        <v>1.51336</v>
       </c>
       <c r="C77" t="n">
-        <v>1.83204</v>
+        <v>1.49961</v>
       </c>
       <c r="D77" t="n">
-        <v>0.918932</v>
+        <v>0.875492</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.60949</v>
+        <v>1.62576</v>
       </c>
       <c r="C78" t="n">
-        <v>1.91954</v>
+        <v>1.60621</v>
       </c>
       <c r="D78" t="n">
-        <v>0.947165</v>
+        <v>0.920771</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.73222</v>
+        <v>1.69753</v>
       </c>
       <c r="C79" t="n">
-        <v>2.01433</v>
+        <v>1.72742</v>
       </c>
       <c r="D79" t="n">
-        <v>0.994407</v>
+        <v>1.01284</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>1.79778</v>
+        <v>2.23632</v>
       </c>
       <c r="C80" t="n">
-        <v>2.21617</v>
+        <v>2.62061</v>
       </c>
       <c r="D80" t="n">
-        <v>1.04226</v>
+        <v>1.6661</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>1.92337</v>
+        <v>2.35532</v>
       </c>
       <c r="C81" t="n">
-        <v>2.37189</v>
+        <v>2.60279</v>
       </c>
       <c r="D81" t="n">
-        <v>1.15402</v>
+        <v>1.5275</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.04415</v>
+        <v>2.42691</v>
       </c>
       <c r="C82" t="n">
-        <v>2.45871</v>
+        <v>2.19274</v>
       </c>
       <c r="D82" t="n">
-        <v>1.22126</v>
+        <v>1.21121</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.14541</v>
+        <v>2.14856</v>
       </c>
       <c r="C83" t="n">
-        <v>1.49773</v>
+        <v>1.54002</v>
       </c>
       <c r="D83" t="n">
-        <v>0.965601</v>
+        <v>0.995902</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.29125</v>
+        <v>2.28449</v>
       </c>
       <c r="C84" t="n">
-        <v>1.63738</v>
+        <v>1.63655</v>
       </c>
       <c r="D84" t="n">
-        <v>0.983314</v>
+        <v>1.00004</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.3719</v>
+        <v>2.376</v>
       </c>
       <c r="C85" t="n">
-        <v>1.70478</v>
+        <v>1.80541</v>
       </c>
       <c r="D85" t="n">
-        <v>1.0518</v>
+        <v>1.0749</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.51923</v>
+        <v>2.55628</v>
       </c>
       <c r="C86" t="n">
-        <v>1.83068</v>
+        <v>1.82135</v>
       </c>
       <c r="D86" t="n">
-        <v>1.10799</v>
+        <v>1.1136</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.73144</v>
+        <v>2.66584</v>
       </c>
       <c r="C87" t="n">
-        <v>1.9093</v>
+        <v>1.89998</v>
       </c>
       <c r="D87" t="n">
-        <v>1.16211</v>
+        <v>1.20757</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.88348</v>
+        <v>2.85182</v>
       </c>
       <c r="C88" t="n">
-        <v>2.06557</v>
+        <v>2.10074</v>
       </c>
       <c r="D88" t="n">
-        <v>1.2013</v>
+        <v>1.22617</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.92589</v>
+        <v>1.90512</v>
       </c>
       <c r="C89" t="n">
-        <v>2.10477</v>
+        <v>2.14894</v>
       </c>
       <c r="D89" t="n">
-        <v>1.27117</v>
+        <v>1.27161</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>2.00164</v>
+        <v>1.96418</v>
       </c>
       <c r="C90" t="n">
-        <v>2.29184</v>
+        <v>2.27148</v>
       </c>
       <c r="D90" t="n">
-        <v>1.3464</v>
+        <v>1.38619</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.08019</v>
+        <v>2.04999</v>
       </c>
       <c r="C91" t="n">
-        <v>2.4053</v>
+        <v>2.38058</v>
       </c>
       <c r="D91" t="n">
-        <v>1.42316</v>
+        <v>1.42335</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.18723</v>
+        <v>2.13042</v>
       </c>
       <c r="C92" t="n">
-        <v>2.60594</v>
+        <v>2.54522</v>
       </c>
       <c r="D92" t="n">
-        <v>1.48564</v>
+        <v>1.47336</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.23477</v>
+        <v>2.20942</v>
       </c>
       <c r="C93" t="n">
-        <v>2.61837</v>
+        <v>2.63058</v>
       </c>
       <c r="D93" t="n">
-        <v>1.52209</v>
+        <v>1.53319</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.36662</v>
+        <v>2.34337</v>
       </c>
       <c r="C94" t="n">
-        <v>2.77039</v>
+        <v>2.71109</v>
       </c>
       <c r="D94" t="n">
-        <v>1.63563</v>
+        <v>1.59685</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.43868</v>
+        <v>2.44747</v>
       </c>
       <c r="C95" t="n">
-        <v>2.92003</v>
+        <v>2.89951</v>
       </c>
       <c r="D95" t="n">
-        <v>1.69495</v>
+        <v>1.66319</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.61031</v>
+        <v>2.53257</v>
       </c>
       <c r="C96" t="n">
-        <v>3.07451</v>
+        <v>3.04621</v>
       </c>
       <c r="D96" t="n">
-        <v>1.77669</v>
+        <v>1.77843</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.69002</v>
+        <v>2.64976</v>
       </c>
       <c r="C97" t="n">
-        <v>1.9543</v>
+        <v>1.94505</v>
       </c>
       <c r="D97" t="n">
-        <v>1.35118</v>
+        <v>1.33945</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.84715</v>
+        <v>2.81955</v>
       </c>
       <c r="C98" t="n">
-        <v>2.02461</v>
+        <v>2.01739</v>
       </c>
       <c r="D98" t="n">
-        <v>1.37117</v>
+        <v>1.34511</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.98821</v>
+        <v>2.90567</v>
       </c>
       <c r="C99" t="n">
-        <v>2.09547</v>
+        <v>2.03958</v>
       </c>
       <c r="D99" t="n">
-        <v>1.39636</v>
+        <v>1.42647</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.05427</v>
+        <v>3.05148</v>
       </c>
       <c r="C100" t="n">
-        <v>2.20265</v>
+        <v>2.15399</v>
       </c>
       <c r="D100" t="n">
-        <v>1.47245</v>
+        <v>1.44393</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.17887</v>
+        <v>3.18906</v>
       </c>
       <c r="C101" t="n">
-        <v>2.33453</v>
+        <v>2.26422</v>
       </c>
       <c r="D101" t="n">
-        <v>1.51298</v>
+        <v>1.49854</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.36416</v>
+        <v>3.34357</v>
       </c>
       <c r="C102" t="n">
-        <v>2.38016</v>
+        <v>2.35531</v>
       </c>
       <c r="D102" t="n">
-        <v>1.57869</v>
+        <v>1.56891</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.22594</v>
+        <v>2.19806</v>
       </c>
       <c r="C103" t="n">
-        <v>2.47593</v>
+        <v>2.45247</v>
       </c>
       <c r="D103" t="n">
-        <v>1.60309</v>
+        <v>1.599</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.29615</v>
+        <v>2.32156</v>
       </c>
       <c r="C104" t="n">
-        <v>2.5959</v>
+        <v>2.5608</v>
       </c>
       <c r="D104" t="n">
-        <v>1.65074</v>
+        <v>1.66473</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.41265</v>
+        <v>2.40069</v>
       </c>
       <c r="C105" t="n">
-        <v>2.69258</v>
+        <v>2.65765</v>
       </c>
       <c r="D105" t="n">
-        <v>1.70649</v>
+        <v>1.73206</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.45552</v>
+        <v>2.46216</v>
       </c>
       <c r="C106" t="n">
-        <v>2.81245</v>
+        <v>2.80756</v>
       </c>
       <c r="D106" t="n">
-        <v>1.76491</v>
+        <v>1.78701</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.60771</v>
+        <v>2.56958</v>
       </c>
       <c r="C107" t="n">
-        <v>2.90939</v>
+        <v>2.89934</v>
       </c>
       <c r="D107" t="n">
-        <v>1.83159</v>
+        <v>1.83546</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.72595</v>
+        <v>2.68622</v>
       </c>
       <c r="C108" t="n">
-        <v>3.03009</v>
+        <v>3.04925</v>
       </c>
       <c r="D108" t="n">
-        <v>1.89596</v>
+        <v>1.90394</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.78091</v>
+        <v>2.75858</v>
       </c>
       <c r="C109" t="n">
-        <v>3.18267</v>
+        <v>3.19776</v>
       </c>
       <c r="D109" t="n">
-        <v>1.96349</v>
+        <v>1.97278</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.9009</v>
+        <v>2.89656</v>
       </c>
       <c r="C110" t="n">
-        <v>3.38774</v>
+        <v>3.28831</v>
       </c>
       <c r="D110" t="n">
-        <v>2.02081</v>
+        <v>2.09523</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>2.98988</v>
+        <v>3.02941</v>
       </c>
       <c r="C111" t="n">
-        <v>2.20306</v>
+        <v>2.20904</v>
       </c>
       <c r="D111" t="n">
-        <v>1.59942</v>
+        <v>1.63081</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.12627</v>
+        <v>3.13705</v>
       </c>
       <c r="C112" t="n">
-        <v>2.29372</v>
+        <v>2.28987</v>
       </c>
       <c r="D112" t="n">
-        <v>1.62528</v>
+        <v>1.65221</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.27278</v>
+        <v>3.31511</v>
       </c>
       <c r="C113" t="n">
-        <v>2.37967</v>
+        <v>2.38233</v>
       </c>
       <c r="D113" t="n">
-        <v>1.67078</v>
+        <v>1.71019</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.34388</v>
+        <v>3.43227</v>
       </c>
       <c r="C114" t="n">
-        <v>2.465</v>
+        <v>2.46914</v>
       </c>
       <c r="D114" t="n">
-        <v>1.72828</v>
+        <v>1.75849</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.52276</v>
+        <v>3.54739</v>
       </c>
       <c r="C115" t="n">
-        <v>2.57313</v>
+        <v>2.57218</v>
       </c>
       <c r="D115" t="n">
-        <v>1.79519</v>
+        <v>1.8057</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.70506</v>
+        <v>3.72922</v>
       </c>
       <c r="C116" t="n">
-        <v>2.63227</v>
+        <v>2.66608</v>
       </c>
       <c r="D116" t="n">
-        <v>1.81078</v>
+        <v>1.82673</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.45997</v>
+        <v>2.50717</v>
       </c>
       <c r="C117" t="n">
-        <v>2.72852</v>
+        <v>2.79372</v>
       </c>
       <c r="D117" t="n">
-        <v>1.85715</v>
+        <v>1.92094</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.54855</v>
+        <v>2.61961</v>
       </c>
       <c r="C118" t="n">
-        <v>2.87002</v>
+        <v>2.89889</v>
       </c>
       <c r="D118" t="n">
-        <v>1.94499</v>
+        <v>1.98652</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.6645</v>
+        <v>2.74585</v>
       </c>
       <c r="C119" t="n">
-        <v>2.96229</v>
+        <v>2.96456</v>
       </c>
       <c r="D119" t="n">
-        <v>2.01743</v>
+        <v>2.02707</v>
       </c>
     </row>
   </sheetData>

--- a/vs/scattered successful looukp.xlsx
+++ b/vs/scattered successful looukp.xlsx
@@ -9365,13 +9365,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.220585</v>
+        <v>0.209055</v>
       </c>
       <c r="C2" t="n">
-        <v>0.19526</v>
+        <v>0.193474</v>
       </c>
       <c r="D2" t="n">
-        <v>0.211369</v>
+        <v>0.21011</v>
       </c>
     </row>
     <row r="3">
@@ -9379,13 +9379,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.223706</v>
+        <v>0.220148</v>
       </c>
       <c r="C3" t="n">
-        <v>0.196938</v>
+        <v>0.197691</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2192</v>
+        <v>0.214175</v>
       </c>
     </row>
     <row r="4">
@@ -9393,13 +9393,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.222489</v>
+        <v>0.220043</v>
       </c>
       <c r="C4" t="n">
-        <v>0.208344</v>
+        <v>0.200806</v>
       </c>
       <c r="D4" t="n">
-        <v>0.225174</v>
+        <v>0.220695</v>
       </c>
     </row>
     <row r="5">
@@ -9407,13 +9407,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.224061</v>
+        <v>0.229233</v>
       </c>
       <c r="C5" t="n">
-        <v>0.203956</v>
+        <v>0.207866</v>
       </c>
       <c r="D5" t="n">
-        <v>0.231166</v>
+        <v>0.233656</v>
       </c>
     </row>
     <row r="6">
@@ -9421,13 +9421,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.232103</v>
+        <v>0.225376</v>
       </c>
       <c r="C6" t="n">
-        <v>0.211507</v>
+        <v>0.210056</v>
       </c>
       <c r="D6" t="n">
-        <v>0.233244</v>
+        <v>0.234394</v>
       </c>
     </row>
     <row r="7">
@@ -9435,13 +9435,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.230354</v>
+        <v>0.231937</v>
       </c>
       <c r="C7" t="n">
-        <v>0.186579</v>
+        <v>0.182393</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2011</v>
+        <v>0.201508</v>
       </c>
     </row>
     <row r="8">
@@ -9449,13 +9449,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.242003</v>
+        <v>0.238564</v>
       </c>
       <c r="C8" t="n">
-        <v>0.182437</v>
+        <v>0.186881</v>
       </c>
       <c r="D8" t="n">
-        <v>0.20556</v>
+        <v>0.203695</v>
       </c>
     </row>
     <row r="9">
@@ -9463,13 +9463,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.241551</v>
+        <v>0.24144</v>
       </c>
       <c r="C9" t="n">
-        <v>0.18542</v>
+        <v>0.188264</v>
       </c>
       <c r="D9" t="n">
-        <v>0.202601</v>
+        <v>0.2047</v>
       </c>
     </row>
     <row r="10">
@@ -9477,13 +9477,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.248882</v>
+        <v>0.251855</v>
       </c>
       <c r="C10" t="n">
-        <v>0.188385</v>
+        <v>0.188322</v>
       </c>
       <c r="D10" t="n">
-        <v>0.213078</v>
+        <v>0.212127</v>
       </c>
     </row>
     <row r="11">
@@ -9491,13 +9491,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.255251</v>
+        <v>0.261229</v>
       </c>
       <c r="C11" t="n">
-        <v>0.191275</v>
+        <v>0.186716</v>
       </c>
       <c r="D11" t="n">
-        <v>0.214912</v>
+        <v>0.211781</v>
       </c>
     </row>
     <row r="12">
@@ -9505,13 +9505,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.261147</v>
+        <v>0.260678</v>
       </c>
       <c r="C12" t="n">
-        <v>0.196369</v>
+        <v>0.191975</v>
       </c>
       <c r="D12" t="n">
-        <v>0.219746</v>
+        <v>0.217661</v>
       </c>
     </row>
     <row r="13">
@@ -9519,13 +9519,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.222117</v>
+        <v>0.222118</v>
       </c>
       <c r="C13" t="n">
-        <v>0.201143</v>
+        <v>0.196635</v>
       </c>
       <c r="D13" t="n">
-        <v>0.227001</v>
+        <v>0.219379</v>
       </c>
     </row>
     <row r="14">
@@ -9533,13 +9533,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2228</v>
+        <v>0.220005</v>
       </c>
       <c r="C14" t="n">
-        <v>0.203496</v>
+        <v>0.204612</v>
       </c>
       <c r="D14" t="n">
-        <v>0.222536</v>
+        <v>0.223897</v>
       </c>
     </row>
     <row r="15">
@@ -9547,13 +9547,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.221682</v>
+        <v>0.220237</v>
       </c>
       <c r="C15" t="n">
-        <v>0.203078</v>
+        <v>0.206361</v>
       </c>
       <c r="D15" t="n">
-        <v>0.233976</v>
+        <v>0.227039</v>
       </c>
     </row>
     <row r="16">
@@ -9561,13 +9561,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.228856</v>
+        <v>0.23398</v>
       </c>
       <c r="C16" t="n">
-        <v>0.20973</v>
+        <v>0.209841</v>
       </c>
       <c r="D16" t="n">
-        <v>0.23775</v>
+        <v>0.237544</v>
       </c>
     </row>
     <row r="17">
@@ -9575,13 +9575,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.235472</v>
+        <v>0.233152</v>
       </c>
       <c r="C17" t="n">
-        <v>0.218056</v>
+        <v>0.212063</v>
       </c>
       <c r="D17" t="n">
-        <v>0.236274</v>
+        <v>0.233557</v>
       </c>
     </row>
     <row r="18">
@@ -9589,13 +9589,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.239491</v>
+        <v>0.239178</v>
       </c>
       <c r="C18" t="n">
-        <v>0.216512</v>
+        <v>0.220647</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2484</v>
+        <v>0.237412</v>
       </c>
     </row>
     <row r="19">
@@ -9603,13 +9603,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.247494</v>
+        <v>0.240622</v>
       </c>
       <c r="C19" t="n">
-        <v>0.230137</v>
+        <v>0.227732</v>
       </c>
       <c r="D19" t="n">
-        <v>0.240388</v>
+        <v>0.241751</v>
       </c>
     </row>
     <row r="20">
@@ -9617,13 +9617,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.249557</v>
+        <v>0.245309</v>
       </c>
       <c r="C20" t="n">
-        <v>0.221894</v>
+        <v>0.222377</v>
       </c>
       <c r="D20" t="n">
-        <v>0.252656</v>
+        <v>0.252722</v>
       </c>
     </row>
     <row r="21">
@@ -9631,13 +9631,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.25532</v>
+        <v>0.253868</v>
       </c>
       <c r="C21" t="n">
-        <v>0.189561</v>
+        <v>0.185363</v>
       </c>
       <c r="D21" t="n">
-        <v>0.211835</v>
+        <v>0.212288</v>
       </c>
     </row>
     <row r="22">
@@ -9645,13 +9645,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.253336</v>
+        <v>0.259692</v>
       </c>
       <c r="C22" t="n">
-        <v>0.194924</v>
+        <v>0.200482</v>
       </c>
       <c r="D22" t="n">
-        <v>0.223943</v>
+        <v>0.22107</v>
       </c>
     </row>
     <row r="23">
@@ -9659,13 +9659,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.249468</v>
+        <v>0.261086</v>
       </c>
       <c r="C23" t="n">
-        <v>0.195351</v>
+        <v>0.192581</v>
       </c>
       <c r="D23" t="n">
-        <v>0.221736</v>
+        <v>0.216685</v>
       </c>
     </row>
     <row r="24">
@@ -9673,13 +9673,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.259068</v>
+        <v>0.258398</v>
       </c>
       <c r="C24" t="n">
-        <v>0.196415</v>
+        <v>0.199899</v>
       </c>
       <c r="D24" t="n">
-        <v>0.225409</v>
+        <v>0.233126</v>
       </c>
     </row>
     <row r="25">
@@ -9687,13 +9687,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.268668</v>
+        <v>0.269988</v>
       </c>
       <c r="C25" t="n">
-        <v>0.202384</v>
+        <v>0.205846</v>
       </c>
       <c r="D25" t="n">
-        <v>0.223537</v>
+        <v>0.230756</v>
       </c>
     </row>
     <row r="26">
@@ -9701,13 +9701,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.271699</v>
+        <v>0.279817</v>
       </c>
       <c r="C26" t="n">
-        <v>0.208005</v>
+        <v>0.205336</v>
       </c>
       <c r="D26" t="n">
-        <v>0.229512</v>
+        <v>0.240519</v>
       </c>
     </row>
     <row r="27">
@@ -9715,13 +9715,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.237478</v>
+        <v>0.233229</v>
       </c>
       <c r="C27" t="n">
-        <v>0.215106</v>
+        <v>0.208318</v>
       </c>
       <c r="D27" t="n">
-        <v>0.24483</v>
+        <v>0.231948</v>
       </c>
     </row>
     <row r="28">
@@ -9729,13 +9729,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.235977</v>
+        <v>0.237494</v>
       </c>
       <c r="C28" t="n">
-        <v>0.213093</v>
+        <v>0.210374</v>
       </c>
       <c r="D28" t="n">
-        <v>0.235642</v>
+        <v>0.248495</v>
       </c>
     </row>
     <row r="29">
@@ -9743,13 +9743,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.242271</v>
+        <v>0.24229</v>
       </c>
       <c r="C29" t="n">
-        <v>0.216415</v>
+        <v>0.212971</v>
       </c>
       <c r="D29" t="n">
-        <v>0.240953</v>
+        <v>0.242221</v>
       </c>
     </row>
     <row r="30">
@@ -9757,13 +9757,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.241691</v>
+        <v>0.251936</v>
       </c>
       <c r="C30" t="n">
-        <v>0.220441</v>
+        <v>0.228439</v>
       </c>
       <c r="D30" t="n">
-        <v>0.249255</v>
+        <v>0.247197</v>
       </c>
     </row>
     <row r="31">
@@ -9771,13 +9771,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.248381</v>
+        <v>0.252118</v>
       </c>
       <c r="C31" t="n">
-        <v>0.226405</v>
+        <v>0.232184</v>
       </c>
       <c r="D31" t="n">
-        <v>0.254298</v>
+        <v>0.256003</v>
       </c>
     </row>
     <row r="32">
@@ -9785,13 +9785,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.258441</v>
+        <v>0.253239</v>
       </c>
       <c r="C32" t="n">
-        <v>0.232202</v>
+        <v>0.241552</v>
       </c>
       <c r="D32" t="n">
-        <v>0.262727</v>
+        <v>0.259474</v>
       </c>
     </row>
     <row r="33">
@@ -9799,13 +9799,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.260619</v>
+        <v>0.271478</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242164</v>
+        <v>0.25237</v>
       </c>
       <c r="D33" t="n">
-        <v>0.270584</v>
+        <v>0.265312</v>
       </c>
     </row>
     <row r="34">
@@ -9813,13 +9813,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.26103</v>
+        <v>0.269222</v>
       </c>
       <c r="C34" t="n">
-        <v>0.24701</v>
+        <v>0.245687</v>
       </c>
       <c r="D34" t="n">
-        <v>0.265495</v>
+        <v>0.266995</v>
       </c>
     </row>
     <row r="35">
@@ -9827,13 +9827,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.271924</v>
+        <v>0.281034</v>
       </c>
       <c r="C35" t="n">
-        <v>0.219184</v>
+        <v>0.213044</v>
       </c>
       <c r="D35" t="n">
-        <v>0.231394</v>
+        <v>0.232185</v>
       </c>
     </row>
     <row r="36">
@@ -9841,13 +9841,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.282407</v>
+        <v>0.275949</v>
       </c>
       <c r="C36" t="n">
-        <v>0.215165</v>
+        <v>0.221934</v>
       </c>
       <c r="D36" t="n">
-        <v>0.233632</v>
+        <v>0.244752</v>
       </c>
     </row>
     <row r="37">
@@ -9855,13 +9855,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.283132</v>
+        <v>0.287289</v>
       </c>
       <c r="C37" t="n">
-        <v>0.228715</v>
+        <v>0.221827</v>
       </c>
       <c r="D37" t="n">
-        <v>0.241724</v>
+        <v>0.238567</v>
       </c>
     </row>
     <row r="38">
@@ -9869,13 +9869,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.291829</v>
+        <v>0.300834</v>
       </c>
       <c r="C38" t="n">
-        <v>0.220802</v>
+        <v>0.228613</v>
       </c>
       <c r="D38" t="n">
-        <v>0.244333</v>
+        <v>0.24584</v>
       </c>
     </row>
     <row r="39">
@@ -9883,13 +9883,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.302193</v>
+        <v>0.297491</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228469</v>
+        <v>0.230636</v>
       </c>
       <c r="D39" t="n">
-        <v>0.256819</v>
+        <v>0.253868</v>
       </c>
     </row>
     <row r="40">
@@ -9897,13 +9897,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.311543</v>
+        <v>0.308936</v>
       </c>
       <c r="C40" t="n">
-        <v>0.24598</v>
+        <v>0.246946</v>
       </c>
       <c r="D40" t="n">
-        <v>0.265216</v>
+        <v>0.269732</v>
       </c>
     </row>
     <row r="41">
@@ -9911,13 +9911,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.316693</v>
+        <v>0.310733</v>
       </c>
       <c r="C41" t="n">
-        <v>0.250701</v>
+        <v>0.248102</v>
       </c>
       <c r="D41" t="n">
-        <v>0.261926</v>
+        <v>0.263126</v>
       </c>
     </row>
     <row r="42">
@@ -9925,13 +9925,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.304285</v>
+        <v>0.328603</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250255</v>
+        <v>0.252985</v>
       </c>
       <c r="D42" t="n">
-        <v>0.277061</v>
+        <v>0.27217</v>
       </c>
     </row>
     <row r="43">
@@ -9939,13 +9939,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.328107</v>
+        <v>0.318206</v>
       </c>
       <c r="C43" t="n">
-        <v>0.258686</v>
+        <v>0.252775</v>
       </c>
       <c r="D43" t="n">
-        <v>0.27865</v>
+        <v>0.289264</v>
       </c>
     </row>
     <row r="44">
@@ -9953,13 +9953,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.338231</v>
+        <v>0.324662</v>
       </c>
       <c r="C44" t="n">
-        <v>0.266874</v>
+        <v>0.265269</v>
       </c>
       <c r="D44" t="n">
-        <v>0.282101</v>
+        <v>0.280592</v>
       </c>
     </row>
     <row r="45">
@@ -9967,13 +9967,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.330588</v>
+        <v>0.343518</v>
       </c>
       <c r="C45" t="n">
-        <v>0.275828</v>
+        <v>0.279814</v>
       </c>
       <c r="D45" t="n">
-        <v>0.293874</v>
+        <v>0.292347</v>
       </c>
     </row>
     <row r="46">
@@ -9981,13 +9981,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.350175</v>
+        <v>0.3424</v>
       </c>
       <c r="C46" t="n">
-        <v>0.275417</v>
+        <v>0.285698</v>
       </c>
       <c r="D46" t="n">
-        <v>0.298569</v>
+        <v>0.300407</v>
       </c>
     </row>
     <row r="47">
@@ -9995,13 +9995,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.356299</v>
+        <v>0.363824</v>
       </c>
       <c r="C47" t="n">
-        <v>0.282045</v>
+        <v>0.284413</v>
       </c>
       <c r="D47" t="n">
-        <v>0.306123</v>
+        <v>0.305831</v>
       </c>
     </row>
     <row r="48">
@@ -10009,13 +10009,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.368303</v>
+        <v>0.358715</v>
       </c>
       <c r="C48" t="n">
-        <v>0.297071</v>
+        <v>0.29577</v>
       </c>
       <c r="D48" t="n">
-        <v>0.319359</v>
+        <v>0.309956</v>
       </c>
     </row>
     <row r="49">
@@ -10023,13 +10023,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.38753</v>
+        <v>0.373137</v>
       </c>
       <c r="C49" t="n">
-        <v>0.301078</v>
+        <v>0.292084</v>
       </c>
       <c r="D49" t="n">
-        <v>0.324792</v>
+        <v>0.319065</v>
       </c>
     </row>
     <row r="50">
@@ -10037,13 +10037,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.393202</v>
+        <v>0.394916</v>
       </c>
       <c r="C50" t="n">
-        <v>0.296159</v>
+        <v>0.300329</v>
       </c>
       <c r="D50" t="n">
-        <v>0.304392</v>
+        <v>0.30991</v>
       </c>
     </row>
     <row r="51">
@@ -10051,13 +10051,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.404329</v>
+        <v>0.404136</v>
       </c>
       <c r="C51" t="n">
-        <v>0.30707</v>
+        <v>0.29666</v>
       </c>
       <c r="D51" t="n">
-        <v>0.31257</v>
+        <v>0.317837</v>
       </c>
     </row>
     <row r="52">
@@ -10065,13 +10065,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.417086</v>
+        <v>0.412408</v>
       </c>
       <c r="C52" t="n">
-        <v>0.311155</v>
+        <v>0.308394</v>
       </c>
       <c r="D52" t="n">
-        <v>0.330583</v>
+        <v>0.330696</v>
       </c>
     </row>
     <row r="53">
@@ -10079,13 +10079,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.435858</v>
+        <v>0.435799</v>
       </c>
       <c r="C53" t="n">
-        <v>0.312511</v>
+        <v>0.318175</v>
       </c>
       <c r="D53" t="n">
-        <v>0.32168</v>
+        <v>0.326562</v>
       </c>
     </row>
     <row r="54">
@@ -10093,13 +10093,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.437741</v>
+        <v>0.453046</v>
       </c>
       <c r="C54" t="n">
-        <v>0.325796</v>
+        <v>0.335098</v>
       </c>
       <c r="D54" t="n">
-        <v>0.334319</v>
+        <v>0.343543</v>
       </c>
     </row>
     <row r="55">
@@ -10107,13 +10107,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.463094</v>
+        <v>0.463288</v>
       </c>
       <c r="C55" t="n">
-        <v>0.338386</v>
+        <v>0.340454</v>
       </c>
       <c r="D55" t="n">
-        <v>0.356224</v>
+        <v>0.360394</v>
       </c>
     </row>
     <row r="56">
@@ -10121,13 +10121,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.496393</v>
+        <v>0.546525</v>
       </c>
       <c r="C56" t="n">
-        <v>0.34823</v>
+        <v>0.352489</v>
       </c>
       <c r="D56" t="n">
-        <v>0.366601</v>
+        <v>0.380377</v>
       </c>
     </row>
     <row r="57">
@@ -10135,13 +10135,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.526554</v>
+        <v>0.558411</v>
       </c>
       <c r="C57" t="n">
-        <v>0.358832</v>
+        <v>0.365129</v>
       </c>
       <c r="D57" t="n">
-        <v>0.391032</v>
+        <v>0.380979</v>
       </c>
     </row>
     <row r="58">
@@ -10149,13 +10149,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.530043</v>
+        <v>0.539241</v>
       </c>
       <c r="C58" t="n">
-        <v>0.374635</v>
+        <v>0.383725</v>
       </c>
       <c r="D58" t="n">
-        <v>0.394063</v>
+        <v>0.400562</v>
       </c>
     </row>
     <row r="59">
@@ -10163,13 +10163,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.542699</v>
+        <v>0.594202</v>
       </c>
       <c r="C59" t="n">
-        <v>0.387342</v>
+        <v>0.389844</v>
       </c>
       <c r="D59" t="n">
-        <v>0.401387</v>
+        <v>0.425335</v>
       </c>
     </row>
     <row r="60">
@@ -10177,13 +10177,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.55867</v>
+        <v>0.626016</v>
       </c>
       <c r="C60" t="n">
-        <v>0.412892</v>
+        <v>0.410287</v>
       </c>
       <c r="D60" t="n">
-        <v>0.415123</v>
+        <v>0.420243</v>
       </c>
     </row>
     <row r="61">
@@ -10191,13 +10191,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.584309</v>
+        <v>0.598307</v>
       </c>
       <c r="C61" t="n">
-        <v>0.428687</v>
+        <v>0.440603</v>
       </c>
       <c r="D61" t="n">
-        <v>0.442393</v>
+        <v>0.445607</v>
       </c>
     </row>
     <row r="62">
@@ -10205,13 +10205,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.630081</v>
+        <v>0.6082</v>
       </c>
       <c r="C62" t="n">
-        <v>0.455642</v>
+        <v>0.444964</v>
       </c>
       <c r="D62" t="n">
-        <v>0.461325</v>
+        <v>0.47107</v>
       </c>
     </row>
     <row r="63">
@@ -10219,13 +10219,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.621996</v>
+        <v>0.636163</v>
       </c>
       <c r="C63" t="n">
-        <v>0.450984</v>
+        <v>0.44719</v>
       </c>
       <c r="D63" t="n">
-        <v>0.478828</v>
+        <v>0.476918</v>
       </c>
     </row>
     <row r="64">
@@ -10233,13 +10233,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.640518</v>
+        <v>0.66412</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5029090000000001</v>
+        <v>0.498886</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5058820000000001</v>
+        <v>0.512863</v>
       </c>
     </row>
     <row r="65">
@@ -10247,13 +10247,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.659602</v>
+        <v>0.659731</v>
       </c>
       <c r="C65" t="n">
-        <v>0.505488</v>
+        <v>0.542946</v>
       </c>
       <c r="D65" t="n">
-        <v>0.533145</v>
+        <v>0.530613</v>
       </c>
     </row>
     <row r="66">
@@ -10261,13 +10261,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6735370000000001</v>
+        <v>0.69951</v>
       </c>
       <c r="C66" t="n">
-        <v>0.521366</v>
+        <v>0.507592</v>
       </c>
       <c r="D66" t="n">
-        <v>0.530883</v>
+        <v>0.533948</v>
       </c>
     </row>
     <row r="67">
@@ -10275,13 +10275,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.712549</v>
+        <v>0.71023</v>
       </c>
       <c r="C67" t="n">
-        <v>0.544919</v>
+        <v>0.534018</v>
       </c>
       <c r="D67" t="n">
-        <v>0.560306</v>
+        <v>0.548818</v>
       </c>
     </row>
     <row r="68">
@@ -10289,13 +10289,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.734828</v>
+        <v>0.731108</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5606910000000001</v>
+        <v>0.555328</v>
       </c>
       <c r="D68" t="n">
-        <v>0.580886</v>
+        <v>0.563508</v>
       </c>
     </row>
     <row r="69">
@@ -10303,13 +10303,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.780645</v>
+        <v>0.761018</v>
       </c>
       <c r="C69" t="n">
-        <v>0.60131</v>
+        <v>0.55905</v>
       </c>
       <c r="D69" t="n">
-        <v>0.588081</v>
+        <v>0.5826519999999999</v>
       </c>
     </row>
     <row r="70">
@@ -10317,13 +10317,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.811292</v>
+        <v>0.747424</v>
       </c>
       <c r="C70" t="n">
-        <v>0.589615</v>
+        <v>0.610461</v>
       </c>
       <c r="D70" t="n">
-        <v>0.602115</v>
+        <v>0.632131</v>
       </c>
     </row>
     <row r="71">
@@ -10331,13 +10331,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.784738</v>
+        <v>0.781579</v>
       </c>
       <c r="C71" t="n">
-        <v>0.645439</v>
+        <v>0.592156</v>
       </c>
       <c r="D71" t="n">
-        <v>0.658245</v>
+        <v>0.636543</v>
       </c>
     </row>
     <row r="72">
@@ -10345,13 +10345,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.82753</v>
+        <v>0.792731</v>
       </c>
       <c r="C72" t="n">
-        <v>0.622384</v>
+        <v>0.656534</v>
       </c>
       <c r="D72" t="n">
-        <v>0.646113</v>
+        <v>0.689103</v>
       </c>
     </row>
     <row r="73">
@@ -10359,13 +10359,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.807358</v>
+        <v>0.819565</v>
       </c>
       <c r="C73" t="n">
-        <v>0.669921</v>
+        <v>0.638841</v>
       </c>
       <c r="D73" t="n">
-        <v>0.692379</v>
+        <v>0.6694</v>
       </c>
     </row>
     <row r="74">
@@ -10373,13 +10373,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.864318</v>
+        <v>0.830576</v>
       </c>
       <c r="C74" t="n">
-        <v>0.655703</v>
+        <v>0.686786</v>
       </c>
       <c r="D74" t="n">
-        <v>0.684405</v>
+        <v>0.703403</v>
       </c>
     </row>
     <row r="75">
@@ -10387,13 +10387,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.815215</v>
+        <v>0.871812</v>
       </c>
       <c r="C75" t="n">
-        <v>0.724226</v>
+        <v>0.658342</v>
       </c>
       <c r="D75" t="n">
-        <v>0.731162</v>
+        <v>0.722045</v>
       </c>
     </row>
     <row r="76">
@@ -10401,13 +10401,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8702299999999999</v>
+        <v>0.847198</v>
       </c>
       <c r="C76" t="n">
-        <v>0.713346</v>
+        <v>0.732679</v>
       </c>
       <c r="D76" t="n">
-        <v>0.715492</v>
+        <v>0.735889</v>
       </c>
     </row>
     <row r="77">
@@ -10415,13 +10415,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.869653</v>
+        <v>0.866777</v>
       </c>
       <c r="C77" t="n">
-        <v>0.744705</v>
+        <v>0.7496930000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.774184</v>
+        <v>0.770053</v>
       </c>
     </row>
     <row r="78">
@@ -10429,13 +10429,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.924982</v>
+        <v>0.884695</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7110300000000001</v>
+        <v>0.730325</v>
       </c>
       <c r="D78" t="n">
-        <v>0.782465</v>
+        <v>0.756783</v>
       </c>
     </row>
     <row r="79">
@@ -10443,13 +10443,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.91008</v>
+        <v>0.924435</v>
       </c>
       <c r="C79" t="n">
-        <v>0.743667</v>
+        <v>0.746314</v>
       </c>
       <c r="D79" t="n">
-        <v>0.787276</v>
+        <v>0.778434</v>
       </c>
     </row>
     <row r="80">
@@ -10457,13 +10457,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.921651</v>
+        <v>0.927474</v>
       </c>
       <c r="C80" t="n">
-        <v>0.741693</v>
+        <v>0.757651</v>
       </c>
       <c r="D80" t="n">
-        <v>0.775596</v>
+        <v>0.784592</v>
       </c>
     </row>
     <row r="81">
@@ -10471,13 +10471,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.949373</v>
+        <v>0.959741</v>
       </c>
       <c r="C81" t="n">
-        <v>0.760387</v>
+        <v>0.757275</v>
       </c>
       <c r="D81" t="n">
-        <v>0.819612</v>
+        <v>0.787044</v>
       </c>
     </row>
     <row r="82">
@@ -10485,13 +10485,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.970683</v>
+        <v>0.961551</v>
       </c>
       <c r="C82" t="n">
-        <v>0.809987</v>
+        <v>0.776211</v>
       </c>
       <c r="D82" t="n">
-        <v>0.830137</v>
+        <v>0.833055</v>
       </c>
     </row>
     <row r="83">
@@ -10499,13 +10499,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.00793</v>
+        <v>0.9881799999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>0.792899</v>
+        <v>0.7949079999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.832317</v>
+        <v>0.820286</v>
       </c>
     </row>
     <row r="84">
@@ -10513,13 +10513,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.92193</v>
+        <v>0.914278</v>
       </c>
       <c r="C84" t="n">
-        <v>0.811155</v>
+        <v>0.807863</v>
       </c>
       <c r="D84" t="n">
-        <v>0.842477</v>
+        <v>0.84527</v>
       </c>
     </row>
     <row r="85">
@@ -10527,13 +10527,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.928903</v>
+        <v>0.928786</v>
       </c>
       <c r="C85" t="n">
-        <v>0.826811</v>
+        <v>0.82032</v>
       </c>
       <c r="D85" t="n">
-        <v>0.872688</v>
+        <v>0.878889</v>
       </c>
     </row>
     <row r="86">
@@ -10541,13 +10541,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.956809</v>
+        <v>0.936272</v>
       </c>
       <c r="C86" t="n">
-        <v>0.859884</v>
+        <v>0.852538</v>
       </c>
       <c r="D86" t="n">
-        <v>0.891557</v>
+        <v>0.896297</v>
       </c>
     </row>
     <row r="87">
@@ -10555,13 +10555,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.95682</v>
+        <v>0.966194</v>
       </c>
       <c r="C87" t="n">
-        <v>0.878679</v>
+        <v>0.842831</v>
       </c>
       <c r="D87" t="n">
-        <v>0.91631</v>
+        <v>0.885585</v>
       </c>
     </row>
     <row r="88">
@@ -10569,13 +10569,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.992772</v>
+        <v>0.9758289999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.896135</v>
+        <v>0.8767779999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.915343</v>
+        <v>0.926507</v>
       </c>
     </row>
     <row r="89">
@@ -10583,13 +10583,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9917589999999999</v>
+        <v>0.996027</v>
       </c>
       <c r="C89" t="n">
-        <v>0.89452</v>
+        <v>0.899494</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9449610000000001</v>
+        <v>0.932716</v>
       </c>
     </row>
     <row r="90">
@@ -10597,13 +10597,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.00563</v>
+        <v>1.01365</v>
       </c>
       <c r="C90" t="n">
-        <v>0.915019</v>
+        <v>0.9280929999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.934458</v>
+        <v>0.94451</v>
       </c>
     </row>
     <row r="91">
@@ -10611,13 +10611,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.01418</v>
+        <v>1.01535</v>
       </c>
       <c r="C91" t="n">
-        <v>0.943808</v>
+        <v>0.927637</v>
       </c>
       <c r="D91" t="n">
-        <v>0.967931</v>
+        <v>0.974781</v>
       </c>
     </row>
     <row r="92">
@@ -10625,13 +10625,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.03098</v>
+        <v>1.05728</v>
       </c>
       <c r="C92" t="n">
-        <v>0.86507</v>
+        <v>0.859649</v>
       </c>
       <c r="D92" t="n">
-        <v>0.913367</v>
+        <v>0.917122</v>
       </c>
     </row>
     <row r="93">
@@ -10639,13 +10639,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.02631</v>
+        <v>1.03721</v>
       </c>
       <c r="C93" t="n">
-        <v>0.891142</v>
+        <v>0.90013</v>
       </c>
       <c r="D93" t="n">
-        <v>0.914119</v>
+        <v>0.916371</v>
       </c>
     </row>
     <row r="94">
@@ -10653,13 +10653,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.05996</v>
+        <v>1.06456</v>
       </c>
       <c r="C94" t="n">
-        <v>0.888829</v>
+        <v>0.904501</v>
       </c>
       <c r="D94" t="n">
-        <v>0.935208</v>
+        <v>0.921265</v>
       </c>
     </row>
     <row r="95">
@@ -10667,13 +10667,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.11528</v>
+        <v>1.07605</v>
       </c>
       <c r="C95" t="n">
-        <v>0.92472</v>
+        <v>0.898629</v>
       </c>
       <c r="D95" t="n">
-        <v>0.93198</v>
+        <v>0.93228</v>
       </c>
     </row>
     <row r="96">
@@ -10681,13 +10681,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.12615</v>
+        <v>1.09403</v>
       </c>
       <c r="C96" t="n">
-        <v>0.913224</v>
+        <v>0.908093</v>
       </c>
       <c r="D96" t="n">
-        <v>0.952695</v>
+        <v>0.944234</v>
       </c>
     </row>
     <row r="97">
@@ -10695,13 +10695,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.1287</v>
+        <v>1.10973</v>
       </c>
       <c r="C97" t="n">
-        <v>0.929422</v>
+        <v>0.925435</v>
       </c>
       <c r="D97" t="n">
-        <v>0.965785</v>
+        <v>0.972718</v>
       </c>
     </row>
     <row r="98">
@@ -10709,13 +10709,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.02277</v>
+        <v>1.01664</v>
       </c>
       <c r="C98" t="n">
-        <v>0.945513</v>
+        <v>0.962476</v>
       </c>
       <c r="D98" t="n">
-        <v>0.979274</v>
+        <v>0.9763579999999999</v>
       </c>
     </row>
     <row r="99">
@@ -10723,13 +10723,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.01234</v>
+        <v>1.02247</v>
       </c>
       <c r="C99" t="n">
-        <v>0.952841</v>
+        <v>0.988001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.990863</v>
+        <v>0.993185</v>
       </c>
     </row>
     <row r="100">
@@ -10737,13 +10737,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.03206</v>
+        <v>1.05276</v>
       </c>
       <c r="C100" t="n">
-        <v>0.998965</v>
+        <v>0.995884</v>
       </c>
       <c r="D100" t="n">
-        <v>1.0249</v>
+        <v>1.024</v>
       </c>
     </row>
     <row r="101">
@@ -10751,13 +10751,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.04108</v>
+        <v>1.0352</v>
       </c>
       <c r="C101" t="n">
-        <v>0.991437</v>
+        <v>0.998398</v>
       </c>
       <c r="D101" t="n">
-        <v>1.0378</v>
+        <v>1.04008</v>
       </c>
     </row>
     <row r="102">
@@ -10765,13 +10765,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.04801</v>
+        <v>1.06356</v>
       </c>
       <c r="C102" t="n">
-        <v>1.03037</v>
+        <v>1.00676</v>
       </c>
       <c r="D102" t="n">
-        <v>1.05662</v>
+        <v>1.09575</v>
       </c>
     </row>
     <row r="103">
@@ -10779,13 +10779,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.07929</v>
+        <v>1.07153</v>
       </c>
       <c r="C103" t="n">
-        <v>1.03402</v>
+        <v>1.04238</v>
       </c>
       <c r="D103" t="n">
-        <v>1.04691</v>
+        <v>1.08862</v>
       </c>
     </row>
     <row r="104">
@@ -10793,13 +10793,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.09844</v>
+        <v>1.08147</v>
       </c>
       <c r="C104" t="n">
-        <v>1.04965</v>
+        <v>1.06205</v>
       </c>
       <c r="D104" t="n">
-        <v>1.08765</v>
+        <v>1.09944</v>
       </c>
     </row>
     <row r="105">
@@ -10807,13 +10807,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.11618</v>
+        <v>1.10207</v>
       </c>
       <c r="C105" t="n">
-        <v>1.07417</v>
+        <v>1.05859</v>
       </c>
       <c r="D105" t="n">
-        <v>1.11888</v>
+        <v>1.11335</v>
       </c>
     </row>
     <row r="106">
@@ -10821,13 +10821,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.1095</v>
+        <v>1.1235</v>
       </c>
       <c r="C106" t="n">
-        <v>1.10513</v>
+        <v>1.12239</v>
       </c>
       <c r="D106" t="n">
-        <v>1.11855</v>
+        <v>1.14713</v>
       </c>
     </row>
     <row r="107">
@@ -10835,13 +10835,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.12829</v>
+        <v>1.17477</v>
       </c>
       <c r="C107" t="n">
-        <v>0.990217</v>
+        <v>0.986746</v>
       </c>
       <c r="D107" t="n">
-        <v>1.02213</v>
+        <v>1.01436</v>
       </c>
     </row>
     <row r="108">
@@ -10849,13 +10849,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.15719</v>
+        <v>1.16437</v>
       </c>
       <c r="C108" t="n">
-        <v>1.03679</v>
+        <v>0.977209</v>
       </c>
       <c r="D108" t="n">
-        <v>1.03198</v>
+        <v>1.03342</v>
       </c>
     </row>
     <row r="109">
@@ -10863,13 +10863,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.17651</v>
+        <v>1.20045</v>
       </c>
       <c r="C109" t="n">
-        <v>1.03141</v>
+        <v>1.00249</v>
       </c>
       <c r="D109" t="n">
-        <v>1.05319</v>
+        <v>1.07048</v>
       </c>
     </row>
     <row r="110">
@@ -10877,13 +10877,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.18954</v>
+        <v>1.20592</v>
       </c>
       <c r="C110" t="n">
-        <v>1.05717</v>
+        <v>1.02445</v>
       </c>
       <c r="D110" t="n">
-        <v>1.08009</v>
+        <v>1.05512</v>
       </c>
     </row>
     <row r="111">
@@ -10891,13 +10891,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.21911</v>
+        <v>1.22433</v>
       </c>
       <c r="C111" t="n">
-        <v>1.05086</v>
+        <v>1.06552</v>
       </c>
       <c r="D111" t="n">
-        <v>1.06545</v>
+        <v>1.07116</v>
       </c>
     </row>
     <row r="112">
@@ -10905,13 +10905,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.08105</v>
+        <v>1.11375</v>
       </c>
       <c r="C112" t="n">
-        <v>1.0664</v>
+        <v>1.06418</v>
       </c>
       <c r="D112" t="n">
-        <v>1.07776</v>
+        <v>1.08549</v>
       </c>
     </row>
     <row r="113">
@@ -10919,13 +10919,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.10866</v>
+        <v>1.08625</v>
       </c>
       <c r="C113" t="n">
-        <v>1.05886</v>
+        <v>1.07332</v>
       </c>
       <c r="D113" t="n">
-        <v>1.11284</v>
+        <v>1.11041</v>
       </c>
     </row>
     <row r="114">
@@ -10933,13 +10933,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.10666</v>
+        <v>1.1249</v>
       </c>
       <c r="C114" t="n">
-        <v>1.0957</v>
+        <v>1.10391</v>
       </c>
       <c r="D114" t="n">
-        <v>1.12901</v>
+        <v>1.15177</v>
       </c>
     </row>
     <row r="115">
@@ -10947,13 +10947,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.13721</v>
+        <v>1.13861</v>
       </c>
       <c r="C115" t="n">
-        <v>1.11494</v>
+        <v>1.10144</v>
       </c>
       <c r="D115" t="n">
-        <v>1.16919</v>
+        <v>1.14014</v>
       </c>
     </row>
     <row r="116">
@@ -10961,13 +10961,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.17546</v>
+        <v>1.13849</v>
       </c>
       <c r="C116" t="n">
-        <v>1.1437</v>
+        <v>1.14997</v>
       </c>
       <c r="D116" t="n">
-        <v>1.16728</v>
+        <v>1.18742</v>
       </c>
     </row>
     <row r="117">
@@ -10975,13 +10975,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.19474</v>
+        <v>1.14778</v>
       </c>
       <c r="C117" t="n">
-        <v>1.16332</v>
+        <v>1.1296</v>
       </c>
       <c r="D117" t="n">
-        <v>1.19291</v>
+        <v>1.17222</v>
       </c>
     </row>
     <row r="118">
@@ -10989,13 +10989,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.19356</v>
+        <v>1.17623</v>
       </c>
       <c r="C118" t="n">
-        <v>1.169</v>
+        <v>1.16874</v>
       </c>
       <c r="D118" t="n">
-        <v>1.20401</v>
+        <v>1.20818</v>
       </c>
     </row>
     <row r="119">
@@ -11003,13 +11003,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.188</v>
+        <v>1.20113</v>
       </c>
       <c r="C119" t="n">
-        <v>1.1853</v>
+        <v>1.17404</v>
       </c>
       <c r="D119" t="n">
-        <v>1.24068</v>
+        <v>1.20045</v>
       </c>
     </row>
   </sheetData>
@@ -11057,13 +11057,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.232825</v>
+        <v>0.234269</v>
       </c>
       <c r="C2" t="n">
-        <v>0.184046</v>
+        <v>0.200064</v>
       </c>
       <c r="D2" t="n">
-        <v>0.186308</v>
+        <v>0.200049</v>
       </c>
     </row>
     <row r="3">
@@ -11071,13 +11071,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.223826</v>
+        <v>0.245008</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187713</v>
+        <v>0.195882</v>
       </c>
       <c r="D3" t="n">
-        <v>0.199695</v>
+        <v>0.195698</v>
       </c>
     </row>
     <row r="4">
@@ -11085,13 +11085,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.239321</v>
+        <v>0.237623</v>
       </c>
       <c r="C4" t="n">
-        <v>0.197238</v>
+        <v>0.20006</v>
       </c>
       <c r="D4" t="n">
-        <v>0.193594</v>
+        <v>0.199682</v>
       </c>
     </row>
     <row r="5">
@@ -11099,13 +11099,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.242248</v>
+        <v>0.239405</v>
       </c>
       <c r="C5" t="n">
-        <v>0.194807</v>
+        <v>0.203612</v>
       </c>
       <c r="D5" t="n">
-        <v>0.201031</v>
+        <v>0.194219</v>
       </c>
     </row>
     <row r="6">
@@ -11113,13 +11113,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.242489</v>
+        <v>0.25292</v>
       </c>
       <c r="C6" t="n">
-        <v>0.207044</v>
+        <v>0.206176</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201468</v>
+        <v>0.199819</v>
       </c>
     </row>
     <row r="7">
@@ -11127,13 +11127,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.24043</v>
+        <v>0.249589</v>
       </c>
       <c r="C7" t="n">
-        <v>0.184953</v>
+        <v>0.191145</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202319</v>
+        <v>0.208358</v>
       </c>
     </row>
     <row r="8">
@@ -11141,13 +11141,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.247504</v>
+        <v>0.243607</v>
       </c>
       <c r="C8" t="n">
-        <v>0.187159</v>
+        <v>0.200152</v>
       </c>
       <c r="D8" t="n">
-        <v>0.200184</v>
+        <v>0.206876</v>
       </c>
     </row>
     <row r="9">
@@ -11155,13 +11155,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.251583</v>
+        <v>0.257273</v>
       </c>
       <c r="C9" t="n">
-        <v>0.198206</v>
+        <v>0.197661</v>
       </c>
       <c r="D9" t="n">
-        <v>0.211613</v>
+        <v>0.204703</v>
       </c>
     </row>
     <row r="10">
@@ -11169,13 +11169,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.255903</v>
+        <v>0.265517</v>
       </c>
       <c r="C10" t="n">
-        <v>0.201224</v>
+        <v>0.208155</v>
       </c>
       <c r="D10" t="n">
-        <v>0.217992</v>
+        <v>0.204132</v>
       </c>
     </row>
     <row r="11">
@@ -11183,13 +11183,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.248205</v>
+        <v>0.262158</v>
       </c>
       <c r="C11" t="n">
-        <v>0.203023</v>
+        <v>0.19921</v>
       </c>
       <c r="D11" t="n">
-        <v>0.203744</v>
+        <v>0.211207</v>
       </c>
     </row>
     <row r="12">
@@ -11197,13 +11197,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.262332</v>
+        <v>0.281808</v>
       </c>
       <c r="C12" t="n">
-        <v>0.212601</v>
+        <v>0.212218</v>
       </c>
       <c r="D12" t="n">
-        <v>0.204299</v>
+        <v>0.219395</v>
       </c>
     </row>
     <row r="13">
@@ -11211,13 +11211,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.24107</v>
+        <v>0.248232</v>
       </c>
       <c r="C13" t="n">
-        <v>0.204908</v>
+        <v>0.201366</v>
       </c>
       <c r="D13" t="n">
-        <v>0.215669</v>
+        <v>0.222589</v>
       </c>
     </row>
     <row r="14">
@@ -11225,13 +11225,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.256724</v>
+        <v>0.253106</v>
       </c>
       <c r="C14" t="n">
-        <v>0.210306</v>
+        <v>0.211799</v>
       </c>
       <c r="D14" t="n">
-        <v>0.216508</v>
+        <v>0.223738</v>
       </c>
     </row>
     <row r="15">
@@ -11239,13 +11239,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.244331</v>
+        <v>0.255381</v>
       </c>
       <c r="C15" t="n">
-        <v>0.214334</v>
+        <v>0.210424</v>
       </c>
       <c r="D15" t="n">
-        <v>0.215723</v>
+        <v>0.215906</v>
       </c>
     </row>
     <row r="16">
@@ -11253,13 +11253,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.257513</v>
+        <v>0.260508</v>
       </c>
       <c r="C16" t="n">
-        <v>0.213589</v>
+        <v>0.225034</v>
       </c>
       <c r="D16" t="n">
-        <v>0.216351</v>
+        <v>0.226157</v>
       </c>
     </row>
     <row r="17">
@@ -11267,13 +11267,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.254275</v>
+        <v>0.260507</v>
       </c>
       <c r="C17" t="n">
-        <v>0.222326</v>
+        <v>0.223818</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223597</v>
+        <v>0.225716</v>
       </c>
     </row>
     <row r="18">
@@ -11281,13 +11281,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.260435</v>
+        <v>0.269998</v>
       </c>
       <c r="C18" t="n">
-        <v>0.230267</v>
+        <v>0.232322</v>
       </c>
       <c r="D18" t="n">
-        <v>0.232519</v>
+        <v>0.227348</v>
       </c>
     </row>
     <row r="19">
@@ -11295,13 +11295,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.25735</v>
+        <v>0.268</v>
       </c>
       <c r="C19" t="n">
-        <v>0.231714</v>
+        <v>0.238396</v>
       </c>
       <c r="D19" t="n">
-        <v>0.230898</v>
+        <v>0.233191</v>
       </c>
     </row>
     <row r="20">
@@ -11309,13 +11309,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.277175</v>
+        <v>0.284824</v>
       </c>
       <c r="C20" t="n">
-        <v>0.238321</v>
+        <v>0.238313</v>
       </c>
       <c r="D20" t="n">
-        <v>0.225572</v>
+        <v>0.229522</v>
       </c>
     </row>
     <row r="21">
@@ -11323,13 +11323,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.267851</v>
+        <v>0.279691</v>
       </c>
       <c r="C21" t="n">
-        <v>0.221632</v>
+        <v>0.218095</v>
       </c>
       <c r="D21" t="n">
-        <v>0.227269</v>
+        <v>0.22788</v>
       </c>
     </row>
     <row r="22">
@@ -11337,13 +11337,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.279919</v>
+        <v>0.272946</v>
       </c>
       <c r="C22" t="n">
-        <v>0.222785</v>
+        <v>0.218754</v>
       </c>
       <c r="D22" t="n">
-        <v>0.241274</v>
+        <v>0.22943</v>
       </c>
     </row>
     <row r="23">
@@ -11351,13 +11351,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.303989</v>
+        <v>0.275647</v>
       </c>
       <c r="C23" t="n">
-        <v>0.22373</v>
+        <v>0.226807</v>
       </c>
       <c r="D23" t="n">
-        <v>0.230175</v>
+        <v>0.237734</v>
       </c>
     </row>
     <row r="24">
@@ -11365,13 +11365,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.286302</v>
+        <v>0.279826</v>
       </c>
       <c r="C24" t="n">
-        <v>0.238532</v>
+        <v>0.229873</v>
       </c>
       <c r="D24" t="n">
-        <v>0.231725</v>
+        <v>0.237288</v>
       </c>
     </row>
     <row r="25">
@@ -11379,13 +11379,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.299315</v>
+        <v>0.299248</v>
       </c>
       <c r="C25" t="n">
-        <v>0.245084</v>
+        <v>0.245135</v>
       </c>
       <c r="D25" t="n">
-        <v>0.23806</v>
+        <v>0.241229</v>
       </c>
     </row>
     <row r="26">
@@ -11393,13 +11393,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.309409</v>
+        <v>0.302561</v>
       </c>
       <c r="C26" t="n">
-        <v>0.241691</v>
+        <v>0.246528</v>
       </c>
       <c r="D26" t="n">
-        <v>0.232256</v>
+        <v>0.246912</v>
       </c>
     </row>
     <row r="27">
@@ -11407,13 +11407,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.270476</v>
+        <v>0.285291</v>
       </c>
       <c r="C27" t="n">
-        <v>0.247536</v>
+        <v>0.24406</v>
       </c>
       <c r="D27" t="n">
-        <v>0.235771</v>
+        <v>0.246851</v>
       </c>
     </row>
     <row r="28">
@@ -11421,13 +11421,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.29667</v>
+        <v>0.278215</v>
       </c>
       <c r="C28" t="n">
-        <v>0.263361</v>
+        <v>0.252881</v>
       </c>
       <c r="D28" t="n">
-        <v>0.249633</v>
+        <v>0.24495</v>
       </c>
     </row>
     <row r="29">
@@ -11435,13 +11435,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.290398</v>
+        <v>0.280819</v>
       </c>
       <c r="C29" t="n">
-        <v>0.249212</v>
+        <v>0.257164</v>
       </c>
       <c r="D29" t="n">
-        <v>0.249036</v>
+        <v>0.247995</v>
       </c>
     </row>
     <row r="30">
@@ -11449,13 +11449,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.296198</v>
+        <v>0.296677</v>
       </c>
       <c r="C30" t="n">
-        <v>0.263861</v>
+        <v>0.263372</v>
       </c>
       <c r="D30" t="n">
-        <v>0.252699</v>
+        <v>0.255978</v>
       </c>
     </row>
     <row r="31">
@@ -11463,13 +11463,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.310513</v>
+        <v>0.304377</v>
       </c>
       <c r="C31" t="n">
-        <v>0.260127</v>
+        <v>0.266592</v>
       </c>
       <c r="D31" t="n">
-        <v>0.245036</v>
+        <v>0.248585</v>
       </c>
     </row>
     <row r="32">
@@ -11477,13 +11477,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.334468</v>
+        <v>0.318693</v>
       </c>
       <c r="C32" t="n">
-        <v>0.26883</v>
+        <v>0.274623</v>
       </c>
       <c r="D32" t="n">
-        <v>0.255743</v>
+        <v>0.253447</v>
       </c>
     </row>
     <row r="33">
@@ -11491,13 +11491,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.325566</v>
+        <v>0.325009</v>
       </c>
       <c r="C33" t="n">
-        <v>0.28754</v>
+        <v>0.278961</v>
       </c>
       <c r="D33" t="n">
-        <v>0.26254</v>
+        <v>0.263936</v>
       </c>
     </row>
     <row r="34">
@@ -11505,13 +11505,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.351248</v>
+        <v>0.32413</v>
       </c>
       <c r="C34" t="n">
-        <v>0.298404</v>
+        <v>0.295239</v>
       </c>
       <c r="D34" t="n">
-        <v>0.272512</v>
+        <v>0.270008</v>
       </c>
     </row>
     <row r="35">
@@ -11519,13 +11519,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.349264</v>
+        <v>0.340308</v>
       </c>
       <c r="C35" t="n">
-        <v>0.254093</v>
+        <v>0.239378</v>
       </c>
       <c r="D35" t="n">
-        <v>0.247802</v>
+        <v>0.247963</v>
       </c>
     </row>
     <row r="36">
@@ -11533,13 +11533,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.365185</v>
+        <v>0.347493</v>
       </c>
       <c r="C36" t="n">
-        <v>0.26148</v>
+        <v>0.26017</v>
       </c>
       <c r="D36" t="n">
-        <v>0.252454</v>
+        <v>0.254598</v>
       </c>
     </row>
     <row r="37">
@@ -11547,13 +11547,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.367307</v>
+        <v>0.354099</v>
       </c>
       <c r="C37" t="n">
-        <v>0.262935</v>
+        <v>0.268189</v>
       </c>
       <c r="D37" t="n">
-        <v>0.256755</v>
+        <v>0.259924</v>
       </c>
     </row>
     <row r="38">
@@ -11561,13 +11561,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.377105</v>
+        <v>0.374064</v>
       </c>
       <c r="C38" t="n">
-        <v>0.270266</v>
+        <v>0.276929</v>
       </c>
       <c r="D38" t="n">
-        <v>0.271721</v>
+        <v>0.262009</v>
       </c>
     </row>
     <row r="39">
@@ -11575,13 +11575,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.379625</v>
+        <v>0.3802</v>
       </c>
       <c r="C39" t="n">
-        <v>0.292804</v>
+        <v>0.281453</v>
       </c>
       <c r="D39" t="n">
-        <v>0.269533</v>
+        <v>0.272371</v>
       </c>
     </row>
     <row r="40">
@@ -11589,13 +11589,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.394836</v>
+        <v>0.392563</v>
       </c>
       <c r="C40" t="n">
-        <v>0.315776</v>
+        <v>0.298043</v>
       </c>
       <c r="D40" t="n">
-        <v>0.264116</v>
+        <v>0.277051</v>
       </c>
     </row>
     <row r="41">
@@ -11603,13 +11603,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.393067</v>
+        <v>0.387168</v>
       </c>
       <c r="C41" t="n">
-        <v>0.310033</v>
+        <v>0.30098</v>
       </c>
       <c r="D41" t="n">
-        <v>0.282265</v>
+        <v>0.276938</v>
       </c>
     </row>
     <row r="42">
@@ -11617,13 +11617,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.401263</v>
+        <v>0.40284</v>
       </c>
       <c r="C42" t="n">
-        <v>0.302257</v>
+        <v>0.307438</v>
       </c>
       <c r="D42" t="n">
-        <v>0.27968</v>
+        <v>0.271005</v>
       </c>
     </row>
     <row r="43">
@@ -11631,13 +11631,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.40483</v>
+        <v>0.414398</v>
       </c>
       <c r="C43" t="n">
-        <v>0.312926</v>
+        <v>0.31523</v>
       </c>
       <c r="D43" t="n">
-        <v>0.285536</v>
+        <v>0.278888</v>
       </c>
     </row>
     <row r="44">
@@ -11645,13 +11645,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.413519</v>
+        <v>0.425257</v>
       </c>
       <c r="C44" t="n">
-        <v>0.32895</v>
+        <v>0.330368</v>
       </c>
       <c r="D44" t="n">
-        <v>0.298207</v>
+        <v>0.287749</v>
       </c>
     </row>
     <row r="45">
@@ -11659,13 +11659,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.425763</v>
+        <v>0.432583</v>
       </c>
       <c r="C45" t="n">
-        <v>0.349494</v>
+        <v>0.343926</v>
       </c>
       <c r="D45" t="n">
-        <v>0.302175</v>
+        <v>0.290813</v>
       </c>
     </row>
     <row r="46">
@@ -11673,13 +11673,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.450598</v>
+        <v>0.434435</v>
       </c>
       <c r="C46" t="n">
-        <v>0.347726</v>
+        <v>0.350636</v>
       </c>
       <c r="D46" t="n">
-        <v>0.300942</v>
+        <v>0.297775</v>
       </c>
     </row>
     <row r="47">
@@ -11687,13 +11687,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.439036</v>
+        <v>0.442123</v>
       </c>
       <c r="C47" t="n">
-        <v>0.356346</v>
+        <v>0.347108</v>
       </c>
       <c r="D47" t="n">
-        <v>0.309156</v>
+        <v>0.304802</v>
       </c>
     </row>
     <row r="48">
@@ -11701,13 +11701,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.463379</v>
+        <v>0.456401</v>
       </c>
       <c r="C48" t="n">
-        <v>0.357138</v>
+        <v>0.368433</v>
       </c>
       <c r="D48" t="n">
-        <v>0.320501</v>
+        <v>0.309611</v>
       </c>
     </row>
     <row r="49">
@@ -11715,13 +11715,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.48124</v>
+        <v>0.468278</v>
       </c>
       <c r="C49" t="n">
-        <v>0.379934</v>
+        <v>0.375914</v>
       </c>
       <c r="D49" t="n">
-        <v>0.318988</v>
+        <v>0.335384</v>
       </c>
     </row>
     <row r="50">
@@ -11729,13 +11729,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.492621</v>
+        <v>0.473632</v>
       </c>
       <c r="C50" t="n">
-        <v>0.379832</v>
+        <v>0.374354</v>
       </c>
       <c r="D50" t="n">
-        <v>0.335766</v>
+        <v>0.347839</v>
       </c>
     </row>
     <row r="51">
@@ -11743,13 +11743,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.488342</v>
+        <v>0.491884</v>
       </c>
       <c r="C51" t="n">
-        <v>0.396373</v>
+        <v>0.394022</v>
       </c>
       <c r="D51" t="n">
-        <v>0.351528</v>
+        <v>0.342957</v>
       </c>
     </row>
     <row r="52">
@@ -11757,13 +11757,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.501541</v>
+        <v>0.513865</v>
       </c>
       <c r="C52" t="n">
-        <v>0.396577</v>
+        <v>0.400466</v>
       </c>
       <c r="D52" t="n">
-        <v>0.346963</v>
+        <v>0.353131</v>
       </c>
     </row>
     <row r="53">
@@ -11771,13 +11771,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.511467</v>
+        <v>0.520082</v>
       </c>
       <c r="C53" t="n">
-        <v>0.407566</v>
+        <v>0.414279</v>
       </c>
       <c r="D53" t="n">
-        <v>0.357773</v>
+        <v>0.37368</v>
       </c>
     </row>
     <row r="54">
@@ -11785,13 +11785,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.533057</v>
+        <v>0.5392130000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.433954</v>
+        <v>0.437883</v>
       </c>
       <c r="D54" t="n">
-        <v>0.378</v>
+        <v>0.368273</v>
       </c>
     </row>
     <row r="55">
@@ -11799,13 +11799,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.542087</v>
+        <v>0.548863</v>
       </c>
       <c r="C55" t="n">
-        <v>0.449845</v>
+        <v>0.44125</v>
       </c>
       <c r="D55" t="n">
-        <v>0.373376</v>
+        <v>0.378902</v>
       </c>
     </row>
     <row r="56">
@@ -11813,13 +11813,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.513373</v>
+        <v>0.506289</v>
       </c>
       <c r="C56" t="n">
-        <v>0.439038</v>
+        <v>0.439927</v>
       </c>
       <c r="D56" t="n">
-        <v>0.394968</v>
+        <v>0.379779</v>
       </c>
     </row>
     <row r="57">
@@ -11827,13 +11827,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.511616</v>
+        <v>0.520355</v>
       </c>
       <c r="C57" t="n">
-        <v>0.462353</v>
+        <v>0.454308</v>
       </c>
       <c r="D57" t="n">
-        <v>0.402788</v>
+        <v>0.383252</v>
       </c>
     </row>
     <row r="58">
@@ -11841,13 +11841,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.518991</v>
+        <v>0.5453710000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.491337</v>
+        <v>0.476889</v>
       </c>
       <c r="D58" t="n">
-        <v>0.392196</v>
+        <v>0.411466</v>
       </c>
     </row>
     <row r="59">
@@ -11855,13 +11855,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.534066</v>
+        <v>0.555817</v>
       </c>
       <c r="C59" t="n">
-        <v>0.487408</v>
+        <v>0.484962</v>
       </c>
       <c r="D59" t="n">
-        <v>0.406886</v>
+        <v>0.41377</v>
       </c>
     </row>
     <row r="60">
@@ -11869,13 +11869,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.565773</v>
+        <v>0.5529809999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5194220000000001</v>
+        <v>0.513981</v>
       </c>
       <c r="D60" t="n">
-        <v>0.424928</v>
+        <v>0.430275</v>
       </c>
     </row>
     <row r="61">
@@ -11883,13 +11883,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.564618</v>
+        <v>0.5597569999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.524441</v>
+        <v>0.522038</v>
       </c>
       <c r="D61" t="n">
-        <v>0.42891</v>
+        <v>0.434785</v>
       </c>
     </row>
     <row r="62">
@@ -11897,13 +11897,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.573289</v>
+        <v>0.576758</v>
       </c>
       <c r="C62" t="n">
-        <v>0.530603</v>
+        <v>0.53715</v>
       </c>
       <c r="D62" t="n">
-        <v>0.446255</v>
+        <v>0.443146</v>
       </c>
     </row>
     <row r="63">
@@ -11911,13 +11911,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.606149</v>
+        <v>0.608815</v>
       </c>
       <c r="C63" t="n">
-        <v>0.551207</v>
+        <v>0.571006</v>
       </c>
       <c r="D63" t="n">
-        <v>0.449199</v>
+        <v>0.449221</v>
       </c>
     </row>
     <row r="64">
@@ -11925,13 +11925,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.602038</v>
+        <v>0.631198</v>
       </c>
       <c r="C64" t="n">
-        <v>0.519905</v>
+        <v>0.540421</v>
       </c>
       <c r="D64" t="n">
-        <v>0.462488</v>
+        <v>0.463832</v>
       </c>
     </row>
     <row r="65">
@@ -11939,13 +11939,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.616522</v>
+        <v>0.6195929999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.536523</v>
+        <v>0.5361860000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.465936</v>
+        <v>0.47417</v>
       </c>
     </row>
     <row r="66">
@@ -11953,13 +11953,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.641145</v>
+        <v>0.651514</v>
       </c>
       <c r="C66" t="n">
-        <v>0.548641</v>
+        <v>0.552657</v>
       </c>
       <c r="D66" t="n">
-        <v>0.47848</v>
+        <v>0.481959</v>
       </c>
     </row>
     <row r="67">
@@ -11967,13 +11967,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.682777</v>
+        <v>0.690995</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5548149999999999</v>
+        <v>0.5688839999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.49714</v>
+        <v>0.48793</v>
       </c>
     </row>
     <row r="68">
@@ -11981,13 +11981,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.70756</v>
+        <v>0.701137</v>
       </c>
       <c r="C68" t="n">
-        <v>0.598145</v>
+        <v>0.585015</v>
       </c>
       <c r="D68" t="n">
-        <v>0.505355</v>
+        <v>0.513935</v>
       </c>
     </row>
     <row r="69">
@@ -11995,13 +11995,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.715663</v>
+        <v>0.745055</v>
       </c>
       <c r="C69" t="n">
-        <v>0.58217</v>
+        <v>0.585421</v>
       </c>
       <c r="D69" t="n">
-        <v>0.510189</v>
+        <v>0.501817</v>
       </c>
     </row>
     <row r="70">
@@ -12009,13 +12009,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.672264</v>
+        <v>0.685306</v>
       </c>
       <c r="C70" t="n">
-        <v>0.613219</v>
+        <v>0.63323</v>
       </c>
       <c r="D70" t="n">
-        <v>0.516864</v>
+        <v>0.529456</v>
       </c>
     </row>
     <row r="71">
@@ -12023,13 +12023,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.694953</v>
+        <v>0.701425</v>
       </c>
       <c r="C71" t="n">
-        <v>0.631867</v>
+        <v>0.643776</v>
       </c>
       <c r="D71" t="n">
-        <v>0.542982</v>
+        <v>0.530133</v>
       </c>
     </row>
     <row r="72">
@@ -12037,13 +12037,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.69792</v>
+        <v>0.732195</v>
       </c>
       <c r="C72" t="n">
-        <v>0.668408</v>
+        <v>0.679244</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5437959999999999</v>
+        <v>0.5560389999999999</v>
       </c>
     </row>
     <row r="73">
@@ -12051,13 +12051,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.743915</v>
+        <v>0.75617</v>
       </c>
       <c r="C73" t="n">
-        <v>0.691111</v>
+        <v>0.7094279999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.589668</v>
+        <v>0.562907</v>
       </c>
     </row>
     <row r="74">
@@ -12065,13 +12065,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.772215</v>
+        <v>0.768099</v>
       </c>
       <c r="C74" t="n">
-        <v>0.735208</v>
+        <v>0.722707</v>
       </c>
       <c r="D74" t="n">
-        <v>0.582762</v>
+        <v>0.590444</v>
       </c>
     </row>
     <row r="75">
@@ -12079,13 +12079,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.802382</v>
+        <v>0.810476</v>
       </c>
       <c r="C75" t="n">
-        <v>0.737032</v>
+        <v>0.7619320000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.597773</v>
+        <v>0.588487</v>
       </c>
     </row>
     <row r="76">
@@ -12093,13 +12093,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.838997</v>
+        <v>0.8149960000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8074</v>
+        <v>0.795627</v>
       </c>
       <c r="D76" t="n">
-        <v>0.62823</v>
+        <v>0.6243649999999999</v>
       </c>
     </row>
     <row r="77">
@@ -12107,13 +12107,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.846404</v>
+        <v>0.847429</v>
       </c>
       <c r="C77" t="n">
-        <v>0.799368</v>
+        <v>0.807991</v>
       </c>
       <c r="D77" t="n">
-        <v>0.649921</v>
+        <v>0.639726</v>
       </c>
     </row>
     <row r="78">
@@ -12121,13 +12121,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.877766</v>
+        <v>0.876497</v>
       </c>
       <c r="C78" t="n">
-        <v>0.755792</v>
+        <v>0.743012</v>
       </c>
       <c r="D78" t="n">
-        <v>0.696722</v>
+        <v>0.672367</v>
       </c>
     </row>
     <row r="79">
@@ -12135,13 +12135,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.956522</v>
+        <v>0.9428299999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.789677</v>
+        <v>0.773444</v>
       </c>
       <c r="D79" t="n">
-        <v>0.713137</v>
+        <v>0.720386</v>
       </c>
     </row>
     <row r="80">
@@ -12149,13 +12149,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9836510000000001</v>
+        <v>0.966831</v>
       </c>
       <c r="C80" t="n">
-        <v>0.831519</v>
+        <v>0.80863</v>
       </c>
       <c r="D80" t="n">
-        <v>0.708738</v>
+        <v>0.7299949999999999</v>
       </c>
     </row>
     <row r="81">
@@ -12163,13 +12163,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.979507</v>
+        <v>1.01674</v>
       </c>
       <c r="C81" t="n">
-        <v>0.827765</v>
+        <v>0.831247</v>
       </c>
       <c r="D81" t="n">
-        <v>0.747376</v>
+        <v>0.726946</v>
       </c>
     </row>
     <row r="82">
@@ -12177,13 +12177,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>1.06563</v>
+        <v>1.02096</v>
       </c>
       <c r="C82" t="n">
-        <v>0.877978</v>
+        <v>0.88948</v>
       </c>
       <c r="D82" t="n">
-        <v>0.762394</v>
+        <v>0.768478</v>
       </c>
     </row>
     <row r="83">
@@ -12191,13 +12191,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>1.0876</v>
+        <v>1.07984</v>
       </c>
       <c r="C83" t="n">
-        <v>0.91249</v>
+        <v>0.885296</v>
       </c>
       <c r="D83" t="n">
-        <v>0.804264</v>
+        <v>0.8039190000000001</v>
       </c>
     </row>
     <row r="84">
@@ -12205,13 +12205,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.99873</v>
+        <v>0.985352</v>
       </c>
       <c r="C84" t="n">
-        <v>0.920111</v>
+        <v>0.9115529999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.822338</v>
+        <v>0.792803</v>
       </c>
     </row>
     <row r="85">
@@ -12219,13 +12219,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>1.02985</v>
+        <v>0.998928</v>
       </c>
       <c r="C85" t="n">
-        <v>0.957696</v>
+        <v>0.95821</v>
       </c>
       <c r="D85" t="n">
-        <v>0.850225</v>
+        <v>0.838349</v>
       </c>
     </row>
     <row r="86">
@@ -12233,13 +12233,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>1.03926</v>
+        <v>1.08778</v>
       </c>
       <c r="C86" t="n">
-        <v>0.972262</v>
+        <v>0.984922</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8706429999999999</v>
+        <v>0.835672</v>
       </c>
     </row>
     <row r="87">
@@ -12247,13 +12247,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>1.09222</v>
+        <v>1.0672</v>
       </c>
       <c r="C87" t="n">
-        <v>1.00705</v>
+        <v>1.03922</v>
       </c>
       <c r="D87" t="n">
-        <v>0.886002</v>
+        <v>0.861897</v>
       </c>
     </row>
     <row r="88">
@@ -12261,13 +12261,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>1.09689</v>
+        <v>1.0881</v>
       </c>
       <c r="C88" t="n">
-        <v>1.05397</v>
+        <v>1.03909</v>
       </c>
       <c r="D88" t="n">
-        <v>0.900573</v>
+        <v>0.875668</v>
       </c>
     </row>
     <row r="89">
@@ -12275,13 +12275,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.12449</v>
+        <v>1.13945</v>
       </c>
       <c r="C89" t="n">
-        <v>1.08111</v>
+        <v>1.06363</v>
       </c>
       <c r="D89" t="n">
-        <v>0.908537</v>
+        <v>0.9161629999999999</v>
       </c>
     </row>
     <row r="90">
@@ -12289,13 +12289,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.1733</v>
+        <v>1.15898</v>
       </c>
       <c r="C90" t="n">
-        <v>1.11791</v>
+        <v>1.10031</v>
       </c>
       <c r="D90" t="n">
-        <v>0.957036</v>
+        <v>0.939694</v>
       </c>
     </row>
     <row r="91">
@@ -12303,13 +12303,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>1.17722</v>
+        <v>1.1798</v>
       </c>
       <c r="C91" t="n">
-        <v>1.10985</v>
+        <v>1.13468</v>
       </c>
       <c r="D91" t="n">
-        <v>0.950794</v>
+        <v>0.971789</v>
       </c>
     </row>
     <row r="92">
@@ -12317,13 +12317,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>1.27841</v>
+        <v>1.2249</v>
       </c>
       <c r="C92" t="n">
-        <v>1.04537</v>
+        <v>1.03294</v>
       </c>
       <c r="D92" t="n">
-        <v>0.947831</v>
+        <v>0.962198</v>
       </c>
     </row>
     <row r="93">
@@ -12331,13 +12331,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>1.24912</v>
+        <v>1.26034</v>
       </c>
       <c r="C93" t="n">
-        <v>1.0524</v>
+        <v>1.07226</v>
       </c>
       <c r="D93" t="n">
-        <v>0.995615</v>
+        <v>0.996886</v>
       </c>
     </row>
     <row r="94">
@@ -12345,13 +12345,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>1.29138</v>
+        <v>1.30002</v>
       </c>
       <c r="C94" t="n">
-        <v>1.08805</v>
+        <v>1.12995</v>
       </c>
       <c r="D94" t="n">
-        <v>0.989868</v>
+        <v>0.9963689999999999</v>
       </c>
     </row>
     <row r="95">
@@ -12359,13 +12359,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>1.32098</v>
+        <v>1.29461</v>
       </c>
       <c r="C95" t="n">
-        <v>1.12973</v>
+        <v>1.10188</v>
       </c>
       <c r="D95" t="n">
-        <v>1.01437</v>
+        <v>1.02848</v>
       </c>
     </row>
     <row r="96">
@@ -12373,13 +12373,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>1.32097</v>
+        <v>1.31053</v>
       </c>
       <c r="C96" t="n">
-        <v>1.14309</v>
+        <v>1.13525</v>
       </c>
       <c r="D96" t="n">
-        <v>1.02739</v>
+        <v>1.02232</v>
       </c>
     </row>
     <row r="97">
@@ -12387,13 +12387,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>1.3503</v>
+        <v>1.39366</v>
       </c>
       <c r="C97" t="n">
-        <v>1.16298</v>
+        <v>1.17322</v>
       </c>
       <c r="D97" t="n">
-        <v>1.0499</v>
+        <v>1.07731</v>
       </c>
     </row>
     <row r="98">
@@ -12401,13 +12401,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>1.24481</v>
+        <v>1.26415</v>
       </c>
       <c r="C98" t="n">
-        <v>1.1904</v>
+        <v>1.17735</v>
       </c>
       <c r="D98" t="n">
-        <v>1.0555</v>
+        <v>1.09764</v>
       </c>
     </row>
     <row r="99">
@@ -12415,13 +12415,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>1.26286</v>
+        <v>1.27475</v>
       </c>
       <c r="C99" t="n">
-        <v>1.19558</v>
+        <v>1.23797</v>
       </c>
       <c r="D99" t="n">
-        <v>1.09953</v>
+        <v>1.07248</v>
       </c>
     </row>
     <row r="100">
@@ -12429,13 +12429,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>1.28306</v>
+        <v>1.29493</v>
       </c>
       <c r="C100" t="n">
-        <v>1.25951</v>
+        <v>1.24855</v>
       </c>
       <c r="D100" t="n">
-        <v>1.1128</v>
+        <v>1.12442</v>
       </c>
     </row>
     <row r="101">
@@ -12443,13 +12443,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>1.32907</v>
+        <v>1.31637</v>
       </c>
       <c r="C101" t="n">
-        <v>1.27648</v>
+        <v>1.26923</v>
       </c>
       <c r="D101" t="n">
-        <v>1.12641</v>
+        <v>1.13691</v>
       </c>
     </row>
     <row r="102">
@@ -12457,13 +12457,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>1.32578</v>
+        <v>1.35482</v>
       </c>
       <c r="C102" t="n">
-        <v>1.31169</v>
+        <v>1.32775</v>
       </c>
       <c r="D102" t="n">
-        <v>1.14571</v>
+        <v>1.15277</v>
       </c>
     </row>
     <row r="103">
@@ -12471,13 +12471,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>1.36269</v>
+        <v>1.34877</v>
       </c>
       <c r="C103" t="n">
-        <v>1.34671</v>
+        <v>1.32352</v>
       </c>
       <c r="D103" t="n">
-        <v>1.15692</v>
+        <v>1.18195</v>
       </c>
     </row>
     <row r="104">
@@ -12485,13 +12485,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>1.38911</v>
+        <v>1.42817</v>
       </c>
       <c r="C104" t="n">
-        <v>1.34049</v>
+        <v>1.37182</v>
       </c>
       <c r="D104" t="n">
-        <v>1.16351</v>
+        <v>1.17934</v>
       </c>
     </row>
     <row r="105">
@@ -12499,13 +12499,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>1.40382</v>
+        <v>1.44897</v>
       </c>
       <c r="C105" t="n">
-        <v>1.40228</v>
+        <v>1.4225</v>
       </c>
       <c r="D105" t="n">
-        <v>1.22589</v>
+        <v>1.2127</v>
       </c>
     </row>
     <row r="106">
@@ -12513,13 +12513,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>1.45486</v>
+        <v>1.42192</v>
       </c>
       <c r="C106" t="n">
-        <v>1.41798</v>
+        <v>1.4384</v>
       </c>
       <c r="D106" t="n">
-        <v>1.23524</v>
+        <v>1.23355</v>
       </c>
     </row>
     <row r="107">
@@ -12527,13 +12527,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>1.46821</v>
+        <v>1.51664</v>
       </c>
       <c r="C107" t="n">
-        <v>1.25458</v>
+        <v>1.32077</v>
       </c>
       <c r="D107" t="n">
-        <v>1.18754</v>
+        <v>1.18323</v>
       </c>
     </row>
     <row r="108">
@@ -12541,13 +12541,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>1.51217</v>
+        <v>1.53791</v>
       </c>
       <c r="C108" t="n">
-        <v>1.31863</v>
+        <v>1.31875</v>
       </c>
       <c r="D108" t="n">
-        <v>1.18254</v>
+        <v>1.20237</v>
       </c>
     </row>
     <row r="109">
@@ -12555,13 +12555,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>1.51859</v>
+        <v>1.59643</v>
       </c>
       <c r="C109" t="n">
-        <v>1.3474</v>
+        <v>1.32797</v>
       </c>
       <c r="D109" t="n">
-        <v>1.19377</v>
+        <v>1.24526</v>
       </c>
     </row>
     <row r="110">
@@ -12569,13 +12569,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>1.58958</v>
+        <v>1.58174</v>
       </c>
       <c r="C110" t="n">
-        <v>1.34945</v>
+        <v>1.36805</v>
       </c>
       <c r="D110" t="n">
-        <v>1.21029</v>
+        <v>1.244</v>
       </c>
     </row>
     <row r="111">
@@ -12583,13 +12583,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>1.60745</v>
+        <v>1.621</v>
       </c>
       <c r="C111" t="n">
-        <v>1.34172</v>
+        <v>1.35365</v>
       </c>
       <c r="D111" t="n">
-        <v>1.24821</v>
+        <v>1.24327</v>
       </c>
     </row>
     <row r="112">
@@ -12597,13 +12597,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>1.45733</v>
+        <v>1.46846</v>
       </c>
       <c r="C112" t="n">
-        <v>1.40926</v>
+        <v>1.42183</v>
       </c>
       <c r="D112" t="n">
-        <v>1.27071</v>
+        <v>1.27398</v>
       </c>
     </row>
     <row r="113">
@@ -12611,13 +12611,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>1.4441</v>
+        <v>1.5225</v>
       </c>
       <c r="C113" t="n">
-        <v>1.44515</v>
+        <v>1.4411</v>
       </c>
       <c r="D113" t="n">
-        <v>1.30733</v>
+        <v>1.27566</v>
       </c>
     </row>
     <row r="114">
@@ -12625,13 +12625,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>1.47181</v>
+        <v>1.53156</v>
       </c>
       <c r="C114" t="n">
-        <v>1.42357</v>
+        <v>1.46219</v>
       </c>
       <c r="D114" t="n">
-        <v>1.28519</v>
+        <v>1.32248</v>
       </c>
     </row>
     <row r="115">
@@ -12639,13 +12639,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>1.54924</v>
+        <v>1.5839</v>
       </c>
       <c r="C115" t="n">
-        <v>1.45543</v>
+        <v>1.48668</v>
       </c>
       <c r="D115" t="n">
-        <v>1.31857</v>
+        <v>1.33645</v>
       </c>
     </row>
     <row r="116">
@@ -12653,13 +12653,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>1.53121</v>
+        <v>1.55343</v>
       </c>
       <c r="C116" t="n">
-        <v>1.54234</v>
+        <v>1.50676</v>
       </c>
       <c r="D116" t="n">
-        <v>1.34067</v>
+        <v>1.33808</v>
       </c>
     </row>
     <row r="117">
@@ -12667,13 +12667,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>1.54307</v>
+        <v>1.55478</v>
       </c>
       <c r="C117" t="n">
-        <v>1.55327</v>
+        <v>1.54949</v>
       </c>
       <c r="D117" t="n">
-        <v>1.34041</v>
+        <v>1.36269</v>
       </c>
     </row>
     <row r="118">
@@ -12681,13 +12681,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>1.57102</v>
+        <v>1.59453</v>
       </c>
       <c r="C118" t="n">
-        <v>1.60669</v>
+        <v>1.5708</v>
       </c>
       <c r="D118" t="n">
-        <v>1.40268</v>
+        <v>1.39547</v>
       </c>
     </row>
     <row r="119">
@@ -12695,13 +12695,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>1.59794</v>
+        <v>1.65791</v>
       </c>
       <c r="C119" t="n">
-        <v>1.623</v>
+        <v>1.63216</v>
       </c>
       <c r="D119" t="n">
-        <v>1.40407</v>
+        <v>1.43004</v>
       </c>
     </row>
   </sheetData>
@@ -12749,13 +12749,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.551237</v>
+        <v>0.562805</v>
       </c>
       <c r="C2" t="n">
-        <v>0.30753</v>
+        <v>0.304685</v>
       </c>
       <c r="D2" t="n">
-        <v>0.244138</v>
+        <v>0.245426</v>
       </c>
     </row>
     <row r="3">
@@ -12763,13 +12763,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.381141</v>
+        <v>0.37845</v>
       </c>
       <c r="C3" t="n">
-        <v>0.312553</v>
+        <v>0.314993</v>
       </c>
       <c r="D3" t="n">
-        <v>0.262915</v>
+        <v>0.245962</v>
       </c>
     </row>
     <row r="4">
@@ -12777,13 +12777,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.38599</v>
+        <v>0.401729</v>
       </c>
       <c r="C4" t="n">
-        <v>0.324124</v>
+        <v>0.321315</v>
       </c>
       <c r="D4" t="n">
-        <v>0.24876</v>
+        <v>0.253287</v>
       </c>
     </row>
     <row r="5">
@@ -12791,13 +12791,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.40414</v>
+        <v>0.392145</v>
       </c>
       <c r="C5" t="n">
-        <v>0.328969</v>
+        <v>0.332085</v>
       </c>
       <c r="D5" t="n">
-        <v>0.260844</v>
+        <v>0.26353</v>
       </c>
     </row>
     <row r="6">
@@ -12805,13 +12805,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.42022</v>
+        <v>0.427848</v>
       </c>
       <c r="C6" t="n">
-        <v>0.356262</v>
+        <v>0.332891</v>
       </c>
       <c r="D6" t="n">
-        <v>0.263417</v>
+        <v>0.273786</v>
       </c>
     </row>
     <row r="7">
@@ -12819,13 +12819,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.435373</v>
+        <v>0.434401</v>
       </c>
       <c r="C7" t="n">
-        <v>0.359387</v>
+        <v>0.352881</v>
       </c>
       <c r="D7" t="n">
-        <v>0.278061</v>
+        <v>0.273246</v>
       </c>
     </row>
     <row r="8">
@@ -12833,13 +12833,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.451708</v>
+        <v>0.441556</v>
       </c>
       <c r="C8" t="n">
-        <v>0.374299</v>
+        <v>0.390619</v>
       </c>
       <c r="D8" t="n">
-        <v>0.285577</v>
+        <v>0.280546</v>
       </c>
     </row>
     <row r="9">
@@ -12847,13 +12847,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.465193</v>
+        <v>0.465605</v>
       </c>
       <c r="C9" t="n">
-        <v>0.392741</v>
+        <v>0.405515</v>
       </c>
       <c r="D9" t="n">
-        <v>0.296129</v>
+        <v>0.294845</v>
       </c>
     </row>
     <row r="10">
@@ -12861,13 +12861,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.483435</v>
+        <v>0.476509</v>
       </c>
       <c r="C10" t="n">
-        <v>0.433648</v>
+        <v>0.436521</v>
       </c>
       <c r="D10" t="n">
-        <v>0.30518</v>
+        <v>0.306604</v>
       </c>
     </row>
     <row r="11">
@@ -12875,13 +12875,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.491168</v>
+        <v>0.493252</v>
       </c>
       <c r="C11" t="n">
-        <v>0.309224</v>
+        <v>0.320201</v>
       </c>
       <c r="D11" t="n">
-        <v>0.251668</v>
+        <v>0.244532</v>
       </c>
     </row>
     <row r="12">
@@ -12889,13 +12889,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.513335</v>
+        <v>0.525905</v>
       </c>
       <c r="C12" t="n">
-        <v>0.320529</v>
+        <v>0.325773</v>
       </c>
       <c r="D12" t="n">
-        <v>0.244767</v>
+        <v>0.266929</v>
       </c>
     </row>
     <row r="13">
@@ -12903,13 +12903,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.549047</v>
+        <v>0.556723</v>
       </c>
       <c r="C13" t="n">
-        <v>0.324528</v>
+        <v>0.335327</v>
       </c>
       <c r="D13" t="n">
-        <v>0.265812</v>
+        <v>0.263687</v>
       </c>
     </row>
     <row r="14">
@@ -12917,13 +12917,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.558018</v>
+        <v>0.559442</v>
       </c>
       <c r="C14" t="n">
-        <v>0.34023</v>
+        <v>0.346503</v>
       </c>
       <c r="D14" t="n">
-        <v>0.264133</v>
+        <v>0.261867</v>
       </c>
     </row>
     <row r="15">
@@ -12931,13 +12931,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.576507</v>
+        <v>0.580466</v>
       </c>
       <c r="C15" t="n">
-        <v>0.357259</v>
+        <v>0.360365</v>
       </c>
       <c r="D15" t="n">
-        <v>0.266698</v>
+        <v>0.278553</v>
       </c>
     </row>
     <row r="16">
@@ -12945,13 +12945,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.600612</v>
+        <v>0.602701</v>
       </c>
       <c r="C16" t="n">
-        <v>0.38621</v>
+        <v>0.370712</v>
       </c>
       <c r="D16" t="n">
-        <v>0.284518</v>
+        <v>0.294838</v>
       </c>
     </row>
     <row r="17">
@@ -12959,13 +12959,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.407531</v>
+        <v>0.391724</v>
       </c>
       <c r="C17" t="n">
-        <v>0.379623</v>
+        <v>0.388459</v>
       </c>
       <c r="D17" t="n">
-        <v>0.299143</v>
+        <v>0.281504</v>
       </c>
     </row>
     <row r="18">
@@ -12973,13 +12973,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.411059</v>
+        <v>0.396297</v>
       </c>
       <c r="C18" t="n">
-        <v>0.391616</v>
+        <v>0.410203</v>
       </c>
       <c r="D18" t="n">
-        <v>0.28423</v>
+        <v>0.297128</v>
       </c>
     </row>
     <row r="19">
@@ -12987,13 +12987,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.418909</v>
+        <v>0.409158</v>
       </c>
       <c r="C19" t="n">
-        <v>0.417073</v>
+        <v>0.428879</v>
       </c>
       <c r="D19" t="n">
-        <v>0.305299</v>
+        <v>0.304383</v>
       </c>
     </row>
     <row r="20">
@@ -13001,13 +13001,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.416028</v>
+        <v>0.442307</v>
       </c>
       <c r="C20" t="n">
-        <v>0.438922</v>
+        <v>0.47346</v>
       </c>
       <c r="D20" t="n">
-        <v>0.322384</v>
+        <v>0.31348</v>
       </c>
     </row>
     <row r="21">
@@ -13015,13 +13015,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.444165</v>
+        <v>0.467136</v>
       </c>
       <c r="C21" t="n">
-        <v>0.451526</v>
+        <v>0.453604</v>
       </c>
       <c r="D21" t="n">
-        <v>0.328203</v>
+        <v>0.328159</v>
       </c>
     </row>
     <row r="22">
@@ -13029,13 +13029,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.469251</v>
+        <v>0.447043</v>
       </c>
       <c r="C22" t="n">
-        <v>0.473637</v>
+        <v>0.476505</v>
       </c>
       <c r="D22" t="n">
-        <v>0.344856</v>
+        <v>0.343285</v>
       </c>
     </row>
     <row r="23">
@@ -13043,13 +13043,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.47592</v>
+        <v>0.465623</v>
       </c>
       <c r="C23" t="n">
-        <v>0.490247</v>
+        <v>0.512927</v>
       </c>
       <c r="D23" t="n">
-        <v>0.358014</v>
+        <v>0.350442</v>
       </c>
     </row>
     <row r="24">
@@ -13057,13 +13057,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.481506</v>
+        <v>0.490471</v>
       </c>
       <c r="C24" t="n">
-        <v>0.522224</v>
+        <v>0.537147</v>
       </c>
       <c r="D24" t="n">
-        <v>0.357148</v>
+        <v>0.373401</v>
       </c>
     </row>
     <row r="25">
@@ -13071,13 +13071,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.518447</v>
+        <v>0.521113</v>
       </c>
       <c r="C25" t="n">
-        <v>0.534918</v>
+        <v>0.537278</v>
       </c>
       <c r="D25" t="n">
-        <v>0.376574</v>
+        <v>0.387059</v>
       </c>
     </row>
     <row r="26">
@@ -13085,13 +13085,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.521056</v>
+        <v>0.524506</v>
       </c>
       <c r="C26" t="n">
-        <v>0.343179</v>
+        <v>0.355558</v>
       </c>
       <c r="D26" t="n">
-        <v>0.279</v>
+        <v>0.276578</v>
       </c>
     </row>
     <row r="27">
@@ -13099,13 +13099,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.540104</v>
+        <v>0.540945</v>
       </c>
       <c r="C27" t="n">
-        <v>0.366917</v>
+        <v>0.348191</v>
       </c>
       <c r="D27" t="n">
-        <v>0.274537</v>
+        <v>0.276395</v>
       </c>
     </row>
     <row r="28">
@@ -13113,13 +13113,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.585749</v>
+        <v>0.567371</v>
       </c>
       <c r="C28" t="n">
-        <v>0.358254</v>
+        <v>0.373521</v>
       </c>
       <c r="D28" t="n">
-        <v>0.281842</v>
+        <v>0.287566</v>
       </c>
     </row>
     <row r="29">
@@ -13127,13 +13127,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.591872</v>
+        <v>0.589333</v>
       </c>
       <c r="C29" t="n">
-        <v>0.391027</v>
+        <v>0.358734</v>
       </c>
       <c r="D29" t="n">
-        <v>0.289965</v>
+        <v>0.283628</v>
       </c>
     </row>
     <row r="30">
@@ -13141,13 +13141,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.611519</v>
+        <v>0.601137</v>
       </c>
       <c r="C30" t="n">
-        <v>0.394564</v>
+        <v>0.382452</v>
       </c>
       <c r="D30" t="n">
-        <v>0.293004</v>
+        <v>0.291409</v>
       </c>
     </row>
     <row r="31">
@@ -13155,13 +13155,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.622491</v>
+        <v>0.6156779999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.393773</v>
+        <v>0.393997</v>
       </c>
       <c r="D31" t="n">
-        <v>0.30337</v>
+        <v>0.305578</v>
       </c>
     </row>
     <row r="32">
@@ -13169,13 +13169,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.491849</v>
+        <v>0.455823</v>
       </c>
       <c r="C32" t="n">
-        <v>0.422455</v>
+        <v>0.424934</v>
       </c>
       <c r="D32" t="n">
-        <v>0.315711</v>
+        <v>0.304684</v>
       </c>
     </row>
     <row r="33">
@@ -13183,13 +13183,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.477722</v>
+        <v>0.467729</v>
       </c>
       <c r="C33" t="n">
-        <v>0.439013</v>
+        <v>0.457306</v>
       </c>
       <c r="D33" t="n">
-        <v>0.328457</v>
+        <v>0.329296</v>
       </c>
     </row>
     <row r="34">
@@ -13197,13 +13197,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.490123</v>
+        <v>0.4992</v>
       </c>
       <c r="C34" t="n">
-        <v>0.445797</v>
+        <v>0.489506</v>
       </c>
       <c r="D34" t="n">
-        <v>0.333972</v>
+        <v>0.328462</v>
       </c>
     </row>
     <row r="35">
@@ -13211,13 +13211,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.529012</v>
+        <v>0.510538</v>
       </c>
       <c r="C35" t="n">
-        <v>0.497469</v>
+        <v>0.476845</v>
       </c>
       <c r="D35" t="n">
-        <v>0.353251</v>
+        <v>0.340653</v>
       </c>
     </row>
     <row r="36">
@@ -13225,13 +13225,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5634479999999999</v>
+        <v>0.531514</v>
       </c>
       <c r="C36" t="n">
-        <v>0.530529</v>
+        <v>0.501425</v>
       </c>
       <c r="D36" t="n">
-        <v>0.36674</v>
+        <v>0.378894</v>
       </c>
     </row>
     <row r="37">
@@ -13239,13 +13239,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.58112</v>
+        <v>0.546085</v>
       </c>
       <c r="C37" t="n">
-        <v>0.587765</v>
+        <v>0.53374</v>
       </c>
       <c r="D37" t="n">
-        <v>0.384803</v>
+        <v>0.387924</v>
       </c>
     </row>
     <row r="38">
@@ -13253,13 +13253,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.622934</v>
+        <v>0.574788</v>
       </c>
       <c r="C38" t="n">
-        <v>0.614864</v>
+        <v>0.572998</v>
       </c>
       <c r="D38" t="n">
-        <v>0.396592</v>
+        <v>0.406101</v>
       </c>
     </row>
     <row r="39">
@@ -13267,13 +13267,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.664815</v>
+        <v>0.618982</v>
       </c>
       <c r="C39" t="n">
-        <v>0.647105</v>
+        <v>0.605576</v>
       </c>
       <c r="D39" t="n">
-        <v>0.416397</v>
+        <v>0.421769</v>
       </c>
     </row>
     <row r="40">
@@ -13281,13 +13281,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.694701</v>
+        <v>0.633246</v>
       </c>
       <c r="C40" t="n">
-        <v>0.447297</v>
+        <v>0.442652</v>
       </c>
       <c r="D40" t="n">
-        <v>0.344096</v>
+        <v>0.33457</v>
       </c>
     </row>
     <row r="41">
@@ -13295,13 +13295,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.726171</v>
+        <v>0.6740699999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>0.48781</v>
+        <v>0.457375</v>
       </c>
       <c r="D41" t="n">
-        <v>0.36018</v>
+        <v>0.342166</v>
       </c>
     </row>
     <row r="42">
@@ -13309,13 +13309,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7683990000000001</v>
+        <v>0.7309059999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.493939</v>
+        <v>0.488608</v>
       </c>
       <c r="D42" t="n">
-        <v>0.388079</v>
+        <v>0.362488</v>
       </c>
     </row>
     <row r="43">
@@ -13323,13 +13323,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.801818</v>
+        <v>0.747779</v>
       </c>
       <c r="C43" t="n">
-        <v>0.517319</v>
+        <v>0.513914</v>
       </c>
       <c r="D43" t="n">
-        <v>0.384244</v>
+        <v>0.376423</v>
       </c>
     </row>
     <row r="44">
@@ -13337,13 +13337,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.825507</v>
+        <v>0.786348</v>
       </c>
       <c r="C44" t="n">
-        <v>0.552009</v>
+        <v>0.527516</v>
       </c>
       <c r="D44" t="n">
-        <v>0.395884</v>
+        <v>0.384876</v>
       </c>
     </row>
     <row r="45">
@@ -13351,13 +13351,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.881269</v>
+        <v>0.818373</v>
       </c>
       <c r="C45" t="n">
-        <v>0.582461</v>
+        <v>0.570659</v>
       </c>
       <c r="D45" t="n">
-        <v>0.424836</v>
+        <v>0.393203</v>
       </c>
     </row>
     <row r="46">
@@ -13365,13 +13365,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.614888</v>
+        <v>0.59832</v>
       </c>
       <c r="C46" t="n">
-        <v>0.611253</v>
+        <v>0.585676</v>
       </c>
       <c r="D46" t="n">
-        <v>0.425248</v>
+        <v>0.407488</v>
       </c>
     </row>
     <row r="47">
@@ -13379,13 +13379,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.644103</v>
+        <v>0.6329360000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>0.640525</v>
+        <v>0.624546</v>
       </c>
       <c r="D47" t="n">
-        <v>0.452491</v>
+        <v>0.437032</v>
       </c>
     </row>
     <row r="48">
@@ -13393,13 +13393,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.683098</v>
+        <v>0.6782319999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.668435</v>
+        <v>0.641889</v>
       </c>
       <c r="D48" t="n">
-        <v>0.487232</v>
+        <v>0.451844</v>
       </c>
     </row>
     <row r="49">
@@ -13407,13 +13407,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.69863</v>
+        <v>0.707236</v>
       </c>
       <c r="C49" t="n">
-        <v>0.699607</v>
+        <v>0.694983</v>
       </c>
       <c r="D49" t="n">
-        <v>0.464524</v>
+        <v>0.466918</v>
       </c>
     </row>
     <row r="50">
@@ -13421,13 +13421,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.748632</v>
+        <v>0.768892</v>
       </c>
       <c r="C50" t="n">
-        <v>0.736869</v>
+        <v>0.770384</v>
       </c>
       <c r="D50" t="n">
-        <v>0.487579</v>
+        <v>0.510907</v>
       </c>
     </row>
     <row r="51">
@@ -13435,13 +13435,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.811985</v>
+        <v>0.788207</v>
       </c>
       <c r="C51" t="n">
-        <v>0.783379</v>
+        <v>0.770633</v>
       </c>
       <c r="D51" t="n">
-        <v>0.526325</v>
+        <v>0.514108</v>
       </c>
     </row>
     <row r="52">
@@ -13449,13 +13449,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.856642</v>
+        <v>0.815715</v>
       </c>
       <c r="C52" t="n">
-        <v>0.85528</v>
+        <v>0.8567979999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.547889</v>
+        <v>0.533535</v>
       </c>
     </row>
     <row r="53">
@@ -13463,13 +13463,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8879590000000001</v>
+        <v>0.874484</v>
       </c>
       <c r="C53" t="n">
-        <v>0.880316</v>
+        <v>0.900688</v>
       </c>
       <c r="D53" t="n">
-        <v>0.569072</v>
+        <v>0.576066</v>
       </c>
     </row>
     <row r="54">
@@ -13477,13 +13477,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.934967</v>
+        <v>0.919496</v>
       </c>
       <c r="C54" t="n">
-        <v>0.67601</v>
+        <v>0.636041</v>
       </c>
       <c r="D54" t="n">
-        <v>0.456871</v>
+        <v>0.450515</v>
       </c>
     </row>
     <row r="55">
@@ -13491,13 +13491,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.975762</v>
+        <v>0.985833</v>
       </c>
       <c r="C55" t="n">
-        <v>0.69577</v>
+        <v>0.647445</v>
       </c>
       <c r="D55" t="n">
-        <v>0.466859</v>
+        <v>0.466137</v>
       </c>
     </row>
     <row r="56">
@@ -13505,13 +13505,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>1.0217</v>
+        <v>1.07757</v>
       </c>
       <c r="C56" t="n">
-        <v>0.71349</v>
+        <v>0.681243</v>
       </c>
       <c r="D56" t="n">
-        <v>0.50617</v>
+        <v>0.487842</v>
       </c>
     </row>
     <row r="57">
@@ -13519,13 +13519,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>1.09138</v>
+        <v>1.05471</v>
       </c>
       <c r="C57" t="n">
-        <v>0.769235</v>
+        <v>0.736747</v>
       </c>
       <c r="D57" t="n">
-        <v>0.503779</v>
+        <v>0.5015810000000001</v>
       </c>
     </row>
     <row r="58">
@@ -13533,13 +13533,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>1.15401</v>
+        <v>1.11756</v>
       </c>
       <c r="C58" t="n">
-        <v>0.79334</v>
+        <v>0.764827</v>
       </c>
       <c r="D58" t="n">
-        <v>0.541079</v>
+        <v>0.51509</v>
       </c>
     </row>
     <row r="59">
@@ -13547,13 +13547,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>1.20358</v>
+        <v>1.19104</v>
       </c>
       <c r="C59" t="n">
-        <v>0.824939</v>
+        <v>0.805802</v>
       </c>
       <c r="D59" t="n">
-        <v>0.542475</v>
+        <v>0.566401</v>
       </c>
     </row>
     <row r="60">
@@ -13561,13 +13561,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.856472</v>
+        <v>0.854197</v>
       </c>
       <c r="C60" t="n">
-        <v>0.897713</v>
+        <v>0.845653</v>
       </c>
       <c r="D60" t="n">
-        <v>0.597344</v>
+        <v>0.563562</v>
       </c>
     </row>
     <row r="61">
@@ -13575,13 +13575,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9397720000000001</v>
+        <v>0.888207</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9037849999999999</v>
+        <v>0.890656</v>
       </c>
       <c r="D61" t="n">
-        <v>0.606802</v>
+        <v>0.583601</v>
       </c>
     </row>
     <row r="62">
@@ -13589,13 +13589,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.929907</v>
+        <v>0.928939</v>
       </c>
       <c r="C62" t="n">
-        <v>0.965612</v>
+        <v>0.954741</v>
       </c>
       <c r="D62" t="n">
-        <v>0.630929</v>
+        <v>0.609311</v>
       </c>
     </row>
     <row r="63">
@@ -13603,13 +13603,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.985799</v>
+        <v>0.997219</v>
       </c>
       <c r="C63" t="n">
-        <v>1.04469</v>
+        <v>0.98356</v>
       </c>
       <c r="D63" t="n">
-        <v>0.666467</v>
+        <v>0.621811</v>
       </c>
     </row>
     <row r="64">
@@ -13617,13 +13617,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>1.04168</v>
+        <v>1.0387</v>
       </c>
       <c r="C64" t="n">
-        <v>1.07294</v>
+        <v>1.05343</v>
       </c>
       <c r="D64" t="n">
-        <v>0.666858</v>
+        <v>0.66542</v>
       </c>
     </row>
     <row r="65">
@@ -13631,13 +13631,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>1.09072</v>
+        <v>1.07267</v>
       </c>
       <c r="C65" t="n">
-        <v>1.15969</v>
+        <v>1.10448</v>
       </c>
       <c r="D65" t="n">
-        <v>0.71291</v>
+        <v>0.706184</v>
       </c>
     </row>
     <row r="66">
@@ -13645,13 +13645,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>1.16112</v>
+        <v>1.14247</v>
       </c>
       <c r="C66" t="n">
-        <v>1.22859</v>
+        <v>1.22323</v>
       </c>
       <c r="D66" t="n">
-        <v>0.72682</v>
+        <v>0.718788</v>
       </c>
     </row>
     <row r="67">
@@ -13659,13 +13659,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>1.25732</v>
+        <v>1.23555</v>
       </c>
       <c r="C67" t="n">
-        <v>1.33339</v>
+        <v>1.31074</v>
       </c>
       <c r="D67" t="n">
-        <v>0.798655</v>
+        <v>0.757945</v>
       </c>
     </row>
     <row r="68">
@@ -13673,13 +13673,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>1.33533</v>
+        <v>1.28431</v>
       </c>
       <c r="C68" t="n">
-        <v>0.885227</v>
+        <v>0.836496</v>
       </c>
       <c r="D68" t="n">
-        <v>0.590464</v>
+        <v>0.5776</v>
       </c>
     </row>
     <row r="69">
@@ -13687,13 +13687,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>1.51072</v>
+        <v>1.40922</v>
       </c>
       <c r="C69" t="n">
-        <v>0.90613</v>
+        <v>0.883899</v>
       </c>
       <c r="D69" t="n">
-        <v>0.615115</v>
+        <v>0.579404</v>
       </c>
     </row>
     <row r="70">
@@ -13701,13 +13701,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>1.53447</v>
+        <v>1.47564</v>
       </c>
       <c r="C70" t="n">
-        <v>0.948097</v>
+        <v>0.979648</v>
       </c>
       <c r="D70" t="n">
-        <v>0.631073</v>
+        <v>0.60685</v>
       </c>
     </row>
     <row r="71">
@@ -13715,13 +13715,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>1.69551</v>
+        <v>1.60263</v>
       </c>
       <c r="C71" t="n">
-        <v>1.01569</v>
+        <v>0.9754969999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.652372</v>
+        <v>0.659779</v>
       </c>
     </row>
     <row r="72">
@@ -13729,13 +13729,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>1.76014</v>
+        <v>1.7541</v>
       </c>
       <c r="C72" t="n">
-        <v>1.07234</v>
+        <v>1.08216</v>
       </c>
       <c r="D72" t="n">
-        <v>0.683096</v>
+        <v>0.67386</v>
       </c>
     </row>
     <row r="73">
@@ -13743,13 +13743,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>1.90611</v>
+        <v>1.87802</v>
       </c>
       <c r="C73" t="n">
-        <v>1.16572</v>
+        <v>1.13511</v>
       </c>
       <c r="D73" t="n">
-        <v>0.698049</v>
+        <v>0.706022</v>
       </c>
     </row>
     <row r="74">
@@ -13757,13 +13757,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>1.28078</v>
+        <v>1.29019</v>
       </c>
       <c r="C74" t="n">
-        <v>1.21992</v>
+        <v>1.2126</v>
       </c>
       <c r="D74" t="n">
-        <v>0.747127</v>
+        <v>0.735982</v>
       </c>
     </row>
     <row r="75">
@@ -13771,13 +13771,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>1.37314</v>
+        <v>1.31806</v>
       </c>
       <c r="C75" t="n">
-        <v>1.36701</v>
+        <v>1.32023</v>
       </c>
       <c r="D75" t="n">
-        <v>0.788658</v>
+        <v>0.769397</v>
       </c>
     </row>
     <row r="76">
@@ -13785,13 +13785,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>1.45203</v>
+        <v>1.46613</v>
       </c>
       <c r="C76" t="n">
-        <v>1.4338</v>
+        <v>1.41254</v>
       </c>
       <c r="D76" t="n">
-        <v>0.856037</v>
+        <v>0.809379</v>
       </c>
     </row>
     <row r="77">
@@ -13799,13 +13799,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>1.51336</v>
+        <v>1.51134</v>
       </c>
       <c r="C77" t="n">
-        <v>1.49961</v>
+        <v>1.53977</v>
       </c>
       <c r="D77" t="n">
-        <v>0.875492</v>
+        <v>0.864413</v>
       </c>
     </row>
     <row r="78">
@@ -13813,13 +13813,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>1.62576</v>
+        <v>1.61186</v>
       </c>
       <c r="C78" t="n">
-        <v>1.60621</v>
+        <v>1.6207</v>
       </c>
       <c r="D78" t="n">
-        <v>0.920771</v>
+        <v>0.907148</v>
       </c>
     </row>
     <row r="79">
@@ -13827,13 +13827,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>1.69753</v>
+        <v>1.65701</v>
       </c>
       <c r="C79" t="n">
-        <v>1.72742</v>
+        <v>1.71126</v>
       </c>
       <c r="D79" t="n">
-        <v>1.01284</v>
+        <v>0.962087</v>
       </c>
     </row>
     <row r="80">
@@ -13841,13 +13841,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>2.23632</v>
+        <v>1.80457</v>
       </c>
       <c r="C80" t="n">
-        <v>2.62061</v>
+        <v>1.83736</v>
       </c>
       <c r="D80" t="n">
-        <v>1.6661</v>
+        <v>1.04684</v>
       </c>
     </row>
     <row r="81">
@@ -13855,13 +13855,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>2.35532</v>
+        <v>1.88139</v>
       </c>
       <c r="C81" t="n">
-        <v>2.60279</v>
+        <v>2.01037</v>
       </c>
       <c r="D81" t="n">
-        <v>1.5275</v>
+        <v>1.09853</v>
       </c>
     </row>
     <row r="82">
@@ -13869,13 +13869,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>2.42691</v>
+        <v>2.06646</v>
       </c>
       <c r="C82" t="n">
-        <v>2.19274</v>
+        <v>2.08832</v>
       </c>
       <c r="D82" t="n">
-        <v>1.21121</v>
+        <v>1.19384</v>
       </c>
     </row>
     <row r="83">
@@ -13883,13 +13883,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>2.14856</v>
+        <v>2.08742</v>
       </c>
       <c r="C83" t="n">
-        <v>1.54002</v>
+        <v>1.50258</v>
       </c>
       <c r="D83" t="n">
-        <v>0.995902</v>
+        <v>0.968147</v>
       </c>
     </row>
     <row r="84">
@@ -13897,13 +13897,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>2.28449</v>
+        <v>2.22907</v>
       </c>
       <c r="C84" t="n">
-        <v>1.63655</v>
+        <v>1.64631</v>
       </c>
       <c r="D84" t="n">
-        <v>1.00004</v>
+        <v>1.00621</v>
       </c>
     </row>
     <row r="85">
@@ -13911,13 +13911,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>2.376</v>
+        <v>2.36147</v>
       </c>
       <c r="C85" t="n">
-        <v>1.80541</v>
+        <v>1.71341</v>
       </c>
       <c r="D85" t="n">
-        <v>1.0749</v>
+        <v>1.05391</v>
       </c>
     </row>
     <row r="86">
@@ -13925,13 +13925,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>2.55628</v>
+        <v>2.53207</v>
       </c>
       <c r="C86" t="n">
-        <v>1.82135</v>
+        <v>1.79919</v>
       </c>
       <c r="D86" t="n">
-        <v>1.1136</v>
+        <v>1.08299</v>
       </c>
     </row>
     <row r="87">
@@ -13939,13 +13939,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>2.66584</v>
+        <v>2.62297</v>
       </c>
       <c r="C87" t="n">
-        <v>1.89998</v>
+        <v>1.85493</v>
       </c>
       <c r="D87" t="n">
-        <v>1.20757</v>
+        <v>1.13773</v>
       </c>
     </row>
     <row r="88">
@@ -13953,13 +13953,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>2.85182</v>
+        <v>2.78326</v>
       </c>
       <c r="C88" t="n">
-        <v>2.10074</v>
+        <v>1.99008</v>
       </c>
       <c r="D88" t="n">
-        <v>1.22617</v>
+        <v>1.1856</v>
       </c>
     </row>
     <row r="89">
@@ -13967,13 +13967,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>1.90512</v>
+        <v>1.89856</v>
       </c>
       <c r="C89" t="n">
-        <v>2.14894</v>
+        <v>2.11338</v>
       </c>
       <c r="D89" t="n">
-        <v>1.27161</v>
+        <v>1.27321</v>
       </c>
     </row>
     <row r="90">
@@ -13981,13 +13981,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>1.96418</v>
+        <v>2.00879</v>
       </c>
       <c r="C90" t="n">
-        <v>2.27148</v>
+        <v>2.25125</v>
       </c>
       <c r="D90" t="n">
-        <v>1.38619</v>
+        <v>1.32714</v>
       </c>
     </row>
     <row r="91">
@@ -13995,13 +13995,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>2.04999</v>
+        <v>2.0672</v>
       </c>
       <c r="C91" t="n">
-        <v>2.38058</v>
+        <v>2.4098</v>
       </c>
       <c r="D91" t="n">
-        <v>1.42335</v>
+        <v>1.37182</v>
       </c>
     </row>
     <row r="92">
@@ -14009,13 +14009,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>2.13042</v>
+        <v>2.18917</v>
       </c>
       <c r="C92" t="n">
-        <v>2.54522</v>
+        <v>2.50403</v>
       </c>
       <c r="D92" t="n">
-        <v>1.47336</v>
+        <v>1.42531</v>
       </c>
     </row>
     <row r="93">
@@ -14023,13 +14023,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>2.20942</v>
+        <v>2.26809</v>
       </c>
       <c r="C93" t="n">
-        <v>2.63058</v>
+        <v>2.63542</v>
       </c>
       <c r="D93" t="n">
-        <v>1.53319</v>
+        <v>1.5104</v>
       </c>
     </row>
     <row r="94">
@@ -14037,13 +14037,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>2.34337</v>
+        <v>2.40448</v>
       </c>
       <c r="C94" t="n">
-        <v>2.71109</v>
+        <v>2.74556</v>
       </c>
       <c r="D94" t="n">
-        <v>1.59685</v>
+        <v>1.60394</v>
       </c>
     </row>
     <row r="95">
@@ -14051,13 +14051,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>2.44747</v>
+        <v>2.4547</v>
       </c>
       <c r="C95" t="n">
-        <v>2.89951</v>
+        <v>2.93237</v>
       </c>
       <c r="D95" t="n">
-        <v>1.66319</v>
+        <v>1.64608</v>
       </c>
     </row>
     <row r="96">
@@ -14065,13 +14065,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>2.53257</v>
+        <v>2.58334</v>
       </c>
       <c r="C96" t="n">
-        <v>3.04621</v>
+        <v>3.07847</v>
       </c>
       <c r="D96" t="n">
-        <v>1.77843</v>
+        <v>1.75558</v>
       </c>
     </row>
     <row r="97">
@@ -14079,13 +14079,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>2.64976</v>
+        <v>2.68583</v>
       </c>
       <c r="C97" t="n">
-        <v>1.94505</v>
+        <v>1.97791</v>
       </c>
       <c r="D97" t="n">
-        <v>1.33945</v>
+        <v>1.33027</v>
       </c>
     </row>
     <row r="98">
@@ -14093,13 +14093,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>2.81955</v>
+        <v>2.88195</v>
       </c>
       <c r="C98" t="n">
-        <v>2.01739</v>
+        <v>2.03931</v>
       </c>
       <c r="D98" t="n">
-        <v>1.34511</v>
+        <v>1.38792</v>
       </c>
     </row>
     <row r="99">
@@ -14107,13 +14107,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>2.90567</v>
+        <v>3.0317</v>
       </c>
       <c r="C99" t="n">
-        <v>2.03958</v>
+        <v>2.17066</v>
       </c>
       <c r="D99" t="n">
-        <v>1.42647</v>
+        <v>1.40682</v>
       </c>
     </row>
     <row r="100">
@@ -14121,13 +14121,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>3.05148</v>
+        <v>3.08728</v>
       </c>
       <c r="C100" t="n">
-        <v>2.15399</v>
+        <v>2.2709</v>
       </c>
       <c r="D100" t="n">
-        <v>1.44393</v>
+        <v>1.45952</v>
       </c>
     </row>
     <row r="101">
@@ -14135,13 +14135,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>3.18906</v>
+        <v>3.23521</v>
       </c>
       <c r="C101" t="n">
-        <v>2.26422</v>
+        <v>2.31213</v>
       </c>
       <c r="D101" t="n">
-        <v>1.49854</v>
+        <v>1.54227</v>
       </c>
     </row>
     <row r="102">
@@ -14149,13 +14149,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>3.34357</v>
+        <v>3.42384</v>
       </c>
       <c r="C102" t="n">
-        <v>2.35531</v>
+        <v>2.37087</v>
       </c>
       <c r="D102" t="n">
-        <v>1.56891</v>
+        <v>1.58644</v>
       </c>
     </row>
     <row r="103">
@@ -14163,13 +14163,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>2.19806</v>
+        <v>2.21099</v>
       </c>
       <c r="C103" t="n">
-        <v>2.45247</v>
+        <v>2.48628</v>
       </c>
       <c r="D103" t="n">
-        <v>1.599</v>
+        <v>1.624</v>
       </c>
     </row>
     <row r="104">
@@ -14177,13 +14177,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>2.32156</v>
+        <v>2.33899</v>
       </c>
       <c r="C104" t="n">
-        <v>2.5608</v>
+        <v>2.63121</v>
       </c>
       <c r="D104" t="n">
-        <v>1.66473</v>
+        <v>1.68576</v>
       </c>
     </row>
     <row r="105">
@@ -14191,13 +14191,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>2.40069</v>
+        <v>2.49684</v>
       </c>
       <c r="C105" t="n">
-        <v>2.65765</v>
+        <v>2.71477</v>
       </c>
       <c r="D105" t="n">
-        <v>1.73206</v>
+        <v>1.74385</v>
       </c>
     </row>
     <row r="106">
@@ -14205,13 +14205,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>2.46216</v>
+        <v>2.52072</v>
       </c>
       <c r="C106" t="n">
-        <v>2.80756</v>
+        <v>2.79575</v>
       </c>
       <c r="D106" t="n">
-        <v>1.78701</v>
+        <v>1.82728</v>
       </c>
     </row>
     <row r="107">
@@ -14219,13 +14219,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>2.56958</v>
+        <v>2.61181</v>
       </c>
       <c r="C107" t="n">
-        <v>2.89934</v>
+        <v>2.92836</v>
       </c>
       <c r="D107" t="n">
-        <v>1.83546</v>
+        <v>1.86234</v>
       </c>
     </row>
     <row r="108">
@@ -14233,13 +14233,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>2.68622</v>
+        <v>2.713</v>
       </c>
       <c r="C108" t="n">
-        <v>3.04925</v>
+        <v>3.09137</v>
       </c>
       <c r="D108" t="n">
-        <v>1.90394</v>
+        <v>1.88325</v>
       </c>
     </row>
     <row r="109">
@@ -14247,13 +14247,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>2.75858</v>
+        <v>2.78343</v>
       </c>
       <c r="C109" t="n">
-        <v>3.19776</v>
+        <v>3.20472</v>
       </c>
       <c r="D109" t="n">
-        <v>1.97278</v>
+        <v>2.00311</v>
       </c>
     </row>
     <row r="110">
@@ -14261,13 +14261,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>2.89656</v>
+        <v>2.90424</v>
       </c>
       <c r="C110" t="n">
-        <v>3.28831</v>
+        <v>3.38945</v>
       </c>
       <c r="D110" t="n">
-        <v>2.09523</v>
+        <v>2.08761</v>
       </c>
     </row>
     <row r="111">
@@ -14275,13 +14275,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>3.02941</v>
+        <v>2.99981</v>
       </c>
       <c r="C111" t="n">
-        <v>2.20904</v>
+        <v>2.22382</v>
       </c>
       <c r="D111" t="n">
-        <v>1.63081</v>
+        <v>1.60065</v>
       </c>
     </row>
     <row r="112">
@@ -14289,13 +14289,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>3.13705</v>
+        <v>3.1568</v>
       </c>
       <c r="C112" t="n">
-        <v>2.28987</v>
+        <v>2.28622</v>
       </c>
       <c r="D112" t="n">
-        <v>1.65221</v>
+        <v>1.66144</v>
       </c>
     </row>
     <row r="113">
@@ -14303,13 +14303,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>3.31511</v>
+        <v>3.2495</v>
       </c>
       <c r="C113" t="n">
-        <v>2.38233</v>
+        <v>2.38686</v>
       </c>
       <c r="D113" t="n">
-        <v>1.71019</v>
+        <v>1.69225</v>
       </c>
     </row>
     <row r="114">
@@ -14317,13 +14317,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>3.43227</v>
+        <v>3.45038</v>
       </c>
       <c r="C114" t="n">
-        <v>2.46914</v>
+        <v>2.45167</v>
       </c>
       <c r="D114" t="n">
-        <v>1.75849</v>
+        <v>1.74042</v>
       </c>
     </row>
     <row r="115">
@@ -14331,13 +14331,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>3.54739</v>
+        <v>3.54663</v>
       </c>
       <c r="C115" t="n">
-        <v>2.57218</v>
+        <v>2.53698</v>
       </c>
       <c r="D115" t="n">
-        <v>1.8057</v>
+        <v>1.75234</v>
       </c>
     </row>
     <row r="116">
@@ -14345,13 +14345,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>3.72922</v>
+        <v>3.70566</v>
       </c>
       <c r="C116" t="n">
-        <v>2.66608</v>
+        <v>2.67597</v>
       </c>
       <c r="D116" t="n">
-        <v>1.82673</v>
+        <v>1.83064</v>
       </c>
     </row>
     <row r="117">
@@ -14359,13 +14359,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>2.50717</v>
+        <v>2.50462</v>
       </c>
       <c r="C117" t="n">
-        <v>2.79372</v>
+        <v>2.72906</v>
       </c>
       <c r="D117" t="n">
-        <v>1.92094</v>
+        <v>1.90548</v>
       </c>
     </row>
     <row r="118">
@@ -14373,13 +14373,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>2.61961</v>
+        <v>2.59506</v>
       </c>
       <c r="C118" t="n">
-        <v>2.89889</v>
+        <v>2.83921</v>
       </c>
       <c r="D118" t="n">
-        <v>1.98652</v>
+        <v>1.98883</v>
       </c>
     </row>
     <row r="119">
@@ -14387,13 +14387,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>2.74585</v>
+        <v>2.64017</v>
       </c>
       <c r="C119" t="n">
-        <v>2.96456</v>
+        <v>3.0216</v>
       </c>
       <c r="D119" t="n">
-        <v>2.02707</v>
+        <v>2.02971</v>
       </c>
     </row>
   </sheetData>
